--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -25962,7 +25962,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'zmla', 'va100m', 'vas', 'evspsblpot', 'hfss', 'hfls', 'evspsbl', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'clt', 'tauv', 'tauu', 'ua100m', 'snm', 'sund', 'snw', 'tas', 'uas', 'ts']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'zmla', 'va100m', 'vas', 'hfss', 'hfls', 'evspsbl', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'clt', 'tauv', 'tauu', 'ua100m', 'snm', 'sund', 'snw', 'tas', 'uas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -50594,7 +50594,7 @@
       </c>
       <c r="J1551" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'hfss', 'hfls']</t>
+          <t>['rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -50710,7 +50710,7 @@
       </c>
       <c r="J1555" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'hfss', 'hfls']</t>
+          <t>['rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -50854,7 +50854,7 @@
       </c>
       <c r="J1560" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'hfss', 'hfls']</t>
+          <t>['rsds', 'rlds']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['clwvi', 'clivi', 'clt', 'tasmax', 'tasmin', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'zmla', 'zg500', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'ps', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
+          <t>['snw', 'snc', 'snd', 'zmla', 'zg500', 'hfss', 'rsdt', 'sfcWind', 'mrso', 'mrro', 'rsus', 'rsut', 'hfls', 'rlds', 'rlut', 'rsds', 'prhmax', 'rlus', 'prc', 'prw', 'psl', 'ps', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'mrfso', 'mrros', 'huss', 'hus850', 'pr', 'sfcWindmax', 'snm', 'clwvi', 'tasmax', 'tasmin', 'sund', 'ta850', 'ts', 'ua200', 'ta200', 'ta500', 'clivi', 'clt', 'tas']</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd']</t>
+          <t>['ta850', 'hfls', 'hus850', 'tasmax', 'tasmin', 'tas', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'mrfso', 'hfss', 'huss', 'clt', 'rsdt', 'sfcWind', 'snm', 'snw', 'sfcWindmax', 'rsus', 'rsut', 'snd', 'snc', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['clt', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr']</t>
+          <t>['sfcWindmax', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta500', 'pr', 'rsus', 'rlus', 'rsut', 'psl', 'hus850', 'zg200', 'va850', 'mrro', 'vas', 'zg500', 'va500', 'mrros', 'hfss', 'hfls', 'mrfso', 'mrso', 'huss', 'sund', 'ta200', 'ua200', 'ua500', 'ua850', 'ta850', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'rsds', 'rlds', 'rsdt', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd', 'clivi', 'clt', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'huss', 'hus850', 'mrro', 'wsgsmax', 'zmla', 'zg200', 'zg500', 'rlds', 'prhmax', 'rlus', 'mrso', 'prc', 'prw', 'psl', 'ps', 'pr', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts']</t>
+          <t>['sfcWind', 'snd', 'rsus', 'ps', 'va500', 'va850', 'mrso', 'prc', 'ua500', 'ts', 'ua850', 'zg200', 'zg500', 'hfss', 'clwvi', 'mrfso', 'mrro', 'wsgsmax', 'zmla', 'clivi', 'clt', 'hfls', 'mrros', 'huss', 'hus850', 'rsds', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rlds', 'prhmax', 'rlus', 'prw', 'psl', 'pr', 'vas', 'uas', 'va200', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'zg500', 'hfss', 'hfls', 'hus850', 'clt', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
+          <t>['rlds', 'rlus', 'mrso', 'psl', 'pr', 'mrros', 'huss', 'mrro', 'zg500', 'ta850', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'hus850', 'clt', 'vas', 'zg200', 'uas', 'va200', 'va850', 'ua200', 'ua500', 'ua850', 'va500', 'hfls', 'hfss', 'mrfso', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'mrro', 'clt', 'rsus', 'rsut', 'snm', 'snw', 'sund', 'snc', 'snd', 'tasmin', 'tasmax', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850']</t>
+          <t>['hfss', 'huss', 'mrro', 'clt', 'hfls', 'mrfso', 'hus850', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'tasmin', 'tasmax', 'ta500', 'ta850', 'rsut', 'snw', 'rsus', 'snd', 'snm', 'sund', 'snc', 'rlus', 'zg200', 'zg500', 'rsds', 'rlds', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'vas', 'uas', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'mrro', 'ps', 'pr', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'ua500', 'ua850', 'ts', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rsds', 'rlds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850', 'ua200']</t>
+          <t>['mrros', 'psl', 'mrso', 'prc', 'prw', 'ps', 'pr', 'mrro', 'hfls', 'mrfso', 'hfss', 'clwvi', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'sfcWind', 'wsgsmax', 'zmla', 'va850', 'sfcWindmax', 'rlut', 'vas', 'zg200', 'zg500', 'ua200', 'snm', 'snw', 'tas', 'snc', 'tasmax', 'uas', 'va500', 'ua500', 'clivi', 'huss', 'hus850', 'clt', 'tasmin', 'va200', 'ua850', 'ts', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax']</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'zg200', 'zg500', 'snm', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'hfls', 'clt', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['hfss', 'mrfso', 'rsdt', 'zg200', 'hfls', 'va200', 'clt', 'tasmax', 'tasmin', 'uas', 'sfcWindmax', 'rlds', 'rlus', 'rsut', 'rlut', 'sfcWind', 'vas', 'rsds', 'rsus', 'zg500', 'mrso', 'psl', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'snm', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'huss', 'hus850', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
+          <t>['huss', 'hfls', 'hus850', 'hfss', 'clt', 'rlds', 'rlut', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'rlus', 'mrfso', 'mrso', 'mrros', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'ua200', 'ua500', 'ua850', 'ta850', 'ts', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'huss', 'mrro', 'pr', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['clwvi', 'hfls', 'tas', 'ua500', 'ua850', 'ta850', 'ts', 'mrso', 'prc', 'mrros', 'huss', 'vas', 'va850', 'clivi', 'tasmin', 'uas', 'hfss', 'hus850', 'clt', 'tasmax', 'ua200', 'rsds', 'rlds', 'rsus', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'prhmax', 'mrfso', 'prw', 'mrro', 'pr', 'wsgsmax', 'zmla', 'zg200', 'zg500', 'va200', 'va500']</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'tasmin', 'tas', 'va200', 'ta850', 'va500', 'uas', 'ua200', 'ua500', 'ua850', 'zg200', 'tasmax', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'snw', 'sund', 'ta200', 'ta500', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'clt', 'vas', 'zg500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'hfss', 'hfls', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'zg200', 'zg500']</t>
+          <t>['hfss', 'hfls', 'rsdt', 'vas', 'uas', 'va500', 'ua500', 'ua850', 'tasmin', 'va200', 'va850', 'ua200', 'tasmax', 'sund', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rlus', 'rsut', 'rlut', 'sfcWind', 'snc', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['hfss', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'rsds', 'rlds', 'prhmax', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'tasmax', 'tasmin', 'tas', 'ua500', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'snd', 'zmla', 'clwvi', 'hfls', 'clivi', 'clt']</t>
+          <t>['ua200', 'ta200', 'ta500', 'ts', 'clt', 'clwvi', 'ta850', 'rlds', 'rlus', 'prw', 'ps', 'tasmin', 'tas', 'rsds', 'prhmax', 'rsdt', 'rlut', 'psl', 'tasmax', 'ua500', 'hfss', 'mrfso', 'hus850', 'mrro', 'pr', 'wsgsmax', 'va200', 'va500', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'snd', 'zmla', 'mrso', 'prc', 'mrros', 'huss', 'vas', 'zg200', 'zg500', 'uas', 'va850', 'ua850', 'hfls', 'clivi']</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'mrro', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'tasmax', 'tasmin', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850']</t>
+          <t>['rsds', 'rsdt', 'rlut', 'mrso', 'tas', 'ua200', 'ua500', 'ua850', 'rlus', 'mrros', 'psl', 'pr', 'tasmax', 'tasmin', 'ta200', 'ta500', 'ta850', 'rlds', 'rsus', 'rsut', 'snc', 'sund', 'hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'mrro', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'zg200', 'zg500', 'va850', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'clt', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850']</t>
+          <t>['hfss', 'hfls', 'mrso', 'mrros', 'pr', 'tasmax', 'uas', 'va200', 'mrfso', 'huss', 'hus850', 'mrro', 'ua200', 'ua500', 'ua850', 'tasmin', 'tas', 'va500', 'rsds', 'rlds', 'rsut', 'sfcWind', 'zg500', 'clt', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlus', 'rsdt', 'rlut', 'psl', 'vas', 'zg200', 'va850', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['rsdt', 'mrso', 'evspsbl', 'sfcWindmax', 'tasmax', 'uas', 'va500', 'ta500', 'ua850', 'ta200', 'clwvi', 'prw', 'mrro', 'pr', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'sfcWind', 'vas', 'psl', 'ps', 'zg500', 'clivi', 'prc', 'hus850', 'va850', 'ta850', 'prhmax', 'hurs', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'huss', 'snc', 'prsn', 'rsds', 'rsus', 'va200', 'ua200', 'ts', 'rlds', 'hfss', 'tasmin', 'hfls', 'clt', 'mrfso', 'tas', 'ua500', 'snd']</t>
+          <t>['rsut', 'snc', 'rsds', 'rsus', 'hfls', 'clt', 'ua500', 'snd', 'hurs', 'zmla', 'sund', 'rlut', 'mrros', 'huss', 'prsn', 'va200', 'ua200', 'ts', 'rlds', 'hfss', 'tasmin', 'mrfso', 'tas', 'hus850', 'ta850', 'prhmax', 'va850', 'mrso', 'evspsbl', 'uas', 'va500', 'ta500', 'ta200', 'clwvi', 'mrro', 'snm', 'snw', 'rsdt', 'sfcWindmax', 'pr', 'rlus', 'tasmax', 'ua850', 'prw', 'sfcWind', 'zg200', 'wsgsmax', 'vas', 'psl', 'ps', 'zg500', 'clivi', 'prc']</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'huss', 'hurs', 'ua200', 'rlds', 'tasmin', 'zg500', 'rlus', 'snm', 'va850', 'mrro', 'ua500', 'hfls', 'rsut', 'sfcWind', 'pr', 'vas', 'psl', 'va500', 'ta200', 'clt', 'evspsbl', 'uas', 'snd', 'rsus', 'mrros', 'sfcWindmax', 'rsds', 'tas', 'ua850', 'mrfso', 'tasmax']</t>
+          <t>['sfcWind', 'pr', 'psl', 'evspsbl', 'snd', 'sfcWindmax', 'rsds', 'ua850', 'tasmax', 'rsut', 'vas', 'va500', 'clt', 'uas', 'rsus', 'mrros', 'tas', 'mrfso', 'ta200', 'hfls', 'rsdt', 'sund', 'va200', 'mrso', 'hfss', 'rlut', 'snw', 'zg200', 'ta850', 'ta500', 'snc', 'hurs', 'rlds', 'snm', 'ua500', 'hus850', 'huss', 'ua200', 'tasmin', 'zg500', 'rlus', 'va850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['rlut', 'va200', 'ta200', 'ta500', 'hurs', 'sund', 'snc', 'va500', 'rsds', 'rlus', 'rsdt', 'mrro', 'pr', 'hfss', 'sfcWind', 'uas', 'rlds', 'zg500', 'ta850', 'hus850', 'clt', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'tas', 'psl', 'huss', 'zg200', 'vas', 'mrros', 'rsus', 'mrfso', 'tasmin', 'tasmax', 'evspsbl', 'va850', 'ua200', 'snm', 'snw', 'ua850', 'ua500']</t>
+          <t>['huss', 'zg200', 'vas', 'mrros', 'tasmax', 'va850', 'snw', 'ua850', 'tas', 'rsus', 'mrfso', 'evspsbl', 'ua200', 'psl', 'tasmin', 'snm', 'ua500', 'rsut', 'mrso', 'hfls', 'rlut', 'va200', 'ta500', 'snc', 'va500', 'rlus', 'ta200', 'hurs', 'sund', 'rsds', 'mrro', 'pr', 'hfss', 'ta850', 'sfcWindmax', 'hus850', 'rsdt', 'sfcWind', 'uas', 'rlds', 'zg500', 'clt', 'snd']</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['clwvi', 'clivi', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'zmla', 'zg200', 'zg500']</t>
+          <t>['uas', 'tasmin', 'hfss', 'hfls', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'rsus', 'rsdt', 'snm', 'snc', 'snd', 'zmla', 'zg500', 'sfcWindmax', 'rsds', 'rsut', 'sfcWind', 'zg200', 'prw', 'psl', 'pr', 'ps', 'mrfso', 'prc', 'clivi', 'rlds', 'prhmax', 'rlus', 'rlut', 'clwvi', 'clt', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'hfss', 'hfls', 'huss', 'hus850', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
+          <t>['rlus', 'psl', 'rlds', 'mrfso', 'mrso', 'mrros', 'ua850', 'hus850', 'hfss', 'hfls', 'huss', 'clt', 'vas', 'zg200', 'zg500', 'rsdt', 'rsut', 'sfcWind', 'snd', 'snm', 'sfcWindmax', 'rsds', 'rsus', 'snc', 'rlut', 'mrro', 'pr', 'uas', 'va200', 'va500', 'va850', 'ua500', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'mrfso', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['vas', 'hfls', 'mrfso', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rsus', 'rsdt', 'pr', 'ta500', 'ua850', 'sfcWind', 'sund', 'snc', 'ta200', 'snd', 'tasmin', 'uas', 'ta850', 'ua200', 'ua500', 'sfcWindmax', 'rsut', 'snm', 'snw', 'tasmax', 'tas', 'hfss', 'mrros', 'huss', 'rlus', 'rlut', 'mrso', 'psl', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['clivi', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'ps', 'pr', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'hfss', 'clwvi', 'hfls', 'mrfso', 'huss', 'hus850', 'mrro', 'clt', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc']</t>
+          <t>['clivi', 'ta850', 'tasmax', 'snm', 'ta200', 'mrso', 'rlds', 'prw', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'rlut', 'hfss', 'clwvi', 'hfls', 'mrfso', 'huss', 'clt', 'tasmin', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'hus850', 'mrro', 'uas', 'ua850', 'ts', 'prhmax', 'prc', 'mrros', 'zmla', 'zg500', 'psl', 'ps', 'pr', 'wsgsmax', 'vas', 'zg200', 'snw', 'tas', 'sund', 'ta500', 'snd']</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'hfss', 'hfls', 'clt', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'zg200', 'zg500', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr']</t>
+          <t>['rlds', 'snc', 'zg200', 'rlut', 'sfcWind', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'tasmin', 'vas', 'va850', 'ua200', 'ua850', 'hfss', 'hfls', 'clt', 'uas', 'va200', 'va500', 'ua500', 'ta500', 'ta850', 'snd', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'pr', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'psl', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'huss', 'clt', 'hus850', 'ta200', 'ta500', 'ta850', 'ua200', 'tasmax', 'tasmin', 'tas', 'sund', 'ua500', 'rsds', 'rlus', 'mrso', 'psl', 'mrro', 'sfcWindmax', 'rsdt', 'sfcWind', 'snw', 'snc', 'va500', 'va850', 'rlds', 'rlut', 'mrros', 'pr', 'rsus', 'rsut', 'snm', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss']</t>
+          <t>['rlds', 'ps', 'hfss', 'psl', 'tas', 'sund', 'hfls', 'hurs', 'huss', 'rlus', 'sfcWind', 'rsds', 'rsus', 'pr', 'prc']</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500']</t>
+          <t>['zg200', 'rsdt', 'snd', 'mrro', 'zmla', 'clivi', 'ua500', 'clwvi', 'snm', 'va500', 'mrros', 'evspsbl', 'va850', 'hus850', 'ta850', 'ta500', 'snw', 'va200', 'ua200', 'ua850', 'mrso', 'zg500', 'mrfso', 'rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss']</t>
+          <t>['prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'prsn', 'hurs', 'tasmax', 'sfcWind', 'ua850', 'tasmin', 'ua200', 'rsut', 'prc', 'mrso', 'rsds', 'va500', 'wsgsmax', 'zg200', 'va850', 'hus850', 'uas', 'ta500', 'clivi', 'pr', 'ps', 'hfss', 'zg500', 'psl', 'hfls', 'rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw']</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd']</t>
+          <t>['ua200', 'mrros', 'mrso', 'uas', 'snm', 'mrro', 'ta850', 'zg200', 'rlut', 'hfls', 'mrfso', 'ua500', 'ta500', 'rsdt', 'psl', 'hfss', 'tasmin', 'hurs', 'vas', 'rlus', 'evspsbl', 'tas', 'pr', 'ua850', 'snd', 'tasmax', 'va200', 'rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850']</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls']</t>
+          <t>['rlds', 'mrros', 'ta500', 'rsus', 'rsut', 'mrro', 'hurs', 'ta850', 'ua850', 'rsdt', 'evspsbl', 'va500', 'snd', 'tas', 'tasmax', 'snm', 'rsds', 'rlus', 'ua200', 'va200', 'mrfso', 'hus850', 'ta200', 'hfls', 'hfss', 'zg200', 'ua500', 'rlut', 'uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw']</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'clivi', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'ua500', 'ua200', 'ua850', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'ps', 'pr', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
+          <t>['tasmax', 'tasmin', 'va200', 'ua500', 'ua200', 'zmla', 'clt', 'uas', 'vas', 'va850', 'tas', 'ua850', 'ts', 'wsgsmax', 'zg200', 'zg500', 'va500', 'mrfso', 'prc', 'prw', 'mrros', 'mrro', 'prhmax', 'mrso', 'ps', 'pr', 'clwvi', 'hfls', 'evspsbl', 'clivi', 'hus850', 'hfss', 'huss', 'rlds', 'rsus', 'rsdt', 'rsut', 'psl', 'rsds', 'rlus', 'rlut', 'sfcWind', 'snd', 'sund', 'ta500', 'ta850', 'sfcWindmax', 'snm', 'snw', 'snc', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va850']</t>
+          <t>['clt', 'mrfso', 'mrros', 'mrro', 'pr', 'rsds', 'rlus', 'rsdt', 'sfcWind', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'va200', 'va500', 'zg200', 'zg500', 'mrso', 'huss', 'sfcWindmax', 'snm', 'tasmin', 'ua850', 'vas', 'va850', 'evspsbl', 'hus850', 'rlds', 'rsus', 'rsut', 'rlut', 'psl', 'uas', 'tas', 'ua200', 'ua500', 'hfss', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg500']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'rsdt', 'rlut', 'snc', 'tasmax', 'tasmin', 'snm', 'sund', 'uas', 'va850', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'va200', 'va500', 'ua200', 'zg500', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsut', 'sfcWind', 'snd', 'snw', 'tas', 'rlus', 'psl']</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'clivi', 'evspsbl', 'clt', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
+          <t>['hfss', 'clwvi', 'hfls', 'clivi', 'rlus', 'zmla', 'zg200', 'uas', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'rsds', 'rsus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'rsut', 'snw', 'snc', 'snd', 'tas', 'ua500', 'ua850', 'zg500', 'sfcWindmax', 'sfcWind', 'snm', 'sund', 'ta200', 'tasmax', 'tasmin', 'ta500', 'ta850', 'ua200', 'ts', 'wsgsmax', 'vas', 'va200', 'va500', 'va850', 'evspsbl', 'clt', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['rsdt', 'rlut', 'hfls', 'evspsbl', 'hus850', 'clt', 'rsds', 'tasmin', 'uas', 'ua200', 'ua850', 'va200', 'va500', 'va850', 'snd', 'tasmax', 'tas', 'ua500', 'vas', 'ta500', 'ta850', 'zg200', 'zg500', 'hfss', 'mrfso', 'mrros', 'huss', 'mrro', 'rlds', 'rsus', 'rlus', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'clt', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg200', 'zg500', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'snm', 'tasmax', 'ua850', 'va200', 'va850', 'ua500', 'ua200', 'zg200', 'zg500', 'vas', 'clt', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'rsds', 'rsus', 'rlus', 'rlut', 'pr', 'sfcWindmax', 'rlds', 'rsdt', 'rsut', 'sfcWind', 'evspsbl', 'hfls', 'tasmin', 'uas', 'va500']</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'ps', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ts', 'clwvi', 'evspsbl', 'clivi', 'clt', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'zmla', 'zg500']</t>
+          <t>['sfcWind', 'snm', 'tasmax', 'ta500', 'snw', 'snc', 'snd', 'tasmin', 'tas', 'ta200', 'ta850', 'ua200', 'sund', 'ts', 'sfcWindmax', 'rsdt', 'rsus', 'rsut', 'evspsbl', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'clwvi', 'clivi', 'clt', 'wsgsmax', 'va850', 'ua850', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'rlds', 'prw', 'psl', 'ps', 'hfss', 'rlut', 'prc', 'rsds', 'prhmax', 'rlus', 'zmla', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hus850', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850']</t>
+          <t>['tasmin', 'ta500', 'ta850', 'sund', 'ta200', 'ua200', 'tasmax', 'tas', 'ua500', 'hfss', 'snd', 'sfcWind', 'snm', 'snw', 'snc', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rsds', 'rlds', 'rlus', 'mrros', 'mrro', 'pr', 'rlut', 'mrso', 'psl', 'mrfso', 'evspsbl', 'huss', 'hus850', 'clt', 'vas', 'zg500', 'uas', 'ua850', 'hfls', 'zg200', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
+          <t>['pr', 'sfcWindmax', 'sfcWind', 'sund', 'va850', 'vas', 'zg200', 'zg500', 'va500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'hus850', 'mrro', 'rsut', 'rlut', 'clt', 'mrfso', 'huss', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'psl', 'snm', 'snw', 'snc', 'ta200', 'ta500', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['rlds', 'prhmax', 'rlus', 'mrso', 'prc', 'prw', 'psl', 'ps', 'pr', 'wsgsmax', 'zmla', 'zg200', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'clivi', 'clt', 'hfss', 'clwvi', 'hfls', 'mrfso', 'huss', 'mrros', 'hus850', 'mrro', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'ts']</t>
+          <t>['rsds', 'rsut', 'rlut', 'snc', 'snd', 'sfcWindmax', 'rsus', 'rsdt', 'sfcWind', 'hfls', 'hfss', 'mrfso', 'huss', 'mrros', 'hus850', 'mrro', 'vas', 'va500', 'ua500', 'ua200', 'ts', 'tasmax', 'tasmin', 'snw', 'sund', 'snm', 'tas', 'ta200', 'ta500', 'ta850', 'uas', 'va200', 'va850', 'ua850', 'clwvi', 'rlds', 'prc', 'pr', 'wsgsmax', 'zmla', 'zg500', 'psl', 'ps', 'zg200', 'prhmax', 'rlus', 'mrso', 'prw', 'clivi', 'clt']</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'clt', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
+          <t>['rlus', 'mrfso', 'mrso', 'mrros', 'pr', 'zg500', 'rlds', 'huss', 'psl', 'mrro', 'snm', 'tas', 'tasmin', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsdt', 'snc', 'snd', 'rsus', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snw', 'sund', 'hfss', 'hfls', 'clt', 'zg200', 'uas', 'va500', 'ua500', 'hus850', 'vas', 'va200', 'va850', 'ua200', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'snd', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
+          <t>['hfls', 'mrfso', 'clt', 'hfss', 'huss', 'hus850', 'mrro', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'sfcWind', 'va500', 'va850', 'rsdt', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'rsds', 'snc', 'sund', 'snd', 'tasmin', 'ta200', 'ta850', 'ua500', 'vas', 'uas', 'snm', 'snw', 'tasmax', 'tas', 'ta500', 'ua200', 'ua850', 'zg200', 'zg500', 'va200']</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'huss', 'hus850', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'mrro', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'tas', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'ts']</t>
+          <t>['zmla', 'zg200', 'vas', 'zg500', 'va850', 'hfss', 'mrfso', 'clivi', 'clt', 'mrso', 'prc', 'mrros', 'ps', 'pr', 'sfcWindmax', 'rlds', 'rsus', 'rsut', 'rlut', 'sfcWind', 'rsdt', 'ts', 'ta500', 'snd', 'tasmax', 'va500', 'ta200', 'ta850', 'tasmin', 'clwvi', 'hfls', 'huss', 'hus850', 'prhmax', 'prw', 'psl', 'mrro', 'rsds', 'rlus', 'snm', 'wsgsmax', 'tas', 'snw', 'snc', 'sund', 'uas', 'va200', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['hfls', 'clt', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500']</t>
+          <t>['clt', 'ua200', 'ua500', 'vas', 'zg200', 'zg500', 'ta850', 'snd', 'tasmin', 'va500', 'va850', 'ua850', 'mrso', 'mrros', 'psl', 'sfcWindmax', 'rsds', 'rsdt', 'sfcWind', 'snm', 'sund', 'snc', 'ta500', 'hfss', 'mrfso', 'huss', 'hus850', 'mrro', 'pr', 'rlds', 'rsus', 'rlus', 'rsut', 'rlut', 'snw', 'tas', 'ta200', 'tasmax', 'uas', 'va200', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'huss', 'hus850', 'clt', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
+          <t>['sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'vas', 'zg200', 'va200', 'zg500', 'va500', 'va850', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrros', 'mrro', 'sfcWindmax', 'clt', 'mrso', 'psl', 'pr', 'rsds', 'rsus', 'rsdt', 'rsut', 'snw', 'sund', 'uas', 'ua500', 'ua850', 'hfls', 'hfss', 'huss', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'ua200', 'ua500', 'ua850', 'ts', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'huss', 'mrro', 'pr']</t>
+          <t>['va200', 'va500', 'va850', 'hfss', 'clivi', 'rsds', 'rlds', 'clwvi', 'hfls', 'hus850', 'clt', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'rlus', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'snc', 'ta500', 'snd', 'tasmax', 'tasmin', 'sund', 'ta200', 'tas', 'uas', 'ua850', 'ts', 'ta850', 'ua200', 'ua500', 'rsus', 'mrfso', 'mrros', 'prhmax', 'prw', 'huss', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'mrso', 'prc', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'va200', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
+          <t>['clt', 'hfls', 'mrros', 'hfss', 'mrfso', 'mrso', 'psl', 'sfcWindmax', 'sfcWind', 'sund', 'snc', 'ta200', 'ta500', 'tasmax', 'tas', 'ta850', 'va200', 'ua500', 'huss', 'hus850', 'mrro', 'rlds', 'rsus', 'rsut', 'rlut', 'pr', 'snm', 'ua850', 'zg200', 'zg500', 'va850', 'rsds', 'rlus', 'rsdt', 'snw', 'snd', 'tasmin', 'uas', 'ua200', 'vas', 'va500']</t>
         </is>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'clt', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
+          <t>['mrso', 'hus850', 'psl', 'mrro', 'pr', 'rlus', 'rsdt', 'tasmax', 'snm', 'sund', 'vas', 'uas', 'ua500', 'ua850', 'hfls', 'clt', 'mrfso', 'huss', 'rsds', 'rsus', 'rsut', 'rlut', 'snw', 'tas', 'ta200', 'ta500', 'tasmin', 'va850', 'hfss', 'rlds', 'mrros', 'snc', 'ta850', 'snd', 'va200', 'va500', 'ua200', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['ua100m', 'va100m', 'tas', 'tds', 'pr', 'prc']</t>
+          <t>['tds', 'pr', 'ua100m', 'va100m', 'tas', 'prc']</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['cape', 'clt', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'psl', 'rlds', 'rlus', 'rsds', 'ts', 'sund', 'tas']</t>
+          <t>['cape', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'clt', 'hfss', 'rsus', 'rlus', 'ts', 'tas', 'sfcWind', 'psl', 'rlds', 'rsds', 'sund']</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hus850', 'hus925', 'hus400', 'hus500', 'hus600', 'hus700', 'va925', 'vas', 'ua925', 'uas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va100', 'va200', 'va700', 'va850', 'va300', 'va400', 'va500', 'va600', 'ta925', 'ts', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'ta400', 'ta700', 'ta850', 'ta500', 'ta600', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus200', 'hus300', 'zg925', 'zmla', 'zg700', 'zg850']</t>
+          <t>['ta925', 'ts', 'ua300', 'ua400', 'ua500', 'ua700', 'ua850', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'ta700', 'ua600', 'ta400', 'ta850', 'ta500', 'ta600', 'va925', 'vas', 'ua925', 'uas', 'zg100', 'zg300', 'zg400', 'mrso', 'rsdt', 'snm', 'snw', 'snc', 'snd', 'hus850', 'hus925', 'hus400', 'hus600', 'zg200', 'zg500', 'zg600', 'va100', 'va200', 'va700', 'va850', 'va300', 'va400', 'va500', 'va600', 'mrfso', 'mrro', 'rsut', 'hus500', 'hus700', 'prw', 'rlut', 'mrros', 'zg700', 'zg850', 'clwvi', 'clivi', 'hus100', 'hus200', 'clm', 'cll', 'evspsbl', 'clh', 'hus300', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['zg850', 'zg925', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va700', 'va850', 'va925', 'vas', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ua100', 'ua200', 'ua300', 'ua400', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta600', 'ta700', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'rlds', 'rlus', 'rlut', 'psl', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850']</t>
+          <t>['rsds', 'rsdt', 'rsus', 'rsut', 'zg925', 'zmla', 'tas', 'tasmax', 'ts', 'va600', 'ua600', 'ua700', 'ua100', 'ua300', 'zg850', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'tasmin', 'ua925', 'uas', 'va100', 'va200', 'va700', 'va850', 'va925', 'vas', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'ua500', 'ua850', 'ua200', 'ua400', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus500', 'hus700', 'pr', 'prc', 'snd', 'snm', 'snw', 'ta100', 'ta700', 'ta500', 'rlut', 'psl', 'sund', 'ta600', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'rlds', 'rlus', 'clwvi', 'evspsbl', 'hurs', 'clh', 'clt', 'prhmax', 'prw', 'ps', 'mrros', 'mrso', 'hfls', 'hfss', 'clivi', 'cll', 'clm', 'prsn', 'sfcWind', 'sfcWindmax', 'snc', 'hus400', 'hus600', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'zg700', 'zg850', 'zg925', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'huss', 'mrso', 'hfls', 'hfss', 'hurs', 'hus100', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'hus600', 'hus700', 'ua400', 'ua500', 'ua850', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'snm', 'snw', 'sund', 'ta100', 'mrfso', 'mrro', 'mrros', 'pr', 'hus200', 'hus300', 'hus400', 'hus500', 'hus850', 'hus925', 'ua300', 'ua600', 'ua700', 'ta400', 'ta200', 'psl', 'rlds', 'rlus', 'clt', 'evspsbl', 'zg700', 'zg850', 'zg925', 'va200', 'va400', 'va500', 'va600', 'va700', 'va925', 'zg600', 'ua925', 'uas', 'va100', 'va300', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['zg600', 'zg700', 'zg850', 'zg925', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg300', 'zg400', 'zg500']</t>
+          <t>['zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'sund', 'va700', 'va925', 'zg100', 'zg200', 'ua500', 'ua600', 'ua850', 'uas', 'ta850', 'tas', 'va100', 'va400', 'va500', 'zg300', 'zg500', 'tasmin', 'ua100', 'ua200', 'ua400', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'va850', 'vas', 'ua700', 'ua925', 'ta500', 'ta600', 'ta700', 'ta925', 'va200', 'va300', 'va600', 'zg400', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'clt', 'evspsbl', 'hfls', 'hfss', 'hus100', 'hus500', 'hus700', 'hus850', 'hus925', 'huss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus600', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape']</t>
+          <t>['cape', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'hfls', 'prc', 'huss', 'hurs', 'ps', 'hfss', 'evspsbl', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925']</t>
+          <t>['uas', 'va100', 'va200', 'va500', 'va700', 'va300', 'va400', 'va600', 'ua925', 'mrro', 'rsdt', 'rsut', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta100', 'ta500', 'ta700', 'ta925', 'ua100', 'ua500', 'ua200', 'ua300', 'ua400', 'ua600', 'ua700', 'ua850', 'ts', 'zg700', 'zg850', 'zg925', 'zmla', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ta600', 'ta200', 'ta300', 'ta400', 'ta850', 'vas', 'zg100', 'zg400', 'zg500', 'va925', 'zg200', 'zg300', 'zg600', 'va850']</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['zg200', 'zg700', 'zg600', 'zg850', 'zg300', 'zg400', 'zg500', 'zg925', 'zmla', 'zg100', 'snd', 'prw', 'ps', 'rlus', 'mrros', 'mrso', 'mrfso', 'mrro', 'prc', 'hus850', 'hus200', 'hus300', 'hus500', 'hus600', 'hurs', 'hus100', 'pr', 'hus925', 'huss', 'hus700', 'hus400', 'vas', 'wsgsmax', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'clh', 'hfls', 'hfss', 'clt', 'snc', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'tasmin', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'tasmax', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'uas', 'va100']</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500']</t>
+          <t>['hus400', 'hurs', 'hus100', 'hus700', 'hus850', 'hus500', 'clt', 'evspsbl', 'hus200', 'hus300', 'hus600', 'hfls', 'hfss', 'zg400', 'va600', 'ta700', 'ta850', 'ta925', 'ua400', 'ua600', 'ua700', 'zg300', 'va700', 'va850', 'ua200', 'ua300', 'ua500', 'psl', 'snm', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'huss', 'mrfso', 'mrso', 'ta100', 'ta500', 'ta600', 'pr', 'rlds', 'rlus', 'snd', 'snw', 'hus925', 'mrro', 'mrros', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'snc', 'zg500', 'zg600', 'zg850', 'zg700', 'zg925', 'tas', 'tasmax', 'tasmin', 'ua925', 'uas', 'va925', 'vas', 'zg100', 'zg200', 'ua100', 'ua850', 'va100', 'va200', 'va300', 'va400', 'va500']</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500']</t>
+          <t>['sfcWindmax', 'rlus', 'rsdt', 'snc', 'snw', 'ta850', 'tasmax', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'snd', 'snm', 'ta925', 'tas', 'tasmin', 'ua100', 'ta100', 'ta200', 'ua700', 'ua850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus600', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus700', 'hus500', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'ua200', 'ta300', 'sund', 'va600', 'va850', 'va925', 'va500', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va700', 'va100', 'va200', 'va300', 'vas', 'zg400', 'zg500', 'va400', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['tds', 'tas', 'prc', 'pr']</t>
+          <t>['tas', 'tds', 'pr', 'prc']</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps']</t>
+          <t>['rsus', 'rlus', 'sfcWind', 'psl', 'sund', 'ps', 'rsds', 'rlds', 'prc', 'hfss', 'pr', 'evspsbl', 'hurs', 'hfls', 'huss', 'clt', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925']</t>
+          <t>['rsdt', 'rsut', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua925', 'zmla', 'zg850', 'zg925', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ua700', 'ua850', 'ua100', 'ua200', 'ua300', 'ua500', 'ua600', 'ts', 'zg100', 'zg300', 'zg500', 'zg700', 'ua400', 'zg200', 'zg400', 'zg600', 'mrfso', 'mrso', 'mrros', 'prw', 'hus850', 'hus925', 'mrro', 'hus300', 'ta400', 'ta500', 'ta700', 'ta925', 'va500', 'va600', 'ta200', 'ta300', 'ta600', 'ta850', 'vas', 'va400', 'va850', 'hus100', 'hus200', 'hus400', 'hus500', 'hus600', 'hus700', 'va700', 'va925', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm']</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['zmla', 'va925', 'clm', 'prc', 'prsn', 'pr', 'tas', 'uas', 'clt', 'prhmax', 'mrso', 'prw', 'mrros', 'ps', 'ta700', 'ta925', 'clh', 'clivi', 'cll', 'ta300', 'ta400', 'ta500', 'ta600', 'ta850', 'va200', 'va300', 'va100', 'ua925', 'va400', 'ua600', 'ua700', 'ua850', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'snm', 'snw', 'snc', 'sund', 'ta200', 'va850', 'mrfso', 'hus600', 'mrro', 'sfcWindmax', 'huss', 'hus500', 'hus700', 'hus850', 'hus925', 'ta100', 'snd', 'clwvi', 'hfls', 'sfcWind', 'psl', 'tasmin', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'tasmax', 'ua100', 'ua200', 'zg400', 'zg600', 'zg700', 'zg850', 'zg925', 'hfss', 'evspsbl', 'zg500', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300']</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700']</t>
+          <t>['hfls', 'evspsbl', 'hus200', 'rsds', 'rsus', 'rsdt', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua700', 'ua850', 'ua925', 'hurs', 'hus100', 'clt', 'sfcWindmax', 'sfcWind', 'snm', 'rsut', 'ua500', 'ua600', 'hfss', 'sund', 'ta300', 'ta400', 'ta500', 'va400', 'va925', 'mrfso', 'huss', 'hus300', 'hus500', 'hus925', 'ta100', 'ta200', 'ta600', 'va700', 'hus400', 'hus600', 'hus700', 'hus850', 'snw', 'vas', 'va200', 'va300', 'va500', 'va600', 'va850', 'rlds', 'mrso', 'ta700', 'ta925', 'zg300', 'zg700', 'zg925', 'mrros', 'psl', 'tasmax', 'tas', 'ua300', 'ta850', 'zg200', 'zg400', 'zg500', 'zg600', 'zg850', 'zg100', 'rlus', 'rlut', 'mrro', 'pr', 'tasmin', 'ua100', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'zg100', 'zg300', 'zg500', 'zg700', 'zg925', 'zg200', 'zg400', 'zg600', 'zg850', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'mrfso', 'huss', 'hus500', 'hus600', 'hus850', 'rsds', 'rlds', 'rlut', 'mrso', 'mrro', 'pr', 'snm', 'snd', 'hfss', 'hus300', 'hus400', 'hus925', 'rlus', 'mrros', 'psl', 'sfcWindmax', 'hus700', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850']</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
+          <t>['tds', 'tas', 'ua100m', 'prc', 'va100m', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts']</t>
+          <t>['hfls', 'clt', 'sfcWind', 'tas', 'sund', 'hurs', 'cape', 'hfss', 'evspsbl', 'huss', 'rsus', 'ts', 'rlus', 'rsds', 'ps', 'pr', 'rlds', 'prc', 'psl']</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925']</t>
+          <t>['zg925', 'clh', 'rlut', 'mrso', 'mrros', 'hus925', 'ta100', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'mrfso', 'prw', 'mrro', 'ta200', 'ta300', 'ta400', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus400', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'zg400', 'zg600', 'va850', 'va600', 'va700', 'zg200', 'zg300', 'zg500', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['clt', 'mrso', 'prw', 'mrros', 'prsn', 'mrro', 'clm', 'cll', 'clivi', 'prhmax', 'prc', 'va600', 'va700', 'va850', 'va925', 'ps', 'pr', 'ta400', 'ta500', 'ta600', 'wsgsmax', 'vas', 'va400', 'va500', 'ta200', 'ta300', 'ta700', 'ta850', 'ta925', 'clh', 'hus500', 'hus700', 'hus400', 'hus600', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg100', 'zg300', 'hus850', 'hus925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'rsdt', 'ua600', 'rlds', 'rsut', 'rlut', 'tasmin', 'ua400', 'ts', 'va100', 'va200', 'va300', 'psl', 'tasmax', 'tas', 'ua100', 'ua200', 'ua300', 'ua500', 'uas', 'rsds', 'rsus', 'rlus', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss']</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['mrfso', 'hus500', 'hus600', 'hus925', 'tasmin', 'tas', 'ua100', 'ua200', 'ua500', 'ta925', 'zg850', 'hus300', 'tasmax', 'ua300', 'ua400', 'zg400', 'zg500', 'zg600', 'zg700', 'zg925', 'huss', 'hus400', 'hus700', 'hus850', 'va500', 'va700', 'va850', 'rsut', 'sfcWind', 'snm', 'zg100', 'zg200', 'rsds', 'rlus', 'mrros', 'sfcWindmax', 'rsus', 'rsdt', 'rlds', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'snw', 'snc', 'snd', 'vas', 'zg300', 'va925', 'va600', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925']</t>
+          <t>['clt', 'va850', 'va200', 'va300', 'va500', 'va700', 'va925', 'hfls', 'evspsbl', 'va100', 'va400', 'va600', 'zg925', 'rlut', 'tasmin', 'ta925', 'uas', 'ua200', 'ua500', 'vas', 'zg700', 'zg100', 'zg200', 'zg500', 'zg600', 'zg850', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'ta500', 'ta600', 'ta700', 'ta850', 'ua300', 'ua400', 'ua600', 'ua700', 'ta100', 'tas', 'ua100', 'ua850', 'ua925', 'zg300', 'zg400', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts', 'cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss']</t>
+          <t>['psl', 'tas', 'rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'ts', 'cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss']</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm', 'snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700']</t>
+          <t>['clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm', 'zg200', 'zg300', 'va300', 'va600', 'vas', 'zg100', 'uas', 'va100', 'va850', 'va925', 'va200', 'va400', 'va500', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'ua100', 'ua400', 'ua500', 'ta850', 'ta925', 'ta200', 'ta300', 'ta700', 'snd', 'snm', 'snw', 'ta100', 'ts', 'ua200', 'ua300', 'ta400', 'ta500', 'ta600', 'zg850', 'zg925', 'zmla', 'zg400', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros']</t>
+          <t>['evspsbl', 'clm', 'mrso', 'pr', 'prsn', 'hus400', 'hus500', 'hus600', 'wsgsmax', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700', 'zmla', 'zg200', 'zg300', 'zg400', 'va600', 'vas', 'zg850', 'zg925', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'psl', 'sfcWind', 'sfcWindmax', 'snc', 'ps', 'rlds', 'rlus', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va300', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'va200', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ta850', 'rlut', 'hus700', 'hus850', 'hus925', 'clt', 'clwvi', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'prc', 'prhmax', 'hurs', 'hus100', 'hus200', 'hus300', 'huss', 'mrfso', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600']</t>
+          <t>['va400', 'va500', 'va700', 'va850', 'ua200', 'ua300', 'ua500', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'uas', 'va100', 'va200', 'va600', 'ua100', 'ua400', 'ua600', 'ta600', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ta925', 'tas', 'ta700', 'ta850', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'ua700', 'ua850', 'ua925', 'va300', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'snd', 'sund', 'hus700', 'hus100', 'hus200', 'hus300', 'hus500', 'hus600', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snm', 'snw', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus400']</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850']</t>
+          <t>['zg200', 'zg300', 'zg400', 'zg100', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hfls', 'evspsbl', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'mrfso', 'mrro', 'mrros', 'snw', 'sund', 'ta100', 'ta200', 'tasmax', 'tasmin', 'ua100', 'va100', 'va200', 'va300', 'va400', 'huss', 'mrso', 'snd', 'snm', 'ta925', 'tas', 'ua200', 'ua925', 'uas', 'va500', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'rlds', 'psl', 'rlus', 'rlut', 'rsds', 'hus925', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600']</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['ua100m', 'va100m', 'tas', 'tds', 'pr', 'prc']</t>
+          <t>['tas', 'pr', 'prc', 'ua100m', 'va100m', 'tds']</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['cape', 'clt', 'hfss', 'hurs', 'evspsbl', 'hfls', 'rsus', 'sfcWind', 'psl', 'rlds', 'rlus', 'rsds', 'prc', 'ps', 'ts', 'sund', 'tas', 'huss', 'pr']</t>
+          <t>['psl', 'rlds', 'rlus', 'rsds', 'ps', 'tas', 'pr', 'rsus', 'sfcWind', 'prc', 'ts', 'sund', 'huss', 'hfls', 'cape', 'clt', 'hfss', 'hurs', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['va925', 'vas', 'ua925', 'uas', 'zg100', 'zg200', 'va700', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua700', 'ua850', 'ua500', 'ua600', 'zg925', 'zmla', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600', 'snm', 'snw', 'snc', 'snd', 'ta925', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ta100', 'ta200', 'ta700', 'ta850', 'ta300', 'ta400', 'ta500', 'ta600', 'prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'evspsbl', 'hus100', 'rsdt', 'rsut', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'clm', 'clwvi', 'clivi', 'cll', 'clh']</t>
+          <t>['zg700', 'zg850', 'zg500', 'zg600', 'ua700', 'ua500', 'ua600', 'clm', 'clivi', 'cll', 'clwvi', 'clh', 'snm', 'snw', 'snc', 'snd', 'ta925', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ta100', 'ta400', 'ta500', 'ta600', 'prw', 'rlut', 'ta200', 'ta700', 'ta850', 'ta300', 'mrros', 'mrso', 'mrfso', 'mrro', 'evspsbl', 'hus100', 'rsdt', 'rsut', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'zg925', 'zmla', 'zg300', 'zg400', 'va925', 'vas', 'uas', 'zg100', 'va850', 'va100', 'va200', 'va600', 'ua925', 'zg200', 'va700', 'va300', 'va400', 'va500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'snc', 'snd', 'snm', 'snw', 'sund', 'tasmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clh', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg700', 'zg850', 'zg925', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['ta850', 'ta925', 'tas', 'ua600', 'ua700', 'ta400', 'ta500', 'rsus', 'sfcWind', 'mrro', 'mrso', 'pr', 'prc', 'hus850', 'hus925', 'huss', 'hus400', 'hus500', 'hus600', 'rlus', 'rlut', 'rsdt', 'prhmax', 'prsn', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clt', 'clwvi', 'mrros', 'hus700', 'mrfso', 'hus200', 'hus300', 'clh', 'ts', 'ua100', 'ua200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ua300', 'ua400', 'ua500', 'ta100', 'ta200', 'ta300', 'rsut', 'sfcWindmax', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'clivi', 'cll', 'clm', 'vas', 'wsgsmax', 'zg100', 'zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'zg200', 'rlds', 'rsds', 'prw', 'ps', 'psl', 'snc', 'snd', 'snm', 'snw', 'sund', 'tasmax', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['zg700', 'zg850', 'zg925', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'clt']</t>
+          <t>['zg925', 'snm', 'snw', 'sund', 'ta925', 'tas', 'ua300', 'ua600', 'ua700', 'zg300', 'zg400', 'ta300', 'ta400', 'ta850', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua400', 'ua500', 'ua850', 'zg100', 'zg200', 'zg500', 'zg600', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsus', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'evspsbl', 'hfls', 'hurs', 'hus100', 'hus200', 'hus925', 'huss', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'hfss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'zg700', 'zg850', 'snd', 'ta100', 'ta200', 'clt', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200']</t>
         </is>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['rlds', 'rlus', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snd', 'snm', 'mrfso', 'mrro', 'mrros', 'mrso', 'psl', 'tasmax', 'ua400', 'ta300', 'hus600', 'huss', 'ua500', 'ua600', 'ua925', 'ta500', 'ta700', 'clt', 'evspsbl', 'hfss', 'hurs', 'hus100', 'hus300', 'hus400', 'rlut', 'snc', 'pr', 'tasmin', 'ua100', 'ua200', 'ua300', 'snw', 'sund', 'ta100', 'ta200', 'ta400', 'hus500', 'hus700', 'hus850', 'hus925', 'ua700', 'ua850', 'uas', 'ta600', 'ta850', 'ta925', 'tas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'hfls', 'hus200', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va700']</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['cape', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'sund', 'tas', 'ts']</t>
+          <t>['rlus', 'rsds', 'rsus', 'tas', 'sfcWind', 'sund', 'ts', 'clt', 'hfls', 'hurs', 'pr', 'cape', 'evspsbl', 'hfss', 'huss', 'prc', 'ps', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ta850', 'ta925', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clh', 'clivi', 'cll', 'clm', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'mrfso', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925']</t>
+          <t>['ua700', 'snm', 'snw', 'ta100', 'ta200', 'ta400', 'ta500', 'ta700', 'uas', 'va100', 'va200', 'va300', 'va400', 'ta300', 'ta600', 'ua850', 'ua925', 'va500', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'cll', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'mrfso', 'hus400', 'hus500', 'hus600', 'hus850', 'hus925', 'clh', 'clivi', 'clm', 'hus700', 'rsdt', 'ua200', 'ts', 'vas', 'zg300', 'va925', 'rlut', 'mrso', 'mrros', 'snc', 'ua100', 'ua300', 'ua600', 'zg100', 'zg200', 'va600', 'va700', 'va850', 'rsut', 'prw', 'mrro', 'snd', 'ua400', 'ua500', 'ta850', 'ta925', 'zg400']</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['zg925', 'zmla', 'tasmax', 'tasmin', 'ts', 'ua100', 'va850', 'va925', 'vas', 'wsgsmax', 'uas', 'va100', 'va200', 'va300', 'ta700', 'ta850', 'ta925', 'tas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg200', 'zg300', 'zg400', 'ua600', 'ua700', 'ua850', 'ua925', 'va400', 'va500', 'va600', 'va700', 'ua200', 'ua300', 'ua400', 'ua500', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'mrso', 'pr', 'prc', 'prhmax', 'huss', 'mrfso', 'mrro', 'mrros', 'prsn', 'prw', 'ps', 'psl', 'snw', 'sund', 'ta100', 'ta200', 'hus600', 'hus700', 'hus850', 'hus925', 'ta300', 'ta400', 'ta500', 'ta600']</t>
+          <t>['prc', 'mrro', 'prsn', 'prw', 'ps', 'psl', 'sund', 'hus600', 'sfcWindmax', 'snc', 'snd', 'hus925', 'ta300', 'ta400', 'ta600', 'snm', 'mrso', 'pr', 'prhmax', 'huss', 'mrfso', 'mrros', 'snw', 'ta100', 'ta200', 'hus700', 'hus850', 'ta500', 'zg925', 'zmla', 'clh', 'clt', 'hurs', 'hus200', 'hus300', 'clivi', 'cll', 'clm', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hus100', 'hus400', 'hus500', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'rlut', 'rsdt', 'rsut', 'ts', 'va925', 'vas', 'tasmax', 'tasmin', 'ua100', 'va850', 'va100', 'ta700', 'ta850', 'zg600', 'zg200', 'zg400', 'ua600', 'ua700', 'ua850', 'ua925', 'va400', 'va500', 'va600', 'va700', 'ua200', 'ua300', 'ua400', 'ua500', 'wsgsmax', 'uas', 'va200', 'va300', 'ta925', 'tas', 'zg500', 'zg700', 'zg850', 'zg100', 'zg300']</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'vas', 'zg100', 'va700', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'clt', 'evspsbl', 'hfls', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700']</t>
+          <t>['ua300', 'ua500', 'ua600', 'ua100', 'ua200', 'ua400', 'zg850', 'zg700', 'zg925', 'psl', 'rlds', 'rlus', 'rsdt', 'huss', 'mrro', 'mrso', 'pr', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hfss', 'hurs', 'hus100', 'hus400', 'clt', 'evspsbl', 'hfls', 'snc', 'ta850', 'ta925', 'tasmax', 'hus700', 'ta300', 'ta400', 'sfcWind', 'tas', 'tasmin', 'hus500', 'hus600', 'hus200', 'hus300', 'rsus', 'rsut', 'sfcWindmax', 'hus850', 'hus925', 'rlut', 'rsds', 'mrfso', 'mrros', 'ua850', 'ua925', 'uas', 'va100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va200', 'va700', 'va600', 'va850', 'va925', 'vas', 'zg100', 'va300', 'va400', 'va500', 'ua700', 'ta500', 'ta600', 'ta700']</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'evspsbl', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va400', 'va600', 'ta400', 'ta500', 'rsdt', 'rsus', 'sfcWindmax', 'ua200', 'ua500', 'ta925', 'tas', 'tasmax', 'tasmin', 'mrros', 'snc', 'snw', 'sund', 'ta100', 'mrso', 'snd', 'snm', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hfls', 'clt', 'hus850', 'hfss', 'hurs', 'hus100', 'hus200', 'evspsbl', 'pr', 'rlus', 'hus925', 'mrro', 'psl', 'rlds', 'rlut', 'rsds', 'huss', 'mrfso', 'zg200', 'va925', 'vas', 'zg100', 'zg600', 'va850', 'zg300', 'zg400', 'zg500', 'zg700', 'zg850', 'zg925', 'va300', 'va500', 'va700', 'ta200', 'ta300', 'ta600', 'ta700', 'rsut', 'sfcWind', 'ta850', 'ua100', 'ua300', 'ua400']</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m']</t>
+          <t>['prc', 'tas', 'pr', 'tds', 'va100m', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts']</t>
+          <t>['evspsbl', 'hurs', 'rlus', 'psl', 'pr', 'cape', 'hfss', 'hfls', 'huss', 'clt', 'rsds', 'rlds', 'rsus', 'prc', 'sfcWind', 'ps', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus925', 'rsdt', 'rlut', 'mrfso', 'mrso', 'mrro', 'snm', 'snw', 'ta100', 'ta400', 'ta500', 'ta600', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'hus850', 'rsut', 'prw', 'mrros', 'snc', 'ta300', 'ta200', 'ua500', 'ta700', 'ts', 'uas', 'va400', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'zg300', 'va500', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'va700', 'ua925', 'zg925', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zmla', 'vas', 'zg100']</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925']</t>
+          <t>['rsds', 'rsdt', 'rsus', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'ua925', 'va200', 'va300', 'va400', 'ua500', 'ua600', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus850', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'cll', 'hus400', 'hus500', 'hus600', 'hus700', 'rsut', 'vas', 'tasmin', 'ts', 'uas', 'va100', 'va500', 'va600', 'va700', 'va925', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va850', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg925', 'zmla', 'zg600', 'clh', 'clivi']</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200']</t>
+          <t>['clt', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'snm', 'snw', 'sund', 'hus600', 'hus925', 'huss', 'hus100', 'hus400', 'hus500', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'evspsbl', 'hfls', 'mrfso', 'mrro', 'snc', 'snd', 'hus700', 'hus850', 'hus200', 'hus300', 'rsdt', 'rsus', 'rsut', 'zg925', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'ta925', 'zg300', 'zg600', 'va300', 'va500', 'va600', 'va700', 'ua300', 'ua500', 'ua700', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'zg850', 'va850', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'tas', 'zg400', 'zg500', 'zg700', 'va400', 'ua400', 'ua600', 'ta100', 'ta200', 'ta300', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600']</t>
+          <t>['ua100', 'ua200', 'ua300', 'va925', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg600', 'zg700', 'zg850', 'tasmax', 'tasmin', 'vas', 'zg100', 'zg200', 'zg300', 'zg500', 'mrso', 'psl', 'sfcWind', 'snw', 'sund', 'ta100', 'ta200', 'ta850', 'ta300', 'ta400', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'pr', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta700', 'ta925', 'tas', 'ta500', 'ta600', 'evspsbl', 'hfls', 'clt']</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr']</t>
+          <t>['pr', 'prc', 'ua100m', 'tds', 'tas', 'va100m']</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['hfss', 'hfls', 'clt', 'sfcWind', 'tas', 'cape', 'evspsbl', 'rsus', 'sund', 'ts', 'prc', 'hurs', 'psl', 'ps', 'pr', 'rsds', 'rlds', 'rlus', 'huss']</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg850', 'zg925', 'zg600', 'zg700', 'ua400', 'ua500', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'hus925', 'mrro', 'vas', 'va300', 'va400', 'va850', 'clh', 'cll', 'prw', 'mrros', 'hus850', 'zg100', 'va500', 'va600', 'va700', 'va925', 'hus300', 'hus700', 'ta500', 'ta850', 'ta925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus400', 'hus500', 'hus600', 'ua200', 'ua100', 'ua300', 'ta700', 'ta600', 'ts']</t>
         </is>
       </c>
     </row>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax']</t>
+          <t>['rsut', 'sfcWind', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'sfcWindmax', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'clh', 'clivi', 'cll', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg300', 'zg400', 'va600', 'va700', 'zg700', 'zg850', 'zg925', 'zg200', 'zg500', 'va500', 'va850', 'zmla', 'hus925', 'hus200', 'hus400', 'huss', 'hus850', 'hus300', 'hus500', 'rsds', 'rsdt', 'rsus', 'mrfso', 'mrro', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700']</t>
+          <t>['zg400', 'zg500', 'zg600', 'zg700', 'zg300', 'zg850', 'zg925', 'clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'rlus', 'rlut', 'mrso', 'hurs', 'hus100', 'hus500', 'hus850', 'hus925', 'rsus', 'snd', 'snm', 'snw', 'tasmin', 'ua100', 'ua200', 'vas', 'zg100', 'ua925', 'uas', 'va100', 'va200', 'sund', 'va400', 'va700', 'ua300', 'ua400', 'ua500', 'ta500', 'ta600', 'ta700', 'rsds', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'tas', 'tasmax', 'va850', 'va925', 'zg200', 'ua850', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va500', 'va600', 'ua600', 'ua700', 'ta850', 'ta925', 'hus600', 'hus700', 'psl', 'rlds', 'huss', 'mrfso', 'mrro', 'mrros', 'hus200', 'hus300', 'hus400']</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925']</t>
+          <t>['sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta700', 'ta850', 'tasmin', 'ua100', 'va925', 'vas', 'zg100', 'ua925', 'va200', 'zg300', 'zg400', 'zg700', 'va300', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925', 'ta500', 'ta600', 'ta925', 'tas', 'tasmax', 'ua200', 'va850', 'zg200', 'ua850', 'uas', 'va100', 'zg500', 'zg600', 'va400', 'va500', 'rlut', 'clt', 'sfcWind', 'snd', 'snm', 'hus925', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsdt', 'rsus', 'rsut', 'evspsbl', 'hfls', 'sfcWindmax', 'snc', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['ua100m', 'va100m', 'pr', 'prc', 'tas', 'tds']</t>
+          <t>['prc', 'ua100m', 'va100m', 'pr', 'tas', 'tds']</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['cape', 'clt', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'rlus', 'rsds', 'psl', 'rlds', 'ts', 'sund', 'tas']</t>
+          <t>['sfcWind', 'rsds', 'rsus', 'rlus', 'psl', 'rlds', 'ts', 'sund', 'tas', 'cape', 'clt', 'hfss', 'evspsbl', 'hurs', 'hfls', 'prc', 'ps', 'huss', 'pr']</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['va925', 'vas', 'ua925', 'uas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va100', 'va200', 'va700', 'va850', 'va300', 'va400', 'va500', 'va600', 'ta925', 'ts', 'ua700', 'ua850', 'ua100', 'ua200', 'ua500', 'ua600', 'ua300', 'ua400', 'ta100', 'ta200', 'ta700', 'ta850', 'ta300', 'ta400', 'ta500', 'ta600', 'zg925', 'zmla', 'zg700', 'zg850', 'prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hus850', 'hus925', 'hus400', 'hus500', 'hus600', 'hus700', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus200', 'hus300']</t>
+          <t>['rlut', 'mrros', 'mrro', 'rsdt', 'rsut', 'snw', 'snc', 'snd', 'hus400', 'hus500', 'prw', 'mrso', 'mrfso', 'snm', 'hus850', 'hus925', 'hus600', 'hus700', 'va925', 'vas', 'ua925', 'uas', 'zg200', 'zg300', 'zg500', 'va200', 'va700', 'va850', 'va400', 'va500', 'zg100', 'zg400', 'zg600', 'va100', 'va300', 'va600', 'zg925', 'zmla', 'zg700', 'zg850', 'cll', 'evspsbl', 'hus100', 'clh', 'hus200', 'hus300', 'clm', 'clwvi', 'clivi', 'ta925', 'ts', 'ua850', 'ua100', 'ua200', 'ua600', 'ta100', 'ta400', 'ta600', 'ua700', 'ta700', 'ua500', 'ua300', 'ua400', 'ta200', 'ta850', 'ta300', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'va700', 'va850', 'va925', 'vas', 'wsgsmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'va300', 'va400', 'va500', 'va600', 'ua400', 'ua500', 'ua600', 'ua700', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clh', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500']</t>
+          <t>['rlut', 'rsdt', 'evspsbl', 'hurs', 'hus100', 'prsn', 'clt', 'mrso', 'hus850', 'ua700', 'sund', 'ta100', 'va700', 'va925', 'vas', 'wsgsmax', 'tasmin', 'ua300', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'ta200', 'ta300', 'ta400', 'ta500', 'va300', 'va400', 'ua600', 'va850', 'ts', 'ua100', 'ua200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'va500', 'va600', 'ua400', 'ua500', 'sfcWindmax', 'snd', 'snw', 'rsut', 'sfcWind', 'rsus', 'snc', 'snm', 'rsds', 'hfls', 'hfss', 'prhmax', 'prw', 'ps', 'psl', 'clivi', 'cll', 'clm', 'clwvi', 'mrro', 'prc', 'hus700', 'hus925', 'rlds', 'rlus', 'mrros', 'pr', 'huss', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clh', 'zg600', 'zg850', 'zmla', 'zg200', 'zg300', 'zg400', 'zg700', 'zg925', 'zg500', 'zg100']</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600']</t>
+          <t>['zg850', 'zg200', 'zg300', 'zg600', 'va400', 'va500', 'zg700', 'zg925', 'vas', 'va300', 'va600', 'va700', 'va850', 'va925', 'zg100', 'zg400', 'zg500', 'ua600', 'ua700', 'ua850', 'ua925', 'va200', 'ua200', 'ua400', 'uas', 'va100', 'ua100', 'ua300', 'ua500', 'mrro', 'mrros', 'mrso', 'pr', 'sund', 'ta100', 'ta200', 'ta400', 'ta925', 'tasmax', 'hus850', 'ta300', 'ta500', 'ta850', 'tas', 'tasmin', 'hus300', 'hus700', 'ta600', 'ta700', 'hus400', 'hus500', 'hus600', 'snc', 'snd', 'clt', 'evspsbl', 'hurs', 'mrfso', 'snm', 'snw', 'hfls', 'hfss', 'hus100', 'hus200', 'hus925', 'huss', 'rlds', 'rlus', 'rlut', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hfls', 'hfss', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut']</t>
+          <t>['rsut', 'sfcWind', 'evspsbl', 'hfls', 'hfss', 'hus850', 'huss', 'mrfso', 'mrro', 'hus200', 'hus500', 'sfcWindmax', 'snc', 'hus925', 'mrros', 'hus300', 'hus600', 'mrso', 'rsds', 'rsdt', 'clt', 'hus700', 'hurs', 'hus100', 'hus400', 'pr', 'psl', 'rsus', 'rlds', 'rlus', 'rlut', 'snd', 'snw', 'ta100', 'ta200', 'ta300', 'ua600', 'ua925', 'va200', 'va300', 'va400', 'va500', 'va700', 'ua200', 'vas', 'snm', 'sund', 'ua500', 'ua700', 'ua850', 'va100', 'ta500', 'ta700', 'ta925', 'ua400', 'va925', 'zg100', 'zg300', 'zg500', 'zg700', 'uas', 'ta400', 'ta600', 'ta850', 'tas', 'va600', 'va850', 'tasmax', 'tasmin', 'ua100', 'ua300', 'zg200', 'zg400', 'zg600', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
+          <t>['ua100m', 'tas', 'pr', 'prc', 'va100m', 'tds']</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'cape', 'evspsbl', 'clt', 'rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts']</t>
+          <t>['evspsbl', 'rsds', 'rsus', 'rlus', 'clt', 'cape', 'sfcWind', 'tas', 'sund', 'ts', 'pr', 'rlds', 'hfss', 'prc', 'hfls', 'huss', 'hurs', 'psl', 'ps']</t>
         </is>
       </c>
     </row>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'uas', 'ua200', 'ua925', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clh', 'clivi', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'ua100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'zg925']</t>
+          <t>['hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'ua100', 'ta300', 'ta400', 'ta600', 'ta850', 'ta925', 'ts', 'va100', 'mrfso', 'mrso', 'ta500', 'ta700', 'clivi', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'prw', 'mrros', 'zg925', 'va200', 'va300', 'cll', 'clm', 'evspsbl', 'hus100', 'hus500', 'rsdt', 'rsut', 'ta200', 'uas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'vas', 'zg100', 'zg400', 'zg500', 'zg600', 'hus200', 'hus300', 'hus400', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'clwvi', 'ua200', 'ua925', 'ua850', 'zg200', 'zg300', 'zg700', 'zg850']</t>
         </is>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['rsds', 'rsdt', 'rsus', 'rsut', 'psl', 'rlds', 'rlus', 'rlut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'tas', 'tasmax', 'tasmin', 'ts', 'ta600', 'ta700', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'huss', 'mrfso', 'mrro', 'zg850', 'zg925', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'vas', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'uas', 'va100', 'va200', 'ua700', 'ua850', 'ua925']</t>
+          <t>['mrros', 'prc', 'hus300', 'hus400', 'hus500', 'huss', 'zg850', 'wsgsmax', 'zg100', 'zg300', 'va700', 'va925', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'uas', 'mrso', 'pr', 'hus600', 'hus700', 'hus925', 'mrro', 'zg925', 'zmla', 'zg200', 'va850', 'vas', 'zg400', 'va500', 'va600', 'va100', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfss', 'hus100', 'hus850', 'hus200', 'mrfso', 'hfls', 'hurs', 'va200', 'ua700', 'ua850', 'ua925', 'ua600', 'rlut', 'snd', 'snw', 'sund', 'ta100', 'tas', 'tasmax', 'tasmin', 'ta200', 'ta500', 'ua100', 'ua500', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snm', 'ta300', 'ta400', 'ua200', 'ua300', 'rsds', 'rsdt', 'rsus', 'rsut', 'psl', 'ts', 'ta600', 'ta700', 'ta850', 'ta925', 'ua400']</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'snd', 'snm', 'snw', 'sund', 'ta100', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clt', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['hfss', 'hurs', 'hus600', 'hfls', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'evspsbl', 'clt', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va400', 'zg500', 'zg600', 'zg700', 'zg925', 'va500', 'va700', 'va850', 'zg850', 'va600', 'va925', 'uas', 'va100', 'va200', 'va300', 'rlds', 'rsus', 'sfcWind', 'sfcWindmax', 'mrro', 'mrso', 'pr', 'psl', 'snd', 'snm', 'snw', 'sund', 'ta100', 'hus700', 'hus850', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsut', 'snc', 'mrros', 'hus925', 'tasmax', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'ta200', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'huss', 'ua200', 'ua300', 'ua400', 'ta700', 'mrfso', 'tasmin', 'ua100']</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['hus700', 'hus850', 'hus925', 'huss', 'hus200', 'hus400', 'hurs', 'mrro', 'mrros', 'zg400', 'zg700', 'zg850', 'zg500', 'zg600', 'hus100', 'hus300', 'hus500', 'hus600', 'rlds', 'psl', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'mrfso', 'mrso', 'pr', 'rsus', 'rsut', 'sfcWind', 'tasmax', 'ua100', 'zg925', 'ua200', 'snd', 'snm', 'sund', 'rsdt', 'sfcWindmax', 'snc', 'snw', 'tasmin', 'ua300', 'va925', 'va100', 'va200', 'va300', 'ta600', 'va500', 'va600', 'ua400', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'ta700', 'ta850', 'ta925', 'tas', 'va400', 'va700', 'va850', 'ua600', 'ua700', 'ta200', 'ta300', 'ta400', 'ta500', 'ua500', 'ua850', 'ta100']</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['pr', 'prc', 'tds', 'tas']</t>
+          <t>['prc', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr']</t>
+          <t>['rsds', 'sfcWind', 'sund', 'evspsbl', 'rsus', 'rlus', 'clt', 'hfls', 'hfss', 'huss', 'hurs', 'ts', 'tas', 'ps', 'prc', 'pr', 'rlds', 'psl']</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700']</t>
+          <t>['rsdt', 'rsut', 'snc', 'zmla', 'snm', 'snw', 'ua600', 'ua700', 'ua850', 'snd', 'ua925', 'cll', 'clm', 'clivi', 'zg850', 'zg925', 'hus500', 'ua400', 'ua500', 'va600', 'hus400', 'hus600', 'ua200', 'ua300', 'va400', 'va500', 'rlut', 'mrso', 'prw', 'va100', 'uas', 'va200', 'va300', 'ua100', 'ts', 'clh', 'ta400', 'ta600', 'ta300', 'ta500', 'zg200', 'zg300', 'zg400', 'hus300', 'zg100', 'zg600', 'hus200', 'zg500', 'zg700', 'vas', 'va700', 'va850', 'va925', 'hus925', 'hus700', 'hus850', 'ta925', 'ta700', 'ta850', 'ta200', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'clwvi', 'ta100']</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850']</t>
+          <t>['pr', 'va300', 'va400', 'prsn', 'va200', 'va850', 'va500', 'va600', 'va700', 'sund', 'ta200', 'rsds', 'rlds', 'zmla', 'zg600', 'zg850', 'zg700', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zg500', 'zg925', 'sfcWindmax', 'ta100', 'ta300', 'clh', 'clivi', 'snw', 'ta400', 'sfcWind', 'snm', 'rsus', 'rsut', 'snc', 'snd', 'ta700', 'tasmax', 'tas', 'ta500', 'ta600', 'ta925', 'ta850', 'mrfso', 'huss', 'hus850', 'mrro', 'zg200', 'zg300', 'va925', 'mrros', 'hus700', 'hus925', 'wsgsmax', 'vas', 'zg400', 'zg100', 'prhmax', 'prc', 'prw', 'mrso', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'va100', 'ua700', 'ua850', 'clt', 'uas', 'ua600', 'ua925', 'hus100', 'hus400', 'ua100', 'ua300', 'ua400', 'ua500', 'ts', 'hus200', 'hus300', 'hus500', 'hus600', 'tasmin', 'ua200', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd']</t>
+          <t>['snm', 'sund', 'ta100', 'ta200', 'snw', 'snc', 'hfss', 'hus100', 'hus200', 'hus300', 'clt', 'tasmax', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'tasmin', 'tas', 'hfls', 'zg850', 'evspsbl', 'hurs', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus700', 'hus850', 'hus925', 'va400', 'va700', 'va850', 'hus600', 'va300', 'va500', 'va600', 'va925', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'uas', 'va100', 'ua850', 'ua925', 'va200', 'ua600', 'ua700', 'snd', 'ta300', 'ta400', 'ta700', 'ta850', 'ta500', 'ta600', 'ta925', 'rsds', 'rsdt', 'rsut', 'rlut', 'rsus', 'sfcWindmax', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd']</t>
+          <t>['sfcWindmax', 'snm', 'snw', 'snc', 'snd', 'hfss', 'hfls', 'sund', 'ta500', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'evspsbl', 'clt', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'zg700', 'zg925', 'pr', 'rsdt', 'rlut', 'psl', 'rsds', 'rlds', 'rlus', 'rsus', 'rsut', 'sfcWind', 'mrso', 'huss', 'hus925', 'mrro', 'zg500', 'zg600', 'zg850', 'mrfso', 'mrros', 'hus850', 'zg400', 'va925', 'hurs', 'hus100', 'hus300', 'hus600', 'vas', 'zg100', 'zg200', 'va700', 'hus200', 'hus400', 'hus500', 'hus700', 'zg300', 'va850']</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['tas', 'tds', 'pr', 'prc']</t>
+          <t>['prc', 'tas', 'tds', 'pr']</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['cape', 'clt', 'psl', 'rlds', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'rlus', 'rsds', 'ts', 'sund', 'tas']</t>
+          <t>['clt', 'psl', 'rlds', 'hfss', 'hurs', 'evspsbl', 'ps', 'hfls', 'prc', 'huss', 'pr', 'cape', 'sfcWind', 'rsds', 'tas', 'rsus', 'rlus', 'ts', 'sund']</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hus850', 'hus925', 'hus600', 'hus700', 'ta100', 'ta200', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va700', 'va850', 'va100', 'va200', 'va500', 'va600', 'va300', 'va400', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus200', 'hus300', 'hus400', 'hus500', 'ta925', 'ts', 'ua925', 'uas', 'ta700', 'ta850', 'ta300', 'ta400', 'ua700', 'ua850', 'ta500', 'ta600', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'zg925', 'zmla']</t>
+          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'hus850', 'hus600', 'hus700', 'ta100', 'ta200', 'va925', 'zg700', 'va400', 'prw', 'rlut', 'snd', 'hus925', 'vas', 'zg850', 'va500', 'va600', 'va300', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va700', 'va850', 'va100', 'va200', 'ta400', 'ua850', 'clwvi', 'evspsbl', 'clh', 'hus300', 'hus400', 'ta925', 'ts', 'uas', 'ta500', 'ta600', 'ua200', 'ua600', 'clm', 'clivi', 'cll', 'hus100', 'hus200', 'hus500', 'ua925', 'ta700', 'ta850', 'ta300', 'ua700', 'ua100', 'ua300', 'ua400', 'ua500', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'va700', 'va850', 'va925', 'vas', 'wsgsmax', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va200', 'va300', 'va400', 'va500', 'va600', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'clh']</t>
+          <t>['zg925', 'zmla', 'ua700', 'zg600', 'zg700', 'zg850', 'ua925', 'uas', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua600', 'ua850', 'va100', 'hus500', 'hus200', 'hus400', 'hus700', 'hus300', 'hus600', 'rlus', 'rlut', 'rsds', 'hfss', 'hus100', 'prsn', 'prw', 'psl', 'rlds', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'mrros', 'mrso', 'pr', 'prc', 'clivi', 'zg500', 'va200', 'va300', 'va400', 'va500', 'ta300', 'ta600', 'ta500', 'ta700', 'ua500', 'snw', 'va600', 'ta400', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'zg100', 'cll', 'hus850', 'hus925', 'huss', 'snd', 'prhmax', 'clm', 'clt', 'clwvi', 'mrfso', 'mrro', 'clh', 'rsdt', 'rsus', 'evspsbl', 'hfls', 'hurs', 'ps', 'zg300', 'zg400', 'vas', 'wsgsmax', 'ta850', 'ta925', 'tas', 'zg200', 'snm', 'sund', 'ta100', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['clt', 'zg600', 'zg700', 'zg850', 'zg925', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925']</t>
+          <t>['clt', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'hus400', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'mrros', 'mrso', 'pr', 'rlds', 'snw', 'sund', 'ta200', 'tasmin', 'ua100', 'hus500', 'hus600', 'hus700', 'hus925', 'ua500', 'uas', 'va100', 'va200', 'mrro', 'psl', 'rlus', 'snc', 'snd', 'snm', 'ta100', 'tas', 'tasmax', 'ua200', 'ua300', 'ua400', 'hus850', 'huss', 'mrfso', 'ua600', 'ua700', 'ua850', 'ua925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ta600', 'ta700', 'ta850', 'hus300', 'rlut', 'rsds', 'ta300', 'ta400', 'ta500', 'ta925', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200']</t>
         </is>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'clt', 'evspsbl', 'hfls', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['ta600', 'ta925', 'tas', 'ta400', 'ta500', 'ta700', 'ta850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va400', 'zg500', 'va200', 'va300', 'va500', 'va600', 'va700', 'va850', 'ua600', 'ua700', 'ua850', 'ua925', 'zg600', 'zg925', 'uas', 'va100', 'zg700', 'zg850', 'rsds', 'sfcWind', 'sfcWindmax', 'psl', 'rlus', 'rlut', 'rsdt', 'rsus', 'rsut', 'evspsbl', 'hfls', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'hus100', 'tasmax', 'tasmin', 'ua100', 'ua300', 'ua400', 'ua500', 'snc', 'mrros', 'mrso', 'pr', 'rlds', 'clt', 'snd', 'ta300', 'mrro', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['tas', 'tds', 'pr', 'prc']</t>
+          <t>['tds', 'pr', 'prc', 'tas']</t>
         </is>
       </c>
     </row>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['va100m', 'ua100m']</t>
+          <t>['ua100m', 'va100m']</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['psl', 'rlds', 'cape', 'clt', 'rlus', 'rsds', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'ts', 'sund', 'tas']</t>
+          <t>['rlds', 'clt', 'rlus', 'rsds', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'pr', 'sfcWind', 'cape', 'hfss', 'huss', 'rsus', 'ts', 'sund', 'psl', 'tas']</t>
         </is>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['zmla', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus600', 'hus700', 'hus200', 'hus300', 'hus400', 'hus500', 'vas', 'zg100', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'rsdt', 'rsut', 'prw', 'rlut', 'snd', 'snm', 'snc', 'mrros', 'mrso', 'mrfso', 'mrro', 'snw', 'ta100', 'hus850', 'hus925', 'ta200', 'ta300', 'uas', 'va100', 'ts', 'ua100', 'ta850', 'ta925', 'ua850', 'ua925', 'ta400', 'ta500', 'ta600', 'ta700', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
+          <t>['zmla', 'snd', 'snm', 'rlut', 'rsdt', 'rsut', 'prw', 'zg300', 'va850', 'va200', 'va300', 'va400', 'va500', 'va700', 'va925', 'va600', 'clivi', 'evspsbl', 'hus100', 'clh', 'hus500', 'vas', 'zg850', 'clm', 'cll', 'hus600', 'hus700', 'hus200', 'hus400', 'zg600', 'zg700', 'clwvi', 'hus300', 'zg100', 'zg925', 'zg400', 'zg500', 'zg200', 'snc', 'snw', 'hus850', 'ta200', 'ta300', 'mrso', 'mrfso', 'mrro', 'ta100', 'hus925', 'mrros', 'uas', 'va100', 'ts', 'ua100', 'ta850', 'ta925', 'ua925', 'ta700', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ua200', 'ua600', 'ua700', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'clh', 'clivi', 'cll', 'clm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'zg850', 'zg925', 'zmla', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100']</t>
+          <t>['hus100', 'hus500', 'clt', 'hfss', 'rlut', 'prsn', 'cll', 'mrfso', 'mrro', 'snw', 'sund', 'hus925', 'huss', 'hus400', 'hfls', 'sfcWind', 'psl', 'rlus', 'rsds', 'prc', 'clh', 'clivi', 'clm', 'mrros', 'mrso', 'hurs', 'hus200', 'hus300', 'clwvi', 'evspsbl', 'rsdt', 'rsus', 'rsut', 'sfcWindmax', 'rlds', 'prhmax', 'prw', 'ps', 'pr', 'snc', 'snd', 'snm', 'hus600', 'hus700', 'hus850', 'ta700', 'ta850', 'ta925', 'tas', 'tasmin', 'uas', 'ua100', 'ua300', 'va200', 'va500', 'va700', 'ta100', 'zg850', 'zg925', 'zmla', 'tasmax', 'ua600', 'ua850', 'zg300', 'zg500', 'zg700', 'ua700', 'ua925', 'va100', 'ts', 'ua200', 'ua400', 'ua500', 'va300', 'va400', 'va600', 'zg200', 'zg400', 'zg600', 'ta200', 'ta300', 'ta400', 'ta600', 'vas', 'wsgsmax', 'zg100', 'ta500', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'clt', 'evspsbl', 'hfls', 'hfss']</t>
+          <t>['snw', 'mrso', 'zg600', 'zg700', 'zg850', 'ta850', 'tas', 'va850', 'va100', 'va200', 'va400', 'va600', 'hus925', 'mrro', 'mrros', 'zg500', 'tasmax', 'tasmin', 'va925', 'zg100', 'zg300', 'zg400', 'rlds', 'rlus', 'rlut', 'sund', 'ta200', 'ta300', 'ta500', 'pr', 'psl', 'rsds', 'rsdt', 'rsus', 'ta100', 'ta400', 'ta600', 'ta700', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'rsut', 'sfcWind', 'snd', 'sfcWindmax', 'snc', 'ua300', 'ua400', 'ua500', 'snm', 'hus850', 'huss', 'mrfso', 'zg925', 'ta925', 'ua100', 'ua200', 'vas', 'zg200', 'va300', 'va500', 'va700', 'hurs', 'hus100', 'hus300', 'hus500', 'hus200', 'hus400', 'hus600', 'hus700', 'clt', 'evspsbl', 'hfls', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'evspsbl']</t>
+          <t>['va200', 'va500', 'va600', 'va700', 'va850', 'ta400', 'ta600', 'va300', 'va400', 'ta300', 'ta500', 'ta700', 'ta850', 'ta925', 'mrfso', 'ua500', 'ua600', 'ua850', 'ua700', 'ua925', 'uas', 'va100', 'zg100', 'zg200', 'zg300', 'zg500', 'zg925', 'va925', 'vas', 'zg400', 'zg600', 'zg700', 'zg850', 'clt', 'evspsbl', 'rlut', 'rsds', 'rsdt', 'rsus', 'mrros', 'ta200', 'hfls', 'snc', 'snd', 'snm', 'snw', 'hurs', 'hus200', 'hus300', 'tasmax', 'tasmin', 'ua200', 'ua400', 'hus500', 'hus850', 'hus925', 'hus100', 'hus400', 'tas', 'ua100', 'ua300', 'hus600', 'hus700', 'huss', 'rsut', 'sfcWind', 'sfcWindmax', 'mrro', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'sund', 'ta100', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr']</t>
+          <t>['pr', 'prc', 'tas', 'tds']</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts']</t>
+          <t>['rsds', 'rlds', 'rsus', 'psl', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'hfss', 'evspsbl', 'hurs', 'ps', 'pr', 'hfls', 'prc', 'huss', 'clt']</t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'zg700', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300']</t>
+          <t>['rsdt', 'rsut', 'snd', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ts', 'ua600', 'ua700', 'ua850', 'clh', 'cll', 'evspsbl', 'hus300', 'hus100', 'hus200', 'zg700', 'zg850', 'zg925', 'mrros', 'hus850', 'mrro', 'mrso', 'snm', 'snw', 'snc', 'mrfso', 'hus400', 'hus500', 'hus600', 'hus700', 'hus925', 'zmla', 'vas', 'zg100', 'zg300', 'zg500', 'zg600', 'va925', 'zg200', 'zg400', 'va850', 'uas', 'va300', 'va400', 'va100', 'va200', 'va500', 'va600', 'va700', 'ua925', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'rlut', 'prw', 'clwvi', 'clm', 'clivi']</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'clivi', 'clt', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['huss', 'mrros', 'hus500', 'hus600', 'hus925', 'mrro', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'rlds', 'prw', 'hfls', 'hurs', 'hus100', 'hus200', 'hfss', 'cll', 'clivi', 'ua200', 'ua700', 'clh', 'clt', 'uas', 'ua300', 'ua400', 'ua500', 'ua600', 'clm', 'ua850', 'ua925', 'hus850', 'zg925', 'tasmin', 'ta600', 'ta700', 'ta850', 'ts', 'tasmax', 'tas', 'ta925', 'ua100', 'sfcWindmax', 'rsds', 'rsus', 'sfcWind', 'snc', 'rlus', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'zg300', 'ta100', 'ta200', 'ta300', 'ta500', 'snd', 'ta400', 'snm', 'snw', 'sund', 'mrfso', 'hus700', 'zmla', 'zg850', 'hus400', 'va100', 'va200', 'va400', 'va500', 'va600', 'va850', 'clwvi', 'evspsbl', 'hus300', 'va300', 'va700', 'va925']</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd']</t>
+          <t>['ua925', 'ua600', 'ua700', 'ua850', 'hfss', 'hfls', 'uas', 'va200', 'ua500', 'mrfso', 'rlds', 'rlus', 'rlut', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'mrso', 'mrros', 'psl', 'zg300', 'zg400', 'mrro', 'pr', 'snw', 'ta300', 'ta500', 'ta100', 'ta600', 'ta700', 'sund', 'ta200', 'ta400', 'evspsbl', 'va300', 'hus300', 'hus600', 'hus850', 'hus200', 'hus500', 'hus700', 'hus925', 'hus400', 'huss', 'vas', 'va400', 'va600', 'va700', 'va850', 'va925', 'zg100', 'zg200', 'va500', 'tasmin', 'tas', 'ua100', 'ua300', 'tasmax', 'ta850', 'ta925', 'ua200', 'ua400', 'hurs', 'hus100', 'clt', 'va100', 'rsds', 'rsut', 'sfcWind', 'snd', 'sfcWindmax', 'rsus', 'rsdt', 'snm', 'snc']</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl']</t>
+          <t>['tasmax', 'ta500', 'ta600', 'ta700', 'ta850', 'tasmin', 'tas', 'ta400', 'ta925', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'evspsbl', 'snc', 'ta200', 'ta300', 'snd', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta100', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'hfss', 'hus600', 'uas', 'va300', 'va400', 'va850', 'va100', 'va200', 'va500', 'va600', 'va700', 'hus925', 'mrro', 'pr', 'vas', 'zg300', 'zg600', 'zg700', 'zg100', 'zg200', 'zg400', 'zg500', 'va925', 'mrso', 'mrros', 'huss', 'mrfso', 'hus700', 'hus850', 'zg925', 'rsds', 'rlds', 'rlus', 'rsut', 'rlut', 'psl', 'rsus', 'rsdt', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['ua100m', 'va100m']</t>
+          <t>['va100m', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['cape', 'clt', 'evspsbl', 'hfls', 'tas', 'ts']</t>
+          <t>['cape', 'evspsbl', 'clt', 'hfls', 'ts', 'tas']</t>
         </is>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'hus925', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snc', 'snd', 'snm', 'cll', 'clm', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'ua100', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300']</t>
+          <t>['zg700', 'zg850', 'zmla', 'clh', 'clivi', 'hus925', 'mrso', 'rsut', 'snc', 'clm', 'mrfso', 'mrro', 'mrros', 'prw', 'rlut', 'rsdt', 'snd', 'snm', 'cll', 'zg600', 'zg925', 'ta500', 'ta600', 'ts', 'ua100', 'va500', 'va700', 'va925', 'vas', 'zg200', 'zg500', 'ua200', 'ua500', 'ua600', 'ua700', 'uas', 'va100', 'va200', 'zg100', 'zg300', 'zg400', 'ua300', 'ua400', 'ua850', 'ua925', 'va300', 'ta700', 'ta850', 'ta925', 'va400', 'va600', 'va850', 'clwvi', 'evspsbl', 'hus200', 'hus500', 'hus850', 'ta100', 'ta200', 'ta300', 'hus100', 'hus300', 'hus400', 'hus600', 'hus700', 'snw', 'ta400']</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700']</t>
+          <t>['hus300', 'hus400', 'hus500', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prw', 'psl', 'rlut', 'rsds', 'rsus', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus600', 'hus700', 'hus925', 'huss', 'prc', 'prhmax', 'prsn', 'ps', 'rlds', 'rlus', 'rsdt', 'rsut', 'sfcWindmax', 'snc', 'snm', 'sfcWind', 'snd', 'hfls', 'hfss', 'hurs', 'ta925', 'tasmax', 'ts', 'ua200', 'va400', 'va500', 'va600', 'va700', 'ua500', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'ua300', 'ua400', 'ua600', 'ua700', 'wsgsmax', 'zg500', 'zg600', 'zg925', 'zmla', 'snw', 'sund', 'ta300', 'ta400', 'ta700', 'ta850', 'tas', 'tasmin', 'ua100', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg700', 'zg850', 'ta100', 'ta200', 'ta500', 'ta600']</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'clt', 'evspsbl']</t>
+          <t>['hus400', 'hus500', 'hus700', 'huss', 'mrfso', 'mrro', 'mrso', 'va500', 'va600', 'va850', 'va925', 'ta300', 'ta400', 'rlut', 'rsds', 'rsdt', 'rsut', 'snw', 'sund', 'ta100', 'hfls', 'hfss', 'hurs', 'hus200', 'pr', 'psl', 'rlds', 'rlus', 'rsus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'va300', 'ta200', 'zg500', 'zg600', 'zg850', 'zg925', 'zg400', 'zg700', 'hus100', 'hus300', 'hus600', 'hus850', 'hus925', 'mrros', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va400', 'va700', 'vas', 'zg100', 'zg200', 'zg300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tasmax', 'ua200', 'ua300', 'clt', 'evspsbl', 'tas', 'tasmin', 'ua100', 'ua400', 'ua500', 'ua600']</t>
         </is>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700']</t>
+          <t>['vas', 'zg300', 'zg100', 'zg200', 'zg500', 'zg600', 'zg850', 'zg925', 'zg400', 'zg700', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'clt', 'evspsbl', 'hfls', 'hus100', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'hfss', 'hurs', 'hus200', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'va300', 'va400', 'va500', 'va850', 'va925', 'snc', 'snd', 'snm', 'ta200', 'ta300', 'tas', 'tasmin', 'ua500', 'ua600', 'ua925', 'snw', 'sund', 'ta100', 'ta400', 'ta500', 'ta600', 'ta700', 'ua700', 'uas', 'va100', 'va200', 'va600', 'va700', 'ta850', 'ta925', 'tasmax', 'ua100', 'ua200', 'ua300', 'ua400', 'ua850', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ps', 'ts']</t>
+          <t>['hurs', 'pr', 'rsds', 'tas', 'ps', 'hfls', 'evspsbl', 'prc', 'huss', 'clt', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'cape', 'hfss', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'mrfso', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'snw', 'ta300', 'ta100', 'ta200', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua850', 'ua925', 'zmla', 'zg600', 'zg850', 'zg700', 'zg925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snm', 'snc', 'snd', 'ta925', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua200', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va925']</t>
+          <t>['rlut', 'prw', 'snc', 'ua400', 'ua500', 'ua600', 'ua700', 'ua200', 'ts', 'zg200', 'va925', 'rsdt', 'rsut', 'mrso', 'mrros', 'snm', 'snd', 'ta925', 'ua100', 'ua300', 'vas', 'zg100', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va500', 'va600', 'ua925', 'clh', 'cll', 'clm', 'evspsbl', 'hus200', 'hus600', 'hus925', 'mrro', 'snw', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'va200', 'clwvi', 'clivi', 'hus100', 'mrfso', 'hus300', 'hus400', 'hus500', 'hus700', 'hus850', 'ta500', 'uas', 'va100', 'va300', 'va400', 'ua850', 'zg600', 'zg850', 'zmla', 'zg700', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'zg925', 'zmla', 'tasmax', 'tasmin', 'ts', 'ua100', 'va850', 'va925', 'vas', 'wsgsmax', 'uas', 'va100', 'va200', 'va300', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg200', 'zg300', 'zg400', 'ua600', 'ua700', 'ua850', 'ua925', 'va400', 'va500', 'va600', 'va700', 'ua200', 'ua300', 'ua400', 'ua500', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'mrso', 'pr', 'prc', 'prhmax', 'huss', 'mrfso', 'mrro', 'mrros', 'prsn', 'prw', 'ps', 'psl', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600']</t>
+          <t>['ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'ta400', 'ta600', 'tas', 'ta300', 'ta500', 'rlds', 'snc', 'prc', 'prhmax', 'mrro', 'mrros', 'snd', 'huss', 'mrfso', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snm', 'mrso', 'pr', 'prw', 'psl', 'sund', 'prsn', 'ps', 'snw', 'clh', 'clivi', 'clt', 'clwvi', 'evspsbl', 'hfss', 'hus100', 'zg925', 'zmla', 'zg100', 'zg200', 'zg300', 'zg400', 'ua600', 'ua700', 'ua925', 'va400', 'va500', 'clm', 'hfls', 'hurs', 'hus850', 'hus400', 'tasmax', 'ua100', 'va850', 'va925', 'uas', 'va100', 'va200', 'zg500', 'zg600', 'zg700', 'ua200', 'ua300', 'cll', 'hus600', 'hus700', 'hus925', 'hus200', 'hus300', 'hus500', 'tasmin', 'ts', 'vas', 'wsgsmax', 'va300', 'zg850', 'ua850', 'va600', 'va700', 'ua400', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925']</t>
+          <t>['hus300', 'tas', 'ua100', 'hus400', 'hus500', 'hus700', 'hus850', 'ta500', 'ta600', 'ta700', 'sund', 'ta400', 'mrso', 'snw', 'ta100', 'ta200', 'ta300', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'snc', 'snd', 'uas', 'clt', 'zg700', 'va200', 'va300', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'va400', 'zg400', 'ua300', 'ua700', 'ua400', 'ua500', 'ua600', 'evspsbl', 'zg500', 'zg850', 'ua850', 'va100', 'hfls', 'zg600', 'zg925', 'ua925', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'tasmax', 'tasmin', 'ua200', 'hus600', 'ta850', 'ta925', 'rsut', 'sfcWind', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
+          <t>['ua600', 'ua700', 'sfcWind', 'rsus', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta100', 'ta200', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'va300', 'ua400', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'rlut', 'rsds', 'rsdt', 'rsut', 'va925', 'sund', 'ta300', 'ta850', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua500', 'zg300', 'zg925', 'zg400', 'zg500', 'zg700', 'zg850', 'psl', 'rlds', 'rlus', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'mrros', 'pr', 'clt', 'mrso', 'mrfso', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr']</t>
+          <t>['tds', 'tas', 'pr', 'prc']</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['hurs', 'psl', 'pr', 'evspsbl', 'clt', 'prc', 'huss', 'ps', 'rlds', 'hfss', 'hfls', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rsus', 'rlus']</t>
         </is>
       </c>
     </row>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['cll', 'clm', 'hus300', 'hus400', 'hus500', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'mrfso', 'mrso', 'hus925', 'rsdt', 'rsut', 'snw', 'snc', 'ta300', 'ta400', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'mrro', 'rlut', 'snm', 'ta100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ta200', 'snd', 'va850', 'zg300', 'zg400', 'va700', 'va925', 'zg500', 'zg600', 'ua600', 'ua700', 'ua850', 'ua925', 'va300', 'va400', 'va500', 'vas', 'zg100', 'zg200', 'va100', 'va200', 'va600', 'zg700', 'zg850', 'clh', 'clivi', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100']</t>
+          <t>['zg500', 'zg600', 'zg700', 'zg850', 'ua700', 'va300', 'va400', 'va500', 'va700', 'ua400', 'ua500', 'ua600', 'va600', 'clt', 'clwvi', 'clm', 'cll', 'clh', 'evspsbl', 'clivi', 'pr', 'rlds', 'prhmax', 'rlut', 'prc', 'psl', 'prsn', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'rsds', 'mrso', 'huss', 'mrros', 'mrro', 'rlus', 'prw', 'ps', 'mrfso', 'hus700', 'hus850', 'hus925', 'ta100', 'ta200', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'sund', 'ta300', 'zmla', 'zg925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100']</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925']</t>
+          <t>['zg300', 'zg400', 'zg500', 'zg600', 'ua925', 'hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta600', 'ua700', 'ua850', 'zg200', 'rsds', 'rsus', 'ta300', 'uas', 'ua600', 'rlus', 'rsdt', 'rlut', 'ta400', 'ta500', 'ta700', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'zg700', 'zg850', 'zg925', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ta200', 'ua200', 'ua500', 'va850', 'va925', 'zg100', 'va700', 'ua100', 'ua300', 'ua400', 'vas']</t>
         </is>
       </c>
     </row>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['hus400', 'hus500', 'hus600', 'hus700', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'ua925', 'va400', 'va500', 'va600', 'va700', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va925', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'pr', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850']</t>
+          <t>['ta400', 'ua300', 'ua400', 'ua500', 'ua700', 'ua850', 'ua600', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'zg200', 'zg300', 'zg400', 'va925', 'zg700', 'zg850', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'rsds', 'rsut', 'va300', 'va400', 'va500', 'va600', 'va850', 'vas', 'ua925', 'va700', 'hus400', 'hus500', 'hus600', 'hus700', 'rsus', 'rsdt', 'zg100', 'zg500', 'zg600', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'hfss', 'hfls', 'hurs', 'hus100', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'snw', 'hus200', 'pr', 'sund', 'ta100', 'ta200', 'ta300']</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['tds', 'prc', 'tas', 'pr']</t>
+          <t>['tas', 'pr', 'prc', 'tds']</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr']</t>
+          <t>['tas', 'ts', 'prc', 'ps', 'rlds', 'sfcWind', 'hfls', 'huss', 'clt', 'cape', 'hfss', 'evspsbl', 'hurs', 'pr', 'rsds', 'rsus', 'rlus', 'psl', 'sund']</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snd', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'ta850', 'ta925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ts']</t>
+          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'vas', 'va100', 'va400', 'ua700', 'uas', 'va200', 'va300', 'va500', 'ua850', 'ua925', 'va600', 'va925', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'ua300', 'ua400', 'ua600', 'ts', 'ua500', 'rsut', 'mrso', 'rsdt', 'rlut', 'prw', 'mrros', 'mrro', 'snc', 'snd', 'zg500', 'zg850', 'zmla', 'zg600', 'zg700', 'zg925', 'mrfso', 'hus200', 'hus300', 'hus850', 'hus500', 'hus600', 'hus700', 'hus400', 'hus925', 'ta600', 'ta925', 'ua100', 'ta850', 'ua200', 'snm', 'ta100', 'ta200', 'ta400', 'ta500', 'ta700', 'snw', 'ta300']</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hfss', 'clwvi', 'hfls', 'clm', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'zmla', 'zg925', 'zg600', 'zg700', 'zg850', 'clh', 'cll', 'clivi', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925']</t>
+          <t>['hus500', 'hus925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus600', 'hus700', 'hus850', 'ua200', 'ua500', 'ua100', 'ua300', 'ua400', 'ua600', 'ua700', 'ua850', 'ts', 'uas', 'va100', 'va200', 'va300', 'va500', 'va700', 'ua925', 'va400', 'va600', 'va850', 'va925', 'clm', 'evspsbl', 'hus100', 'clt', 'tas', 'ta500', 'ta600', 'ta925', 'tasmax', 'tasmin', 'ta400', 'ta700', 'ta850', 'hus200', 'zmla', 'zg925', 'zg600', 'zg700', 'zg850', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'psl', 'rsds', 'rlds', 'rsus', 'rsut', 'hfss', 'clh', 'cll', 'clivi', 'wsgsmax', 'zg100', 'zg200', 'zg400', 'zg300', 'zg500', 'vas', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'prhmax', 'sfcWindmax', 'snm', 'ta100', 'ta300', 'snd', 'snw', 'sund', 'snc', 'ta200', 'clwvi', 'hfls', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus925', 'psl', 'mrro', 'pr', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hfss', 'hfls', 'evspsbl', 'clt', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200']</t>
+          <t>['hus300', 'hus400', 'hus500', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hurs', 'uas', 'ua300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'ua400', 'vas', 'va300', 'va400', 'va850', 'va925', 'va200', 'va500', 'va600', 'va700', 'zg500', 'zg700', 'zg850', 'ua200', 'evspsbl', 'clt', 'tasmax', 'ta850', 'ua100', 'tasmin', 'ta600', 'ta700', 'ta925', 'tas', 'hfss', 'hfls', 'ta100', 'ta200', 'ta300', 'snd', 'snw', 'sund', 'ta400', 'ta500', 'sfcWindmax', 'rlus', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'rlut', 'snc', 'zg100', 'zg200', 'zg300', 'zg400', 'zg600', 'zg925', 'rlds', 'mrso', 'mrros', 'mrro', 'pr', 'mrfso', 'huss', 'hus925', 'psl', 'snm']</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['tas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'mrfso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'clt', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua850', 'ua925', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
+          <t>['hus500', 'hus700', 'mrro', 'mrfso', 'mrros', 'huss', 'hus850', 'hus925', 'hus600', 'va100', 'va200', 'va500', 'va600', 'uas', 'va300', 'va400', 'ua850', 'ua925', 'zg200', 'zg500', 'va700', 'va925', 'vas', 'zg100', 'zg300', 'zg400', 'va850', 'zg925', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'hfls', 'evspsbl', 'hus100', 'hus300', 'hus400', 'hfss', 'hurs', 'hus200', 'clt', 'ta100', 'snd', 'tas', 'ta300', 'ta400', 'ta600', 'ta700', 'ta925', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsut', 'snm', 'snc', 'sfcWind', 'snw', 'sund', 'zg600', 'zg700', 'zg850', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl']</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['ps', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'zmla', 'sfcWind', 'vas', 'uas', 'tas', 'ts']</t>
+          <t>['tasmax', 'tasmin', 'zmla', 'sfcWind', 'vas', 'uas', 'ps', 'pr', 'sfcWindmax', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['rlds', 'tas', 'hurs', 'sfcWind', 'hfls', 'rsus', 'pr', 'rsds', 'ps', 'rlus', 'hfss', 'huss', 'psl']</t>
+          <t>['tas', 'rlds', 'hurs', 'rsds', 'rsus', 'sfcWind', 'ps', 'psl', 'rlus', 'hfss', 'huss', 'hfls', 'pr']</t>
         </is>
       </c>
     </row>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['sund', 'hurs', 'va850', 'mrso', 'clm', 'clwvi', 'rlds', 'clivi', 'tasmin', 'va850', 'prc', 'sic', 'hurs', 'hus850', 'va500', 'rsus', 'mrros', 'ta850', 'rlds', 'zg500', 'tas', 'pr', 'hfls', 'rsdt', 'cll', 'mrros', 'snc', 'huss', 'va200', 'ta850', 'rlus', 'zg200', 'tauv', 'prw', 'ua500', 'snd', 'hfss', 'snw', 'rsut', 'sund', 'va500', 'tasmin', 'ta200', 'clt', 'ts', 'sfcWindmax', 'hus850', 'prhmax', 'snm', 'evspsbl', 'rsus', 'prc', 'ta500', 'tasmax', 'prsn', 'rlut', 'sic', 'mrro', 'hfls', 'cll', 'ua200', 'rlut', 'sfcWind', 'uas', 'clivi', 'uas', 'clwvi', 'vas', 'tauv', 'snc', 'evspsbl', 'rlus', 'clm', 'huss', 'ts', 'hfss', 'psl', 'prhmax', 'clt', 'clh', 'vas', 'ua850', 'va200', 'tasmax', 'snm', 'rsut', 'ua500', 'ta500', 'ua200', 'rsds', 'tauu', 'clh', 'rsdt', 'mrro', 'pr', 'psl', 'ua850', 'sfcWind', 'ps', 'tauu', 'mrso', 'prw', 'sfcWindmax', 'rsds', 'ps', 'ta200', 'tas', 'prsn']</t>
+          <t>['hurs', 'va850', 'mrso', 'clm', 'prc', 'va500', 'sic', 'hurs', 'hus850', 'rsus', 'mrros', 'ta850', 'hfls', 'ua200', 'evspsbl', 'rlut', 'sic', 'mrro', 'rlut', 'ta500', 'tasmax', 'rsus', 'prc', 'prsn', 'cll', 'sfcWind', 'uas', 'clivi', 'uas', 'tauv', 'snc', 'hfss', 'prhmax', 'clt', 'evspsbl', 'rlus', 'clm', 'psl', 'huss', 'ts', 'psl', 'ua850', 'clh', 'vas', 'sfcWindmax', 'hus850', 'va500', 'tasmin', 'ta200', 'clt', 'ts', 'prhmax', 'snm', 'sund', 'snw', 'rsut', 'clwvi', 'vas', 'va200', 'tasmax', 'snm', 'rsut', 'hfss', 'zg200', 'tauv', 'prw', 'ua500', 'snd', 'tasmin', 'clwvi', 'rlds', 'clivi', 'va850', 'ua500', 'ta500', 'ua200', 'rsds', 'tauu', 'clh', 'rsdt', 'pr', 'mrro', 'rlds', 'zg500', 'tas', 'pr', 'hfls', 'rsdt', 'cll', 'mrros', 'snc', 'huss', 'va200', 'ta850', 'rlus', 'ua850', 'sfcWind', 'ps', 'tauu', 'mrso', 'prw', 'sfcWindmax', 'rsds', 'ps', 'ta200', 'tas', 'prsn', 'sund']</t>
         </is>
       </c>
     </row>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['sund', 'hurs', 'clt', 'ta850', 'va200', 'rlds', 'sfcWind', 'ua500', 'snc', 'hurs', 'hus850', 'tas', 'ta200', 'uas', 'snc', 'ta200', 'sic', 'rlus', 'huss', 'hus850', 'va850', 'snd', 'hfss', 'va500', 'tasmin', 'zg500', 'rlds', 'hfls', 'rsdt', 'evspsbl', 'mrros', 'psl', 'sfcWindmax', 'snm', 'ta500', 'rsus', 'rlut', 'mrro', 'hfls', 'rsdt', 'pr', 'zg200', 'va200', 'rsds', 'sfcWind', 'ta850', 'vas', 'rlus', 'huss', 'va500', 'clt', 'ua200', 'hfss', 'psl', 'va850', 'snm', 'rsut', 'tasmin', 'rlut', 'uas', 'ua850', 'mrso', 'vas', 'sic', 'ua850', 'rsus', 'mrro', 'tasmax', 'tas', 'ua500', 'pr', 'rsut', 'sund', 'snw', 'ua200', 'tasmax', 'mrso', 'sfcWindmax', 'rsds', 'ta500', 'evspsbl', 'mrros']</t>
+          <t>['hurs', 'clt', 'hurs', 'snc', 'ua500', 'hus850', 'tas', 'ta200', 'rsdt', 'pr', 'rsus', 'rlut', 'mrro', 'hfls', 'rsds', 'ta850', 'rlus', 'clt', 'ua200', 'hfss', 'psl', 'va200', 'vas', 'huss', 'va500', 'ua500', 'pr', 'rsut', 'tasmax', 'tas', 'rsdt', 'snm', 'rlds', 'mrros', 'ta500', 'hfls', 'evspsbl', 'psl', 'sfcWindmax', 'va500', 'zg500', 'tasmin', 'zg200', 'sfcWind', 'va850', 'snm', 'rsut', 'huss', 'hus850', 'va850', 'snd', 'hfss', 'ta850', 'va200', 'rlds', 'sfcWind', 'tasmin', 'rlut', 'uas', 'ua850', 'mrso', 'vas', 'sic', 'rsus', 'mrro', 'ua850', 'uas', 'snc', 'ta200', 'sic', 'rlus', 'sund', 'snw', 'ua200', 'tasmax', 'mrso', 'sfcWindmax', 'rsds', 'ta500', 'evspsbl', 'mrros', 'sund']</t>
         </is>
       </c>
     </row>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['sund', 'ua500', 'hurs', 'vas', 'clt', 'evspsbl', 'psl', 'ua850', 'hfls', 'rsdt', 'hus850', 'pr', 'rlds', 'va200', 'snm', 'ua500', 'ta200', 'va200', 'snd', 'sfcWind', 'pr', 'rsus', 'zg500', 'va500', 'tas', 'rsut', 'sund', 'ua200', 'va850', 'rlus', 'huss', 'hfss', 'rlut', 'evspsbl', 'tasmin', 'mrso', 'snc', 'mrros', 'sic', 'ta850', 'rsds', 'clt', 'rlut', 'vas', 'mrro', 'sfcWindmax', 'ta200', 'tasmax', 'snm', 'psl', 'rlds', 'ta500', 'va850', 'tasmax', 'rsut', 'snc', 'rlus', 'huss', 'va500', 'sic', 'ua200', 'sfcWindmax', 'rsus', 'hfls', 'rsdt', 'tasmin', 'hurs', 'zg200', 'hus850', 'snw', 'ua850', 'hfss', 'uas', 'mrros', 'tas', 'sfcWind', 'ta850', 'mrso', 'rsds', 'uas', 'ta500', 'mrro']</t>
+          <t>['ua500', 'ta200', 'ua850', 'rsdt', 'hus850', 'rlds', 'hfls', 'pr', 'va200', 'snm', 'ua500', 'rlut', 'vas', 'mrro', 'sfcWindmax', 'ta200', 'psl', 'snm', 'tasmax', 'rlds', 'ta500', 'va850', 'tasmax', 'hurs', 'hus850', 'hfss', 'ua850', 'zg200', 'snw', 'rsut', 'rlus', 'snc', 'tasmin', 'snc', 'sic', 'evspsbl', 'mrso', 'mrros', 'ta850', 'rsds', 'clt', 'rlut', 'va850', 'rlus', 'huss', 'hfss', 'huss', 'va500', 'sic', 'ua200', 'sund', 'ua200', 'zg500', 'va500', 'tas', 'rsut', 'sund', 'hurs', 'vas', 'clt', 'evspsbl', 'psl', 'sfcWindmax', 'rsus', 'tasmin', 'hfls', 'rsdt', 'va200', 'snd', 'sfcWind', 'pr', 'rsus', 'uas', 'mrros', 'tas', 'sfcWind', 'ta850', 'mrso', 'rsds', 'uas', 'ta500', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['rsds', 'tas', 'ps', 'pr', 'rlus', 'psl', 'rsus', 'huss', 'hfls', 'hurs', 'rlds', 'sfcWind', 'hfss']</t>
+          <t>['tas', 'ps', 'rsds', 'rlus', 'pr', 'psl', 'hfls', 'rsus', 'rlds', 'huss', 'sfcWind', 'hfss', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['sund', 'clivi', 'hurs', 'ua200', 'tauu', 'pr', 'clt', 'sfcWindmax', 'rlds', 'tasmax', 'clh', 'sfcWind', 'ua200', 'vas', 'clm', 'va500', 'snm', 'psl', 'ps', 'hurs', 'prhmax', 'clivi', 'rsus', 'va500', 'snm', 'ps', 'rlus', 'huss', 'ua850', 'tauv', 'hfss', 'tas', 'ua500', 'zg200', 'ta500', 'ts', 'rlds', 'snd', 'hfls', 'rsdt', 'evspsbl', 'zg500', 'snw', 'tasmax', 'sfcWind', 'snc', 'clwvi', 'cll', 'ta200', 'prhmax', 'sic', 'clh', 'vas', 'hus850', 'mrros', 'ta850', 'clt', 'rsus', 'psl', 'clm', 'prsn', 'tasmin', 'rlut', 'mrro', 'ta500', 'hfls', 'rsdt', 'mrros', 'rsds', 'tauv', 'prc', 'huss', 'rlus', 'ua500', 'pr', 'hfss', 'hus850', 'va200', 'cll', 'snc', 'ua850', 'tasmin', 'rsut', 'sic', 'rlut', 'prw', 'prc', 'mrso', 'va850', 'mrro', 'ta850', 'va850', 'ts', 'sfcWindmax', 'rsut', 'va200', 'sund', 'uas', 'mrso', 'ta200', 'clwvi', 'tauu', 'rsds', 'tas', 'evspsbl', 'uas', 'prw', 'prsn']</t>
+          <t>['clivi', 'hurs', 'ua200', 'tauu', 'vas', 'clm', 'va500', 'snm', 'psl', 'prhmax', 'ps', 'hurs', 'clivi', 'rsus', 'ta500', 'hfls', 'rsdt', 'hus850', 'ta850', 'clt', 'rsus', 'vas', 'mrros', 'rlut', 'mrro', 'mrros', 'psl', 'prsn', 'tasmin', 'clm', 'prc', 'ua500', 'hfss', 'rsds', 'huss', 'ts', 'rsut', 'va850', 'sfcWindmax', 'rlus', 'pr', 'va200', 'rsdt', 'zg500', 'clwvi', 'prhmax', 'rlds', 'snw', 'snc', 'cll', 'ta200', 'snd', 'hfls', 'evspsbl', 'tasmax', 'sfcWind', 'sic', 'clh', 'zg200', 'ua500', 'ta500', 'ts', 'tauv', 'hus850', 'cll', 'snc', 'ua850', 'tasmin', 'sund', 'huss', 'ua850', 'tauv', 'hfss', 'tas', 'rlds', 'tasmax', 'ua200', 'pr', 'clt', 'sfcWindmax', 'clh', 'sfcWind', 'sic', 'rsut', 'rlut', 'prw', 'prc', 'mrso', 'mrro', 'ta850', 'va850', 'prsn', 'va500', 'snm', 'ps', 'rlus', 'va200', 'sund', 'uas', 'mrso', 'ta200', 'clwvi', 'tauu', 'rsds', 'tas', 'evspsbl', 'uas', 'prw']</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['orog', 'orog', 'sftlf', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['sund', 'hurs', 'mrso', 'ta500', 'sfcWindmax', 'psl', 'ua850', 'rlds', 'vas', 'clt', 'ua500', 'hurs', 'va200', 'rsus', 'tasmax', 'sfcWindmax', 'hfls', 'rsdt', 'hus850', 'snm', 'huss', 'rlus', 'tas', 'ua200', 'zg500', 'hfss', 'va500', 'uas', 'tasmax', 'rsut', 'rsut', 'rlds', 'ta850', 'mrros', 'sic', 'pr', 'snc', 'psl', 'ta200', 'evspsbl', 'clt', 'rsus', 'vas', 'rlut', 'mrro', 'hfls', 'snm', 'rlut', 'sfcWind', 'ta200', 'snw', 'ua850', 'rsds', 'evspsbl', 'rlus', 'huss', 'hfss', 'va850', 'ua200', 'pr', 'sic', 'snc', 'va500', 'zg200', 'va200', 'snd', 'rsdt', 'mrro', 'tasmin', 'ua500', 'sund', 'sfcWind', 'mrros', 'va850', 'tasmin', 'mrso', 'ta850', 'tas', 'rsds', 'hus850', 'uas', 'ta500']</t>
+          <t>['sund', 'hurs', 'tasmax', 'vas', 'clt', 'ua500', 'hurs', 'va200', 'rsus', 'mrro', 'snm', 'rlut', 'ta200', 'snc', 'psl', 'evspsbl', 'clt', 'rsus', 'vas', 'rlut', 'hfls', 'sfcWind', 'ta200', 'rsds', 'evspsbl', 'huss', 'hfss', 'snw', 'ua850', 'ua500', 'tasmin', 'rlus', 'va850', 'ta850', 'rlds', 'mrros', 'sic', 'pr', 'uas', 'tasmax', 'rsut', 'rsut', 'ua200', 'pr', 'sic', 'snc', 'va500', 'rlus', 'tas', 'ua200', 'zg500', 'hfss', 'va500', 'mrso', 'ta500', 'sfcWindmax', 'psl', 'ua850', 'rlds', 'zg200', 'va200', 'snd', 'rsdt', 'mrro', 'sfcWindmax', 'hfls', 'rsdt', 'hus850', 'snm', 'huss', 'sund', 'sfcWind', 'mrros', 'va850', 'tasmin', 'mrso', 'ta850', 'tas', 'rsds', 'hus850', 'uas', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['sund', 'hfls', 'ta850', 'hurs', 'ua500', 'rsdt', 'va200', 'hfls', 'rlds', 'sic', 'ua850', 'hurs', 'ua850', 'rsus', 'hus850', 'snc', 'sfcWindmax', 'snd', 'rsut', 'sund', 'va850', 'rlus', 'huss', 'snw', 'ua200', 'rlut', 'snm', 'tas', 'rlds', 'vas', 'tasmax', 'mrso', 'ta500', 'rsds', 'snm', 'mrro', 'rlut', 'sfcWind', 'tasmin', 'ta200', 'sic', 'evspsbl', 'uas', 'ua500', 'clt', 'psl', 'ua200', 'sfcWind', 'tasmin', 'vas', 'va500', 'rsut', 'clt', 'rlus', 'huss', 'sfcWindmax', 'hus850', 'va850', 'hfss', 'rsus', 'rsdt', 'mrros', 'psl', 'tasmax', 'snc', 'uas', 'zg200', 'va200', 'hfss', 'evspsbl', 'zg500', 'pr', 'va500', 'ta500', 'mrros', 'mrso', 'ta850', 'rsds', 'pr', 'tas', 'mrro', 'ta200']</t>
+          <t>['hfls', 'va200', 'hfls', 'sic', 'ua850', 'rlds', 'evspsbl', 'mrro', 'rlut', 'sfcWind', 'sic', 'tasmin', 'ta200', 'tasmin', 'vas', 'psl', 'ua200', 'sfcWind', 'hfss', 'zg200', 'va200', 'va500', 'rlus', 'rsut', 'clt', 'mrso', 'ta500', 'tas', 'rlds', 'rsds', 'vas', 'tasmax', 'snm', 'snm', 'huss', 'rlut', 'snw', 'ua200', 'uas', 'ua500', 'clt', 'huss', 'sfcWindmax', 'hus850', 'hfss', 'va850', 'sund', 'snd', 'sfcWindmax', 'rsut', 'sund', 'va850', 'rlus', 'ua500', 'rsdt', 'ta850', 'hurs', 'rsus', 'mrros', 'uas', 'psl', 'tasmax', 'snc', 'rsdt', 'tas', 'mrro', 'ta200', 'hurs', 'ua850', 'rsus', 'hus850', 'snc', 'evspsbl', 'zg500', 'pr', 'va500', 'ta500', 'mrros', 'mrso', 'ta850', 'rsds', 'pr']</t>
         </is>
       </c>
     </row>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'cll', 'clm', 'evspsbl', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ts', 'vas', 'uas', 'clh', 'clivi', 'prc', 'prw', 'huss', 'prsn', 'pr', 'sfcWindmax', 'sfcWind', 'prhmax', 'sund']</t>
+          <t>['clwvi', 'rlus', 'rsdt', 'rsut', 'rlut', 'tauu', 'tas', 'vas', 'uas', 'rsus', 'psl', 'ts', 'clm', 'prhmax', 'sund', 'hfss', 'hfls', 'cll', 'evspsbl', 'hurs', 'clt', 'rsds', 'rlds', 'ps', 'tauv', 'tasmax', 'tasmin', 'clh', 'clivi', 'prc', 'prw', 'huss', 'prsn', 'pr', 'sfcWindmax', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsut', 'sfcWind', 'vas', 'uas', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'sund']</t>
+          <t>['uas', 'sfcWindmax', 'rsut', 'sfcWind', 'vas', 'sund', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas']</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['va200', 'va500', 'va850', 'ua500', 'ua850', 'hus850', 'ua200', 'ta200', 'ta500', 'ta850']</t>
+          <t>['va850', 'va200', 'va500', 'ua500', 'ua850', 'hus850', 'ua200', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'snc', 'sic']</t>
+          <t>['snw', 'sic', 'snm', 'snc']</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'uas', 'sund']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'uas', 'sfcWindmax', 'tasmax', 'tasmin', 'tas', 'tauv', 'tauu', 'sund', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['ta200', 'ta500', 'ua200', 'ua500', 'ua850', 'ta850', 'hus850', 'va200', 'va500', 'va850']</t>
+          <t>['va850', 'va200', 'va500', 'ua500', 'ta200', 'ua200', 'ua850', 'ta850', 'ta500', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'snc', 'sic']</t>
+          <t>['sic', 'snm', 'snw', 'snc']</t>
         </is>
       </c>
     </row>
@@ -12510,7 +12510,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['pr', 'hfss', 'hfls', 'rsus', 'rlds', 'rlus', 'rsds']</t>
+          <t>['pr', 'hfss', 'hfls', 'rsus', 'rlus', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['hurs', 'huss', 'ps', 'psl', 'sfcWind', 'tas']</t>
+          <t>['huss', 'ps', 'psl', 'sfcWind', 'tas', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['mrso', 'prw', 'rsds', 'tasmax', 'ta850', 'mrros', 'ta500', 'rlds', 'ps', 'ua850', 'prc', 'hurs', 'sic', 'va200', 'hfls', 'rsdt', 'snc', 'cll', 'ua500', 'clm', 'clivi', 'huss', 'tauv', 'vas', 'va850', 'hfss', 'clh', 'clt', 'va500', 'evspsbl', 'rsut', 'snm', 'ua200', 'pr', 'tas', 'sfcWind', 'prsn', 'tasmin', 'mrro', 'clwvi', 'tauu', 'sfcWindmax', 'rlus', 'psl', 'rsus', 'hus850', 'rlut', 'uas', 'ts', 'ta200', 'sund', 'prhmax']</t>
+          <t>['ts', 'cll', 'huss', 'tauv', 'va850', 'hfss', 'clh', 'clt', 'vas', 'rsdt', 'snc', 'ua500', 'clm', 'va500', 'evspsbl', 'snm', 'pr', 'mrso', 'rsds', 'ta850', 'ta500', 'rlds', 'prc', 'sic', 'tasmax', 'ps', 'hurs', 'prw', 'mrros', 'ua850', 'sund', 'sfcWindmax', 'rlus', 'rsus', 'rlut', 'uas', 'psl', 'hus850', 'clwvi', 'tasmin', 'mrro', 'tauu', 'prhmax', 'rsut', 'ua200', 'tas', 'sfcWind', 'prsn', 'va200', 'hfls', 'clivi', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['rsds', 'evspsbl', 'ta200', 'rlds', 'va500', 'tasmin', 'ua200', 'hurs', 'va850', 'snc', 'hfls', 'rsdt', 'hus850', 'sic', 'va200', 'clt', 'sfcWindmax', 'vas', 'ua500', 'hfss', 'tasmax', 'psl', 'snm', 'rsut', 'ua850', 'tas', 'ta500', 'mrro', 'uas', 'ta850', 'mrso', 'rlus', 'sfcWind', 'huss', 'pr', 'rsus', 'rlut', 'mrros', 'sund']</t>
+          <t>['va850', 'hfls', 'sfcWindmax', 'vas', 'ua500', 'hfss', 'psl', 'tasmax', 'rsut', 'ua850', 'snm', 'rsds', 'ta200', 'ua200', 'hurs', 'evspsbl', 'tasmin', 'rlds', 'va500', 'rlus', 'pr', 'sfcWind', 'huss', 'rsus', 'rlut', 'ta850', 'mrro', 'uas', 'ta500', 'mrso', 'sund', 'tas', 'snc', 'rsdt', 'hus850', 'sic', 'va200', 'clt', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -12894,7 +12894,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['sfcWind', 'tas', 'mrso', 'tasmax', 'rsds', 'uas', 'ta200', 'va850', 'clt', 'hurs', 'vas', 'hfls', 'rsdt', 'psl', 'sfcWindmax', 'snm', 'va500', 'rlds', 'ua200', 'evspsbl', 'ua850', 'rsut', 'rlus', 'va200', 'huss', 'snc', 'ua500', 'hfss', 'sic', 'rlut', 'mrro', 'ta850', 'rsus', 'ta500', 'pr', 'tasmin', 'mrros', 'hus850', 'sund']</t>
+          <t>['psl', 'rsut', 'ua850', 'rlds', 'evspsbl', 'va200', 'snc', 'rlus', 'huss', 'ua500', 'sic', 'tasmax', 'uas', 'ta200', 'clt', 'snm', 'sfcWind', 'tas', 'mrso', 'va850', 'rsdt', 'sfcWindmax', 'va500', 'rsds', 'hurs', 'vas', 'hfls', 'sund', 'tasmin', 'mrros', 'ta500', 'rsus', 'ta850', 'pr', 'hfss', 'rlut', 'mrro', 'ua200', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['pr', 'rsds', 'tas', 'hfls', 'rsus', 'hurs', 'psl', 'ps', 'rlus', 'hfss', 'sfcWind', 'huss', 'rlds']</t>
+          <t>['pr', 'rsds', 'rlds', 'rlus', 'sfcWind', 'hfss', 'huss', 'rsus', 'hurs', 'ps', 'psl', 'tas', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['sund', 'prhmax', 'ta200', 'tauv', 'rsut', 'prc', 'ts', 'rlut', 'prw', 'pr', 'cll', 'ua850', 'rsus', 'ta850', 'snm', 'va850', 'sic', 'rsds', 'tauu', 'mrso', 'uas', 'hfls', 'rsdt', 'ua200', 'clt', 'rlus', 'huss', 'tasmin', 'mrro', 'ps', 'sfcWind', 'tas', 'hfss', 'hurs', 'snc', 'va200', 'ta500', 'clwvi', 'clh', 'evspsbl', 'vas', 'clm', 'ua500', 'hus850', 'tasmax', 'sfcWindmax', 'rlds', 'clivi', 'psl', 'va500', 'mrros', 'prsn']</t>
+          <t>['evspsbl', 'vas', 'ua500', 'hus850', 'clwvi', 'clh', 'clm', 'huss', 'mrro', 'tasmin', 'va200', 'rsds', 'mrso', 'hfls', 'ua200', 'rlus', 'tauu', 'uas', 'rsdt', 'clt', 'prsn', 'mrros', 'va500', 'ta500', 'rlut', 'prw', 'prc', 'ts', 'pr', 'rsut', 'tauv', 'sund', 'clivi', 'sfcWindmax', 'psl', 'ta200', 'sic', 'prhmax', 'tasmax', 'rlds', 'cll', 'ta850', 'va850', 'snm', 'ua850', 'rsus', 'ps', 'sfcWind', 'tas', 'hfss', 'hurs', 'snc']</t>
         </is>
       </c>
     </row>
@@ -13134,7 +13134,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['sund', 'tas', 'hfls', 'rsdt', 'hus850', 'psl', 'ua850', 'sfcWind', 'sic', 'ua200', 'evspsbl', 'hfss', 'pr', 'tasmin', 'ua500', 'snm', 'rlus', 'rsus', 'mrso', 'huss', 'snc', 'va500', 'tasmax', 'va850', 'mrro', 'rsds', 'uas', 'mrros', 'vas', 'ta850', 'rlds', 'hurs', 'clt', 'rsut', 'ta500', 'sfcWindmax', 'va200', 'ta200', 'rlut']</t>
+          <t>['hurs', 'rsut', 'ta850', 'rlds', 'clt', 'rsus', 'snc', 'va500', 'tasmax', 'mrro', 'huss', 'va850', 'mrso', 'ta200', 'rlut', 'evspsbl', 'ua200', 'sfcWind', 'sic', 'sund', 'ta500', 'va200', 'rsdt', 'hus850', 'tas', 'hfls', 'psl', 'ua850', 'rlus', 'sfcWindmax', 'hfss', 'pr', 'snm', 'tasmin', 'ua500', 'rsds', 'uas', 'mrros', 'vas']</t>
         </is>
       </c>
     </row>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['sund', 'rsds', 'ua500', 'snm', 'hfss', 'psl', 'ua200', 'sfcWind', 'tasmax', 'hfls', 'mrso', 'pr', 'uas', 'rsdt', 'sic', 'ua850', 'hurs', 'evspsbl', 'va850', 'rlut', 'sfcWindmax', 'va500', 'clt', 'mrros', 'rsut', 'rlus', 'huss', 'rsus', 'tas', 'ta500', 'snc', 'rlds', 'va200', 'hus850', 'mrro', 'ta200', 'ta850', 'tasmin', 'vas']</t>
+          <t>['ta500', 'va200', 'hus850', 'ta200', 'snc', 'rlds', 'mrro', 'evspsbl', 'va850', 'rlut', 'va500', 'sfcWindmax', 'clt', 'rsus', 'vas', 'tasmin', 'tas', 'sfcWind', 'hfss', 'psl', 'ua200', 'snm', 'sund', 'ta850', 'ua500', 'tasmax', 'hfls', 'mrso', 'pr', 'rsds', 'ua850', 'hurs', 'rsdt', 'sic', 'uas', 'mrros', 'rsut', 'rlus', 'huss']</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13462,7 +13462,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['psl', 'hfss', 'hfls', 'rsus', 'tas', 'rlds', 'sfcWind', 'rlus', 'huss', 'pr', 'rsds', 'ps', 'hurs']</t>
+          <t>['psl', 'hfss', 'hfls', 'rsus', 'tas', 'hurs', 'rlus', 'huss', 'pr', 'rsds', 'ps', 'sfcWind', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['sund', 'clh', 'evspsbl', 'vas', 'uas', 'ta500', 'snc', 'sfcWindmax', 'tasmax', 'mrso', 'va200', 'ta850', 'sic', 'hfss', 'va850', 'pr', 'tas', 'prsn', 'tauu', 'mrros', 'rlds', 'hus850', 'prhmax', 'rlus', 'tauv', 'huss', 'ts', 'cll', 'hurs', 'ps', 'rsut', 'rlut', 'ta200', 'snm', 'ua200', 'rsds', 'prw', 'prc', 'ua850', 'clm', 'clivi', 'psl', 'clt', 'rsus', 'hfls', 'rsdt', 'ua500', 'va500', 'clwvi', 'sfcWind', 'mrro', 'tasmin']</t>
+          <t>['va200', 'sfcWindmax', 'clh', 'evspsbl', 'snc', 'uas', 'vas', 'ta500', 'hfss', 'va850', 'snm', 'ua200', 'rsds', 'prw', 'prc', 'ua850', 'va500', 'sfcWind', 'mrro', 'tasmin', 'clwvi', 'mrros', 'rlds', 'hus850', 'tas', 'prsn', 'tauu', 'mrso', 'tasmax', 'ps', 'cll', 'hurs', 'ts', 'sic', 'ta850', 'tauv', 'prhmax', 'rlus', 'huss', 'rsut', 'rlut', 'ta200', 'rsus', 'rsdt', 'ua500', 'hfls', 'clm', 'clivi', 'psl', 'clt', 'sund', 'pr']</t>
         </is>
       </c>
     </row>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['sund', 'rlus', 'huss', 'evspsbl', 'hurs', 'ua850', 'pr', 'rsds', 'tasmax', 'snc', 'hfss', 'vas', 'hus850', 'tas', 'ta500', 'hfls', 'rsdt', 'va850', 'clt', 'rsus', 'mrso', 'ta200', 'rlds', 'ua200', 'ua500', 'sic', 'snm', 'va500', 'rsut', 'sfcWind', 'psl', 'va200', 'sfcWindmax', 'tasmin', 'rlut', 'uas', 'ta850']</t>
+          <t>['ua850', 'pr', 'snc', 'huss', 'rlus', 'evspsbl', 'hurs', 'sfcWind', 'tasmin', 'ta850', 'rlut', 'uas', 'sund', 'ta200', 'rlds', 'ua200', 'rsus', 'mrso', 'rsut', 'rsds', 'tasmax', 'sic', 'ta500', 'hfls', 'rsdt', 'va850', 'hus850', 'tas', 'ua500', 'hfss', 'vas', 'snm', 'va500', 'psl', 'va200', 'sfcWindmax', 'clt']</t>
         </is>
       </c>
     </row>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['sund', 'snc', 'sfcWind', 'mrso', 'ua500', 'tasmax', 'rsut', 'rlut', 'ta850', 'sfcWindmax', 'snm', 'va500', 'tas', 'hus850', 'ua850', 'rsus', 'uas', 'ta200', 'pr', 'tasmin', 'ua200', 'va200', 'va850', 'clt', 'rlus', 'huss', 'sic', 'evspsbl', 'hurs', 'psl', 'rsds', 'rlds', 'hfss', 'ta500', 'hfls', 'rsdt', 'vas']</t>
+          <t>['sfcWind', 'snc', 'mrso', 'sic', 'hurs', 'psl', 'evspsbl', 'hfss', 'ta500', 'rsdt', 'vas', 'hfls', 'tas', 'hus850', 'rlus', 'huss', 'ua500', 'ua200', 'rsus', 'ta200', 'tasmin', 'uas', 'pr', 'sfcWindmax', 'va500', 'rlut', 'ta850', 'ua850', 'snm', 'tasmax', 'rsut', 'sund', 'clt', 'va200', 'va850', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -13930,7 +13930,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['mrro', 'mrros']</t>
+          <t>['mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['hurs', 'hfss', 'psl', 'ps', 'rsds', 'rlus', 'huss', 'pr', 'rsus', 'hfls', 'rlds', 'sfcWind', 'tas']</t>
+          <t>['hurs', 'rsds', 'rlus', 'huss', 'sfcWind', 'tas', 'hfls', 'rlds', 'hfss', 'psl', 'ps', 'pr', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rlut', 'clivi', 'tas', 'prsn', 'ua200', 'hfls', 'rsdt', 'hurs', 'sic', 'ta500', 'rsus', 'tasmax', 'va850', 'cll', 'sfcWind', 'snc', 'snm', 'ta200', 'va200', 'ua500', 'hfss', 'clwvi', 'ps', 'rlds', 'tasmin', 'rsut', 'prc', 'mrros', 'ta850', 'pr', 'uas', 'va500', 'tauv', 'clh', 'clm', 'huss', 'psl', 'clt', 'rsds', 'mrso', 'prw', 'hus850', 'prhmax', 'mrro', 'rlus', 'vas', 'tauu', 'evspsbl', 'ua850', 'ts', 'sund']</t>
+          <t>['ps', 'rlds', 'tasmin', 'clwvi', 'hfss', 'prsn', 'clivi', 'tas', 'mrro', 'rlus', 'rlut', 'sfcWindmax', 'rsut', 'prc', 'mrros', 'ta850', 'pr', 'vas', 'evspsbl', 'ts', 'tauu', 'ua850', 'prhmax', 'ua200', 'rsdt', 'hurs', 'sic', 'hfls', 'ta500', 'sund', 'uas', 'va500', 'tauv', 'clh', 'clm', 'clt', 'mrso', 'prw', 'hus850', 'huss', 'psl', 'rsds', 'snm', 'ta200', 'va200', 'ua500', 'rsus', 'tasmax', 'va850', 'cll', 'sfcWind', 'snc']</t>
         </is>
       </c>
     </row>
@@ -14090,7 +14090,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['va200', 'hfls', 'sic', 'sfcWindmax', 'rsus', 'ua500', 'hurs', 'pr', 'evspsbl', 'ta850', 'va500', 'hfss', 'vas', 'hus850', 'va850', 'ta200', 'rsut', 'sfcWind', 'snm', 'tas', 'rlds', 'psl', 'clt', 'rsds', 'rlut', 'uas', 'ua850', 'rlus', 'tasmin', 'tasmax', 'rsdt', 'huss', 'snc', 'ta500', 'mrso', 'ua200', 'sund']</t>
+          <t>['hus850', 'ta200', 'vas', 'va850', 'hfss', 'rlus', 'tasmin', 'tasmax', 'rlut', 'uas', 'ua850', 'rlds', 'tas', 'rsut', 'sfcWind', 'snm', 'rsdt', 'snc', 'ua200', 'huss', 'ta500', 'mrso', 'va200', 'hfls', 'sic', 'sund', 'psl', 'clt', 'rsds', 'evspsbl', 'ta850', 'va500', 'sfcWindmax', 'rsus', 'ua500', 'hurs', 'pr']</t>
         </is>
       </c>
     </row>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -14326,7 +14326,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['rlds', 'snm', 'rlut', 'evspsbl', 'ua850', 'hfls', 'rsdt', 'vas', 'ta200', 'rlus', 'sfcWind', 'huss', 'sic', 'ta500', 'mrso', 'hus850', 'uas', 'ua200', 'rsut', 'sfcWindmax', 'rsds', 'va500', 'hfss', 'snc', 'hurs', 'psl', 'clt', 'rsus', 'tasmax', 'va200', 'ta850', 'tasmin', 'va850', 'ua500', 'pr', 'tas', 'sund']</t>
+          <t>['rsut', 'sfcWindmax', 'rsds', 'ua500', 'pr', 'snc', 'hurs', 'psl', 'clt', 'hfss', 'tas', 'rlds', 'snm', 'sund', 'rsus', 'va200', 'ta850', 'tasmin', 'va850', 'tasmax', 'ua200', 'rlus', 'sfcWind', 'huss', 'sic', 'ta500', 'mrso', 'hus850', 'uas', 'rlut', 'evspsbl', 'ua850', 'hfls', 'rsdt', 'vas', 'ta200', 'va500']</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['psl', 'huss', 'tas', 'hfls', 'hurs', 'rsds', 'pr', 'rlds', 'rsus', 'ps', 'rlus', 'hfss', 'sfcWind']</t>
+          <t>['tas', 'rsus', 'ps', 'rlus', 'rlds', 'hfss', 'sfcWind', 'rsds', 'hfls', 'pr', 'huss', 'psl', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['sund', 'clm', 'psl', 'va500', 'hus850', 'prw', 'tauu', 'va850', 'va200', 'mrro', 'clivi', 'evspsbl', 'rlut', 'mrso', 'rlds', 'prhmax', 'hfss', 'mrros', 'rsds', 'snm', 'ta500', 'prc', 'clh', 'sfcWind', 'vas', 'clwvi', 'ta850', 'snc', 'ts', 'hurs', 'tas', 'tauv', 'tasmax', 'rsut', 'sfcWindmax', 'ua500', 'tasmin', 'uas', 'ps', 'sic', 'ua200', 'clt', 'hfls', 'rsdt', 'ta200', 'pr', 'rlus', 'huss', 'rsus', 'cll', 'prsn', 'ua850']</t>
+          <t>['va850', 'va200', 'mrro', 'psl', 'hus850', 'prw', 'clm', 'va500', 'ts', 'hurs', 'rsut', 'ua500', 'sfcWindmax', 'tas', 'tauv', 'tasmax', 'ua200', 'clt', 'hfls', 'rsdt', 'ta200', 'rlus', 'pr', 'rsus', 'ua850', 'clwvi', 'huss', 'cll', 'prsn', 'sic', 'ps', 'mrso', 'mrros', 'rlds', 'prhmax', 'hfss', 'tauu', 'rsds', 'snm', 'ta500', 'prc', 'snc', 'ta850', 'evspsbl', 'clivi', 'rlut', 'clh', 'sfcWind', 'vas', 'tasmin', 'uas', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['sund', 'clt', 'rsus', 'sic', 'ua200', 'snm', 'psl', 'ua850', 'ta500', 'tasmax', 'va200', 'uas', 'rlut', 'va850', 'mrso', 'rlds', 'pr', 'hfss', 'sfcWind', 'ta200', 'ua500', 'rsut', 'evspsbl', 'vas', 'ta850', 'snc', 'va500', 'hurs', 'sfcWindmax', 'tasmin', 'rsds', 'hfls', 'rsdt', 'rlus', 'huss', 'tas', 'hus850']</t>
+          <t>['psl', 'ua850', 'ta500', 'ua200', 'clt', 'sic', 'rsus', 'hurs', 'sfcWindmax', 'tasmin', 'tas', 'hus850', 'ta850', 'rlds', 'mrso', 'hfss', 'sfcWind', 'pr', 'ta200', 'snm', 'ua500', 'evspsbl', 'rsut', 'va500', 'snc', 'va850', 'uas', 'rlut', 'tasmax', 'va200', 'vas', 'rlus', 'huss', 'rsds', 'hfls', 'rsdt', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -14802,7 +14802,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['mrros', 'mrro']</t>
+          <t>['mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['sund', 'rlds', 'hfls', 'rsdt', 'ta850', 'clt', 'snc', 'rlus', 'huss', 'hus850', 'vas', 'va500', 'evspsbl', 'ua850', 'tas', 'ta200', 'sfcWind', 'psl', 'ua200', 'rsds', 'ta500', 'uas', 'va850', 'mrso', 'va200', 'hfss', 'rsus', 'sfcWindmax', 'sic', 'hurs', 'tasmax', 'rlut', 'snm', 'pr', 'ua500', 'tasmin', 'rsut']</t>
+          <t>['hfls', 'ta850', 'rlut', 'rlds', 'mrso', 'hfss', 'rsus', 'va200', 'ua500', 'tasmin', 'rsut', 'sund', 'snm', 'pr', 'evspsbl', 'rsdt', 'clt', 'tas', 'ua850', 'ta200', 'sfcWind', 'psl', 'ua200', 'ta500', 'va850', 'uas', 'va500', 'huss', 'snc', 'rlus', 'hus850', 'vas', 'rsds', 'tasmax', 'sfcWindmax', 'sic', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'pr', 'rsus', 'hfls', 'rsds', 'rlds']</t>
+          <t>['hfls', 'rsds', 'rlds', 'rlus', 'hfss', 'pr', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -15014,7 +15014,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['hurs', 'huss', 'ps', 'psl', 'sfcWind', 'tas']</t>
+          <t>['hurs', 'huss', 'ps', 'psl', 'tas', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -15078,7 +15078,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['cll', 'pr', 'snc', 'va500', 'prsn', 'rsus', 'prc', 'clivi', 'va850', 'ta200', 'sfcWindmax', 'tasmax', 'clwvi', 'ts', 'tauv', 'rsut', 'prw', 'rlus', 'huss', 'hfss', 'ta500', 'hurs', 'hfls', 'rsdt', 'hus850', 'rlds', 'ta850', 'sfcWind', 'mrros', 'tas', 'tasmin', 'evspsbl', 'ua500', 'snm', 'va200', 'mrso', 'psl', 'ua850', 'clt', 'ua200', 'uas', 'tauu', 'clm', 'clh', 'vas', 'ps', 'rsds', 'sund', 'prhmax', 'rlut', 'sic', 'mrro']</t>
+          <t>['clm', 'ps', 'hurs', 'ta500', 'rsdt', 'hus850', 'hfls', 'rlus', 'ta850', 'sfcWind', 'mrros', 'tasmin', 'rlds', 'tas', 'evspsbl', 'ua500', 'cll', 'prsn', 'rsus', 'va850', 'ta200', 'sfcWindmax', 'tasmax', 'tauv', 'pr', 'snc', 'prc', 'clivi', 'rsut', 'prw', 'va500', 'clwvi', 'ts', 'sund', 'tauu', 'uas', 'rlut', 'clt', 'va200', 'mrso', 'ua850', 'snm', 'psl', 'ua200', 'sic', 'mrro', 'prhmax', 'huss', 'hfss', 'clh', 'vas', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['sfcWind', 'sic', 'ua500', 'hus850', 'va200', 'pr', 'rsus', 'sfcWindmax', 'mrros', 'ta850', 'rsut', 'rlus', 'evspsbl', 'huss', 'ta500', 'hfss', 'hurs', 'hfls', 'rsdt', 'uas', 'rlds', 'ta200', 'tas', 'snm', 'vas', 'rsds', 'psl', 'tasmin', 'rlut', 'snc', 'va850', 'mrso', 'ua200', 'clt', 'tasmax', 'va500', 'sund', 'ua850', 'mrro']</t>
+          <t>['mrso', 'rsdt', 'hurs', 'hfls', 'uas', 'rlds', 'ta200', 'sfcWind', 'hus850', 'sfcWindmax', 'evspsbl', 'ua500', 'rsus', 'rlus', 'sic', 'va200', 'pr', 'mrros', 'ta850', 'rsut', 'sund', 'ua200', 'clt', 'va850', 'ua850', 'vas', 'rsds', 'psl', 'tasmin', 'rlut', 'snc', 'mrro', 'tas', 'snm', 'huss', 'hfss', 'ta500', 'tasmax', 'va500']</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['rsus', 'va200', 'rlut', 'ua850', 'clt', 'vas', 'mrro', 'psl', 'rlus', 'huss', 'ta500', 'hfss', 'uas', 'sfcWind', 'mrros', 'ta850', 'rsut', 'tas', 'tasmax', 'rlds', 'tasmin', 'ta200', 'hurs', 'sfcWindmax', 'hus850', 'hfls', 'rsdt', 'ua200', 'pr', 'mrso', 'snc', 'sic', 'evspsbl', 'rsds', 'va500', 'va850', 'sund', 'snm', 'ua500']</t>
+          <t>['rlds', 'ta200', 'hurs', 'ta850', 'tasmin', 'hfls', 'rsdt', 'sfcWindmax', 'hus850', 'ua200', 'snc', 'pr', 'va200', 'ua850', 'mrro', 'ta500', 'sfcWind', 'mrros', 'rsus', 'rlut', 'psl', 'huss', 'hfss', 'uas', 'clt', 'vas', 'rlus', 'rsds', 'va500', 'snm', 'ua500', 'sic', 'evspsbl', 'sund', 'mrso', 'rsut', 'tas', 'tasmax', 'va850']</t>
         </is>
       </c>
     </row>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'huss', 'ps', 'rsus', 'pr', 'hfls', 'rlds', 'psl', 'rsds', 'sfcWind', 'tas', 'hurs']</t>
+          <t>['rlus', 'hfss', 'huss', 'rsus', 'pr', 'hfls', 'hurs', 'tas', 'sfcWind', 'ps', 'psl', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['sund', 'sic', 'mrso', 'ua850', 'tas', 'ua200', 'rsus', 'mrros', 'huss', 'mrro', 'rlds', 'sfcWindmax', 'clwvi', 'rsut', 'clm', 'psl', 'tasmin', 'prw', 'ua500', 'prhmax', 'va500', 'clh', 'vas', 'ts', 'hfls', 'rsds', 'sfcWind', 'hus850', 'rlut', 'va850', 'rlus', 'tauv', 'rsdt', 'evspsbl', 'cll', 'snc', 'pr', 'tasmax', 'clivi', 'hfss', 'prc', 'hurs', 'ta850', 'uas', 'prsn', 'clt', 'ta500', 'va200', 'tauu', 'ps', 'ta200', 'snm']</t>
+          <t>['hurs', 'ta850', 'prc', 'clt', 'uas', 'prsn', 'va500', 'vas', 'va850', 'tauv', 'rlut', 'rlus', 'clivi', 'sfcWind', 'hfls', 'rsds', 'hus850', 'ps', 'ta200', 'snm', 'hfss', 'rsus', 'tas', 'ua200', 'ua850', 'va200', 'tauu', 'sic', 'mrso', 'rlds', 'prw', 'ua500', 'prhmax', 'clh', 'ts', 'ta500', 'sfcWindmax', 'psl', 'tasmin', 'clwvi', 'rsut', 'clm', 'sund', 'mrros', 'huss', 'mrro', 'rsdt', 'evspsbl', 'cll', 'snc', 'pr', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['sund', 'ta200', 'rsds', 'tasmin', 'mrros', 'mrro', 'rlds', 'sfcWindmax', 'ua850', 'clt', 'rsut', 'ta850', 'va850', 'tas', 'vas', 'ua200', 'rlut', 'uas', 'pr', 'ta500', 'hfls', 'rsdt', 'snc', 'sic', 'va200', 'snm', 'hurs', 'rsus', 'evspsbl', 'ua500', 'hfss', 'hus850', 'psl', 'tasmax', 'mrso', 'va500', 'sfcWind', 'rlus', 'huss']</t>
+          <t>['psl', 'evspsbl', 'hurs', 'rsus', 'ua500', 'hfss', 'hus850', 'pr', 'ta500', 'rlut', 'uas', 'va200', 'snm', 'ua200', 'huss', 'va500', 'sfcWind', 'rlus', 'mrso', 'tasmin', 'tasmax', 'ta200', 'rsds', 'rlds', 'va850', 'tas', 'vas', 'clt', 'ta850', 'sfcWindmax', 'ua850', 'rsut', 'sund', 'mrros', 'mrro', 'hfls', 'rsdt', 'snc', 'sic']</t>
         </is>
       </c>
     </row>
@@ -15818,7 +15818,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['sund', 'hfls', 'rsdt', 'va200', 'sfcWind', 'sic', 'mrros', 'huss', 'mrro', 'rsds', 'pr', 'tasmax', 'ua500', 'evspsbl', 'hfss', 'ta500', 'ua200', 'hus850', 'va500', 'rlds', 'vas', 'sfcWindmax', 'snc', 'ta850', 'ta200', 'hurs', 'rsus', 'rlut', 'rsut', 'snm', 'psl', 'mrso', 'uas', 'ua850', 'rlus', 'clt', 'tas', 'tasmin', 'va850']</t>
+          <t>['uas', 'ua850', 'snm', 'psl', 'mrso', 'rlus', 'hus850', 'ta850', 'snc', 'rlds', 'vas', 'sfcWindmax', 'va850', 'rlut', 'rsut', 'sic', 'va200', 'sfcWind', 'sund', 'clt', 'tas', 'tasmin', 'rsds', 'pr', 'va500', 'hfls', 'rsdt', 'evspsbl', 'ta500', 'ua200', 'tasmax', 'ua500', 'hfss', 'mrros', 'huss', 'mrro', 'ta200', 'hurs', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -15938,7 +15938,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['rlus', 'huss', 'rsds', 'ps', 'rlds', 'pr', 'rsus', 'hfls', 'sfcWind', 'hurs', 'hfss', 'tas', 'psl']</t>
+          <t>['ps', 'rsds', 'rlus', 'huss', 'tas', 'psl', 'hfss', 'pr', 'rsus', 'sfcWind', 'hurs', 'hfls', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -15970,7 +15970,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['sund', 'tauv', 'tasmin', 'pr', 'rlds', 'psl', 'ua850', 'sfcWindmax', 'hfls', 'rsdt', 'clivi', 'hus850', 'sic', 'ta500', 'clwvi', 'hurs', 'rsds', 'va850', 'cll', 'ta200', 'uas', 'ua200', 'rlut', 'ua500', 'mrro', 'hfss', 'prc', 'clm', 'mrso', 'tas', 'rlus', 'mrros', 'huss', 'va500', 'prw', 'tasmax', 'snm', 'ps', 'va200', 'rsut', 'evspsbl', 'snc', 'prhmax', 'clh', 'vas', 'clt', 'tauu', 'rsus', 'sfcWind', 'prsn', 'ts', 'ta850']</t>
+          <t>['ua850', 'rsdt', 'tauv', 'tasmin', 'psl', 'pr', 'rlds', 'tasmax', 'ps', 'prw', 'snm', 'rsus', 'ta850', 'sfcWind', 'prsn', 'ts', 'ta200', 'uas', 'ua200', 'cll', 'sfcWindmax', 'hfls', 'clivi', 'mrso', 'tas', 'prc', 'hfss', 'clm', 'hus850', 'sic', 'ta500', 'clwvi', 'va850', 'ua500', 'mrro', 'rlut', 'hurs', 'rsds', 'sund', 'rlus', 'huss', 'va500', 'mrros', 'rsut', 'evspsbl', 'clh', 'clt', 'tauu', 'va200', 'snc', 'prhmax', 'vas']</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['sund', 'rlut', 'hfss', 'ta500', 'clt', 'tasmax', 'sic', 'hfls', 'rsdt', 'rsds', 'hus850', 'tas', 'va200', 'sfcWindmax', 'snm', 'psl', 'ta850', 'va850', 'rsut', 'pr', 'hurs', 'vas', 'rsus', 'rlus', 'huss', 'ta200', 'uas', 'ua200', 'sfcWind', 'ua850', 'snc', 'evspsbl', 'mrso', 'ua500', 'va500', 'rlds', 'tasmin']</t>
+          <t>['sic', 'hfls', 'rsdt', 'rsds', 'tas', 'tasmax', 'hfss', 'clt', 'rlut', 'ta500', 'ua200', 'sfcWind', 'ua850', 'va500', 'tasmin', 'rlds', 'hurs', 'rsut', 'pr', 'va850', 'hus850', 'va200', 'vas', 'sfcWindmax', 'snm', 'psl', 'ta850', 'sund', 'rlus', 'huss', 'uas', 'rsus', 'ta200', 'evspsbl', 'mrso', 'ua500', 'snc']</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -16294,7 +16294,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['sund', 'sfcWindmax', 'vas', 'hus850', 'ta850', 'rlut', 'snc', 'sfcWind', 'va500', 'rlus', 'ta500', 'rsus', 'uas', 'tasmin', 'rlds', 'mrso', 'rsut', 'snm', 'psl', 'ta200', 'tasmax', 'tas', 'clt', 'va200', 'pr', 'evspsbl', 'sic', 'ua500', 'ua200', 'hfss', 'huss', 'hfls', 'rsdt', 'hurs', 'ua850', 'va850', 'rsds']</t>
+          <t>['rlut', 'sfcWind', 'sfcWindmax', 'hus850', 'vas', 'ta850', 'rsus', 'sic', 'ua500', 'evspsbl', 'va850', 'rsds', 'mrso', 'tasmin', 'rlds', 'uas', 'snc', 'rsut', 'psl', 'tasmax', 'snm', 'ta200', 'rlus', 'ta500', 'va500', 'sund', 'pr', 'tas', 'clt', 'va200', 'ua200', 'hfls', 'rsdt', 'ua850', 'hfss', 'huss', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'ps']</t>
+          <t>['hfss', 'rlus', 'sfcWind', 'tas', 'hfls', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'rsus', 'hurs', 'ps']</t>
         </is>
       </c>
     </row>
@@ -16514,7 +16514,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'clh', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin']</t>
+          <t>['clwvi', 'va200', 'va500', 'va850', 'zg500', 'rlds', 'rlus', 'rsds', 'rsdt', 'rsus', 'hus850', 'huss', 'mrro', 'prc', 'prhmax', 'ps', 'psl', 'snm', 'ts', 'ua200', 'ua850', 'tas', 'tasmax', 'clivi', 'cll', 'clm', 'clt', 'clh', 'vas', 'zg200', 'rlut', 'rsut', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'prsn', 'prw', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snw', 'tauu', 'tauv', 'ua500', 'uas', 'sund', 'ta200', 'ta500', 'ta850', 'tasmin', 'evspsbl', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'clt', 'zg200', 'zg500', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas']</t>
+          <t>['rsdt', 'rsus', 'sfcWindmax', 'evspsbl', 'hfls', 'hus850', 'huss', 'mrro', 'pr', 'clt', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsut', 'sfcWind', 'hfss', 'hurs', 'mrros', 'mrso', 'zg200', 'zg500', 'sic', 'ta200', 'uas', 'va200', 'va500', 'vas', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'va850']</t>
         </is>
       </c>
     </row>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
+          <t>['sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'rsut', 'sfcWindmax', 'ta200', 'ta500', 'ta850', 'clt', 'hfss', 'huss', 'mrro', 'tas', 'tasmin', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'evspsbl', 'hfls', 'hurs', 'hus850', 'tasmax', 'uas', 'va200', 'va500', 'va850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -16650,7 +16650,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl']</t>
+          <t>['hurs', 'hfls', 'huss', 'pr', 'hfss', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -16714,7 +16714,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'clh', 'clivi', 'cll', 'clm', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'zg200', 'zg500', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas']</t>
+          <t>['snc', 'snd', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'tauv', 'ts', 'ua200', 'ua500', 'uas', 'va850', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'cll', 'clm', 'hus850', 'huss', 'mrro', 'mrros', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sic', 'clt', 'hfls', 'hfss', 'mrso', 'pr', 'prc', 'clh', 'clivi', 'hurs', 'zg200', 'zg500', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWindmax', 'ua850', 'va200', 'va500', 'vas']</t>
         </is>
       </c>
     </row>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'clt', 'evspsbl', 'hfls', 'hfss', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850']</t>
+          <t>['snw', 'sund', 'ta200', 'va500', 'vas', 'zg200', 'zg500', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'huss', 'psl', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'mrro', 'mrros', 'mrso', 'pr', 'uas', 'va200', 'va850']</t>
         </is>
       </c>
     </row>
@@ -16810,7 +16810,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'clt', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'psl', 'rlds', 'rsds', 'tasmin', 'va500', 'va850', 'vas', 'mrso', 'pr', 'rlus', 'rlut', 'rsdt', 'zg500', 'zg200', 'tas', 'tasmax', 'clt', 'ua200', 'ua500', 'ua850', 'uas', 'va200']</t>
         </is>
       </c>
     </row>
@@ -16882,7 +16882,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['sfcWind', 'tas', 'hfls', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus']</t>
+          <t>['rsus', 'sfcWind', 'huss', 'pr', 'rlds', 'rlus', 'rsds', 'hfls', 'hurs', 'ps', 'psl', 'tas']</t>
         </is>
       </c>
     </row>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['sund', 'sic', 'ua500', 'ua200', 'sfcWindmax', 'uas', 'rsds', 'evspsbl', 'ta500', 'hurs', 'clivi', 'clt', 'prw', 'sfcWind', 'ua850', 'tasmax', 'clh', 'vas', 'va850', 'hfss', 'pr', 'clwvi', 'prsn', 'tasmin', 'rsus', 'ta200', 'tauu', 'cll', 'snc', 'prhmax', 'rlus', 'huss', 'snm', 'va500', 'ts', 'mrso', 'ta850', 'hfls', 'rsdt', 'hus850', 'rsut', 'rlut', 'rlds', 'va200', 'tauv', 'tas', 'prc', 'ps', 'clm', 'psl', 'mrros', 'mrro']</t>
+          <t>['va200', 'tauv', 'tas', 'rlds', 'ua200', 'sfcWindmax', 'uas', 'ta500', 'clivi', 'rsds', 'evspsbl', 'hurs', 'hfss', 'mrros', 'mrro', 'prc', 'clm', 'psl', 'ps', 'prw', 'sfcWind', 'tasmax', 'clh', 'va850', 'vas', 'ua850', 'tasmin', 'rsus', 'clt', 'ta200', 'sund', 'prsn', 'pr', 'clwvi', 'rlut', 'tauu', 'cll', 'snc', 'prhmax', 'rlus', 'huss', 'snm', 'va500', 'ts', 'ta850', 'rsdt', 'hus850', 'mrso', 'hfls', 'rsut', 'sic', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['sund', 'sic', 'rlus', 'huss', 'sfcWind', 'uas', 'va500', 'va200', 'ta200', 'hurs', 'psl', 'snc', 'hfss', 'snm', 'rsus', 'ta850', 'ua850', 'sfcWindmax', 'pr', 'mrso', 'hus850', 'rsds', 'hfls', 'rsdt', 'ua200', 'vas', 'ua500', 'tasmax', 'rlds', 'va850', 'rsut', 'ta500', 'evspsbl', 'clt', 'tasmin', 'rlut', 'tas']</t>
+          <t>['tasmax', 'va850', 'rsut', 'rlds', 'sfcWind', 'uas', 'va500', 'hfss', 'snm', 'snc', 'tasmin', 'rlut', 'tas', 'ta500', 'evspsbl', 'clt', 'rsus', 'ta200', 'psl', 'hurs', 'pr', 'va200', 'ua850', 'sfcWindmax', 'sund', 'ta850', 'vas', 'ua500', 'mrso', 'hus850', 'rsds', 'hfls', 'rsdt', 'ua200', 'sic', 'rlus', 'huss']</t>
         </is>
       </c>
     </row>
@@ -17238,7 +17238,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['sund', 'hfls', 'rsdt', 'va500', 'va200', 'sic', 'va850', 'rsds', 'clt', 'huss', 'snm', 'ua200', 'rsut', 'evspsbl', 'ta500', 'tas', 'pr', 'rlds', 'tasmax', 'snc', 'ua500', 'rlus', 'uas', 'hurs', 'hus850', 'rlut', 'vas', 'ua850', 'rsus', 'ta200', 'sfcWind', 'ta850', 'sfcWindmax', 'mrso', 'tasmin', 'psl', 'hfss']</t>
+          <t>['sfcWind', 'ta200', 'sic', 'va850', 'snm', 'rsut', 'ua200', 'ta850', 'sfcWindmax', 'mrso', 'hfss', 'tasmin', 'psl', 'clt', 'huss', 'rsds', 'tasmax', 'rlus', 'tas', 'pr', 'rlds', 'snc', 'ua500', 'sund', 'evspsbl', 'ta500', 'ua850', 'rsus', 'uas', 'hurs', 'hus850', 'rlut', 'vas', 'hfls', 'rsdt', 'va500', 'va200']</t>
         </is>
       </c>
     </row>
@@ -17350,7 +17350,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['mrro', 'mrros']</t>
+          <t>['mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -17390,7 +17390,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['rlds', 'rlus', 'rsus', 'sfcWind', 'hfls', 'hurs', 'huss', 'ps', 'rsds', 'tas', 'hfss', 'pr', 'psl']</t>
         </is>
       </c>
     </row>
@@ -17454,7 +17454,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'clh', 'clivi', 'va850', 'vas', 'zg200', 'zg500', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'ua500', 'ua850', 'uas', 'va200', 'va500']</t>
+          <t>['tas', 'tasmax', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'vas', 'zg200', 'zg500', 'tasmin', 'ua200', 'snd', 'ta200', 'ta850', 'tauu', 'tauv', 'ts', 'snc', 'snm', 'snw', 'sund', 'ta500', 'va850', 'psl', 'cll', 'hfls', 'hurs', 'ps', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfss', 'hus850', 'huss', 'mrso', 'pr', 'prc', 'clh', 'clivi', 'mrro', 'mrros', 'rsus', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'prhmax', 'prw', 'rsut', 'sfcWind', 'sic', 'rlds', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -17518,7 +17518,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt']</t>
+          <t>['rsus', 'sfcWind', 'sic', 'snc', 'snd', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'clt', 'rsdt', 'rsut', 'sfcWindmax', 'tasmax', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'vas', 'tasmin', 'ua500', 'zg500', 'ua200', 'zg200', 'ua850', 'uas', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -17550,7 +17550,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
+          <t>['zg500', 'evspsbl', 'hfls', 'hus850', 'mrros', 'mrso', 'rlds', 'rlus', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmin', 'va850', 'zg200', 'clt', 'hfss', 'hurs', 'huss', 'mrro', 'pr', 'psl', 'rlut', 'rsds', 'snd', 'snm', 'sund', 'tasmax', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'vas']</t>
         </is>
       </c>
     </row>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['hfss', 'hurs', 'ps', 'rsds', 'psl', 'sfcWind', 'hfls', 'huss', 'pr', 'rlds', 'rlus', 'rsus', 'tas']</t>
         </is>
       </c>
     </row>
@@ -17654,7 +17654,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['tasmax', 'tauu', 'mrso', 'snm', 'ua200', 'va500', 'rsds', 'ua850', 'snd', 'clwvi', 'rsut', 'sund', 'hfss', 'tas', 'tasmin', 'rlut', 'prsn', 'vas', 'clh', 'cll', 'ua500', 'prhmax', 'mrros', 'ta850', 'ps', 'uas', 'pr', 'sfcWind', 'hus850', 'ts', 'snc', 'sic', 'prc', 'hurs', 'snw', 'ta200', 'evspsbl', 'rsus', 'clt', 'clm', 'va850', 'zg200', 'va200', 'hfls', 'rsdt', 'ta500', 'sfcWindmax', 'rlds', 'prw', 'rlus', 'tauv', 'huss', 'zg500', 'mrro', 'psl', 'clivi']</t>
+          <t>['rsdt', 'rlds', 'rlus', 'zg200', 'va200', 'hfls', 'zg500', 'psl', 'ta500', 'sfcWindmax', 'prw', 'tauv', 'huss', 'mrro', 'clivi', 'snm', 'prc', 'hurs', 'snw', 'evspsbl', 'sic', 'rsus', 'clt', 'tasmax', 'tauu', 'mrso', 'va500', 'ua200', 'sfcWind', 'hus850', 'ts', 'mrros', 'cll', 'ua500', 'prhmax', 'ps', 'uas', 'ta850', 'pr', 'clwvi', 'ua850', 'snd', 'rsut', 'sund', 'hfss', 'rsds', 'tasmin', 'tas', 'vas', 'clh', 'rlut', 'prsn', 'snc', 'ta200', 'clm', 'va850']</t>
         </is>
       </c>
     </row>
@@ -17686,7 +17686,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -17718,7 +17718,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['snc', 'mrso', 'zg500', 'hurs', 'hfss', 'ua850', 'mrro', 'snm', 'rlut', 'sfcWind', 'ua200', 'rsut', 'sund', 'tas', 'ta500', 'pr', 'rlus', 'huss', 'ua500', 'va850', 'va500', 'sfcWindmax', 'evspsbl', 'hus850', 'ta200', 'rsus', 'psl', 'sic', 'rsds', 'tasmin', 'mrros', 'uas', 'tasmax', 'clt', 'hfls', 'rsdt', 'snw', 'rlds', 'ta850', 'snd', 'vas', 'zg200', 'va200']</t>
+          <t>['hfls', 'rsdt', 'rlds', 'snd', 'zg200', 'vas', 'snw', 'ta850', 'va200', 'hfss', 'snm', 'rlut', 'mrros', 'uas', 'sic', 'tasmax', 'clt', 'snc', 'zg500', 'mrso', 'hurs', 'mrro', 'ua850', 'rsus', 'psl', 'sfcWindmax', 'va850', 'va500', 'evspsbl', 'hus850', 'ta200', 'sfcWind', 'ua200', 'ta500', 'rsut', 'sund', 'tas', 'pr', 'rlus', 'huss', 'ua500', 'rsds', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -17750,7 +17750,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['clt', 'sfcWindmax', 'rlus', 'snc', 'tasmin', 'zg200', 'va200', 'rsds', 'psl', 'hfls', 'rsdt', 'tas', 'hfss', 'snw', 'snd', 'evspsbl', 'tasmax', 'mrso', 'zg500', 'va500', 'vas', 'va850', 'ta200', 'sfcWind', 'huss', 'rsut', 'ta850', 'rsus', 'ua850', 'ua200', 'pr', 'mrros', 'sund', 'sic', 'ua500', 'rlut', 'snm', 'rlds', 'uas', 'hurs', 'ta500', 'hus850', 'mrro']</t>
+          <t>['hus850', 'hurs', 'snm', 'rlds', 'uas', 'ta500', 'mrro', 'va200', 'clt', 'sfcWindmax', 'snc', 'tasmin', 'zg200', 'ua200', 'mrros', 'sund', 'sic', 'ua500', 'rlut', 'rlus', 'rsut', 'ta850', 'ua850', 'rsus', 'zg500', 'evspsbl', 'mrso', 'va850', 'ta200', 'tasmax', 'va500', 'vas', 'sfcWind', 'huss', 'psl', 'hfls', 'hfss', 'snw', 'rsds', 'rsdt', 'tas', 'snd', 'pr']</t>
         </is>
       </c>
     </row>
@@ -17818,7 +17818,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['hfls', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['hfls', 'hurs', 'pr', 'rlds', 'rlus', 'sfcWind', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'tas']</t>
         </is>
       </c>
     </row>
@@ -17882,7 +17882,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['sund', 'rlut', 'ua200', 'hus850', 'sfcWind', 'psl', 'ta200', 'tasmin', 'rlus', 'tauv', 'huss', 'prhmax', 'clivi', 'uas', 'rsds', 'evspsbl', 'tasmax', 'tas', 'ua500', 'hurs', 'hfss', 'snm', 'rsus', 'prw', 'ta500', 'rsut', 'vas', 'clt', 'va200', 'hfls', 'rsdt', 'prc', 'ta850', 'clh', 'tauu', 'rlds', 'sic', 'clwvi', 'clm', 'ps', 'va500', 'mrso', 'sfcWindmax', 'va850', 'prsn', 'ua850', 'ts', 'cll', 'snc', 'pr', 'mrro', 'mrros']</t>
+          <t>['clwvi', 'clm', 'ps', 'mrso', 'va500', 'hus850', 'sfcWind', 'ta200', 'psl', 'tasmax', 'tas', 'mrro', 'mrros', 'ts', 'cll', 'snc', 'pr', 'ua850', 'sfcWindmax', 'va850', 'prsn', 'hurs', 'huss', 'rsds', 'evspsbl', 'clivi', 'uas', 'rlus', 'prhmax', 'tauv', 'rsus', 'ta500', 'tasmin', 'snm', 'prw', 'hfss', 'sund', 'ua500', 'tauu', 'rlds', 'sic', 'rsut', 'vas', 'clt', 'va200', 'hfls', 'rsdt', 'prc', 'ta850', 'clh', 'rlut', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -18030,7 +18030,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['sund', 'rlut', 'va850', 'hurs', 'tasmin', 'vas', 'uas', 'va500', 'hus850', 'sfcWind', 'va200', 'ua850', 'pr', 'rsds', 'psl', 'tas', 'hfls', 'rsdt', 'rsut', 'evspsbl', 'ua500', 'mrso', 'ua200', 'sic', 'ta850', 'clt', 'rlds', 'snc', 'ta200', 'rlus', 'hfss', 'huss', 'snm', 'ta500', 'sfcWindmax', 'rsus', 'tasmax']</t>
+          <t>['ta850', 'clt', 'rlds', 'va850', 'hurs', 'tasmin', 'vas', 'uas', 'tasmax', 'snc', 'ta200', 'hfss', 'huss', 'rlus', 'ta500', 'sfcWindmax', 'rsus', 'snm', 'hus850', 'va200', 'sfcWind', 'va500', 'rsds', 'sund', 'ua850', 'pr', 'mrso', 'ua200', 'sic', 'psl', 'tas', 'hfls', 'rsdt', 'rsut', 'evspsbl', 'ua500', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['sund', 'sfcWindmax', 'va500', 'psl', 'clt', 'rlus', 'huss', 'tasmax', 'evspsbl', 'uas', 'va850', 'snc', 'ta850', 'ua500', 'pr', 'tasmin', 'mrso', 'ta200', 'rsut', 'ua200', 'rlds', 'vas', 'rlut', 'rsds', 'hfss', 'sfcWind', 'ua850', 'hfls', 'rsdt', 'snm', 'ta500', 'rsus', 'va200', 'tas', 'hurs', 'sic', 'hus850']</t>
+          <t>['rsus', 'va200', 'tas', 'ta500', 'psl', 'va500', 'rlus', 'huss', 'evspsbl', 'tasmax', 'hurs', 'hus850', 'sic', 'tasmin', 'mrso', 'snc', 'ta850', 'rlds', 'va850', 'uas', 'ua200', 'vas', 'rsut', 'sund', 'ua500', 'pr', 'ta200', 'clt', 'hfls', 'rsdt', 'snm', 'rlut', 'rsds', 'sfcWind', 'hfss', 'ua850', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -18230,7 +18230,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['hfss', 'sfcWind', 'rlds', 'ps', 'rsds', 'hurs', 'pr', 'tas', 'rlus', 'huss', 'psl', 'hfls', 'rsus']</t>
+          <t>['hurs', 'pr', 'tas', 'huss', 'rlus', 'psl', 'hfls', 'rsus', 'ps', 'rsds', 'hfss', 'sfcWind', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['clt', 'ps', 'sfcWind', 'ta500', 'ts', 'clwvi', 'clh', 'vas', 'hfss', 'va850', 'rlds', 'zg200', 'snw', 'va200', 'hus850', 'mrro', 'ta200', 'rsut', 'zg500', 'sund', 'va500', 'prw', 'hurs', 'ua500', 'tauu', 'sic', 'ta850', 'pr', 'rsus', 'tasmin', 'evspsbl', 'ua850', 'sfcWindmax', 'rlut', 'clm', 'psl', 'rlus', 'tauv', 'clivi', 'huss', 'uas', 'tasmax', 'prc', 'snm', 'tas', 'prsn', 'hfls', 'rsdt', 'snd', 'rsds', 'prhmax', 'cll', 'mrso', 'mrros', 'snc', 'ua200']</t>
+          <t>['prw', 'ua500', 'sic', 'rsus', 'tasmin', 'hurs', 'tauu', 'ta850', 'pr', 'psl', 'rlus', 'clivi', 'huss', 'clm', 'evspsbl', 'ua850', 'sfcWindmax', 'rlut', 'tauv', 'uas', 'tasmax', 'prc', 'prsn', 'snm', 'tas', 'rsds', 'cll', 'mrso', 'mrros', 'hfls', 'rsdt', 'snd', 'prhmax', 'snc', 'ua200', 'hfss', 'va850', 'snw', 'mrro', 'ta200', 'rsut', 'zg500', 'sund', 'va500', 'zg200', 'va200', 'hus850', 'rlds', 'clt', 'ps', 'ta500', 'ts', 'clwvi', 'clh', 'vas', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18426,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -18458,7 +18458,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['snm', 'psl', 'hus850', 'vas', 'ta850', 'hfss', 'uas', 'va200', 'rlds', 'tasmin', 'hfls', 'ua200', 'evspsbl', 'mrros', 'mrro', 'clt', 'rlus', 'huss', 'ua500', 'hurs', 'snd', 'mrso', 'snc', 'rsus', 'ta500', 'zg500', 'snw', 'va500', 'sfcWindmax', 'rlut', 'sic', 'tasmax', 'sfcWind', 'zg200', 'pr', 'ua850', 'rsdt', 'va850', 'rsds', 'ta200', 'rsut', 'tas', 'sund']</t>
+          <t>['ta500', 'snd', 'hurs', 'mrso', 'snc', 'rsus', 'snw', 'sfcWindmax', 'sic', 'tasmax', 'sfcWind', 'zg200', 'rlut', 'zg500', 'va500', 'ua850', 'pr', 'rsdt', 'va850', 'rsds', 'ta200', 'tas', 'sund', 'rsut', 'vas', 'hfss', 'va200', 'ta850', 'uas', 'tasmin', 'evspsbl', 'mrro', 'rlds', 'hfls', 'ua200', 'mrros', 'clt', 'rlus', 'huss', 'ua500', 'snm', 'psl', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -18490,7 +18490,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['rsus', 'mrros', 'mrro', 'hfls', 'rsdt', 'mrso', 'clt', 'sfcWindmax', 'tasmin', 'ta500', 'rsut', 'snw', 'sund', 'sfcWind', 'evspsbl', 'ua850', 'rlds', 'ua200', 'tasmax', 'rlut', 'hus850', 'snc', 'ta850', 'hurs', 'uas', 'va850', 'rsds', 'snm', 'vas', 'psl', 'ta200', 'rlus', 'huss', 'sic', 'ua500', 'snd', 'zg500', 'tas', 'va500', 'hfss', 'zg200', 'va200', 'pr']</t>
+          <t>['snc', 'ta850', 'rlds', 'ua200', 'rlut', 'hus850', 'tasmax', 'hurs', 'uas', 'va850', 'snm', 'vas', 'rsds', 'psl', 'huss', 'ua500', 'snd', 'ta200', 'rlus', 'sic', 'tas', 'va500', 'zg500', 'va200', 'hfss', 'zg200', 'pr', 'ta500', 'rsut', 'snw', 'sund', 'sfcWind', 'evspsbl', 'ua850', 'mrros', 'rsus', 'mrro', 'mrso', 'sfcWindmax', 'clt', 'tasmin', 'hfls', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -18530,7 +18530,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['rsus', 'psl', 'pr', 'rlus', 'huss', 'rsds', 'hfss', 'sfcWind', 'hurs', 'tas', 'rlds', 'ps', 'hfls']</t>
+          <t>['hfss', 'sfcWind', 'tas', 'hurs', 'rlds', 'hfls', 'ps', 'rsus', 'rlus', 'huss', 'rsds', 'pr', 'psl']</t>
         </is>
       </c>
     </row>
@@ -18562,7 +18562,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -18594,7 +18594,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['evspsbl', 'sfcWindmax', 'clt', 'rlus', 'hfss', 'ta850', 'rlds', 'snw', 'ts', 'hfls', 'zg500', 'snm', 'psl', 'ua850', 'huss', 'uas', 'ta200', 'mrso', 'sic', 'rsds', 'prsn', 'clh', 'vas', 'tas', 'clwvi', 'snd', 'rsus', 'rlut', 'va200', 'tauv', 'ua500', 'rsut', 'prw', 'hurs', 'tauu', 'clivi', 'cll', 'tasmin', 'prc', 'ua200', 'clm', 'mrro', 'zg200', 'mrros', 'va850', 'hus850', 'tasmax', 'prhmax', 'ps', 'ta500', 'sund', 'rsdt', 'snc', 'pr', 'sfcWind', 'va500']</t>
+          <t>['prw', 'snd', 'rlut', 'va200', 'ua500', 'clwvi', 'rsus', 'tauv', 'rsut', 'hurs', 'tauu', 'clivi', 'clm', 'mrro', 'zg200', 'tasmin', 'prc', 'ua200', 'cll', 'hus850', 'mrros', 'tasmax', 'prhmax', 'ps', 'ta500', 'sund', 'va850', 'va500', 'snc', 'pr', 'sfcWind', 'evspsbl', 'sfcWindmax', 'clt', 'rlus', 'hfss', 'ta850', 'rsdt', 'prsn', 'tas', 'clh', 'vas', 'ta200', 'sic', 'mrso', 'rsds', 'snw', 'rlds', 'ts', 'zg500', 'snm', 'psl', 'ua850', 'huss', 'uas', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18626,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['rlds', 'mrso', 'zg200', 'va200', 'va850', 'mrro', 'psl', 'hfss', 'sund', 'ua500', 'rlut', 'rlus', 'tasmin', 'sfcWind', 'huss', 'rsut', 'tasmax', 'mrros', 'ua200', 'hus850', 'hfls', 'rsdt', 'pr', 'clt', 'tas', 'hurs', 'snd', 'ua850', 'sfcWindmax', 'vas', 'uas', 'ta200', 'snw', 'ta500', 'snc', 'rsds', 'sic', 'snm', 'zg500', 'va500', 'ta850', 'rsus', 'evspsbl']</t>
+          <t>['snd', 'hfls', 'pr', 'rsdt', 'clt', 'tas', 'hurs', 'ta200', 'ua850', 'sfcWindmax', 'vas', 'ta500', 'snc', 'sic', 'snm', 'zg500', 'va500', 'uas', 'snw', 'rsds', 'evspsbl', 'rsus', 'rlds', 'va200', 'mrso', 'zg200', 'va850', 'mrro', 'psl', 'hfss', 'sund', 'ta850', 'ua200', 'hus850', 'mrros', 'tasmax', 'rsut', 'ua500', 'tasmin', 'sfcWind', 'rlut', 'rlus', 'huss']</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['hfls', 'rsdt', 'mrros', 'snm', 'snc', 'mrro', 'va500', 'rsut', 'sund', 'hurs', 'ta500', 'rsds', 'vas', 'tas', 'sfcWindmax', 'va200', 'rsus', 'rlus', 'pr', 'snd', 'hfss', 'hus850', 'zg200', 'clt', 'tasmin', 'ua850', 'ua500', 'zg500', 'huss', 'snw', 'ta200', 'rlds', 'uas', 'ta850', 'rlut', 'psl', 'va850', 'tasmax', 'ua200', 'mrso', 'sic', 'sfcWind', 'evspsbl']</t>
+          <t>['tasmin', 'clt', 'hus850', 'zg200', 'ta200', 'zg500', 'ua850', 'ua500', 'rlds', 'psl', 'huss', 'snw', 'rlut', 'va850', 'ua200', 'uas', 'ta850', 'tasmax', 'sfcWind', 'sic', 'evspsbl', 'mrso', 'hfls', 'rsdt', 'snm', 'snc', 'mrro', 'mrros', 'va500', 'rsut', 'sund', 'snd', 'hfss', 'rlus', 'rsus', 'pr', 'sfcWindmax', 'va200', 'tas', 'hurs', 'ta500', 'rsds', 'vas']</t>
         </is>
       </c>
     </row>
@@ -18734,7 +18734,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['pr', 'rsus', 'ps', 'sfcWind', 'rlus', 'hfls', 'huss', 'tas', 'rsds', 'rlds', 'hfss', 'psl', 'hurs']</t>
+          <t>['ps', 'rsus', 'rlus', 'hfls', 'huss', 'sfcWind', 'rsds', 'rlds', 'hfss', 'psl', 'pr', 'hurs', 'tas']</t>
         </is>
       </c>
     </row>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -18798,7 +18798,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['sund', 'ts', 'va200', 'ta500', 'tas', 'ua500', 'hfss', 'sfcWind', 'hus850', 'rsus', 'clivi', 'va850', 'rsds', 'hfls', 'rsdt', 'cll', 'psl', 'clwvi', 'rlut', 'tasmin', 'snm', 'ta200', 'ps', 'va500', 'tauu', 'prw', 'rlds', 'tasmax', 'ta850', 'sfcWindmax', 'vas', 'clt', 'rlus', 'clm', 'evspsbl', 'mrso', 'ua850', 'prc', 'clh', 'rsut', 'snc', 'pr', 'tauv', 'huss', 'prhmax', 'hurs', 'sic', 'prsn', 'uas', 'ua200', 'mrros', 'mrro']</t>
+          <t>['clivi', 'va850', 'ua500', 'hus850', 'mrros', 'mrro', 'rsus', 'va500', 'sic', 'uas', 'snc', 'pr', 'prhmax', 'hurs', 'prsn', 'ua200', 'tauv', 'huss', 'psl', 'clwvi', 'cll', 'rlut', 'rsdt', 'hfls', 'rlds', 'tasmax', 'sfcWindmax', 'vas', 'clt', 'rlus', 'clm', 'ta850', 'evspsbl', 'hfss', 'sfcWind', 'tasmin', 'snm', 'ta200', 'ps', 'sund', 'rsds', 'ts', 'ta500', 'tas', 'va200', 'prc', 'clh', 'rsut', 'mrso', 'ua850', 'tauu', 'prw']</t>
         </is>
       </c>
     </row>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['sund', 'rsut', 'vas', 'ua500', 'hus850', 'ta200', 'sfcWindmax', 'hfss', 'psl', 'rsds', 'va500', 'snc', 'rsus', 'tas', 'hfls', 'rsdt', 'rlus', 'huss', 'rlut', 'ua850', 'sic', 'pr', 'snm', 'ta850', 'tasmin', 'mrso', 'rlds', 'clt', 'tasmax', 'va850', 'uas', 'ua200', 'evspsbl', 'ta500', 'sfcWind', 'hurs', 'va200']</t>
+          <t>['rsus', 'snc', 'va500', 'rsds', 'tas', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'ta850', 'sfcWind', 'va200', 'hurs', 'ua200', 'evspsbl', 'ta500', 'rlus', 'rlut', 'ua850', 'huss', 'hfls', 'rsdt', 'pr', 'rlds', 'tasmax', 'hfss', 'clt', 'sic', 'snm', 'sund', 'ua500', 'rsut', 'vas', 'uas', 'va850', 'tasmin', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -19002,7 +19002,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -19090,7 +19090,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['sund', 'rsds', 'evspsbl', 'uas', 'snm', 'ua850', 'ua200', 'rlds', 'ta200', 'tas', 'sfcWindmax', 'rlus', 'hus850', 'rsus', 'ua500', 'va850', 'tasmax', 'huss', 'snc', 'ta500', 'hurs', 'clt', 'rsut', 'tasmin', 'va200', 'va500', 'rsdt', 'psl', 'hfss', 'sic', 'hfls', 'sfcWind', 'vas', 'ta850', 'rlut', 'pr', 'mrso']</t>
+          <t>['ta200', 'rlds', 'ua200', 'sfcWind', 'vas', 'rlut', 'hfls', 'pr', 'mrso', 'ta850', 'rsus', 'rlus', 'hus850', 'ua500', 'tas', 'sfcWindmax', 'ta500', 'hurs', 'clt', 'tasmin', 'va200', 'rsut', 'ua850', 'va850', 'tasmax', 'huss', 'snc', 'sund', 'rsds', 'evspsbl', 'snm', 'uas', 'rsdt', 'psl', 'hfss', 'sic', 'va500']</t>
         </is>
       </c>
     </row>
@@ -19202,7 +19202,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['mrro', 'mrros']</t>
+          <t>['mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -19242,7 +19242,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['rsds', 'psl', 'hfls', 'ps', 'rsus', 'pr', 'hurs', 'rlds', 'tas', 'sfcWind', 'rlus', 'hfss', 'huss']</t>
+          <t>['psl', 'rsds', 'hfls', 'ps', 'hurs', 'rlds', 'tas', 'rlus', 'hfss', 'huss', 'sfcWind', 'rsus', 'pr']</t>
         </is>
       </c>
     </row>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['sund', 'va850', 'rsds', 'tauu', 'uas', 'clh', 'ua850', 'ua200', 'tas', 'rsut', 'vas', 'snc', 'clm', 'psl', 'hfss', 'sfcWind', 'va500', 'hus850', 'rsus', 'ta500', 'ts', 'clivi', 'hurs', 'rlds', 'prhmax', 'mrso', 'tasmin', 'tauv', 'va200', 'prc', 'rlut', 'evspsbl', 'ta850', 'huss', 'sic', 'clwvi', 'pr', 'hfls', 'rsdt', 'ps', 'tasmax', 'prw', 'rlus', 'clt', 'cll', 'ta200', 'prsn', 'sfcWindmax', 'snm', 'ua500', 'mrro', 'mrros']</t>
+          <t>['sfcWind', 'snc', 'pr', 'clm', 'psl', 'ua200', 'tas', 'mrro', 'mrros', 'hfss', 'tauv', 'va200', 'ta200', 'prsn', 'sfcWindmax', 'hfls', 'ps', 'rsdt', 'tasmax', 'prw', 'rlus', 'cll', 'clt', 'ts', 'rsus', 'hus850', 'ta500', 'va500', 'snm', 'ua500', 'rlut', 'huss', 'vas', 'rsut', 'evspsbl', 'ta850', 'hurs', 'rlds', 'prhmax', 'mrso', 'tasmin', 'clivi', 'clh', 'ua850', 'va850', 'uas', 'rsds', 'tauu', 'clwvi', 'sic', 'prc', 'sund']</t>
         </is>
       </c>
     </row>
@@ -19422,7 +19422,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -19454,7 +19454,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['sund', 'snc', 'mrso', 'ta200', 'rsut', 'sic', 'sfcWind', 'ua200', 'pr', 'evspsbl', 'ua850', 'va500', 'sfcWindmax', 'vas', 'tasmax', 'hurs', 'va200', 'tasmin', 'hus850', 'rsus', 'uas', 'tas', 'rlus', 'va850', 'rlds', 'rlut', 'ta850', 'huss', 'snm', 'hfls', 'rsdt', 'ua500', 'ta500', 'psl', 'rsds', 'clt', 'hfss']</t>
+          <t>['vas', 'evspsbl', 'ua850', 'snm', 'sic', 'sfcWind', 'va500', 'sfcWindmax', 'tasmax', 'uas', 'clt', 'ua500', 'hfls', 'rsdt', 'rsds', 'hfss', 'ta500', 'psl', 'hurs', 'va200', 'pr', 'hus850', 'tas', 'rlus', 'ua200', 'va850', 'tasmin', 'rsus', 'snc', 'mrso', 'ta200', 'rsut', 'rlut', 'ta850', 'huss', 'rlds', 'sund']</t>
         </is>
       </c>
     </row>
@@ -19538,7 +19538,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -19598,7 +19598,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['sund', 'rlds', 'vas', 'ua850', 'hfls', 'rsdt', 'evspsbl', 'tasmin', 'hfss', 'sic', 'uas', 'va850', 'rsut', 'hurs', 'ua200', 'clt', 'sfcWindmax', 'snm', 'va200', 'rlut', 'psl', 'pr', 'va500', 'tas', 'ta500', 'hus850', 'snc', 'mrso', 'rsds', 'ta850', 'rsus', 'sfcWind', 'ua500', 'tasmax', 'ta200', 'rlus', 'huss']</t>
+          <t>['rsut', 'uas', 'snc', 'va850', 'evspsbl', 'tasmin', 'hfls', 'rsdt', 'hfss', 'sund', 'ua500', 'tasmax', 'ta200', 'rsds', 'mrso', 'sfcWind', 'rlus', 'huss', 'ta850', 'rsus', 'ua200', 'hurs', 'va200', 'psl', 'pr', 'sic', 'va500', 'sfcWindmax', 'snm', 'rlut', 'clt', 'rlds', 'vas', 'ua850', 'tas', 'ta500', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -19750,7 +19750,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['rlus', 'tas', 'ps', 'sfcWind', 'hfls', 'hurs', 'huss', 'hfss', 'rsus', 'rsds', 'pr', 'psl', 'rlds']</t>
+          <t>['hfls', 'ps', 'sfcWind', 'hurs', 'hfss', 'rsus', 'huss', 'rlus', 'tas', 'rlds', 'psl', 'rsds', 'pr']</t>
         </is>
       </c>
     </row>
@@ -19814,7 +19814,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['sund', 'prsn', 'rsds', 'tasmin', 'evspsbl', 'sic', 'tauv', 'ps', 'tasmax', 'ta850', 'hurs', 'pr', 'ua500', 'prhmax', 'psl', 'ta500', 'va850', 'hfls', 'rsdt', 'hfss', 'rsus', 'clt', 'cll', 'clwvi', 'rsut', 'clh', 'vas', 'mrso', 'ta200', 'rlut', 'sfcWindmax', 'snc', 'uas', 'va200', 'clm', 'hus850', 'prc', 'ua850', 'snm', 'ts', 'va500', 'rlus', 'huss', 'tas', 'tauu', 'sfcWind', 'clivi', 'rlds', 'prw', 'ua200', 'mrros', 'mrro']</t>
+          <t>['va850', 'hfls', 'ua500', 'prhmax', 'psl', 'rsdt', 'tauv', 'ta850', 'mrros', 'mrro', 'ta500', 'ta200', 'rlus', 'huss', 'tauu', 'sfcWind', 'clivi', 'rlds', 'tas', 'prw', 'ua850', 'snm', 'ts', 'va500', 'clwvi', 'rsus', 'clt', 'cll', 'hfss', 'ua200', 'mrso', 'sfcWindmax', 'rlut', 'snc', 'pr', 'hurs', 'ps', 'tasmax', 'rsut', 'vas', 'clh', 'sund', 'prsn', 'sic', 'rsds', 'tasmin', 'evspsbl', 'clm', 'hus850', 'prc', 'uas', 'va200']</t>
         </is>
       </c>
     </row>
@@ -19930,7 +19930,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['sund', 'rsut', 'va500', 'hfss', 'va850', 'hurs', 'snm', 'evspsbl', 'rlus', 'huss', 'hus850', 'hfls', 'rsdt', 'ua850', 'tas', 'psl', 'sfcWindmax', 'ta500', 'rlds', 'uas', 'sfcWind', 'ta850', 'tasmax', 'ua200', 'snc', 'rlut', 'ta200', 'sic', 'clt', 'rsds', 'tasmin', 'rsus', 'ua500', 'vas', 'mrso', 'va200', 'pr']</t>
+          <t>['rsdt', 'ua850', 'huss', 'hus850', 'evspsbl', 'rlus', 'hfls', 'snm', 'tasmax', 'vas', 'mrso', 'va200', 'tasmin', 'rsus', 'ua500', 'psl', 'sfcWindmax', 'rlds', 'ta500', 'tas', 'pr', 'sfcWind', 'ua200', 'snc', 'uas', 'ta850', 'sund', 'hurs', 'rsut', 'va500', 'va850', 'hfss', 'rlut', 'ta200', 'sic', 'clt', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -20106,7 +20106,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['sund', 'va850', 'evspsbl', 'pr', 'rlds', 'ua200', 'ua500', 'rlut', 'hurs', 'sfcWind', 'rsut', 'rsds', 'ta850', 'vas', 'ta500', 'hfss', 'va500', 'hus850', 'tas', 'rlus', 'snc', 'mrso', 'huss', 'psl', 'hfls', 'rsdt', 'va200', 'rsus', 'sic', 'sfcWindmax', 'tasmax', 'tasmin', 'snm', 'ua850', 'ta200', 'uas', 'clt']</t>
+          <t>['hurs', 'rlut', 'va200', 'hus850', 'tas', 'ta200', 'clt', 'uas', 'sic', 'tasmin', 'rsus', 'sfcWindmax', 'tasmax', 'snm', 'ua850', 'rsds', 'ta500', 'ta850', 'vas', 'sfcWind', 'rsut', 'snc', 'mrso', 'ua500', 'ua200', 'hfss', 'va500', 'sund', 'pr', 'rlds', 'va850', 'evspsbl', 'psl', 'hfls', 'rsdt', 'huss', 'rlus']</t>
         </is>
       </c>
     </row>
@@ -20162,7 +20162,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['clt', 'hurs', 'huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'tas']</t>
+          <t>['ps', 'rsds', 'huss', 'pr', 'rlds', 'sfcWind', 'tas', 'clt', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -20338,7 +20338,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus', 'sfcWind', 'tas', 'uas']</t>
+          <t>['vas', 'clt', 'huss', 'psl', 'rlds', 'rsds', 'sfcWind', 'uas', 'hurs', 'pr', 'rsus', 'tas', 'ps']</t>
         </is>
       </c>
     </row>
@@ -20370,7 +20370,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros']</t>
+          <t>['ua200', 'uas', 'zg200', 'ua500', 'ua850', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg500', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'clt', 'evspsbl', 'mrros', 'mrso', 'pr', 'prsn', 'rlus', 'rlut', 'rsus', 'prc', 'psl', 'rsds', 'sfcWindmax', 'sic', 'ps', 'rlds', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ta200', 'ta500', 'ts']</t>
         </is>
       </c>
     </row>
@@ -20434,7 +20434,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso']</t>
+          <t>['ta500', 'tas', 'ua200', 'ua500', 'ua850', 'snw', 'ta850', 'tasmax', 'tasmin', 'uas', 'pr', 'psl', 'sfcWind', 'rlds', 'rlus', 'rlut', 'clt', 'hfls', 'evspsbl', 'hfss', 'hus850', 'mrro', 'mrros', 'mrso', 'hurs', 'huss', 'va850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWindmax', 'sic', 'snm', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -20466,7 +20466,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut']</t>
+          <t>['mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsdt', 'rsus', 'rsut', 'rlut', 'ua500', 'va500', 'va850', 'vas', 'sic', 'ta200', 'tas', 'tasmax', 'ua200', 'uas', 'va200', 'zg200', 'zg500', 'sfcWindmax', 'snm', 'snw', 'ta500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'ua850', 'sfcWind', 'ta850', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -20506,7 +20506,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['sftlf', 'areacella', 'orog']</t>
         </is>
       </c>
     </row>
@@ -20542,7 +20542,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'sfcWind', 'huss', 'tas', 'ps', 'pr', 'hurs', 'clt']</t>
+          <t>['tas', 'ps', 'rsds', 'rlds', 'sfcWind', 'huss', 'pr', 'hurs', 'clt']</t>
         </is>
       </c>
     </row>
@@ -20574,7 +20574,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['hurs', 'clt', 'rsds', 'rlds', 'rsus', 'sfcWind', 'huss', 'psl', 'tas', 'ps', 'pr', 'vas', 'uas']</t>
+          <t>['tas', 'clt', 'rsus', 'sfcWind', 'pr', 'hurs', 'vas', 'uas', 'rsds', 'rlds', 'huss', 'psl', 'ps']</t>
         </is>
       </c>
     </row>
@@ -20606,7 +20606,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -20638,7 +20638,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'hus850', 'huss', 'mrro', 'rsds', 'rsdt', 'rsus', 'rsut', 'tasmin', 'tauu', 'tauv', 'ts', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'zg200', 'zg500', 'va850', 'vas', 'wsgsmax', 'ta850', 'tas', 'tasmax', 'snw', 'ta200', 'ta500', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850']</t>
+          <t>['ua200', 'ua500', 'ua850', 'va500', 'rsdt', 'tauv', 'ts', 'sfcWind', 'mrso', 'pr', 'sic', 'snm', 'zg200', 'zg500', 'ta850', 'ta200', 'ta500', 'uas', 'va200', 'clt', 'evspsbl', 'va850', 'vas', 'wsgsmax', 'tas', 'tasmax', 'snw', 'ps', 'psl', 'rlds', 'rlus', 'hfss', 'hurs', 'mrros', 'hus850', 'mrro', 'rsus', 'rsut', 'tasmin', 'tauu', 'sfcWindmax', 'huss', 'rsds', 'prc', 'prsn', 'rlut', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -20670,7 +20670,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'vas', 'zg200', 'zg500', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'ua850', 'uas', 'va200', 'va500', 'va850']</t>
+          <t>['hfls', 'hfss', 'zg200', 'pr', 'psl', 'tas', 'hurs', 'hus850', 'huss', 'vas', 'zg500', 'mrro', 'mrso', 'tasmin', 'va500', 'va850', 'ua200', 'ua500', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'ua850', 'uas', 'va200', 'mrros', 'tasmax', 'clt', 'evspsbl', 'rlds', 'rsds', 'rsut', 'sfcWind', 'rsus', 'sfcWindmax', 'sic', 'rlus', 'rlut', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'clt', 'evspsbl']</t>
+          <t>['va200', 'vas', 'zg200', 'zg500', 'uas', 'va500', 'va850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'mrros', 'mrso', 'tas', 'ua200', 'ua500', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'ua850', 'rlds', 'rlus', 'rlut', 'rsds', 'sfcWindmax', 'sic', 'mrro', 'pr', 'psl', 'tasmax', 'tasmin', 'huss', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -20778,7 +20778,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['hurs', 'clt', 'rsds', 'rlds', 'sfcWind', 'huss', 'tas', 'ps', 'pr']</t>
+          <t>['hurs', 'clt', 'rsds', 'ps', 'pr', 'rlds', 'sfcWind', 'huss', 'tas']</t>
         </is>
       </c>
     </row>
@@ -20810,7 +20810,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['hurs', 'clt', 'rsds', 'rlds', 'rsus', 'sfcWind', 'huss', 'psl', 'tas', 'ps', 'pr', 'vas', 'uas']</t>
+          <t>['vas', 'clt', 'huss', 'psl', 'tas', 'ps', 'pr', 'uas', 'hurs', 'rsds', 'rlds', 'rsus', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -20842,7 +20842,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -20874,7 +20874,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['rsut', 'sfcWind', 'sfcWindmax', 'sic', 'tasmin', 'tauu', 'tauv', 'ts', 'wsgsmax', 'zg200', 'zg500', 'snm', 'snw', 'ta200', 'ta500', 'va200', 'va500', 'va850', 'vas', 'ua200', 'ua500', 'ua850', 'uas', 'rsds', 'rsdt', 'rsus', 'ta850', 'tas', 'tasmax', 'psl', 'rlds', 'rlus', 'rlut', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'hus850', 'huss', 'mrro']</t>
+          <t>['ta500', 'tas', 'wsgsmax', 'snw', 'sfcWind', 'sfcWindmax', 'sic', 'tasmin', 'tauu', 'tauv', 'ts', 'zg200', 'zg500', 'snm', 'ta200', 'va200', 'va500', 'rsut', 'va850', 'vas', 'ua200', 'ua500', 'ua850', 'uas', 'rsds', 'rsdt', 'rsus', 'ta850', 'tasmax', 'mrro', 'psl', 'rlds', 'rlus', 'evspsbl', 'hfss', 'mrros', 'mrso', 'prsn', 'ps', 'hus850', 'huss', 'rlut', 'clt', 'hurs', 'pr', 'hfls', 'prc']</t>
         </is>
       </c>
     </row>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'clt', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'va850', 'vas', 'zg200', 'zg500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500']</t>
+          <t>['hfls', 'hus850', 'clt', 'evspsbl', 'hfss', 'hurs', 'rsdt', 'va200', 'va500', 'sfcWindmax', 'rlds', 'rsus', 'rsut', 'sfcWind', 'psl', 'rlus', 'rlut', 'rsds', 'ua500', 'ua850', 'uas', 'huss', 'mrso', 'pr', 'sic', 'mrro', 'mrros', 'ta200', 'ta500', 'va850', 'zg200', 'zg500', 'vas', 'ta850', 'tas', 'snm', 'snw', 'tasmax', 'tasmin', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -20938,7 +20938,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['va850', 'vas', 'zg200', 'zg500', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'clt']</t>
+          <t>['rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlus', 'zg500', 'rsdt', 'rsus', 'rlds', 'rlut', 'rsds', 'sic', 'snm', 'snw', 'ta500', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'ta200', 'ta850', 'va500', 'va850', 'vas', 'zg200', 'hfls', 'mrro', 'mrso', 'evspsbl', 'hus850', 'pr', 'hfss', 'hurs', 'huss', 'mrros', 'clt']</t>
         </is>
       </c>
     </row>
@@ -21018,7 +21018,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua850', 'tauv', 'ua200', 'rsut', 'snw', 'tas', 'va500', 'wsgsmax', 'va200', 'rlds', 'rlus', 'prc', 'ta850', 'pr', 'huss', 'vas', 'rsus', 'rlut', 'zg200', 'ta500', 'tauu', 'mrros', 'mrro', 'va850', 'clt', 'rsdt', 'mrso', 'rsds', 'tasmax', 'snm', 'psl', 'sfcWind', 'uas', 'prsn', 'hfss', 'hfls', 'zg500', 'sfcWindmax', 'hus850', 'ta200', 'ua500', 'evspsbl', 'sic', 'ps', 'ts']</t>
+          <t>['zg500', 'sfcWindmax', 'ta200', 'ua500', 'hus850', 'snw', 'tasmin', 'ua850', 'tauv', 'ua200', 'rsut', 'wsgsmax', 'va200', 'rlus', 'prc', 'rsus', 'zg200', 'ta500', 'tas', 'va500', 'rlds', 'ta850', 'pr', 'huss', 'rlut', 'vas', 'uas', 'hfss', 'hfls', 'psl', 'sfcWind', 'prsn', 'mrro', 'va850', 'clt', 'rsdt', 'mrso', 'rsds', 'tasmax', 'snm', 'tauu', 'mrros', 'evspsbl', 'sic', 'ps', 'ts']</t>
         </is>
       </c>
     </row>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['rsut', 'clt', 'vas', 'sic', 'pr', 'va200', 'ta500', 'ua200', 'mrso', 'sfcWind', 'snm', 'rsus', 'rlut', 'hfls', 'mrro', 'ua850', 'rsds', 'zg500', 'huss', 'psl', 'ta200', 'mrros', 'snw', 'uas', 'rlds', 'tasmin', 'tasmax', 'tas', 'rlus', 'evspsbl', 'va850', 'hfss', 'zg200', 'rsdt', 'hus850', 'va500', 'ta850', 'ua500', 'sfcWindmax']</t>
+          <t>['zg200', 'va500', 'ta850', 'rsdt', 'hus850', 'ua500', 'clt', 'vas', 'pr', 'rsut', 'sic', 'rsus', 'rlut', 'hfls', 'ua850', 'rsds', 'va200', 'snm', 'mrro', 'zg500', 'ta500', 'ua200', 'mrso', 'sfcWind', 'rlus', 'evspsbl', 'va850', 'hfss', 'tas', 'psl', 'ta200', 'mrros', 'snw', 'uas', 'rlds', 'tasmin', 'tasmax', 'huss', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -21082,7 +21082,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['rlus', 'huss', 'zg200', 'ua850', 'rsus', 'sfcWind', 'tas', 'zg500', 'mrro', 'pr', 'rsdt', 'rsut', 'psl', 'uas', 'tasmax', 'sic', 'tasmin', 'evspsbl', 'snm', 'snw', 'vas', 'ta850', 'ta500', 'mrros', 'ua500', 'hfss', 'hfls', 'va200', 'ua200', 'rsds', 'va500', 'clt', 'rlds', 'rlut', 'va850', 'ta200', 'sfcWindmax', 'mrso', 'hus850']</t>
+          <t>['va850', 'ta200', 'sfcWind', 'zg500', 'rlus', 'huss', 'zg200', 'ua850', 'rsus', 'tas', 'rsut', 'sic', 'tasmin', 'snm', 'snw', 'vas', 'evspsbl', 'ta850', 'mrro', 'pr', 'rsdt', 'psl', 'uas', 'tasmax', 'va500', 'rlds', 'clt', 'rlut', 'ta500', 'ua500', 'hfss', 'hfls', 'va200', 'ua200', 'rsds', 'mrros', 'sfcWindmax', 'mrso', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21126,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['sic', 'ts', 'va500', 'va200', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'snm', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'ua200', 'tauv', 'rsds', 'mrro', 'hfss', 'zg200', 'tas', 'ua500', 'mrros', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tauu', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds']</t>
+          <t>['tauv', 'sfcWindmax', 'tasmin', 'evspsbl', 'tauu', 'psl', 'ps', 'va850', 'rsut', 'rlds', 'sic', 'ts', 'va500', 'va200', 'snw', 'rsus', 'tasmax', 'ta500', 'zg500', 'uas', 'ua850', 'rlut', 'hfls', 'pr', 'snm', 'mrso', 'hus850', 'rlus', 'ua500', 'mrros', 'ta200', 'tas', 'zg200', 'rsds', 'ta850', 'vas', 'huss', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'ua200', 'sfcWind', 'prc', 'mrro', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -21194,7 +21194,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['ua850', 'ua500', 'rsdt', 'zg200', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'va200', 'ua200', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'snm', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'sic', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'mrros', 'pr']</t>
+          <t>['va850', 'rsds', 'ta850', 'rsut', 'tasmin', 'mrro', 'va500', 'pr', 'mrros', 'rsdt', 'ta200', 'hfss', 'sic', 'rlus', 'zg200', 'tasmax', 'rlut', 'zg500', 'hfls', 'mrso', 'psl', 'snw', 'evspsbl', 'huss', 'tas', 'clt', 'sfcWind', 'vas', 'rsus', 'snm', 'ua850', 'sfcWindmax', 'hus850', 'uas', 'va200', 'ua200', 'rlds', 'ua500', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -21226,7 +21226,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'ua200', 'va200', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'snm', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'sic', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'zg200', 'rlut', 'rsds', 'va500', 'mrro', 'mrros', 'tas', 'ta500']</t>
+          <t>['rsus', 'rlus', 'uas', 'sfcWind', 'sic', 'tasmax', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500', 'rlds', 'rsdt', 'hus850', 'pr', 'ua200', 'mrros', 'zg200', 'snw', 'hfss', 'ta200', 'ua850', 'va200', 'va850', 'clt', 'vas', 'zg500', 'ua500', 'tasmin', 'huss', 'hfls', 'sfcWindmax', 'mrso', 'ta850', 'snm', 'psl', 'evspsbl', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['sftlf', 'areacella', 'orog']</t>
         </is>
       </c>
     </row>
@@ -21334,7 +21334,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['huss', 'ps', 'pr', 'clt', 'hurs', 'psl', 'rlds', 'rsds', 'rsus', 'sfcWind', 'vas', 'uas', 'tas']</t>
+          <t>['clt', 'hurs', 'psl', 'rlds', 'rsds', 'rsus', 'sfcWind', 'huss', 'ps', 'pr', 'vas', 'uas', 'tas']</t>
         </is>
       </c>
     </row>
@@ -21398,7 +21398,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'sfcWindmax', 'sic', 'snm', 'snw', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'psl', 'rlds', 'rlus', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'hus850', 'huss', 'mrro', 'ta200', 'ta500', 'ta850', 'zg500', 'va850', 'vas', 'wsgsmax', 'zg200', 'tauu', 'tauv', 'ts', 'tas', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850']</t>
+          <t>['rsds', 'rsus', 'sfcWind', 'psl', 'hfls', 'hfss', 'hurs', 'pr', 'prsn', 'hus850', 'huss', 'clt', 'evspsbl', 'sfcWindmax', 'snm', 'rlut', 'rsdt', 'rsut', 'rlds', 'rlus', 'mrros', 'mrso', 'prc', 'ps', 'mrro', 'ta200', 'ta500', 'ta850', 'zg500', 'sic', 'snw', 'va850', 'vas', 'tasmax', 'tasmin', 'va500', 'ua200', 'ua500', 'ua850', 'wsgsmax', 'zg200', 'tauu', 'tauv', 'ts', 'tas', 'uas', 'va200']</t>
         </is>
       </c>
     </row>
@@ -21430,7 +21430,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'zg500', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax']</t>
+          <t>['hfls', 'hfss', 'mrso', 'rlds', 'rlut', 'rsdt', 'rsus', 'hus850', 'huss', 'mrro', 'clt', 'evspsbl', 'pr', 'psl', 'rlus', 'rsds', 'rsut', 'hurs', 'mrros', 'ua850', 'uas', 'va200', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'ua200', 'ua500', 'va500', 'tas', 'zg500', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw']</t>
         </is>
       </c>
     </row>
@@ -21462,7 +21462,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'clt', 'evspsbl', 'hfls', 'hfss', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'zg500']</t>
+          <t>['tasmin', 'ua200', 'ua500', 'va500', 'va850', 'vas', 'ta200', 'ta500', 'zg500', 'mrso', 'rlds', 'evspsbl', 'hfls', 'hfss', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'hus850', 'huss', 'mrro', 'mrros', 'ua850', 'uas', 'va200', 'zg200', 'ta850', 'tas', 'tasmax', 'pr', 'psl', 'rlus', 'clt', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -21542,7 +21542,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['tauv', 'tasmax', 'tauu', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'mrros', 'tasmin', 'tas', 'zg200', 'ua200', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va200', 'va500', 'sfcWind', 'snm', 'mrso', 'hus850', 'clt', 'sic', 'pr', 'zg500', 'evspsbl', 'rsdt']</t>
+          <t>['prsn', 'rlds', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'sic', 'evspsbl', 'rsdt', 'tauv', 'ta200', 'snm', 'va200', 'va500', 'sfcWind', 'ua500', 'hfss', 'huss', 'mrro', 'tasmax', 'tauu', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'zg200', 'ua200', 'rsds', 'rsut', 'tas', 'uas', 'prc', 'vas', 'tasmin', 'ts', 'hfls', 'rlut', 'ps', 'ua850', 'sfcWindmax', 'mrros', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -21574,7 +21574,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['hfls', 'sfcWind', 'mrso', 'mrros', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'zg200', 'sfcWindmax', 'va500', 'sic', 'rlds', 'snm', 'ua850', 'ta850', 'ua200', 'va200', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss']</t>
+          <t>['rsut', 'va850', 'huss', 'mrro', 'rlut', 'hfss', 'sfcWind', 'mrso', 'rsds', 'ta500', 'zg500', 'sic', 'rlds', 'hfls', 'zg200', 'sfcWindmax', 'va500', 'tasmin', 'tasmax', 'evspsbl', 'clt', 'ua200', 'va200', 'ta850', 'snw', 'rsdt', 'hus850', 'uas', 'mrros', 'rsus', 'psl', 'ta200', 'ua500', 'vas', 'pr', 'rlus', 'snm', 'ua850', 'tas']</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21606,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['snw', 'rsus', 'ua200', 'mrro', 'hus850', 'ta500', 'sic', 'va500', 'hfls', 'sfcWindmax', 'zg200', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'va200', 'huss', 'snm', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'mrros', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850']</t>
+          <t>['sfcWind', 'evspsbl', 'tasmax', 'tasmin', 'vas', 'va850', 'pr', 'rlds', 'ua850', 'rsut', 'ta500', 'sic', 'va500', 'ta200', 'mrros', 'clt', 'rlut', 'ta850', 'snw', 'rsus', 'sfcWindmax', 'hfls', 'zg200', 'hfss', 'tas', 'ua500', 'rlus', 'uas', 'rsds', 'psl', 'zg500', 'ua200', 'hus850', 'rsdt', 'mrso', 'va200', 'huss', 'snm', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -21682,7 +21682,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['mrro', 'hus850', 'mrso', 'hfls', 'zg200', 'evspsbl', 'va850', 'tas', 'va200', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'tauu', 'rsus', 'rsdt', 'rsut', 'ts', 'tauv', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'sic', 'ua500', 'ta850', 'rlut', 'snw', 'mrros', 'ua200', 'snm', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850']</t>
+          <t>['tauv', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'ps', 'zg500', 'hfss', 'prsn', 'ua850', 'hus850', 'mrso', 'hfls', 'zg200', 'ta200', 'tas', 'va200', 'va500', 'tasmax', 'pr', 'mrro', 'sfcWindmax', 'sfcWind', 'vas', 'mrros', 'ua200', 'snm', 'psl', 'ua500', 'ta850', 'uas', 'snw', 'sic', 'clt', 'huss', 'ta500', 'rsds', 'prc', 'va850', 'tauu', 'rsus', 'rsdt', 'rsut', 'ts', 'evspsbl', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -21714,7 +21714,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['tas', 'rlds', 'evspsbl', 'huss', 'ua200', 'hfss', 'mrros', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'va200', 'ua500', 'rsdt', 'ua850', 'snm', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'zg200', 'snw', 'va500', 'sic', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt']</t>
+          <t>['sfcWindmax', 'snm', 'psl', 'rlut', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt', 'tas', 'rlds', 'ua200', 'hfss', 'sic', 'rsds', 'hus850', 'pr', 'mrros', 'ta500', 'ta850', 'va500', 'snw', 'va850', 'rsus', 'uas', 'zg200', 'ta200', 'tasmax', 'rlus', 'evspsbl', 'sfcWind', 'mrro', 'va200', 'ua500', 'rsdt', 'ua850', 'huss', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'sic', 'zg500', 'va200', 'rsds', 'evspsbl', 'tas', 'rsdt', 'snm', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'zg200', 'ua200', 'clt', 'mrros', 'ua850', 'hfss', 'mrro', 'ua500']</t>
+          <t>['va500', 'rlus', 'hfss', 'ua500', 'mrro', 'hus850', 'sic', 'zg500', 'uas', 'va200', 'ua850', 'mrros', 'clt', 'tasmax', 'rlds', 'vas', 'snw', 'rsds', 'snm', 'rsdt', 'evspsbl', 'tas', 'pr', 'rsus', 'rsut', 'rlut', 'huss', 'ta850', 'mrso', 'ua200', 'sfcWind', 'ta500', 'zg200', 'sfcWindmax', 'tasmin', 'hfls', 'psl', 'ta200', 'va850']</t>
         </is>
       </c>
     </row>
@@ -21826,7 +21826,7 @@
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'sfcWind', 'tas']</t>
+          <t>['hurs', 'ps', 'pr', 'huss', 'clt', 'rlds', 'sfcWind', 'rsds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -21858,7 +21858,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'vas', 'uas', 'psl', 'tas', 'huss', 'hurs', 'clt', 'ps', 'pr']</t>
+          <t>['pr', 'huss', 'hurs', 'clt', 'ps', 'rsds', 'rsus', 'sfcWind', 'vas', 'uas', 'psl', 'tas', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -21890,7 +21890,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -21922,7 +21922,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'rlds', 'rlus', 'rlut', 'evspsbl', 'hfls', 'hfss', 'huss', 'mrro', 'mrros', 'rsds', 'rsdt', 'clt', 'mrso', 'pr', 'prc', 'prsn', 'hurs', 'hus850', 'ps', 'psl', 'rsus', 'rsut', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'ua500', 'ua850', 'uas', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'sic', 'tauu', 'tauv', 'snm', 'snw', 'ts', 'ua200', 'va200', 'va500']</t>
+          <t>['va200', 'va500', 'tasmin', 'ua500', 'ua850', 'uas', 'ta200', 'rsus', 'rsut', 'sfcWind', 'tas', 'tasmax', 'rlds', 'rlus', 'rlut', 'rsdt', 'pr', 'hurs', 'hus850', 'ta500', 'ta850', 'sfcWindmax', 'sic', 'tauu', 'tauv', 'snm', 'snw', 'ts', 'ua200', 'huss', 'mrro', 'prc', 'prsn', 'ps', 'psl', 'evspsbl', 'hfls', 'hfss', 'mrros', 'rsds', 'clt', 'mrso', 'zg200', 'zg500', 'va850', 'vas', 'wsgsmax']</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'evspsbl', 'hfls', 'hfss', 'hurs', 'sfcWindmax', 'sic', 'snm', 'snw', 'mrros', 'mrso', 'pr', 'psl', 'ta200', 'ta500', 'ta850', 'tas', 'hus850', 'huss', 'mrro', 'clt', 'tasmax', 'tasmin', 'ua200', 'ua500', 'va850', 'vas', 'zg200', 'zg500', 'ua850', 'uas', 'va200', 'va500']</t>
+          <t>['tasmin', 'ua200', 'ua500', 'vas', 'zg200', 'hfls', 'mrso', 'pr', 'ta500', 'rlut', 'rsds', 'rsus', 'sfcWind', 'sic', 'psl', 'ta850', 'hus850', 'huss', 'clt', 'hfss', 'hurs', 'sfcWindmax', 'snm', 'snw', 'mrros', 'ta200', 'tas', 'mrro', 'rlds', 'va850', 'zg500', 'ua850', 'uas', 'va200', 'va500', 'rlus', 'rsdt', 'rsut', 'evspsbl', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -21986,7 +21986,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'va500', 'va850', 'vas', 'zg200', 'ua500', 'ua850', 'uas', 'va200', 'zg500']</t>
+          <t>['rsdt', 'clt', 'evspsbl', 'hfls', 'hfss', 'sic', 'ta500', 'rsus', 'rsut', 'hus850', 'psl', 'rlut', 'rlds', 'rlus', 'mrro', 'mrso', 'pr', 'tas', 'zg200', 'ua500', 'ua850', 'tasmax', 'tasmin', 'uas', 'rsds', 'hurs', 'snm', 'snw', 'ta200', 'sfcWind', 'sfcWindmax', 'huss', 'mrros', 'ta850', 'ua200', 'va500', 'va850', 'vas', 'va200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -22026,7 +22026,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['sftlf', 'areacella', 'orog']</t>
         </is>
       </c>
     </row>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'rsds', 'rlds', 'sfcWind', 'tas', 'ps', 'pr']</t>
+          <t>['clt', 'huss', 'hurs', 'rsds', 'sfcWind', 'tas', 'rlds', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22094,7 +22094,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'uas', 'tas', 'psl', 'ps', 'pr', 'huss', 'hurs', 'clt', 'vas']</t>
+          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'uas', 'tas', 'psl', 'ps', 'pr', 'vas', 'huss', 'hurs', 'clt']</t>
         </is>
       </c>
     </row>
@@ -22158,7 +22158,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['zg500', 'tasmax', 'tasmin', 'tauu', 'vas', 'wsgsmax', 'zg200', 'sfcWind', 'sfcWindmax', 'sic', 'tauv', 'ts', 'ua200', 'snm', 'snw', 'ta200', 'ua500', 'ua850', 'uas', 'ta500', 'ta850', 'tas', 'va200', 'va500', 'va850', 'hfls', 'hfss', 'hurs', 'hus850', 'mrso', 'pr', 'prc', 'prsn', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'ps', 'psl', 'rlds', 'huss', 'mrro', 'mrros']</t>
+          <t>['zg500', 'tasmax', 'wsgsmax', 'zg200', 'tasmin', 'tauu', 'vas', 'sfcWindmax', 'tauv', 'ts', 'ua200', 'va200', 'va850', 'sic', 'snw', 'ta200', 'ua500', 'ua850', 'uas', 'ta500', 'ta850', 'tas', 'snm', 'va500', 'sfcWind', 'hfss', 'hurs', 'mrso', 'pr', 'prc', 'rsds', 'rsdt', 'evspsbl', 'mrros', 'hfls', 'rlus', 'rlut', 'rsus', 'rsut', 'clt', 'ps', 'psl', 'rlds', 'huss', 'mrro', 'hus850', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -22190,7 +22190,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'clt', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'zg500', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'clt', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'psl', 'rlds', 'rsds', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'huss', 'mrros', 'tasmin', 'ua200', 'ua500', 'ua850', 'va500', 'va850', 'mrso', 'pr', 'rlus', 'zg500', 'rlut', 'rsus', 'hus850', 'mrro', 'vas', 'zg200', 'snm', 'hurs', 'uas', 'va200']</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros']</t>
+          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'sfcWindmax', 'snm', 'ua200', 'pr', 'rlus', 'rsut', 'sfcWind', 'sic', 'ua500', 'va200', 'va500', 'ta850', 'tas', 'zg500', 'mrso', 'psl', 'rlds', 'snw', 'tasmin', 'ua850', 'uas', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'tasmax', 'evspsbl', 'hfls', 'hfss', 'hus850', 'mrros', 'clt', 'huss', 'mrro', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['tauu', 'mrro', 'tas', 'rsdt', 'snm', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'zg200', 'tauv', 'va200', 'mrros', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'sic', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'ua200', 'hus850']</t>
+          <t>['prsn', 'ts', 'rsut', 'ua200', 'hus850', 'tas', 'rsdt', 'evspsbl', 'rsus', 'rlds', 'mrso', 'rsds', 'ps', 'vas', 'tasmin', 'uas', 'huss', 'sfcWind', 'tauu', 'mrro', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'psl', 'sic', 'va500', 'ta850', 'snw', 'clt', 'ua850', 'rlut', 'pr', 'ua500', 'snm', 'rlus', 'zg200', 'tauv', 'va200', 'mrros', 'wsgsmax', 'prc', 'hfls', 'zg500', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -22334,7 +22334,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['snw', 'sic', 'ua200', 'rlut', 'rlds', 'rsds', 'zg200', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'mrros', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'snm', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'va200', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut']</t>
+          <t>['hus850', 'psl', 'zg500', 'vas', 'uas', 'clt', 'rsus', 'rsut', 'sic', 'ua200', 'snw', 'zg200', 'mrro', 'rsds', 'mrso', 'va200', 'pr', 'ua500', 'sfcWind', 'tasmax', 'rlus', 'tasmin', 'ta850', 'snm', 'va850', 'hfss', 'sfcWindmax', 'evspsbl', 'mrros', 'ta500', 'ua850', 'hfls', 'rlut', 'rlds', 'huss', 'tas', 'va500', 'ta200', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -22366,7 +22366,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'snm', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'va200', 'zg500', 'ua200', 'uas', 'zg200', 'rsut', 'tas', 'sic', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500', 'mrros']</t>
+          <t>['tas', 'sic', 'va850', 'clt', 'rsds', 'psl', 'ta500', 'mrros', 'tasmax', 'tasmin', 'huss', 'mrro', 'mrso', 'ta850', 'rlus', 'ta200', 'snm', 'rlut', 'hfls', 'rlds', 'ua500', 'hus850', 'snw', 'vas', 'va200', 'evspsbl', 'sfcWindmax', 'hfss', 'rsdt', 'ua850', 'sfcWind', 'pr', 'zg500', 'ua200', 'uas', 'zg200', 'rsut', 'rsus', 'va500']</t>
         </is>
       </c>
     </row>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22446,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>['rlut', 'zg200', 'mrro', 'tasmin', 'va500', 'ua200', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'va200', 'tauu', 'huss', 'sic', 'vas', 'snm', 'rsdt', 'mrros', 'tauv', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr']</t>
+          <t>['ta500', 'clt', 'prc', 'tasmax', 'wsgsmax', 'zg500', 'rlds', 'uas', 'pr', 'tasmin', 'va500', 'snw', 'psl', 'tas', 'rsus', 'evspsbl', 'mrso', 'ua200', 'ua850', 'rlut', 'zg200', 'mrro', 'ts', 'rlus', 'va850', 'huss', 'ta200', 'hus850', 'sfcWindmax', 'tauu', 'rsut', 'va200', 'ta850', 'hfss', 'sic', 'vas', 'snm', 'rsdt', 'mrros', 'tauv', 'ps', 'sfcWind', 'prsn', 'hfls', 'rsds', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -22478,7 +22478,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['zg500', 'va500', 'ua200', 'rsut', 'zg200', 'mrso', 'rlut', 'va200', 'va850', 'hfss', 'snm', 'rsus', 'ta500', 'mrros', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'sic', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt']</t>
+          <t>['huss', 'tasmin', 'rsdt', 'snw', 'va500', 'ua200', 'rsut', 'zg200', 'vas', 'uas', 'ua500', 'mrro', 'rlds', 'mrros', 'hus850', 'sfcWind', 'ua850', 'ta850', 'zg500', 'va200', 'va850', 'hfss', 'snm', 'rsus', 'ta500', 'hfls', 'ta200', 'sfcWindmax', 'rsds', 'clt', 'evspsbl', 'pr', 'rlus', 'tas', 'sic', 'tasmax', 'psl', 'mrso', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['tasmin', 'va500', 'ua850', 'sfcWindmax', 'snm', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'va200', 'mrros', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'sic', 'tasmax', 'snw', 'va850', 'rsdt', 'ua200', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'zg200', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr']</t>
+          <t>['uas', 'rlds', 'ua500', 'rsus', 'rlut', 'huss', 'vas', 'rsds', 'pr', 'va500', 'ua850', 'snm', 'evspsbl', 'psl', 'zg200', 'hfss', 'tas', 'mrso', 'tasmin', 'zg500', 'ta200', 'hfls', 'sfcWind', 'ta850', 'rlus', 'clt', 'tasmax', 'ua200', 'rsdt', 'sic', 'mrro', 'hus850', 'sfcWindmax', 'va200', 'mrros', 'ta500', 'rsut', 'snw', 'va850']</t>
         </is>
       </c>
     </row>
@@ -22586,7 +22586,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'sfcWind', 'tas']</t>
+          <t>['hurs', 'clt', 'sfcWind', 'rsds', 'rlds', 'tas', 'huss', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22618,7 +22618,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'vas', 'uas', 'psl', 'tas']</t>
+          <t>['rsds', 'vas', 'uas', 'rlds', 'psl', 'tas', 'rsus', 'sfcWind', 'huss', 'hurs', 'clt', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22650,7 +22650,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -22682,7 +22682,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'hus850', 'pr', 'prc', 'prsn', 'rlut', 'rsds', 'rlds', 'rlus', 'evspsbl', 'hfls', 'clt', 'mrros', 'mrso', 'huss', 'mrro', 'ps', 'psl', 'zg500', 'wsgsmax', 'zg200', 'uas', 'va200', 'va850', 'vas', 'ua500', 'ua850', 'va500', 'snw', 'ta200', 'ta500', 'rsus', 'rsut', 'tauu', 'tauv', 'sfcWind', 'sfcWindmax', 'tasmax', 'tasmin', 'sic', 'snm', 'ts', 'ua200', 'ta850', 'tas', 'rsdt']</t>
+          <t>['ua850', 'rsut', 'tauu', 'tasmax', 'tasmin', 'rsdt', 'snw', 'ta500', 'ta200', 'rsus', 'tauv', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'ts', 'ua200', 'ta850', 'tas', 'va500', 'wsgsmax', 'ua500', 'zg200', 'va200', 'va850', 'vas', 'zg500', 'uas', 'hurs', 'pr', 'prsn', 'rsds', 'evspsbl', 'hfls', 'mrros', 'mrso', 'huss', 'hfss', 'hus850', 'prc', 'rlds', 'rlus', 'clt', 'rlut', 'mrro', 'ps', 'psl']</t>
         </is>
       </c>
     </row>
@@ -22714,7 +22714,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>['zg500', 'va500', 'va850', 'vas', 'zg200', 'ua500', 'ua850', 'uas', 'va200', 'ta200', 'ta500', 'ta850', 'tas', 'rsut', 'sfcWind', 'sfcWindmax', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rlus', 'tasmax', 'tasmin', 'ua200', 'sic', 'snm', 'snw', 'rsus', 'hfls', 'hfss', 'hurs', 'hus850', 'clt', 'evspsbl', 'huss', 'mrro', 'mrros', 'mrso', 'pr']</t>
+          <t>['hus850', 'clt', 'evspsbl', 'mrro', 'hfls', 'hurs', 'hfss', 'huss', 'mrros', 'mrso', 'pr', 'zg500', 'psl', 'rlds', 'rlus', 'tasmax', 'tasmin', 'ua200', 'va500', 'va850', 'vas', 'zg200', 'ua500', 'ua850', 'uas', 'va200', 'ta200', 'ta500', 'ta850', 'tas', 'rsut', 'sfcWind', 'sfcWindmax', 'rlut', 'rsds', 'rsdt', 'sic', 'snm', 'snw', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -22746,7 +22746,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'clt', 'evspsbl', 'hfls', 'huss', 'mrro', 'mrros', 'mrso', 'sic', 'snm', 'snw', 'ta200', 'pr', 'psl', 'rlds', 'hfss', 'hurs', 'hus850', 'tasmax', 'tasmin', 'ua200', 'ta500', 'ta850', 'tas', 'va200', 'va500', 'va850', 'vas', 'ua500', 'ua850', 'uas', 'zg200', 'zg500']</t>
+          <t>['rsus', 'rsds', 'rsdt', 'mrros', 'mrso', 'rsut', 'sfcWind', 'evspsbl', 'hfls', 'huss', 'mrro', 'sic', 'snm', 'sfcWindmax', 'rlus', 'rlut', 'clt', 'snw', 'ta200', 'pr', 'psl', 'rlds', 'hfss', 'tasmax', 'ta500', 'ta850', 'hurs', 'hus850', 'tasmin', 'ua200', 'tas', 'zg500', 'ua500', 'ua850', 'uas', 'zg200', 'va200', 'va500', 'va850', 'vas']</t>
         </is>
       </c>
     </row>
@@ -22826,7 +22826,7 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['rlds', 'huss', 'tas', 'clt', 'ps', 'pr', 'sfcWind', 'hurs', 'rsds']</t>
+          <t>['rlds', 'huss', 'sfcWind', 'hurs', 'clt', 'ps', 'pr', 'tas', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -22858,7 +22858,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['rsds', 'clt', 'ps', 'pr', 'rsus', 'sfcWind', 'huss', 'hurs', 'psl', 'tas', 'rlds']</t>
+          <t>['rsds', 'hurs', 'psl', 'tas', 'sfcWind', 'huss', 'clt', 'ps', 'pr', 'rsus', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -22922,7 +22922,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>['tasmax', 'tas', 'ta850', 'wsgsmax', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'tauv', 'tauu', 'tasmin', 'uas', 'ua500', 'ua850', 'ua200', 'ts', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'clt', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
+          <t>['vas', 'zg200', 'zg500', 'va200', 'tas', 'va850', 'tasmax', 'ta850', 'wsgsmax', 'va500', 'clt', 'uas', 'ua500', 'ua850', 'ua200', 'ts', 'tauv', 'tauu', 'tasmin', 'rlus', 'rlds', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'ta200', 'ta500', 'sfcWindmax', 'snw', 'rsus', 'rsdt', 'sfcWind', 'snm', 'sic', 'rsds', 'rsut', 'mrros', 'huss', 'hus850', 'pr', 'hfss', 'hfls', 'mrro', 'mrso', 'evspsbl', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -22954,7 +22954,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['clt', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'vas', 'zg200', 'zg500', 'va850', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr']</t>
+          <t>['clt', 'evspsbl', 'huss', 'mrro', 'zg500', 'vas', 'hfls', 'mrso', 'mrros', 'hurs', 'hus850', 'zg200', 'va850', 'hfss', 'tasmin', 'tas', 'ta500', 'ta850', 'tasmax', 'ta200', 'sfcWindmax', 'snm', 'rsut', 'sfcWind', 'snw', 'sic', 'va200', 'ua200', 'uas', 'va500', 'ua500', 'ua850', 'rsus', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ua500', 'ua200', 'ua850', 'evspsbl', 'clt', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
+          <t>['rlds', 'rsus', 'psl', 'rsds', 'rlus', 'rsdt', 'rsut', 'rlut', 'evspsbl', 'clt', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'hfls', 'mrso', 'mrros', 'hurs', 'hus850', 'mrro', 'pr', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ua500', 'hfss', 'huss', 'ua200', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23062,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'pr', 'rsds', 'rlds', 'sfcWind', 'tas', 'ps']</t>
+          <t>['clt', 'pr', 'rlds', 'sfcWind', 'rsds', 'tas', 'ps', 'huss', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -23094,7 +23094,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas', 'ps', 'huss', 'hurs', 'clt', 'pr']</t>
+          <t>['rlds', 'psl', 'tas', 'rsds', 'rsus', 'sfcWind', 'ps', 'huss', 'hurs', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic']</t>
+          <t>['zg200', 'zg500', 'sfcWindmax', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'rsds', 'rsus', 'ts', 'rlds', 'mrso', 'hfls', 'evspsbl', 'mrros', 'hurs', 'hfss', 'huss', 'hus850', 'ps', 'pr', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'wsgsmax', 'va500', 'va850', 'ua200', 'ua850', 'vas', 'uas', 'va200', 'ua500', 'tas', 'tasmax', 'ta200', 'mrro', 'clt', 'tauv', 'tasmin', 'tauu', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'huss', 'hus850', 'sfcWindmax', 'rsus', 'snm', 'ta200', 'sfcWind', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua850', 'ua200', 'ua500', 'va200', 'va500', 'zg200', 'rlus', 'rlut', 'mrros', 'psl', 'mrro', 'pr', 'rsds', 'rlds', 'mrso', 'vas', 'zg500', 'va850', 'rsdt', 'rsut', 'snw', 'sic']</t>
         </is>
       </c>
     </row>
@@ -23222,7 +23222,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>['zg500', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850']</t>
+          <t>['uas', 'va200', 'ua200', 'ua850', 'va500', 'va850', 'ua500', 'vas', 'zg200', 'pr', 'mrros', 'hfss', 'mrso', 'huss', 'psl', 'mrro', 'hurs', 'hus850', 'sfcWindmax', 'rsus', 'rlus', 'rsds', 'rlds', 'rsdt', 'rlut', 'rsut', 'sfcWind', 'clt', 'hfls', 'tasmax', 'tasmin', 'snm', 'ta500', 'snw', 'tas', 'sic', 'ta200', 'ta850', 'evspsbl', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -23266,7 +23266,7 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['sftlf', 'orog', 'areacella']</t>
         </is>
       </c>
     </row>
@@ -23302,7 +23302,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>['pr', 'rsus', 'hurs', 'psl', 'rlds', 'tas', 'rsds', 'sfcWind', 'huss', 'ps']</t>
+          <t>['huss', 'rlds', 'tas', 'psl', 'hurs', 'pr', 'rsus', 'rsds', 'sfcWind', 'ps']</t>
         </is>
       </c>
     </row>
@@ -23334,7 +23334,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>['ua850', 'sfcWind', 'psl', 'uas', 'va200', 'rsds', 'rsdt', 'huss', 'snm', 'zg500', 'rlus', 'snw', 'zg200', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'sic', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'tauv', 'ta500', 'wsgsmax', 'rsus', 'tauu', 'rlut', 'prc', 'mrros', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850', 'ua200']</t>
+          <t>['rsus', 'va500', 'evspsbl', 'tas', 'va850', 'prc', 'mrros', 'ta850', 'ta500', 'wsgsmax', 'tauu', 'rlut', 'mrro', 'ps', 'hfss', 'tasmin', 'tauv', 'ua850', 'psl', 'rsdt', 'sfcWind', 'uas', 'va200', 'snm', 'rlus', 'snw', 'clt', 'pr', 'sfcWindmax', 'rsds', 'huss', 'zg500', 'zg200', 'tasmax', 'hus850', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'sic', 'vas', 'prsn', 'ta200', 'ua500', 'ts', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -23398,7 +23398,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>['sfcWind', 'snm', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'sic', 'rlut', 'va200', 'rlus', 'mrros', 'snw', 'ua200', 'pr', 'uas', 'va850', 'zg200', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500']</t>
+          <t>['ua200', 'uas', 'va850', 'rsut', 'ua850', 'hurs', 'ta200', 'ta850', 'mrso', 'mrros', 'snw', 'pr', 'zg200', 'clt', 'sfcWindmax', 'hfss', 'huss', 'rlus', 'sfcWind', 'hus850', 'mrro', 'tasmin', 'vas', 'va500', 'ta500', 'snm', 'hfls', 'tas', 'rsus', 'zg500', 'tasmax', 'psl', 'rsdt', 'evspsbl', 'rlut', 'rsds', 'rlds', 'sic', 'va200', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -23430,7 +23430,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>['mrso', 'sfcWind', 'zg200', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'sic', 'va850', 'pr', 'rlds', 'mrros', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'ua200', 'rsus', 'rlus', 'hurs', 'snm', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'va200', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro']</t>
+          <t>['rsds', 'ua200', 'rlus', 'snw', 'hus850', 'va200', 'rsut', 'evspsbl', 'huss', 'ua500', 'hfls', 'rsus', 'hurs', 'snm', 'uas', 'psl', 'ta200', 'rsdt', 'ta500', 'sfcWindmax', 'mrso', 'zg200', 'tasmax', 'sfcWind', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'sic', 'va850', 'pr', 'rlds', 'mrros', 'tasmin', 'va500', 'vas', 'clt', 'ta850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -23506,7 +23506,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'sfcWind', 'tas']</t>
+          <t>['hurs', 'ps', 'rsds', 'sfcWind', 'rlds', 'tas', 'huss', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23538,7 +23538,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas']</t>
+          <t>['rsds', 'psl', 'tas', 'rlds', 'rsus', 'sfcWind', 'huss', 'hurs', 'ps', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23602,7 +23602,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ta500', 'ta850', 'ua200', 'ts', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['tasmax', 'ta500', 'tasmin', 'tas', 'ua200', 'ts', 'tauv', 'tauu', 'ta850', 'clt', 'wsgsmax', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua850', 'ua500', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'snm', 'ta200', 'sic', 'sfcWind', 'snw', 'zg500', 'mrro', 'hfss', 'hfls', 'mrso', 'mrros', 'hurs', 'hus850', 'evspsbl', 'huss', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'prsn', 'psl', 'ps', 'pr', 'vas']</t>
         </is>
       </c>
     </row>
@@ -23634,7 +23634,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr']</t>
+          <t>['va500', 'va850', 'vas', 'zg200', 'zg500', 'rsdt', 'rlut', 'psl', 'rlds', 'mrso', 'rsds', 'rlus', 'mrros', 'pr', 'hus850', 'mrro', 'tasmin', 'uas', 'tasmax', 'tas', 'ua200', 'ua500', 'va200', 'ta850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'ua850', 'rsut', 'snm', 'snw', 'sic', 'ta200', 'sfcWindmax', 'rsus', 'sfcWind', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'uas', 'zg500', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'rlds', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr']</t>
+          <t>['hfls', 'evspsbl', 'clt', 'hfss', 'sic', 'rsdt', 'sfcWind', 'rsus', 'rsut', 'rlut', 'sfcWindmax', 'rsds', 'rlus', 'zg500', 'va500', 'ua500', 'ua850', 'vas', 'zg200', 'uas', 'va200', 'va850', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'tasmax', 'tasmin', 'huss', 'mrros', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'rlds', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -23742,7 +23742,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>['clt', 'hurs', 'huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'tas']</t>
+          <t>['clt', 'rsds', 'sfcWind', 'huss', 'pr', 'ps', 'hurs', 'rlds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -23774,7 +23774,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>['sfcWind', 'tas', 'uas', 'vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus']</t>
+          <t>['tas', 'uas', 'sfcWind', 'vas', 'clt', 'huss', 'hurs', 'pr', 'ps', 'psl', 'rsds', 'rlds', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -23838,7 +23838,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>['rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'clt', 'evspsbl', 'hfls', 'hfss', 'ta500', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas']</t>
+          <t>['prsn', 'rlds', 'prc', 'ps', 'psl', 'rlus', 'rlut', 'rsds', 'tas', 'ts', 'ua850', 'uas', 'ua500', 'zg200', 'zg500', 'ta850', 'ua200', 'va200', 'va500', 'vas', 'wsgsmax', 'tasmax', 'tasmin', 'tauu', 'tauv', 'va850', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'ta200', 'huss', 'mrro', 'pr', 'rsdt', 'rsus', 'snw', 'hurs', 'hus850', 'mrros', 'mrso', 'evspsbl', 'hfls', 'clt', 'ta500', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -23870,7 +23870,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs']</t>
+          <t>['tasmin', 'ua200', 'ua500', 'va200', 'vas', 'zg500', 'ua850', 'uas', 'va500', 'va850', 'zg200', 'hurs', 'clt', 'hfss', 'ta850', 'tasmax', 'huss', 'mrro', 'pr', 'psl', 'rlus', 'rsus', 'ta500', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'tas', 'hus850', 'mrros', 'mrso', 'rlds', 'snm', 'snw', 'ta200', 'rsds', 'evspsbl', 'hfls', 'rlut', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>['rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
+          <t>['tasmin', 'ua500', 'ua850', 'rlds', 'tasmax', 'ua200', 'uas', 'clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'sfcWind', 'ta200', 'ta500', 'ta850', 'rsut', 'sfcWindmax', 'sic', 'snm', 'snw', 'tas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'rlut', 'rsds', 'rsdt', 'rlus', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -23942,7 +23942,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['sftlf', 'orog', 'areacella']</t>
         </is>
       </c>
     </row>
@@ -23978,7 +23978,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>['pr', 'ps', 'tas', 'rsus', 'sfcWind', 'huss', 'rsds', 'hurs', 'psl', 'rlds']</t>
+          <t>['huss', 'psl', 'rlds', 'rsds', 'hurs', 'tas', 'pr', 'ps', 'rsus', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -24010,7 +24010,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -24042,7 +24042,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>['psl', 'clt', 'rlds', 'ta850', 'vas', 'ta500', 'va200', 'rsds', 'tauv', 'hurs', 'snw', 'mrro', 'va500', 'ua200', 'pr', 'rsus', 'tauu', 'rlut', 'huss', 'prc', 'ps', 'ua500', 'ua850', 'ts', 'zg200', 'va850', 'wsgsmax', 'tasmin', 'snm', 'uas', 'sic', 'prsn', 'rlus', 'hfss', 'rsdt', 'evspsbl', 'tas', 'zg500', 'tasmax', 'sfcWind', 'sfcWindmax', 'hfls', 'mrso', 'rsut', 'mrros', 'hus850', 'ta200']</t>
+          <t>['sfcWindmax', 'hfls', 'mrso', 'rsut', 'hus850', 'ta200', 'uas', 'rlus', 'hfss', 'tas', 'zg500', 'sfcWind', 'mrros', 'rsdt', 'evspsbl', 'tasmax', 'sic', 'prsn', 'zg200', 'va850', 'snm', 'pr', 'rsus', 'tauu', 'huss', 'prc', 'ps', 'ua500', 'ua850', 'psl', 'ta850', 'rsds', 'tauv', 'va500', 'hurs', 'snw', 'mrro', 'ua200', 'rlut', 'vas', 'ta500', 'va200', 'wsgsmax', 'tasmin', 'clt', 'rlds', 'ts']</t>
         </is>
       </c>
     </row>
@@ -24074,7 +24074,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'ta850', 'sfcWindmax', 'evspsbl', 'huss', 'clt', 'sfcWind', 'vas', 'zg500', 'ta500', 'va500', 'va850', 'hfls', 'rsus', 'rlus', 'hurs', 'pr', 'mrso', 'ta200', 'rsut', 'hus850', 'ua500', 'tasmax', 'mrros', 'snm', 'sic', 'hfss', 'psl', 'uas', 'va200', 'rsdt', 'rlut', 'snw', 'ua850', 'ua200', 'tas', 'zg200', 'mrro', 'tasmin']</t>
+          <t>['tasmin', 'rsdt', 'rlut', 'snw', 'ua850', 'tas', 'zg200', 'mrro', 'va200', 'ua200', 'psl', 'uas', 'snm', 'sic', 'mrros', 'mrso', 'hus850', 'rsds', 'ta850', 'sfcWindmax', 'hfls', 'rsus', 'hurs', 'rlus', 'pr', 'ta200', 'rsut', 'clt', 'sfcWind', 'vas', 'zg500', 'ta500', 'va500', 'va850', 'hfss', 'rlds', 'evspsbl', 'huss', 'ua500', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -24106,7 +24106,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>['tas', 'zg500', 'hfss', 'pr', 'hfls', 'rlut', 'evspsbl', 'rsds', 'mrso', 'ta500', 'rlus', 'clt', 'mrro', 'rsdt', 'rsut', 'sfcWind', 'zg200', 'ta200', 'va200', 'sfcWindmax', 'ta850', 'snm', 'ua850', 'tasmin', 'tasmax', 'huss', 'sic', 'snw', 'psl', 'rlds', 'va850', 'ua500', 'rsus', 'uas', 'ua200', 'hurs', 'vas', 'hus850', 'va500', 'mrros']</t>
+          <t>['vas', 'rsus', 'hus850', 'va500', 'mrros', 'rlds', 'va850', 'ua500', 'uas', 'ua200', 'psl', 'hurs', 'ua850', 'huss', 'rsdt', 'rsut', 'sfcWind', 'zg200', 'ta200', 'va200', 'sfcWindmax', 'ta850', 'tas', 'hfss', 'rsds', 'ta500', 'rlus', 'mrro', 'mrso', 'clt', 'pr', 'hfls', 'rlut', 'evspsbl', 'tasmin', 'tasmax', 'sic', 'zg500', 'snm', 'snw']</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>['va200', 'tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'tauu', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'zg200', 'ps', 'sic', 'ua200', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'snm', 'va500', 'tasmin', 'mrro', 'vas', 'mrros', 'pr', 'ua500', 'psl', 'rlut', 'tauv', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt']</t>
+          <t>['hus850', 'sfcWind', 'hfls', 'rlds', 'prsn', 'va850', 'tasmax', 'mrso', 'uas', 'wsgsmax', 'tauu', 'ua500', 'rlut', 'tauv', 'psl', 'rlus', 'zg200', 'va200', 'sfcWindmax', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'snw', 'pr', 'mrros', 'mrro', 'vas', 'ta200', 'sic', 'ua200', 'tasmin', 'va500', 'snm', 'clt', 'ps', 'ta850', 'evspsbl', 'ts', 'rsus', 'rsdt', 'zg500', 'tas', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -24218,7 +24218,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>['sic', 'ta500', 'rlds', 'uas', 'va200', 'mrro', 'zg500', 'rsut', 'snm', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'zg200', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'mrros', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua200', 'ua850', 'ta200', 'clt']</t>
+          <t>['rlut', 'rlus', 'rsdt', 'ua200', 'ua850', 'ta200', 'clt', 'rlds', 'uas', 'ta500', 'hus850', 'rsus', 'ta850', 'tasmin', 'va200', 'evspsbl', 'huss', 'sic', 'tasmax', 'rsut', 'snm', 'hfss', 'vas', 'mrros', 'rsds', 'sfcWind', 'psl', 'snw', 'tas', 'va500', 'ua500', 'mrro', 'zg500', 'pr', 'sfcWindmax', 'zg200', 'mrso', 'va850', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -24250,7 +24250,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>['hfls', 'rlut', 'snm', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'mrros', 'sic', 'tasmin', 'ua200', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'va200', 'uas', 'mrso', 'zg200', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds']</t>
+          <t>['va200', 'uas', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds', 'rlut', 'hfls', 'snw', 'rsus', 'sfcWind', 'ta850', 'pr', 'tasmax', 'hfss', 'hus850', 'ua500', 'mrros', 'sic', 'clt', 'vas', 'zg500', 'rlus', 'rsut', 'va850', 'ua200', 'zg200', 'mrso', 'snm', 'ua850', 'va500', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -24290,7 +24290,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -24326,7 +24326,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>['prsn', 'hfls', 'rsds', 'zg200', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ua200', 'ts', 'psl', 'tauv', 'ta850', 'rlds', 'snm', 'ua850', 'rlut', 'wsgsmax', 'va200', 'mrros', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'tauu', 'ta200', 'sic', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind']</t>
+          <t>['huss', 'hfss', 'pr', 'rsus', 'rsut', 'sfcWind', 'hfls', 'rsds', 'zg200', 'sfcWindmax', 'uas', 'zg500', 'ta500', 'va850', 'tasmax', 'mrros', 'vas', 'va200', 'ua850', 'wsgsmax', 'rlut', 'prsn', 'va500', 'ua200', 'ta850', 'ts', 'psl', 'tauv', 'rlds', 'snm', 'rlus', 'tas', 'evspsbl', 'mrro', 'sic', 'clt', 'snw', 'ta200', 'mrso', 'ua500', 'rsdt', 'prc', 'tasmin', 'ps', 'hus850', 'tauu']</t>
         </is>
       </c>
     </row>
@@ -24358,7 +24358,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>['snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va200', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'snm', 'ua200', 'tasmin', 'rlds', 'mrso', 'zg200', 'uas', 'va500', 'mrros', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sic', 'sfcWindmax', 'clt', 'ta500']</t>
+          <t>['evspsbl', 'sfcWindmax', 'clt', 'ta500', 'snw', 'mrro', 'rlus', 'huss', 'ta850', 'rsut', 'sic', 'zg500', 'vas', 'rsds', 'hfls', 'ua200', 'tasmin', 'snm', 'rlut', 'ua850', 'tasmax', 'hus850', 'hfss', 'psl', 'sfcWind', 'ua500', 'rsus', 'tas', 'va200', 'rlds', 'mrso', 'zg200', 'uas', 'va500', 'mrros', 'pr', 'va850', 'ta200', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -24390,7 +24390,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>['va200', 'tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'zg200', 'ua200', 'sic', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'mrros', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snm', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax']</t>
+          <t>['ta850', 'snw', 'sfcWindmax', 'snm', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax', 'vas', 'ua850', 'evspsbl', 'psl', 'va500', 'rsut', 'tas', 'va200', 'ua500', 'mrso', 'hfls', 'huss', 'hfss', 'rsds', 'sfcWind', 'ta200', 'zg500', 'rlus', 'ua200', 'sic', 'rsus', 'pr', 'tasmin', 'rlut', 'uas', 'hus850', 'zg200', 'rsdt', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -27854,7 +27854,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['rlus', 'tas', 'rlds', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'hurs', 'huss', 'pr', 'prw', 'clt', 'hfls', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -27918,7 +27918,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>['va500', 'rsds', 'hus850', 'rsdt', 'zg500', 'va850', 'rlds', 'snc', 'snm', 'rlut', 'evspsbl', 'ua850', 'prhmax', 'prw', 'vas', 'wsgsmax', 'mrro', 'zmla', 'snw', 'rsus', 'tas', 'clt', 'hfss', 'cll', 'tauv', 'hfls', 'pr', 'hurs', 'clm', 'sfcWind', 'tasmax', 'mrso', 'va200', 'ts', 'ps', 'sfcWindmax', 'mrros', 'ta500', 'clivi', 'rlus', 'ta850', 'tauu', 'mrfso', 'ua500', 'tasmin', 'prc', 'clwvi', 'uas', 'sic', 'ua200', 'clh', 'ta200', 'rsut', 'psl', 'sund', 'huss', 'zg200', 'prsn', 'snd']</t>
+          <t>['sfcWindmax', 'mrros', 'ta500', 'hfss', 'clivi', 'clt', 'rsds', 'hus850', 'va850', 'rlds', 'snc', 'rsdt', 'zg500', 'prhmax', 'prw', 'vas', 'wsgsmax', 'zmla', 'snw', 'rsus', 'mrro', 'tas', 'va500', 'snm', 'rlut', 'evspsbl', 'ua850', 'ua200', 'clh', 'ta200', 'rsut', 'prsn', 'huss', 'rlus', 'mrfso', 'tasmin', 'clwvi', 'sic', 'ta850', 'tauu', 'ua500', 'prc', 'uas', 'snd', 'psl', 'sund', 'zg200', 'cll', 'hfls', 'pr', 'tauv', 'sfcWind', 'tasmax', 'mrso', 'ts', 'hurs', 'clm', 'va200', 'ps']</t>
         </is>
       </c>
     </row>
@@ -27950,7 +27950,7 @@
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>['sftgif', 'mrsofc', 'areacella', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'mrsofc', 'sftgif', 'areacella', 'orog']</t>
         </is>
       </c>
     </row>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>['ta850', 'rsus', 'hfls', 'zg500', 'huss', 'snm', 'rsds', 'tasmin', 'rsdt', 'mrfso', 'snw', 'sund', 'sfcWindmax', 'mrso', 'snd', 'va500', 'rlds', 'va200', 'clt', 'mrro', 'ua200', 'hfss', 'hus850', 'sfcWind', 'rlut', 'hurs', 'uas', 'psl', 'mrros', 'ta500', 'rsut', 'sic', 'snc', 'ua850', 'ta200', 'tasmax', 'vas', 'tas', 'rlus', 'evspsbl', 'va850', 'ua500', 'pr', 'zg200']</t>
+          <t>['sfcWind', 'sic', 'snc', 'ta200', 'hus850', 'ta850', 'snw', 'sund', 'snd', 'huss', 'snm', 'rsds', 'rsdt', 'mrfso', 'zg500', 'tasmin', 'rsus', 'hfls', 'sfcWindmax', 'va500', 'va200', 'clt', 'mrro', 'rlds', 'ua200', 'hfss', 'mrso', 'rlus', 'evspsbl', 'va850', 'ua500', 'ua850', 'vas', 'tasmax', 'tas', 'pr', 'zg200', 'rlut', 'psl', 'hurs', 'uas', 'mrros', 'ta500', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -28014,7 +28014,7 @@
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>['vas', 'ua200', 'rlus', 'huss', 'ta500', 'rsus', 'snw', 'sic', 'clt', 'uas', 'va200', 'rlds', 'zg200', 'tasmax', 'rsut', 'snd', 'mrfso', 'ua500', 'ta850', 'tas', 'hfss', 'sfcWindmax', 'evspsbl', 'snc', 'hfls', 'hus850', 'mrso', 'psl', 'rsdt', 'hurs', 'mrro', 'ta200', 'tasmin', 'ua850', 'va500', 'snm', 'rsds', 'mrros', 'pr', 'zg500', 'rlut', 'sfcWind', 'va850', 'sund']</t>
+          <t>['sfcWindmax', 'hfss', 'evspsbl', 'ua850', 'va500', 'rlus', 'clt', 'uas', 'ta500', 'rsus', 'snw', 'sic', 'tasmax', 'rsut', 'ua500', 'ta850', 'snd', 'tas', 'mrfso', 'vas', 'ua200', 'huss', 'va200', 'zg200', 'rlds', 'pr', 'zg500', 'va850', 'rlut', 'sund', 'tasmin', 'snm', 'rsds', 'mrros', 'sfcWind', 'snc', 'hfls', 'psl', 'mrro', 'hus850', 'mrso', 'rsdt', 'hurs', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -28054,7 +28054,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['clt', 'hfss', 'hurs', 'prw', 'ps', 'rlus', 'rsus', 'hfls', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -28118,7 +28118,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>['tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'clh', 'clivi', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'prsn', 'mrro', 'pr', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'cll', 'clm', 'hurs', 'hus850', 'clt', 'zmla', 'zg200', 'zg500']</t>
+          <t>['ta200', 'ta500', 'ta850', 'ts', 'tasmax', 'tauu', 'tauv', 'tasmin', 'tas', 'prw', 'psl', 'ps', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'sic', 'snc', 'snd', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'clwvi', 'hfls', 'hurs', 'hus850', 'clt', 'zmla', 'evspsbl', 'cll', 'clm', 'zg200', 'zg500', 'clh', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'prsn', 'mrro', 'pr', 'wsgsmax', 'vas', 'clivi']</t>
         </is>
       </c>
     </row>
@@ -28182,7 +28182,7 @@
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'clt', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr']</t>
+          <t>['ua200', 'ua850', 'ta200', 'tasmin', 'tasmax', 'tas', 'ua500', 'ta500', 'ta850', 'zg500', 'uas', 'va200', 'va850', 'vas', 'zg200', 'va500', 'rsut', 'snm', 'sic', 'sfcWindmax', 'sfcWind', 'snw', 'sund', 'snc', 'snd', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rlut', 'mrso', 'clt', 'hfss', 'huss', 'hurs', 'hus850', 'rsdt', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -28214,7 +28214,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'uas', 'tas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'ta200', 'snd', 'evspsbl', 'clt', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr']</t>
+          <t>['uas', 'tas', 'ua200', 'ua500', 'ta500', 'ta850', 'tasmax', 'tasmin', 'ua850', 'vas', 'zg200', 'zg500', 'va850', 'evspsbl', 'clt', 'va200', 'va500', 'sfcWindmax', 'snw', 'ta200', 'snd', 'sfcWind', 'sund', 'snc', 'sic', 'hfss', 'hfls', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'mrfso', 'mrso', 'snm', 'rsus', 'rlus', 'rsdt', 'rsds', 'rlds', 'rsut', 'rlut', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -28254,7 +28254,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>['rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds']</t>
+          <t>['rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'tas', 'hurs', 'huss', 'pr', 'psl', 'clt', 'hfls', 'hfss', 'prw', 'ps']</t>
         </is>
       </c>
     </row>
@@ -28318,7 +28318,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'tauv', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'tasmax', 'tasmin', 'tauu', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'clwvi', 'hfls', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'clt', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd']</t>
+          <t>['zg500', 'tauu', 'tas', 'tauv', 'uas', 'va850', 'ua200', 'ts', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWind', 'snc', 'sic', 'rsus', 'rsdt', 'rsut', 'sfcWindmax', 'snm', 'rsds', 'prhmax', 'psl', 'prsn', 'mrfso', 'mrso', 'mrros', 'hurs', 'hus850', 'prc', 'huss', 'mrro', 'pr', 'rlds', 'rlus', 'rlut', 'prw', 'ps', 'va200', 'va500', 'ua500', 'ua850', 'clivi', 'hfss', 'clh', 'cll', 'clwvi', 'hfls', 'evspsbl', 'clm', 'clt', 'tasmax', 'tasmin', 'snw', 'sund', 'wsgsmax', 'zmla', 'vas', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -28350,7 +28350,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftgif', 'areacella', 'orog', 'sftlf']</t>
+          <t>['sftgif', 'areacella', 'orog', 'mrsofc', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -28382,7 +28382,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta850', 'ta500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'zg500', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['vas', 'zg200', 'uas', 'va200', 'va850', 'ua500', 'va500', 'ua200', 'ua850', 'rsds', 'rsus', 'rsut', 'snd', 'sfcWindmax', 'rsdt', 'sfcWind', 'snc', 'sic', 'zg500', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'huss', 'hurs', 'hus850', 'hfls', 'evspsbl', 'clt', 'hfss', 'rlut', 'snw', 'tas', 'sund', 'ta500', 'tasmin', 'ta200', 'tasmax', 'snm', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -28414,7 +28414,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt']</t>
+          <t>['rsdt', 'sfcWind', 'snd', 'sic', 'sfcWindmax', 'rsus', 'rsut', 'mrros', 'pr', 'sund', 'ua200', 'mrfso', 'huss', 'clt', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'zg500', 'uas', 'va200', 'va500', 'ua500', 'vas', 'zg200', 'va850', 'ua850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'snm', 'snc']</t>
         </is>
       </c>
     </row>
@@ -28454,7 +28454,7 @@
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>['ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'rsus', 'sfcWind', 'tas', 'rsds', 'ps', 'psl', 'rlds', 'rlus', 'huss', 'prw', 'pr']</t>
         </is>
       </c>
     </row>
@@ -28518,7 +28518,7 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>['rlds', 'tasmin', 'prc', 'sic', 'ua200', 'ps', 'ua850', 'mrfso', 'snw', 'ua500', 'rsus', 'clivi', 'uas', 'tas', 'zmla', 'clh', 'snd', 'vas', 'rsut', 'evspsbl', 'mrro', 'ta200', 'cll', 'snc', 'zg500', 'va200', 'clwvi', 'tauv', 'hus850', 'ta850', 'zg200', 'prw', 'wsgsmax', 'clt', 'clm', 'va500', 'sfcWindmax', 'rlut', 'ta500', 'prhmax', 'snm', 'ts', 'psl', 'pr', 'rlus', 'va850', 'hurs', 'rsdt', 'mrros', 'huss', 'sund', 'sfcWind', 'hfss', 'hfls', 'tasmax', 'prsn', 'rsds', 'tauu', 'mrso']</t>
+          <t>['wsgsmax', 'prw', 'zg200', 'rlds', 'tas', 'zmla', 'clh', 'prc', 'sic', 'ua200', 'ps', 'ua850', 'mrfso', 'snw', 'ua500', 'rsus', 'clivi', 'uas', 'evspsbl', 'ta200', 'cll', 'zg500', 'clwvi', 'hus850', 'mrro', 'snc', 'ta850', 'va200', 'tauv', 'snd', 'tasmin', 'vas', 'rsut', 'prsn', 'tauu', 'rsdt', 'sund', 'hfss', 'hfls', 'tasmax', 'mrros', 'huss', 'sfcWind', 'mrso', 'rsds', 'clm', 'va500', 'sfcWindmax', 'rlut', 'ta500', 'psl', 'hurs', 'va850', 'prhmax', 'snm', 'ts', 'clt', 'pr', 'rlus']</t>
         </is>
       </c>
     </row>
@@ -28550,7 +28550,7 @@
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'mrsofc', 'sftlf', 'sftgif']</t>
+          <t>['mrsofc', 'orog', 'areacella', 'sftlf', 'sftgif']</t>
         </is>
       </c>
     </row>
@@ -28582,7 +28582,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>['snm', 'hurs', 'hfss', 'psl', 'sfcWindmax', 'rsus', 'snc', 'zg500', 'mrfso', 'mrros', 'rlut', 'ta200', 'rlds', 'hfls', 'evspsbl', 'vas', 'zg200', 'mrro', 'pr', 'mrso', 'tasmin', 'uas', 'ta500', 'rsds', 'tas', 'va850', 'ua500', 'hus850', 'va200', 'clt', 'ua850', 'rsdt', 'sic', 'va500', 'sfcWind', 'ta850', 'rsut', 'snw', 'ua200', 'tasmax', 'snd', 'rlus', 'sund', 'huss']</t>
+          <t>['rsds', 'snw', 'snm', 'hurs', 'zg500', 'mrros', 'rlut', 'psl', 'snc', 'sfcWindmax', 'rsus', 'hfss', 'vas', 'mrso', 'uas', 'zg200', 'mrro', 'pr', 'ta500', 'tasmin', 'mrfso', 'rlds', 'hfls', 'ta200', 'evspsbl', 'rlus', 'huss', 'sund', 'rsut', 'tasmax', 'ua200', 'snd', 'hus850', 'clt', 'tas', 'va200', 'sic', 'va500', 'ua850', 'va850', 'ua500', 'rsdt', 'sfcWind', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -28614,7 +28614,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>['rsus', 'va850', 'snd', 'ua500', 'huss', 'ta500', 'mrfso', 'hurs', 'rsut', 'snw', 'uas', 'mrso', 'va200', 'sfcWindmax', 'vas', 'rsdt', 'va500', 'mrro', 'sfcWind', 'hfss', 'snc', 'zg500', 'sic', 'zg200', 'ta850', 'clt', 'rlus', 'hus850', 'tasmin', 'tasmax', 'evspsbl', 'psl', 'hfls', 'rlut', 'ua200', 'pr', 'rsds', 'ta200', 'tas', 'rlds', 'snm', 'mrros', 'sund', 'ua850']</t>
+          <t>['rlus', 'hus850', 'tasmin', 'tasmax', 'sfcWind', 'snw', 'uas', 'huss', 'ta500', 'va850', 'snd', 'mrfso', 'hurs', 'ua500', 'sfcWindmax', 'va500', 'vas', 'mrro', 'rsdt', 'rsus', 'rsut', 'va200', 'mrso', 'snm', 'evspsbl', 'psl', 'hfls', 'rlut', 'pr', 'rsds', 'ta200', 'ua200', 'tas', 'rlds', 'mrros', 'sund', 'ua850', 'snc', 'zg200', 'ta850', 'zg500', 'sic', 'hfss', 'clt']</t>
         </is>
       </c>
     </row>
@@ -28658,7 +28658,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>['clivi', 'clt', 'snm', 'snw', 'snc', 'sund', 'sic', 'snd', 'hfss', 'hfls', 'clwvi', 'mrfso', 'evspsbl', 'mrro', 'tauv', 'tauu', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'zmla', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['clt', 'snm', 'clivi', 'hfls', 'clwvi', 'mrro', 'tauv', 'tauu', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'zmla', 'hfss', 'mrfso', 'evspsbl', 'ts', 'ps', 'prc', 'prw', 'psl', 'prsn', 'snw', 'snc', 'sund', 'sic', 'snd', 'prhmax', 'mrso', 'mrros', 'pr']</t>
         </is>
       </c>
     </row>
@@ -28686,7 +28686,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>['clh', 'cll', 'clm', 'huss', 'hurs', 'tasmax', 'tasmin', 'tas', 'sfcWindmax', 'sfcWind', 'wsgsmax', 'vas', 'uas']</t>
+          <t>['clh', 'clm', 'cll', 'huss', 'tasmax', 'hurs', 'sfcWindmax', 'sfcWind', 'uas', 'wsgsmax', 'vas', 'tasmin', 'tas']</t>
         </is>
       </c>
     </row>
@@ -28714,7 +28714,7 @@
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>['ta850', 'ta200', 'ta500', 'hus850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['hus850', 'va850', 'zg200', 'zg500', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'ta850', 'ta200', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -28746,7 +28746,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'mrsofc', 'areacella', 'sftgif']</t>
         </is>
       </c>
     </row>
@@ -28778,7 +28778,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>['mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'evspsbl', 'clt', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rsdt', 'rlut', 'rsut', 'rlus', 'hfls', 'evspsbl', 'snm', 'clt', 'snw', 'sic', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'sund', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'tasmax', 'tasmin', 'uas', 'tas', 'sfcWindmax', 'sfcWind', 'vas']</t>
+          <t>['tasmax', 'uas', 'sfcWindmax', 'sfcWind', 'tasmin', 'tas', 'huss', 'hurs', 'vas']</t>
         </is>
       </c>
     </row>
@@ -28834,7 +28834,7 @@
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>['hus850', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'zg200', 'zg500', 'va850']</t>
+          <t>['va500', 'ua200', 'va200', 'ua500', 'ua850', 'zg500', 'va850', 'ta500', 'zg200', 'hus850', 'ta200', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -28866,7 +28866,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'clt', 'rlds', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sic', 'snm', 'snw', 'sund', 'snc', 'snd']</t>
+          <t>['hfss', 'evspsbl', 'mrfso', 'mrros', 'hfls', 'rlds', 'mrso', 'psl', 'mrro', 'pr', 'rsus', 'rlus', 'rsut', 'rlut', 'sic', 'snw', 'sund', 'snc', 'snd', 'rsds', 'rsdt', 'snm', 'clt']</t>
         </is>
       </c>
     </row>
@@ -28894,7 +28894,7 @@
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>['hurs', 'huss', 'sfcWindmax', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+          <t>['huss', 'tas', 'uas', 'sfcWindmax', 'sfcWind', 'tasmax', 'tasmin', 'vas', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -28922,7 +28922,7 @@
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>['hus850', 'ta200', 'ta500', 'ta850', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
+          <t>['hus850', 'va500', 'ta200', 'ua200', 'ta500', 'ta850', 'va200', 'va850', 'ua500', 'ua850', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -28966,7 +28966,7 @@
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>['pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'clt', 'hfls', 'hfss', 'hurs', 'huss']</t>
+          <t>['prw', 'hfls', 'huss', 'clt', 'hfss', 'hurs', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -29030,7 +29030,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'snw', 'wsgsmax', 'tasmin', 'sfcWind', 'ps', 'ua200', 'rsut', 'evspsbl', 'cll', 'snc', 'mrso', 'mrros', 'snm', 'clt', 'snd', 'hfls', 'vas', 'uas', 'prsn', 'rsds', 'huss', 'va850', 'ua500', 'clh', 'clivi', 'pr', 'tasmax', 'rsdt', 'zmla', 'ta200', 'rsus', 'zg500', 'psl', 'va200', 'prhmax', 'tauu', 'clm', 'sund', 'tauv', 'hus850', 'sic', 'mrro', 'ua850', 'ta850', 'ta500', 'clwvi', 'mrfso', 'tas', 'sfcWindmax', 'rlds', 'rlut', 'zg200', 'prc', 'prw', 'hurs', 'va500', 'ts']</t>
+          <t>['tasmin', 'ua200', 'wsgsmax', 'snw', 'sfcWind', 'ps', 'evspsbl', 'snc', 'mrso', 'cll', 'mrros', 'snm', 'rsut', 'psl', 'va200', 'clm', 'sund', 'rsus', 'zg500', 'prw', 'rlds', 'rlut', 'zg200', 'prc', 'hurs', 'va500', 'ts', 'sic', 'ta500', 'mrfso', 'sfcWindmax', 'mrro', 'ua850', 'ta850', 'clwvi', 'tas', 'tauv', 'hus850', 'rlus', 'hfss', 'va850', 'ua500', 'clh', 'clivi', 'pr', 'tasmax', 'rsdt', 'zmla', 'ta200', 'prhmax', 'tauu', 'clt', 'snd', 'hfls', 'vas', 'uas', 'prsn', 'rsds', 'huss']</t>
         </is>
       </c>
     </row>
@@ -29062,7 +29062,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>['sftgif', 'mrsofc', 'orog', 'areacella', 'sftlf']</t>
+          <t>['sftgif', 'mrsofc', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -29094,7 +29094,7 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>['sfcWind', 'zg200', 'va850', 'va200', 'sfcWindmax', 'snm', 'ua500', 'hurs', 'vas', 'ta500', 'snd', 'rsus', 'mrso', 'clt', 'rlds', 'hfss', 'tasmax', 'tasmin', 'rsdt', 'rsut', 'psl', 'evspsbl', 'mrros', 'sic', 'rlus', 'rlut', 'hus850', 'snc', 'mrfso', 'huss', 'uas', 'ua850', 'snw', 'zg500', 'va500', 'tas', 'ta200', 'sund', 'ua200', 'hfls', 'ta850', 'pr', 'rsds', 'mrro']</t>
+          <t>['ua500', 'snm', 'hurs', 'vas', 'ta500', 'sfcWindmax', 'snd', 'rsus', 'clt', 'tasmax', 'rsdt', 'hfss', 'tasmin', 'psl', 'mrso', 'rlds', 'rsut', 'sund', 'ua200', 'tas', 'mrro', 'hfls', 'pr', 'rsds', 'ta850', 'sfcWind', 'zg200', 'va850', 'va200', 'snc', 'mrfso', 'huss', 'uas', 'ua850', 'snw', 'zg500', 'va500', 'ta200', 'evspsbl', 'mrros', 'sic', 'rlus', 'rlut', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -29126,7 +29126,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>['mrfso', 'ua500', 'rsut', 'vas', 'uas', 'va200', 'pr', 'tasmin', 'evspsbl', 'rsus', 'tas', 'mrro', 'va500', 'ta850', 'rlds', 'hfls', 'tasmax', 'sic', 'zg200', 'sund', 'ua850', 'clt', 'rsds', 'sfcWind', 'psl', 'ta500', 'huss', 'ta200', 'mrros', 'snm', 'hurs', 'sfcWindmax', 'zg500', 'va850', 'rlus', 'hus850', 'snd', 'hfss', 'mrso', 'snc', 'rsdt', 'rlut', 'snw', 'ua200']</t>
+          <t>['tasmin', 'tas', 'mrro', 'va500', 'vas', 'uas', 'evspsbl', 'rsus', 'ta850', 'va200', 'pr', 'rsut', 'rlds', 'hfls', 'zg200', 'sund', 'ta200', 'ua850', 'clt', 'tasmax', 'sic', 'mrros', 'snm', 'hurs', 'zg500', 'rlus', 'va850', 'rsdt', 'rlut', 'hfss', 'mrso', 'snw', 'ua200', 'snc', 'snd', 'hus850', 'mrfso', 'ua500', 'ta500', 'huss', 'sfcWindmax', 'rsds', 'sfcWind', 'psl']</t>
         </is>
       </c>
     </row>
@@ -29162,7 +29162,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>['huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'clt', 'hfls', 'hfss', 'hurs']</t>
+          <t>['prw', 'ps', 'psl', 'rlds', 'tas', 'huss', 'pr', 'rlus', 'rsds', 'rsus', 'sfcWind', 'hfls', 'hfss', 'hurs', 'clt']</t>
         </is>
       </c>
     </row>
@@ -29226,7 +29226,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tauv', 'tasmax', 'tasmin', 'tauu', 'uas', 'ts', 'wsgsmax', 'zmla', 'vas', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'mrro', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'snm', 'snw', 'tas', 'snc', 'sund', 'snd']</t>
+          <t>['mrso', 'prw', 'tauv', 'tasmin', 'ts', 'tauu', 'uas', 'prhmax', 'prc', 'psl', 'prsn', 'pr', 'wsgsmax', 'zmla', 'vas', 'mrros', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'mrro', 'rlds', 'ps', 'tasmax', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'snm', 'snw', 'tas', 'snc', 'sund', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic']</t>
         </is>
       </c>
     </row>
@@ -29254,7 +29254,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>['ua500', 'ua850', 'ua200', 'zg200', 'zg500', 'va500', 'va850', 'va200', 'hus850', 'ta200', 'ta500', 'ta850']</t>
+          <t>['ua850', 'ua500', 'ua200', 'zg200', 'zg500', 'va500', 'va850', 'va200', 'hus850', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -29286,7 +29286,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>['areacella', 'mrsofc', 'sftgif', 'sftlf', 'orog']</t>
+          <t>['orog', 'areacella', 'mrsofc', 'sftgif', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -29318,7 +29318,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'snm', 'snw', 'tas', 'snc', 'sund', 'snd', 'tasmax', 'tasmin', 'uas', 'vas']</t>
+          <t>['hfss', 'evspsbl', 'clt', 'rlds', 'mrros', 'mrro', 'sfcWindmax', 'rsds', 'rlut', 'sfcWind', 'vas', 'hfls', 'hurs', 'mrfso', 'mrso', 'psl', 'tas', 'snc', 'tasmin', 'uas', 'huss', 'pr', 'rsus', 'rlus', 'rsdt', 'rsut', 'sic', 'snm', 'snw', 'sund', 'snd', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -29346,7 +29346,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>['hus850', 'ta200', 'ta500', 'ta850', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
+          <t>['hus850', 'zg200', 'zg500', 'ta200', 'ta850', 'va200', 'va850', 'ua500', 'ta500', 'va500', 'ua200', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -29378,7 +29378,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmin', 'vas', 'uas', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'snd']</t>
+          <t>['rsdt', 'rlut', 'sfcWind', 'snc', 'sic', 'hfls', 'evspsbl', 'clt', 'tasmin', 'vas', 'uas', 'hfss', 'hurs', 'sfcWindmax', 'rsds', 'rsus', 'rsut', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -29406,7 +29406,7 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>['hus850', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg500', 'zg200', 'ta200', 'ta500', 'ta850']</t>
+          <t>['va200', 'va500', 'va850', 'ua200', 'ua500', 'zg500', 'hus850', 'ua850', 'zg200', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -29442,7 +29442,7 @@
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'prw', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -29506,7 +29506,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'ua500', 'ua850', 'ua200', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'clh', 'clm', 'cll', 'clivi', 'clt', 'hfss', 'clwvi', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'snm', 'snw', 'snc', 'sund', 'sic', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['snw', 'snc', 'sund', 'ta200', 'snm', 'sic', 'ta500', 'ta850', 'snd', 'clm', 'clivi', 'clh', 'cll', 'clt', 'mrfso', 'huss', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus850', 'mrro', 'rsds', 'prhmax', 'prc', 'mrros', 'psl', 'ps', 'sfcWindmax', 'wsgsmax', 'zg200', 'zg500', 'uas', 'zmla', 'vas', 'va200', 'va500', 'va850', 'tauu', 'tas', 'ua500', 'ua850', 'tasmax', 'tasmin', 'tauv', 'ts', 'ua200', 'mrso', 'prw', 'prsn', 'pr', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -29538,7 +29538,7 @@
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
+          <t>['sftgif', 'mrsofc', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -29570,7 +29570,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'uas', 'tas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'zg200', 'zg500', 'va850', 'snm', 'snw', 'snc', 'sund', 'sic', 'ta200', 'ta500', 'ta850', 'snd']</t>
+          <t>['va850', 'vas', 'zg200', 'zg500', 'hfls', 'hfss', 'evspsbl', 'clt', 'rlds', 'rlus', 'rlut', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'rsds', 'sfcWindmax', 'snm', 'snw', 'ta200', 'ta850', 'tas', 'va200', 'ua500', 'ua850', 'uas', 'tasmax', 'tasmin', 'va500', 'ua200', 'snc', 'sund', 'sic', 'ta500', 'snd', 'hus850', 'psl', 'mrro', 'pr', 'mrso', 'huss', 'mrfso', 'mrros', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -29602,7 +29602,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'vas', 'zg200', 'zg500']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'mrfso', 'rlds', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmin', 'tasmax', 'zg500', 'zg200', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsut', 'rlut', 'rsdt', 'sfcWind', 'sic', 'vas', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -29642,7 +29642,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'hurs', 'pr', 'prw', 'clt', 'hfls', 'hfss', 'huss']</t>
         </is>
       </c>
     </row>
@@ -29706,7 +29706,7 @@
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>['tauu', 'snw', 'mrro', 'ua500', 'tasmax', 'zg500', 'sund', 'pr', 'cll', 'huss', 'ta850', 'rlut', 'snm', 'ta500', 'rlus', 'hfls', 'rsdt', 'rsut', 'sfcWindmax', 'rlds', 'mrfso', 'sfcWind', 'prsn', 'wsgsmax', 'snc', 'ps', 'tas', 'uas', 'tasmin', 'mrso', 'rsds', 'prhmax', 'zmla', 'va500', 'prw', 'snd', 'rsus', 'clivi', 'clm', 'hus850', 'sic', 'ts', 'clwvi', 'evspsbl', 'ua200', 'tauv', 'prc', 'va200', 'hurs', 'psl', 'zg200', 'clt', 'hfss', 'clh', 'mrros', 'va850', 'vas', 'ua850', 'ta200']</t>
+          <t>['tasmin', 'rsds', 'prhmax', 'sic', 'va500', 'snd', 'rsus', 'clivi', 'clm', 'mrso', 'zmla', 'prw', 'hus850', 'ts', 'clwvi', 'evspsbl', 'ua500', 'tasmax', 'zg500', 'pr', 'ta850', 'tauu', 'snw', 'mrro', 'sund', 'cll', 'huss', 'rlut', 'ta500', 'snm', 'rlds', 'mrfso', 'sfcWind', 'wsgsmax', 'snc', 'ps', 'uas', 'rlus', 'hfls', 'rsut', 'sfcWindmax', 'prsn', 'rsdt', 'tas', 'prc', 'va200', 'hfss', 'ua850', 'ta200', 'ua200', 'clt', 'tauv', 'hurs', 'va850', 'psl', 'zg200', 'clh', 'mrros', 'vas']</t>
         </is>
       </c>
     </row>
@@ -29770,7 +29770,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>['ta500', 'sund', 'rlds', 'zg500', 'ta850', 'rsus', 'hfss', 'ua850', 'ua500', 'vas', 'ta200', 'rsut', 'snw', 'evspsbl', 'uas', 'sic', 'zg200', 'snc', 'va500', 'rlus', 'hurs', 'psl', 'mrro', 'snd', 'rsds', 'mrros', 'sfcWindmax', 'mrfso', 'sfcWind', 'snm', 'pr', 'rlut', 'tas', 'clt', 'rsdt', 'mrso', 'huss', 'tasmax', 'hfls', 'hus850', 'va200', 'tasmin', 'va850', 'ua200']</t>
+          <t>['psl', 'snd', 'rsds', 'mrros', 'sfcWind', 'rlus', 'sfcWindmax', 'mrfso', 'snm', 'pr', 'hurs', 'mrro', 'tas', 'rlut', 'rlds', 'ta850', 'ta500', 'sund', 'hfss', 'ua850', 'zg500', 'rsus', 'ua500', 'ta200', 'rsut', 'snc', 'va500', 'vas', 'snw', 'evspsbl', 'uas', 'sic', 'zg200', 'clt', 'rsdt', 'va200', 'va850', 'tasmax', 'hus850', 'mrso', 'huss', 'hfls', 'tasmin', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -29802,7 +29802,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>['mrfso', 'mrso', 'ta500', 'rlus', 'tas', 'uas', 'hfss', 'hfls', 'zg500', 'va850', 'sund', 'ua500', 'rsus', 'va200', 'rlds', 'zg200', 'rsdt', 'ta200', 'tasmax', 'evspsbl', 'snc', 'clt', 'sic', 'snd', 'snm', 'vas', 'ua200', 'rlut', 'huss', 'hurs', 'hus850', 'ua850', 'snw', 'va500', 'sfcWindmax', 'tasmin', 'sfcWind', 'mrros', 'ta850', 'rsds', 'rsut', 'psl', 'mrro', 'pr']</t>
+          <t>['sic', 'snd', 'vas', 'ua200', 'rlut', 'huss', 'snm', 'hurs', 'hus850', 'ua850', 'snw', 'ta500', 'rlus', 'tas', 'uas', 'hfss', 'mrfso', 'mrso', 'sund', 'ua500', 'hfls', 'zg500', 'va850', 'va200', 'rsdt', 'ta200', 'evspsbl', 'snc', 'zg200', 'rsus', 'rlds', 'tasmax', 'clt', 'va500', 'sfcWind', 'mrros', 'rsds', 'sfcWindmax', 'tasmin', 'ta850', 'rsut', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -29842,7 +29842,7 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['hfls', 'hfss', 'hurs', 'pr', 'prw', 'rlds', 'rsds', 'rsus', 'sfcWind', 'clt', 'huss', 'ps', 'psl', 'rlus', 'tas']</t>
         </is>
       </c>
     </row>
@@ -29874,7 +29874,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -29906,7 +29906,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>['tas', 'prsn', 'mrro', 'ua500', 'prhmax', 'clm', 'prc', 'ua200', 'tauv', 'ta500', 'rsds', 'mrfso', 'snw', 'wsgsmax', 'va500', 'tasmax', 'zmla', 'sfcWind', 'pr', 'rsus', 'vas', 'hus850', 'rlds', 'tauu', 'prw', 'huss', 'ta850', 'rlus', 'psl', 'ua850', 'ts', 'uas', 'rlut', 'rsdt', 'clh', 'mrros', 'va850', 'tasmin', 'zg500', 'sic', 'va200', 'snd', 'hfss', 'snc', 'ta200', 'clwvi', 'hfls', 'cll', 'evspsbl', 'hurs', 'zg200', 'sund', 'ps', 'clivi', 'clt', 'sfcWindmax', 'rsut', 'mrso', 'snm']</t>
+          <t>['ta500', 'snw', 'wsgsmax', 'ua200', 'tauv', 'rsds', 'mrfso', 'clm', 'prc', 'sfcWindmax', 'mrso', 'hfss', 'snc', 'cll', 'rsut', 'ta200', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'zg200', 'sund', 'ps', 'clivi', 'clt', 'snm', 'va500', 'tas', 'mrro', 'prhmax', 'prsn', 'ua500', 'snd', 'ta850', 'psl', 'ua850', 'uas', 'clh', 'va200', 'rsdt', 'va850', 'tasmin', 'sic', 'zmla', 'sfcWind', 'pr', 'rsus', 'vas', 'rlds', 'tauu', 'prw', 'huss', 'rlus', 'ts', 'rlut', 'hus850', 'tasmax', 'mrros', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -29938,7 +29938,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>['sftgif', 'sftlf', 'areacella', 'orog', 'mrsofc']</t>
+          <t>['mrsofc', 'orog', 'sftgif', 'areacella', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -29970,7 +29970,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>['rsus', 'hfls', 'rsdt', 'rlut', 'huss', 'vas', 'pr', 'hurs', 'snw', 'rsut', 'zg500', 'va850', 'sund', 'ta200', 'ta850', 'clt', 'ua850', 'zg200', 'va200', 'snd', 'snm', 'hus850', 'rlds', 'psl', 'hfss', 'mrfso', 'uas', 'snc', 'sic', 'va500', 'ta500', 'rlus', 'mrso', 'mrros', 'ua500', 'sfcWindmax', 'rsds', 'ua200', 'tasmax', 'tasmin', 'evspsbl', 'tas', 'mrro', 'sfcWind']</t>
+          <t>['hurs', 'rsut', 'va850', 'rsdt', 'pr', 'snw', 'zg500', 'mrro', 'sfcWindmax', 'rsds', 'ua200', 'tasmax', 'tasmin', 'evspsbl', 'tas', 'sfcWind', 'sund', 'ta200', 'ta850', 'rsus', 'hfls', 'rlut', 'huss', 'vas', 'hus850', 'mrfso', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrros', 'ua500', 'zg200', 'va200', 'snd', 'snm', 'rlds', 'psl', 'hfss', 'sic', 'clt', 'ua850', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -30002,7 +30002,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>['tasmax', 'mrfso', 'vas', 'snw', 'tasmin', 'rsdt', 'rlut', 'psl', 'va200', 'huss', 'sic', 'evspsbl', 'rsut', 'mrros', 'snm', 'hfls', 'sfcWind', 'hurs', 'ta200', 'ua200', 'rsds', 'snc', 'zg500', 'sund', 'ua500', 'mrro', 'rsus', 'rlus', 'uas', 'tas', 'va850', 'ta850', 'sfcWindmax', 'hfss', 'ua850', 'hus850', 'clt', 'snd', 'zg200', 'va500', 'ta500', 'mrso', 'pr', 'rlds']</t>
+          <t>['rsdt', 'rlut', 'va200', 'huss', 'snw', 'tasmin', 'psl', 'vas', 'snd', 'zg200', 'va500', 'ta500', 'mrso', 'pr', 'rlds', 'sic', 'evspsbl', 'tasmax', 'mrfso', 'hus850', 'clt', 'snc', 'zg500', 'ua500', 'rsus', 'rlus', 'uas', 'va850', 'sfcWindmax', 'hfss', 'ua850', 'mrros', 'snm', 'hfls', 'sfcWind', 'hurs', 'ua200', 'rsds', 'sund', 'mrro', 'tas', 'ta850', 'ta200', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -30038,7 +30038,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['rsds', 'rsus', 'sfcWind', 'tas', 'huss', 'pr', 'ps', 'rlds', 'clt', 'prw', 'psl', 'rlus', 'hfls', 'hfss', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -30070,7 +30070,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -30102,7 +30102,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'zmla', 'vas', 'clwvi', 'clh', 'clivi', 'cll', 'clm', 'evspsbl', 'clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'rlds', 'prhmax', 'rlus', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'snd', 'tasmin', 'tauv', 'tauu', 'uas', 'ts']</t>
+          <t>['clt', 'hfls', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'prhmax', 'clwvi', 'clivi', 'hfss', 'rlus', 'prc', 'prw', 'prsn', 'ps', 'clh', 'cll', 'clm', 'evspsbl', 'mrfso', 'rlds', 'psl', 'rsds', 'rsus', 'rsdt', 'rlut', 'tasmax', 'tas', 'sund', 'tasmin', 'tauv', 'uas', 'ts', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'sic', 'snm', 'snw', 'snd', 'tauu', 'wsgsmax', 'zmla', 'vas']</t>
         </is>
       </c>
     </row>
@@ -30130,7 +30130,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'va500', 'va850', 'hus850', 'ta200', 'ta500', 'ta850', 'va200', 'ua200', 'ua500', 'ua850']</t>
+          <t>['hus850', 'ta500', 'ta850', 'ua850', 'ta200', 'va200', 'ua200', 'ua500', 'zg200', 'zg500', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -30222,7 +30222,7 @@
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>['hus850', 'ta200', 'ta500', 'ta850', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
+          <t>['zg500', 'zg200', 'hus850', 'ta200', 'ta500', 'ta850', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -30254,7 +30254,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'vas', 'uas', 'rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd']</t>
+          <t>['huss', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmin', 'tasmax', 'rlds', 'rlut', 'mrso', 'mrros', 'mrro', 'pr', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlus', 'mrfso', 'sfcWindmax', 'sic', 'psl', 'sfcWind', 'snc', 'snd', 'uas', 'snm', 'snw', 'tas', 'sund', 'vas']</t>
         </is>
       </c>
     </row>
@@ -30282,7 +30282,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['hus850', 'ta200', 'ta500', 'ta850', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg500']</t>
+          <t>['hus850', 'zg500', 'zg200', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'va850', 'ta200', 'ta850', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -30322,7 +30322,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps']</t>
+          <t>['clt', 'hfls', 'hurs', 'prw', 'ps', 'hfss', 'huss', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['rlds', 'rsdt', 'zmla', 'ua850', 'clwvi', 'zg500', 'ps', 'prhmax', 'snc', 'prsn', 'clivi', 'uas', 'sund', 'ta200', 'cll', 'mrso', 'snw', 'rsus', 'tauv', 'rsut', 'vas', 'sic', 'ta850', 'prw', 'tasmin', 'clm', 'hurs', 'tas', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'psl', 'zg200', 'ts', 'mrros', 'hfss', 'hfls', 'rlut', 'va500', 'pr', 'wsgsmax', 'tauu', 'mrfso', 'clh', 'huss', 'tasmax', 'prc', 'hus850', 'va200', 'rlus', 'va850', 'mrro', 'clt', 'snd', 'evspsbl', 'sfcWind', 'snm', 'ua200']</t>
+          <t>['rsut', 'hurs', 'ta500', 'rsds', 'prw', 'clm', 'tas', 'ua500', 'sfcWindmax', 'zg200', 'ts', 'clivi', 'uas', 'sund', 'ta200', 'cll', 'mrso', 'snw', 'va850', 'mrro', 'clt', 'snd', 'evspsbl', 'hfss', 'hfls', 'rlut', 'va500', 'pr', 'mrfso', 'clh', 'huss', 'tasmax', 'prc', 'hus850', 'va200', 'rlus', 'snm', 'wsgsmax', 'tauu', 'rlds', 'rsdt', 'ua850', 'zmla', 'zg500', 'ps', 'clwvi', 'prhmax', 'snc', 'prsn', 'rsus', 'tauv', 'vas', 'sic', 'ta850', 'tasmin', 'psl', 'mrros', 'sfcWind', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -30418,7 +30418,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>['sftgif', 'orog', 'areacella', 'sftlf', 'mrsofc']</t>
+          <t>['areacella', 'sftlf', 'mrsofc', 'sftgif', 'orog']</t>
         </is>
       </c>
     </row>
@@ -30450,7 +30450,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>['hfss', 'rsds', 'tasmax', 'mrso', 'va850', 'rsus', 'hurs', 'snm', 'clt', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'va200', 'snd', 'hfls', 'evspsbl', 'ta500', 'snc', 'rsdt', 'mrfso', 'zg200', 'sic', 'ta200', 'rlds', 'psl', 'rlus', 'sfcWind', 'mrro', 'tasmin', 'rsut', 'tas', 'ua850', 'sfcWindmax', 'mrros', 'snw', 'pr', 'vas', 'zg500', 'ua500', 'huss', 'va500', 'ua200']</t>
+          <t>['va200', 'snd', 'hfls', 'snc', 'evspsbl', 'uas', 'sund', 'tas', 'ua850', 'sfcWindmax', 'mrros', 'snw', 'pr', 'ta200', 'rlus', 'sfcWind', 'tasmin', 'ua200', 'huss', 'zg200', 'sic', 'rlds', 'psl', 'mrro', 'rsut', 'hfss', 'rsds', 'mrso', 'va850', 'tasmax', 'rsus', 'hus850', 'ta850', 'hurs', 'snm', 'clt', 'rlut', 'ta500', 'rsdt', 'mrfso', 'vas', 'zg500', 'ua500', 'va500']</t>
         </is>
       </c>
     </row>
@@ -30482,7 +30482,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>['ua500', 'uas', 'evspsbl', 'huss', 'zg200', 'mrro', 'sfcWindmax', 'rsut', 'rsus', 'vas', 'zg500', 'mrfso', 'snw', 'ua850', 'rlds', 'sfcWind', 'hurs', 'tas', 'snd', 'ta850', 'ta500', 'mrros', 'clt', 'ua200', 'rsds', 'hus850', 'psl', 'hfls', 'va500', 'snc', 'snm', 'sund', 'va200', 'tasmin', 'mrso', 'sic', 'va850', 'tasmax', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'pr']</t>
+          <t>['zg500', 'ua850', 'ta850', 'mrros', 'snw', 'hurs', 'ta500', 'ua200', 'vas', 'rsus', 'sic', 'va850', 'tasmax', 'ta200', 'rlus', 'hfss', 'rsdt', 'psl', 'hfls', 'snc', 'snm', 'sund', 'va200', 'tasmin', 'mrso', 'pr', 'rlut', 'hus850', 'va500', 'ua500', 'uas', 'huss', 'mrro', 'sfcWindmax', 'rsut', 'evspsbl', 'zg200', 'mrfso', 'rlds', 'sfcWind', 'tas', 'snd', 'clt', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -30518,7 +30518,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['tas', 'sfcWind', 'hfss', 'hurs', 'huss', 'prw', 'ps', 'hfls', 'pr', 'clt', 'rlds', 'rsds', 'rsus', 'psl', 'rlus']</t>
         </is>
       </c>
     </row>
@@ -30610,7 +30610,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>['tauv', 'tauu', 'uas', 'ts', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'clwvi', 'hfls', 'clh', 'clivi', 'cll', 'clm', 'evspsbl', 'clt', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'pr', 'wsgsmax', 'zmla', 'vas', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd']</t>
+          <t>['mrro', 'wsgsmax', 'zmla', 'mrros', 'huss', 'hurs', 'pr', 'vas', 'hfls', 'clivi', 'clm', 'evspsbl', 'mrso', 'clwvi', 'clh', 'cll', 'clt', 'hfss', 'mrfso', 'snw', 'tasmax', 'tasmin', 'sund', 'snm', 'tas', 'tauv', 'uas', 'ts', 'tauu', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd']</t>
         </is>
       </c>
     </row>
@@ -30638,7 +30638,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>['va200', 'va500', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'hus850', 'zg200', 'zg500', 'va850']</t>
+          <t>['va850', 'hus850', 'zg200', 'zg500', 'ta500', 'ta200', 'ta850', 'ua200', 'ua500', 'ua850', 'va200', 'va500']</t>
         </is>
       </c>
     </row>
@@ -30702,7 +30702,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'vas', 'uas']</t>
+          <t>['mrros', 'psl', 'mrro', 'rlds', 'rlut', 'pr', 'rlus', 'mrfso', 'mrso', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'tasmax', 'rsdt', 'rsut', 'sfcWind', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'snc', 'sic', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -30730,7 +30730,7 @@
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>['ta200', 'ta500', 'ta850', 'zg500', 'hus850', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['zg500', 'ta200', 'ta500', 'ta850', 'hus850', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -30762,7 +30762,7 @@
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt', 'vas', 'uas', 'tasmax', 'tasmin', 'snw', 'tas', 'sund']</t>
+          <t>['hfls', 'evspsbl', 'uas', 'hfss', 'mrfso', 'huss', 'hurs', 'clt', 'vas', 'rsds', 'pr', 'rlds', 'rlus', 'mrros', 'psl', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snm', 'sic', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund']</t>
         </is>
       </c>
     </row>
@@ -30790,7 +30790,7 @@
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>['hus850', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'ta200', 'ta500', 'ta850']</t>
+          <t>['zg500', 'va500', 'ua500', 'ua850', 'hus850', 'zg200', 'va200', 'va850', 'ua200', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -30826,7 +30826,7 @@
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'clt', 'hfls', 'huss', 'pr', 'prw', 'ps', 'rlds', 'psl', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
+          <t>['hfss', 'hurs', 'clt', 'huss', 'pr', 'prw', 'psl', 'rlus', 'hfls', 'rlds', 'rsds', 'tas', 'ps', 'rsus', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -30890,7 +30890,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>['rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'tasmin', 'tauv', 'tauu', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ts', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'rlds', 'prhmax', 'rlus', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['tauv', 'ua200', 'ts', 'tasmin', 'tauu', 'uas', 'va200', 'ua500', 'ua850', 'ta850', 'snd', 'sund', 'ta200', 'ta500', 'hfss', 'hfls', 'mrfso', 'mrro', 'mrso', 'mrros', 'hus850', 'huss', 'hurs', 'snm', 'snw', 'tasmax', 'tas', 'wsgsmax', 'zg200', 'zg500', 'zmla', 'vas', 'va500', 'va850', 'sfcWind', 'snc', 'sic', 'clwvi', 'clh', 'cll', 'evspsbl', 'clivi', 'clm', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'rlds', 'prhmax', 'rlus', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -30922,7 +30922,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>['mrsofc', 'areacella', 'sftgif', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'areacella', 'orog', 'sftgif', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -30954,7 +30954,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>['tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg500', 'zg200', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic']</t>
+          <t>['zg500', 'zg200', 'vas', 'uas', 'va200', 'va850', 'ua200', 'ua500', 'va500', 'ua850', 'tasmin', 'rlus', 'psl', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'mrro', 'pr', 'sfcWind', 'snc', 'sic', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'tasmax', 'snm', 'snw', 'sund', 'tas', 'ta200', 'ta500', 'ta850', 'snd', 'hus850', 'clt', 'hfss', 'hfls', 'hurs', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -30986,7 +30986,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>['zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['clt', 'hfss', 'evspsbl', 'huss', 'hfls', 'hurs', 'hus850', 'tasmin', 'snw', 'sund', 'ta200', 'ta500', 'rsds', 'rsus', 'ua500', 'ua850', 'vas', 'va200', 'va500', 'ua200', 'uas', 'zg200', 'va850', 'tasmax', 'snm', 'tas', 'ta850', 'rsdt', 'snc', 'sic', 'snd', 'sfcWindmax', 'rsut', 'sfcWind', 'zg500', 'rlds', 'mrfso', 'mrso', 'mrro', 'pr', 'mrros', 'psl', 'rlus', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -31030,7 +31030,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'clt', 'hfls', 'hfss', 'pr', 'prw', 'hurs', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['rlds', 'rlus', 'hfls', 'clt', 'prw', 'ps', 'psl', 'rsds', 'rsus', 'hfss', 'pr', 'sfcWind', 'tas', 'hurs', 'huss']</t>
         </is>
       </c>
     </row>
@@ -31094,7 +31094,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'snc', 'snd', 'sfcWindmax', 'sfcWind', 'sic', 'rlds', 'rlus', 'prw', 'psl', 'prsn', 'ps', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'clh', 'cll', 'clm', 'clivi', 'clt', 'vas', 'uas', 'va500', 'va850', 'va200', 'ua850', 'ua200', 'ua500', 'ts', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'mrro', 'pr', 'wsgsmax', 'zmla', 'zg200', 'zg500', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
+          <t>['mrso', 'prc', 'mrro', 'wsgsmax', 'zmla', 'zg200', 'clwvi', 'hfls', 'evspsbl', 'huss', 'hurs', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'sund', 'hfss', 'hus850', 'ta200', 'ta500', 'ta850', 'mrros', 'pr', 'prhmax', 'mrfso', 'zg500', 'clm', 'clivi', 'clh', 'cll', 'ua500', 'ts', 'vas', 'va500', 'va850', 'ua200', 'clt', 'uas', 'va200', 'ua850', 'snw', 'snd', 'snm', 'snc', 'rlds', 'psl', 'prsn', 'rsdt', 'rlut', 'rsds', 'rsus', 'rsut', 'sfcWind', 'sic', 'sfcWindmax', 'prw', 'ps', 'rlus']</t>
         </is>
       </c>
     </row>
@@ -31126,7 +31126,7 @@
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
+          <t>['sftgif', 'sftlf', 'mrsofc', 'areacella', 'orog']</t>
         </is>
       </c>
     </row>
@@ -31158,7 +31158,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd']</t>
+          <t>['snm', 'snc', 'sic', 'sfcWindmax', 'rsus', 'snw', 'snd', 'rsut', 'sfcWind', 'tasmax', 'tasmin', 'sund', 'ta200', 'ta500', 'tas', 'ta850', 'ua200', 'ua500', 'rsds', 'rlus', 'mrros', 'psl', 'rsdt', 'mrso', 'rlds', 'rlut', 'pr', 'zg200', 'uas', 'va500', 'ua850', 'vas', 'zg500', 'va200', 'va850', 'huss', 'hurs', 'mrro', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'hus850', 'clt']</t>
         </is>
       </c>
     </row>
@@ -31190,7 +31190,7 @@
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>['clt', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'sic', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'zg500', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'vas', 'zg200', 'va500', 'va850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'tasmax', 'tasmin', 'uas', 'va200', 'ua200', 'ua500', 'ua850']</t>
+          <t>['va850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'mrro', 'tasmax', 'tasmin', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'hurs', 'hus850', 'rlds', 'rsus', 'rlut', 'psl', 'vas', 'rsds', 'rlus', 'rsdt', 'mrso', 'pr', 'zg200', 'va500', 'zg500', 'snw', 'snd', 'tas', 'ta200', 'ta500', 'ta850', 'snm', 'sund', 'clt', 'rsut', 'sfcWind', 'sic', 'sfcWindmax', 'snc']</t>
         </is>
       </c>
     </row>
@@ -31230,7 +31230,7 @@
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>['psl', 'rlds', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'hfls', 'clt', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
+          <t>['pr', 'ps', 'rsus', 'sfcWind', 'psl', 'rlds', 'hfss', 'hurs', 'huss', 'prw', 'hfls', 'rlus', 'tas', 'clt', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -31294,7 +31294,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>['cll', 'clm', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'clwvi', 'evspsbl', 'snm', 'snc', 'snd', 'hfss', 'hfls', 'hurs', 'tas', 'ta500', 'ta850', 'mrfso', 'huss', 'hus850', 'snw', 'sund', 'ta200', 'uas', 'va200', 'va500', 'ua500', 'ua850', 'clh', 'clivi', 'mrso', 'mrros', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850', 'rlds', 'rlus', 'psl', 'ps', 'prhmax', 'prc', 'prw', 'prsn', 'pr', 'tauv', 'tasmax', 'tasmin', 'tauu', 'ua200', 'ts']</t>
+          <t>['prhmax', 'prc', 'prsn', 'prw', 'tasmax', 'tasmin', 'tauu', 'ua200', 'ts', 'rlus', 'psl', 'ps', 'tauv', 'rlds', 'clh', 'mrso', 'clivi', 'mrros', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg500', 'va850', 'zg200', 'cll', 'clm', 'clt', 'sfcWindmax', 'pr', 'rlut', 'sic', 'rsdt', 'rsut', 'sfcWind', 'rsds', 'rsus', 'snw', 'mrfso', 'huss', 'hus850', 'sund', 'ta200', 'uas', 'va200', 'ua500', 'va500', 'ua850', 'evspsbl', 'snd', 'clwvi', 'snm', 'snc', 'tas', 'ta500', 'hurs', 'hfss', 'hfls', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -31326,7 +31326,7 @@
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>['mrsofc', 'areacella', 'sftgif', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftgif', 'mrsofc', 'areacella']</t>
         </is>
       </c>
     </row>
@@ -31358,7 +31358,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>['mrfso', 'huss', 'hus850', 'mrro', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'mrso', 'mrros', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'snm', 'snw', 'snd', 'sund', 'ta200', 'ta500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmax', 'tasmin', 'uas', 'tas', 'ta850', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'sic']</t>
+          <t>['tasmax', 'tasmin', 'uas', 'ua200', 'snc', 'hfls', 'evspsbl', 'hurs', 'hfss', 'sfcWindmax', 'rsut', 'sfcWind', 'clt', 'tas', 'ta850', 'ua500', 'ua850', 'ta200', 'ta500', 'sund', 'psl', 'rlut', 'pr', 'sic', 'hus850', 'mrro', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'mrfso', 'huss', 'vas', 'mrros', 'mrso', 'snm', 'snw', 'snd', 'rsds', 'rsus', 'rlds', 'rlus', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -31390,7 +31390,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>['clt', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'mrfso', 'huss', 'zg500', 'tasmin', 'ua200', 'ua500', 'mrso', 'mrros', 'mrro', 'pr']</t>
+          <t>['tasmin', 'ua200', 'ua500', 'huss', 'zg500', 'mrfso', 'rsds', 'psl', 'rlus', 'rsdt', 'rsut', 'rlds', 'rsus', 'rlut', 'mrso', 'mrros', 'mrro', 'pr', 'clt', 'tasmax', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfls', 'hurs', 'hus850', 'vas', 'uas', 'zg200', 'va200', 'evspsbl', 'ua850', 'hfss', 'snw', 'sfcWindmax', 'sfcWind', 'sic', 'snd', 'snm', 'snc', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -31434,7 +31434,7 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>['clt', 'rlds', 'rlus', 'hfls', 'hfss', 'pr', 'prw', 'hurs', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['clt', 'rlds', 'hfss', 'pr', 'rlus', 'hfls', 'prw', 'hurs', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -31498,7 +31498,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>['mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'tauv', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'ts', 'hfss', 'clwvi', 'hfls', 'clh', 'cll', 'clm', 'clivi', 'evspsbl', 'clt', 'tasmax', 'tasmin', 'tauu', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500']</t>
+          <t>['rsus', 'rsut', 'sfcWind', 'sic', 'snc', 'snd', 'sfcWindmax', 'rsdt', 'snm', 'hfss', 'clwvi', 'tauu', 'snw', 'tas', 'ta850', 'hfls', 'clh', 'cll', 'clm', 'evspsbl', 'clt', 'tasmin', 'sund', 'ta200', 'ta500', 'clivi', 'tasmax', 'mrfso', 'mrso', 'tauv', 'ua500', 'ua850', 'hurs', 'mrro', 'va200', 'va500', 'ts', 'prc', 'mrros', 'huss', 'hus850', 'pr', 'uas', 'va850', 'ua200', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -31562,7 +31562,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrfso', 'hurs', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta850', 'vas', 'zg500', 'va200', 'va850', 'ua500', 'ua850', 'rsdt', 'rsut', 'sfcWind', 'snm', 'ua200', 'ta500', 'zg200', 'uas', 'va500', 'pr', 'snc', 'sic', 'snd', 'sfcWindmax', 'rsus', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -31594,7 +31594,7 @@
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'tas', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr']</t>
+          <t>['sfcWindmax', 'rsut', 'sfcWind', 'snm', 'sic', 'tasmin', 'ua200', 'ua500', 'ta500', 'vas', 'zg500', 'sund', 'ta200', 'ta850', 'zg200', 'uas', 'rsus', 'snw', 'snc', 'snd', 'tasmax', 'tas', 'va500', 'va200', 'va850', 'ua850', 'evspsbl', 'hfss', 'hfls', 'mrfso', 'rlut', 'mrso', 'pr', 'mrros', 'psl', 'huss', 'hurs', 'hus850', 'mrro', 'rlds', 'rlus', 'rsdt', 'clt', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -31634,7 +31634,7 @@
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>['psl', 'rlds', 'hfss', 'hurs', 'clt', 'hfls', 'huss', 'pr', 'prw', 'ps', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
+          <t>['sfcWind', 'rsds', 'huss', 'prw', 'tas', 'psl', 'rlds', 'hfls', 'pr', 'ps', 'rlus', 'hfss', 'hurs', 'clt', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -31666,7 +31666,7 @@
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -31698,7 +31698,7 @@
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'clh', 'hfss', 'hfls', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hurs', 'clt', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'snc', 'snd', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'zmla', 'zg200', 'zg500']</t>
+          <t>['tauu', 'vas', 'uas', 'va200', 'wsgsmax', 'zg200', 'zg500', 'tauv', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'tasmax', 'tasmin', 'va500', 'zmla', 'clh', 'hfss', 'hfls', 'evspsbl', 'clivi', 'cll', 'clm', 'hurs', 'clt', 'prhmax', 'mrso', 'prc', 'huss', 'hus850', 'mrro', 'clwvi', 'mrfso', 'mrros', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snd', 'sic', 'snc', 'prsn', 'rlds', 'rsdt', 'rlut', 'prw', 'psl', 'rsds', 'rlus', 'ps']</t>
         </is>
       </c>
     </row>
@@ -31730,7 +31730,7 @@
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
+          <t>['sftgif', 'areacella', 'sftlf', 'mrsofc', 'orog']</t>
         </is>
       </c>
     </row>
@@ -31762,7 +31762,7 @@
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'tas', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850']</t>
+          <t>['tasmax', 'sund', 'ua500', 'ta200', 'ta500', 'ta850', 'tasmin', 'tas', 'ua200', 'zg200', 'uas', 'vas', 'zg500', 'va500', 'va850', 'va200', 'ua850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd']</t>
         </is>
       </c>
     </row>
@@ -31794,7 +31794,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>['clt', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
+          <t>['hfss', 'hfls', 'mrros', 'huss', 'mrro', 'rsds', 'rlus', 'rsdt', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'clt', 'mrfso', 'evspsbl', 'hurs', 'hus850', 'rlds', 'rsus', 'rlut', 'mrso', 'tasmax', 'tas', 'ua500', 'ta200', 'ta850', 'tasmin', 'ua200', 'ua850', 'ta500', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -31834,7 +31834,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'hfls', 'hfss', 'clt', 'pr', 'prw', 'hurs', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['rlds', 'rlus', 'hfss', 'clt', 'prw', 'hfls', 'pr', 'sfcWind', 'ps', 'psl', 'rsds', 'rsus', 'hurs', 'huss', 'tas']</t>
         </is>
       </c>
     </row>
@@ -31866,7 +31866,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -31898,7 +31898,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'cll', 'clm', 'evspsbl', 'hurs', 'hus850', 'clt', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua850', 'ua500', 'zmla', 'zg200', 'zg500', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'prsn', 'mrro', 'pr', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'clh', 'clivi', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps']</t>
+          <t>['rsdt', 'rlut', 'prw', 'psl', 'ps', 'rlus', 'rsds', 'rlds', 'rsus', 'prhmax', 'mrso', 'prc', 'huss', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'ts', 'mrfso', 'mrros', 'prsn', 'tauv', 'tauu', 'ta200', 'cll', 'evspsbl', 'wsgsmax', 'ua200', 'zg500', 'hfss', 'ua500', 'zg200', 'clwvi', 'hfls', 'clm', 'hurs', 'hus850', 'clt', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua850', 'zmla', 'clh', 'clivi', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd']</t>
         </is>
       </c>
     </row>
@@ -31930,7 +31930,7 @@
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'orog', 'mrsofc', 'sftgif', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -31962,7 +31962,7 @@
       </c>
       <c r="J967" t="inlineStr">
         <is>
-          <t>['clt', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'sic', 'snd', 'tasmax', 'tasmin', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
+          <t>['vas', 'zg200', 'zg500', 'uas', 'va200', 'hfls', 'huss', 'hus850', 'rsds', 'rlds', 'rsdt', 'clt', 'hfss', 'mrfso', 'mrros', 'hurs', 'mrro', 'rsus', 'rlus', 'rlut', 'pr', 'evspsbl', 'mrso', 'psl', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'sic', 'snd', 'tasmax', 'tasmin', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -31994,7 +31994,7 @@
       </c>
       <c r="J968" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'ta200', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'evspsbl', 'clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['evspsbl', 'clt', 'hfss', 'mrro', 'mrros', 'zg500', 'huss', 'hus850', 'vas', 'zg200', 'va500', 'pr', 'sfcWindmax', 'sund', 'snc', 'ta200', 'snd', 'tas', 'ua500', 'ua850', 'ta850', 'sic', 'tasmax', 'tasmin', 'uas', 'ua200', 'ta500', 'sfcWind', 'snm', 'snw', 'rlds', 'rsds', 'rsdt', 'rsut', 'rlut', 'psl', 'rsus', 'rlus', 'hfls', 'mrfso', 'mrso', 'hurs', 'va200', 'va850']</t>
         </is>
       </c>
     </row>
@@ -32034,7 +32034,7 @@
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'clt', 'hfls', 'huss', 'pr', 'prw', 'ps', 'rlds', 'psl', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
+          <t>['rsds', 'hfss', 'hurs', 'clt', 'hfls', 'rlds', 'rlus', 'huss', 'pr', 'prw', 'ps', 'psl', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -32126,7 +32126,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>['prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'hfss', 'hfls', 'clwvi', 'evspsbl', 'clm', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'ua200', 'ta500', 'ta850', 'ts', 'clh', 'clivi', 'cll', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'sund', 'snc', 'ta200', 'snd']</t>
+          <t>['snd', 'sic', 'sund', 'snc', 'clh', 'sfcWind', 'snm', 'snw', 'ta200', 'rsds', 'rsus', 'rlus', 'rsdt', 'psl', 'zmla', 'rsut', 'rlut', 'ps', 'rlds', 'zg500', 'mrfso', 'mrros', 'pr', 'vas', 'zg200', 'prhmax', 'mrso', 'wsgsmax', 'va200', 'prc', 'prw', 'prsn', 'mrro', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'clwvi', 'evspsbl', 'clm', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'ua200', 'ta500', 'ta850', 'ts', 'clivi', 'cll', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -32158,7 +32158,7 @@
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'orog', 'sftlf', 'mrsofc', 'sftgif']</t>
         </is>
       </c>
     </row>
@@ -32190,7 +32190,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'sfcWindmax', 'tasmax', 'tasmin', 'tas', 'uas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'rsds', 'rlds', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'sic', 'ta200', 'snd']</t>
+          <t>['ta200', 'rlds', 'sfcWind', 'snm', 'snw', 'rsds', 'snc', 'sund', 'sic', 'snd', 'hfls', 'hfss', 'mrfso', 'tasmin', 'tasmax', 'tas', 'ta500', 'uas', 'evspsbl', 'clt', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'mrso', 'mrros', 'huss', 'sfcWindmax', 'ua200', 'ua500', 'ua850', 'ta850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -32222,7 +32222,7 @@
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'clt', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'sic', 'ta200', 'ta500', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
+          <t>['hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'pr', 'mrro', 'vas', 'zg500', 'va500', 'va850', 'hus850', 'zg200', 'snw', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'snm', 'snc', 'sund', 'sic', 'ta200', 'ta500', 'snd']</t>
         </is>
       </c>
     </row>
@@ -32266,7 +32266,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>['psl', 'rlds', 'rlus', 'rsds', 'hfss', 'hurs', 'clt', 'hfls', 'huss', 'pr', 'prw', 'ps', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['rlds', 'prw', 'rsus', 'sfcWind', 'rsds', 'hfss', 'hurs', 'huss', 'psl', 'rlus', 'clt', 'hfls', 'pr', 'ps', 'tas']</t>
         </is>
       </c>
     </row>
@@ -32330,7 +32330,7 @@
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>['rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tauv', 'tauu', 'uas', 'ua500', 'ua850', 'ua200', 'ts', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'mrros', 'hurs', 'hus850', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic']</t>
+          <t>['sfcWindmax', 'snm', 'snw', 'ta200', 'ta850', 'clwvi', 'clh', 'clm', 'clt', 'cll', 'clivi', 'prhmax', 'prw', 'psl', 'prsn', 'ps', 'rlds', 'mrso', 'prc', 'pr', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'mrros', 'hurs', 'hus850', 'mrro', 'tasmax', 'tasmin', 'tauv', 'tauu', 'uas', 'ua500', 'ua850', 'ua200', 'ts', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'tas', 'snc', 'sund', 'ta500', 'snd', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -32362,7 +32362,7 @@
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>['areacella', 'mrsofc', 'sftgif', 'sftlf', 'orog']</t>
+          <t>['sftgif', 'sftlf', 'orog', 'mrsofc', 'areacella']</t>
         </is>
       </c>
     </row>
@@ -32394,7 +32394,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'rlds', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
+          <t>['tas', 'sund', 'ta500', 'ta850', 'ta200', 'snc', 'snd', 'vas', 'zg200', 'tasmax', 'uas', 'va500', 'ua200', 'ua500', 'evspsbl', 'hfss', 'hfls', 'hurs', 'clt', 'tasmin', 'va200', 'va850', 'ua850', 'rlds', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'rlut', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'sfcWindmax', 'sfcWind', 'sic', 'snm', 'snw', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -32426,7 +32426,7 @@
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>['tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'huss', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'rlus', 'mrso', 'huss', 'mrfso', 'hfls', 'hurs', 'snm', 'ta200', 'ta850', 'snd', 'tasmax', 'tas', 'sund', 'ta500', 'snw', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmin', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'hfss', 'evspsbl', 'hus850', 'clt', 'mrros', 'psl', 'mrro', 'pr', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -32466,7 +32466,7 @@
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>['clt', 'hfss', 'hurs', 'pr', 'prw', 'ps', 'psl', 'rlds', 'hfls', 'huss', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
+          <t>['prw', 'hfls', 'rsus', 'sfcWind', 'rlus', 'tas', 'clt', 'hfss', 'hurs', 'pr', 'ps', 'psl', 'rlds', 'huss', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -32498,7 +32498,7 @@
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -32530,7 +32530,7 @@
       </c>
       <c r="J984" t="inlineStr">
         <is>
-          <t>['pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
+          <t>['ta500', 'tas', 'tasmax', 'ua500', 'clh', 'cll', 'clm', 'clwvi', 'hfls', 'hus850', 'sund', 'ta200', 'tauv', 'ts', 'ua200', 'evspsbl', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'wsgsmax', 'zg200', 'zg500', 'zmla', 'va500', 'uas', 'va200', 'va850', 'vas', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsut', 'sfcWind', 'sfcWindmax', 'prc', 'rlut', 'rsds', 'rsdt', 'rsus', 'pr', 'sic', 'snc', 'snd', 'snm', 'snw', 'ta850', 'tasmin', 'tauu', 'ua850', 'clivi', 'clt', 'hfss', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -32562,7 +32562,7 @@
       </c>
       <c r="J985" t="inlineStr">
         <is>
-          <t>['areacella', 'mrsofc', 'orog', 'sftgif', 'sftlf']</t>
+          <t>['mrsofc', 'orog', 'sftgif', 'sftlf', 'areacella']</t>
         </is>
       </c>
     </row>
@@ -32594,7 +32594,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'clt', 'evspsbl']</t>
+          <t>['ua500', 'uas', 'va200', 'va850', 'zg200', 'zg500', 'mrro', 'mrso', 'pr', 'rsds', 'rsus', 'va500', 'vas', 'rsut', 'clt', 'evspsbl', 'snw', 'sund', 'ta500', 'tas', 'tasmax', 'tasmin', 'ua200', 'ta200', 'ta850', 'snc', 'snd', 'snm', 'sfcWind', 'sfcWindmax', 'sic', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrros', 'psl', 'rlds', 'rsdt', 'ua850', 'rlus', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -32626,7 +32626,7 @@
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>['mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
+          <t>['rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'clt', 'hfss', 'evspsbl', 'hfls', 'hurs', 'hus850', 'mrro', 'mrros', 'mrso', 'rlus', 'rsut', 'sic', 'snc', 'snd', 'huss', 'mrfso', 'pr', 'psl', 'rlds', 'rlut', 'tas', 'ua200', 'ua850', 'uas', 'va200', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'ua500', 'va850', 'vas', 'va500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -32666,7 +32666,7 @@
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>['psl', 'rlds', 'hfss', 'hurs', 'clt', 'hfls', 'huss', 'pr', 'prw', 'ps', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
+          <t>['rlds', 'prw', 'rlus', 'clt', 'huss', 'ps', 'psl', 'hfss', 'hurs', 'hfls', 'pr', 'rsus', 'sfcWind', 'rsds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -32698,7 +32698,7 @@
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -32730,7 +32730,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'tasmax', 'tasmin', 'tauv', 'tauu', 'uas', 'ua200', 'ua500', 'ua850', 'ts', 'rsds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['snw', 'snm', 'tas', 'snc', 'vas', 'zg200', 'va200', 'va500', 'va850', 'zg500', 'wsgsmax', 'zmla', 'rlds', 'prw', 'ps', 'pr', 'prc', 'psl', 'prhmax', 'mrso', 'prsn', 'rsds', 'rsdt', 'rlut', 'sfcWind', 'sfcWindmax', 'rlus', 'rsus', 'rsut', 'sic', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'hfss', 'hfls', 'mrfso', 'tasmin', 'uas', 'ua500', 'tasmax', 'tauv', 'tauu', 'ua200', 'ua850', 'ts', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -32762,7 +32762,7 @@
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftgif', 'sftlf', 'orog', 'areacella']</t>
+          <t>['areacella', 'mrsofc', 'sftgif', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -32794,7 +32794,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>['rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'snm', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg200', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic']</t>
+          <t>['vas', 'zg500', 'zg200', 'sfcWindmax', 'rsds', 'rsus', 'clt', 'snw', 'ta500', 'snd', 'tas', 'sund', 'snc', 'ta200', 'ta850', 'snm', 'sfcWind', 'rsut', 'sic', 'rlus', 'rsdt', 'rlut', 'tasmin', 'uas', 'va500', 'va850', 'ua200', 'ua500', 'va200', 'ua850', 'tasmax', 'hfss', 'hfls', 'evspsbl', 'hurs', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -32826,7 +32826,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>['tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'zg200', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'snc', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va850', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'sfcWindmax', 'rsus', 'rsdt', 'rlut', 'snc', 'rsds', 'rsut', 'sfcWind', 'sic', 'tasmin', 'vas', 'va200', 'ua500', 'ua850', 'va500', 'uas', 'va850', 'ua200', 'zg200', 'zg500', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -32870,7 +32870,7 @@
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>['clt', 'rlds', 'rlus', 'hfls', 'hfss', 'pr', 'prw', 'hurs', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['clt', 'rlus', 'hfls', 'hurs', 'hfss', 'pr', 'huss', 'rsds', 'sfcWind', 'tas', 'ps', 'psl', 'rsus', 'rlds', 'prw']</t>
         </is>
       </c>
     </row>
@@ -32934,7 +32934,7 @@
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>['clwvi', 'hfls', 'clh', 'cll', 'clm', 'clivi', 'evspsbl', 'clt', 'tauv', 'tauu', 'uas', 'va200', 'va500', 'ua500', 'ua850', 'ua200', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'rlds', 'rlus', 'prhmax', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'mrfso', 'mrso', 'huss', 'mrros', 'hurs', 'hus850', 'mrro', 'pr', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850']</t>
+          <t>['mrfso', 'mrso', 'huss', 'mrros', 'hurs', 'hus850', 'mrro', 'pr', 'wsgsmax', 'zmla', 'vas', 'hfss', 'zg200', 'zg500', 'va850', 'clwvi', 'clh', 'clivi', 'va500', 'ua500', 'ua850', 'ua200', 'clt', 'tauu', 'uas', 'ts', 'hfls', 'cll', 'clm', 'evspsbl', 'tauv', 'va200', 'rsds', 'rsus', 'rsdt', 'rsut', 'snd', 'sfcWind', 'snc', 'sic', 'sfcWindmax', 'rlus', 'prhmax', 'rlut', 'psl', 'prsn', 'ps', 'prc', 'rlds', 'prw', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -32966,7 +32966,7 @@
       </c>
       <c r="J997" t="inlineStr">
         <is>
-          <t>['sftgif', 'sftlf', 'mrsofc', 'areacella', 'orog']</t>
+          <t>['mrsofc', 'areacella', 'orog', 'sftlf', 'sftgif']</t>
         </is>
       </c>
     </row>
@@ -32998,7 +32998,7 @@
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>['zg500', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
+          <t>['tasmax', 'tasmin', 'snm', 'snw', 'zg500', 'ua850', 'rlds', 'rlus', 'mrros', 'psl', 'pr', 'mrfso', 'rlut', 'mrso', 'mrro', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'evspsbl', 'vas', 'zg200', 'va850', 'ua200', 'ua500', 'huss', 'hurs', 'hus850', 'va200', 'hfls', 'clt', 'uas', 'va500', 'rsus', 'rsdt', 'rsut', 'sic', 'snd', 'sfcWindmax', 'rsds', 'sfcWind', 'snc']</t>
         </is>
       </c>
     </row>
@@ -33030,7 +33030,7 @@
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr']</t>
+          <t>['psl', 'mrro', 'hfss', 'evspsbl', 'huss', 'hurs', 'hus850', 'vas', 'uas', 'va200', 'ua500', 'hfls', 'mrfso', 'clt', 'zg200', 'zg500', 'va500', 'va850', 'ua850', 'snd', 'snc', 'sic', 'tasmax', 'snw', 'mrso', 'mrros', 'pr', 'rsds', 'rlds', 'rlus', 'rlut', 'tas', 'sund', 'tasmin', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'ta850', 'ta200', 'ta500', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -33070,7 +33070,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'pr', 'prw', 'ps', 'psl', 'hfls', 'huss', 'clt', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas', 'rlds']</t>
+          <t>['huss', 'clt', 'rsus', 'hfls', 'sfcWind', 'rlus', 'rsds', 'ps', 'psl', 'hfss', 'hurs', 'pr', 'prw', 'tas', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -33134,7 +33134,7 @@
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>['clt', 'clwvi', 'evspsbl', 'hfls', 'mrso', 'pr', 'prc', 'prhmax', 'huss', 'mrfso', 'mrro', 'mrros', 'prsn', 'prw', 'ps', 'psl', 'clh', 'clivi', 'cll', 'clm', 'hfss', 'hurs', 'hus850', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'tasmin', 'tauu', 'tauv', 'ts', 'wsgsmax', 'zg200', 'zg500', 'zmla', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'va200', 'va500', 'va850', 'vas', 'ua200', 'ua500', 'ua850', 'uas']</t>
+          <t>['ua200', 'tauv', 'zg200', 'zg500', 'snc', 'sund', 'va200', 'va850', 'vas', 'ts', 'wsgsmax', 'sfcWindmax', 'sic', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'va500', 'tauu', 'zmla', 'snd', 'snm', 'snw', 'ua500', 'ua850', 'uas', 'evspsbl', 'hfls', 'mrso', 'pr', 'prc', 'prhmax', 'huss', 'mrfso', 'mrro', 'mrros', 'prsn', 'prw', 'clt', 'clwvi', 'ps', 'clivi', 'cll', 'clm', 'hfss', 'hurs', 'hus850', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'tasmin', 'psl', 'clh']</t>
         </is>
       </c>
     </row>
@@ -33166,7 +33166,7 @@
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>['areacella', 'mrsofc', 'orog', 'sftgif', 'sftlf']</t>
+          <t>['orog', 'sftgif', 'areacella', 'mrsofc', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -33198,7 +33198,7 @@
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>['mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'clt', 'evspsbl', 'hfls']</t>
+          <t>['mrros', 'mrso', 'psl', 'rsds', 'sfcWind', 'hfss', 'hurs', 'mrfso', 'sfcWindmax', 'sic', 'snm', 'vas', 'zg200', 'ua200', 'va200', 'tas', 'clt', 'evspsbl', 'hus850', 'huss', 'mrro', 'snc', 'snd', 'snw', 'va500', 'va850', 'ua500', 'ua850', 'uas', 'sund', 'ta200', 'ta500', 'ta850', 'hfls', 'zg500', 'tasmin', 'tasmax', 'pr', 'rlds', 'rlus', 'rlut', 'rsdt', 'rsus', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -33230,7 +33230,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'clt', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
+          <t>['va850', 'vas', 'zg500', 'evspsbl', 'hfls', 'rlus', 'rlut', 'rsds', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'mrfso', 'tasmin', 'ua200', 'ua500', 'uas', 'zg200', 'snm', 'sund', 'ta200', 'ta500', 'ta850', 'psl', 'snw', 'tas', 'tasmax', 'ua850', 'va200', 'va500', 'hfss', 'hurs', 'hus850', 'huss', 'rsdt', 'rsus', 'sic', 'mrro', 'mrros', 'clt', 'rlds', 'mrso', 'pr']</t>
         </is>
       </c>
     </row>
@@ -33270,7 +33270,7 @@
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'clt', 'pr', 'prw', 'hfls', 'huss', 'rsds', 'rsus', 'sfcWind', 'tas', 'ps', 'psl', 'rlds', 'rlus']</t>
+          <t>['rlus', 'hfss', 'hurs', 'clt', 'pr', 'prw', 'hfls', 'huss', 'sfcWind', 'tas', 'rsds', 'rsus', 'ps', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -33302,7 +33302,7 @@
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -33334,7 +33334,7 @@
       </c>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'tasmin', 'tauv', 'tauu', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ts', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'rlds', 'prhmax', 'rlus', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
+          <t>['rsds', 'sfcWindmax', 'rsdt', 'sfcWind', 'snc', 'rsus', 'rsut', 'rlut', 'sic', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'vas', 'va500', 'ps', 'pr', 'wsgsmax', 'zmla', 'zg200', 'zg500', 'va850', 'prhmax', 'rlus', 'clwvi', 'clh', 'cll', 'evspsbl', 'clivi', 'clm', 'clt', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'uas', 'ua500', 'ua850', 'tasmin', 'tauv', 'tauu', 'hfss', 'hfls', 'va200', 'ua200', 'ts', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -33366,7 +33366,7 @@
       </c>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>['sftgif', 'sftlf', 'orog', 'mrsofc', 'areacella']</t>
+          <t>['mrsofc', 'areacella', 'sftgif', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -33398,7 +33398,7 @@
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'huss', 'mrros', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic']</t>
+          <t>['rsds', 'rsus', 'rsdt', 'snc', 'sic', 'sfcWindmax', 'rsut', 'rlut', 'sfcWind', 'zg500', 'mrfso', 'mrso', 'rlds', 'rlus', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'evspsbl', 'hurs', 'tasmax', 'snm', 'tas', 'sund', 'ta500', 'ta850', 'hfss', 'hfls', 'snd', 'hus850', 'clt', 'snw', 'ta200', 'mrros', 'mrro', 'pr', 'huss', 'psl', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -33430,7 +33430,7 @@
       </c>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'zg500', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr']</t>
+          <t>['rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'clt', 'zg500', 'vas', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'snm', 'huss', 'hurs', 'sfcWindmax', 'rsut', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'snc', 'sic', 'snd', 'hfss', 'hfls', 'evspsbl', 'hus850', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -37406,7 +37406,7 @@
       </c>
       <c r="J1134" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'prc', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'prsn', 'ps', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ua200', 'ua500', 'ta850', 'ts', 'evspsbl', 'clt', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500']</t>
+          <t>['evspsbl', 'clt', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'ta500', 'snw', 'sic', 'ta200', 'mrso', 'huss', 'hus850', 'uas', 'ua850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg500', 'va200', 'va850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'prsn', 'ps', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ua200', 'ua500', 'ta850', 'ts', 'hfss', 'hfls', 'prc', 'mrros', 'zg200', 'va500']</t>
         </is>
       </c>
     </row>
@@ -37438,7 +37438,7 @@
       </c>
       <c r="J1135" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'vas', 'zg200', 'zg500', 'va850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'tasmin', 'tasmax', 'uas', 'tas', 'va200', 'va500', 'ua200', 'ua500', 'ua850']</t>
+          <t>['snw', 'sic', 'ta200', 'ta500', 'ta850', 'mrso', 'evspsbl', 'mrros', 'hus850', 'mrro', 'clt', 'tasmin', 'tasmax', 'uas', 'tas', 'va200', 'ua200', 'ua500', 'hfss', 'hfls', 'huss', 'va500', 'ua850', 'sfcWind', 'snm', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'vas', 'zg200', 'zg500', 'va850', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -37470,7 +37470,7 @@
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic']</t>
+          <t>['rlds', 'rlut', 'mrso', 'mrros', 'huss', 'psl', 'uas', 'va200', 'va500', 'rlus', 'zg200', 'va850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'mrro', 'pr', 'vas', 'zg500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -37514,7 +37514,7 @@
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -37550,7 +37550,7 @@
       </c>
       <c r="J1138" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'wsgsmax', 'zg200', 'zg500', 'hfss', 'hfls', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'tauv', 'tauu', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
+          <t>['rlut', 'psl', 'prsn', 'vas', 'uas', 'va850', 'ua500', 'ts', 'rlds', 'rlus', 'mrso', 'prc', 'ps', 'pr', 'va200', 'va500', 'ua850', 'ua200', 'zg500', 'ta850', 'tas', 'ta200', 'ta500', 'hfss', 'hfls', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'tauv', 'tauu', 'tasmax', 'tasmin', 'snw', 'zg200', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'wsgsmax']</t>
         </is>
       </c>
     </row>
@@ -37582,7 +37582,7 @@
       </c>
       <c r="J1139" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic']</t>
+          <t>['tas', 'ta200', 'ua200', 'tasmax', 'tasmin', 'ta500', 'ta850', 'ua500', 'ua850', 'clt', 'vas', 'va500', 'rsds', 'rlus', 'mrso', 'rlds', 'rlut', 'mrros', 'psl', 'sfcWindmax', 'rsus', 'snm', 'mrro', 'pr', 'rsut', 'sfcWind', 'snw', 'sic', 'rsdt', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'zg200', 'zg500', 'uas', 'va200']</t>
         </is>
       </c>
     </row>
@@ -37614,7 +37614,7 @@
       </c>
       <c r="J1140" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'zg200', 'zg500', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850']</t>
+          <t>['hfss', 'mrro', 'pr', 'tasmin', 'vas', 'va200', 'ua200', 'mrso', 'mrros', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfls', 'huss', 'hus850', 'psl', 'evspsbl', 'snm', 'sic', 'ta200', 'ta500', 'tasmax', 'tas', 'ta850', 'snw', 'sfcWindmax', 'clt', 'rsus', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'zg500', 'rsds', 'rlds', 'rsut', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -37650,7 +37650,7 @@
       </c>
       <c r="J1141" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'wsgsmax', 'vas', 'zg200', 'zg500', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tauu', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'rlds', 'rlus', 'mrso', 'prc', 'mrros', 'psl', 'prsn', 'ps', 'pr', 'tauv', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'ts']</t>
+          <t>['rsds', 'rsus', 'zg200', 'zg500', 'sfcWindmax', 'sfcWind', 'sic', 'vas', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'rlds', 'rlus', 'mrso', 'prc', 'psl', 'pr', 'tauv', 'mrros', 'prsn', 'ps', 'uas', 'ua500', 'va200', 'va500', 'va850', 'ua850', 'ua200', 'ts', 'ta850', 'hfls', 'evspsbl', 'mrro', 'clt', 'tauu', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'hfss', 'huss', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -37682,7 +37682,7 @@
       </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'huss', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850']</t>
+          <t>['snm', 'sic', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'ua850', 'ua200', 'ua500', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'evspsbl', 'clt', 'hus850', 'hfss', 'hfls', 'rlds', 'rlus', 'rlut', 'mrso', 'huss', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -37714,7 +37714,7 @@
       </c>
       <c r="J1143" t="inlineStr">
         <is>
-          <t>['clt', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'mrros', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'sfcWindmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500']</t>
+          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'mrros', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta850', 'clt', 'rlus', 'rsdt', 'sfcWind', 'ta500', 'ua500', 'va200', 'va500', 'ua850', 'vas', 'tasmax', 'tasmin', 'uas', 'va850', 'ua200', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -37754,7 +37754,7 @@
       </c>
       <c r="J1144" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -37790,7 +37790,7 @@
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'clt', 'mrso', 'prc', 'huss', 'mrros', 'hus850', 'prsn', 'mrro', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'sfcWindmax', 'snm', 'tas', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'tauv', 'tasmax', 'tasmin', 'tauu', 'uas', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['rsds', 'rlds', 'snm', 'ta200', 'tauv', 'zg200', 'zg500', 'va850', 'tauu', 'wsgsmax', 'hfss', 'hfls', 'evspsbl', 'prc', 'mrros', 'hus850', 'prsn', 'mrro', 'ps', 'pr', 'rsus', 'ua200', 'vas', 'va200', 'va500', 'clt', 'huss', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'sfcWindmax', 'tas', 'snw', 'sic', 'ta500', 'ta850', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -37822,7 +37822,7 @@
       </c>
       <c r="J1146" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'tasmin', 'vas', 'uas', 'ua200', 'ua850', 'va200', 'va500', 'va850', 'ua500', 'clt', 'hfss', 'huss', 'hus850', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'snw', 'sic', 'ta500', 'mrros', 'pr', 'rlut', 'sfcWind', 'tasmax', 'snm', 'tas', 'mrso', 'hfls', 'psl', 'mrro', 'rlds', 'rsdt', 'rsut', 'ta200', 'ta850', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -37854,7 +37854,7 @@
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'mrso', 'mrros', 'psl', 'sfcWind', 'pr', 'rsut', 'snm', 'snw', 'sic', 'ta200', 'rsdt', 'rlut', 'sfcWindmax', 'rsus', 'tasmax', 'tasmin', 'ta500', 'ua200', 'ua500', 'zg200', 'va200', 'va500', 'va850', 'tas', 'uas', 'ta850', 'ua850', 'vas', 'zg500', 'hfss', 'hfls', 'evspsbl', 'huss']</t>
         </is>
       </c>
     </row>
@@ -37890,7 +37890,7 @@
       </c>
       <c r="J1148" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'wsgsmax', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'hfls', 'evspsbl', 'clt', 'hfss', 'mrso', 'prc', 'huss', 'mrros', 'hus850', 'prsn', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ua200', 'ua500', 'ua850', 'ts']</t>
+          <t>['sfcWindmax', 'sfcWind', 'snm', 'sic', 'ta850', 'snw', 'ta200', 'ta500', 'hfls', 'evspsbl', 'clt', 'zg500', 'hfss', 'mrso', 'prc', 'huss', 'mrros', 'hus850', 'prsn', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -37922,7 +37922,7 @@
       </c>
       <c r="J1149" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'mrros', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'clt', 'sfcWindmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'zg200', 'zg500']</t>
+          <t>['hfls', 'mrros', 'mrro', 'uas', 'va200', 'va850', 'ua500', 'ua850', 'evspsbl', 'tasmin', 'va500', 'ua200', 'hfss', 'mrso', 'huss', 'hus850', 'pr', 'tasmax', 'clt', 'snm', 'tas', 'sic', 'ta200', 'ta850', 'sfcWindmax', 'snw', 'ta500', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -37954,7 +37954,7 @@
       </c>
       <c r="J1150" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['rsus', 'snm', 'sic', 'sfcWindmax', 'rsdt', 'rsut', 'sfcWind', 'snw', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg200', 'zg500', 'va200', 'rsds', 'rlds', 'rlus', 'rlut', 'vas', 'uas', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -38030,7 +38030,7 @@
       </c>
       <c r="J1152" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'mrros', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['mrso', 'mrros', 'hus850', 'clt', 'hfss', 'evspsbl', 'huss', 'mrro', 'hfls', 'sfcWindmax', 'rsus', 'uas', 'zg500', 'rsdt', 'rsut', 'snm', 'snw', 'tasmax', 'tasmin', 'ta200', 'ta500', 'ts', 'va500', 'ua200', 'sfcWind', 'sic', 'tauv', 'tauu', 'tas', 'wsgsmax', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr', 'zg200', 'ta850', 'vas', 'va200', 'va850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -38062,7 +38062,7 @@
       </c>
       <c r="J1153" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['tasmin', 'ua850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'tasmax', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'mrros', 'psl', 'pr', 'rsus', 'rsut', 'ta200', 'mrso', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'hus850', 'clt', 'rsdt', 'rsds', 'hfls', 'evspsbl', 'huss', 'mrro', 'rlds', 'rlus', 'rlut', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -38094,7 +38094,7 @@
       </c>
       <c r="J1154" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'zg500', 'hfls', 'evspsbl', 'clt', 'rlds', 'hfss', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
+          <t>['sfcWindmax', 'rsds', 'rlut', 'sic', 'rsus', 'rlus', 'rsdt', 'rsut', 'sfcWind', 'zg500', 'hfls', 'evspsbl', 'clt', 'mrso', 'mrros', 'hfss', 'huss', 'hus850', 'rlds', 'psl', 'mrro', 'uas', 'va200', 'va850', 'ua200', 'ua850', 'pr', 'vas', 'zg200', 'va500', 'ua500', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -38130,7 +38130,7 @@
       </c>
       <c r="J1155" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'mrros', 'hus850', 'mrro', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'zg200', 'zg500']</t>
+          <t>['hfss', 'evspsbl', 'huss', 'mrros', 'mrro', 'clt', 'rlut', 'mrso', 'prsn', 'ps', 'sfcWindmax', 'rsdt', 'hfls', 'hus850', 'rlds', 'rlus', 'prc', 'psl', 'pr', 'rsds', 'rsus', 'va200', 'ts', 'zg200', 'rsut', 'sfcWind', 'sic', 'tauu', 'tas', 'ta500', 'ta850', 'uas', 'ua200', 'ua850', 'snm', 'tauv', 'tasmax', 'tasmin', 'snw', 'ta200', 'vas', 'va500', 'va850', 'ua500', 'wsgsmax', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -38162,7 +38162,7 @@
       </c>
       <c r="J1156" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
+          <t>['evspsbl', 'huss', 'hfss', 'hfls', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'hus850', 'clt', 'rsds', 'rlds', 'rlus']</t>
         </is>
       </c>
     </row>
@@ -38194,7 +38194,7 @@
       </c>
       <c r="J1157" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va200', 'va850', 'va500', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
+          <t>['zg500', 'zg200', 'evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va200', 'va850', 'va500', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -38234,7 +38234,7 @@
       </c>
       <c r="J1158" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -38270,7 +38270,7 @@
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'mrso', 'prc', 'huss', 'mrros', 'psl', 'prsn', 'mrro', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snm', 'tas', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'tauv', 'tauu', 'tasmin', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
+          <t>['vas', 'zg200', 'va850', 'clt', 'prc', 'mrros', 'mrro', 'rsus', 'rsdt', 'snw', 'ta200', 'ta850', 'tauv', 'tasmin', 'uas', 'zg500', 'va500', 'evspsbl', 'mrso', 'huss', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rlds', 'rlus', 'rsut', 'rlut', 'sfcWind', 'hus850', 'pr', 'tasmax', 'snm', 'tas', 'sic', 'ta500', 'tauu', 'va200', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'hfss', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -38302,7 +38302,7 @@
       </c>
       <c r="J1160" t="inlineStr">
         <is>
-          <t>['zg500', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfls', 'evspsbl', 'clt', 'rlds', 'hfss', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['tasmax', 'tasmin', 'snw', 'ta200', 'ta500', 'ta850', 'evspsbl', 'clt', 'va850', 'ua200', 'va500', 'ua500', 'ua850', 'rlds', 'hfss', 'mrso', 'huss', 'hus850', 'sfcWindmax', 'rsds', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'vas', 'zg200', 'uas', 'va200', 'mrros', 'psl', 'mrro', 'pr', 'rsus', 'rsut', 'sic', 'snm', 'tas', 'hfls', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -38334,7 +38334,7 @@
       </c>
       <c r="J1161" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ta850', 'ua200', 'ua500', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500']</t>
+          <t>['zg500', 'va850', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'vas', 'zg200', 'sfcWindmax', 'rsut', 'sic', 'ta200', 'sfcWind', 'snm', 'snw', 'ta500', 'rsds', 'rlds', 'mrso', 'pr', 'va500', 'hfss', 'hfls', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ta850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -38370,7 +38370,7 @@
       </c>
       <c r="J1162" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'wsgsmax', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'snm', 'tas', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'mrso', 'prc', 'huss', 'mrros', 'hus850', 'prsn', 'mrro', 'ps', 'pr', 'tauv', 'tasmax', 'tasmin', 'tauu', 'uas', 'ua200', 'ua500', 'ua850', 'ts']</t>
+          <t>['tas', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'pr', 'tasmax', 'tasmin', 'tauu', 'mrso', 'prsn', 'tauv', 'uas', 'prc', 'huss', 'mrros', 'hus850', 'mrro', 'ps', 'ua200', 'clt', 'sfcWindmax', 'snm', 'ua500', 'ua850', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'wsgsmax', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -38402,7 +38402,7 @@
       </c>
       <c r="J1163" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
+          <t>['rsut', 'sfcWind', 'rsdt', 'rlut', 'tasmax', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500', 'snm', 'snw', 'tas', 'sic', 'tasmin', 'va500', 'va850', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va200', 'evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus']</t>
         </is>
       </c>
     </row>
@@ -38434,7 +38434,7 @@
       </c>
       <c r="J1164" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['hus850', 'clt', 'rlds', 'rlus', 'rsdt', 'mrso', 'mrros', 'snw', 'sic', 'ta200', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'mrro', 'rsds', 'pr', 'sfcWind', 'vas', 'zg200', 'zg500', 'va200', 'rlut', 'psl', 'sfcWindmax', 'rsus', 'rsut', 'snm', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -38862,7 +38862,7 @@
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -50566,7 +50566,7 @@
       </c>
       <c r="J1550" t="inlineStr">
         <is>
-          <t>['clwvi', 'clivi', 'mrso', 'evspsbl', 'prc', 'prw', 'mrros', 'sic', 'prsn', 'mrro', 'ps', 'zmla', 'snm', 'snw', 'vas', 'snc', 'ts', 'snd']</t>
+          <t>['clwvi', 'clivi', 'evspsbl', 'prc', 'mrros', 'sic', 'mrro', 'zmla', 'mrso', 'snm', 'vas', 'prw', 'prsn', 'ps', 'snw', 'snd', 'ts', 'snc']</t>
         </is>
       </c>
     </row>
@@ -50654,7 +50654,7 @@
       </c>
       <c r="J1553" t="inlineStr">
         <is>
-          <t>['uas', 'huss']</t>
+          <t>['huss', 'uas']</t>
         </is>
       </c>
     </row>
@@ -50682,7 +50682,7 @@
       </c>
       <c r="J1554" t="inlineStr">
         <is>
-          <t>['evspsbl', 'mrro', 'mrso', 'mrros', 'snm', 'vas', 'snw', 'snc', 'sic', 'snd']</t>
+          <t>['evspsbl', 'mrro', 'mrso', 'snm', 'snw', 'mrros', 'vas', 'snc', 'sic', 'snd']</t>
         </is>
       </c>
     </row>
@@ -50710,7 +50710,7 @@
       </c>
       <c r="J1555" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds']</t>
+          <t>['rlds', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -50738,7 +50738,7 @@
       </c>
       <c r="J1556" t="inlineStr">
         <is>
-          <t>['clivi', 'zmla', 'ts', 'clwvi', 'prc', 'prw', 'prsn', 'ps']</t>
+          <t>['clwvi', 'prc', 'prsn', 'ps', 'prw', 'ts', 'clivi', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -50826,7 +50826,7 @@
       </c>
       <c r="J1559" t="inlineStr">
         <is>
-          <t>['evspsbl', 'mrso', 'mrros', 'snm', 'vas', 'snw', 'snc', 'sic', 'mrro', 'snd']</t>
+          <t>['mrso', 'evspsbl', 'mrros', 'snm', 'sic', 'mrro', 'snd', 'vas', 'snw', 'snc']</t>
         </is>
       </c>
     </row>
@@ -50854,7 +50854,7 @@
       </c>
       <c r="J1560" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds']</t>
+          <t>['rlds', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -50882,7 +50882,7 @@
       </c>
       <c r="J1561" t="inlineStr">
         <is>
-          <t>['prw', 'prsn', 'ps', 'clwvi', 'prc', 'clivi', 'zmla', 'ts']</t>
+          <t>['clivi', 'ts', 'zmla', 'prw', 'prsn', 'ps', 'clwvi', 'prc']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['snw', 'snc', 'snd', 'zmla', 'zg500', 'hfss', 'rsdt', 'sfcWind', 'mrso', 'mrro', 'rsus', 'rsut', 'hfls', 'rlds', 'rlut', 'rsds', 'prhmax', 'rlus', 'prc', 'prw', 'psl', 'ps', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'mrfso', 'mrros', 'huss', 'hus850', 'pr', 'sfcWindmax', 'snm', 'clwvi', 'tasmax', 'tasmin', 'sund', 'ta850', 'ts', 'ua200', 'ta200', 'ta500', 'clivi', 'clt', 'tas']</t>
+          <t>['clwvi', 'clivi', 'clt', 'tasmax', 'tasmin', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'zmla', 'zg500', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'ps', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['ta850', 'hfls', 'hus850', 'tasmax', 'tasmin', 'tas', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'mrfso', 'hfss', 'huss', 'clt', 'rsdt', 'sfcWind', 'snm', 'snw', 'sfcWindmax', 'rsus', 'rsut', 'snd', 'snc', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850']</t>
+          <t>['rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta500', 'pr', 'rsus', 'rlus', 'rsut', 'psl', 'hus850', 'zg200', 'va850', 'mrro', 'vas', 'zg500', 'va500', 'mrros', 'hfss', 'hfls', 'mrfso', 'mrso', 'huss', 'sund', 'ta200', 'ua200', 'ua500', 'ua850', 'ta850', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'rsds', 'rlds', 'rsdt', 'rlut']</t>
+          <t>['clt', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['sfcWind', 'snd', 'rsus', 'ps', 'va500', 'va850', 'mrso', 'prc', 'ua500', 'ts', 'ua850', 'zg200', 'zg500', 'hfss', 'clwvi', 'mrfso', 'mrro', 'wsgsmax', 'zmla', 'clivi', 'clt', 'hfls', 'mrros', 'huss', 'hus850', 'rsds', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rlds', 'prhmax', 'rlus', 'prw', 'psl', 'pr', 'vas', 'uas', 'va200', 'ua200']</t>
+          <t>['tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd', 'clivi', 'clt', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'huss', 'hus850', 'mrro', 'wsgsmax', 'zmla', 'zg200', 'zg500', 'rlds', 'prhmax', 'rlus', 'mrso', 'prc', 'prw', 'psl', 'ps', 'pr', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts']</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'mrso', 'psl', 'pr', 'mrros', 'huss', 'mrro', 'zg500', 'ta850', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'hus850', 'clt', 'vas', 'zg200', 'uas', 'va200', 'va850', 'ua200', 'ua500', 'ua850', 'va500', 'hfls', 'hfss', 'mrfso', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'zg500', 'hfss', 'hfls', 'hus850', 'clt', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['hfss', 'huss', 'mrro', 'clt', 'hfls', 'mrfso', 'hus850', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'tasmin', 'tasmax', 'ta500', 'ta850', 'rsut', 'snw', 'rsus', 'snd', 'snm', 'sund', 'snc', 'rlus', 'zg200', 'zg500', 'rsds', 'rlds', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'vas', 'uas', 'va200', 'va500', 'va850']</t>
+          <t>['rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'mrro', 'clt', 'rsus', 'rsut', 'snm', 'snw', 'sund', 'snc', 'snd', 'tasmin', 'tasmax', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['mrros', 'psl', 'mrso', 'prc', 'prw', 'ps', 'pr', 'mrro', 'hfls', 'mrfso', 'hfss', 'clwvi', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'sfcWind', 'wsgsmax', 'zmla', 'va850', 'sfcWindmax', 'rlut', 'vas', 'zg200', 'zg500', 'ua200', 'snm', 'snw', 'tas', 'snc', 'tasmax', 'uas', 'va500', 'ua500', 'clivi', 'huss', 'hus850', 'clt', 'tasmin', 'va200', 'ua850', 'ts', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax']</t>
+          <t>['prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'mrro', 'ps', 'pr', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'ua500', 'ua850', 'ts', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rsds', 'rlds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['hfss', 'mrfso', 'rsdt', 'zg200', 'hfls', 'va200', 'clt', 'tasmax', 'tasmin', 'uas', 'sfcWindmax', 'rlds', 'rlus', 'rsut', 'rlut', 'sfcWind', 'vas', 'rsds', 'rsus', 'zg500', 'mrso', 'psl', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'snm', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'zg200', 'zg500', 'snm', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'hfls', 'clt', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['huss', 'hfls', 'hus850', 'hfss', 'clt', 'rlds', 'rlut', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'rlus', 'mrfso', 'mrso', 'mrros', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
+          <t>['rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'huss', 'hus850', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['clwvi', 'hfls', 'tas', 'ua500', 'ua850', 'ta850', 'ts', 'mrso', 'prc', 'mrros', 'huss', 'vas', 'va850', 'clivi', 'tasmin', 'uas', 'hfss', 'hus850', 'clt', 'tasmax', 'ua200', 'rsds', 'rlds', 'rsus', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'prhmax', 'mrfso', 'prw', 'mrro', 'pr', 'wsgsmax', 'zmla', 'zg200', 'zg500', 'va200', 'va500']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'ua200', 'ua500', 'ua850', 'ta850', 'ts', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'huss', 'mrro', 'pr', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'tasmin', 'tas', 'va200', 'ta850', 'va500', 'uas', 'ua200', 'ua500', 'ua850', 'zg200', 'tasmax', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'snw', 'sund', 'ta200', 'ta500', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'clt', 'vas', 'zg500', 'va850']</t>
+          <t>['sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'rsdt', 'vas', 'uas', 'va500', 'ua500', 'ua850', 'tasmin', 'va200', 'va850', 'ua200', 'tasmax', 'sund', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rlus', 'rsut', 'rlut', 'sfcWind', 'snc', 'zg200', 'zg500']</t>
+          <t>['tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'hfss', 'hfls', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['ua200', 'ta200', 'ta500', 'ts', 'clt', 'clwvi', 'ta850', 'rlds', 'rlus', 'prw', 'ps', 'tasmin', 'tas', 'rsds', 'prhmax', 'rsdt', 'rlut', 'psl', 'tasmax', 'ua500', 'hfss', 'mrfso', 'hus850', 'mrro', 'pr', 'wsgsmax', 'va200', 'va500', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'snd', 'zmla', 'mrso', 'prc', 'mrros', 'huss', 'vas', 'zg200', 'zg500', 'uas', 'va850', 'ua850', 'hfls', 'clivi']</t>
+          <t>['hfss', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'rsds', 'rlds', 'prhmax', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'tasmax', 'tasmin', 'tas', 'ua500', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'snd', 'zmla', 'clwvi', 'hfls', 'clivi', 'clt']</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['rsds', 'rsdt', 'rlut', 'mrso', 'tas', 'ua200', 'ua500', 'ua850', 'rlus', 'mrros', 'psl', 'pr', 'tasmax', 'tasmin', 'ta200', 'ta500', 'ta850', 'rlds', 'rsus', 'rsut', 'snc', 'sund', 'hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'mrro', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'snd']</t>
+          <t>['sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'mrro', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'tasmax', 'tasmin', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'mrros', 'pr', 'tasmax', 'uas', 'va200', 'mrfso', 'huss', 'hus850', 'mrro', 'ua200', 'ua500', 'ua850', 'tasmin', 'tas', 'va500', 'rsds', 'rlds', 'rsut', 'sfcWind', 'zg500', 'clt', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlus', 'rsdt', 'rlut', 'psl', 'vas', 'zg200', 'va850', 'rsus']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'zg200', 'zg500', 'va850', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'clt', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['rsut', 'snc', 'rsds', 'rsus', 'hfls', 'clt', 'ua500', 'snd', 'hurs', 'zmla', 'sund', 'rlut', 'mrros', 'huss', 'prsn', 'va200', 'ua200', 'ts', 'rlds', 'hfss', 'tasmin', 'mrfso', 'tas', 'hus850', 'ta850', 'prhmax', 'va850', 'mrso', 'evspsbl', 'uas', 'va500', 'ta500', 'ta200', 'clwvi', 'mrro', 'snm', 'snw', 'rsdt', 'sfcWindmax', 'pr', 'rlus', 'tasmax', 'ua850', 'prw', 'sfcWind', 'zg200', 'wsgsmax', 'vas', 'psl', 'ps', 'zg500', 'clivi', 'prc']</t>
+          <t>['rsdt', 'mrso', 'evspsbl', 'sfcWindmax', 'tasmax', 'uas', 'va500', 'ta500', 'ua850', 'ta200', 'clwvi', 'prw', 'mrro', 'pr', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'sfcWind', 'vas', 'psl', 'ps', 'zg500', 'clivi', 'prc', 'hus850', 'va850', 'ta850', 'prhmax', 'hurs', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'huss', 'snc', 'prsn', 'rsds', 'rsus', 'va200', 'ua200', 'ts', 'rlds', 'hfss', 'tasmin', 'hfls', 'clt', 'mrfso', 'tas', 'ua500', 'snd']</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['sfcWind', 'pr', 'psl', 'evspsbl', 'snd', 'sfcWindmax', 'rsds', 'ua850', 'tasmax', 'rsut', 'vas', 'va500', 'clt', 'uas', 'rsus', 'mrros', 'tas', 'mrfso', 'ta200', 'hfls', 'rsdt', 'sund', 'va200', 'mrso', 'hfss', 'rlut', 'snw', 'zg200', 'ta850', 'ta500', 'snc', 'hurs', 'rlds', 'snm', 'ua500', 'hus850', 'huss', 'ua200', 'tasmin', 'zg500', 'rlus', 'va850', 'mrro']</t>
+          <t>['zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'huss', 'hurs', 'ua200', 'rlds', 'tasmin', 'zg500', 'rlus', 'snm', 'va850', 'mrro', 'ua500', 'hfls', 'rsut', 'sfcWind', 'pr', 'vas', 'psl', 'va500', 'ta200', 'clt', 'evspsbl', 'uas', 'snd', 'rsus', 'mrros', 'sfcWindmax', 'rsds', 'tas', 'ua850', 'mrfso', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['huss', 'zg200', 'vas', 'mrros', 'tasmax', 'va850', 'snw', 'ua850', 'tas', 'rsus', 'mrfso', 'evspsbl', 'ua200', 'psl', 'tasmin', 'snm', 'ua500', 'rsut', 'mrso', 'hfls', 'rlut', 'va200', 'ta500', 'snc', 'va500', 'rlus', 'ta200', 'hurs', 'sund', 'rsds', 'mrro', 'pr', 'hfss', 'ta850', 'sfcWindmax', 'hus850', 'rsdt', 'sfcWind', 'uas', 'rlds', 'zg500', 'clt', 'snd']</t>
+          <t>['rlut', 'va200', 'ta200', 'ta500', 'hurs', 'sund', 'snc', 'va500', 'rsds', 'rlus', 'rsdt', 'mrro', 'pr', 'hfss', 'sfcWind', 'uas', 'rlds', 'zg500', 'ta850', 'hus850', 'clt', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'tas', 'psl', 'huss', 'zg200', 'vas', 'mrros', 'rsus', 'mrfso', 'tasmin', 'tasmax', 'evspsbl', 'va850', 'ua200', 'snm', 'snw', 'ua850', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['uas', 'tasmin', 'hfss', 'hfls', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'rsus', 'rsdt', 'snm', 'snc', 'snd', 'zmla', 'zg500', 'sfcWindmax', 'rsds', 'rsut', 'sfcWind', 'zg200', 'prw', 'psl', 'pr', 'ps', 'mrfso', 'prc', 'clivi', 'rlds', 'prhmax', 'rlus', 'rlut', 'clwvi', 'clt', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['clwvi', 'clivi', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'zmla', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['rlus', 'psl', 'rlds', 'mrfso', 'mrso', 'mrros', 'ua850', 'hus850', 'hfss', 'hfls', 'huss', 'clt', 'vas', 'zg200', 'zg500', 'rsdt', 'rsut', 'sfcWind', 'snd', 'snm', 'sfcWindmax', 'rsds', 'rsus', 'snc', 'rlut', 'mrro', 'pr', 'uas', 'va200', 'va500', 'va850', 'ua500', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200']</t>
+          <t>['tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'hfss', 'hfls', 'huss', 'hus850', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['vas', 'hfls', 'mrfso', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rsus', 'rsdt', 'pr', 'ta500', 'ua850', 'sfcWind', 'sund', 'snc', 'ta200', 'snd', 'tasmin', 'uas', 'ta850', 'ua200', 'ua500', 'sfcWindmax', 'rsut', 'snm', 'snw', 'tasmax', 'tas', 'hfss', 'mrros', 'huss', 'rlus', 'rlut', 'mrso', 'psl', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'mrfso', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['clivi', 'ta850', 'tasmax', 'snm', 'ta200', 'mrso', 'rlds', 'prw', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'rlut', 'hfss', 'clwvi', 'hfls', 'mrfso', 'huss', 'clt', 'tasmin', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'hus850', 'mrro', 'uas', 'ua850', 'ts', 'prhmax', 'prc', 'mrros', 'zmla', 'zg500', 'psl', 'ps', 'pr', 'wsgsmax', 'vas', 'zg200', 'snw', 'tas', 'sund', 'ta500', 'snd']</t>
+          <t>['clivi', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'ps', 'pr', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'hfss', 'clwvi', 'hfls', 'mrfso', 'huss', 'hus850', 'mrro', 'clt', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc']</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['rlds', 'snc', 'zg200', 'rlut', 'sfcWind', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'tasmin', 'vas', 'va850', 'ua200', 'ua850', 'hfss', 'hfls', 'clt', 'uas', 'va200', 'va500', 'ua500', 'ta500', 'ta850', 'snd', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'pr', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'psl', 'mrro']</t>
+          <t>['tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'hfss', 'hfls', 'clt', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'zg200', 'zg500', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'huss', 'clt', 'hus850', 'ta200', 'ta500', 'ta850', 'ua200', 'tasmax', 'tasmin', 'tas', 'sund', 'ua500', 'rsds', 'rlus', 'mrso', 'psl', 'mrro', 'sfcWindmax', 'rsdt', 'sfcWind', 'snw', 'snc', 'va500', 'va850', 'rlds', 'rlut', 'mrros', 'pr', 'rsus', 'rsut', 'snm', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'ua850']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['rlds', 'ps', 'hfss', 'psl', 'tas', 'sund', 'hfls', 'hurs', 'huss', 'rlus', 'sfcWind', 'rsds', 'rsus', 'pr', 'prc']</t>
+          <t>['rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss']</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['zg200', 'rsdt', 'snd', 'mrro', 'zmla', 'clivi', 'ua500', 'clwvi', 'snm', 'va500', 'mrros', 'evspsbl', 'va850', 'hus850', 'ta850', 'ta500', 'snw', 'va200', 'ua200', 'ua850', 'mrso', 'zg500', 'mrfso', 'rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200']</t>
+          <t>['rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'prsn', 'hurs', 'tasmax', 'sfcWind', 'ua850', 'tasmin', 'ua200', 'rsut', 'prc', 'mrso', 'rsds', 'va500', 'wsgsmax', 'zg200', 'va850', 'hus850', 'uas', 'ta500', 'clivi', 'pr', 'ps', 'hfss', 'zg500', 'psl', 'hfls', 'rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw']</t>
+          <t>['rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['ua200', 'mrros', 'mrso', 'uas', 'snm', 'mrro', 'ta850', 'zg200', 'rlut', 'hfls', 'mrfso', 'ua500', 'ta500', 'rsdt', 'psl', 'hfss', 'tasmin', 'hurs', 'vas', 'rlus', 'evspsbl', 'tas', 'pr', 'ua850', 'snd', 'tasmax', 'va200', 'rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850']</t>
+          <t>['rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['rlds', 'mrros', 'ta500', 'rsus', 'rsut', 'mrro', 'hurs', 'ta850', 'ua850', 'rsdt', 'evspsbl', 'va500', 'snd', 'tas', 'tasmax', 'snm', 'rsds', 'rlus', 'ua200', 'va200', 'mrfso', 'hus850', 'ta200', 'hfls', 'hfss', 'zg200', 'ua500', 'rlut', 'uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw']</t>
+          <t>['uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'va200', 'ua500', 'ua200', 'zmla', 'clt', 'uas', 'vas', 'va850', 'tas', 'ua850', 'ts', 'wsgsmax', 'zg200', 'zg500', 'va500', 'mrfso', 'prc', 'prw', 'mrros', 'mrro', 'prhmax', 'mrso', 'ps', 'pr', 'clwvi', 'hfls', 'evspsbl', 'clivi', 'hus850', 'hfss', 'huss', 'rlds', 'rsus', 'rsdt', 'rsut', 'psl', 'rsds', 'rlus', 'rlut', 'sfcWind', 'snd', 'sund', 'ta500', 'ta850', 'sfcWindmax', 'snm', 'snw', 'snc', 'ta200']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'clivi', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'ua500', 'ua200', 'ua850', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'ps', 'pr', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['clt', 'mrfso', 'mrros', 'mrro', 'pr', 'rsds', 'rlus', 'rsdt', 'sfcWind', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'va200', 'va500', 'zg200', 'zg500', 'mrso', 'huss', 'sfcWindmax', 'snm', 'tasmin', 'ua850', 'vas', 'va850', 'evspsbl', 'hus850', 'rlds', 'rsus', 'rsut', 'rlut', 'psl', 'uas', 'tas', 'ua200', 'ua500', 'hfss', 'hfls']</t>
+          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'rsdt', 'rlut', 'snc', 'tasmax', 'tasmin', 'snm', 'sund', 'uas', 'va850', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'va200', 'va500', 'ua200', 'zg500', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsut', 'sfcWind', 'snd', 'snw', 'tas', 'rlus', 'psl']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'clivi', 'rlus', 'zmla', 'zg200', 'uas', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'rsds', 'rsus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'rsut', 'snw', 'snc', 'snd', 'tas', 'ua500', 'ua850', 'zg500', 'sfcWindmax', 'sfcWind', 'snm', 'sund', 'ta200', 'tasmax', 'tasmin', 'ta500', 'ta850', 'ua200', 'ts', 'wsgsmax', 'vas', 'va200', 'va500', 'va850', 'evspsbl', 'clt', 'rlds']</t>
+          <t>['hfss', 'clwvi', 'hfls', 'clivi', 'evspsbl', 'clt', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['rsdt', 'rlut', 'hfls', 'evspsbl', 'hus850', 'clt', 'rsds', 'tasmin', 'uas', 'ua200', 'ua850', 'va200', 'va500', 'va850', 'snd', 'tasmax', 'tas', 'ua500', 'vas', 'ta500', 'ta850', 'zg200', 'zg500', 'hfss', 'mrfso', 'mrros', 'huss', 'mrro', 'rlds', 'rsus', 'rlus', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'snm', 'tasmax', 'ua850', 'va200', 'va850', 'ua500', 'ua200', 'zg200', 'zg500', 'vas', 'clt', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'rsds', 'rsus', 'rlus', 'rlut', 'pr', 'sfcWindmax', 'rlds', 'rsdt', 'rsut', 'sfcWind', 'evspsbl', 'hfls', 'tasmin', 'uas', 'va500']</t>
+          <t>['hfls', 'evspsbl', 'clt', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg200', 'zg500', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['sfcWind', 'snm', 'tasmax', 'ta500', 'snw', 'snc', 'snd', 'tasmin', 'tas', 'ta200', 'ta850', 'ua200', 'sund', 'ts', 'sfcWindmax', 'rsdt', 'rsus', 'rsut', 'evspsbl', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'clwvi', 'clivi', 'clt', 'wsgsmax', 'va850', 'ua850', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'rlds', 'prw', 'psl', 'ps', 'hfss', 'rlut', 'prc', 'rsds', 'prhmax', 'rlus', 'zmla', 'zg500']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'ps', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ts', 'clwvi', 'evspsbl', 'clivi', 'clt', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'zmla', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['tasmin', 'ta500', 'ta850', 'sund', 'ta200', 'ua200', 'tasmax', 'tas', 'ua500', 'hfss', 'snd', 'sfcWind', 'snm', 'snw', 'snc', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rsds', 'rlds', 'rlus', 'mrros', 'mrro', 'pr', 'rlut', 'mrso', 'psl', 'mrfso', 'evspsbl', 'huss', 'hus850', 'clt', 'vas', 'zg500', 'uas', 'ua850', 'hfls', 'zg200', 'va200', 'va500', 'va850']</t>
+          <t>['rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hus850', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['pr', 'sfcWindmax', 'sfcWind', 'sund', 'va850', 'vas', 'zg200', 'zg500', 'va500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'hus850', 'mrro', 'rsut', 'rlut', 'clt', 'mrfso', 'huss', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'psl', 'snm', 'snw', 'snc', 'ta200', 'ta500', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850']</t>
+          <t>['clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['rsds', 'rsut', 'rlut', 'snc', 'snd', 'sfcWindmax', 'rsus', 'rsdt', 'sfcWind', 'hfls', 'hfss', 'mrfso', 'huss', 'mrros', 'hus850', 'mrro', 'vas', 'va500', 'ua500', 'ua200', 'ts', 'tasmax', 'tasmin', 'snw', 'sund', 'snm', 'tas', 'ta200', 'ta500', 'ta850', 'uas', 'va200', 'va850', 'ua850', 'clwvi', 'rlds', 'prc', 'pr', 'wsgsmax', 'zmla', 'zg500', 'psl', 'ps', 'zg200', 'prhmax', 'rlus', 'mrso', 'prw', 'clivi', 'clt']</t>
+          <t>['rlds', 'prhmax', 'rlus', 'mrso', 'prc', 'prw', 'psl', 'ps', 'pr', 'wsgsmax', 'zmla', 'zg200', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'clivi', 'clt', 'hfss', 'clwvi', 'hfls', 'mrfso', 'huss', 'mrros', 'hus850', 'mrro', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'ts']</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['rlus', 'mrfso', 'mrso', 'mrros', 'pr', 'zg500', 'rlds', 'huss', 'psl', 'mrro', 'snm', 'tas', 'tasmin', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsdt', 'snc', 'snd', 'rsus', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snw', 'sund', 'hfss', 'hfls', 'clt', 'zg200', 'uas', 'va500', 'ua500', 'hus850', 'vas', 'va200', 'va850', 'ua200', 'ua850']</t>
+          <t>['hfss', 'hfls', 'hus850', 'clt', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['hfls', 'mrfso', 'clt', 'hfss', 'huss', 'hus850', 'mrro', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'sfcWind', 'va500', 'va850', 'rsdt', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'rsds', 'snc', 'sund', 'snd', 'tasmin', 'ta200', 'ta850', 'ua500', 'vas', 'uas', 'snm', 'snw', 'tasmax', 'tas', 'ta500', 'ua200', 'ua850', 'zg200', 'zg500', 'va200']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'snd', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['zmla', 'zg200', 'vas', 'zg500', 'va850', 'hfss', 'mrfso', 'clivi', 'clt', 'mrso', 'prc', 'mrros', 'ps', 'pr', 'sfcWindmax', 'rlds', 'rsus', 'rsut', 'rlut', 'sfcWind', 'rsdt', 'ts', 'ta500', 'snd', 'tasmax', 'va500', 'ta200', 'ta850', 'tasmin', 'clwvi', 'hfls', 'huss', 'hus850', 'prhmax', 'prw', 'psl', 'mrro', 'rsds', 'rlus', 'snm', 'wsgsmax', 'tas', 'snw', 'snc', 'sund', 'uas', 'va200', 'ua200', 'ua500', 'ua850']</t>
+          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'huss', 'hus850', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'mrro', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'tas', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'ts']</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['clt', 'ua200', 'ua500', 'vas', 'zg200', 'zg500', 'ta850', 'snd', 'tasmin', 'va500', 'va850', 'ua850', 'mrso', 'mrros', 'psl', 'sfcWindmax', 'rsds', 'rsdt', 'sfcWind', 'snm', 'sund', 'snc', 'ta500', 'hfss', 'mrfso', 'huss', 'hus850', 'mrro', 'pr', 'rlds', 'rsus', 'rlus', 'rsut', 'rlut', 'snw', 'tas', 'ta200', 'tasmax', 'uas', 'va200', 'hfls']</t>
+          <t>['hfls', 'clt', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'vas', 'zg200', 'va200', 'zg500', 'va500', 'va850', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrros', 'mrro', 'sfcWindmax', 'clt', 'mrso', 'psl', 'pr', 'rsds', 'rsus', 'rsdt', 'rsut', 'snw', 'sund', 'uas', 'ua500', 'ua850', 'hfls', 'hfss', 'huss', 'hus850']</t>
+          <t>['hfss', 'hfls', 'huss', 'hus850', 'clt', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['va200', 'va500', 'va850', 'hfss', 'clivi', 'rsds', 'rlds', 'clwvi', 'hfls', 'hus850', 'clt', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'rlus', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'snc', 'ta500', 'snd', 'tasmax', 'tasmin', 'sund', 'ta200', 'tas', 'uas', 'ua850', 'ts', 'ta850', 'ua200', 'ua500', 'rsus', 'mrfso', 'mrros', 'prhmax', 'prw', 'huss', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'mrso', 'prc', 'mrro', 'pr']</t>
+          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'ua200', 'ua500', 'ua850', 'ts', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'huss', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'mrros', 'hfss', 'mrfso', 'mrso', 'psl', 'sfcWindmax', 'sfcWind', 'sund', 'snc', 'ta200', 'ta500', 'tasmax', 'tas', 'ta850', 'va200', 'ua500', 'huss', 'hus850', 'mrro', 'rlds', 'rsus', 'rsut', 'rlut', 'pr', 'snm', 'ua850', 'zg200', 'zg500', 'va850', 'rsds', 'rlus', 'rsdt', 'snw', 'snd', 'tasmin', 'uas', 'ua200', 'vas', 'va500']</t>
+          <t>['clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'va200', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['mrso', 'hus850', 'psl', 'mrro', 'pr', 'rlus', 'rsdt', 'tasmax', 'snm', 'sund', 'vas', 'uas', 'ua500', 'ua850', 'hfls', 'clt', 'mrfso', 'huss', 'rsds', 'rsus', 'rsut', 'rlut', 'snw', 'tas', 'ta200', 'ta500', 'tasmin', 'va850', 'hfss', 'rlds', 'mrros', 'snc', 'ta850', 'snd', 'va200', 'va500', 'ua200', 'zg200', 'zg500']</t>
+          <t>['hfss', 'hfls', 'clt', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['tds', 'pr', 'ua100m', 'va100m', 'tas', 'prc']</t>
+          <t>['ua100m', 'va100m', 'tas', 'tds', 'pr', 'prc']</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['cape', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'clt', 'hfss', 'rsus', 'rlus', 'ts', 'tas', 'sfcWind', 'psl', 'rlds', 'rsds', 'sund']</t>
+          <t>['cape', 'clt', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'psl', 'rlds', 'rlus', 'rsds', 'ts', 'sund', 'tas']</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['ta925', 'ts', 'ua300', 'ua400', 'ua500', 'ua700', 'ua850', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'ta700', 'ua600', 'ta400', 'ta850', 'ta500', 'ta600', 'va925', 'vas', 'ua925', 'uas', 'zg100', 'zg300', 'zg400', 'mrso', 'rsdt', 'snm', 'snw', 'snc', 'snd', 'hus850', 'hus925', 'hus400', 'hus600', 'zg200', 'zg500', 'zg600', 'va100', 'va200', 'va700', 'va850', 'va300', 'va400', 'va500', 'va600', 'mrfso', 'mrro', 'rsut', 'hus500', 'hus700', 'prw', 'rlut', 'mrros', 'zg700', 'zg850', 'clwvi', 'clivi', 'hus100', 'hus200', 'clm', 'cll', 'evspsbl', 'clh', 'hus300', 'zg925', 'zmla']</t>
+          <t>['prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hus850', 'hus925', 'hus400', 'hus500', 'hus600', 'hus700', 'va925', 'vas', 'ua925', 'uas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va100', 'va200', 'va700', 'va850', 'va300', 'va400', 'va500', 'va600', 'ta925', 'ts', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'ta400', 'ta700', 'ta850', 'ta500', 'ta600', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus200', 'hus300', 'zg925', 'zmla', 'zg700', 'zg850']</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['rsds', 'rsdt', 'rsus', 'rsut', 'zg925', 'zmla', 'tas', 'tasmax', 'ts', 'va600', 'ua600', 'ua700', 'ua100', 'ua300', 'zg850', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'tasmin', 'ua925', 'uas', 'va100', 'va200', 'va700', 'va850', 'va925', 'vas', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'ua500', 'ua850', 'ua200', 'ua400', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus500', 'hus700', 'pr', 'prc', 'snd', 'snm', 'snw', 'ta100', 'ta700', 'ta500', 'rlut', 'psl', 'sund', 'ta600', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'rlds', 'rlus', 'clwvi', 'evspsbl', 'hurs', 'clh', 'clt', 'prhmax', 'prw', 'ps', 'mrros', 'mrso', 'hfls', 'hfss', 'clivi', 'cll', 'clm', 'prsn', 'sfcWind', 'sfcWindmax', 'snc', 'hus400', 'hus600', 'hus850']</t>
+          <t>['zg850', 'zg925', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va700', 'va850', 'va925', 'vas', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ua100', 'ua200', 'ua300', 'ua400', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta600', 'ta700', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'rlds', 'rlus', 'rlut', 'psl', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'huss', 'mrso', 'hfls', 'hfss', 'hurs', 'hus100', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'hus600', 'hus700', 'ua400', 'ua500', 'ua850', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'snm', 'snw', 'sund', 'ta100', 'mrfso', 'mrro', 'mrros', 'pr', 'hus200', 'hus300', 'hus400', 'hus500', 'hus850', 'hus925', 'ua300', 'ua600', 'ua700', 'ta400', 'ta200', 'psl', 'rlds', 'rlus', 'clt', 'evspsbl', 'zg700', 'zg850', 'zg925', 'va200', 'va400', 'va500', 'va600', 'va700', 'va925', 'zg600', 'ua925', 'uas', 'va100', 'va300', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500']</t>
+          <t>['clt', 'evspsbl', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'zg700', 'zg850', 'zg925', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'sund', 'va700', 'va925', 'zg100', 'zg200', 'ua500', 'ua600', 'ua850', 'uas', 'ta850', 'tas', 'va100', 'va400', 'va500', 'zg300', 'zg500', 'tasmin', 'ua100', 'ua200', 'ua400', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'va850', 'vas', 'ua700', 'ua925', 'ta500', 'ta600', 'ta700', 'ta925', 'va200', 'va300', 'va600', 'zg400', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'clt', 'evspsbl', 'hfls', 'hfss', 'hus100', 'hus500', 'hus700', 'hus850', 'hus925', 'huss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus600', 'tasmax']</t>
+          <t>['zg600', 'zg700', 'zg850', 'zg925', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg300', 'zg400', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['cape', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'hfls', 'prc', 'huss', 'hurs', 'ps', 'hfss', 'evspsbl', 'clt', 'pr']</t>
+          <t>['hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape']</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['uas', 'va100', 'va200', 'va500', 'va700', 'va300', 'va400', 'va600', 'ua925', 'mrro', 'rsdt', 'rsut', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta100', 'ta500', 'ta700', 'ta925', 'ua100', 'ua500', 'ua200', 'ua300', 'ua400', 'ua600', 'ua700', 'ua850', 'ts', 'zg700', 'zg850', 'zg925', 'zmla', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ta600', 'ta200', 'ta300', 'ta400', 'ta850', 'vas', 'zg100', 'zg400', 'zg500', 'va925', 'zg200', 'zg300', 'zg600', 'va850']</t>
+          <t>['clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['zg200', 'zg700', 'zg600', 'zg850', 'zg300', 'zg400', 'zg500', 'zg925', 'zmla', 'zg100', 'snd', 'prw', 'ps', 'rlus', 'mrros', 'mrso', 'mrfso', 'mrro', 'prc', 'hus850', 'hus200', 'hus300', 'hus500', 'hus600', 'hurs', 'hus100', 'pr', 'hus925', 'huss', 'hus700', 'hus400', 'vas', 'wsgsmax', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'clh', 'hfls', 'hfss', 'clt', 'snc', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'tasmin', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'tasmax', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'uas', 'va100']</t>
+          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['hus400', 'hurs', 'hus100', 'hus700', 'hus850', 'hus500', 'clt', 'evspsbl', 'hus200', 'hus300', 'hus600', 'hfls', 'hfss', 'zg400', 'va600', 'ta700', 'ta850', 'ta925', 'ua400', 'ua600', 'ua700', 'zg300', 'va700', 'va850', 'ua200', 'ua300', 'ua500', 'psl', 'snm', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'huss', 'mrfso', 'mrso', 'ta100', 'ta500', 'ta600', 'pr', 'rlds', 'rlus', 'snd', 'snw', 'hus925', 'mrro', 'mrros', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'snc', 'zg500', 'zg600', 'zg850', 'zg700', 'zg925', 'tas', 'tasmax', 'tasmin', 'ua925', 'uas', 'va925', 'vas', 'zg100', 'zg200', 'ua100', 'ua850', 'va100', 'va200', 'va300', 'va400', 'va500']</t>
+          <t>['tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500']</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rlus', 'rsdt', 'snc', 'snw', 'ta850', 'tasmax', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'snd', 'snm', 'ta925', 'tas', 'tasmin', 'ua100', 'ta100', 'ta200', 'ua700', 'ua850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus600', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus700', 'hus500', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'ua200', 'ta300', 'sund', 'va600', 'va850', 'va925', 'va500', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va700', 'va100', 'va200', 'va300', 'vas', 'zg400', 'zg500', 'va400', 'rlds']</t>
+          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500']</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['tas', 'tds', 'pr', 'prc']</t>
+          <t>['tds', 'tas', 'prc', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['rsus', 'rlus', 'sfcWind', 'psl', 'sund', 'ps', 'rsds', 'rlds', 'prc', 'hfss', 'pr', 'evspsbl', 'hurs', 'hfls', 'huss', 'clt', 'tas', 'ts']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps']</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsut', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua925', 'zmla', 'zg850', 'zg925', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ua700', 'ua850', 'ua100', 'ua200', 'ua300', 'ua500', 'ua600', 'ts', 'zg100', 'zg300', 'zg500', 'zg700', 'ua400', 'zg200', 'zg400', 'zg600', 'mrfso', 'mrso', 'mrros', 'prw', 'hus850', 'hus925', 'mrro', 'hus300', 'ta400', 'ta500', 'ta700', 'ta925', 'va500', 'va600', 'ta200', 'ta300', 'ta600', 'ta850', 'vas', 'va400', 'va850', 'hus100', 'hus200', 'hus400', 'hus500', 'hus600', 'hus700', 'va700', 'va925', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm']</t>
+          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['zmla', 'va925', 'clm', 'prc', 'prsn', 'pr', 'tas', 'uas', 'clt', 'prhmax', 'mrso', 'prw', 'mrros', 'ps', 'ta700', 'ta925', 'clh', 'clivi', 'cll', 'ta300', 'ta400', 'ta500', 'ta600', 'ta850', 'va200', 'va300', 'va100', 'ua925', 'va400', 'ua600', 'ua700', 'ua850', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'snm', 'snw', 'snc', 'sund', 'ta200', 'va850', 'mrfso', 'hus600', 'mrro', 'sfcWindmax', 'huss', 'hus500', 'hus700', 'hus850', 'hus925', 'ta100', 'snd', 'clwvi', 'hfls', 'sfcWind', 'psl', 'tasmin', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'tasmax', 'ua100', 'ua200', 'zg400', 'zg600', 'zg700', 'zg850', 'zg925', 'hfss', 'evspsbl', 'zg500', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300']</t>
+          <t>['hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'hus200', 'rsds', 'rsus', 'rsdt', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua700', 'ua850', 'ua925', 'hurs', 'hus100', 'clt', 'sfcWindmax', 'sfcWind', 'snm', 'rsut', 'ua500', 'ua600', 'hfss', 'sund', 'ta300', 'ta400', 'ta500', 'va400', 'va925', 'mrfso', 'huss', 'hus300', 'hus500', 'hus925', 'ta100', 'ta200', 'ta600', 'va700', 'hus400', 'hus600', 'hus700', 'hus850', 'snw', 'vas', 'va200', 'va300', 'va500', 'va600', 'va850', 'rlds', 'mrso', 'ta700', 'ta925', 'zg300', 'zg700', 'zg925', 'mrros', 'psl', 'tasmax', 'tas', 'ua300', 'ta850', 'zg200', 'zg400', 'zg500', 'zg600', 'zg850', 'zg100', 'rlus', 'rlut', 'mrro', 'pr', 'tasmin', 'ua100', 'ua200']</t>
+          <t>['rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700']</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'zg100', 'zg300', 'zg500', 'zg700', 'zg925', 'zg200', 'zg400', 'zg600', 'zg850', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'mrfso', 'huss', 'hus500', 'hus600', 'hus850', 'rsds', 'rlds', 'rlut', 'mrso', 'mrro', 'pr', 'snm', 'snd', 'hfss', 'hus300', 'hus400', 'hus925', 'rlus', 'mrros', 'psl', 'sfcWindmax', 'hus700', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['tds', 'tas', 'ua100m', 'prc', 'va100m', 'pr']</t>
+          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['hfls', 'clt', 'sfcWind', 'tas', 'sund', 'hurs', 'cape', 'hfss', 'evspsbl', 'huss', 'rsus', 'ts', 'rlus', 'rsds', 'ps', 'pr', 'rlds', 'prc', 'psl']</t>
+          <t>['rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['zg925', 'clh', 'rlut', 'mrso', 'mrros', 'hus925', 'ta100', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'mrfso', 'prw', 'mrro', 'ta200', 'ta300', 'ta400', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus400', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'zg400', 'zg600', 'va850', 'va600', 'va700', 'zg200', 'zg300', 'zg500', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925']</t>
+          <t>['hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['clt', 'mrso', 'prw', 'mrros', 'prsn', 'mrro', 'clm', 'cll', 'clivi', 'prhmax', 'prc', 'va600', 'va700', 'va850', 'va925', 'ps', 'pr', 'ta400', 'ta500', 'ta600', 'wsgsmax', 'vas', 'va400', 'va500', 'ta200', 'ta300', 'ta700', 'ta850', 'ta925', 'clh', 'hus500', 'hus700', 'hus400', 'hus600', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg100', 'zg300', 'hus850', 'hus925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'rsdt', 'ua600', 'rlds', 'rsut', 'rlut', 'tasmin', 'ua400', 'ts', 'va100', 'va200', 'va300', 'psl', 'tasmax', 'tas', 'ua100', 'ua200', 'ua300', 'ua500', 'uas', 'rsds', 'rsus', 'rlus', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['mrfso', 'hus500', 'hus600', 'hus925', 'tasmin', 'tas', 'ua100', 'ua200', 'ua500', 'ta925', 'zg850', 'hus300', 'tasmax', 'ua300', 'ua400', 'zg400', 'zg500', 'zg600', 'zg700', 'zg925', 'huss', 'hus400', 'hus700', 'hus850', 'va500', 'va700', 'va850', 'rsut', 'sfcWind', 'snm', 'zg100', 'zg200', 'rsds', 'rlus', 'mrros', 'sfcWindmax', 'rsus', 'rsdt', 'rlds', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'snw', 'snc', 'snd', 'vas', 'zg300', 'va925', 'va600', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['clt', 'va850', 'va200', 'va300', 'va500', 'va700', 'va925', 'hfls', 'evspsbl', 'va100', 'va400', 'va600', 'zg925', 'rlut', 'tasmin', 'ta925', 'uas', 'ua200', 'ua500', 'vas', 'zg700', 'zg100', 'zg200', 'zg500', 'zg600', 'zg850', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'ta500', 'ta600', 'ta700', 'ta850', 'ua300', 'ua400', 'ua600', 'ua700', 'ta100', 'tas', 'ua100', 'ua850', 'ua925', 'zg300', 'zg400', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut']</t>
+          <t>['hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925']</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['psl', 'tas', 'rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'ts', 'cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss']</t>
+          <t>['rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts', 'cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss']</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm', 'zg200', 'zg300', 'va300', 'va600', 'vas', 'zg100', 'uas', 'va100', 'va850', 'va925', 'va200', 'va400', 'va500', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'ua100', 'ua400', 'ua500', 'ta850', 'ta925', 'ta200', 'ta300', 'ta700', 'snd', 'snm', 'snw', 'ta100', 'ts', 'ua200', 'ua300', 'ta400', 'ta500', 'ta600', 'zg850', 'zg925', 'zmla', 'zg400', 'zg500', 'zg600', 'zg700']</t>
+          <t>['clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm', 'snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clm', 'mrso', 'pr', 'prsn', 'hus400', 'hus500', 'hus600', 'wsgsmax', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700', 'zmla', 'zg200', 'zg300', 'zg400', 'va600', 'vas', 'zg850', 'zg925', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'psl', 'sfcWind', 'sfcWindmax', 'snc', 'ps', 'rlds', 'rlus', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va300', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'va200', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ta850', 'rlut', 'hus700', 'hus850', 'hus925', 'clt', 'clwvi', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'prc', 'prhmax', 'hurs', 'hus100', 'hus200', 'hus300', 'huss', 'mrfso', 'mrro', 'mrros']</t>
+          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['va400', 'va500', 'va700', 'va850', 'ua200', 'ua300', 'ua500', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'uas', 'va100', 'va200', 'va600', 'ua100', 'ua400', 'ua600', 'ta600', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ta925', 'tas', 'ta700', 'ta850', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'ua700', 'ua850', 'ua925', 'va300', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'snd', 'sund', 'hus700', 'hus100', 'hus200', 'hus300', 'hus500', 'hus600', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snm', 'snw', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus400']</t>
+          <t>['ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600']</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['zg200', 'zg300', 'zg400', 'zg100', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hfls', 'evspsbl', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'mrfso', 'mrro', 'mrros', 'snw', 'sund', 'ta100', 'ta200', 'tasmax', 'tasmin', 'ua100', 'va100', 'va200', 'va300', 'va400', 'huss', 'mrso', 'snd', 'snm', 'ta925', 'tas', 'ua200', 'ua925', 'uas', 'va500', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'rlds', 'psl', 'rlus', 'rlut', 'rsds', 'hus925', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600']</t>
+          <t>['zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'prc', 'ua100m', 'va100m', 'tds']</t>
+          <t>['ua100m', 'va100m', 'tas', 'tds', 'pr', 'prc']</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['psl', 'rlds', 'rlus', 'rsds', 'ps', 'tas', 'pr', 'rsus', 'sfcWind', 'prc', 'ts', 'sund', 'huss', 'hfls', 'cape', 'clt', 'hfss', 'hurs', 'evspsbl']</t>
+          <t>['cape', 'clt', 'hfss', 'hurs', 'evspsbl', 'hfls', 'rsus', 'sfcWind', 'psl', 'rlds', 'rlus', 'rsds', 'prc', 'ps', 'ts', 'sund', 'tas', 'huss', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['zg700', 'zg850', 'zg500', 'zg600', 'ua700', 'ua500', 'ua600', 'clm', 'clivi', 'cll', 'clwvi', 'clh', 'snm', 'snw', 'snc', 'snd', 'ta925', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ta100', 'ta400', 'ta500', 'ta600', 'prw', 'rlut', 'ta200', 'ta700', 'ta850', 'ta300', 'mrros', 'mrso', 'mrfso', 'mrro', 'evspsbl', 'hus100', 'rsdt', 'rsut', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'zg925', 'zmla', 'zg300', 'zg400', 'va925', 'vas', 'uas', 'zg100', 'va850', 'va100', 'va200', 'va600', 'ua925', 'zg200', 'va700', 'va300', 'va400', 'va500', 'ua850']</t>
+          <t>['va925', 'vas', 'ua925', 'uas', 'zg100', 'zg200', 'va700', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua700', 'ua850', 'ua500', 'ua600', 'zg925', 'zmla', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600', 'snm', 'snw', 'snc', 'snd', 'ta925', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ta100', 'ta200', 'ta700', 'ta850', 'ta300', 'ta400', 'ta500', 'ta600', 'prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'evspsbl', 'hus100', 'rsdt', 'rsut', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'clm', 'clwvi', 'clivi', 'cll', 'clh']</t>
         </is>
       </c>
     </row>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['ta850', 'ta925', 'tas', 'ua600', 'ua700', 'ta400', 'ta500', 'rsus', 'sfcWind', 'mrro', 'mrso', 'pr', 'prc', 'hus850', 'hus925', 'huss', 'hus400', 'hus500', 'hus600', 'rlus', 'rlut', 'rsdt', 'prhmax', 'prsn', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clt', 'clwvi', 'mrros', 'hus700', 'mrfso', 'hus200', 'hus300', 'clh', 'ts', 'ua100', 'ua200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ua300', 'ua400', 'ua500', 'ta100', 'ta200', 'ta300', 'rsut', 'sfcWindmax', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'clivi', 'cll', 'clm', 'vas', 'wsgsmax', 'zg100', 'zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'zg200', 'rlds', 'rsds', 'prw', 'ps', 'psl', 'snc', 'snd', 'snm', 'snw', 'sund', 'tasmax', 'tasmin']</t>
+          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'snc', 'snd', 'snm', 'snw', 'sund', 'tasmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clh', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg700', 'zg850', 'zg925', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['zg925', 'snm', 'snw', 'sund', 'ta925', 'tas', 'ua300', 'ua600', 'ua700', 'zg300', 'zg400', 'ta300', 'ta400', 'ta850', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua400', 'ua500', 'ua850', 'zg100', 'zg200', 'zg500', 'zg600', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsus', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'evspsbl', 'hfls', 'hurs', 'hus100', 'hus200', 'hus925', 'huss', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'hfss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'zg700', 'zg850', 'snd', 'ta100', 'ta200', 'clt', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200']</t>
+          <t>['zg700', 'zg850', 'zg925', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'clt']</t>
         </is>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snd', 'snm', 'mrfso', 'mrro', 'mrros', 'mrso', 'psl', 'tasmax', 'ua400', 'ta300', 'hus600', 'huss', 'ua500', 'ua600', 'ua925', 'ta500', 'ta700', 'clt', 'evspsbl', 'hfss', 'hurs', 'hus100', 'hus300', 'hus400', 'rlut', 'snc', 'pr', 'tasmin', 'ua100', 'ua200', 'ua300', 'snw', 'sund', 'ta100', 'ta200', 'ta400', 'hus500', 'hus700', 'hus850', 'hus925', 'ua700', 'ua850', 'uas', 'ta600', 'ta850', 'ta925', 'tas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'hfls', 'hus200', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va700']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['rlus', 'rsds', 'rsus', 'tas', 'sfcWind', 'sund', 'ts', 'clt', 'hfls', 'hurs', 'pr', 'cape', 'evspsbl', 'hfss', 'huss', 'prc', 'ps', 'psl', 'rlds']</t>
+          <t>['cape', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'sund', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['ua700', 'snm', 'snw', 'ta100', 'ta200', 'ta400', 'ta500', 'ta700', 'uas', 'va100', 'va200', 'va300', 'va400', 'ta300', 'ta600', 'ua850', 'ua925', 'va500', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'cll', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'mrfso', 'hus400', 'hus500', 'hus600', 'hus850', 'hus925', 'clh', 'clivi', 'clm', 'hus700', 'rsdt', 'ua200', 'ts', 'vas', 'zg300', 'va925', 'rlut', 'mrso', 'mrros', 'snc', 'ua100', 'ua300', 'ua600', 'zg100', 'zg200', 'va600', 'va700', 'va850', 'rsut', 'prw', 'mrro', 'snd', 'ua400', 'ua500', 'ta850', 'ta925', 'zg400']</t>
+          <t>['snm', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ta850', 'ta925', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clh', 'clivi', 'cll', 'clm', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'mrfso', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925']</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['prc', 'mrro', 'prsn', 'prw', 'ps', 'psl', 'sund', 'hus600', 'sfcWindmax', 'snc', 'snd', 'hus925', 'ta300', 'ta400', 'ta600', 'snm', 'mrso', 'pr', 'prhmax', 'huss', 'mrfso', 'mrros', 'snw', 'ta100', 'ta200', 'hus700', 'hus850', 'ta500', 'zg925', 'zmla', 'clh', 'clt', 'hurs', 'hus200', 'hus300', 'clivi', 'cll', 'clm', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hus100', 'hus400', 'hus500', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'rlut', 'rsdt', 'rsut', 'ts', 'va925', 'vas', 'tasmax', 'tasmin', 'ua100', 'va850', 'va100', 'ta700', 'ta850', 'zg600', 'zg200', 'zg400', 'ua600', 'ua700', 'ua850', 'ua925', 'va400', 'va500', 'va600', 'va700', 'ua200', 'ua300', 'ua400', 'ua500', 'wsgsmax', 'uas', 'va200', 'va300', 'ta925', 'tas', 'zg500', 'zg700', 'zg850', 'zg100', 'zg300']</t>
+          <t>['zg925', 'zmla', 'tasmax', 'tasmin', 'ts', 'ua100', 'va850', 'va925', 'vas', 'wsgsmax', 'uas', 'va100', 'va200', 'va300', 'ta700', 'ta850', 'ta925', 'tas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg200', 'zg300', 'zg400', 'ua600', 'ua700', 'ua850', 'ua925', 'va400', 'va500', 'va600', 'va700', 'ua200', 'ua300', 'ua400', 'ua500', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'mrso', 'pr', 'prc', 'prhmax', 'huss', 'mrfso', 'mrro', 'mrros', 'prsn', 'prw', 'ps', 'psl', 'snw', 'sund', 'ta100', 'ta200', 'hus600', 'hus700', 'hus850', 'hus925', 'ta300', 'ta400', 'ta500', 'ta600']</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['ua300', 'ua500', 'ua600', 'ua100', 'ua200', 'ua400', 'zg850', 'zg700', 'zg925', 'psl', 'rlds', 'rlus', 'rsdt', 'huss', 'mrro', 'mrso', 'pr', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hfss', 'hurs', 'hus100', 'hus400', 'clt', 'evspsbl', 'hfls', 'snc', 'ta850', 'ta925', 'tasmax', 'hus700', 'ta300', 'ta400', 'sfcWind', 'tas', 'tasmin', 'hus500', 'hus600', 'hus200', 'hus300', 'rsus', 'rsut', 'sfcWindmax', 'hus850', 'hus925', 'rlut', 'rsds', 'mrfso', 'mrros', 'ua850', 'ua925', 'uas', 'va100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va200', 'va700', 'va600', 'va850', 'va925', 'vas', 'zg100', 'va300', 'va400', 'va500', 'ua700', 'ta500', 'ta600', 'ta700']</t>
+          <t>['ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'vas', 'zg100', 'va700', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'clt', 'evspsbl', 'hfls', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700']</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va400', 'va600', 'ta400', 'ta500', 'rsdt', 'rsus', 'sfcWindmax', 'ua200', 'ua500', 'ta925', 'tas', 'tasmax', 'tasmin', 'mrros', 'snc', 'snw', 'sund', 'ta100', 'mrso', 'snd', 'snm', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hfls', 'clt', 'hus850', 'hfss', 'hurs', 'hus100', 'hus200', 'evspsbl', 'pr', 'rlus', 'hus925', 'mrro', 'psl', 'rlds', 'rlut', 'rsds', 'huss', 'mrfso', 'zg200', 'va925', 'vas', 'zg100', 'zg600', 'va850', 'zg300', 'zg400', 'zg500', 'zg700', 'zg850', 'zg925', 'va300', 'va500', 'va700', 'ta200', 'ta300', 'ta600', 'ta700', 'rsut', 'sfcWind', 'ta850', 'ua100', 'ua300', 'ua400']</t>
+          <t>['hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'evspsbl', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['prc', 'tas', 'pr', 'tds', 'va100m', 'ua100m']</t>
+          <t>['prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hurs', 'rlus', 'psl', 'pr', 'cape', 'hfss', 'hfls', 'huss', 'clt', 'rsds', 'rlds', 'rsus', 'prc', 'sfcWind', 'ps', 'tas', 'sund', 'ts']</t>
+          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus925', 'rsdt', 'rlut', 'mrfso', 'mrso', 'mrro', 'snm', 'snw', 'ta100', 'ta400', 'ta500', 'ta600', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'hus850', 'rsut', 'prw', 'mrros', 'snc', 'ta300', 'ta200', 'ua500', 'ta700', 'ts', 'uas', 'va400', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'zg300', 'va500', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'va700', 'ua925', 'zg925', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zmla', 'vas', 'zg100']</t>
+          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['rsds', 'rsdt', 'rsus', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'ua925', 'va200', 'va300', 'va400', 'ua500', 'ua600', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus850', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'cll', 'hus400', 'hus500', 'hus600', 'hus700', 'rsut', 'vas', 'tasmin', 'ts', 'uas', 'va100', 'va500', 'va600', 'va700', 'va925', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va850', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg925', 'zmla', 'zg600', 'clh', 'clivi']</t>
+          <t>['zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['clt', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'snm', 'snw', 'sund', 'hus600', 'hus925', 'huss', 'hus100', 'hus400', 'hus500', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'evspsbl', 'hfls', 'mrfso', 'mrro', 'snc', 'snd', 'hus700', 'hus850', 'hus200', 'hus300', 'rsdt', 'rsus', 'rsut', 'zg925', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'ta925', 'zg300', 'zg600', 'va300', 'va500', 'va600', 'va700', 'ua300', 'ua500', 'ua700', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'zg850', 'va850', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'tas', 'zg400', 'zg500', 'zg700', 'va400', 'ua400', 'ua600', 'ta100', 'ta200', 'ta300', 'ua200']</t>
+          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['ua100', 'ua200', 'ua300', 'va925', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg600', 'zg700', 'zg850', 'tasmax', 'tasmin', 'vas', 'zg100', 'zg200', 'zg300', 'zg500', 'mrso', 'psl', 'sfcWind', 'snw', 'sund', 'ta100', 'ta200', 'ta850', 'ta300', 'ta400', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'pr', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta700', 'ta925', 'tas', 'ta500', 'ta600', 'evspsbl', 'hfls', 'clt']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600']</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['pr', 'prc', 'ua100m', 'tds', 'tas', 'va100m']</t>
+          <t>['va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr']</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'clt', 'sfcWind', 'tas', 'cape', 'evspsbl', 'rsus', 'sund', 'ts', 'prc', 'hurs', 'psl', 'ps', 'pr', 'rsds', 'rlds', 'rlus', 'huss']</t>
+          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg850', 'zg925', 'zg600', 'zg700', 'ua400', 'ua500', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'hus925', 'mrro', 'vas', 'va300', 'va400', 'va850', 'clh', 'cll', 'prw', 'mrros', 'hus850', 'zg100', 'va500', 'va600', 'va700', 'va925', 'hus300', 'hus700', 'ta500', 'ta850', 'ta925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus400', 'hus500', 'hus600', 'ua200', 'ua100', 'ua300', 'ta700', 'ta600', 'ts']</t>
+          <t>['clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['rsut', 'sfcWind', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'sfcWindmax', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'clh', 'clivi', 'cll', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg300', 'zg400', 'va600', 'va700', 'zg700', 'zg850', 'zg925', 'zg200', 'zg500', 'va500', 'va850', 'zmla', 'hus925', 'hus200', 'hus400', 'huss', 'hus850', 'hus300', 'hus500', 'rsds', 'rsdt', 'rsus', 'mrfso', 'mrro', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'psl', 'rlds']</t>
+          <t>['zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['zg400', 'zg500', 'zg600', 'zg700', 'zg300', 'zg850', 'zg925', 'clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'rlus', 'rlut', 'mrso', 'hurs', 'hus100', 'hus500', 'hus850', 'hus925', 'rsus', 'snd', 'snm', 'snw', 'tasmin', 'ua100', 'ua200', 'vas', 'zg100', 'ua925', 'uas', 'va100', 'va200', 'sund', 'va400', 'va700', 'ua300', 'ua400', 'ua500', 'ta500', 'ta600', 'ta700', 'rsds', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'tas', 'tasmax', 'va850', 'va925', 'zg200', 'ua850', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va500', 'va600', 'ua600', 'ua700', 'ta850', 'ta925', 'hus600', 'hus700', 'psl', 'rlds', 'huss', 'mrfso', 'mrro', 'mrros', 'hus200', 'hus300', 'hus400']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta700', 'ta850', 'tasmin', 'ua100', 'va925', 'vas', 'zg100', 'ua925', 'va200', 'zg300', 'zg400', 'zg700', 'va300', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925', 'ta500', 'ta600', 'ta925', 'tas', 'tasmax', 'ua200', 'va850', 'zg200', 'ua850', 'uas', 'va100', 'zg500', 'zg600', 'va400', 'va500', 'rlut', 'clt', 'sfcWind', 'snd', 'snm', 'hus925', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsdt', 'rsus', 'rsut', 'evspsbl', 'hfls', 'sfcWindmax', 'snc', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'mrso']</t>
+          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['prc', 'ua100m', 'va100m', 'pr', 'tas', 'tds']</t>
+          <t>['ua100m', 'va100m', 'pr', 'prc', 'tas', 'tds']</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['sfcWind', 'rsds', 'rsus', 'rlus', 'psl', 'rlds', 'ts', 'sund', 'tas', 'cape', 'clt', 'hfss', 'evspsbl', 'hurs', 'hfls', 'prc', 'ps', 'huss', 'pr']</t>
+          <t>['cape', 'clt', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'rlus', 'rsds', 'psl', 'rlds', 'ts', 'sund', 'tas']</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['rlut', 'mrros', 'mrro', 'rsdt', 'rsut', 'snw', 'snc', 'snd', 'hus400', 'hus500', 'prw', 'mrso', 'mrfso', 'snm', 'hus850', 'hus925', 'hus600', 'hus700', 'va925', 'vas', 'ua925', 'uas', 'zg200', 'zg300', 'zg500', 'va200', 'va700', 'va850', 'va400', 'va500', 'zg100', 'zg400', 'zg600', 'va100', 'va300', 'va600', 'zg925', 'zmla', 'zg700', 'zg850', 'cll', 'evspsbl', 'hus100', 'clh', 'hus200', 'hus300', 'clm', 'clwvi', 'clivi', 'ta925', 'ts', 'ua850', 'ua100', 'ua200', 'ua600', 'ta100', 'ta400', 'ta600', 'ua700', 'ta700', 'ua500', 'ua300', 'ua400', 'ta200', 'ta850', 'ta300', 'ta500']</t>
+          <t>['va925', 'vas', 'ua925', 'uas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va100', 'va200', 'va700', 'va850', 'va300', 'va400', 'va500', 'va600', 'ta925', 'ts', 'ua700', 'ua850', 'ua100', 'ua200', 'ua500', 'ua600', 'ua300', 'ua400', 'ta100', 'ta200', 'ta700', 'ta850', 'ta300', 'ta400', 'ta500', 'ta600', 'zg925', 'zmla', 'zg700', 'zg850', 'prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hus850', 'hus925', 'hus400', 'hus500', 'hus600', 'hus700', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus200', 'hus300']</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['rlut', 'rsdt', 'evspsbl', 'hurs', 'hus100', 'prsn', 'clt', 'mrso', 'hus850', 'ua700', 'sund', 'ta100', 'va700', 'va925', 'vas', 'wsgsmax', 'tasmin', 'ua300', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'ta200', 'ta300', 'ta400', 'ta500', 'va300', 'va400', 'ua600', 'va850', 'ts', 'ua100', 'ua200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'va500', 'va600', 'ua400', 'ua500', 'sfcWindmax', 'snd', 'snw', 'rsut', 'sfcWind', 'rsus', 'snc', 'snm', 'rsds', 'hfls', 'hfss', 'prhmax', 'prw', 'ps', 'psl', 'clivi', 'cll', 'clm', 'clwvi', 'mrro', 'prc', 'hus700', 'hus925', 'rlds', 'rlus', 'mrros', 'pr', 'huss', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clh', 'zg600', 'zg850', 'zmla', 'zg200', 'zg300', 'zg400', 'zg700', 'zg925', 'zg500', 'zg100']</t>
+          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'va700', 'va850', 'va925', 'vas', 'wsgsmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'va300', 'va400', 'va500', 'va600', 'ua400', 'ua500', 'ua600', 'ua700', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clh', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['zg850', 'zg200', 'zg300', 'zg600', 'va400', 'va500', 'zg700', 'zg925', 'vas', 'va300', 'va600', 'va700', 'va850', 'va925', 'zg100', 'zg400', 'zg500', 'ua600', 'ua700', 'ua850', 'ua925', 'va200', 'ua200', 'ua400', 'uas', 'va100', 'ua100', 'ua300', 'ua500', 'mrro', 'mrros', 'mrso', 'pr', 'sund', 'ta100', 'ta200', 'ta400', 'ta925', 'tasmax', 'hus850', 'ta300', 'ta500', 'ta850', 'tas', 'tasmin', 'hus300', 'hus700', 'ta600', 'ta700', 'hus400', 'hus500', 'hus600', 'snc', 'snd', 'clt', 'evspsbl', 'hurs', 'mrfso', 'snm', 'snw', 'hfls', 'hfss', 'hus100', 'hus200', 'hus925', 'huss', 'rlds', 'rlus', 'rlut', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rsds']</t>
+          <t>['psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600']</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['rsut', 'sfcWind', 'evspsbl', 'hfls', 'hfss', 'hus850', 'huss', 'mrfso', 'mrro', 'hus200', 'hus500', 'sfcWindmax', 'snc', 'hus925', 'mrros', 'hus300', 'hus600', 'mrso', 'rsds', 'rsdt', 'clt', 'hus700', 'hurs', 'hus100', 'hus400', 'pr', 'psl', 'rsus', 'rlds', 'rlus', 'rlut', 'snd', 'snw', 'ta100', 'ta200', 'ta300', 'ua600', 'ua925', 'va200', 'va300', 'va400', 'va500', 'va700', 'ua200', 'vas', 'snm', 'sund', 'ua500', 'ua700', 'ua850', 'va100', 'ta500', 'ta700', 'ta925', 'ua400', 'va925', 'zg100', 'zg300', 'zg500', 'zg700', 'uas', 'ta400', 'ta600', 'ta850', 'tas', 'va600', 'va850', 'tasmax', 'tasmin', 'ua100', 'ua300', 'zg200', 'zg400', 'zg600', 'zg850', 'zg925']</t>
+          <t>['snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hfls', 'hfss', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['ua100m', 'tas', 'pr', 'prc', 'va100m', 'tds']</t>
+          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['evspsbl', 'rsds', 'rsus', 'rlus', 'clt', 'cape', 'sfcWind', 'tas', 'sund', 'ts', 'pr', 'rlds', 'hfss', 'prc', 'hfls', 'huss', 'hurs', 'psl', 'ps']</t>
+          <t>['rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'cape', 'evspsbl', 'clt', 'rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'ua100', 'ta300', 'ta400', 'ta600', 'ta850', 'ta925', 'ts', 'va100', 'mrfso', 'mrso', 'ta500', 'ta700', 'clivi', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'prw', 'mrros', 'zg925', 'va200', 'va300', 'cll', 'clm', 'evspsbl', 'hus100', 'hus500', 'rsdt', 'rsut', 'ta200', 'uas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'vas', 'zg100', 'zg400', 'zg500', 'zg600', 'hus200', 'hus300', 'hus400', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'clwvi', 'ua200', 'ua925', 'ua850', 'zg200', 'zg300', 'zg700', 'zg850']</t>
+          <t>['clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'uas', 'ua200', 'ua925', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clh', 'clivi', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'ua100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['mrros', 'prc', 'hus300', 'hus400', 'hus500', 'huss', 'zg850', 'wsgsmax', 'zg100', 'zg300', 'va700', 'va925', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'uas', 'mrso', 'pr', 'hus600', 'hus700', 'hus925', 'mrro', 'zg925', 'zmla', 'zg200', 'va850', 'vas', 'zg400', 'va500', 'va600', 'va100', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfss', 'hus100', 'hus850', 'hus200', 'mrfso', 'hfls', 'hurs', 'va200', 'ua700', 'ua850', 'ua925', 'ua600', 'rlut', 'snd', 'snw', 'sund', 'ta100', 'tas', 'tasmax', 'tasmin', 'ta200', 'ta500', 'ua100', 'ua500', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snm', 'ta300', 'ta400', 'ua200', 'ua300', 'rsds', 'rsdt', 'rsus', 'rsut', 'psl', 'ts', 'ta600', 'ta700', 'ta850', 'ta925', 'ua400']</t>
+          <t>['rsds', 'rsdt', 'rsus', 'rsut', 'psl', 'rlds', 'rlus', 'rlut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'tas', 'tasmax', 'tasmin', 'ts', 'ta600', 'ta700', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'huss', 'mrfso', 'mrro', 'zg850', 'zg925', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'vas', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'uas', 'va100', 'va200', 'ua700', 'ua850', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'hus600', 'hfls', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'evspsbl', 'clt', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va400', 'zg500', 'zg600', 'zg700', 'zg925', 'va500', 'va700', 'va850', 'zg850', 'va600', 'va925', 'uas', 'va100', 'va200', 'va300', 'rlds', 'rsus', 'sfcWind', 'sfcWindmax', 'mrro', 'mrso', 'pr', 'psl', 'snd', 'snm', 'snw', 'sund', 'ta100', 'hus700', 'hus850', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsut', 'snc', 'mrros', 'hus925', 'tasmax', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'ta200', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'huss', 'ua200', 'ua300', 'ua400', 'ta700', 'mrfso', 'tasmin', 'ua100']</t>
+          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'snd', 'snm', 'snw', 'sund', 'ta100', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clt', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['hus700', 'hus850', 'hus925', 'huss', 'hus200', 'hus400', 'hurs', 'mrro', 'mrros', 'zg400', 'zg700', 'zg850', 'zg500', 'zg600', 'hus100', 'hus300', 'hus500', 'hus600', 'rlds', 'psl', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'mrfso', 'mrso', 'pr', 'rsus', 'rsut', 'sfcWind', 'tasmax', 'ua100', 'zg925', 'ua200', 'snd', 'snm', 'sund', 'rsdt', 'sfcWindmax', 'snc', 'snw', 'tasmin', 'ua300', 'va925', 'va100', 'va200', 'va300', 'ta600', 'va500', 'va600', 'ua400', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'ta700', 'ta850', 'ta925', 'tas', 'va400', 'va700', 'va850', 'ua600', 'ua700', 'ta200', 'ta300', 'ta400', 'ta500', 'ua500', 'ua850', 'ta100']</t>
+          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr']</t>
+          <t>['pr', 'prc', 'tds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['rsds', 'sfcWind', 'sund', 'evspsbl', 'rsus', 'rlus', 'clt', 'hfls', 'hfss', 'huss', 'hurs', 'ts', 'tas', 'ps', 'prc', 'pr', 'rlds', 'psl']</t>
+          <t>['hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsut', 'snc', 'zmla', 'snm', 'snw', 'ua600', 'ua700', 'ua850', 'snd', 'ua925', 'cll', 'clm', 'clivi', 'zg850', 'zg925', 'hus500', 'ua400', 'ua500', 'va600', 'hus400', 'hus600', 'ua200', 'ua300', 'va400', 'va500', 'rlut', 'mrso', 'prw', 'va100', 'uas', 'va200', 'va300', 'ua100', 'ts', 'clh', 'ta400', 'ta600', 'ta300', 'ta500', 'zg200', 'zg300', 'zg400', 'hus300', 'zg100', 'zg600', 'hus200', 'zg500', 'zg700', 'vas', 'va700', 'va850', 'va925', 'hus925', 'hus700', 'hus850', 'ta925', 'ta700', 'ta850', 'ta200', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'clwvi', 'ta100']</t>
+          <t>['rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['pr', 'va300', 'va400', 'prsn', 'va200', 'va850', 'va500', 'va600', 'va700', 'sund', 'ta200', 'rsds', 'rlds', 'zmla', 'zg600', 'zg850', 'zg700', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zg500', 'zg925', 'sfcWindmax', 'ta100', 'ta300', 'clh', 'clivi', 'snw', 'ta400', 'sfcWind', 'snm', 'rsus', 'rsut', 'snc', 'snd', 'ta700', 'tasmax', 'tas', 'ta500', 'ta600', 'ta925', 'ta850', 'mrfso', 'huss', 'hus850', 'mrro', 'zg200', 'zg300', 'va925', 'mrros', 'hus700', 'hus925', 'wsgsmax', 'vas', 'zg400', 'zg100', 'prhmax', 'prc', 'prw', 'mrso', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'va100', 'ua700', 'ua850', 'clt', 'uas', 'ua600', 'ua925', 'hus100', 'hus400', 'ua100', 'ua300', 'ua400', 'ua500', 'ts', 'hus200', 'hus300', 'hus500', 'hus600', 'tasmin', 'ua200', 'hurs']</t>
+          <t>['tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850']</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['snm', 'sund', 'ta100', 'ta200', 'snw', 'snc', 'hfss', 'hus100', 'hus200', 'hus300', 'clt', 'tasmax', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'tasmin', 'tas', 'hfls', 'zg850', 'evspsbl', 'hurs', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus700', 'hus850', 'hus925', 'va400', 'va700', 'va850', 'hus600', 'va300', 'va500', 'va600', 'va925', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'uas', 'va100', 'ua850', 'ua925', 'va200', 'ua600', 'ua700', 'snd', 'ta300', 'ta400', 'ta700', 'ta850', 'ta500', 'ta600', 'ta925', 'rsds', 'rsdt', 'rsut', 'rlut', 'rsus', 'sfcWindmax', 'sfcWind']</t>
+          <t>['rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'snm', 'snw', 'snc', 'snd', 'hfss', 'hfls', 'sund', 'ta500', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'evspsbl', 'clt', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'zg700', 'zg925', 'pr', 'rsdt', 'rlut', 'psl', 'rsds', 'rlds', 'rlus', 'rsus', 'rsut', 'sfcWind', 'mrso', 'huss', 'hus925', 'mrro', 'zg500', 'zg600', 'zg850', 'mrfso', 'mrros', 'hus850', 'zg400', 'va925', 'hurs', 'hus100', 'hus300', 'hus600', 'vas', 'zg100', 'zg200', 'va700', 'hus200', 'hus400', 'hus500', 'hus700', 'zg300', 'va850']</t>
+          <t>['uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['prc', 'tas', 'tds', 'pr']</t>
+          <t>['tas', 'tds', 'pr', 'prc']</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['clt', 'psl', 'rlds', 'hfss', 'hurs', 'evspsbl', 'ps', 'hfls', 'prc', 'huss', 'pr', 'cape', 'sfcWind', 'rsds', 'tas', 'rsus', 'rlus', 'ts', 'sund']</t>
+          <t>['cape', 'clt', 'psl', 'rlds', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'rlus', 'rsds', 'ts', 'sund', 'tas']</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'hus850', 'hus600', 'hus700', 'ta100', 'ta200', 'va925', 'zg700', 'va400', 'prw', 'rlut', 'snd', 'hus925', 'vas', 'zg850', 'va500', 'va600', 'va300', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va700', 'va850', 'va100', 'va200', 'ta400', 'ua850', 'clwvi', 'evspsbl', 'clh', 'hus300', 'hus400', 'ta925', 'ts', 'uas', 'ta500', 'ta600', 'ua200', 'ua600', 'clm', 'clivi', 'cll', 'hus100', 'hus200', 'hus500', 'ua925', 'ta700', 'ta850', 'ta300', 'ua700', 'ua100', 'ua300', 'ua400', 'ua500', 'zg925', 'zmla']</t>
+          <t>['prw', 'rlut', 'mrros', 'mrso', 'mrfso', 'mrro', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hus850', 'hus925', 'hus600', 'hus700', 'ta100', 'ta200', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va700', 'va850', 'va100', 'va200', 'va500', 'va600', 'va300', 'va400', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus200', 'hus300', 'hus400', 'hus500', 'ta925', 'ts', 'ua925', 'uas', 'ta700', 'ta850', 'ta300', 'ta400', 'ua700', 'ua850', 'ta500', 'ta600', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['zg925', 'zmla', 'ua700', 'zg600', 'zg700', 'zg850', 'ua925', 'uas', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua600', 'ua850', 'va100', 'hus500', 'hus200', 'hus400', 'hus700', 'hus300', 'hus600', 'rlus', 'rlut', 'rsds', 'hfss', 'hus100', 'prsn', 'prw', 'psl', 'rlds', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'mrros', 'mrso', 'pr', 'prc', 'clivi', 'zg500', 'va200', 'va300', 'va400', 'va500', 'ta300', 'ta600', 'ta500', 'ta700', 'ua500', 'snw', 'va600', 'ta400', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'zg100', 'cll', 'hus850', 'hus925', 'huss', 'snd', 'prhmax', 'clm', 'clt', 'clwvi', 'mrfso', 'mrro', 'clh', 'rsdt', 'rsus', 'evspsbl', 'hfls', 'hurs', 'ps', 'zg300', 'zg400', 'vas', 'wsgsmax', 'ta850', 'ta925', 'tas', 'zg200', 'snm', 'sund', 'ta100', 'ta200']</t>
+          <t>['zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'va700', 'va850', 'va925', 'vas', 'wsgsmax', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va200', 'va300', 'va400', 'va500', 'va600', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'clh']</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['clt', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'hus400', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'mrros', 'mrso', 'pr', 'rlds', 'snw', 'sund', 'ta200', 'tasmin', 'ua100', 'hus500', 'hus600', 'hus700', 'hus925', 'ua500', 'uas', 'va100', 'va200', 'mrro', 'psl', 'rlus', 'snc', 'snd', 'snm', 'ta100', 'tas', 'tasmax', 'ua200', 'ua300', 'ua400', 'hus850', 'huss', 'mrfso', 'ua600', 'ua700', 'ua850', 'ua925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ta600', 'ta700', 'ta850', 'hus300', 'rlut', 'rsds', 'ta300', 'ta400', 'ta500', 'ta925', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200']</t>
+          <t>['clt', 'zg600', 'zg700', 'zg850', 'zg925', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925']</t>
         </is>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['ta600', 'ta925', 'tas', 'ta400', 'ta500', 'ta700', 'ta850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va400', 'zg500', 'va200', 'va300', 'va500', 'va600', 'va700', 'va850', 'ua600', 'ua700', 'ua850', 'ua925', 'zg600', 'zg925', 'uas', 'va100', 'zg700', 'zg850', 'rsds', 'sfcWind', 'sfcWindmax', 'psl', 'rlus', 'rlut', 'rsdt', 'rsus', 'rsut', 'evspsbl', 'hfls', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'hus100', 'tasmax', 'tasmin', 'ua100', 'ua300', 'ua400', 'ua500', 'snc', 'mrros', 'mrso', 'pr', 'rlds', 'clt', 'snd', 'ta300', 'mrro', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'ua200']</t>
+          <t>['rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'clt', 'evspsbl', 'hfls', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['tds', 'pr', 'prc', 'tas']</t>
+          <t>['tas', 'tds', 'pr', 'prc']</t>
         </is>
       </c>
     </row>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['ua100m', 'va100m']</t>
+          <t>['va100m', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['rlds', 'clt', 'rlus', 'rsds', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'pr', 'sfcWind', 'cape', 'hfss', 'huss', 'rsus', 'ts', 'sund', 'psl', 'tas']</t>
+          <t>['psl', 'rlds', 'cape', 'clt', 'rlus', 'rsds', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'ts', 'sund', 'tas']</t>
         </is>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['zmla', 'snd', 'snm', 'rlut', 'rsdt', 'rsut', 'prw', 'zg300', 'va850', 'va200', 'va300', 'va400', 'va500', 'va700', 'va925', 'va600', 'clivi', 'evspsbl', 'hus100', 'clh', 'hus500', 'vas', 'zg850', 'clm', 'cll', 'hus600', 'hus700', 'hus200', 'hus400', 'zg600', 'zg700', 'clwvi', 'hus300', 'zg100', 'zg925', 'zg400', 'zg500', 'zg200', 'snc', 'snw', 'hus850', 'ta200', 'ta300', 'mrso', 'mrfso', 'mrro', 'ta100', 'hus925', 'mrros', 'uas', 'va100', 'ts', 'ua100', 'ta850', 'ta925', 'ua925', 'ta700', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ua200', 'ua600', 'ua700', 'ua850']</t>
+          <t>['zmla', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus600', 'hus700', 'hus200', 'hus300', 'hus400', 'hus500', 'vas', 'zg100', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'rsdt', 'rsut', 'prw', 'rlut', 'snd', 'snm', 'snc', 'mrros', 'mrso', 'mrfso', 'mrro', 'snw', 'ta100', 'hus850', 'hus925', 'ta200', 'ta300', 'uas', 'va100', 'ts', 'ua100', 'ta850', 'ta925', 'ua850', 'ua925', 'ta400', 'ta500', 'ta600', 'ta700', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['hus100', 'hus500', 'clt', 'hfss', 'rlut', 'prsn', 'cll', 'mrfso', 'mrro', 'snw', 'sund', 'hus925', 'huss', 'hus400', 'hfls', 'sfcWind', 'psl', 'rlus', 'rsds', 'prc', 'clh', 'clivi', 'clm', 'mrros', 'mrso', 'hurs', 'hus200', 'hus300', 'clwvi', 'evspsbl', 'rsdt', 'rsus', 'rsut', 'sfcWindmax', 'rlds', 'prhmax', 'prw', 'ps', 'pr', 'snc', 'snd', 'snm', 'hus600', 'hus700', 'hus850', 'ta700', 'ta850', 'ta925', 'tas', 'tasmin', 'uas', 'ua100', 'ua300', 'va200', 'va500', 'va700', 'ta100', 'zg850', 'zg925', 'zmla', 'tasmax', 'ua600', 'ua850', 'zg300', 'zg500', 'zg700', 'ua700', 'ua925', 'va100', 'ts', 'ua200', 'ua400', 'ua500', 'va300', 'va400', 'va600', 'zg200', 'zg400', 'zg600', 'ta200', 'ta300', 'ta400', 'ta600', 'vas', 'wsgsmax', 'zg100', 'ta500', 'va850', 'va925']</t>
+          <t>['hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'clh', 'clivi', 'cll', 'clm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'zg850', 'zg925', 'zmla', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100']</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['snw', 'mrso', 'zg600', 'zg700', 'zg850', 'ta850', 'tas', 'va850', 'va100', 'va200', 'va400', 'va600', 'hus925', 'mrro', 'mrros', 'zg500', 'tasmax', 'tasmin', 'va925', 'zg100', 'zg300', 'zg400', 'rlds', 'rlus', 'rlut', 'sund', 'ta200', 'ta300', 'ta500', 'pr', 'psl', 'rsds', 'rsdt', 'rsus', 'ta100', 'ta400', 'ta600', 'ta700', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'rsut', 'sfcWind', 'snd', 'sfcWindmax', 'snc', 'ua300', 'ua400', 'ua500', 'snm', 'hus850', 'huss', 'mrfso', 'zg925', 'ta925', 'ua100', 'ua200', 'vas', 'zg200', 'va300', 'va500', 'va700', 'hurs', 'hus100', 'hus300', 'hus500', 'hus200', 'hus400', 'hus600', 'hus700', 'clt', 'evspsbl', 'hfls', 'hfss']</t>
+          <t>['pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'clt', 'evspsbl', 'hfls', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['va200', 'va500', 'va600', 'va700', 'va850', 'ta400', 'ta600', 'va300', 'va400', 'ta300', 'ta500', 'ta700', 'ta850', 'ta925', 'mrfso', 'ua500', 'ua600', 'ua850', 'ua700', 'ua925', 'uas', 'va100', 'zg100', 'zg200', 'zg300', 'zg500', 'zg925', 'va925', 'vas', 'zg400', 'zg600', 'zg700', 'zg850', 'clt', 'evspsbl', 'rlut', 'rsds', 'rsdt', 'rsus', 'mrros', 'ta200', 'hfls', 'snc', 'snd', 'snm', 'snw', 'hurs', 'hus200', 'hus300', 'tasmax', 'tasmin', 'ua200', 'ua400', 'hus500', 'hus850', 'hus925', 'hus100', 'hus400', 'tas', 'ua100', 'ua300', 'hus600', 'hus700', 'huss', 'rsut', 'sfcWind', 'sfcWindmax', 'mrro', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'sund', 'ta100', 'hfss']</t>
+          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['pr', 'prc', 'tas', 'tds']</t>
+          <t>['prc', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'psl', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'hfss', 'evspsbl', 'hurs', 'ps', 'pr', 'hfls', 'prc', 'huss', 'clt']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsut', 'snd', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ts', 'ua600', 'ua700', 'ua850', 'clh', 'cll', 'evspsbl', 'hus300', 'hus100', 'hus200', 'zg700', 'zg850', 'zg925', 'mrros', 'hus850', 'mrro', 'mrso', 'snm', 'snw', 'snc', 'mrfso', 'hus400', 'hus500', 'hus600', 'hus700', 'hus925', 'zmla', 'vas', 'zg100', 'zg300', 'zg500', 'zg600', 'va925', 'zg200', 'zg400', 'va850', 'uas', 'va300', 'va400', 'va100', 'va200', 'va500', 'va600', 'va700', 'ua925', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'rlut', 'prw', 'clwvi', 'clm', 'clivi']</t>
+          <t>['ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'zg700', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300']</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['huss', 'mrros', 'hus500', 'hus600', 'hus925', 'mrro', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'rlds', 'prw', 'hfls', 'hurs', 'hus100', 'hus200', 'hfss', 'cll', 'clivi', 'ua200', 'ua700', 'clh', 'clt', 'uas', 'ua300', 'ua400', 'ua500', 'ua600', 'clm', 'ua850', 'ua925', 'hus850', 'zg925', 'tasmin', 'ta600', 'ta700', 'ta850', 'ts', 'tasmax', 'tas', 'ta925', 'ua100', 'sfcWindmax', 'rsds', 'rsus', 'sfcWind', 'snc', 'rlus', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'zg300', 'ta100', 'ta200', 'ta300', 'ta500', 'snd', 'ta400', 'snm', 'snw', 'sund', 'mrfso', 'hus700', 'zmla', 'zg850', 'hus400', 'va100', 'va200', 'va400', 'va500', 'va600', 'va850', 'clwvi', 'evspsbl', 'hus300', 'va300', 'va700', 'va925']</t>
+          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'clivi', 'clt', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['ua925', 'ua600', 'ua700', 'ua850', 'hfss', 'hfls', 'uas', 'va200', 'ua500', 'mrfso', 'rlds', 'rlus', 'rlut', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'mrso', 'mrros', 'psl', 'zg300', 'zg400', 'mrro', 'pr', 'snw', 'ta300', 'ta500', 'ta100', 'ta600', 'ta700', 'sund', 'ta200', 'ta400', 'evspsbl', 'va300', 'hus300', 'hus600', 'hus850', 'hus200', 'hus500', 'hus700', 'hus925', 'hus400', 'huss', 'vas', 'va400', 'va600', 'va700', 'va850', 'va925', 'zg100', 'zg200', 'va500', 'tasmin', 'tas', 'ua100', 'ua300', 'tasmax', 'ta850', 'ta925', 'ua200', 'ua400', 'hurs', 'hus100', 'clt', 'va100', 'rsds', 'rsut', 'sfcWind', 'snd', 'sfcWindmax', 'rsus', 'rsdt', 'snm', 'snc']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['tasmax', 'ta500', 'ta600', 'ta700', 'ta850', 'tasmin', 'tas', 'ta400', 'ta925', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'evspsbl', 'snc', 'ta200', 'ta300', 'snd', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta100', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'hfss', 'hus600', 'uas', 'va300', 'va400', 'va850', 'va100', 'va200', 'va500', 'va600', 'va700', 'hus925', 'mrro', 'pr', 'vas', 'zg300', 'zg600', 'zg700', 'zg100', 'zg200', 'zg400', 'zg500', 'va925', 'mrso', 'mrros', 'huss', 'mrfso', 'hus700', 'hus850', 'zg925', 'rsds', 'rlds', 'rlus', 'rsut', 'rlut', 'psl', 'rsus', 'rsdt', 'sfcWind']</t>
+          <t>['mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl']</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['va100m', 'ua100m']</t>
+          <t>['ua100m', 'va100m']</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['cape', 'evspsbl', 'clt', 'hfls', 'ts', 'tas']</t>
+          <t>['cape', 'clt', 'evspsbl', 'hfls', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['zg700', 'zg850', 'zmla', 'clh', 'clivi', 'hus925', 'mrso', 'rsut', 'snc', 'clm', 'mrfso', 'mrro', 'mrros', 'prw', 'rlut', 'rsdt', 'snd', 'snm', 'cll', 'zg600', 'zg925', 'ta500', 'ta600', 'ts', 'ua100', 'va500', 'va700', 'va925', 'vas', 'zg200', 'zg500', 'ua200', 'ua500', 'ua600', 'ua700', 'uas', 'va100', 'va200', 'zg100', 'zg300', 'zg400', 'ua300', 'ua400', 'ua850', 'ua925', 'va300', 'ta700', 'ta850', 'ta925', 'va400', 'va600', 'va850', 'clwvi', 'evspsbl', 'hus200', 'hus500', 'hus850', 'ta100', 'ta200', 'ta300', 'hus100', 'hus300', 'hus400', 'hus600', 'hus700', 'snw', 'ta400']</t>
+          <t>['zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'hus925', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snc', 'snd', 'snm', 'cll', 'clm', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'ua100', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300']</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['hus300', 'hus400', 'hus500', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prw', 'psl', 'rlut', 'rsds', 'rsus', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus600', 'hus700', 'hus925', 'huss', 'prc', 'prhmax', 'prsn', 'ps', 'rlds', 'rlus', 'rsdt', 'rsut', 'sfcWindmax', 'snc', 'snm', 'sfcWind', 'snd', 'hfls', 'hfss', 'hurs', 'ta925', 'tasmax', 'ts', 'ua200', 'va400', 'va500', 'va600', 'va700', 'ua500', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'ua300', 'ua400', 'ua600', 'ua700', 'wsgsmax', 'zg500', 'zg600', 'zg925', 'zmla', 'snw', 'sund', 'ta300', 'ta400', 'ta700', 'ta850', 'tas', 'tasmin', 'ua100', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg700', 'zg850', 'ta100', 'ta200', 'ta500', 'ta600']</t>
+          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700']</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['hus400', 'hus500', 'hus700', 'huss', 'mrfso', 'mrro', 'mrso', 'va500', 'va600', 'va850', 'va925', 'ta300', 'ta400', 'rlut', 'rsds', 'rsdt', 'rsut', 'snw', 'sund', 'ta100', 'hfls', 'hfss', 'hurs', 'hus200', 'pr', 'psl', 'rlds', 'rlus', 'rsus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'va300', 'ta200', 'zg500', 'zg600', 'zg850', 'zg925', 'zg400', 'zg700', 'hus100', 'hus300', 'hus600', 'hus850', 'hus925', 'mrros', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va400', 'va700', 'vas', 'zg100', 'zg200', 'zg300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tasmax', 'ua200', 'ua300', 'clt', 'evspsbl', 'tas', 'tasmin', 'ua100', 'ua400', 'ua500', 'ua600']</t>
+          <t>['zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'clt', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['vas', 'zg300', 'zg100', 'zg200', 'zg500', 'zg600', 'zg850', 'zg925', 'zg400', 'zg700', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'clt', 'evspsbl', 'hfls', 'hus100', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'hfss', 'hurs', 'hus200', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'va300', 'va400', 'va500', 'va850', 'va925', 'snc', 'snd', 'snm', 'ta200', 'ta300', 'tas', 'tasmin', 'ua500', 'ua600', 'ua925', 'snw', 'sund', 'ta100', 'ta400', 'ta500', 'ta600', 'ta700', 'ua700', 'uas', 'va100', 'va200', 'va600', 'va700', 'ta850', 'ta925', 'tasmax', 'ua100', 'ua200', 'ua300', 'ua400', 'ua850', 'hus850']</t>
+          <t>['snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700']</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m']</t>
+          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['hurs', 'pr', 'rsds', 'tas', 'ps', 'hfls', 'evspsbl', 'prc', 'huss', 'clt', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'cape', 'hfss', 'sund', 'ts']</t>
+          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ps', 'ts']</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['rlut', 'prw', 'snc', 'ua400', 'ua500', 'ua600', 'ua700', 'ua200', 'ts', 'zg200', 'va925', 'rsdt', 'rsut', 'mrso', 'mrros', 'snm', 'snd', 'ta925', 'ua100', 'ua300', 'vas', 'zg100', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va500', 'va600', 'ua925', 'clh', 'cll', 'clm', 'evspsbl', 'hus200', 'hus600', 'hus925', 'mrro', 'snw', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'va200', 'clwvi', 'clivi', 'hus100', 'mrfso', 'hus300', 'hus400', 'hus500', 'hus700', 'hus850', 'ta500', 'uas', 'va100', 'va300', 'va400', 'ua850', 'zg600', 'zg850', 'zmla', 'zg700', 'zg925']</t>
+          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'mrfso', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'snw', 'ta300', 'ta100', 'ta200', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua850', 'ua925', 'zmla', 'zg600', 'zg850', 'zg700', 'zg925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snm', 'snc', 'snd', 'ta925', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua200', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'ta400', 'ta600', 'tas', 'ta300', 'ta500', 'rlds', 'snc', 'prc', 'prhmax', 'mrro', 'mrros', 'snd', 'huss', 'mrfso', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snm', 'mrso', 'pr', 'prw', 'psl', 'sund', 'prsn', 'ps', 'snw', 'clh', 'clivi', 'clt', 'clwvi', 'evspsbl', 'hfss', 'hus100', 'zg925', 'zmla', 'zg100', 'zg200', 'zg300', 'zg400', 'ua600', 'ua700', 'ua925', 'va400', 'va500', 'clm', 'hfls', 'hurs', 'hus850', 'hus400', 'tasmax', 'ua100', 'va850', 'va925', 'uas', 'va100', 'va200', 'zg500', 'zg600', 'zg700', 'ua200', 'ua300', 'cll', 'hus600', 'hus700', 'hus925', 'hus200', 'hus300', 'hus500', 'tasmin', 'ts', 'vas', 'wsgsmax', 'va300', 'zg850', 'ua850', 'va600', 'va700', 'ua400', 'ua500']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'zg925', 'zmla', 'tasmax', 'tasmin', 'ts', 'ua100', 'va850', 'va925', 'vas', 'wsgsmax', 'uas', 'va100', 'va200', 'va300', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg200', 'zg300', 'zg400', 'ua600', 'ua700', 'ua850', 'ua925', 'va400', 'va500', 'va600', 'va700', 'ua200', 'ua300', 'ua400', 'ua500', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'mrso', 'pr', 'prc', 'prhmax', 'huss', 'mrfso', 'mrro', 'mrros', 'prsn', 'prw', 'ps', 'psl', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600']</t>
         </is>
       </c>
     </row>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['hus300', 'tas', 'ua100', 'hus400', 'hus500', 'hus700', 'hus850', 'ta500', 'ta600', 'ta700', 'sund', 'ta400', 'mrso', 'snw', 'ta100', 'ta200', 'ta300', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'snc', 'snd', 'uas', 'clt', 'zg700', 'va200', 'va300', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'va400', 'zg400', 'ua300', 'ua700', 'ua400', 'ua500', 'ua600', 'evspsbl', 'zg500', 'zg850', 'ua850', 'va100', 'hfls', 'zg600', 'zg925', 'ua925', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'tasmax', 'tasmin', 'ua200', 'hus600', 'ta850', 'ta925', 'rsut', 'sfcWind', 'sfcWindmax']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925']</t>
         </is>
       </c>
     </row>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['ua600', 'ua700', 'sfcWind', 'rsus', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta100', 'ta200', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'va300', 'ua400', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'rlut', 'rsds', 'rsdt', 'rsut', 'va925', 'sund', 'ta300', 'ta850', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua500', 'zg300', 'zg925', 'zg400', 'zg500', 'zg700', 'zg850', 'psl', 'rlds', 'rlus', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'mrros', 'pr', 'clt', 'mrso', 'mrfso', 'zg600']</t>
+          <t>['mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
         </is>
       </c>
     </row>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['tds', 'tas', 'pr', 'prc']</t>
+          <t>['prc', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['hurs', 'psl', 'pr', 'evspsbl', 'clt', 'prc', 'huss', 'ps', 'rlds', 'hfss', 'hfls', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rsus', 'rlus']</t>
+          <t>['rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['cll', 'clm', 'hus300', 'hus400', 'hus500', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'mrfso', 'mrso', 'hus925', 'rsdt', 'rsut', 'snw', 'snc', 'ta300', 'ta400', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'mrro', 'rlut', 'snm', 'ta100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ta200', 'snd', 'va850', 'zg300', 'zg400', 'va700', 'va925', 'zg500', 'zg600', 'ua600', 'ua700', 'ua850', 'ua925', 'va300', 'va400', 'va500', 'vas', 'zg100', 'zg200', 'va100', 'va200', 'va600', 'zg700', 'zg850', 'clh', 'clivi', 'zg925', 'zmla']</t>
+          <t>['clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['zg500', 'zg600', 'zg700', 'zg850', 'ua700', 'va300', 'va400', 'va500', 'va700', 'ua400', 'ua500', 'ua600', 'va600', 'clt', 'clwvi', 'clm', 'cll', 'clh', 'evspsbl', 'clivi', 'pr', 'rlds', 'prhmax', 'rlut', 'prc', 'psl', 'prsn', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'rsds', 'mrso', 'huss', 'mrros', 'mrro', 'rlus', 'prw', 'ps', 'mrfso', 'hus700', 'hus850', 'hus925', 'ta100', 'ta200', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'sund', 'ta300', 'zmla', 'zg925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100']</t>
+          <t>['sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100']</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['zg300', 'zg400', 'zg500', 'zg600', 'ua925', 'hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta600', 'ua700', 'ua850', 'zg200', 'rsds', 'rsus', 'ta300', 'uas', 'ua600', 'rlus', 'rsdt', 'rlut', 'ta400', 'ta500', 'ta700', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'zg700', 'zg850', 'zg925', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ta200', 'ua200', 'ua500', 'va850', 'va925', 'zg100', 'va700', 'ua100', 'ua300', 'ua400', 'vas']</t>
+          <t>['hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['ta400', 'ua300', 'ua400', 'ua500', 'ua700', 'ua850', 'ua600', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'zg200', 'zg300', 'zg400', 'va925', 'zg700', 'zg850', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'rsds', 'rsut', 'va300', 'va400', 'va500', 'va600', 'va850', 'vas', 'ua925', 'va700', 'hus400', 'hus500', 'hus600', 'hus700', 'rsus', 'rsdt', 'zg100', 'zg500', 'zg600', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'hfss', 'hfls', 'hurs', 'hus100', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'snw', 'hus200', 'pr', 'sund', 'ta100', 'ta200', 'ta300']</t>
+          <t>['hus400', 'hus500', 'hus600', 'hus700', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'ua925', 'va400', 'va500', 'va600', 'va700', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va925', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'pr', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'prc', 'tds']</t>
+          <t>['tds', 'prc', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['tas', 'ts', 'prc', 'ps', 'rlds', 'sfcWind', 'hfls', 'huss', 'clt', 'cape', 'hfss', 'evspsbl', 'hurs', 'pr', 'rsds', 'rsus', 'rlus', 'psl', 'sund']</t>
+          <t>['tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'vas', 'va100', 'va400', 'ua700', 'uas', 'va200', 'va300', 'va500', 'ua850', 'ua925', 'va600', 'va925', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'ua300', 'ua400', 'ua600', 'ts', 'ua500', 'rsut', 'mrso', 'rsdt', 'rlut', 'prw', 'mrros', 'mrro', 'snc', 'snd', 'zg500', 'zg850', 'zmla', 'zg600', 'zg700', 'zg925', 'mrfso', 'hus200', 'hus300', 'hus850', 'hus500', 'hus600', 'hus700', 'hus400', 'hus925', 'ta600', 'ta925', 'ua100', 'ta850', 'ua200', 'snm', 'ta100', 'ta200', 'ta400', 'ta500', 'ta700', 'snw', 'ta300']</t>
+          <t>['snm', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snd', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'ta850', 'ta925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ts']</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['hus500', 'hus925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus600', 'hus700', 'hus850', 'ua200', 'ua500', 'ua100', 'ua300', 'ua400', 'ua600', 'ua700', 'ua850', 'ts', 'uas', 'va100', 'va200', 'va300', 'va500', 'va700', 'ua925', 'va400', 'va600', 'va850', 'va925', 'clm', 'evspsbl', 'hus100', 'clt', 'tas', 'ta500', 'ta600', 'ta925', 'tasmax', 'tasmin', 'ta400', 'ta700', 'ta850', 'hus200', 'zmla', 'zg925', 'zg600', 'zg700', 'zg850', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'psl', 'rsds', 'rlds', 'rsus', 'rsut', 'hfss', 'clh', 'cll', 'clivi', 'wsgsmax', 'zg100', 'zg200', 'zg400', 'zg300', 'zg500', 'vas', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'prhmax', 'sfcWindmax', 'snm', 'ta100', 'ta300', 'snd', 'snw', 'sund', 'snc', 'ta200', 'clwvi', 'hfls', 'hurs']</t>
+          <t>['sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hfss', 'clwvi', 'hfls', 'clm', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'zmla', 'zg925', 'zg600', 'zg700', 'zg850', 'clh', 'cll', 'clivi', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925']</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['hus300', 'hus400', 'hus500', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hurs', 'uas', 'ua300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'ua400', 'vas', 'va300', 'va400', 'va850', 'va925', 'va200', 'va500', 'va600', 'va700', 'zg500', 'zg700', 'zg850', 'ua200', 'evspsbl', 'clt', 'tasmax', 'ta850', 'ua100', 'tasmin', 'ta600', 'ta700', 'ta925', 'tas', 'hfss', 'hfls', 'ta100', 'ta200', 'ta300', 'snd', 'snw', 'sund', 'ta400', 'ta500', 'sfcWindmax', 'rlus', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'rlut', 'snc', 'zg100', 'zg200', 'zg300', 'zg400', 'zg600', 'zg925', 'rlds', 'mrso', 'mrros', 'mrro', 'pr', 'mrfso', 'huss', 'hus925', 'psl', 'snm']</t>
+          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus925', 'psl', 'mrro', 'pr', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hfss', 'hfls', 'evspsbl', 'clt', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['hus500', 'hus700', 'mrro', 'mrfso', 'mrros', 'huss', 'hus850', 'hus925', 'hus600', 'va100', 'va200', 'va500', 'va600', 'uas', 'va300', 'va400', 'ua850', 'ua925', 'zg200', 'zg500', 'va700', 'va925', 'vas', 'zg100', 'zg300', 'zg400', 'va850', 'zg925', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'hfls', 'evspsbl', 'hus100', 'hus300', 'hus400', 'hfss', 'hurs', 'hus200', 'clt', 'ta100', 'snd', 'tas', 'ta300', 'ta400', 'ta600', 'ta700', 'ta925', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsut', 'snm', 'snc', 'sfcWind', 'snw', 'sund', 'zg600', 'zg700', 'zg850', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl']</t>
+          <t>['tas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'mrfso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'clt', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua850', 'ua925', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'zmla', 'sfcWind', 'vas', 'uas', 'ps', 'pr', 'sfcWindmax', 'tas', 'ts']</t>
+          <t>['ps', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'zmla', 'sfcWind', 'vas', 'uas', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['tas', 'rlds', 'hurs', 'rsds', 'rsus', 'sfcWind', 'ps', 'psl', 'rlus', 'hfss', 'huss', 'hfls', 'pr']</t>
+          <t>['rlds', 'tas', 'hurs', 'sfcWind', 'hfls', 'rsus', 'pr', 'rsds', 'ps', 'rlus', 'hfss', 'huss', 'psl']</t>
         </is>
       </c>
     </row>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['hurs', 'va850', 'mrso', 'clm', 'prc', 'va500', 'sic', 'hurs', 'hus850', 'rsus', 'mrros', 'ta850', 'hfls', 'ua200', 'evspsbl', 'rlut', 'sic', 'mrro', 'rlut', 'ta500', 'tasmax', 'rsus', 'prc', 'prsn', 'cll', 'sfcWind', 'uas', 'clivi', 'uas', 'tauv', 'snc', 'hfss', 'prhmax', 'clt', 'evspsbl', 'rlus', 'clm', 'psl', 'huss', 'ts', 'psl', 'ua850', 'clh', 'vas', 'sfcWindmax', 'hus850', 'va500', 'tasmin', 'ta200', 'clt', 'ts', 'prhmax', 'snm', 'sund', 'snw', 'rsut', 'clwvi', 'vas', 'va200', 'tasmax', 'snm', 'rsut', 'hfss', 'zg200', 'tauv', 'prw', 'ua500', 'snd', 'tasmin', 'clwvi', 'rlds', 'clivi', 'va850', 'ua500', 'ta500', 'ua200', 'rsds', 'tauu', 'clh', 'rsdt', 'pr', 'mrro', 'rlds', 'zg500', 'tas', 'pr', 'hfls', 'rsdt', 'cll', 'mrros', 'snc', 'huss', 'va200', 'ta850', 'rlus', 'ua850', 'sfcWind', 'ps', 'tauu', 'mrso', 'prw', 'sfcWindmax', 'rsds', 'ps', 'ta200', 'tas', 'prsn', 'sund']</t>
+          <t>['sund', 'hurs', 'va850', 'mrso', 'clm', 'clwvi', 'rlds', 'clivi', 'tasmin', 'va850', 'prc', 'sic', 'hurs', 'hus850', 'va500', 'rsus', 'mrros', 'ta850', 'rlds', 'zg500', 'tas', 'pr', 'hfls', 'rsdt', 'cll', 'mrros', 'snc', 'huss', 'va200', 'ta850', 'rlus', 'zg200', 'tauv', 'prw', 'ua500', 'snd', 'hfss', 'snw', 'rsut', 'sund', 'va500', 'tasmin', 'ta200', 'clt', 'ts', 'sfcWindmax', 'hus850', 'prhmax', 'snm', 'evspsbl', 'rsus', 'prc', 'ta500', 'tasmax', 'prsn', 'rlut', 'sic', 'mrro', 'hfls', 'cll', 'ua200', 'rlut', 'sfcWind', 'uas', 'clivi', 'uas', 'clwvi', 'vas', 'tauv', 'snc', 'evspsbl', 'rlus', 'clm', 'huss', 'ts', 'hfss', 'psl', 'prhmax', 'clt', 'clh', 'vas', 'ua850', 'va200', 'tasmax', 'snm', 'rsut', 'ua500', 'ta500', 'ua200', 'rsds', 'tauu', 'clh', 'rsdt', 'mrro', 'pr', 'psl', 'ua850', 'sfcWind', 'ps', 'tauu', 'mrso', 'prw', 'sfcWindmax', 'rsds', 'ps', 'ta200', 'tas', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['hurs', 'clt', 'hurs', 'snc', 'ua500', 'hus850', 'tas', 'ta200', 'rsdt', 'pr', 'rsus', 'rlut', 'mrro', 'hfls', 'rsds', 'ta850', 'rlus', 'clt', 'ua200', 'hfss', 'psl', 'va200', 'vas', 'huss', 'va500', 'ua500', 'pr', 'rsut', 'tasmax', 'tas', 'rsdt', 'snm', 'rlds', 'mrros', 'ta500', 'hfls', 'evspsbl', 'psl', 'sfcWindmax', 'va500', 'zg500', 'tasmin', 'zg200', 'sfcWind', 'va850', 'snm', 'rsut', 'huss', 'hus850', 'va850', 'snd', 'hfss', 'ta850', 'va200', 'rlds', 'sfcWind', 'tasmin', 'rlut', 'uas', 'ua850', 'mrso', 'vas', 'sic', 'rsus', 'mrro', 'ua850', 'uas', 'snc', 'ta200', 'sic', 'rlus', 'sund', 'snw', 'ua200', 'tasmax', 'mrso', 'sfcWindmax', 'rsds', 'ta500', 'evspsbl', 'mrros', 'sund']</t>
+          <t>['sund', 'hurs', 'clt', 'ta850', 'va200', 'rlds', 'sfcWind', 'ua500', 'snc', 'hurs', 'hus850', 'tas', 'ta200', 'uas', 'snc', 'ta200', 'sic', 'rlus', 'huss', 'hus850', 'va850', 'snd', 'hfss', 'va500', 'tasmin', 'zg500', 'rlds', 'hfls', 'rsdt', 'evspsbl', 'mrros', 'psl', 'sfcWindmax', 'snm', 'ta500', 'rsus', 'rlut', 'mrro', 'hfls', 'rsdt', 'pr', 'zg200', 'va200', 'rsds', 'sfcWind', 'ta850', 'vas', 'rlus', 'huss', 'va500', 'clt', 'ua200', 'hfss', 'psl', 'va850', 'snm', 'rsut', 'tasmin', 'rlut', 'uas', 'ua850', 'mrso', 'vas', 'sic', 'ua850', 'rsus', 'mrro', 'tasmax', 'tas', 'ua500', 'pr', 'rsut', 'sund', 'snw', 'ua200', 'tasmax', 'mrso', 'sfcWindmax', 'rsds', 'ta500', 'evspsbl', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['ua500', 'ta200', 'ua850', 'rsdt', 'hus850', 'rlds', 'hfls', 'pr', 'va200', 'snm', 'ua500', 'rlut', 'vas', 'mrro', 'sfcWindmax', 'ta200', 'psl', 'snm', 'tasmax', 'rlds', 'ta500', 'va850', 'tasmax', 'hurs', 'hus850', 'hfss', 'ua850', 'zg200', 'snw', 'rsut', 'rlus', 'snc', 'tasmin', 'snc', 'sic', 'evspsbl', 'mrso', 'mrros', 'ta850', 'rsds', 'clt', 'rlut', 'va850', 'rlus', 'huss', 'hfss', 'huss', 'va500', 'sic', 'ua200', 'sund', 'ua200', 'zg500', 'va500', 'tas', 'rsut', 'sund', 'hurs', 'vas', 'clt', 'evspsbl', 'psl', 'sfcWindmax', 'rsus', 'tasmin', 'hfls', 'rsdt', 'va200', 'snd', 'sfcWind', 'pr', 'rsus', 'uas', 'mrros', 'tas', 'sfcWind', 'ta850', 'mrso', 'rsds', 'uas', 'ta500', 'mrro']</t>
+          <t>['sund', 'ua500', 'hurs', 'vas', 'clt', 'evspsbl', 'psl', 'ua850', 'hfls', 'rsdt', 'hus850', 'pr', 'rlds', 'va200', 'snm', 'ua500', 'ta200', 'va200', 'snd', 'sfcWind', 'pr', 'rsus', 'zg500', 'va500', 'tas', 'rsut', 'sund', 'ua200', 'va850', 'rlus', 'huss', 'hfss', 'rlut', 'evspsbl', 'tasmin', 'mrso', 'snc', 'mrros', 'sic', 'ta850', 'rsds', 'clt', 'rlut', 'vas', 'mrro', 'sfcWindmax', 'ta200', 'tasmax', 'snm', 'psl', 'rlds', 'ta500', 'va850', 'tasmax', 'rsut', 'snc', 'rlus', 'huss', 'va500', 'sic', 'ua200', 'sfcWindmax', 'rsus', 'hfls', 'rsdt', 'tasmin', 'hurs', 'zg200', 'hus850', 'snw', 'ua850', 'hfss', 'uas', 'mrros', 'tas', 'sfcWind', 'ta850', 'mrso', 'rsds', 'uas', 'ta500', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['tas', 'ps', 'rsds', 'rlus', 'pr', 'psl', 'hfls', 'rsus', 'rlds', 'huss', 'sfcWind', 'hfss', 'hurs']</t>
+          <t>['rsds', 'tas', 'ps', 'pr', 'rlus', 'psl', 'rsus', 'huss', 'hfls', 'hurs', 'rlds', 'sfcWind', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['clivi', 'hurs', 'ua200', 'tauu', 'vas', 'clm', 'va500', 'snm', 'psl', 'prhmax', 'ps', 'hurs', 'clivi', 'rsus', 'ta500', 'hfls', 'rsdt', 'hus850', 'ta850', 'clt', 'rsus', 'vas', 'mrros', 'rlut', 'mrro', 'mrros', 'psl', 'prsn', 'tasmin', 'clm', 'prc', 'ua500', 'hfss', 'rsds', 'huss', 'ts', 'rsut', 'va850', 'sfcWindmax', 'rlus', 'pr', 'va200', 'rsdt', 'zg500', 'clwvi', 'prhmax', 'rlds', 'snw', 'snc', 'cll', 'ta200', 'snd', 'hfls', 'evspsbl', 'tasmax', 'sfcWind', 'sic', 'clh', 'zg200', 'ua500', 'ta500', 'ts', 'tauv', 'hus850', 'cll', 'snc', 'ua850', 'tasmin', 'sund', 'huss', 'ua850', 'tauv', 'hfss', 'tas', 'rlds', 'tasmax', 'ua200', 'pr', 'clt', 'sfcWindmax', 'clh', 'sfcWind', 'sic', 'rsut', 'rlut', 'prw', 'prc', 'mrso', 'mrro', 'ta850', 'va850', 'prsn', 'va500', 'snm', 'ps', 'rlus', 'va200', 'sund', 'uas', 'mrso', 'ta200', 'clwvi', 'tauu', 'rsds', 'tas', 'evspsbl', 'uas', 'prw']</t>
+          <t>['sund', 'clivi', 'hurs', 'ua200', 'tauu', 'pr', 'clt', 'sfcWindmax', 'rlds', 'tasmax', 'clh', 'sfcWind', 'ua200', 'vas', 'clm', 'va500', 'snm', 'psl', 'ps', 'hurs', 'prhmax', 'clivi', 'rsus', 'va500', 'snm', 'ps', 'rlus', 'huss', 'ua850', 'tauv', 'hfss', 'tas', 'ua500', 'zg200', 'ta500', 'ts', 'rlds', 'snd', 'hfls', 'rsdt', 'evspsbl', 'zg500', 'snw', 'tasmax', 'sfcWind', 'snc', 'clwvi', 'cll', 'ta200', 'prhmax', 'sic', 'clh', 'vas', 'hus850', 'mrros', 'ta850', 'clt', 'rsus', 'psl', 'clm', 'prsn', 'tasmin', 'rlut', 'mrro', 'ta500', 'hfls', 'rsdt', 'mrros', 'rsds', 'tauv', 'prc', 'huss', 'rlus', 'ua500', 'pr', 'hfss', 'hus850', 'va200', 'cll', 'snc', 'ua850', 'tasmin', 'rsut', 'sic', 'rlut', 'prw', 'prc', 'mrso', 'va850', 'mrro', 'ta850', 'va850', 'ts', 'sfcWindmax', 'rsut', 'va200', 'sund', 'uas', 'mrso', 'ta200', 'clwvi', 'tauu', 'rsds', 'tas', 'evspsbl', 'uas', 'prw', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['orog', 'orog', 'sftlf', 'sftlf']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['sund', 'hurs', 'tasmax', 'vas', 'clt', 'ua500', 'hurs', 'va200', 'rsus', 'mrro', 'snm', 'rlut', 'ta200', 'snc', 'psl', 'evspsbl', 'clt', 'rsus', 'vas', 'rlut', 'hfls', 'sfcWind', 'ta200', 'rsds', 'evspsbl', 'huss', 'hfss', 'snw', 'ua850', 'ua500', 'tasmin', 'rlus', 'va850', 'ta850', 'rlds', 'mrros', 'sic', 'pr', 'uas', 'tasmax', 'rsut', 'rsut', 'ua200', 'pr', 'sic', 'snc', 'va500', 'rlus', 'tas', 'ua200', 'zg500', 'hfss', 'va500', 'mrso', 'ta500', 'sfcWindmax', 'psl', 'ua850', 'rlds', 'zg200', 'va200', 'snd', 'rsdt', 'mrro', 'sfcWindmax', 'hfls', 'rsdt', 'hus850', 'snm', 'huss', 'sund', 'sfcWind', 'mrros', 'va850', 'tasmin', 'mrso', 'ta850', 'tas', 'rsds', 'hus850', 'uas', 'ta500']</t>
+          <t>['sund', 'hurs', 'mrso', 'ta500', 'sfcWindmax', 'psl', 'ua850', 'rlds', 'vas', 'clt', 'ua500', 'hurs', 'va200', 'rsus', 'tasmax', 'sfcWindmax', 'hfls', 'rsdt', 'hus850', 'snm', 'huss', 'rlus', 'tas', 'ua200', 'zg500', 'hfss', 'va500', 'uas', 'tasmax', 'rsut', 'rsut', 'rlds', 'ta850', 'mrros', 'sic', 'pr', 'snc', 'psl', 'ta200', 'evspsbl', 'clt', 'rsus', 'vas', 'rlut', 'mrro', 'hfls', 'snm', 'rlut', 'sfcWind', 'ta200', 'snw', 'ua850', 'rsds', 'evspsbl', 'rlus', 'huss', 'hfss', 'va850', 'ua200', 'pr', 'sic', 'snc', 'va500', 'zg200', 'va200', 'snd', 'rsdt', 'mrro', 'tasmin', 'ua500', 'sund', 'sfcWind', 'mrros', 'va850', 'tasmin', 'mrso', 'ta850', 'tas', 'rsds', 'hus850', 'uas', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['hfls', 'va200', 'hfls', 'sic', 'ua850', 'rlds', 'evspsbl', 'mrro', 'rlut', 'sfcWind', 'sic', 'tasmin', 'ta200', 'tasmin', 'vas', 'psl', 'ua200', 'sfcWind', 'hfss', 'zg200', 'va200', 'va500', 'rlus', 'rsut', 'clt', 'mrso', 'ta500', 'tas', 'rlds', 'rsds', 'vas', 'tasmax', 'snm', 'snm', 'huss', 'rlut', 'snw', 'ua200', 'uas', 'ua500', 'clt', 'huss', 'sfcWindmax', 'hus850', 'hfss', 'va850', 'sund', 'snd', 'sfcWindmax', 'rsut', 'sund', 'va850', 'rlus', 'ua500', 'rsdt', 'ta850', 'hurs', 'rsus', 'mrros', 'uas', 'psl', 'tasmax', 'snc', 'rsdt', 'tas', 'mrro', 'ta200', 'hurs', 'ua850', 'rsus', 'hus850', 'snc', 'evspsbl', 'zg500', 'pr', 'va500', 'ta500', 'mrros', 'mrso', 'ta850', 'rsds', 'pr']</t>
+          <t>['sund', 'hfls', 'ta850', 'hurs', 'ua500', 'rsdt', 'va200', 'hfls', 'rlds', 'sic', 'ua850', 'hurs', 'ua850', 'rsus', 'hus850', 'snc', 'sfcWindmax', 'snd', 'rsut', 'sund', 'va850', 'rlus', 'huss', 'snw', 'ua200', 'rlut', 'snm', 'tas', 'rlds', 'vas', 'tasmax', 'mrso', 'ta500', 'rsds', 'snm', 'mrro', 'rlut', 'sfcWind', 'tasmin', 'ta200', 'sic', 'evspsbl', 'uas', 'ua500', 'clt', 'psl', 'ua200', 'sfcWind', 'tasmin', 'vas', 'va500', 'rsut', 'clt', 'rlus', 'huss', 'sfcWindmax', 'hus850', 'va850', 'hfss', 'rsus', 'rsdt', 'mrros', 'psl', 'tasmax', 'snc', 'uas', 'zg200', 'va200', 'hfss', 'evspsbl', 'zg500', 'pr', 'va500', 'ta500', 'mrros', 'mrso', 'ta850', 'rsds', 'pr', 'tas', 'mrro', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['clwvi', 'rlus', 'rsdt', 'rsut', 'rlut', 'tauu', 'tas', 'vas', 'uas', 'rsus', 'psl', 'ts', 'clm', 'prhmax', 'sund', 'hfss', 'hfls', 'cll', 'evspsbl', 'hurs', 'clt', 'rsds', 'rlds', 'ps', 'tauv', 'tasmax', 'tasmin', 'clh', 'clivi', 'prc', 'prw', 'huss', 'prsn', 'pr', 'sfcWindmax', 'sfcWind']</t>
+          <t>['hfss', 'clwvi', 'hfls', 'cll', 'clm', 'evspsbl', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ts', 'vas', 'uas', 'clh', 'clivi', 'prc', 'prw', 'huss', 'prsn', 'pr', 'sfcWindmax', 'sfcWind', 'prhmax', 'sund']</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['uas', 'sfcWindmax', 'rsut', 'sfcWind', 'vas', 'sund', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas']</t>
+          <t>['sfcWindmax', 'rsut', 'sfcWind', 'vas', 'uas', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'sund']</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['va850', 'va200', 'va500', 'ua500', 'ua850', 'hus850', 'ua200', 'ta200', 'ta500', 'ta850']</t>
+          <t>['va200', 'va500', 'va850', 'ua500', 'ua850', 'hus850', 'ua200', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['snw', 'sic', 'snm', 'snc']</t>
+          <t>['snm', 'snw', 'snc', 'sic']</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'uas', 'sfcWindmax', 'tasmax', 'tasmin', 'tas', 'tauv', 'tauu', 'sund', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr']</t>
+          <t>['sfcWindmax', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'uas', 'sund']</t>
         </is>
       </c>
     </row>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['va850', 'va200', 'va500', 'ua500', 'ta200', 'ua200', 'ua850', 'ta850', 'ta500', 'hus850']</t>
+          <t>['ta200', 'ta500', 'ua200', 'ua500', 'ua850', 'ta850', 'hus850', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['sic', 'snm', 'snw', 'snc']</t>
+          <t>['snm', 'snw', 'snc', 'sic']</t>
         </is>
       </c>
     </row>
@@ -12510,7 +12510,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['pr', 'hfss', 'hfls', 'rsus', 'rlus', 'rsds', 'rlds']</t>
+          <t>['pr', 'hfss', 'hfls', 'rsus', 'rlds', 'rlus', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['huss', 'ps', 'psl', 'sfcWind', 'tas', 'hurs']</t>
+          <t>['hurs', 'huss', 'ps', 'psl', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['ts', 'cll', 'huss', 'tauv', 'va850', 'hfss', 'clh', 'clt', 'vas', 'rsdt', 'snc', 'ua500', 'clm', 'va500', 'evspsbl', 'snm', 'pr', 'mrso', 'rsds', 'ta850', 'ta500', 'rlds', 'prc', 'sic', 'tasmax', 'ps', 'hurs', 'prw', 'mrros', 'ua850', 'sund', 'sfcWindmax', 'rlus', 'rsus', 'rlut', 'uas', 'psl', 'hus850', 'clwvi', 'tasmin', 'mrro', 'tauu', 'prhmax', 'rsut', 'ua200', 'tas', 'sfcWind', 'prsn', 'va200', 'hfls', 'clivi', 'ta200']</t>
+          <t>['mrso', 'prw', 'rsds', 'tasmax', 'ta850', 'mrros', 'ta500', 'rlds', 'ps', 'ua850', 'prc', 'hurs', 'sic', 'va200', 'hfls', 'rsdt', 'snc', 'cll', 'ua500', 'clm', 'clivi', 'huss', 'tauv', 'vas', 'va850', 'hfss', 'clh', 'clt', 'va500', 'evspsbl', 'rsut', 'snm', 'ua200', 'pr', 'tas', 'sfcWind', 'prsn', 'tasmin', 'mrro', 'clwvi', 'tauu', 'sfcWindmax', 'rlus', 'psl', 'rsus', 'hus850', 'rlut', 'uas', 'ts', 'ta200', 'sund', 'prhmax']</t>
         </is>
       </c>
     </row>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['va850', 'hfls', 'sfcWindmax', 'vas', 'ua500', 'hfss', 'psl', 'tasmax', 'rsut', 'ua850', 'snm', 'rsds', 'ta200', 'ua200', 'hurs', 'evspsbl', 'tasmin', 'rlds', 'va500', 'rlus', 'pr', 'sfcWind', 'huss', 'rsus', 'rlut', 'ta850', 'mrro', 'uas', 'ta500', 'mrso', 'sund', 'tas', 'snc', 'rsdt', 'hus850', 'sic', 'va200', 'clt', 'mrros']</t>
+          <t>['rsds', 'evspsbl', 'ta200', 'rlds', 'va500', 'tasmin', 'ua200', 'hurs', 'va850', 'snc', 'hfls', 'rsdt', 'hus850', 'sic', 'va200', 'clt', 'sfcWindmax', 'vas', 'ua500', 'hfss', 'tasmax', 'psl', 'snm', 'rsut', 'ua850', 'tas', 'ta500', 'mrro', 'uas', 'ta850', 'mrso', 'rlus', 'sfcWind', 'huss', 'pr', 'rsus', 'rlut', 'mrros', 'sund']</t>
         </is>
       </c>
     </row>
@@ -12894,7 +12894,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['psl', 'rsut', 'ua850', 'rlds', 'evspsbl', 'va200', 'snc', 'rlus', 'huss', 'ua500', 'sic', 'tasmax', 'uas', 'ta200', 'clt', 'snm', 'sfcWind', 'tas', 'mrso', 'va850', 'rsdt', 'sfcWindmax', 'va500', 'rsds', 'hurs', 'vas', 'hfls', 'sund', 'tasmin', 'mrros', 'ta500', 'rsus', 'ta850', 'pr', 'hfss', 'rlut', 'mrro', 'ua200', 'hus850']</t>
+          <t>['sfcWind', 'tas', 'mrso', 'tasmax', 'rsds', 'uas', 'ta200', 'va850', 'clt', 'hurs', 'vas', 'hfls', 'rsdt', 'psl', 'sfcWindmax', 'snm', 'va500', 'rlds', 'ua200', 'evspsbl', 'ua850', 'rsut', 'rlus', 'va200', 'huss', 'snc', 'ua500', 'hfss', 'sic', 'rlut', 'mrro', 'ta850', 'rsus', 'ta500', 'pr', 'tasmin', 'mrros', 'hus850', 'sund']</t>
         </is>
       </c>
     </row>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['pr', 'rsds', 'rlds', 'rlus', 'sfcWind', 'hfss', 'huss', 'rsus', 'hurs', 'ps', 'psl', 'tas', 'hfls']</t>
+          <t>['pr', 'rsds', 'tas', 'hfls', 'rsus', 'hurs', 'psl', 'ps', 'rlus', 'hfss', 'sfcWind', 'huss', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['evspsbl', 'vas', 'ua500', 'hus850', 'clwvi', 'clh', 'clm', 'huss', 'mrro', 'tasmin', 'va200', 'rsds', 'mrso', 'hfls', 'ua200', 'rlus', 'tauu', 'uas', 'rsdt', 'clt', 'prsn', 'mrros', 'va500', 'ta500', 'rlut', 'prw', 'prc', 'ts', 'pr', 'rsut', 'tauv', 'sund', 'clivi', 'sfcWindmax', 'psl', 'ta200', 'sic', 'prhmax', 'tasmax', 'rlds', 'cll', 'ta850', 'va850', 'snm', 'ua850', 'rsus', 'ps', 'sfcWind', 'tas', 'hfss', 'hurs', 'snc']</t>
+          <t>['sund', 'prhmax', 'ta200', 'tauv', 'rsut', 'prc', 'ts', 'rlut', 'prw', 'pr', 'cll', 'ua850', 'rsus', 'ta850', 'snm', 'va850', 'sic', 'rsds', 'tauu', 'mrso', 'uas', 'hfls', 'rsdt', 'ua200', 'clt', 'rlus', 'huss', 'tasmin', 'mrro', 'ps', 'sfcWind', 'tas', 'hfss', 'hurs', 'snc', 'va200', 'ta500', 'clwvi', 'clh', 'evspsbl', 'vas', 'clm', 'ua500', 'hus850', 'tasmax', 'sfcWindmax', 'rlds', 'clivi', 'psl', 'va500', 'mrros', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -13134,7 +13134,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['hurs', 'rsut', 'ta850', 'rlds', 'clt', 'rsus', 'snc', 'va500', 'tasmax', 'mrro', 'huss', 'va850', 'mrso', 'ta200', 'rlut', 'evspsbl', 'ua200', 'sfcWind', 'sic', 'sund', 'ta500', 'va200', 'rsdt', 'hus850', 'tas', 'hfls', 'psl', 'ua850', 'rlus', 'sfcWindmax', 'hfss', 'pr', 'snm', 'tasmin', 'ua500', 'rsds', 'uas', 'mrros', 'vas']</t>
+          <t>['sund', 'tas', 'hfls', 'rsdt', 'hus850', 'psl', 'ua850', 'sfcWind', 'sic', 'ua200', 'evspsbl', 'hfss', 'pr', 'tasmin', 'ua500', 'snm', 'rlus', 'rsus', 'mrso', 'huss', 'snc', 'va500', 'tasmax', 'va850', 'mrro', 'rsds', 'uas', 'mrros', 'vas', 'ta850', 'rlds', 'hurs', 'clt', 'rsut', 'ta500', 'sfcWindmax', 'va200', 'ta200', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['ta500', 'va200', 'hus850', 'ta200', 'snc', 'rlds', 'mrro', 'evspsbl', 'va850', 'rlut', 'va500', 'sfcWindmax', 'clt', 'rsus', 'vas', 'tasmin', 'tas', 'sfcWind', 'hfss', 'psl', 'ua200', 'snm', 'sund', 'ta850', 'ua500', 'tasmax', 'hfls', 'mrso', 'pr', 'rsds', 'ua850', 'hurs', 'rsdt', 'sic', 'uas', 'mrros', 'rsut', 'rlus', 'huss']</t>
+          <t>['sund', 'rsds', 'ua500', 'snm', 'hfss', 'psl', 'ua200', 'sfcWind', 'tasmax', 'hfls', 'mrso', 'pr', 'uas', 'rsdt', 'sic', 'ua850', 'hurs', 'evspsbl', 'va850', 'rlut', 'sfcWindmax', 'va500', 'clt', 'mrros', 'rsut', 'rlus', 'huss', 'rsus', 'tas', 'ta500', 'snc', 'rlds', 'va200', 'hus850', 'mrro', 'ta200', 'ta850', 'tasmin', 'vas']</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -13462,7 +13462,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['psl', 'hfss', 'hfls', 'rsus', 'tas', 'hurs', 'rlus', 'huss', 'pr', 'rsds', 'ps', 'sfcWind', 'rlds']</t>
+          <t>['psl', 'hfss', 'hfls', 'rsus', 'tas', 'rlds', 'sfcWind', 'rlus', 'huss', 'pr', 'rsds', 'ps', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['va200', 'sfcWindmax', 'clh', 'evspsbl', 'snc', 'uas', 'vas', 'ta500', 'hfss', 'va850', 'snm', 'ua200', 'rsds', 'prw', 'prc', 'ua850', 'va500', 'sfcWind', 'mrro', 'tasmin', 'clwvi', 'mrros', 'rlds', 'hus850', 'tas', 'prsn', 'tauu', 'mrso', 'tasmax', 'ps', 'cll', 'hurs', 'ts', 'sic', 'ta850', 'tauv', 'prhmax', 'rlus', 'huss', 'rsut', 'rlut', 'ta200', 'rsus', 'rsdt', 'ua500', 'hfls', 'clm', 'clivi', 'psl', 'clt', 'sund', 'pr']</t>
+          <t>['sund', 'clh', 'evspsbl', 'vas', 'uas', 'ta500', 'snc', 'sfcWindmax', 'tasmax', 'mrso', 'va200', 'ta850', 'sic', 'hfss', 'va850', 'pr', 'tas', 'prsn', 'tauu', 'mrros', 'rlds', 'hus850', 'prhmax', 'rlus', 'tauv', 'huss', 'ts', 'cll', 'hurs', 'ps', 'rsut', 'rlut', 'ta200', 'snm', 'ua200', 'rsds', 'prw', 'prc', 'ua850', 'clm', 'clivi', 'psl', 'clt', 'rsus', 'hfls', 'rsdt', 'ua500', 'va500', 'clwvi', 'sfcWind', 'mrro', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['ua850', 'pr', 'snc', 'huss', 'rlus', 'evspsbl', 'hurs', 'sfcWind', 'tasmin', 'ta850', 'rlut', 'uas', 'sund', 'ta200', 'rlds', 'ua200', 'rsus', 'mrso', 'rsut', 'rsds', 'tasmax', 'sic', 'ta500', 'hfls', 'rsdt', 'va850', 'hus850', 'tas', 'ua500', 'hfss', 'vas', 'snm', 'va500', 'psl', 'va200', 'sfcWindmax', 'clt']</t>
+          <t>['sund', 'rlus', 'huss', 'evspsbl', 'hurs', 'ua850', 'pr', 'rsds', 'tasmax', 'snc', 'hfss', 'vas', 'hus850', 'tas', 'ta500', 'hfls', 'rsdt', 'va850', 'clt', 'rsus', 'mrso', 'ta200', 'rlds', 'ua200', 'ua500', 'sic', 'snm', 'va500', 'rsut', 'sfcWind', 'psl', 'va200', 'sfcWindmax', 'tasmin', 'rlut', 'uas', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['sfcWind', 'snc', 'mrso', 'sic', 'hurs', 'psl', 'evspsbl', 'hfss', 'ta500', 'rsdt', 'vas', 'hfls', 'tas', 'hus850', 'rlus', 'huss', 'ua500', 'ua200', 'rsus', 'ta200', 'tasmin', 'uas', 'pr', 'sfcWindmax', 'va500', 'rlut', 'ta850', 'ua850', 'snm', 'tasmax', 'rsut', 'sund', 'clt', 'va200', 'va850', 'rsds', 'rlds']</t>
+          <t>['sund', 'snc', 'sfcWind', 'mrso', 'ua500', 'tasmax', 'rsut', 'rlut', 'ta850', 'sfcWindmax', 'snm', 'va500', 'tas', 'hus850', 'ua850', 'rsus', 'uas', 'ta200', 'pr', 'tasmin', 'ua200', 'va200', 'va850', 'clt', 'rlus', 'huss', 'sic', 'evspsbl', 'hurs', 'psl', 'rsds', 'rlds', 'hfss', 'ta500', 'hfls', 'rsdt', 'vas']</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -13930,7 +13930,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['mrros', 'mrro']</t>
+          <t>['mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['hurs', 'rsds', 'rlus', 'huss', 'sfcWind', 'tas', 'hfls', 'rlds', 'hfss', 'psl', 'ps', 'pr', 'rsus']</t>
+          <t>['hurs', 'hfss', 'psl', 'ps', 'rsds', 'rlus', 'huss', 'pr', 'rsus', 'hfls', 'rlds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['ps', 'rlds', 'tasmin', 'clwvi', 'hfss', 'prsn', 'clivi', 'tas', 'mrro', 'rlus', 'rlut', 'sfcWindmax', 'rsut', 'prc', 'mrros', 'ta850', 'pr', 'vas', 'evspsbl', 'ts', 'tauu', 'ua850', 'prhmax', 'ua200', 'rsdt', 'hurs', 'sic', 'hfls', 'ta500', 'sund', 'uas', 'va500', 'tauv', 'clh', 'clm', 'clt', 'mrso', 'prw', 'hus850', 'huss', 'psl', 'rsds', 'snm', 'ta200', 'va200', 'ua500', 'rsus', 'tasmax', 'va850', 'cll', 'sfcWind', 'snc']</t>
+          <t>['sfcWindmax', 'rlut', 'clivi', 'tas', 'prsn', 'ua200', 'hfls', 'rsdt', 'hurs', 'sic', 'ta500', 'rsus', 'tasmax', 'va850', 'cll', 'sfcWind', 'snc', 'snm', 'ta200', 'va200', 'ua500', 'hfss', 'clwvi', 'ps', 'rlds', 'tasmin', 'rsut', 'prc', 'mrros', 'ta850', 'pr', 'uas', 'va500', 'tauv', 'clh', 'clm', 'huss', 'psl', 'clt', 'rsds', 'mrso', 'prw', 'hus850', 'prhmax', 'mrro', 'rlus', 'vas', 'tauu', 'evspsbl', 'ua850', 'ts', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14090,7 +14090,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['hus850', 'ta200', 'vas', 'va850', 'hfss', 'rlus', 'tasmin', 'tasmax', 'rlut', 'uas', 'ua850', 'rlds', 'tas', 'rsut', 'sfcWind', 'snm', 'rsdt', 'snc', 'ua200', 'huss', 'ta500', 'mrso', 'va200', 'hfls', 'sic', 'sund', 'psl', 'clt', 'rsds', 'evspsbl', 'ta850', 'va500', 'sfcWindmax', 'rsus', 'ua500', 'hurs', 'pr']</t>
+          <t>['va200', 'hfls', 'sic', 'sfcWindmax', 'rsus', 'ua500', 'hurs', 'pr', 'evspsbl', 'ta850', 'va500', 'hfss', 'vas', 'hus850', 'va850', 'ta200', 'rsut', 'sfcWind', 'snm', 'tas', 'rlds', 'psl', 'clt', 'rsds', 'rlut', 'uas', 'ua850', 'rlus', 'tasmin', 'tasmax', 'rsdt', 'huss', 'snc', 'ta500', 'mrso', 'ua200', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -14326,7 +14326,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['rsut', 'sfcWindmax', 'rsds', 'ua500', 'pr', 'snc', 'hurs', 'psl', 'clt', 'hfss', 'tas', 'rlds', 'snm', 'sund', 'rsus', 'va200', 'ta850', 'tasmin', 'va850', 'tasmax', 'ua200', 'rlus', 'sfcWind', 'huss', 'sic', 'ta500', 'mrso', 'hus850', 'uas', 'rlut', 'evspsbl', 'ua850', 'hfls', 'rsdt', 'vas', 'ta200', 'va500']</t>
+          <t>['rlds', 'snm', 'rlut', 'evspsbl', 'ua850', 'hfls', 'rsdt', 'vas', 'ta200', 'rlus', 'sfcWind', 'huss', 'sic', 'ta500', 'mrso', 'hus850', 'uas', 'ua200', 'rsut', 'sfcWindmax', 'rsds', 'va500', 'hfss', 'snc', 'hurs', 'psl', 'clt', 'rsus', 'tasmax', 'va200', 'ta850', 'tasmin', 'va850', 'ua500', 'pr', 'tas', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['tas', 'rsus', 'ps', 'rlus', 'rlds', 'hfss', 'sfcWind', 'rsds', 'hfls', 'pr', 'huss', 'psl', 'hurs']</t>
+          <t>['psl', 'huss', 'tas', 'hfls', 'hurs', 'rsds', 'pr', 'rlds', 'rsus', 'ps', 'rlus', 'hfss', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['va850', 'va200', 'mrro', 'psl', 'hus850', 'prw', 'clm', 'va500', 'ts', 'hurs', 'rsut', 'ua500', 'sfcWindmax', 'tas', 'tauv', 'tasmax', 'ua200', 'clt', 'hfls', 'rsdt', 'ta200', 'rlus', 'pr', 'rsus', 'ua850', 'clwvi', 'huss', 'cll', 'prsn', 'sic', 'ps', 'mrso', 'mrros', 'rlds', 'prhmax', 'hfss', 'tauu', 'rsds', 'snm', 'ta500', 'prc', 'snc', 'ta850', 'evspsbl', 'clivi', 'rlut', 'clh', 'sfcWind', 'vas', 'tasmin', 'uas', 'sund']</t>
+          <t>['sund', 'clm', 'psl', 'va500', 'hus850', 'prw', 'tauu', 'va850', 'va200', 'mrro', 'clivi', 'evspsbl', 'rlut', 'mrso', 'rlds', 'prhmax', 'hfss', 'mrros', 'rsds', 'snm', 'ta500', 'prc', 'clh', 'sfcWind', 'vas', 'clwvi', 'ta850', 'snc', 'ts', 'hurs', 'tas', 'tauv', 'tasmax', 'rsut', 'sfcWindmax', 'ua500', 'tasmin', 'uas', 'ps', 'sic', 'ua200', 'clt', 'hfls', 'rsdt', 'ta200', 'pr', 'rlus', 'huss', 'rsus', 'cll', 'prsn', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['psl', 'ua850', 'ta500', 'ua200', 'clt', 'sic', 'rsus', 'hurs', 'sfcWindmax', 'tasmin', 'tas', 'hus850', 'ta850', 'rlds', 'mrso', 'hfss', 'sfcWind', 'pr', 'ta200', 'snm', 'ua500', 'evspsbl', 'rsut', 'va500', 'snc', 'va850', 'uas', 'rlut', 'tasmax', 'va200', 'vas', 'rlus', 'huss', 'rsds', 'hfls', 'rsdt', 'sund']</t>
+          <t>['sund', 'clt', 'rsus', 'sic', 'ua200', 'snm', 'psl', 'ua850', 'ta500', 'tasmax', 'va200', 'uas', 'rlut', 'va850', 'mrso', 'rlds', 'pr', 'hfss', 'sfcWind', 'ta200', 'ua500', 'rsut', 'evspsbl', 'vas', 'ta850', 'snc', 'va500', 'hurs', 'sfcWindmax', 'tasmin', 'rsds', 'hfls', 'rsdt', 'rlus', 'huss', 'tas', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -14802,7 +14802,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['mrro', 'mrros']</t>
+          <t>['mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['hfls', 'ta850', 'rlut', 'rlds', 'mrso', 'hfss', 'rsus', 'va200', 'ua500', 'tasmin', 'rsut', 'sund', 'snm', 'pr', 'evspsbl', 'rsdt', 'clt', 'tas', 'ua850', 'ta200', 'sfcWind', 'psl', 'ua200', 'ta500', 'va850', 'uas', 'va500', 'huss', 'snc', 'rlus', 'hus850', 'vas', 'rsds', 'tasmax', 'sfcWindmax', 'sic', 'hurs']</t>
+          <t>['sund', 'rlds', 'hfls', 'rsdt', 'ta850', 'clt', 'snc', 'rlus', 'huss', 'hus850', 'vas', 'va500', 'evspsbl', 'ua850', 'tas', 'ta200', 'sfcWind', 'psl', 'ua200', 'rsds', 'ta500', 'uas', 'va850', 'mrso', 'va200', 'hfss', 'rsus', 'sfcWindmax', 'sic', 'hurs', 'tasmax', 'rlut', 'snm', 'pr', 'ua500', 'tasmin', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['hfls', 'rsds', 'rlds', 'rlus', 'hfss', 'pr', 'rsus']</t>
+          <t>['rlus', 'hfss', 'pr', 'rsus', 'hfls', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -15014,7 +15014,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['hurs', 'huss', 'ps', 'psl', 'tas', 'sfcWind']</t>
+          <t>['hurs', 'huss', 'ps', 'psl', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -15078,7 +15078,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['clm', 'ps', 'hurs', 'ta500', 'rsdt', 'hus850', 'hfls', 'rlus', 'ta850', 'sfcWind', 'mrros', 'tasmin', 'rlds', 'tas', 'evspsbl', 'ua500', 'cll', 'prsn', 'rsus', 'va850', 'ta200', 'sfcWindmax', 'tasmax', 'tauv', 'pr', 'snc', 'prc', 'clivi', 'rsut', 'prw', 'va500', 'clwvi', 'ts', 'sund', 'tauu', 'uas', 'rlut', 'clt', 'va200', 'mrso', 'ua850', 'snm', 'psl', 'ua200', 'sic', 'mrro', 'prhmax', 'huss', 'hfss', 'clh', 'vas', 'rsds']</t>
+          <t>['cll', 'pr', 'snc', 'va500', 'prsn', 'rsus', 'prc', 'clivi', 'va850', 'ta200', 'sfcWindmax', 'tasmax', 'clwvi', 'ts', 'tauv', 'rsut', 'prw', 'rlus', 'huss', 'hfss', 'ta500', 'hurs', 'hfls', 'rsdt', 'hus850', 'rlds', 'ta850', 'sfcWind', 'mrros', 'tas', 'tasmin', 'evspsbl', 'ua500', 'snm', 'va200', 'mrso', 'psl', 'ua850', 'clt', 'ua200', 'uas', 'tauu', 'clm', 'clh', 'vas', 'ps', 'rsds', 'sund', 'prhmax', 'rlut', 'sic', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['mrso', 'rsdt', 'hurs', 'hfls', 'uas', 'rlds', 'ta200', 'sfcWind', 'hus850', 'sfcWindmax', 'evspsbl', 'ua500', 'rsus', 'rlus', 'sic', 'va200', 'pr', 'mrros', 'ta850', 'rsut', 'sund', 'ua200', 'clt', 'va850', 'ua850', 'vas', 'rsds', 'psl', 'tasmin', 'rlut', 'snc', 'mrro', 'tas', 'snm', 'huss', 'hfss', 'ta500', 'tasmax', 'va500']</t>
+          <t>['sfcWind', 'sic', 'ua500', 'hus850', 'va200', 'pr', 'rsus', 'sfcWindmax', 'mrros', 'ta850', 'rsut', 'rlus', 'evspsbl', 'huss', 'ta500', 'hfss', 'hurs', 'hfls', 'rsdt', 'uas', 'rlds', 'ta200', 'tas', 'snm', 'vas', 'rsds', 'psl', 'tasmin', 'rlut', 'snc', 'va850', 'mrso', 'ua200', 'clt', 'tasmax', 'va500', 'sund', 'ua850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['rlds', 'ta200', 'hurs', 'ta850', 'tasmin', 'hfls', 'rsdt', 'sfcWindmax', 'hus850', 'ua200', 'snc', 'pr', 'va200', 'ua850', 'mrro', 'ta500', 'sfcWind', 'mrros', 'rsus', 'rlut', 'psl', 'huss', 'hfss', 'uas', 'clt', 'vas', 'rlus', 'rsds', 'va500', 'snm', 'ua500', 'sic', 'evspsbl', 'sund', 'mrso', 'rsut', 'tas', 'tasmax', 'va850']</t>
+          <t>['rsus', 'va200', 'rlut', 'ua850', 'clt', 'vas', 'mrro', 'psl', 'rlus', 'huss', 'ta500', 'hfss', 'uas', 'sfcWind', 'mrros', 'ta850', 'rsut', 'tas', 'tasmax', 'rlds', 'tasmin', 'ta200', 'hurs', 'sfcWindmax', 'hus850', 'hfls', 'rsdt', 'ua200', 'pr', 'mrso', 'snc', 'sic', 'evspsbl', 'rsds', 'va500', 'va850', 'sund', 'snm', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'huss', 'rsus', 'pr', 'hfls', 'hurs', 'tas', 'sfcWind', 'ps', 'psl', 'rsds', 'rlds']</t>
+          <t>['rlus', 'hfss', 'huss', 'ps', 'rsus', 'pr', 'hfls', 'rlds', 'psl', 'rsds', 'sfcWind', 'tas', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['hurs', 'ta850', 'prc', 'clt', 'uas', 'prsn', 'va500', 'vas', 'va850', 'tauv', 'rlut', 'rlus', 'clivi', 'sfcWind', 'hfls', 'rsds', 'hus850', 'ps', 'ta200', 'snm', 'hfss', 'rsus', 'tas', 'ua200', 'ua850', 'va200', 'tauu', 'sic', 'mrso', 'rlds', 'prw', 'ua500', 'prhmax', 'clh', 'ts', 'ta500', 'sfcWindmax', 'psl', 'tasmin', 'clwvi', 'rsut', 'clm', 'sund', 'mrros', 'huss', 'mrro', 'rsdt', 'evspsbl', 'cll', 'snc', 'pr', 'tasmax']</t>
+          <t>['sund', 'sic', 'mrso', 'ua850', 'tas', 'ua200', 'rsus', 'mrros', 'huss', 'mrro', 'rlds', 'sfcWindmax', 'clwvi', 'rsut', 'clm', 'psl', 'tasmin', 'prw', 'ua500', 'prhmax', 'va500', 'clh', 'vas', 'ts', 'hfls', 'rsds', 'sfcWind', 'hus850', 'rlut', 'va850', 'rlus', 'tauv', 'rsdt', 'evspsbl', 'cll', 'snc', 'pr', 'tasmax', 'clivi', 'hfss', 'prc', 'hurs', 'ta850', 'uas', 'prsn', 'clt', 'ta500', 'va200', 'tauu', 'ps', 'ta200', 'snm']</t>
         </is>
       </c>
     </row>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['psl', 'evspsbl', 'hurs', 'rsus', 'ua500', 'hfss', 'hus850', 'pr', 'ta500', 'rlut', 'uas', 'va200', 'snm', 'ua200', 'huss', 'va500', 'sfcWind', 'rlus', 'mrso', 'tasmin', 'tasmax', 'ta200', 'rsds', 'rlds', 'va850', 'tas', 'vas', 'clt', 'ta850', 'sfcWindmax', 'ua850', 'rsut', 'sund', 'mrros', 'mrro', 'hfls', 'rsdt', 'snc', 'sic']</t>
+          <t>['sund', 'ta200', 'rsds', 'tasmin', 'mrros', 'mrro', 'rlds', 'sfcWindmax', 'ua850', 'clt', 'rsut', 'ta850', 'va850', 'tas', 'vas', 'ua200', 'rlut', 'uas', 'pr', 'ta500', 'hfls', 'rsdt', 'snc', 'sic', 'va200', 'snm', 'hurs', 'rsus', 'evspsbl', 'ua500', 'hfss', 'hus850', 'psl', 'tasmax', 'mrso', 'va500', 'sfcWind', 'rlus', 'huss']</t>
         </is>
       </c>
     </row>
@@ -15818,7 +15818,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['uas', 'ua850', 'snm', 'psl', 'mrso', 'rlus', 'hus850', 'ta850', 'snc', 'rlds', 'vas', 'sfcWindmax', 'va850', 'rlut', 'rsut', 'sic', 'va200', 'sfcWind', 'sund', 'clt', 'tas', 'tasmin', 'rsds', 'pr', 'va500', 'hfls', 'rsdt', 'evspsbl', 'ta500', 'ua200', 'tasmax', 'ua500', 'hfss', 'mrros', 'huss', 'mrro', 'ta200', 'hurs', 'rsus']</t>
+          <t>['sund', 'hfls', 'rsdt', 'va200', 'sfcWind', 'sic', 'mrros', 'huss', 'mrro', 'rsds', 'pr', 'tasmax', 'ua500', 'evspsbl', 'hfss', 'ta500', 'ua200', 'hus850', 'va500', 'rlds', 'vas', 'sfcWindmax', 'snc', 'ta850', 'ta200', 'hurs', 'rsus', 'rlut', 'rsut', 'snm', 'psl', 'mrso', 'uas', 'ua850', 'rlus', 'clt', 'tas', 'tasmin', 'va850']</t>
         </is>
       </c>
     </row>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15938,7 +15938,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['ps', 'rsds', 'rlus', 'huss', 'tas', 'psl', 'hfss', 'pr', 'rsus', 'sfcWind', 'hurs', 'hfls', 'rlds']</t>
+          <t>['rlus', 'huss', 'rsds', 'ps', 'rlds', 'pr', 'rsus', 'hfls', 'sfcWind', 'hurs', 'hfss', 'tas', 'psl']</t>
         </is>
       </c>
     </row>
@@ -15970,7 +15970,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['ua850', 'rsdt', 'tauv', 'tasmin', 'psl', 'pr', 'rlds', 'tasmax', 'ps', 'prw', 'snm', 'rsus', 'ta850', 'sfcWind', 'prsn', 'ts', 'ta200', 'uas', 'ua200', 'cll', 'sfcWindmax', 'hfls', 'clivi', 'mrso', 'tas', 'prc', 'hfss', 'clm', 'hus850', 'sic', 'ta500', 'clwvi', 'va850', 'ua500', 'mrro', 'rlut', 'hurs', 'rsds', 'sund', 'rlus', 'huss', 'va500', 'mrros', 'rsut', 'evspsbl', 'clh', 'clt', 'tauu', 'va200', 'snc', 'prhmax', 'vas']</t>
+          <t>['sund', 'tauv', 'tasmin', 'pr', 'rlds', 'psl', 'ua850', 'sfcWindmax', 'hfls', 'rsdt', 'clivi', 'hus850', 'sic', 'ta500', 'clwvi', 'hurs', 'rsds', 'va850', 'cll', 'ta200', 'uas', 'ua200', 'rlut', 'ua500', 'mrro', 'hfss', 'prc', 'clm', 'mrso', 'tas', 'rlus', 'mrros', 'huss', 'va500', 'prw', 'tasmax', 'snm', 'ps', 'va200', 'rsut', 'evspsbl', 'snc', 'prhmax', 'clh', 'vas', 'clt', 'tauu', 'rsus', 'sfcWind', 'prsn', 'ts', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['sic', 'hfls', 'rsdt', 'rsds', 'tas', 'tasmax', 'hfss', 'clt', 'rlut', 'ta500', 'ua200', 'sfcWind', 'ua850', 'va500', 'tasmin', 'rlds', 'hurs', 'rsut', 'pr', 'va850', 'hus850', 'va200', 'vas', 'sfcWindmax', 'snm', 'psl', 'ta850', 'sund', 'rlus', 'huss', 'uas', 'rsus', 'ta200', 'evspsbl', 'mrso', 'ua500', 'snc']</t>
+          <t>['sund', 'rlut', 'hfss', 'ta500', 'clt', 'tasmax', 'sic', 'hfls', 'rsdt', 'rsds', 'hus850', 'tas', 'va200', 'sfcWindmax', 'snm', 'psl', 'ta850', 'va850', 'rsut', 'pr', 'hurs', 'vas', 'rsus', 'rlus', 'huss', 'ta200', 'uas', 'ua200', 'sfcWind', 'ua850', 'snc', 'evspsbl', 'mrso', 'ua500', 'va500', 'rlds', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -16294,7 +16294,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['rlut', 'sfcWind', 'sfcWindmax', 'hus850', 'vas', 'ta850', 'rsus', 'sic', 'ua500', 'evspsbl', 'va850', 'rsds', 'mrso', 'tasmin', 'rlds', 'uas', 'snc', 'rsut', 'psl', 'tasmax', 'snm', 'ta200', 'rlus', 'ta500', 'va500', 'sund', 'pr', 'tas', 'clt', 'va200', 'ua200', 'hfls', 'rsdt', 'ua850', 'hfss', 'huss', 'hurs']</t>
+          <t>['sund', 'sfcWindmax', 'vas', 'hus850', 'ta850', 'rlut', 'snc', 'sfcWind', 'va500', 'rlus', 'ta500', 'rsus', 'uas', 'tasmin', 'rlds', 'mrso', 'rsut', 'snm', 'psl', 'ta200', 'tasmax', 'tas', 'clt', 'va200', 'pr', 'evspsbl', 'sic', 'ua500', 'ua200', 'hfss', 'huss', 'hfls', 'rsdt', 'hurs', 'ua850', 'va850', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['hfss', 'rlus', 'sfcWind', 'tas', 'hfls', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'rsus', 'hurs', 'ps']</t>
+          <t>['hfls', 'hfss', 'hurs', 'huss', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'ps']</t>
         </is>
       </c>
     </row>
@@ -16514,7 +16514,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['clwvi', 'va200', 'va500', 'va850', 'zg500', 'rlds', 'rlus', 'rsds', 'rsdt', 'rsus', 'hus850', 'huss', 'mrro', 'prc', 'prhmax', 'ps', 'psl', 'snm', 'ts', 'ua200', 'ua850', 'tas', 'tasmax', 'clivi', 'cll', 'clm', 'clt', 'clh', 'vas', 'zg200', 'rlut', 'rsut', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'prsn', 'prw', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snw', 'tauu', 'tauv', 'ua500', 'uas', 'sund', 'ta200', 'ta500', 'ta850', 'tasmin', 'evspsbl', 'hfls']</t>
+          <t>['clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'clh', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -16578,7 +16578,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsus', 'sfcWindmax', 'evspsbl', 'hfls', 'hus850', 'huss', 'mrro', 'pr', 'clt', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsut', 'sfcWind', 'hfss', 'hurs', 'mrros', 'mrso', 'zg200', 'zg500', 'sic', 'ta200', 'uas', 'va200', 'va500', 'vas', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'va850']</t>
+          <t>['psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'clt', 'zg200', 'zg500', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas']</t>
         </is>
       </c>
     </row>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'rsut', 'sfcWindmax', 'ta200', 'ta500', 'ta850', 'clt', 'hfss', 'huss', 'mrro', 'tas', 'tasmin', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'evspsbl', 'hfls', 'hurs', 'hus850', 'tasmax', 'uas', 'va200', 'va500', 'va850', 'zg500']</t>
+          <t>['mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -16650,7 +16650,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['hurs', 'hfls', 'huss', 'pr', 'hfss', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl']</t>
         </is>
       </c>
     </row>
@@ -16714,7 +16714,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['snc', 'snd', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'tauv', 'ts', 'ua200', 'ua500', 'uas', 'va850', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'cll', 'clm', 'hus850', 'huss', 'mrro', 'mrros', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sic', 'clt', 'hfls', 'hfss', 'mrso', 'pr', 'prc', 'clh', 'clivi', 'hurs', 'zg200', 'zg500', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWindmax', 'ua850', 'va200', 'va500', 'vas']</t>
+          <t>['clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'clh', 'clivi', 'cll', 'clm', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'zg200', 'zg500', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas']</t>
         </is>
       </c>
     </row>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['snw', 'sund', 'ta200', 'va500', 'vas', 'zg200', 'zg500', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'huss', 'psl', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'mrro', 'mrros', 'mrso', 'pr', 'uas', 'va200', 'va850']</t>
+          <t>['hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'clt', 'evspsbl', 'hfls', 'hfss', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -16810,7 +16810,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'psl', 'rlds', 'rsds', 'tasmin', 'va500', 'va850', 'vas', 'mrso', 'pr', 'rlus', 'rlut', 'rsdt', 'zg500', 'zg200', 'tas', 'tasmax', 'clt', 'ua200', 'ua500', 'ua850', 'uas', 'va200']</t>
+          <t>['zg200', 'zg500', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'clt', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas']</t>
         </is>
       </c>
     </row>
@@ -16882,7 +16882,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['rsus', 'sfcWind', 'huss', 'pr', 'rlds', 'rlus', 'rsds', 'hfls', 'hurs', 'ps', 'psl', 'tas']</t>
+          <t>['sfcWind', 'tas', 'hfls', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['va200', 'tauv', 'tas', 'rlds', 'ua200', 'sfcWindmax', 'uas', 'ta500', 'clivi', 'rsds', 'evspsbl', 'hurs', 'hfss', 'mrros', 'mrro', 'prc', 'clm', 'psl', 'ps', 'prw', 'sfcWind', 'tasmax', 'clh', 'va850', 'vas', 'ua850', 'tasmin', 'rsus', 'clt', 'ta200', 'sund', 'prsn', 'pr', 'clwvi', 'rlut', 'tauu', 'cll', 'snc', 'prhmax', 'rlus', 'huss', 'snm', 'va500', 'ts', 'ta850', 'rsdt', 'hus850', 'mrso', 'hfls', 'rsut', 'sic', 'ua500']</t>
+          <t>['sund', 'sic', 'ua500', 'ua200', 'sfcWindmax', 'uas', 'rsds', 'evspsbl', 'ta500', 'hurs', 'clivi', 'clt', 'prw', 'sfcWind', 'ua850', 'tasmax', 'clh', 'vas', 'va850', 'hfss', 'pr', 'clwvi', 'prsn', 'tasmin', 'rsus', 'ta200', 'tauu', 'cll', 'snc', 'prhmax', 'rlus', 'huss', 'snm', 'va500', 'ts', 'mrso', 'ta850', 'hfls', 'rsdt', 'hus850', 'rsut', 'rlut', 'rlds', 'va200', 'tauv', 'tas', 'prc', 'ps', 'clm', 'psl', 'mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['tasmax', 'va850', 'rsut', 'rlds', 'sfcWind', 'uas', 'va500', 'hfss', 'snm', 'snc', 'tasmin', 'rlut', 'tas', 'ta500', 'evspsbl', 'clt', 'rsus', 'ta200', 'psl', 'hurs', 'pr', 'va200', 'ua850', 'sfcWindmax', 'sund', 'ta850', 'vas', 'ua500', 'mrso', 'hus850', 'rsds', 'hfls', 'rsdt', 'ua200', 'sic', 'rlus', 'huss']</t>
+          <t>['sund', 'sic', 'rlus', 'huss', 'sfcWind', 'uas', 'va500', 'va200', 'ta200', 'hurs', 'psl', 'snc', 'hfss', 'snm', 'rsus', 'ta850', 'ua850', 'sfcWindmax', 'pr', 'mrso', 'hus850', 'rsds', 'hfls', 'rsdt', 'ua200', 'vas', 'ua500', 'tasmax', 'rlds', 'va850', 'rsut', 'ta500', 'evspsbl', 'clt', 'tasmin', 'rlut', 'tas']</t>
         </is>
       </c>
     </row>
@@ -17238,7 +17238,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['sfcWind', 'ta200', 'sic', 'va850', 'snm', 'rsut', 'ua200', 'ta850', 'sfcWindmax', 'mrso', 'hfss', 'tasmin', 'psl', 'clt', 'huss', 'rsds', 'tasmax', 'rlus', 'tas', 'pr', 'rlds', 'snc', 'ua500', 'sund', 'evspsbl', 'ta500', 'ua850', 'rsus', 'uas', 'hurs', 'hus850', 'rlut', 'vas', 'hfls', 'rsdt', 'va500', 'va200']</t>
+          <t>['sund', 'hfls', 'rsdt', 'va500', 'va200', 'sic', 'va850', 'rsds', 'clt', 'huss', 'snm', 'ua200', 'rsut', 'evspsbl', 'ta500', 'tas', 'pr', 'rlds', 'tasmax', 'snc', 'ua500', 'rlus', 'uas', 'hurs', 'hus850', 'rlut', 'vas', 'ua850', 'rsus', 'ta200', 'sfcWind', 'ta850', 'sfcWindmax', 'mrso', 'tasmin', 'psl', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -17350,7 +17350,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['mrros', 'mrro']</t>
+          <t>['mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -17390,7 +17390,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rsus', 'sfcWind', 'hfls', 'hurs', 'huss', 'ps', 'rsds', 'tas', 'hfss', 'pr', 'psl']</t>
+          <t>['hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -17454,7 +17454,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['tas', 'tasmax', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'vas', 'zg200', 'zg500', 'tasmin', 'ua200', 'snd', 'ta200', 'ta850', 'tauu', 'tauv', 'ts', 'snc', 'snm', 'snw', 'sund', 'ta500', 'va850', 'psl', 'cll', 'hfls', 'hurs', 'ps', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfss', 'hus850', 'huss', 'mrso', 'pr', 'prc', 'clh', 'clivi', 'mrro', 'mrros', 'rsus', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'prhmax', 'prw', 'rsut', 'sfcWind', 'sic', 'rlds', 'prsn']</t>
+          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'clh', 'clivi', 'va850', 'vas', 'zg200', 'zg500', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'ua500', 'ua850', 'uas', 'va200', 'va500']</t>
         </is>
       </c>
     </row>
@@ -17518,7 +17518,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['rsus', 'sfcWind', 'sic', 'snc', 'snd', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'clt', 'rsdt', 'rsut', 'sfcWindmax', 'tasmax', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'vas', 'tasmin', 'ua500', 'zg500', 'ua200', 'zg200', 'ua850', 'uas', 'va200', 'va500', 'va850']</t>
+          <t>['vas', 'zg200', 'zg500', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt']</t>
         </is>
       </c>
     </row>
@@ -17550,7 +17550,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['zg500', 'evspsbl', 'hfls', 'hus850', 'mrros', 'mrso', 'rlds', 'rlus', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmin', 'va850', 'zg200', 'clt', 'hfss', 'hurs', 'huss', 'mrro', 'pr', 'psl', 'rlut', 'rsds', 'snd', 'snm', 'sund', 'tasmax', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'vas']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'ps', 'rsds', 'psl', 'sfcWind', 'hfls', 'huss', 'pr', 'rlds', 'rlus', 'rsus', 'tas']</t>
+          <t>['hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -17654,7 +17654,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['rsdt', 'rlds', 'rlus', 'zg200', 'va200', 'hfls', 'zg500', 'psl', 'ta500', 'sfcWindmax', 'prw', 'tauv', 'huss', 'mrro', 'clivi', 'snm', 'prc', 'hurs', 'snw', 'evspsbl', 'sic', 'rsus', 'clt', 'tasmax', 'tauu', 'mrso', 'va500', 'ua200', 'sfcWind', 'hus850', 'ts', 'mrros', 'cll', 'ua500', 'prhmax', 'ps', 'uas', 'ta850', 'pr', 'clwvi', 'ua850', 'snd', 'rsut', 'sund', 'hfss', 'rsds', 'tasmin', 'tas', 'vas', 'clh', 'rlut', 'prsn', 'snc', 'ta200', 'clm', 'va850']</t>
+          <t>['tasmax', 'tauu', 'mrso', 'snm', 'ua200', 'va500', 'rsds', 'ua850', 'snd', 'clwvi', 'rsut', 'sund', 'hfss', 'tas', 'tasmin', 'rlut', 'prsn', 'vas', 'clh', 'cll', 'ua500', 'prhmax', 'mrros', 'ta850', 'ps', 'uas', 'pr', 'sfcWind', 'hus850', 'ts', 'snc', 'sic', 'prc', 'hurs', 'snw', 'ta200', 'evspsbl', 'rsus', 'clt', 'clm', 'va850', 'zg200', 'va200', 'hfls', 'rsdt', 'ta500', 'sfcWindmax', 'rlds', 'prw', 'rlus', 'tauv', 'huss', 'zg500', 'mrro', 'psl', 'clivi']</t>
         </is>
       </c>
     </row>
@@ -17686,7 +17686,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -17718,7 +17718,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['hfls', 'rsdt', 'rlds', 'snd', 'zg200', 'vas', 'snw', 'ta850', 'va200', 'hfss', 'snm', 'rlut', 'mrros', 'uas', 'sic', 'tasmax', 'clt', 'snc', 'zg500', 'mrso', 'hurs', 'mrro', 'ua850', 'rsus', 'psl', 'sfcWindmax', 'va850', 'va500', 'evspsbl', 'hus850', 'ta200', 'sfcWind', 'ua200', 'ta500', 'rsut', 'sund', 'tas', 'pr', 'rlus', 'huss', 'ua500', 'rsds', 'tasmin']</t>
+          <t>['snc', 'mrso', 'zg500', 'hurs', 'hfss', 'ua850', 'mrro', 'snm', 'rlut', 'sfcWind', 'ua200', 'rsut', 'sund', 'tas', 'ta500', 'pr', 'rlus', 'huss', 'ua500', 'va850', 'va500', 'sfcWindmax', 'evspsbl', 'hus850', 'ta200', 'rsus', 'psl', 'sic', 'rsds', 'tasmin', 'mrros', 'uas', 'tasmax', 'clt', 'hfls', 'rsdt', 'snw', 'rlds', 'ta850', 'snd', 'vas', 'zg200', 'va200']</t>
         </is>
       </c>
     </row>
@@ -17750,7 +17750,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['hus850', 'hurs', 'snm', 'rlds', 'uas', 'ta500', 'mrro', 'va200', 'clt', 'sfcWindmax', 'snc', 'tasmin', 'zg200', 'ua200', 'mrros', 'sund', 'sic', 'ua500', 'rlut', 'rlus', 'rsut', 'ta850', 'ua850', 'rsus', 'zg500', 'evspsbl', 'mrso', 'va850', 'ta200', 'tasmax', 'va500', 'vas', 'sfcWind', 'huss', 'psl', 'hfls', 'hfss', 'snw', 'rsds', 'rsdt', 'tas', 'snd', 'pr']</t>
+          <t>['clt', 'sfcWindmax', 'rlus', 'snc', 'tasmin', 'zg200', 'va200', 'rsds', 'psl', 'hfls', 'rsdt', 'tas', 'hfss', 'snw', 'snd', 'evspsbl', 'tasmax', 'mrso', 'zg500', 'va500', 'vas', 'va850', 'ta200', 'sfcWind', 'huss', 'rsut', 'ta850', 'rsus', 'ua850', 'ua200', 'pr', 'mrros', 'sund', 'sic', 'ua500', 'rlut', 'snm', 'rlds', 'uas', 'hurs', 'ta500', 'hus850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -17818,7 +17818,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['hfls', 'hurs', 'pr', 'rlds', 'rlus', 'sfcWind', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'tas']</t>
+          <t>['hfls', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -17882,7 +17882,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['clwvi', 'clm', 'ps', 'mrso', 'va500', 'hus850', 'sfcWind', 'ta200', 'psl', 'tasmax', 'tas', 'mrro', 'mrros', 'ts', 'cll', 'snc', 'pr', 'ua850', 'sfcWindmax', 'va850', 'prsn', 'hurs', 'huss', 'rsds', 'evspsbl', 'clivi', 'uas', 'rlus', 'prhmax', 'tauv', 'rsus', 'ta500', 'tasmin', 'snm', 'prw', 'hfss', 'sund', 'ua500', 'tauu', 'rlds', 'sic', 'rsut', 'vas', 'clt', 'va200', 'hfls', 'rsdt', 'prc', 'ta850', 'clh', 'rlut', 'ua200']</t>
+          <t>['sund', 'rlut', 'ua200', 'hus850', 'sfcWind', 'psl', 'ta200', 'tasmin', 'rlus', 'tauv', 'huss', 'prhmax', 'clivi', 'uas', 'rsds', 'evspsbl', 'tasmax', 'tas', 'ua500', 'hurs', 'hfss', 'snm', 'rsus', 'prw', 'ta500', 'rsut', 'vas', 'clt', 'va200', 'hfls', 'rsdt', 'prc', 'ta850', 'clh', 'tauu', 'rlds', 'sic', 'clwvi', 'clm', 'ps', 'va500', 'mrso', 'sfcWindmax', 'va850', 'prsn', 'ua850', 'ts', 'cll', 'snc', 'pr', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -18030,7 +18030,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['ta850', 'clt', 'rlds', 'va850', 'hurs', 'tasmin', 'vas', 'uas', 'tasmax', 'snc', 'ta200', 'hfss', 'huss', 'rlus', 'ta500', 'sfcWindmax', 'rsus', 'snm', 'hus850', 'va200', 'sfcWind', 'va500', 'rsds', 'sund', 'ua850', 'pr', 'mrso', 'ua200', 'sic', 'psl', 'tas', 'hfls', 'rsdt', 'rsut', 'evspsbl', 'ua500', 'rlut']</t>
+          <t>['sund', 'rlut', 'va850', 'hurs', 'tasmin', 'vas', 'uas', 'va500', 'hus850', 'sfcWind', 'va200', 'ua850', 'pr', 'rsds', 'psl', 'tas', 'hfls', 'rsdt', 'rsut', 'evspsbl', 'ua500', 'mrso', 'ua200', 'sic', 'ta850', 'clt', 'rlds', 'snc', 'ta200', 'rlus', 'hfss', 'huss', 'snm', 'ta500', 'sfcWindmax', 'rsus', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['rsus', 'va200', 'tas', 'ta500', 'psl', 'va500', 'rlus', 'huss', 'evspsbl', 'tasmax', 'hurs', 'hus850', 'sic', 'tasmin', 'mrso', 'snc', 'ta850', 'rlds', 'va850', 'uas', 'ua200', 'vas', 'rsut', 'sund', 'ua500', 'pr', 'ta200', 'clt', 'hfls', 'rsdt', 'snm', 'rlut', 'rsds', 'sfcWind', 'hfss', 'ua850', 'sfcWindmax']</t>
+          <t>['sund', 'sfcWindmax', 'va500', 'psl', 'clt', 'rlus', 'huss', 'tasmax', 'evspsbl', 'uas', 'va850', 'snc', 'ta850', 'ua500', 'pr', 'tasmin', 'mrso', 'ta200', 'rsut', 'ua200', 'rlds', 'vas', 'rlut', 'rsds', 'hfss', 'sfcWind', 'ua850', 'hfls', 'rsdt', 'snm', 'ta500', 'rsus', 'va200', 'tas', 'hurs', 'sic', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -18230,7 +18230,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['hurs', 'pr', 'tas', 'huss', 'rlus', 'psl', 'hfls', 'rsus', 'ps', 'rsds', 'hfss', 'sfcWind', 'rlds']</t>
+          <t>['hfss', 'sfcWind', 'rlds', 'ps', 'rsds', 'hurs', 'pr', 'tas', 'rlus', 'huss', 'psl', 'hfls', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['prw', 'ua500', 'sic', 'rsus', 'tasmin', 'hurs', 'tauu', 'ta850', 'pr', 'psl', 'rlus', 'clivi', 'huss', 'clm', 'evspsbl', 'ua850', 'sfcWindmax', 'rlut', 'tauv', 'uas', 'tasmax', 'prc', 'prsn', 'snm', 'tas', 'rsds', 'cll', 'mrso', 'mrros', 'hfls', 'rsdt', 'snd', 'prhmax', 'snc', 'ua200', 'hfss', 'va850', 'snw', 'mrro', 'ta200', 'rsut', 'zg500', 'sund', 'va500', 'zg200', 'va200', 'hus850', 'rlds', 'clt', 'ps', 'ta500', 'ts', 'clwvi', 'clh', 'vas', 'sfcWind']</t>
+          <t>['clt', 'ps', 'sfcWind', 'ta500', 'ts', 'clwvi', 'clh', 'vas', 'hfss', 'va850', 'rlds', 'zg200', 'snw', 'va200', 'hus850', 'mrro', 'ta200', 'rsut', 'zg500', 'sund', 'va500', 'prw', 'hurs', 'ua500', 'tauu', 'sic', 'ta850', 'pr', 'rsus', 'tasmin', 'evspsbl', 'ua850', 'sfcWindmax', 'rlut', 'clm', 'psl', 'rlus', 'tauv', 'clivi', 'huss', 'uas', 'tasmax', 'prc', 'snm', 'tas', 'prsn', 'hfls', 'rsdt', 'snd', 'rsds', 'prhmax', 'cll', 'mrso', 'mrros', 'snc', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18426,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -18458,7 +18458,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['ta500', 'snd', 'hurs', 'mrso', 'snc', 'rsus', 'snw', 'sfcWindmax', 'sic', 'tasmax', 'sfcWind', 'zg200', 'rlut', 'zg500', 'va500', 'ua850', 'pr', 'rsdt', 'va850', 'rsds', 'ta200', 'tas', 'sund', 'rsut', 'vas', 'hfss', 'va200', 'ta850', 'uas', 'tasmin', 'evspsbl', 'mrro', 'rlds', 'hfls', 'ua200', 'mrros', 'clt', 'rlus', 'huss', 'ua500', 'snm', 'psl', 'hus850']</t>
+          <t>['snm', 'psl', 'hus850', 'vas', 'ta850', 'hfss', 'uas', 'va200', 'rlds', 'tasmin', 'hfls', 'ua200', 'evspsbl', 'mrros', 'mrro', 'clt', 'rlus', 'huss', 'ua500', 'hurs', 'snd', 'mrso', 'snc', 'rsus', 'ta500', 'zg500', 'snw', 'va500', 'sfcWindmax', 'rlut', 'sic', 'tasmax', 'sfcWind', 'zg200', 'pr', 'ua850', 'rsdt', 'va850', 'rsds', 'ta200', 'rsut', 'tas', 'sund']</t>
         </is>
       </c>
     </row>
@@ -18490,7 +18490,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['snc', 'ta850', 'rlds', 'ua200', 'rlut', 'hus850', 'tasmax', 'hurs', 'uas', 'va850', 'snm', 'vas', 'rsds', 'psl', 'huss', 'ua500', 'snd', 'ta200', 'rlus', 'sic', 'tas', 'va500', 'zg500', 'va200', 'hfss', 'zg200', 'pr', 'ta500', 'rsut', 'snw', 'sund', 'sfcWind', 'evspsbl', 'ua850', 'mrros', 'rsus', 'mrro', 'mrso', 'sfcWindmax', 'clt', 'tasmin', 'hfls', 'rsdt']</t>
+          <t>['rsus', 'mrros', 'mrro', 'hfls', 'rsdt', 'mrso', 'clt', 'sfcWindmax', 'tasmin', 'ta500', 'rsut', 'snw', 'sund', 'sfcWind', 'evspsbl', 'ua850', 'rlds', 'ua200', 'tasmax', 'rlut', 'hus850', 'snc', 'ta850', 'hurs', 'uas', 'va850', 'rsds', 'snm', 'vas', 'psl', 'ta200', 'rlus', 'huss', 'sic', 'ua500', 'snd', 'zg500', 'tas', 'va500', 'hfss', 'zg200', 'va200', 'pr']</t>
         </is>
       </c>
     </row>
@@ -18530,7 +18530,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['hfss', 'sfcWind', 'tas', 'hurs', 'rlds', 'hfls', 'ps', 'rsus', 'rlus', 'huss', 'rsds', 'pr', 'psl']</t>
+          <t>['rsus', 'psl', 'pr', 'rlus', 'huss', 'rsds', 'hfss', 'sfcWind', 'hurs', 'tas', 'rlds', 'ps', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -18562,7 +18562,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -18594,7 +18594,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['prw', 'snd', 'rlut', 'va200', 'ua500', 'clwvi', 'rsus', 'tauv', 'rsut', 'hurs', 'tauu', 'clivi', 'clm', 'mrro', 'zg200', 'tasmin', 'prc', 'ua200', 'cll', 'hus850', 'mrros', 'tasmax', 'prhmax', 'ps', 'ta500', 'sund', 'va850', 'va500', 'snc', 'pr', 'sfcWind', 'evspsbl', 'sfcWindmax', 'clt', 'rlus', 'hfss', 'ta850', 'rsdt', 'prsn', 'tas', 'clh', 'vas', 'ta200', 'sic', 'mrso', 'rsds', 'snw', 'rlds', 'ts', 'zg500', 'snm', 'psl', 'ua850', 'huss', 'uas', 'hfls']</t>
+          <t>['evspsbl', 'sfcWindmax', 'clt', 'rlus', 'hfss', 'ta850', 'rlds', 'snw', 'ts', 'hfls', 'zg500', 'snm', 'psl', 'ua850', 'huss', 'uas', 'ta200', 'mrso', 'sic', 'rsds', 'prsn', 'clh', 'vas', 'tas', 'clwvi', 'snd', 'rsus', 'rlut', 'va200', 'tauv', 'ua500', 'rsut', 'prw', 'hurs', 'tauu', 'clivi', 'cll', 'tasmin', 'prc', 'ua200', 'clm', 'mrro', 'zg200', 'mrros', 'va850', 'hus850', 'tasmax', 'prhmax', 'ps', 'ta500', 'sund', 'rsdt', 'snc', 'pr', 'sfcWind', 'va500']</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18626,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['snd', 'hfls', 'pr', 'rsdt', 'clt', 'tas', 'hurs', 'ta200', 'ua850', 'sfcWindmax', 'vas', 'ta500', 'snc', 'sic', 'snm', 'zg500', 'va500', 'uas', 'snw', 'rsds', 'evspsbl', 'rsus', 'rlds', 'va200', 'mrso', 'zg200', 'va850', 'mrro', 'psl', 'hfss', 'sund', 'ta850', 'ua200', 'hus850', 'mrros', 'tasmax', 'rsut', 'ua500', 'tasmin', 'sfcWind', 'rlut', 'rlus', 'huss']</t>
+          <t>['rlds', 'mrso', 'zg200', 'va200', 'va850', 'mrro', 'psl', 'hfss', 'sund', 'ua500', 'rlut', 'rlus', 'tasmin', 'sfcWind', 'huss', 'rsut', 'tasmax', 'mrros', 'ua200', 'hus850', 'hfls', 'rsdt', 'pr', 'clt', 'tas', 'hurs', 'snd', 'ua850', 'sfcWindmax', 'vas', 'uas', 'ta200', 'snw', 'ta500', 'snc', 'rsds', 'sic', 'snm', 'zg500', 'va500', 'ta850', 'rsus', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['tasmin', 'clt', 'hus850', 'zg200', 'ta200', 'zg500', 'ua850', 'ua500', 'rlds', 'psl', 'huss', 'snw', 'rlut', 'va850', 'ua200', 'uas', 'ta850', 'tasmax', 'sfcWind', 'sic', 'evspsbl', 'mrso', 'hfls', 'rsdt', 'snm', 'snc', 'mrro', 'mrros', 'va500', 'rsut', 'sund', 'snd', 'hfss', 'rlus', 'rsus', 'pr', 'sfcWindmax', 'va200', 'tas', 'hurs', 'ta500', 'rsds', 'vas']</t>
+          <t>['hfls', 'rsdt', 'mrros', 'snm', 'snc', 'mrro', 'va500', 'rsut', 'sund', 'hurs', 'ta500', 'rsds', 'vas', 'tas', 'sfcWindmax', 'va200', 'rsus', 'rlus', 'pr', 'snd', 'hfss', 'hus850', 'zg200', 'clt', 'tasmin', 'ua850', 'ua500', 'zg500', 'huss', 'snw', 'ta200', 'rlds', 'uas', 'ta850', 'rlut', 'psl', 'va850', 'tasmax', 'ua200', 'mrso', 'sic', 'sfcWind', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -18734,7 +18734,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['ps', 'rsus', 'rlus', 'hfls', 'huss', 'sfcWind', 'rsds', 'rlds', 'hfss', 'psl', 'pr', 'hurs', 'tas']</t>
+          <t>['pr', 'rsus', 'ps', 'sfcWind', 'rlus', 'hfls', 'huss', 'tas', 'rsds', 'rlds', 'hfss', 'psl', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -18798,7 +18798,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['clivi', 'va850', 'ua500', 'hus850', 'mrros', 'mrro', 'rsus', 'va500', 'sic', 'uas', 'snc', 'pr', 'prhmax', 'hurs', 'prsn', 'ua200', 'tauv', 'huss', 'psl', 'clwvi', 'cll', 'rlut', 'rsdt', 'hfls', 'rlds', 'tasmax', 'sfcWindmax', 'vas', 'clt', 'rlus', 'clm', 'ta850', 'evspsbl', 'hfss', 'sfcWind', 'tasmin', 'snm', 'ta200', 'ps', 'sund', 'rsds', 'ts', 'ta500', 'tas', 'va200', 'prc', 'clh', 'rsut', 'mrso', 'ua850', 'tauu', 'prw']</t>
+          <t>['sund', 'ts', 'va200', 'ta500', 'tas', 'ua500', 'hfss', 'sfcWind', 'hus850', 'rsus', 'clivi', 'va850', 'rsds', 'hfls', 'rsdt', 'cll', 'psl', 'clwvi', 'rlut', 'tasmin', 'snm', 'ta200', 'ps', 'va500', 'tauu', 'prw', 'rlds', 'tasmax', 'ta850', 'sfcWindmax', 'vas', 'clt', 'rlus', 'clm', 'evspsbl', 'mrso', 'ua850', 'prc', 'clh', 'rsut', 'snc', 'pr', 'tauv', 'huss', 'prhmax', 'hurs', 'sic', 'prsn', 'uas', 'ua200', 'mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['rsus', 'snc', 'va500', 'rsds', 'tas', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'ta850', 'sfcWind', 'va200', 'hurs', 'ua200', 'evspsbl', 'ta500', 'rlus', 'rlut', 'ua850', 'huss', 'hfls', 'rsdt', 'pr', 'rlds', 'tasmax', 'hfss', 'clt', 'sic', 'snm', 'sund', 'ua500', 'rsut', 'vas', 'uas', 'va850', 'tasmin', 'mrso']</t>
+          <t>['sund', 'rsut', 'vas', 'ua500', 'hus850', 'ta200', 'sfcWindmax', 'hfss', 'psl', 'rsds', 'va500', 'snc', 'rsus', 'tas', 'hfls', 'rsdt', 'rlus', 'huss', 'rlut', 'ua850', 'sic', 'pr', 'snm', 'ta850', 'tasmin', 'mrso', 'rlds', 'clt', 'tasmax', 'va850', 'uas', 'ua200', 'evspsbl', 'ta500', 'sfcWind', 'hurs', 'va200']</t>
         </is>
       </c>
     </row>
@@ -19002,7 +19002,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -19090,7 +19090,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['ta200', 'rlds', 'ua200', 'sfcWind', 'vas', 'rlut', 'hfls', 'pr', 'mrso', 'ta850', 'rsus', 'rlus', 'hus850', 'ua500', 'tas', 'sfcWindmax', 'ta500', 'hurs', 'clt', 'tasmin', 'va200', 'rsut', 'ua850', 'va850', 'tasmax', 'huss', 'snc', 'sund', 'rsds', 'evspsbl', 'snm', 'uas', 'rsdt', 'psl', 'hfss', 'sic', 'va500']</t>
+          <t>['sund', 'rsds', 'evspsbl', 'uas', 'snm', 'ua850', 'ua200', 'rlds', 'ta200', 'tas', 'sfcWindmax', 'rlus', 'hus850', 'rsus', 'ua500', 'va850', 'tasmax', 'huss', 'snc', 'ta500', 'hurs', 'clt', 'rsut', 'tasmin', 'va200', 'va500', 'rsdt', 'psl', 'hfss', 'sic', 'hfls', 'sfcWind', 'vas', 'ta850', 'rlut', 'pr', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -19202,7 +19202,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['mrros', 'mrro']</t>
+          <t>['mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -19242,7 +19242,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['psl', 'rsds', 'hfls', 'ps', 'hurs', 'rlds', 'tas', 'rlus', 'hfss', 'huss', 'sfcWind', 'rsus', 'pr']</t>
+          <t>['rsds', 'psl', 'hfls', 'ps', 'rsus', 'pr', 'hurs', 'rlds', 'tas', 'sfcWind', 'rlus', 'hfss', 'huss']</t>
         </is>
       </c>
     </row>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['sfcWind', 'snc', 'pr', 'clm', 'psl', 'ua200', 'tas', 'mrro', 'mrros', 'hfss', 'tauv', 'va200', 'ta200', 'prsn', 'sfcWindmax', 'hfls', 'ps', 'rsdt', 'tasmax', 'prw', 'rlus', 'cll', 'clt', 'ts', 'rsus', 'hus850', 'ta500', 'va500', 'snm', 'ua500', 'rlut', 'huss', 'vas', 'rsut', 'evspsbl', 'ta850', 'hurs', 'rlds', 'prhmax', 'mrso', 'tasmin', 'clivi', 'clh', 'ua850', 'va850', 'uas', 'rsds', 'tauu', 'clwvi', 'sic', 'prc', 'sund']</t>
+          <t>['sund', 'va850', 'rsds', 'tauu', 'uas', 'clh', 'ua850', 'ua200', 'tas', 'rsut', 'vas', 'snc', 'clm', 'psl', 'hfss', 'sfcWind', 'va500', 'hus850', 'rsus', 'ta500', 'ts', 'clivi', 'hurs', 'rlds', 'prhmax', 'mrso', 'tasmin', 'tauv', 'va200', 'prc', 'rlut', 'evspsbl', 'ta850', 'huss', 'sic', 'clwvi', 'pr', 'hfls', 'rsdt', 'ps', 'tasmax', 'prw', 'rlus', 'clt', 'cll', 'ta200', 'prsn', 'sfcWindmax', 'snm', 'ua500', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -19422,7 +19422,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -19454,7 +19454,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['vas', 'evspsbl', 'ua850', 'snm', 'sic', 'sfcWind', 'va500', 'sfcWindmax', 'tasmax', 'uas', 'clt', 'ua500', 'hfls', 'rsdt', 'rsds', 'hfss', 'ta500', 'psl', 'hurs', 'va200', 'pr', 'hus850', 'tas', 'rlus', 'ua200', 'va850', 'tasmin', 'rsus', 'snc', 'mrso', 'ta200', 'rsut', 'rlut', 'ta850', 'huss', 'rlds', 'sund']</t>
+          <t>['sund', 'snc', 'mrso', 'ta200', 'rsut', 'sic', 'sfcWind', 'ua200', 'pr', 'evspsbl', 'ua850', 'va500', 'sfcWindmax', 'vas', 'tasmax', 'hurs', 'va200', 'tasmin', 'hus850', 'rsus', 'uas', 'tas', 'rlus', 'va850', 'rlds', 'rlut', 'ta850', 'huss', 'snm', 'hfls', 'rsdt', 'ua500', 'ta500', 'psl', 'rsds', 'clt', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -19538,7 +19538,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -19598,7 +19598,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['rsut', 'uas', 'snc', 'va850', 'evspsbl', 'tasmin', 'hfls', 'rsdt', 'hfss', 'sund', 'ua500', 'tasmax', 'ta200', 'rsds', 'mrso', 'sfcWind', 'rlus', 'huss', 'ta850', 'rsus', 'ua200', 'hurs', 'va200', 'psl', 'pr', 'sic', 'va500', 'sfcWindmax', 'snm', 'rlut', 'clt', 'rlds', 'vas', 'ua850', 'tas', 'ta500', 'hus850']</t>
+          <t>['sund', 'rlds', 'vas', 'ua850', 'hfls', 'rsdt', 'evspsbl', 'tasmin', 'hfss', 'sic', 'uas', 'va850', 'rsut', 'hurs', 'ua200', 'clt', 'sfcWindmax', 'snm', 'va200', 'rlut', 'psl', 'pr', 'va500', 'tas', 'ta500', 'hus850', 'snc', 'mrso', 'rsds', 'ta850', 'rsus', 'sfcWind', 'ua500', 'tasmax', 'ta200', 'rlus', 'huss']</t>
         </is>
       </c>
     </row>
@@ -19750,7 +19750,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['hfls', 'ps', 'sfcWind', 'hurs', 'hfss', 'rsus', 'huss', 'rlus', 'tas', 'rlds', 'psl', 'rsds', 'pr']</t>
+          <t>['rlus', 'tas', 'ps', 'sfcWind', 'hfls', 'hurs', 'huss', 'hfss', 'rsus', 'rsds', 'pr', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -19814,7 +19814,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['va850', 'hfls', 'ua500', 'prhmax', 'psl', 'rsdt', 'tauv', 'ta850', 'mrros', 'mrro', 'ta500', 'ta200', 'rlus', 'huss', 'tauu', 'sfcWind', 'clivi', 'rlds', 'tas', 'prw', 'ua850', 'snm', 'ts', 'va500', 'clwvi', 'rsus', 'clt', 'cll', 'hfss', 'ua200', 'mrso', 'sfcWindmax', 'rlut', 'snc', 'pr', 'hurs', 'ps', 'tasmax', 'rsut', 'vas', 'clh', 'sund', 'prsn', 'sic', 'rsds', 'tasmin', 'evspsbl', 'clm', 'hus850', 'prc', 'uas', 'va200']</t>
+          <t>['sund', 'prsn', 'rsds', 'tasmin', 'evspsbl', 'sic', 'tauv', 'ps', 'tasmax', 'ta850', 'hurs', 'pr', 'ua500', 'prhmax', 'psl', 'ta500', 'va850', 'hfls', 'rsdt', 'hfss', 'rsus', 'clt', 'cll', 'clwvi', 'rsut', 'clh', 'vas', 'mrso', 'ta200', 'rlut', 'sfcWindmax', 'snc', 'uas', 'va200', 'clm', 'hus850', 'prc', 'ua850', 'snm', 'ts', 'va500', 'rlus', 'huss', 'tas', 'tauu', 'sfcWind', 'clivi', 'rlds', 'prw', 'ua200', 'mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -19930,7 +19930,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['rsdt', 'ua850', 'huss', 'hus850', 'evspsbl', 'rlus', 'hfls', 'snm', 'tasmax', 'vas', 'mrso', 'va200', 'tasmin', 'rsus', 'ua500', 'psl', 'sfcWindmax', 'rlds', 'ta500', 'tas', 'pr', 'sfcWind', 'ua200', 'snc', 'uas', 'ta850', 'sund', 'hurs', 'rsut', 'va500', 'va850', 'hfss', 'rlut', 'ta200', 'sic', 'clt', 'rsds']</t>
+          <t>['sund', 'rsut', 'va500', 'hfss', 'va850', 'hurs', 'snm', 'evspsbl', 'rlus', 'huss', 'hus850', 'hfls', 'rsdt', 'ua850', 'tas', 'psl', 'sfcWindmax', 'ta500', 'rlds', 'uas', 'sfcWind', 'ta850', 'tasmax', 'ua200', 'snc', 'rlut', 'ta200', 'sic', 'clt', 'rsds', 'tasmin', 'rsus', 'ua500', 'vas', 'mrso', 'va200', 'pr']</t>
         </is>
       </c>
     </row>
@@ -20106,7 +20106,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['hurs', 'rlut', 'va200', 'hus850', 'tas', 'ta200', 'clt', 'uas', 'sic', 'tasmin', 'rsus', 'sfcWindmax', 'tasmax', 'snm', 'ua850', 'rsds', 'ta500', 'ta850', 'vas', 'sfcWind', 'rsut', 'snc', 'mrso', 'ua500', 'ua200', 'hfss', 'va500', 'sund', 'pr', 'rlds', 'va850', 'evspsbl', 'psl', 'hfls', 'rsdt', 'huss', 'rlus']</t>
+          <t>['sund', 'va850', 'evspsbl', 'pr', 'rlds', 'ua200', 'ua500', 'rlut', 'hurs', 'sfcWind', 'rsut', 'rsds', 'ta850', 'vas', 'ta500', 'hfss', 'va500', 'hus850', 'tas', 'rlus', 'snc', 'mrso', 'huss', 'psl', 'hfls', 'rsdt', 'va200', 'rsus', 'sic', 'sfcWindmax', 'tasmax', 'tasmin', 'snm', 'ua850', 'ta200', 'uas', 'clt']</t>
         </is>
       </c>
     </row>
@@ -20162,7 +20162,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['ps', 'rsds', 'huss', 'pr', 'rlds', 'sfcWind', 'tas', 'clt', 'hurs']</t>
+          <t>['clt', 'hurs', 'huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -20338,7 +20338,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['vas', 'clt', 'huss', 'psl', 'rlds', 'rsds', 'sfcWind', 'uas', 'hurs', 'pr', 'rsus', 'tas', 'ps']</t>
+          <t>['vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus', 'sfcWind', 'tas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -20370,7 +20370,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['ua200', 'uas', 'zg200', 'ua500', 'ua850', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg500', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'clt', 'evspsbl', 'mrros', 'mrso', 'pr', 'prsn', 'rlus', 'rlut', 'rsus', 'prc', 'psl', 'rsds', 'sfcWindmax', 'sic', 'ps', 'rlds', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ta200', 'ta500', 'ts']</t>
+          <t>['mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -20434,7 +20434,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['ta500', 'tas', 'ua200', 'ua500', 'ua850', 'snw', 'ta850', 'tasmax', 'tasmin', 'uas', 'pr', 'psl', 'sfcWind', 'rlds', 'rlus', 'rlut', 'clt', 'hfls', 'evspsbl', 'hfss', 'hus850', 'mrro', 'mrros', 'mrso', 'hurs', 'huss', 'va850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWindmax', 'sic', 'snm', 'ta200']</t>
+          <t>['va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -20466,7 +20466,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsdt', 'rsus', 'rsut', 'rlut', 'ua500', 'va500', 'va850', 'vas', 'sic', 'ta200', 'tas', 'tasmax', 'ua200', 'uas', 'va200', 'zg200', 'zg500', 'sfcWindmax', 'snm', 'snw', 'ta500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'ua850', 'sfcWind', 'ta850', 'tasmin']</t>
+          <t>['ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -20506,7 +20506,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['sftlf', 'areacella', 'orog']</t>
+          <t>['areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -20542,7 +20542,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['tas', 'ps', 'rsds', 'rlds', 'sfcWind', 'huss', 'pr', 'hurs', 'clt']</t>
+          <t>['rsds', 'rlds', 'sfcWind', 'huss', 'tas', 'ps', 'pr', 'hurs', 'clt']</t>
         </is>
       </c>
     </row>
@@ -20574,7 +20574,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['tas', 'clt', 'rsus', 'sfcWind', 'pr', 'hurs', 'vas', 'uas', 'rsds', 'rlds', 'huss', 'psl', 'ps']</t>
+          <t>['hurs', 'clt', 'rsds', 'rlds', 'rsus', 'sfcWind', 'huss', 'psl', 'tas', 'ps', 'pr', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -20606,7 +20606,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -20638,7 +20638,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['ua200', 'ua500', 'ua850', 'va500', 'rsdt', 'tauv', 'ts', 'sfcWind', 'mrso', 'pr', 'sic', 'snm', 'zg200', 'zg500', 'ta850', 'ta200', 'ta500', 'uas', 'va200', 'clt', 'evspsbl', 'va850', 'vas', 'wsgsmax', 'tas', 'tasmax', 'snw', 'ps', 'psl', 'rlds', 'rlus', 'hfss', 'hurs', 'mrros', 'hus850', 'mrro', 'rsus', 'rsut', 'tasmin', 'tauu', 'sfcWindmax', 'huss', 'rsds', 'prc', 'prsn', 'rlut', 'hfls']</t>
+          <t>['prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'hus850', 'huss', 'mrro', 'rsds', 'rsdt', 'rsus', 'rsut', 'tasmin', 'tauu', 'tauv', 'ts', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'zg200', 'zg500', 'va850', 'vas', 'wsgsmax', 'ta850', 'tas', 'tasmax', 'snw', 'ta200', 'ta500', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -20670,7 +20670,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'zg200', 'pr', 'psl', 'tas', 'hurs', 'hus850', 'huss', 'vas', 'zg500', 'mrro', 'mrso', 'tasmin', 'va500', 'va850', 'ua200', 'ua500', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'ua850', 'uas', 'va200', 'mrros', 'tasmax', 'clt', 'evspsbl', 'rlds', 'rsds', 'rsut', 'sfcWind', 'rsus', 'sfcWindmax', 'sic', 'rlus', 'rlut', 'rsdt']</t>
+          <t>['clt', 'evspsbl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'vas', 'zg200', 'zg500', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'ua850', 'uas', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['va200', 'vas', 'zg200', 'zg500', 'uas', 'va500', 'va850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'mrros', 'mrso', 'tas', 'ua200', 'ua500', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'ua850', 'rlds', 'rlus', 'rlut', 'rsds', 'sfcWindmax', 'sic', 'mrro', 'pr', 'psl', 'tasmax', 'tasmin', 'huss', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850']</t>
+          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'clt', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -20778,7 +20778,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['hurs', 'clt', 'rsds', 'ps', 'pr', 'rlds', 'sfcWind', 'huss', 'tas']</t>
+          <t>['hurs', 'clt', 'rsds', 'rlds', 'sfcWind', 'huss', 'tas', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -20810,7 +20810,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['vas', 'clt', 'huss', 'psl', 'tas', 'ps', 'pr', 'uas', 'hurs', 'rsds', 'rlds', 'rsus', 'sfcWind']</t>
+          <t>['hurs', 'clt', 'rsds', 'rlds', 'rsus', 'sfcWind', 'huss', 'psl', 'tas', 'ps', 'pr', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -20842,7 +20842,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -20874,7 +20874,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['ta500', 'tas', 'wsgsmax', 'snw', 'sfcWind', 'sfcWindmax', 'sic', 'tasmin', 'tauu', 'tauv', 'ts', 'zg200', 'zg500', 'snm', 'ta200', 'va200', 'va500', 'rsut', 'va850', 'vas', 'ua200', 'ua500', 'ua850', 'uas', 'rsds', 'rsdt', 'rsus', 'ta850', 'tasmax', 'mrro', 'psl', 'rlds', 'rlus', 'evspsbl', 'hfss', 'mrros', 'mrso', 'prsn', 'ps', 'hus850', 'huss', 'rlut', 'clt', 'hurs', 'pr', 'hfls', 'prc']</t>
+          <t>['rsut', 'sfcWind', 'sfcWindmax', 'sic', 'tasmin', 'tauu', 'tauv', 'ts', 'wsgsmax', 'zg200', 'zg500', 'snm', 'snw', 'ta200', 'ta500', 'va200', 'va500', 'va850', 'vas', 'ua200', 'ua500', 'ua850', 'uas', 'rsds', 'rsdt', 'rsus', 'ta850', 'tas', 'tasmax', 'psl', 'rlds', 'rlus', 'rlut', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'hus850', 'huss', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['hfls', 'hus850', 'clt', 'evspsbl', 'hfss', 'hurs', 'rsdt', 'va200', 'va500', 'sfcWindmax', 'rlds', 'rsus', 'rsut', 'sfcWind', 'psl', 'rlus', 'rlut', 'rsds', 'ua500', 'ua850', 'uas', 'huss', 'mrso', 'pr', 'sic', 'mrro', 'mrros', 'ta200', 'ta500', 'va850', 'zg200', 'zg500', 'vas', 'ta850', 'tas', 'snm', 'snw', 'tasmax', 'tasmin', 'ua200']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'clt', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'va850', 'vas', 'zg200', 'zg500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500']</t>
         </is>
       </c>
     </row>
@@ -20938,7 +20938,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlus', 'zg500', 'rsdt', 'rsus', 'rlds', 'rlut', 'rsds', 'sic', 'snm', 'snw', 'ta500', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'ta200', 'ta850', 'va500', 'va850', 'vas', 'zg200', 'hfls', 'mrro', 'mrso', 'evspsbl', 'hus850', 'pr', 'hfss', 'hurs', 'huss', 'mrros', 'clt']</t>
+          <t>['va850', 'vas', 'zg200', 'zg500', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'clt']</t>
         </is>
       </c>
     </row>
@@ -21018,7 +21018,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['zg500', 'sfcWindmax', 'ta200', 'ua500', 'hus850', 'snw', 'tasmin', 'ua850', 'tauv', 'ua200', 'rsut', 'wsgsmax', 'va200', 'rlus', 'prc', 'rsus', 'zg200', 'ta500', 'tas', 'va500', 'rlds', 'ta850', 'pr', 'huss', 'rlut', 'vas', 'uas', 'hfss', 'hfls', 'psl', 'sfcWind', 'prsn', 'mrro', 'va850', 'clt', 'rsdt', 'mrso', 'rsds', 'tasmax', 'snm', 'tauu', 'mrros', 'evspsbl', 'sic', 'ps', 'ts']</t>
+          <t>['tasmin', 'ua850', 'tauv', 'ua200', 'rsut', 'snw', 'tas', 'va500', 'wsgsmax', 'va200', 'rlds', 'rlus', 'prc', 'ta850', 'pr', 'huss', 'vas', 'rsus', 'rlut', 'zg200', 'ta500', 'tauu', 'mrros', 'mrro', 'va850', 'clt', 'rsdt', 'mrso', 'rsds', 'tasmax', 'snm', 'psl', 'sfcWind', 'uas', 'prsn', 'hfss', 'hfls', 'zg500', 'sfcWindmax', 'hus850', 'ta200', 'ua500', 'evspsbl', 'sic', 'ps', 'ts']</t>
         </is>
       </c>
     </row>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['zg200', 'va500', 'ta850', 'rsdt', 'hus850', 'ua500', 'clt', 'vas', 'pr', 'rsut', 'sic', 'rsus', 'rlut', 'hfls', 'ua850', 'rsds', 'va200', 'snm', 'mrro', 'zg500', 'ta500', 'ua200', 'mrso', 'sfcWind', 'rlus', 'evspsbl', 'va850', 'hfss', 'tas', 'psl', 'ta200', 'mrros', 'snw', 'uas', 'rlds', 'tasmin', 'tasmax', 'huss', 'sfcWindmax']</t>
+          <t>['rsut', 'clt', 'vas', 'sic', 'pr', 'va200', 'ta500', 'ua200', 'mrso', 'sfcWind', 'snm', 'rsus', 'rlut', 'hfls', 'mrro', 'ua850', 'rsds', 'zg500', 'huss', 'psl', 'ta200', 'mrros', 'snw', 'uas', 'rlds', 'tasmin', 'tasmax', 'tas', 'rlus', 'evspsbl', 'va850', 'hfss', 'zg200', 'rsdt', 'hus850', 'va500', 'ta850', 'ua500', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -21082,7 +21082,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['va850', 'ta200', 'sfcWind', 'zg500', 'rlus', 'huss', 'zg200', 'ua850', 'rsus', 'tas', 'rsut', 'sic', 'tasmin', 'snm', 'snw', 'vas', 'evspsbl', 'ta850', 'mrro', 'pr', 'rsdt', 'psl', 'uas', 'tasmax', 'va500', 'rlds', 'clt', 'rlut', 'ta500', 'ua500', 'hfss', 'hfls', 'va200', 'ua200', 'rsds', 'mrros', 'sfcWindmax', 'mrso', 'hus850']</t>
+          <t>['rlus', 'huss', 'zg200', 'ua850', 'rsus', 'sfcWind', 'tas', 'zg500', 'mrro', 'pr', 'rsdt', 'rsut', 'psl', 'uas', 'tasmax', 'sic', 'tasmin', 'evspsbl', 'snm', 'snw', 'vas', 'ta850', 'ta500', 'mrros', 'ua500', 'hfss', 'hfls', 'va200', 'ua200', 'rsds', 'va500', 'clt', 'rlds', 'rlut', 'va850', 'ta200', 'sfcWindmax', 'mrso', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21126,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['tauv', 'sfcWindmax', 'tasmin', 'evspsbl', 'tauu', 'psl', 'ps', 'va850', 'rsut', 'rlds', 'sic', 'ts', 'va500', 'va200', 'snw', 'rsus', 'tasmax', 'ta500', 'zg500', 'uas', 'ua850', 'rlut', 'hfls', 'pr', 'snm', 'mrso', 'hus850', 'rlus', 'ua500', 'mrros', 'ta200', 'tas', 'zg200', 'rsds', 'ta850', 'vas', 'huss', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'ua200', 'sfcWind', 'prc', 'mrro', 'hfss']</t>
+          <t>['sic', 'ts', 'va500', 'va200', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'snm', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'ua200', 'tauv', 'rsds', 'mrro', 'hfss', 'zg200', 'tas', 'ua500', 'mrros', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tauu', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -21194,7 +21194,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['va850', 'rsds', 'ta850', 'rsut', 'tasmin', 'mrro', 'va500', 'pr', 'mrros', 'rsdt', 'ta200', 'hfss', 'sic', 'rlus', 'zg200', 'tasmax', 'rlut', 'zg500', 'hfls', 'mrso', 'psl', 'snw', 'evspsbl', 'huss', 'tas', 'clt', 'sfcWind', 'vas', 'rsus', 'snm', 'ua850', 'sfcWindmax', 'hus850', 'uas', 'va200', 'ua200', 'rlds', 'ua500', 'ta500']</t>
+          <t>['ua850', 'ua500', 'rsdt', 'zg200', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'va200', 'ua200', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'snm', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'sic', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'mrros', 'pr']</t>
         </is>
       </c>
     </row>
@@ -21226,7 +21226,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['rsus', 'rlus', 'uas', 'sfcWind', 'sic', 'tasmax', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500', 'rlds', 'rsdt', 'hus850', 'pr', 'ua200', 'mrros', 'zg200', 'snw', 'hfss', 'ta200', 'ua850', 'va200', 'va850', 'clt', 'vas', 'zg500', 'ua500', 'tasmin', 'huss', 'hfls', 'sfcWindmax', 'mrso', 'ta850', 'snm', 'psl', 'evspsbl', 'rsut']</t>
+          <t>['ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'ua200', 'va200', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'snm', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'sic', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'zg200', 'rlut', 'rsds', 'va500', 'mrro', 'mrros', 'tas', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['sftlf', 'areacella', 'orog']</t>
+          <t>['areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -21334,7 +21334,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['clt', 'hurs', 'psl', 'rlds', 'rsds', 'rsus', 'sfcWind', 'huss', 'ps', 'pr', 'vas', 'uas', 'tas']</t>
+          <t>['huss', 'ps', 'pr', 'clt', 'hurs', 'psl', 'rlds', 'rsds', 'rsus', 'sfcWind', 'vas', 'uas', 'tas']</t>
         </is>
       </c>
     </row>
@@ -21398,7 +21398,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'sfcWind', 'psl', 'hfls', 'hfss', 'hurs', 'pr', 'prsn', 'hus850', 'huss', 'clt', 'evspsbl', 'sfcWindmax', 'snm', 'rlut', 'rsdt', 'rsut', 'rlds', 'rlus', 'mrros', 'mrso', 'prc', 'ps', 'mrro', 'ta200', 'ta500', 'ta850', 'zg500', 'sic', 'snw', 'va850', 'vas', 'tasmax', 'tasmin', 'va500', 'ua200', 'ua500', 'ua850', 'wsgsmax', 'zg200', 'tauu', 'tauv', 'ts', 'tas', 'uas', 'va200']</t>
+          <t>['clt', 'evspsbl', 'sfcWindmax', 'sic', 'snm', 'snw', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'psl', 'rlds', 'rlus', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'hus850', 'huss', 'mrro', 'ta200', 'ta500', 'ta850', 'zg500', 'va850', 'vas', 'wsgsmax', 'zg200', 'tauu', 'tauv', 'ts', 'tas', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -21430,7 +21430,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'mrso', 'rlds', 'rlut', 'rsdt', 'rsus', 'hus850', 'huss', 'mrro', 'clt', 'evspsbl', 'pr', 'psl', 'rlus', 'rsds', 'rsut', 'hurs', 'mrros', 'ua850', 'uas', 'va200', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'ua200', 'ua500', 'va500', 'tas', 'zg500', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'zg500', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -21462,7 +21462,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua200', 'ua500', 'va500', 'va850', 'vas', 'ta200', 'ta500', 'zg500', 'mrso', 'rlds', 'evspsbl', 'hfls', 'hfss', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'hus850', 'huss', 'mrro', 'mrros', 'ua850', 'uas', 'va200', 'zg200', 'ta850', 'tas', 'tasmax', 'pr', 'psl', 'rlus', 'clt', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'hurs']</t>
+          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'clt', 'evspsbl', 'hfls', 'hfss', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -21542,7 +21542,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['prsn', 'rlds', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'sic', 'evspsbl', 'rsdt', 'tauv', 'ta200', 'snm', 'va200', 'va500', 'sfcWind', 'ua500', 'hfss', 'huss', 'mrro', 'tasmax', 'tauu', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'zg200', 'ua200', 'rsds', 'rsut', 'tas', 'uas', 'prc', 'vas', 'tasmin', 'ts', 'hfls', 'rlut', 'ps', 'ua850', 'sfcWindmax', 'mrros', 'rsus']</t>
+          <t>['tauv', 'tasmax', 'tauu', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'mrros', 'tasmin', 'tas', 'zg200', 'ua200', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va200', 'va500', 'sfcWind', 'snm', 'mrso', 'hus850', 'clt', 'sic', 'pr', 'zg500', 'evspsbl', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -21574,7 +21574,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['rsut', 'va850', 'huss', 'mrro', 'rlut', 'hfss', 'sfcWind', 'mrso', 'rsds', 'ta500', 'zg500', 'sic', 'rlds', 'hfls', 'zg200', 'sfcWindmax', 'va500', 'tasmin', 'tasmax', 'evspsbl', 'clt', 'ua200', 'va200', 'ta850', 'snw', 'rsdt', 'hus850', 'uas', 'mrros', 'rsus', 'psl', 'ta200', 'ua500', 'vas', 'pr', 'rlus', 'snm', 'ua850', 'tas']</t>
+          <t>['hfls', 'sfcWind', 'mrso', 'mrros', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'zg200', 'sfcWindmax', 'va500', 'sic', 'rlds', 'snm', 'ua850', 'ta850', 'ua200', 'va200', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21606,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['sfcWind', 'evspsbl', 'tasmax', 'tasmin', 'vas', 'va850', 'pr', 'rlds', 'ua850', 'rsut', 'ta500', 'sic', 'va500', 'ta200', 'mrros', 'clt', 'rlut', 'ta850', 'snw', 'rsus', 'sfcWindmax', 'hfls', 'zg200', 'hfss', 'tas', 'ua500', 'rlus', 'uas', 'rsds', 'psl', 'zg500', 'ua200', 'hus850', 'rsdt', 'mrso', 'va200', 'huss', 'snm', 'mrro']</t>
+          <t>['snw', 'rsus', 'ua200', 'mrro', 'hus850', 'ta500', 'sic', 'va500', 'hfls', 'sfcWindmax', 'zg200', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'va200', 'huss', 'snm', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'mrros', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -21682,7 +21682,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['tauv', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'ps', 'zg500', 'hfss', 'prsn', 'ua850', 'hus850', 'mrso', 'hfls', 'zg200', 'ta200', 'tas', 'va200', 'va500', 'tasmax', 'pr', 'mrro', 'sfcWindmax', 'sfcWind', 'vas', 'mrros', 'ua200', 'snm', 'psl', 'ua500', 'ta850', 'uas', 'snw', 'sic', 'clt', 'huss', 'ta500', 'rsds', 'prc', 'va850', 'tauu', 'rsus', 'rsdt', 'rsut', 'ts', 'evspsbl', 'rlut']</t>
+          <t>['mrro', 'hus850', 'mrso', 'hfls', 'zg200', 'evspsbl', 'va850', 'tas', 'va200', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'tauu', 'rsus', 'rsdt', 'rsut', 'ts', 'tauv', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'sic', 'ua500', 'ta850', 'rlut', 'snw', 'mrros', 'ua200', 'snm', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -21714,7 +21714,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'snm', 'psl', 'rlut', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt', 'tas', 'rlds', 'ua200', 'hfss', 'sic', 'rsds', 'hus850', 'pr', 'mrros', 'ta500', 'ta850', 'va500', 'snw', 'va850', 'rsus', 'uas', 'zg200', 'ta200', 'tasmax', 'rlus', 'evspsbl', 'sfcWind', 'mrro', 'va200', 'ua500', 'rsdt', 'ua850', 'huss', 'mrso']</t>
+          <t>['tas', 'rlds', 'evspsbl', 'huss', 'ua200', 'hfss', 'mrros', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'va200', 'ua500', 'rsdt', 'ua850', 'snm', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'zg200', 'snw', 'va500', 'sic', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt']</t>
         </is>
       </c>
     </row>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['va500', 'rlus', 'hfss', 'ua500', 'mrro', 'hus850', 'sic', 'zg500', 'uas', 'va200', 'ua850', 'mrros', 'clt', 'tasmax', 'rlds', 'vas', 'snw', 'rsds', 'snm', 'rsdt', 'evspsbl', 'tas', 'pr', 'rsus', 'rsut', 'rlut', 'huss', 'ta850', 'mrso', 'ua200', 'sfcWind', 'ta500', 'zg200', 'sfcWindmax', 'tasmin', 'hfls', 'psl', 'ta200', 'va850']</t>
+          <t>['hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'sic', 'zg500', 'va200', 'rsds', 'evspsbl', 'tas', 'rsdt', 'snm', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'zg200', 'ua200', 'clt', 'mrros', 'ua850', 'hfss', 'mrro', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -21826,7 +21826,7 @@
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['hurs', 'ps', 'pr', 'huss', 'clt', 'rlds', 'sfcWind', 'rsds', 'tas']</t>
+          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -21858,7 +21858,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['pr', 'huss', 'hurs', 'clt', 'ps', 'rsds', 'rsus', 'sfcWind', 'vas', 'uas', 'psl', 'tas', 'rlds']</t>
+          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'vas', 'uas', 'psl', 'tas', 'huss', 'hurs', 'clt', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -21890,7 +21890,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -21922,7 +21922,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['va200', 'va500', 'tasmin', 'ua500', 'ua850', 'uas', 'ta200', 'rsus', 'rsut', 'sfcWind', 'tas', 'tasmax', 'rlds', 'rlus', 'rlut', 'rsdt', 'pr', 'hurs', 'hus850', 'ta500', 'ta850', 'sfcWindmax', 'sic', 'tauu', 'tauv', 'snm', 'snw', 'ts', 'ua200', 'huss', 'mrro', 'prc', 'prsn', 'ps', 'psl', 'evspsbl', 'hfls', 'hfss', 'mrros', 'rsds', 'clt', 'mrso', 'zg200', 'zg500', 'va850', 'vas', 'wsgsmax']</t>
+          <t>['va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'rlds', 'rlus', 'rlut', 'evspsbl', 'hfls', 'hfss', 'huss', 'mrro', 'mrros', 'rsds', 'rsdt', 'clt', 'mrso', 'pr', 'prc', 'prsn', 'hurs', 'hus850', 'ps', 'psl', 'rsus', 'rsut', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'ua500', 'ua850', 'uas', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'sic', 'tauu', 'tauv', 'snm', 'snw', 'ts', 'ua200', 'va200', 'va500']</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua200', 'ua500', 'vas', 'zg200', 'hfls', 'mrso', 'pr', 'ta500', 'rlut', 'rsds', 'rsus', 'sfcWind', 'sic', 'psl', 'ta850', 'hus850', 'huss', 'clt', 'hfss', 'hurs', 'sfcWindmax', 'snm', 'snw', 'mrros', 'ta200', 'tas', 'mrro', 'rlds', 'va850', 'zg500', 'ua850', 'uas', 'va200', 'va500', 'rlus', 'rsdt', 'rsut', 'evspsbl', 'tasmax']</t>
+          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'evspsbl', 'hfls', 'hfss', 'hurs', 'sfcWindmax', 'sic', 'snm', 'snw', 'mrros', 'mrso', 'pr', 'psl', 'ta200', 'ta500', 'ta850', 'tas', 'hus850', 'huss', 'mrro', 'clt', 'tasmax', 'tasmin', 'ua200', 'ua500', 'va850', 'vas', 'zg200', 'zg500', 'ua850', 'uas', 'va200', 'va500']</t>
         </is>
       </c>
     </row>
@@ -21986,7 +21986,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['rsdt', 'clt', 'evspsbl', 'hfls', 'hfss', 'sic', 'ta500', 'rsus', 'rsut', 'hus850', 'psl', 'rlut', 'rlds', 'rlus', 'mrro', 'mrso', 'pr', 'tas', 'zg200', 'ua500', 'ua850', 'tasmax', 'tasmin', 'uas', 'rsds', 'hurs', 'snm', 'snw', 'ta200', 'sfcWind', 'sfcWindmax', 'huss', 'mrros', 'ta850', 'ua200', 'va500', 'va850', 'vas', 'va200', 'zg500']</t>
+          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'va500', 'va850', 'vas', 'zg200', 'ua500', 'ua850', 'uas', 'va200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -22026,7 +22026,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['sftlf', 'areacella', 'orog']</t>
+          <t>['areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['clt', 'huss', 'hurs', 'rsds', 'sfcWind', 'tas', 'rlds', 'ps', 'pr']</t>
+          <t>['huss', 'hurs', 'clt', 'rsds', 'rlds', 'sfcWind', 'tas', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22094,7 +22094,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'uas', 'tas', 'psl', 'ps', 'pr', 'vas', 'huss', 'hurs', 'clt']</t>
+          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'uas', 'tas', 'psl', 'ps', 'pr', 'huss', 'hurs', 'clt', 'vas']</t>
         </is>
       </c>
     </row>
@@ -22158,7 +22158,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['zg500', 'tasmax', 'wsgsmax', 'zg200', 'tasmin', 'tauu', 'vas', 'sfcWindmax', 'tauv', 'ts', 'ua200', 'va200', 'va850', 'sic', 'snw', 'ta200', 'ua500', 'ua850', 'uas', 'ta500', 'ta850', 'tas', 'snm', 'va500', 'sfcWind', 'hfss', 'hurs', 'mrso', 'pr', 'prc', 'rsds', 'rsdt', 'evspsbl', 'mrros', 'hfls', 'rlus', 'rlut', 'rsus', 'rsut', 'clt', 'ps', 'psl', 'rlds', 'huss', 'mrro', 'hus850', 'prsn']</t>
+          <t>['zg500', 'tasmax', 'tasmin', 'tauu', 'vas', 'wsgsmax', 'zg200', 'sfcWind', 'sfcWindmax', 'sic', 'tauv', 'ts', 'ua200', 'snm', 'snw', 'ta200', 'ua500', 'ua850', 'uas', 'ta500', 'ta850', 'tas', 'va200', 'va500', 'va850', 'hfls', 'hfss', 'hurs', 'hus850', 'mrso', 'pr', 'prc', 'prsn', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'ps', 'psl', 'rlds', 'huss', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -22190,7 +22190,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hfls', 'hfss', 'clt', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'psl', 'rlds', 'rsds', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'huss', 'mrros', 'tasmin', 'ua200', 'ua500', 'ua850', 'va500', 'va850', 'mrso', 'pr', 'rlus', 'zg500', 'rlut', 'rsus', 'hus850', 'mrro', 'vas', 'zg200', 'snm', 'hurs', 'uas', 'va200']</t>
+          <t>['ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'clt', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'zg500', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'sfcWindmax', 'snm', 'ua200', 'pr', 'rlus', 'rsut', 'sfcWind', 'sic', 'ua500', 'va200', 'va500', 'ta850', 'tas', 'zg500', 'mrso', 'psl', 'rlds', 'snw', 'tasmin', 'ua850', 'uas', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'tasmax', 'evspsbl', 'hfls', 'hfss', 'hus850', 'mrros', 'clt', 'huss', 'mrro', 'hurs']</t>
+          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['prsn', 'ts', 'rsut', 'ua200', 'hus850', 'tas', 'rsdt', 'evspsbl', 'rsus', 'rlds', 'mrso', 'rsds', 'ps', 'vas', 'tasmin', 'uas', 'huss', 'sfcWind', 'tauu', 'mrro', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'psl', 'sic', 'va500', 'ta850', 'snw', 'clt', 'ua850', 'rlut', 'pr', 'ua500', 'snm', 'rlus', 'zg200', 'tauv', 'va200', 'mrros', 'wsgsmax', 'prc', 'hfls', 'zg500', 'ta500']</t>
+          <t>['tauu', 'mrro', 'tas', 'rsdt', 'snm', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'zg200', 'tauv', 'va200', 'mrros', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'sic', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'ua200', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -22334,7 +22334,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['hus850', 'psl', 'zg500', 'vas', 'uas', 'clt', 'rsus', 'rsut', 'sic', 'ua200', 'snw', 'zg200', 'mrro', 'rsds', 'mrso', 'va200', 'pr', 'ua500', 'sfcWind', 'tasmax', 'rlus', 'tasmin', 'ta850', 'snm', 'va850', 'hfss', 'sfcWindmax', 'evspsbl', 'mrros', 'ta500', 'ua850', 'hfls', 'rlut', 'rlds', 'huss', 'tas', 'va500', 'ta200', 'rsdt']</t>
+          <t>['snw', 'sic', 'ua200', 'rlut', 'rlds', 'rsds', 'zg200', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'mrros', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'snm', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'va200', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -22366,7 +22366,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['tas', 'sic', 'va850', 'clt', 'rsds', 'psl', 'ta500', 'mrros', 'tasmax', 'tasmin', 'huss', 'mrro', 'mrso', 'ta850', 'rlus', 'ta200', 'snm', 'rlut', 'hfls', 'rlds', 'ua500', 'hus850', 'snw', 'vas', 'va200', 'evspsbl', 'sfcWindmax', 'hfss', 'rsdt', 'ua850', 'sfcWind', 'pr', 'zg500', 'ua200', 'uas', 'zg200', 'rsut', 'rsus', 'va500']</t>
+          <t>['tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'snm', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'va200', 'zg500', 'ua200', 'uas', 'zg200', 'rsut', 'tas', 'sic', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22446,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>['ta500', 'clt', 'prc', 'tasmax', 'wsgsmax', 'zg500', 'rlds', 'uas', 'pr', 'tasmin', 'va500', 'snw', 'psl', 'tas', 'rsus', 'evspsbl', 'mrso', 'ua200', 'ua850', 'rlut', 'zg200', 'mrro', 'ts', 'rlus', 'va850', 'huss', 'ta200', 'hus850', 'sfcWindmax', 'tauu', 'rsut', 'va200', 'ta850', 'hfss', 'sic', 'vas', 'snm', 'rsdt', 'mrros', 'tauv', 'ps', 'sfcWind', 'prsn', 'hfls', 'rsds', 'ua500']</t>
+          <t>['rlut', 'zg200', 'mrro', 'tasmin', 'va500', 'ua200', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'va200', 'tauu', 'huss', 'sic', 'vas', 'snm', 'rsdt', 'mrros', 'tauv', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22478,7 +22478,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['huss', 'tasmin', 'rsdt', 'snw', 'va500', 'ua200', 'rsut', 'zg200', 'vas', 'uas', 'ua500', 'mrro', 'rlds', 'mrros', 'hus850', 'sfcWind', 'ua850', 'ta850', 'zg500', 'va200', 'va850', 'hfss', 'snm', 'rsus', 'ta500', 'hfls', 'ta200', 'sfcWindmax', 'rsds', 'clt', 'evspsbl', 'pr', 'rlus', 'tas', 'sic', 'tasmax', 'psl', 'mrso', 'rlut']</t>
+          <t>['zg500', 'va500', 'ua200', 'rsut', 'zg200', 'mrso', 'rlut', 'va200', 'va850', 'hfss', 'snm', 'rsus', 'ta500', 'mrros', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'sic', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['uas', 'rlds', 'ua500', 'rsus', 'rlut', 'huss', 'vas', 'rsds', 'pr', 'va500', 'ua850', 'snm', 'evspsbl', 'psl', 'zg200', 'hfss', 'tas', 'mrso', 'tasmin', 'zg500', 'ta200', 'hfls', 'sfcWind', 'ta850', 'rlus', 'clt', 'tasmax', 'ua200', 'rsdt', 'sic', 'mrro', 'hus850', 'sfcWindmax', 'va200', 'mrros', 'ta500', 'rsut', 'snw', 'va850']</t>
+          <t>['tasmin', 'va500', 'ua850', 'sfcWindmax', 'snm', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'va200', 'mrros', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'sic', 'tasmax', 'snw', 'va850', 'rsdt', 'ua200', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'zg200', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22586,7 +22586,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>['hurs', 'clt', 'sfcWind', 'rsds', 'rlds', 'tas', 'huss', 'ps', 'pr']</t>
+          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -22618,7 +22618,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>['rsds', 'vas', 'uas', 'rlds', 'psl', 'tas', 'rsus', 'sfcWind', 'huss', 'hurs', 'clt', 'ps', 'pr']</t>
+          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'vas', 'uas', 'psl', 'tas']</t>
         </is>
       </c>
     </row>
@@ -22650,7 +22650,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -22682,7 +22682,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>['ua850', 'rsut', 'tauu', 'tasmax', 'tasmin', 'rsdt', 'snw', 'ta500', 'ta200', 'rsus', 'tauv', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'ts', 'ua200', 'ta850', 'tas', 'va500', 'wsgsmax', 'ua500', 'zg200', 'va200', 'va850', 'vas', 'zg500', 'uas', 'hurs', 'pr', 'prsn', 'rsds', 'evspsbl', 'hfls', 'mrros', 'mrso', 'huss', 'hfss', 'hus850', 'prc', 'rlds', 'rlus', 'clt', 'rlut', 'mrro', 'ps', 'psl']</t>
+          <t>['hfss', 'hurs', 'hus850', 'pr', 'prc', 'prsn', 'rlut', 'rsds', 'rlds', 'rlus', 'evspsbl', 'hfls', 'clt', 'mrros', 'mrso', 'huss', 'mrro', 'ps', 'psl', 'zg500', 'wsgsmax', 'zg200', 'uas', 'va200', 'va850', 'vas', 'ua500', 'ua850', 'va500', 'snw', 'ta200', 'ta500', 'rsus', 'rsut', 'tauu', 'tauv', 'sfcWind', 'sfcWindmax', 'tasmax', 'tasmin', 'sic', 'snm', 'ts', 'ua200', 'ta850', 'tas', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -22714,7 +22714,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>['hus850', 'clt', 'evspsbl', 'mrro', 'hfls', 'hurs', 'hfss', 'huss', 'mrros', 'mrso', 'pr', 'zg500', 'psl', 'rlds', 'rlus', 'tasmax', 'tasmin', 'ua200', 'va500', 'va850', 'vas', 'zg200', 'ua500', 'ua850', 'uas', 'va200', 'ta200', 'ta500', 'ta850', 'tas', 'rsut', 'sfcWind', 'sfcWindmax', 'rlut', 'rsds', 'rsdt', 'sic', 'snm', 'snw', 'rsus']</t>
+          <t>['zg500', 'va500', 'va850', 'vas', 'zg200', 'ua500', 'ua850', 'uas', 'va200', 'ta200', 'ta500', 'ta850', 'tas', 'rsut', 'sfcWind', 'sfcWindmax', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rlus', 'tasmax', 'tasmin', 'ua200', 'sic', 'snm', 'snw', 'rsus', 'hfls', 'hfss', 'hurs', 'hus850', 'clt', 'evspsbl', 'huss', 'mrro', 'mrros', 'mrso', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22746,7 +22746,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>['rsus', 'rsds', 'rsdt', 'mrros', 'mrso', 'rsut', 'sfcWind', 'evspsbl', 'hfls', 'huss', 'mrro', 'sic', 'snm', 'sfcWindmax', 'rlus', 'rlut', 'clt', 'snw', 'ta200', 'pr', 'psl', 'rlds', 'hfss', 'tasmax', 'ta500', 'ta850', 'hurs', 'hus850', 'tasmin', 'ua200', 'tas', 'zg500', 'ua500', 'ua850', 'uas', 'zg200', 'va200', 'va500', 'va850', 'vas']</t>
+          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'clt', 'evspsbl', 'hfls', 'huss', 'mrro', 'mrros', 'mrso', 'sic', 'snm', 'snw', 'ta200', 'pr', 'psl', 'rlds', 'hfss', 'hurs', 'hus850', 'tasmax', 'tasmin', 'ua200', 'ta500', 'ta850', 'tas', 'va200', 'va500', 'va850', 'vas', 'ua500', 'ua850', 'uas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -22826,7 +22826,7 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['rlds', 'huss', 'sfcWind', 'hurs', 'clt', 'ps', 'pr', 'tas', 'rsds']</t>
+          <t>['rlds', 'huss', 'tas', 'clt', 'ps', 'pr', 'sfcWind', 'hurs', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -22858,7 +22858,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['rsds', 'hurs', 'psl', 'tas', 'sfcWind', 'huss', 'clt', 'ps', 'pr', 'rsus', 'rlds']</t>
+          <t>['rsds', 'clt', 'ps', 'pr', 'rsus', 'sfcWind', 'huss', 'hurs', 'psl', 'tas', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -22922,7 +22922,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'va200', 'tas', 'va850', 'tasmax', 'ta850', 'wsgsmax', 'va500', 'clt', 'uas', 'ua500', 'ua850', 'ua200', 'ts', 'tauv', 'tauu', 'tasmin', 'rlus', 'rlds', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'ta200', 'ta500', 'sfcWindmax', 'snw', 'rsus', 'rsdt', 'sfcWind', 'snm', 'sic', 'rsds', 'rsut', 'mrros', 'huss', 'hus850', 'pr', 'hfss', 'hfls', 'mrro', 'mrso', 'evspsbl', 'hurs']</t>
+          <t>['tasmax', 'tas', 'ta850', 'wsgsmax', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'tauv', 'tauu', 'tasmin', 'uas', 'ua500', 'ua850', 'ua200', 'ts', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'clt', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22954,7 +22954,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'huss', 'mrro', 'zg500', 'vas', 'hfls', 'mrso', 'mrros', 'hurs', 'hus850', 'zg200', 'va850', 'hfss', 'tasmin', 'tas', 'ta500', 'ta850', 'tasmax', 'ta200', 'sfcWindmax', 'snm', 'rsut', 'sfcWind', 'snw', 'sic', 'va200', 'ua200', 'uas', 'va500', 'ua500', 'ua850', 'rsus', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr']</t>
+          <t>['clt', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'vas', 'zg200', 'zg500', 'va850', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['rlds', 'rsus', 'psl', 'rsds', 'rlus', 'rsdt', 'rsut', 'rlut', 'evspsbl', 'clt', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'hfls', 'mrso', 'mrros', 'hurs', 'hus850', 'mrro', 'pr', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ua500', 'hfss', 'huss', 'ua200', 'ua850']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ua500', 'ua200', 'ua850', 'evspsbl', 'clt', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23062,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['clt', 'pr', 'rlds', 'sfcWind', 'rsds', 'tas', 'ps', 'huss', 'hurs']</t>
+          <t>['huss', 'hurs', 'clt', 'pr', 'rsds', 'rlds', 'sfcWind', 'tas', 'ps']</t>
         </is>
       </c>
     </row>
@@ -23094,7 +23094,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['rlds', 'psl', 'tas', 'rsds', 'rsus', 'sfcWind', 'ps', 'huss', 'hurs', 'clt', 'pr']</t>
+          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas', 'ps', 'huss', 'hurs', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'sfcWindmax', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'rsds', 'rsus', 'ts', 'rlds', 'mrso', 'hfls', 'evspsbl', 'mrros', 'hurs', 'hfss', 'huss', 'hus850', 'ps', 'pr', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'wsgsmax', 'va500', 'va850', 'ua200', 'ua850', 'vas', 'uas', 'va200', 'ua500', 'tas', 'tasmax', 'ta200', 'mrro', 'clt', 'tauv', 'tasmin', 'tauu', 'ta500', 'ta850']</t>
+          <t>['tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic']</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'huss', 'hus850', 'sfcWindmax', 'rsus', 'snm', 'ta200', 'sfcWind', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua850', 'ua200', 'ua500', 'va200', 'va500', 'zg200', 'rlus', 'rlut', 'mrros', 'psl', 'mrro', 'pr', 'rsds', 'rlds', 'mrso', 'vas', 'zg500', 'va850', 'rsdt', 'rsut', 'snw', 'sic']</t>
+          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23222,7 +23222,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>['uas', 'va200', 'ua200', 'ua850', 'va500', 'va850', 'ua500', 'vas', 'zg200', 'pr', 'mrros', 'hfss', 'mrso', 'huss', 'psl', 'mrro', 'hurs', 'hus850', 'sfcWindmax', 'rsus', 'rlus', 'rsds', 'rlds', 'rsdt', 'rlut', 'rsut', 'sfcWind', 'clt', 'hfls', 'tasmax', 'tasmin', 'snm', 'ta500', 'snw', 'tas', 'sic', 'ta200', 'ta850', 'evspsbl', 'zg500']</t>
+          <t>['zg500', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -23266,7 +23266,7 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'areacella']</t>
+          <t>['areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -23302,7 +23302,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>['huss', 'rlds', 'tas', 'psl', 'hurs', 'pr', 'rsus', 'rsds', 'sfcWind', 'ps']</t>
+          <t>['pr', 'rsus', 'hurs', 'psl', 'rlds', 'tas', 'rsds', 'sfcWind', 'huss', 'ps']</t>
         </is>
       </c>
     </row>
@@ -23334,7 +23334,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>['rsus', 'va500', 'evspsbl', 'tas', 'va850', 'prc', 'mrros', 'ta850', 'ta500', 'wsgsmax', 'tauu', 'rlut', 'mrro', 'ps', 'hfss', 'tasmin', 'tauv', 'ua850', 'psl', 'rsdt', 'sfcWind', 'uas', 'va200', 'snm', 'rlus', 'snw', 'clt', 'pr', 'sfcWindmax', 'rsds', 'huss', 'zg500', 'zg200', 'tasmax', 'hus850', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'sic', 'vas', 'prsn', 'ta200', 'ua500', 'ts', 'ua200']</t>
+          <t>['ua850', 'sfcWind', 'psl', 'uas', 'va200', 'rsds', 'rsdt', 'huss', 'snm', 'zg500', 'rlus', 'snw', 'zg200', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'sic', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'tauv', 'ta500', 'wsgsmax', 'rsus', 'tauu', 'rlut', 'prc', 'mrros', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -23398,7 +23398,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>['ua200', 'uas', 'va850', 'rsut', 'ua850', 'hurs', 'ta200', 'ta850', 'mrso', 'mrros', 'snw', 'pr', 'zg200', 'clt', 'sfcWindmax', 'hfss', 'huss', 'rlus', 'sfcWind', 'hus850', 'mrro', 'tasmin', 'vas', 'va500', 'ta500', 'snm', 'hfls', 'tas', 'rsus', 'zg500', 'tasmax', 'psl', 'rsdt', 'evspsbl', 'rlut', 'rsds', 'rlds', 'sic', 'va200', 'ua500']</t>
+          <t>['sfcWind', 'snm', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'sic', 'rlut', 'va200', 'rlus', 'mrros', 'snw', 'ua200', 'pr', 'uas', 'va850', 'zg200', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -23430,7 +23430,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>['rsds', 'ua200', 'rlus', 'snw', 'hus850', 'va200', 'rsut', 'evspsbl', 'huss', 'ua500', 'hfls', 'rsus', 'hurs', 'snm', 'uas', 'psl', 'ta200', 'rsdt', 'ta500', 'sfcWindmax', 'mrso', 'zg200', 'tasmax', 'sfcWind', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'sic', 'va850', 'pr', 'rlds', 'mrros', 'tasmin', 'va500', 'vas', 'clt', 'ta850', 'mrro']</t>
+          <t>['mrso', 'sfcWind', 'zg200', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'sic', 'va850', 'pr', 'rlds', 'mrros', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'ua200', 'rsus', 'rlus', 'hurs', 'snm', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'va200', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -23506,7 +23506,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>['hurs', 'ps', 'rsds', 'sfcWind', 'rlds', 'tas', 'huss', 'clt', 'pr']</t>
+          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -23538,7 +23538,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>['rsds', 'psl', 'tas', 'rlds', 'rsus', 'sfcWind', 'huss', 'hurs', 'ps', 'clt', 'pr']</t>
+          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas']</t>
         </is>
       </c>
     </row>
@@ -23602,7 +23602,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>['tasmax', 'ta500', 'tasmin', 'tas', 'ua200', 'ts', 'tauv', 'tauu', 'ta850', 'clt', 'wsgsmax', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua850', 'ua500', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'snm', 'ta200', 'sic', 'sfcWind', 'snw', 'zg500', 'mrro', 'hfss', 'hfls', 'mrso', 'mrros', 'hurs', 'hus850', 'evspsbl', 'huss', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'prsn', 'psl', 'ps', 'pr', 'vas']</t>
+          <t>['wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ta500', 'ta850', 'ua200', 'ts', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23634,7 +23634,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>['va500', 'va850', 'vas', 'zg200', 'zg500', 'rsdt', 'rlut', 'psl', 'rlds', 'mrso', 'rsds', 'rlus', 'mrros', 'pr', 'hus850', 'mrro', 'tasmin', 'uas', 'tasmax', 'tas', 'ua200', 'ua500', 'va200', 'ta850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'ua850', 'rsut', 'snm', 'snw', 'sic', 'ta200', 'sfcWindmax', 'rsus', 'sfcWind', 'ta500']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'clt', 'hfss', 'sic', 'rsdt', 'sfcWind', 'rsus', 'rsut', 'rlut', 'sfcWindmax', 'rsds', 'rlus', 'zg500', 'va500', 'ua500', 'ua850', 'vas', 'zg200', 'uas', 'va200', 'va850', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'tasmax', 'tasmin', 'huss', 'mrros', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'rlds', 'mrso']</t>
+          <t>['vas', 'zg200', 'uas', 'zg500', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'rlds', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23742,7 +23742,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>['clt', 'rsds', 'sfcWind', 'huss', 'pr', 'ps', 'hurs', 'rlds', 'tas']</t>
+          <t>['clt', 'hurs', 'huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -23774,7 +23774,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>['tas', 'uas', 'sfcWind', 'vas', 'clt', 'huss', 'hurs', 'pr', 'ps', 'psl', 'rsds', 'rlds', 'rsus']</t>
+          <t>['sfcWind', 'tas', 'uas', 'vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -23838,7 +23838,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>['prsn', 'rlds', 'prc', 'ps', 'psl', 'rlus', 'rlut', 'rsds', 'tas', 'ts', 'ua850', 'uas', 'ua500', 'zg200', 'zg500', 'ta850', 'ua200', 'va200', 'va500', 'vas', 'wsgsmax', 'tasmax', 'tasmin', 'tauu', 'tauv', 'va850', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'ta200', 'huss', 'mrro', 'pr', 'rsdt', 'rsus', 'snw', 'hurs', 'hus850', 'mrros', 'mrso', 'evspsbl', 'hfls', 'clt', 'ta500', 'hfss']</t>
+          <t>['rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'clt', 'evspsbl', 'hfls', 'hfss', 'ta500', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas']</t>
         </is>
       </c>
     </row>
@@ -23870,7 +23870,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua200', 'ua500', 'va200', 'vas', 'zg500', 'ua850', 'uas', 'va500', 'va850', 'zg200', 'hurs', 'clt', 'hfss', 'ta850', 'tasmax', 'huss', 'mrro', 'pr', 'psl', 'rlus', 'rsus', 'ta500', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'tas', 'hus850', 'mrros', 'mrso', 'rlds', 'snm', 'snw', 'ta200', 'rsds', 'evspsbl', 'hfls', 'rlut', 'rsdt']</t>
+          <t>['tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua500', 'ua850', 'rlds', 'tasmax', 'ua200', 'uas', 'clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'sfcWind', 'ta200', 'ta500', 'ta850', 'rsut', 'sfcWindmax', 'sic', 'snm', 'snw', 'tas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'rlut', 'rsds', 'rsdt', 'rlus', 'rsus']</t>
+          <t>['rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -23942,7 +23942,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'areacella']</t>
+          <t>['areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -23978,7 +23978,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>['huss', 'psl', 'rlds', 'rsds', 'hurs', 'tas', 'pr', 'ps', 'rsus', 'sfcWind']</t>
+          <t>['pr', 'ps', 'tas', 'rsus', 'sfcWind', 'huss', 'rsds', 'hurs', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -24010,7 +24010,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -24042,7 +24042,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'hfls', 'mrso', 'rsut', 'hus850', 'ta200', 'uas', 'rlus', 'hfss', 'tas', 'zg500', 'sfcWind', 'mrros', 'rsdt', 'evspsbl', 'tasmax', 'sic', 'prsn', 'zg200', 'va850', 'snm', 'pr', 'rsus', 'tauu', 'huss', 'prc', 'ps', 'ua500', 'ua850', 'psl', 'ta850', 'rsds', 'tauv', 'va500', 'hurs', 'snw', 'mrro', 'ua200', 'rlut', 'vas', 'ta500', 'va200', 'wsgsmax', 'tasmin', 'clt', 'rlds', 'ts']</t>
+          <t>['psl', 'clt', 'rlds', 'ta850', 'vas', 'ta500', 'va200', 'rsds', 'tauv', 'hurs', 'snw', 'mrro', 'va500', 'ua200', 'pr', 'rsus', 'tauu', 'rlut', 'huss', 'prc', 'ps', 'ua500', 'ua850', 'ts', 'zg200', 'va850', 'wsgsmax', 'tasmin', 'snm', 'uas', 'sic', 'prsn', 'rlus', 'hfss', 'rsdt', 'evspsbl', 'tas', 'zg500', 'tasmax', 'sfcWind', 'sfcWindmax', 'hfls', 'mrso', 'rsut', 'mrros', 'hus850', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -24074,7 +24074,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>['tasmin', 'rsdt', 'rlut', 'snw', 'ua850', 'tas', 'zg200', 'mrro', 'va200', 'ua200', 'psl', 'uas', 'snm', 'sic', 'mrros', 'mrso', 'hus850', 'rsds', 'ta850', 'sfcWindmax', 'hfls', 'rsus', 'hurs', 'rlus', 'pr', 'ta200', 'rsut', 'clt', 'sfcWind', 'vas', 'zg500', 'ta500', 'va500', 'va850', 'hfss', 'rlds', 'evspsbl', 'huss', 'ua500', 'tasmax']</t>
+          <t>['rsds', 'rlds', 'ta850', 'sfcWindmax', 'evspsbl', 'huss', 'clt', 'sfcWind', 'vas', 'zg500', 'ta500', 'va500', 'va850', 'hfls', 'rsus', 'rlus', 'hurs', 'pr', 'mrso', 'ta200', 'rsut', 'hus850', 'ua500', 'tasmax', 'mrros', 'snm', 'sic', 'hfss', 'psl', 'uas', 'va200', 'rsdt', 'rlut', 'snw', 'ua850', 'ua200', 'tas', 'zg200', 'mrro', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -24106,7 +24106,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>['vas', 'rsus', 'hus850', 'va500', 'mrros', 'rlds', 'va850', 'ua500', 'uas', 'ua200', 'psl', 'hurs', 'ua850', 'huss', 'rsdt', 'rsut', 'sfcWind', 'zg200', 'ta200', 'va200', 'sfcWindmax', 'ta850', 'tas', 'hfss', 'rsds', 'ta500', 'rlus', 'mrro', 'mrso', 'clt', 'pr', 'hfls', 'rlut', 'evspsbl', 'tasmin', 'tasmax', 'sic', 'zg500', 'snm', 'snw']</t>
+          <t>['tas', 'zg500', 'hfss', 'pr', 'hfls', 'rlut', 'evspsbl', 'rsds', 'mrso', 'ta500', 'rlus', 'clt', 'mrro', 'rsdt', 'rsut', 'sfcWind', 'zg200', 'ta200', 'va200', 'sfcWindmax', 'ta850', 'snm', 'ua850', 'tasmin', 'tasmax', 'huss', 'sic', 'snw', 'psl', 'rlds', 'va850', 'ua500', 'rsus', 'uas', 'ua200', 'hurs', 'vas', 'hus850', 'va500', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>['hus850', 'sfcWind', 'hfls', 'rlds', 'prsn', 'va850', 'tasmax', 'mrso', 'uas', 'wsgsmax', 'tauu', 'ua500', 'rlut', 'tauv', 'psl', 'rlus', 'zg200', 'va200', 'sfcWindmax', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'snw', 'pr', 'mrros', 'mrro', 'vas', 'ta200', 'sic', 'ua200', 'tasmin', 'va500', 'snm', 'clt', 'ps', 'ta850', 'evspsbl', 'ts', 'rsus', 'rsdt', 'zg500', 'tas', 'rsds']</t>
+          <t>['va200', 'tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'tauu', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'zg200', 'ps', 'sic', 'ua200', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'snm', 'va500', 'tasmin', 'mrro', 'vas', 'mrros', 'pr', 'ua500', 'psl', 'rlut', 'tauv', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt']</t>
         </is>
       </c>
     </row>
@@ -24218,7 +24218,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>['rlut', 'rlus', 'rsdt', 'ua200', 'ua850', 'ta200', 'clt', 'rlds', 'uas', 'ta500', 'hus850', 'rsus', 'ta850', 'tasmin', 'va200', 'evspsbl', 'huss', 'sic', 'tasmax', 'rsut', 'snm', 'hfss', 'vas', 'mrros', 'rsds', 'sfcWind', 'psl', 'snw', 'tas', 'va500', 'ua500', 'mrro', 'zg500', 'pr', 'sfcWindmax', 'zg200', 'mrso', 'va850', 'hfls']</t>
+          <t>['sic', 'ta500', 'rlds', 'uas', 'va200', 'mrro', 'zg500', 'rsut', 'snm', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'zg200', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'mrros', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua200', 'ua850', 'ta200', 'clt']</t>
         </is>
       </c>
     </row>
@@ -24250,7 +24250,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>['va200', 'uas', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds', 'rlut', 'hfls', 'snw', 'rsus', 'sfcWind', 'ta850', 'pr', 'tasmax', 'hfss', 'hus850', 'ua500', 'mrros', 'sic', 'clt', 'vas', 'zg500', 'rlus', 'rsut', 'va850', 'ua200', 'zg200', 'mrso', 'snm', 'ua850', 'va500', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'tasmin']</t>
+          <t>['hfls', 'rlut', 'snm', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'mrros', 'sic', 'tasmin', 'ua200', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'va200', 'uas', 'mrso', 'zg200', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -24290,7 +24290,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -24326,7 +24326,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>['huss', 'hfss', 'pr', 'rsus', 'rsut', 'sfcWind', 'hfls', 'rsds', 'zg200', 'sfcWindmax', 'uas', 'zg500', 'ta500', 'va850', 'tasmax', 'mrros', 'vas', 'va200', 'ua850', 'wsgsmax', 'rlut', 'prsn', 'va500', 'ua200', 'ta850', 'ts', 'psl', 'tauv', 'rlds', 'snm', 'rlus', 'tas', 'evspsbl', 'mrro', 'sic', 'clt', 'snw', 'ta200', 'mrso', 'ua500', 'rsdt', 'prc', 'tasmin', 'ps', 'hus850', 'tauu']</t>
+          <t>['prsn', 'hfls', 'rsds', 'zg200', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ua200', 'ts', 'psl', 'tauv', 'ta850', 'rlds', 'snm', 'ua850', 'rlut', 'wsgsmax', 'va200', 'mrros', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'tauu', 'ta200', 'sic', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -24358,7 +24358,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>['evspsbl', 'sfcWindmax', 'clt', 'ta500', 'snw', 'mrro', 'rlus', 'huss', 'ta850', 'rsut', 'sic', 'zg500', 'vas', 'rsds', 'hfls', 'ua200', 'tasmin', 'snm', 'rlut', 'ua850', 'tasmax', 'hus850', 'hfss', 'psl', 'sfcWind', 'ua500', 'rsus', 'tas', 'va200', 'rlds', 'mrso', 'zg200', 'uas', 'va500', 'mrros', 'pr', 'va850', 'ta200', 'rsdt']</t>
+          <t>['snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va200', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'snm', 'ua200', 'tasmin', 'rlds', 'mrso', 'zg200', 'uas', 'va500', 'mrros', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sic', 'sfcWindmax', 'clt', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -24390,7 +24390,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>['ta850', 'snw', 'sfcWindmax', 'snm', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax', 'vas', 'ua850', 'evspsbl', 'psl', 'va500', 'rsut', 'tas', 'va200', 'ua500', 'mrso', 'hfls', 'huss', 'hfss', 'rsds', 'sfcWind', 'ta200', 'zg500', 'rlus', 'ua200', 'sic', 'rsus', 'pr', 'tasmin', 'rlut', 'uas', 'hus850', 'zg200', 'rsdt', 'mrros']</t>
+          <t>['va200', 'tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'zg200', 'ua200', 'sic', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'mrros', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snm', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -27854,7 +27854,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>['rlus', 'tas', 'rlds', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'hurs', 'huss', 'pr', 'prw', 'clt', 'hfls', 'hfss']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -27918,7 +27918,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'mrros', 'ta500', 'hfss', 'clivi', 'clt', 'rsds', 'hus850', 'va850', 'rlds', 'snc', 'rsdt', 'zg500', 'prhmax', 'prw', 'vas', 'wsgsmax', 'zmla', 'snw', 'rsus', 'mrro', 'tas', 'va500', 'snm', 'rlut', 'evspsbl', 'ua850', 'ua200', 'clh', 'ta200', 'rsut', 'prsn', 'huss', 'rlus', 'mrfso', 'tasmin', 'clwvi', 'sic', 'ta850', 'tauu', 'ua500', 'prc', 'uas', 'snd', 'psl', 'sund', 'zg200', 'cll', 'hfls', 'pr', 'tauv', 'sfcWind', 'tasmax', 'mrso', 'ts', 'hurs', 'clm', 'va200', 'ps']</t>
+          <t>['va500', 'rsds', 'hus850', 'rsdt', 'zg500', 'va850', 'rlds', 'snc', 'snm', 'rlut', 'evspsbl', 'ua850', 'prhmax', 'prw', 'vas', 'wsgsmax', 'mrro', 'zmla', 'snw', 'rsus', 'tas', 'clt', 'hfss', 'cll', 'tauv', 'hfls', 'pr', 'hurs', 'clm', 'sfcWind', 'tasmax', 'mrso', 'va200', 'ts', 'ps', 'sfcWindmax', 'mrros', 'ta500', 'clivi', 'rlus', 'ta850', 'tauu', 'mrfso', 'ua500', 'tasmin', 'prc', 'clwvi', 'uas', 'sic', 'ua200', 'clh', 'ta200', 'rsut', 'psl', 'sund', 'huss', 'zg200', 'prsn', 'snd']</t>
         </is>
       </c>
     </row>
@@ -27950,7 +27950,7 @@
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>['sftlf', 'mrsofc', 'sftgif', 'areacella', 'orog']</t>
+          <t>['sftgif', 'mrsofc', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>['sfcWind', 'sic', 'snc', 'ta200', 'hus850', 'ta850', 'snw', 'sund', 'snd', 'huss', 'snm', 'rsds', 'rsdt', 'mrfso', 'zg500', 'tasmin', 'rsus', 'hfls', 'sfcWindmax', 'va500', 'va200', 'clt', 'mrro', 'rlds', 'ua200', 'hfss', 'mrso', 'rlus', 'evspsbl', 'va850', 'ua500', 'ua850', 'vas', 'tasmax', 'tas', 'pr', 'zg200', 'rlut', 'psl', 'hurs', 'uas', 'mrros', 'ta500', 'rsut']</t>
+          <t>['ta850', 'rsus', 'hfls', 'zg500', 'huss', 'snm', 'rsds', 'tasmin', 'rsdt', 'mrfso', 'snw', 'sund', 'sfcWindmax', 'mrso', 'snd', 'va500', 'rlds', 'va200', 'clt', 'mrro', 'ua200', 'hfss', 'hus850', 'sfcWind', 'rlut', 'hurs', 'uas', 'psl', 'mrros', 'ta500', 'rsut', 'sic', 'snc', 'ua850', 'ta200', 'tasmax', 'vas', 'tas', 'rlus', 'evspsbl', 'va850', 'ua500', 'pr', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -28014,7 +28014,7 @@
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'hfss', 'evspsbl', 'ua850', 'va500', 'rlus', 'clt', 'uas', 'ta500', 'rsus', 'snw', 'sic', 'tasmax', 'rsut', 'ua500', 'ta850', 'snd', 'tas', 'mrfso', 'vas', 'ua200', 'huss', 'va200', 'zg200', 'rlds', 'pr', 'zg500', 'va850', 'rlut', 'sund', 'tasmin', 'snm', 'rsds', 'mrros', 'sfcWind', 'snc', 'hfls', 'psl', 'mrro', 'hus850', 'mrso', 'rsdt', 'hurs', 'ta200']</t>
+          <t>['vas', 'ua200', 'rlus', 'huss', 'ta500', 'rsus', 'snw', 'sic', 'clt', 'uas', 'va200', 'rlds', 'zg200', 'tasmax', 'rsut', 'snd', 'mrfso', 'ua500', 'ta850', 'tas', 'hfss', 'sfcWindmax', 'evspsbl', 'snc', 'hfls', 'hus850', 'mrso', 'psl', 'rsdt', 'hurs', 'mrro', 'ta200', 'tasmin', 'ua850', 'va500', 'snm', 'rsds', 'mrros', 'pr', 'zg500', 'rlut', 'sfcWind', 'va850', 'sund']</t>
         </is>
       </c>
     </row>
@@ -28054,7 +28054,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>['clt', 'hfss', 'hurs', 'prw', 'ps', 'rlus', 'rsus', 'hfls', 'huss', 'pr', 'psl', 'rlds', 'rsds', 'sfcWind', 'tas']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -28118,7 +28118,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>['ta200', 'ta500', 'ta850', 'ts', 'tasmax', 'tauu', 'tauv', 'tasmin', 'tas', 'prw', 'psl', 'ps', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'sic', 'snc', 'snd', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'clwvi', 'hfls', 'hurs', 'hus850', 'clt', 'zmla', 'evspsbl', 'cll', 'clm', 'zg200', 'zg500', 'clh', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'prsn', 'mrro', 'pr', 'wsgsmax', 'vas', 'clivi']</t>
+          <t>['tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'clh', 'clivi', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'prsn', 'mrro', 'pr', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'cll', 'clm', 'hurs', 'hus850', 'clt', 'zmla', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -28182,7 +28182,7 @@
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>['ua200', 'ua850', 'ta200', 'tasmin', 'tasmax', 'tas', 'ua500', 'ta500', 'ta850', 'zg500', 'uas', 'va200', 'va850', 'vas', 'zg200', 'va500', 'rsut', 'snm', 'sic', 'sfcWindmax', 'sfcWind', 'snw', 'sund', 'snc', 'snd', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rlut', 'mrso', 'clt', 'hfss', 'huss', 'hurs', 'hus850', 'rsdt', 'psl', 'pr']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'clt', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -28214,7 +28214,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>['uas', 'tas', 'ua200', 'ua500', 'ta500', 'ta850', 'tasmax', 'tasmin', 'ua850', 'vas', 'zg200', 'zg500', 'va850', 'evspsbl', 'clt', 'va200', 'va500', 'sfcWindmax', 'snw', 'ta200', 'snd', 'sfcWind', 'sund', 'snc', 'sic', 'hfss', 'hfls', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'mrfso', 'mrso', 'snm', 'rsus', 'rlus', 'rsdt', 'rsds', 'rlds', 'rsut', 'rlut', 'psl', 'pr']</t>
+          <t>['tasmax', 'tasmin', 'uas', 'tas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'ta200', 'snd', 'evspsbl', 'clt', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -28254,7 +28254,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'tas', 'hurs', 'huss', 'pr', 'psl', 'clt', 'hfls', 'hfss', 'prw', 'ps']</t>
+          <t>['rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -28318,7 +28318,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>['zg500', 'tauu', 'tas', 'tauv', 'uas', 'va850', 'ua200', 'ts', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWind', 'snc', 'sic', 'rsus', 'rsdt', 'rsut', 'sfcWindmax', 'snm', 'rsds', 'prhmax', 'psl', 'prsn', 'mrfso', 'mrso', 'mrros', 'hurs', 'hus850', 'prc', 'huss', 'mrro', 'pr', 'rlds', 'rlus', 'rlut', 'prw', 'ps', 'va200', 'va500', 'ua500', 'ua850', 'clivi', 'hfss', 'clh', 'cll', 'clwvi', 'hfls', 'evspsbl', 'clm', 'clt', 'tasmax', 'tasmin', 'snw', 'sund', 'wsgsmax', 'zmla', 'vas', 'zg200']</t>
+          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'tauv', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'tasmax', 'tasmin', 'tauu', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'clwvi', 'hfls', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'clt', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd']</t>
         </is>
       </c>
     </row>
@@ -28350,7 +28350,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>['sftgif', 'areacella', 'orog', 'mrsofc', 'sftlf']</t>
+          <t>['mrsofc', 'sftgif', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -28382,7 +28382,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'uas', 'va200', 'va850', 'ua500', 'va500', 'ua200', 'ua850', 'rsds', 'rsus', 'rsut', 'snd', 'sfcWindmax', 'rsdt', 'sfcWind', 'snc', 'sic', 'zg500', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'huss', 'hurs', 'hus850', 'hfls', 'evspsbl', 'clt', 'hfss', 'rlut', 'snw', 'tas', 'sund', 'ta500', 'tasmin', 'ta200', 'tasmax', 'snm', 'ta850']</t>
+          <t>['rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta850', 'ta500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'zg500', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -28414,7 +28414,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>['rsdt', 'sfcWind', 'snd', 'sic', 'sfcWindmax', 'rsus', 'rsut', 'mrros', 'pr', 'sund', 'ua200', 'mrfso', 'huss', 'clt', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'zg500', 'uas', 'va200', 'va500', 'ua500', 'vas', 'zg200', 'va850', 'ua850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'snm', 'snc']</t>
+          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt']</t>
         </is>
       </c>
     </row>
@@ -28454,7 +28454,7 @@
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'hfss', 'hurs', 'rsus', 'sfcWind', 'tas', 'rsds', 'ps', 'psl', 'rlds', 'rlus', 'huss', 'prw', 'pr']</t>
+          <t>['ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw']</t>
         </is>
       </c>
     </row>
@@ -28518,7 +28518,7 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'prw', 'zg200', 'rlds', 'tas', 'zmla', 'clh', 'prc', 'sic', 'ua200', 'ps', 'ua850', 'mrfso', 'snw', 'ua500', 'rsus', 'clivi', 'uas', 'evspsbl', 'ta200', 'cll', 'zg500', 'clwvi', 'hus850', 'mrro', 'snc', 'ta850', 'va200', 'tauv', 'snd', 'tasmin', 'vas', 'rsut', 'prsn', 'tauu', 'rsdt', 'sund', 'hfss', 'hfls', 'tasmax', 'mrros', 'huss', 'sfcWind', 'mrso', 'rsds', 'clm', 'va500', 'sfcWindmax', 'rlut', 'ta500', 'psl', 'hurs', 'va850', 'prhmax', 'snm', 'ts', 'clt', 'pr', 'rlus']</t>
+          <t>['rlds', 'tasmin', 'prc', 'sic', 'ua200', 'ps', 'ua850', 'mrfso', 'snw', 'ua500', 'rsus', 'clivi', 'uas', 'tas', 'zmla', 'clh', 'snd', 'vas', 'rsut', 'evspsbl', 'mrro', 'ta200', 'cll', 'snc', 'zg500', 'va200', 'clwvi', 'tauv', 'hus850', 'ta850', 'zg200', 'prw', 'wsgsmax', 'clt', 'clm', 'va500', 'sfcWindmax', 'rlut', 'ta500', 'prhmax', 'snm', 'ts', 'psl', 'pr', 'rlus', 'va850', 'hurs', 'rsdt', 'mrros', 'huss', 'sund', 'sfcWind', 'hfss', 'hfls', 'tasmax', 'prsn', 'rsds', 'tauu', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -28550,7 +28550,7 @@
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>['mrsofc', 'orog', 'areacella', 'sftlf', 'sftgif']</t>
+          <t>['areacella', 'orog', 'mrsofc', 'sftlf', 'sftgif']</t>
         </is>
       </c>
     </row>
@@ -28582,7 +28582,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>['rsds', 'snw', 'snm', 'hurs', 'zg500', 'mrros', 'rlut', 'psl', 'snc', 'sfcWindmax', 'rsus', 'hfss', 'vas', 'mrso', 'uas', 'zg200', 'mrro', 'pr', 'ta500', 'tasmin', 'mrfso', 'rlds', 'hfls', 'ta200', 'evspsbl', 'rlus', 'huss', 'sund', 'rsut', 'tasmax', 'ua200', 'snd', 'hus850', 'clt', 'tas', 'va200', 'sic', 'va500', 'ua850', 'va850', 'ua500', 'rsdt', 'sfcWind', 'ta850']</t>
+          <t>['snm', 'hurs', 'hfss', 'psl', 'sfcWindmax', 'rsus', 'snc', 'zg500', 'mrfso', 'mrros', 'rlut', 'ta200', 'rlds', 'hfls', 'evspsbl', 'vas', 'zg200', 'mrro', 'pr', 'mrso', 'tasmin', 'uas', 'ta500', 'rsds', 'tas', 'va850', 'ua500', 'hus850', 'va200', 'clt', 'ua850', 'rsdt', 'sic', 'va500', 'sfcWind', 'ta850', 'rsut', 'snw', 'ua200', 'tasmax', 'snd', 'rlus', 'sund', 'huss']</t>
         </is>
       </c>
     </row>
@@ -28614,7 +28614,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>['rlus', 'hus850', 'tasmin', 'tasmax', 'sfcWind', 'snw', 'uas', 'huss', 'ta500', 'va850', 'snd', 'mrfso', 'hurs', 'ua500', 'sfcWindmax', 'va500', 'vas', 'mrro', 'rsdt', 'rsus', 'rsut', 'va200', 'mrso', 'snm', 'evspsbl', 'psl', 'hfls', 'rlut', 'pr', 'rsds', 'ta200', 'ua200', 'tas', 'rlds', 'mrros', 'sund', 'ua850', 'snc', 'zg200', 'ta850', 'zg500', 'sic', 'hfss', 'clt']</t>
+          <t>['rsus', 'va850', 'snd', 'ua500', 'huss', 'ta500', 'mrfso', 'hurs', 'rsut', 'snw', 'uas', 'mrso', 'va200', 'sfcWindmax', 'vas', 'rsdt', 'va500', 'mrro', 'sfcWind', 'hfss', 'snc', 'zg500', 'sic', 'zg200', 'ta850', 'clt', 'rlus', 'hus850', 'tasmin', 'tasmax', 'evspsbl', 'psl', 'hfls', 'rlut', 'ua200', 'pr', 'rsds', 'ta200', 'tas', 'rlds', 'snm', 'mrros', 'sund', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -28658,7 +28658,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>['clt', 'snm', 'clivi', 'hfls', 'clwvi', 'mrro', 'tauv', 'tauu', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'zmla', 'hfss', 'mrfso', 'evspsbl', 'ts', 'ps', 'prc', 'prw', 'psl', 'prsn', 'snw', 'snc', 'sund', 'sic', 'snd', 'prhmax', 'mrso', 'mrros', 'pr']</t>
+          <t>['clivi', 'clt', 'snm', 'snw', 'snc', 'sund', 'sic', 'snd', 'hfss', 'hfls', 'clwvi', 'mrfso', 'evspsbl', 'mrro', 'tauv', 'tauu', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'zmla', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -28686,7 +28686,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>['clh', 'clm', 'cll', 'huss', 'tasmax', 'hurs', 'sfcWindmax', 'sfcWind', 'uas', 'wsgsmax', 'vas', 'tasmin', 'tas']</t>
+          <t>['clh', 'cll', 'clm', 'huss', 'hurs', 'tasmax', 'tasmin', 'tas', 'sfcWindmax', 'sfcWind', 'wsgsmax', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -28714,7 +28714,7 @@
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>['hus850', 'va850', 'zg200', 'zg500', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'ta850', 'ta200', 'ta500']</t>
+          <t>['ta850', 'ta200', 'ta500', 'hus850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -28746,7 +28746,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'mrsofc', 'areacella', 'sftgif']</t>
+          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -28778,7 +28778,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rsdt', 'rlut', 'rsut', 'rlus', 'hfls', 'evspsbl', 'snm', 'clt', 'snw', 'sic', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'sund', 'snc', 'snd']</t>
+          <t>['mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'evspsbl', 'clt', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd']</t>
         </is>
       </c>
     </row>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>['tasmax', 'uas', 'sfcWindmax', 'sfcWind', 'tasmin', 'tas', 'huss', 'hurs', 'vas']</t>
+          <t>['huss', 'hurs', 'tasmax', 'tasmin', 'uas', 'tas', 'sfcWindmax', 'sfcWind', 'vas']</t>
         </is>
       </c>
     </row>
@@ -28834,7 +28834,7 @@
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>['va500', 'ua200', 'va200', 'ua500', 'ua850', 'zg500', 'va850', 'ta500', 'zg200', 'hus850', 'ta200', 'ta850']</t>
+          <t>['hus850', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'zg200', 'zg500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -28866,7 +28866,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>['hfss', 'evspsbl', 'mrfso', 'mrros', 'hfls', 'rlds', 'mrso', 'psl', 'mrro', 'pr', 'rsus', 'rlus', 'rsut', 'rlut', 'sic', 'snw', 'sund', 'snc', 'snd', 'rsds', 'rsdt', 'snm', 'clt']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'clt', 'rlds', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sic', 'snm', 'snw', 'sund', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -28894,7 +28894,7 @@
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>['huss', 'tas', 'uas', 'sfcWindmax', 'sfcWind', 'tasmax', 'tasmin', 'vas', 'hurs']</t>
+          <t>['hurs', 'huss', 'sfcWindmax', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -28922,7 +28922,7 @@
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>['hus850', 'va500', 'ta200', 'ua200', 'ta500', 'ta850', 'va200', 'va850', 'ua500', 'ua850', 'zg200', 'zg500']</t>
+          <t>['hus850', 'ta200', 'ta500', 'ta850', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -28966,7 +28966,7 @@
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>['prw', 'hfls', 'huss', 'clt', 'hfss', 'hurs', 'pr', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'clt', 'hfls', 'hfss', 'hurs', 'huss']</t>
         </is>
       </c>
     </row>
@@ -29030,7 +29030,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua200', 'wsgsmax', 'snw', 'sfcWind', 'ps', 'evspsbl', 'snc', 'mrso', 'cll', 'mrros', 'snm', 'rsut', 'psl', 'va200', 'clm', 'sund', 'rsus', 'zg500', 'prw', 'rlds', 'rlut', 'zg200', 'prc', 'hurs', 'va500', 'ts', 'sic', 'ta500', 'mrfso', 'sfcWindmax', 'mrro', 'ua850', 'ta850', 'clwvi', 'tas', 'tauv', 'hus850', 'rlus', 'hfss', 'va850', 'ua500', 'clh', 'clivi', 'pr', 'tasmax', 'rsdt', 'zmla', 'ta200', 'prhmax', 'tauu', 'clt', 'snd', 'hfls', 'vas', 'uas', 'prsn', 'rsds', 'huss']</t>
+          <t>['rlus', 'hfss', 'snw', 'wsgsmax', 'tasmin', 'sfcWind', 'ps', 'ua200', 'rsut', 'evspsbl', 'cll', 'snc', 'mrso', 'mrros', 'snm', 'clt', 'snd', 'hfls', 'vas', 'uas', 'prsn', 'rsds', 'huss', 'va850', 'ua500', 'clh', 'clivi', 'pr', 'tasmax', 'rsdt', 'zmla', 'ta200', 'rsus', 'zg500', 'psl', 'va200', 'prhmax', 'tauu', 'clm', 'sund', 'tauv', 'hus850', 'sic', 'mrro', 'ua850', 'ta850', 'ta500', 'clwvi', 'mrfso', 'tas', 'sfcWindmax', 'rlds', 'rlut', 'zg200', 'prc', 'prw', 'hurs', 'va500', 'ts']</t>
         </is>
       </c>
     </row>
@@ -29062,7 +29062,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>['sftgif', 'mrsofc', 'areacella', 'sftlf', 'orog']</t>
+          <t>['sftgif', 'mrsofc', 'orog', 'areacella', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -29094,7 +29094,7 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>['ua500', 'snm', 'hurs', 'vas', 'ta500', 'sfcWindmax', 'snd', 'rsus', 'clt', 'tasmax', 'rsdt', 'hfss', 'tasmin', 'psl', 'mrso', 'rlds', 'rsut', 'sund', 'ua200', 'tas', 'mrro', 'hfls', 'pr', 'rsds', 'ta850', 'sfcWind', 'zg200', 'va850', 'va200', 'snc', 'mrfso', 'huss', 'uas', 'ua850', 'snw', 'zg500', 'va500', 'ta200', 'evspsbl', 'mrros', 'sic', 'rlus', 'rlut', 'hus850']</t>
+          <t>['sfcWind', 'zg200', 'va850', 'va200', 'sfcWindmax', 'snm', 'ua500', 'hurs', 'vas', 'ta500', 'snd', 'rsus', 'mrso', 'clt', 'rlds', 'hfss', 'tasmax', 'tasmin', 'rsdt', 'rsut', 'psl', 'evspsbl', 'mrros', 'sic', 'rlus', 'rlut', 'hus850', 'snc', 'mrfso', 'huss', 'uas', 'ua850', 'snw', 'zg500', 'va500', 'tas', 'ta200', 'sund', 'ua200', 'hfls', 'ta850', 'pr', 'rsds', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -29126,7 +29126,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>['tasmin', 'tas', 'mrro', 'va500', 'vas', 'uas', 'evspsbl', 'rsus', 'ta850', 'va200', 'pr', 'rsut', 'rlds', 'hfls', 'zg200', 'sund', 'ta200', 'ua850', 'clt', 'tasmax', 'sic', 'mrros', 'snm', 'hurs', 'zg500', 'rlus', 'va850', 'rsdt', 'rlut', 'hfss', 'mrso', 'snw', 'ua200', 'snc', 'snd', 'hus850', 'mrfso', 'ua500', 'ta500', 'huss', 'sfcWindmax', 'rsds', 'sfcWind', 'psl']</t>
+          <t>['mrfso', 'ua500', 'rsut', 'vas', 'uas', 'va200', 'pr', 'tasmin', 'evspsbl', 'rsus', 'tas', 'mrro', 'va500', 'ta850', 'rlds', 'hfls', 'tasmax', 'sic', 'zg200', 'sund', 'ua850', 'clt', 'rsds', 'sfcWind', 'psl', 'ta500', 'huss', 'ta200', 'mrros', 'snm', 'hurs', 'sfcWindmax', 'zg500', 'va850', 'rlus', 'hus850', 'snd', 'hfss', 'mrso', 'snc', 'rsdt', 'rlut', 'snw', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -29162,7 +29162,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>['prw', 'ps', 'psl', 'rlds', 'tas', 'huss', 'pr', 'rlus', 'rsds', 'rsus', 'sfcWind', 'hfls', 'hfss', 'hurs', 'clt']</t>
+          <t>['huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'clt', 'hfls', 'hfss', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -29226,7 +29226,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>['mrso', 'prw', 'tauv', 'tasmin', 'ts', 'tauu', 'uas', 'prhmax', 'prc', 'psl', 'prsn', 'pr', 'wsgsmax', 'zmla', 'vas', 'mrros', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'mrro', 'rlds', 'ps', 'tasmax', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'snm', 'snw', 'tas', 'snc', 'sund', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tauv', 'tasmax', 'tasmin', 'tauu', 'uas', 'ts', 'wsgsmax', 'zmla', 'vas', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'mrro', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'snm', 'snw', 'tas', 'snc', 'sund', 'snd']</t>
         </is>
       </c>
     </row>
@@ -29254,7 +29254,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>['ua850', 'ua500', 'ua200', 'zg200', 'zg500', 'va500', 'va850', 'va200', 'hus850', 'ta200', 'ta500', 'ta850']</t>
+          <t>['ua500', 'ua850', 'ua200', 'zg200', 'zg500', 'va500', 'va850', 'va200', 'hus850', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -29286,7 +29286,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>['orog', 'areacella', 'mrsofc', 'sftgif', 'sftlf']</t>
+          <t>['areacella', 'mrsofc', 'sftgif', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -29318,7 +29318,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>['hfss', 'evspsbl', 'clt', 'rlds', 'mrros', 'mrro', 'sfcWindmax', 'rsds', 'rlut', 'sfcWind', 'vas', 'hfls', 'hurs', 'mrfso', 'mrso', 'psl', 'tas', 'snc', 'tasmin', 'uas', 'huss', 'pr', 'rsus', 'rlus', 'rsdt', 'rsut', 'sic', 'snm', 'snw', 'sund', 'snd', 'tasmax']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'snm', 'snw', 'tas', 'snc', 'sund', 'snd', 'tasmax', 'tasmin', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -29346,7 +29346,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>['hus850', 'zg200', 'zg500', 'ta200', 'ta850', 'va200', 'va850', 'ua500', 'ta500', 'va500', 'ua200', 'ua850']</t>
+          <t>['hus850', 'ta200', 'ta500', 'ta850', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -29378,7 +29378,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>['rsdt', 'rlut', 'sfcWind', 'snc', 'sic', 'hfls', 'evspsbl', 'clt', 'tasmin', 'vas', 'uas', 'hfss', 'hurs', 'sfcWindmax', 'rsds', 'rsus', 'rsut', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr']</t>
+          <t>['rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmin', 'vas', 'uas', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'snd']</t>
         </is>
       </c>
     </row>
@@ -29406,7 +29406,7 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>['va200', 'va500', 'va850', 'ua200', 'ua500', 'zg500', 'hus850', 'ua850', 'zg200', 'ta200', 'ta500', 'ta850']</t>
+          <t>['hus850', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg500', 'zg200', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -29442,7 +29442,7 @@
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'ps', 'psl', 'prw', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -29506,7 +29506,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>['snw', 'snc', 'sund', 'ta200', 'snm', 'sic', 'ta500', 'ta850', 'snd', 'clm', 'clivi', 'clh', 'cll', 'clt', 'mrfso', 'huss', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus850', 'mrro', 'rsds', 'prhmax', 'prc', 'mrros', 'psl', 'ps', 'sfcWindmax', 'wsgsmax', 'zg200', 'zg500', 'uas', 'zmla', 'vas', 'va200', 'va500', 'va850', 'tauu', 'tas', 'ua500', 'ua850', 'tasmax', 'tasmin', 'tauv', 'ts', 'ua200', 'mrso', 'prw', 'prsn', 'pr', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind']</t>
+          <t>['tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'ua500', 'ua850', 'ua200', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'clh', 'clm', 'cll', 'clivi', 'clt', 'hfss', 'clwvi', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'snm', 'snw', 'snc', 'sund', 'sic', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -29538,7 +29538,7 @@
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>['sftgif', 'mrsofc', 'areacella', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -29570,7 +29570,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>['va850', 'vas', 'zg200', 'zg500', 'hfls', 'hfss', 'evspsbl', 'clt', 'rlds', 'rlus', 'rlut', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'rsds', 'sfcWindmax', 'snm', 'snw', 'ta200', 'ta850', 'tas', 'va200', 'ua500', 'ua850', 'uas', 'tasmax', 'tasmin', 'va500', 'ua200', 'snc', 'sund', 'sic', 'ta500', 'snd', 'hus850', 'psl', 'mrro', 'pr', 'mrso', 'huss', 'mrfso', 'mrros', 'hurs']</t>
+          <t>['tasmax', 'tasmin', 'uas', 'tas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'zg200', 'zg500', 'va850', 'snm', 'snw', 'snc', 'sund', 'sic', 'ta200', 'ta500', 'ta850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -29602,7 +29602,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'mrfso', 'rlds', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmin', 'tasmax', 'zg500', 'zg200', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsut', 'rlut', 'rsdt', 'sfcWind', 'sic', 'vas', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -29642,7 +29642,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>['ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'hurs', 'pr', 'prw', 'clt', 'hfls', 'hfss', 'huss']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -29706,7 +29706,7 @@
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>['tasmin', 'rsds', 'prhmax', 'sic', 'va500', 'snd', 'rsus', 'clivi', 'clm', 'mrso', 'zmla', 'prw', 'hus850', 'ts', 'clwvi', 'evspsbl', 'ua500', 'tasmax', 'zg500', 'pr', 'ta850', 'tauu', 'snw', 'mrro', 'sund', 'cll', 'huss', 'rlut', 'ta500', 'snm', 'rlds', 'mrfso', 'sfcWind', 'wsgsmax', 'snc', 'ps', 'uas', 'rlus', 'hfls', 'rsut', 'sfcWindmax', 'prsn', 'rsdt', 'tas', 'prc', 'va200', 'hfss', 'ua850', 'ta200', 'ua200', 'clt', 'tauv', 'hurs', 'va850', 'psl', 'zg200', 'clh', 'mrros', 'vas']</t>
+          <t>['tauu', 'snw', 'mrro', 'ua500', 'tasmax', 'zg500', 'sund', 'pr', 'cll', 'huss', 'ta850', 'rlut', 'snm', 'ta500', 'rlus', 'hfls', 'rsdt', 'rsut', 'sfcWindmax', 'rlds', 'mrfso', 'sfcWind', 'prsn', 'wsgsmax', 'snc', 'ps', 'tas', 'uas', 'tasmin', 'mrso', 'rsds', 'prhmax', 'zmla', 'va500', 'prw', 'snd', 'rsus', 'clivi', 'clm', 'hus850', 'sic', 'ts', 'clwvi', 'evspsbl', 'ua200', 'tauv', 'prc', 'va200', 'hurs', 'psl', 'zg200', 'clt', 'hfss', 'clh', 'mrros', 'va850', 'vas', 'ua850', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -29770,7 +29770,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>['psl', 'snd', 'rsds', 'mrros', 'sfcWind', 'rlus', 'sfcWindmax', 'mrfso', 'snm', 'pr', 'hurs', 'mrro', 'tas', 'rlut', 'rlds', 'ta850', 'ta500', 'sund', 'hfss', 'ua850', 'zg500', 'rsus', 'ua500', 'ta200', 'rsut', 'snc', 'va500', 'vas', 'snw', 'evspsbl', 'uas', 'sic', 'zg200', 'clt', 'rsdt', 'va200', 'va850', 'tasmax', 'hus850', 'mrso', 'huss', 'hfls', 'tasmin', 'ua200']</t>
+          <t>['ta500', 'sund', 'rlds', 'zg500', 'ta850', 'rsus', 'hfss', 'ua850', 'ua500', 'vas', 'ta200', 'rsut', 'snw', 'evspsbl', 'uas', 'sic', 'zg200', 'snc', 'va500', 'rlus', 'hurs', 'psl', 'mrro', 'snd', 'rsds', 'mrros', 'sfcWindmax', 'mrfso', 'sfcWind', 'snm', 'pr', 'rlut', 'tas', 'clt', 'rsdt', 'mrso', 'huss', 'tasmax', 'hfls', 'hus850', 'va200', 'tasmin', 'va850', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -29802,7 +29802,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>['sic', 'snd', 'vas', 'ua200', 'rlut', 'huss', 'snm', 'hurs', 'hus850', 'ua850', 'snw', 'ta500', 'rlus', 'tas', 'uas', 'hfss', 'mrfso', 'mrso', 'sund', 'ua500', 'hfls', 'zg500', 'va850', 'va200', 'rsdt', 'ta200', 'evspsbl', 'snc', 'zg200', 'rsus', 'rlds', 'tasmax', 'clt', 'va500', 'sfcWind', 'mrros', 'rsds', 'sfcWindmax', 'tasmin', 'ta850', 'rsut', 'psl', 'mrro', 'pr']</t>
+          <t>['mrfso', 'mrso', 'ta500', 'rlus', 'tas', 'uas', 'hfss', 'hfls', 'zg500', 'va850', 'sund', 'ua500', 'rsus', 'va200', 'rlds', 'zg200', 'rsdt', 'ta200', 'tasmax', 'evspsbl', 'snc', 'clt', 'sic', 'snd', 'snm', 'vas', 'ua200', 'rlut', 'huss', 'hurs', 'hus850', 'ua850', 'snw', 'va500', 'sfcWindmax', 'tasmin', 'sfcWind', 'mrros', 'ta850', 'rsds', 'rsut', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -29842,7 +29842,7 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'hurs', 'pr', 'prw', 'rlds', 'rsds', 'rsus', 'sfcWind', 'clt', 'huss', 'ps', 'psl', 'rlus', 'tas']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -29874,7 +29874,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -29906,7 +29906,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>['ta500', 'snw', 'wsgsmax', 'ua200', 'tauv', 'rsds', 'mrfso', 'clm', 'prc', 'sfcWindmax', 'mrso', 'hfss', 'snc', 'cll', 'rsut', 'ta200', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'zg200', 'sund', 'ps', 'clivi', 'clt', 'snm', 'va500', 'tas', 'mrro', 'prhmax', 'prsn', 'ua500', 'snd', 'ta850', 'psl', 'ua850', 'uas', 'clh', 'va200', 'rsdt', 'va850', 'tasmin', 'sic', 'zmla', 'sfcWind', 'pr', 'rsus', 'vas', 'rlds', 'tauu', 'prw', 'huss', 'rlus', 'ts', 'rlut', 'hus850', 'tasmax', 'mrros', 'zg500']</t>
+          <t>['tas', 'prsn', 'mrro', 'ua500', 'prhmax', 'clm', 'prc', 'ua200', 'tauv', 'ta500', 'rsds', 'mrfso', 'snw', 'wsgsmax', 'va500', 'tasmax', 'zmla', 'sfcWind', 'pr', 'rsus', 'vas', 'hus850', 'rlds', 'tauu', 'prw', 'huss', 'ta850', 'rlus', 'psl', 'ua850', 'ts', 'uas', 'rlut', 'rsdt', 'clh', 'mrros', 'va850', 'tasmin', 'zg500', 'sic', 'va200', 'snd', 'hfss', 'snc', 'ta200', 'clwvi', 'hfls', 'cll', 'evspsbl', 'hurs', 'zg200', 'sund', 'ps', 'clivi', 'clt', 'sfcWindmax', 'rsut', 'mrso', 'snm']</t>
         </is>
       </c>
     </row>
@@ -29938,7 +29938,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>['mrsofc', 'orog', 'sftgif', 'areacella', 'sftlf']</t>
+          <t>['sftgif', 'sftlf', 'areacella', 'orog', 'mrsofc']</t>
         </is>
       </c>
     </row>
@@ -29970,7 +29970,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>['hurs', 'rsut', 'va850', 'rsdt', 'pr', 'snw', 'zg500', 'mrro', 'sfcWindmax', 'rsds', 'ua200', 'tasmax', 'tasmin', 'evspsbl', 'tas', 'sfcWind', 'sund', 'ta200', 'ta850', 'rsus', 'hfls', 'rlut', 'huss', 'vas', 'hus850', 'mrfso', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrros', 'ua500', 'zg200', 'va200', 'snd', 'snm', 'rlds', 'psl', 'hfss', 'sic', 'clt', 'ua850', 'mrso']</t>
+          <t>['rsus', 'hfls', 'rsdt', 'rlut', 'huss', 'vas', 'pr', 'hurs', 'snw', 'rsut', 'zg500', 'va850', 'sund', 'ta200', 'ta850', 'clt', 'ua850', 'zg200', 'va200', 'snd', 'snm', 'hus850', 'rlds', 'psl', 'hfss', 'mrfso', 'uas', 'snc', 'sic', 'va500', 'ta500', 'rlus', 'mrso', 'mrros', 'ua500', 'sfcWindmax', 'rsds', 'ua200', 'tasmax', 'tasmin', 'evspsbl', 'tas', 'mrro', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -30002,7 +30002,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>['rsdt', 'rlut', 'va200', 'huss', 'snw', 'tasmin', 'psl', 'vas', 'snd', 'zg200', 'va500', 'ta500', 'mrso', 'pr', 'rlds', 'sic', 'evspsbl', 'tasmax', 'mrfso', 'hus850', 'clt', 'snc', 'zg500', 'ua500', 'rsus', 'rlus', 'uas', 'va850', 'sfcWindmax', 'hfss', 'ua850', 'mrros', 'snm', 'hfls', 'sfcWind', 'hurs', 'ua200', 'rsds', 'sund', 'mrro', 'tas', 'ta850', 'ta200', 'rsut']</t>
+          <t>['tasmax', 'mrfso', 'vas', 'snw', 'tasmin', 'rsdt', 'rlut', 'psl', 'va200', 'huss', 'sic', 'evspsbl', 'rsut', 'mrros', 'snm', 'hfls', 'sfcWind', 'hurs', 'ta200', 'ua200', 'rsds', 'snc', 'zg500', 'sund', 'ua500', 'mrro', 'rsus', 'rlus', 'uas', 'tas', 'va850', 'ta850', 'sfcWindmax', 'hfss', 'ua850', 'hus850', 'clt', 'snd', 'zg200', 'va500', 'ta500', 'mrso', 'pr', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -30038,7 +30038,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'sfcWind', 'tas', 'huss', 'pr', 'ps', 'rlds', 'clt', 'prw', 'psl', 'rlus', 'hfls', 'hfss', 'hurs']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -30070,7 +30070,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -30102,7 +30102,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'prhmax', 'clwvi', 'clivi', 'hfss', 'rlus', 'prc', 'prw', 'prsn', 'ps', 'clh', 'cll', 'clm', 'evspsbl', 'mrfso', 'rlds', 'psl', 'rsds', 'rsus', 'rsdt', 'rlut', 'tasmax', 'tas', 'sund', 'tasmin', 'tauv', 'uas', 'ts', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'sic', 'snm', 'snw', 'snd', 'tauu', 'wsgsmax', 'zmla', 'vas']</t>
+          <t>['wsgsmax', 'zmla', 'vas', 'clwvi', 'clh', 'clivi', 'cll', 'clm', 'evspsbl', 'clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'rlds', 'prhmax', 'rlus', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'snd', 'tasmin', 'tauv', 'tauu', 'uas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -30130,7 +30130,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>['hus850', 'ta500', 'ta850', 'ua850', 'ta200', 'va200', 'ua200', 'ua500', 'zg200', 'zg500', 'va500', 'va850']</t>
+          <t>['zg200', 'zg500', 'va500', 'va850', 'hus850', 'ta200', 'ta500', 'ta850', 'va200', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -30222,7 +30222,7 @@
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'hus850', 'ta200', 'ta500', 'ta850', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['hus850', 'ta200', 'ta500', 'ta850', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -30254,7 +30254,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>['huss', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmin', 'tasmax', 'rlds', 'rlut', 'mrso', 'mrros', 'mrro', 'pr', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlus', 'mrfso', 'sfcWindmax', 'sic', 'psl', 'sfcWind', 'snc', 'snd', 'uas', 'snm', 'snw', 'tas', 'sund', 'vas']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'vas', 'uas', 'rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd']</t>
         </is>
       </c>
     </row>
@@ -30282,7 +30282,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['hus850', 'zg500', 'zg200', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'va850', 'ta200', 'ta850', 'ta500']</t>
+          <t>['hus850', 'ta200', 'ta500', 'ta850', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -30322,7 +30322,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['clt', 'hfls', 'hurs', 'prw', 'ps', 'hfss', 'huss', 'pr', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas', 'clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps']</t>
         </is>
       </c>
     </row>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['rsut', 'hurs', 'ta500', 'rsds', 'prw', 'clm', 'tas', 'ua500', 'sfcWindmax', 'zg200', 'ts', 'clivi', 'uas', 'sund', 'ta200', 'cll', 'mrso', 'snw', 'va850', 'mrro', 'clt', 'snd', 'evspsbl', 'hfss', 'hfls', 'rlut', 'va500', 'pr', 'mrfso', 'clh', 'huss', 'tasmax', 'prc', 'hus850', 'va200', 'rlus', 'snm', 'wsgsmax', 'tauu', 'rlds', 'rsdt', 'ua850', 'zmla', 'zg500', 'ps', 'clwvi', 'prhmax', 'snc', 'prsn', 'rsus', 'tauv', 'vas', 'sic', 'ta850', 'tasmin', 'psl', 'mrros', 'sfcWind', 'ua200']</t>
+          <t>['rlds', 'rsdt', 'zmla', 'ua850', 'clwvi', 'zg500', 'ps', 'prhmax', 'snc', 'prsn', 'clivi', 'uas', 'sund', 'ta200', 'cll', 'mrso', 'snw', 'rsus', 'tauv', 'rsut', 'vas', 'sic', 'ta850', 'prw', 'tasmin', 'clm', 'hurs', 'tas', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'psl', 'zg200', 'ts', 'mrros', 'hfss', 'hfls', 'rlut', 'va500', 'pr', 'wsgsmax', 'tauu', 'mrfso', 'clh', 'huss', 'tasmax', 'prc', 'hus850', 'va200', 'rlus', 'va850', 'mrro', 'clt', 'snd', 'evspsbl', 'sfcWind', 'snm', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -30418,7 +30418,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'mrsofc', 'sftgif', 'orog']</t>
+          <t>['sftgif', 'orog', 'areacella', 'sftlf', 'mrsofc']</t>
         </is>
       </c>
     </row>
@@ -30450,7 +30450,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>['va200', 'snd', 'hfls', 'snc', 'evspsbl', 'uas', 'sund', 'tas', 'ua850', 'sfcWindmax', 'mrros', 'snw', 'pr', 'ta200', 'rlus', 'sfcWind', 'tasmin', 'ua200', 'huss', 'zg200', 'sic', 'rlds', 'psl', 'mrro', 'rsut', 'hfss', 'rsds', 'mrso', 'va850', 'tasmax', 'rsus', 'hus850', 'ta850', 'hurs', 'snm', 'clt', 'rlut', 'ta500', 'rsdt', 'mrfso', 'vas', 'zg500', 'ua500', 'va500']</t>
+          <t>['hfss', 'rsds', 'tasmax', 'mrso', 'va850', 'rsus', 'hurs', 'snm', 'clt', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'va200', 'snd', 'hfls', 'evspsbl', 'ta500', 'snc', 'rsdt', 'mrfso', 'zg200', 'sic', 'ta200', 'rlds', 'psl', 'rlus', 'sfcWind', 'mrro', 'tasmin', 'rsut', 'tas', 'ua850', 'sfcWindmax', 'mrros', 'snw', 'pr', 'vas', 'zg500', 'ua500', 'huss', 'va500', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -30482,7 +30482,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>['zg500', 'ua850', 'ta850', 'mrros', 'snw', 'hurs', 'ta500', 'ua200', 'vas', 'rsus', 'sic', 'va850', 'tasmax', 'ta200', 'rlus', 'hfss', 'rsdt', 'psl', 'hfls', 'snc', 'snm', 'sund', 'va200', 'tasmin', 'mrso', 'pr', 'rlut', 'hus850', 'va500', 'ua500', 'uas', 'huss', 'mrro', 'sfcWindmax', 'rsut', 'evspsbl', 'zg200', 'mrfso', 'rlds', 'sfcWind', 'tas', 'snd', 'clt', 'rsds']</t>
+          <t>['ua500', 'uas', 'evspsbl', 'huss', 'zg200', 'mrro', 'sfcWindmax', 'rsut', 'rsus', 'vas', 'zg500', 'mrfso', 'snw', 'ua850', 'rlds', 'sfcWind', 'hurs', 'tas', 'snd', 'ta850', 'ta500', 'mrros', 'clt', 'ua200', 'rsds', 'hus850', 'psl', 'hfls', 'va500', 'snc', 'snm', 'sund', 'va200', 'tasmin', 'mrso', 'sic', 'va850', 'tasmax', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'pr']</t>
         </is>
       </c>
     </row>
@@ -30518,7 +30518,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>['tas', 'sfcWind', 'hfss', 'hurs', 'huss', 'prw', 'ps', 'hfls', 'pr', 'clt', 'rlds', 'rsds', 'rsus', 'psl', 'rlus']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -30610,7 +30610,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>['mrro', 'wsgsmax', 'zmla', 'mrros', 'huss', 'hurs', 'pr', 'vas', 'hfls', 'clivi', 'clm', 'evspsbl', 'mrso', 'clwvi', 'clh', 'cll', 'clt', 'hfss', 'mrfso', 'snw', 'tasmax', 'tasmin', 'sund', 'snm', 'tas', 'tauv', 'uas', 'ts', 'tauu', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd']</t>
+          <t>['tauv', 'tauu', 'uas', 'ts', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'clwvi', 'hfls', 'clh', 'clivi', 'cll', 'clm', 'evspsbl', 'clt', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'pr', 'wsgsmax', 'zmla', 'vas', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd']</t>
         </is>
       </c>
     </row>
@@ -30638,7 +30638,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>['va850', 'hus850', 'zg200', 'zg500', 'ta500', 'ta200', 'ta850', 'ua200', 'ua500', 'ua850', 'va200', 'va500']</t>
+          <t>['va200', 'va500', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'hus850', 'zg200', 'zg500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -30702,7 +30702,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>['mrros', 'psl', 'mrro', 'rlds', 'rlut', 'pr', 'rlus', 'mrfso', 'mrso', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'tasmax', 'rsdt', 'rsut', 'sfcWind', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'snc', 'sic', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'vas', 'uas']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -30730,7 +30730,7 @@
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>['zg500', 'ta200', 'ta500', 'ta850', 'hus850', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['ta200', 'ta500', 'ta850', 'zg500', 'hus850', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -30762,7 +30762,7 @@
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'uas', 'hfss', 'mrfso', 'huss', 'hurs', 'clt', 'vas', 'rsds', 'pr', 'rlds', 'rlus', 'mrros', 'psl', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snm', 'sic', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund']</t>
+          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt', 'vas', 'uas', 'tasmax', 'tasmin', 'snw', 'tas', 'sund']</t>
         </is>
       </c>
     </row>
@@ -30790,7 +30790,7 @@
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>['zg500', 'va500', 'ua500', 'ua850', 'hus850', 'zg200', 'va200', 'va850', 'ua200', 'ta200', 'ta500', 'ta850']</t>
+          <t>['hus850', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -30826,7 +30826,7 @@
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'clt', 'huss', 'pr', 'prw', 'psl', 'rlus', 'hfls', 'rlds', 'rsds', 'tas', 'ps', 'rsus', 'sfcWind']</t>
+          <t>['hfss', 'hurs', 'clt', 'hfls', 'huss', 'pr', 'prw', 'ps', 'rlds', 'psl', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -30890,7 +30890,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>['tauv', 'ua200', 'ts', 'tasmin', 'tauu', 'uas', 'va200', 'ua500', 'ua850', 'ta850', 'snd', 'sund', 'ta200', 'ta500', 'hfss', 'hfls', 'mrfso', 'mrro', 'mrso', 'mrros', 'hus850', 'huss', 'hurs', 'snm', 'snw', 'tasmax', 'tas', 'wsgsmax', 'zg200', 'zg500', 'zmla', 'vas', 'va500', 'va850', 'sfcWind', 'snc', 'sic', 'clwvi', 'clh', 'cll', 'evspsbl', 'clivi', 'clm', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'rlds', 'prhmax', 'rlus', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'tasmin', 'tauv', 'tauu', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ts', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'rlds', 'prhmax', 'rlus', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -30922,7 +30922,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>['mrsofc', 'areacella', 'orog', 'sftgif', 'sftlf']</t>
+          <t>['mrsofc', 'areacella', 'sftgif', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -30954,7 +30954,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'vas', 'uas', 'va200', 'va850', 'ua200', 'ua500', 'va500', 'ua850', 'tasmin', 'rlus', 'psl', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'mrro', 'pr', 'sfcWind', 'snc', 'sic', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'tasmax', 'snm', 'snw', 'sund', 'tas', 'ta200', 'ta500', 'ta850', 'snd', 'hus850', 'clt', 'hfss', 'hfls', 'hurs', 'evspsbl']</t>
+          <t>['tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg500', 'zg200', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic']</t>
         </is>
       </c>
     </row>
@@ -30986,7 +30986,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>['clt', 'hfss', 'evspsbl', 'huss', 'hfls', 'hurs', 'hus850', 'tasmin', 'snw', 'sund', 'ta200', 'ta500', 'rsds', 'rsus', 'ua500', 'ua850', 'vas', 'va200', 'va500', 'ua200', 'uas', 'zg200', 'va850', 'tasmax', 'snm', 'tas', 'ta850', 'rsdt', 'snc', 'sic', 'snd', 'sfcWindmax', 'rsut', 'sfcWind', 'zg500', 'rlds', 'mrfso', 'mrso', 'mrro', 'pr', 'mrros', 'psl', 'rlus', 'rlut']</t>
+          <t>['zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -31030,7 +31030,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'hfls', 'clt', 'prw', 'ps', 'psl', 'rsds', 'rsus', 'hfss', 'pr', 'sfcWind', 'tas', 'hurs', 'huss']</t>
+          <t>['rlds', 'rlus', 'clt', 'hfls', 'hfss', 'pr', 'prw', 'hurs', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -31094,7 +31094,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>['mrso', 'prc', 'mrro', 'wsgsmax', 'zmla', 'zg200', 'clwvi', 'hfls', 'evspsbl', 'huss', 'hurs', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'sund', 'hfss', 'hus850', 'ta200', 'ta500', 'ta850', 'mrros', 'pr', 'prhmax', 'mrfso', 'zg500', 'clm', 'clivi', 'clh', 'cll', 'ua500', 'ts', 'vas', 'va500', 'va850', 'ua200', 'clt', 'uas', 'va200', 'ua850', 'snw', 'snd', 'snm', 'snc', 'rlds', 'psl', 'prsn', 'rsdt', 'rlut', 'rsds', 'rsus', 'rsut', 'sfcWind', 'sic', 'sfcWindmax', 'prw', 'ps', 'rlus']</t>
+          <t>['snm', 'snw', 'snc', 'snd', 'sfcWindmax', 'sfcWind', 'sic', 'rlds', 'rlus', 'prw', 'psl', 'prsn', 'ps', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'clh', 'cll', 'clm', 'clivi', 'clt', 'vas', 'uas', 'va500', 'va850', 'va200', 'ua850', 'ua200', 'ua500', 'ts', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'mrro', 'pr', 'wsgsmax', 'zmla', 'zg200', 'zg500', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -31126,7 +31126,7 @@
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>['sftgif', 'sftlf', 'mrsofc', 'areacella', 'orog']</t>
+          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -31158,7 +31158,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>['snm', 'snc', 'sic', 'sfcWindmax', 'rsus', 'snw', 'snd', 'rsut', 'sfcWind', 'tasmax', 'tasmin', 'sund', 'ta200', 'ta500', 'tas', 'ta850', 'ua200', 'ua500', 'rsds', 'rlus', 'mrros', 'psl', 'rsdt', 'mrso', 'rlds', 'rlut', 'pr', 'zg200', 'uas', 'va500', 'ua850', 'vas', 'zg500', 'va200', 'va850', 'huss', 'hurs', 'mrro', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'hus850', 'clt']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd']</t>
         </is>
       </c>
     </row>
@@ -31190,7 +31190,7 @@
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>['va850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'mrro', 'tasmax', 'tasmin', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'hurs', 'hus850', 'rlds', 'rsus', 'rlut', 'psl', 'vas', 'rsds', 'rlus', 'rsdt', 'mrso', 'pr', 'zg200', 'va500', 'zg500', 'snw', 'snd', 'tas', 'ta200', 'ta500', 'ta850', 'snm', 'sund', 'clt', 'rsut', 'sfcWind', 'sic', 'sfcWindmax', 'snc']</t>
+          <t>['clt', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'sic', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'zg500', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'vas', 'zg200', 'va500', 'va850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'tasmax', 'tasmin', 'uas', 'va200', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -31230,7 +31230,7 @@
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>['pr', 'ps', 'rsus', 'sfcWind', 'psl', 'rlds', 'hfss', 'hurs', 'huss', 'prw', 'hfls', 'rlus', 'tas', 'clt', 'rsds']</t>
+          <t>['psl', 'rlds', 'hfss', 'hurs', 'huss', 'pr', 'prw', 'ps', 'hfls', 'clt', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -31294,7 +31294,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>['prhmax', 'prc', 'prsn', 'prw', 'tasmax', 'tasmin', 'tauu', 'ua200', 'ts', 'rlus', 'psl', 'ps', 'tauv', 'rlds', 'clh', 'mrso', 'clivi', 'mrros', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg500', 'va850', 'zg200', 'cll', 'clm', 'clt', 'sfcWindmax', 'pr', 'rlut', 'sic', 'rsdt', 'rsut', 'sfcWind', 'rsds', 'rsus', 'snw', 'mrfso', 'huss', 'hus850', 'sund', 'ta200', 'uas', 'va200', 'ua500', 'va500', 'ua850', 'evspsbl', 'snd', 'clwvi', 'snm', 'snc', 'tas', 'ta500', 'hurs', 'hfss', 'hfls', 'ta850']</t>
+          <t>['cll', 'clm', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'clwvi', 'evspsbl', 'snm', 'snc', 'snd', 'hfss', 'hfls', 'hurs', 'tas', 'ta500', 'ta850', 'mrfso', 'huss', 'hus850', 'snw', 'sund', 'ta200', 'uas', 'va200', 'va500', 'ua500', 'ua850', 'clh', 'clivi', 'mrso', 'mrros', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850', 'rlds', 'rlus', 'psl', 'ps', 'prhmax', 'prc', 'prw', 'prsn', 'pr', 'tauv', 'tasmax', 'tasmin', 'tauu', 'ua200', 'ts']</t>
         </is>
       </c>
     </row>
@@ -31326,7 +31326,7 @@
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftgif', 'mrsofc', 'areacella']</t>
+          <t>['mrsofc', 'areacella', 'sftgif', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -31358,7 +31358,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'uas', 'ua200', 'snc', 'hfls', 'evspsbl', 'hurs', 'hfss', 'sfcWindmax', 'rsut', 'sfcWind', 'clt', 'tas', 'ta850', 'ua500', 'ua850', 'ta200', 'ta500', 'sund', 'psl', 'rlut', 'pr', 'sic', 'hus850', 'mrro', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'mrfso', 'huss', 'vas', 'mrros', 'mrso', 'snm', 'snw', 'snd', 'rsds', 'rsus', 'rlds', 'rlus', 'rsdt']</t>
+          <t>['mrfso', 'huss', 'hus850', 'mrro', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'mrso', 'mrros', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'snm', 'snw', 'snd', 'sund', 'ta200', 'ta500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmax', 'tasmin', 'uas', 'tas', 'ta850', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'sic']</t>
         </is>
       </c>
     </row>
@@ -31390,7 +31390,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua200', 'ua500', 'huss', 'zg500', 'mrfso', 'rsds', 'psl', 'rlus', 'rsdt', 'rsut', 'rlds', 'rsus', 'rlut', 'mrso', 'mrros', 'mrro', 'pr', 'clt', 'tasmax', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfls', 'hurs', 'hus850', 'vas', 'uas', 'zg200', 'va200', 'evspsbl', 'ua850', 'hfss', 'snw', 'sfcWindmax', 'sfcWind', 'sic', 'snd', 'snm', 'snc', 'va500', 'va850']</t>
+          <t>['clt', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'mrfso', 'huss', 'zg500', 'tasmin', 'ua200', 'ua500', 'mrso', 'mrros', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -31434,7 +31434,7 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>['clt', 'rlds', 'hfss', 'pr', 'rlus', 'hfls', 'prw', 'hurs', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['clt', 'rlds', 'rlus', 'hfls', 'hfss', 'pr', 'prw', 'hurs', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -31498,7 +31498,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>['rsus', 'rsut', 'sfcWind', 'sic', 'snc', 'snd', 'sfcWindmax', 'rsdt', 'snm', 'hfss', 'clwvi', 'tauu', 'snw', 'tas', 'ta850', 'hfls', 'clh', 'cll', 'clm', 'evspsbl', 'clt', 'tasmin', 'sund', 'ta200', 'ta500', 'clivi', 'tasmax', 'mrfso', 'mrso', 'tauv', 'ua500', 'ua850', 'hurs', 'mrro', 'va200', 'va500', 'ts', 'prc', 'mrros', 'huss', 'hus850', 'pr', 'uas', 'va850', 'ua200', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500']</t>
+          <t>['mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'tauv', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'ts', 'hfss', 'clwvi', 'hfls', 'clh', 'cll', 'clm', 'clivi', 'evspsbl', 'clt', 'tasmax', 'tasmin', 'tauu', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -31562,7 +31562,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrfso', 'hurs', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta850', 'vas', 'zg500', 'va200', 'va850', 'ua500', 'ua850', 'rsdt', 'rsut', 'sfcWind', 'snm', 'ua200', 'ta500', 'zg200', 'uas', 'va500', 'pr', 'snc', 'sic', 'snd', 'sfcWindmax', 'rsus', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -31594,7 +31594,7 @@
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsut', 'sfcWind', 'snm', 'sic', 'tasmin', 'ua200', 'ua500', 'ta500', 'vas', 'zg500', 'sund', 'ta200', 'ta850', 'zg200', 'uas', 'rsus', 'snw', 'snc', 'snd', 'tasmax', 'tas', 'va500', 'va200', 'va850', 'ua850', 'evspsbl', 'hfss', 'hfls', 'mrfso', 'rlut', 'mrso', 'pr', 'mrros', 'psl', 'huss', 'hurs', 'hus850', 'mrro', 'rlds', 'rlus', 'rsdt', 'clt', 'rsds']</t>
+          <t>['sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'tas', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -31634,7 +31634,7 @@
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>['sfcWind', 'rsds', 'huss', 'prw', 'tas', 'psl', 'rlds', 'hfls', 'pr', 'ps', 'rlus', 'hfss', 'hurs', 'clt', 'rsus']</t>
+          <t>['psl', 'rlds', 'hfss', 'hurs', 'clt', 'hfls', 'huss', 'pr', 'prw', 'ps', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -31666,7 +31666,7 @@
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -31698,7 +31698,7 @@
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>['tauu', 'vas', 'uas', 'va200', 'wsgsmax', 'zg200', 'zg500', 'tauv', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'tasmax', 'tasmin', 'va500', 'zmla', 'clh', 'hfss', 'hfls', 'evspsbl', 'clivi', 'cll', 'clm', 'hurs', 'clt', 'prhmax', 'mrso', 'prc', 'huss', 'hus850', 'mrro', 'clwvi', 'mrfso', 'mrros', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snd', 'sic', 'snc', 'prsn', 'rlds', 'rsdt', 'rlut', 'prw', 'psl', 'rsds', 'rlus', 'ps']</t>
+          <t>['rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'clh', 'hfss', 'hfls', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hurs', 'clt', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'snc', 'snd', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'zmla', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -31730,7 +31730,7 @@
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>['sftgif', 'areacella', 'sftlf', 'mrsofc', 'orog']</t>
+          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -31762,7 +31762,7 @@
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>['tasmax', 'sund', 'ua500', 'ta200', 'ta500', 'ta850', 'tasmin', 'tas', 'ua200', 'zg200', 'uas', 'vas', 'zg500', 'va500', 'va850', 'va200', 'ua850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd']</t>
+          <t>['vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'tas', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -31794,7 +31794,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrros', 'huss', 'mrro', 'rsds', 'rlus', 'rsdt', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'clt', 'mrfso', 'evspsbl', 'hurs', 'hus850', 'rlds', 'rsus', 'rlut', 'mrso', 'tasmax', 'tas', 'ua500', 'ta200', 'ta850', 'tasmin', 'ua200', 'ua850', 'ta500', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
+          <t>['clt', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -31834,7 +31834,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'hfss', 'clt', 'prw', 'hfls', 'pr', 'sfcWind', 'ps', 'psl', 'rsds', 'rsus', 'hurs', 'huss', 'tas']</t>
+          <t>['rlds', 'rlus', 'hfls', 'hfss', 'clt', 'pr', 'prw', 'hurs', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -31866,7 +31866,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -31898,7 +31898,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>['rsdt', 'rlut', 'prw', 'psl', 'ps', 'rlus', 'rsds', 'rlds', 'rsus', 'prhmax', 'mrso', 'prc', 'huss', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'ts', 'mrfso', 'mrros', 'prsn', 'tauv', 'tauu', 'ta200', 'cll', 'evspsbl', 'wsgsmax', 'ua200', 'zg500', 'hfss', 'ua500', 'zg200', 'clwvi', 'hfls', 'clm', 'hurs', 'hus850', 'clt', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua850', 'zmla', 'clh', 'clivi', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd']</t>
+          <t>['hfss', 'clwvi', 'hfls', 'cll', 'clm', 'evspsbl', 'hurs', 'hus850', 'clt', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua850', 'ua500', 'zmla', 'zg200', 'zg500', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'prsn', 'mrro', 'pr', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'clh', 'clivi', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps']</t>
         </is>
       </c>
     </row>
@@ -31930,7 +31930,7 @@
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'mrsofc', 'sftgif', 'sftlf']</t>
+          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -31962,7 +31962,7 @@
       </c>
       <c r="J967" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'uas', 'va200', 'hfls', 'huss', 'hus850', 'rsds', 'rlds', 'rsdt', 'clt', 'hfss', 'mrfso', 'mrros', 'hurs', 'mrro', 'rsus', 'rlus', 'rlut', 'pr', 'evspsbl', 'mrso', 'psl', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'sic', 'snd', 'tasmax', 'tasmin', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'va500', 'va850']</t>
+          <t>['clt', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'sic', 'snd', 'tasmax', 'tasmin', 'tas', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -31994,7 +31994,7 @@
       </c>
       <c r="J968" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'hfss', 'mrro', 'mrros', 'zg500', 'huss', 'hus850', 'vas', 'zg200', 'va500', 'pr', 'sfcWindmax', 'sund', 'snc', 'ta200', 'snd', 'tas', 'ua500', 'ua850', 'ta850', 'sic', 'tasmax', 'tasmin', 'uas', 'ua200', 'ta500', 'sfcWind', 'snm', 'snw', 'rlds', 'rsds', 'rsdt', 'rsut', 'rlut', 'psl', 'rsus', 'rlus', 'hfls', 'mrfso', 'mrso', 'hurs', 'va200', 'va850']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'sic', 'ta200', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'evspsbl', 'clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -32034,7 +32034,7 @@
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>['rsds', 'hfss', 'hurs', 'clt', 'hfls', 'rlds', 'rlus', 'huss', 'pr', 'prw', 'ps', 'psl', 'rsus', 'sfcWind', 'tas']</t>
+          <t>['hfss', 'hurs', 'clt', 'hfls', 'huss', 'pr', 'prw', 'ps', 'rlds', 'psl', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -32126,7 +32126,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>['snd', 'sic', 'sund', 'snc', 'clh', 'sfcWind', 'snm', 'snw', 'ta200', 'rsds', 'rsus', 'rlus', 'rsdt', 'psl', 'zmla', 'rsut', 'rlut', 'ps', 'rlds', 'zg500', 'mrfso', 'mrros', 'pr', 'vas', 'zg200', 'prhmax', 'mrso', 'wsgsmax', 'va200', 'prc', 'prw', 'prsn', 'mrro', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'clwvi', 'evspsbl', 'clm', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'ua200', 'ta500', 'ta850', 'ts', 'clivi', 'cll', 'sfcWindmax']</t>
+          <t>['prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'hfss', 'hfls', 'clwvi', 'evspsbl', 'clm', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'tauv', 'tauu', 'tas', 'ua200', 'ta500', 'ta850', 'ts', 'clh', 'clivi', 'cll', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'sund', 'snc', 'ta200', 'snd']</t>
         </is>
       </c>
     </row>
@@ -32158,7 +32158,7 @@
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf', 'mrsofc', 'sftgif']</t>
+          <t>['mrsofc', 'sftgif', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -32190,7 +32190,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>['ta200', 'rlds', 'sfcWind', 'snm', 'snw', 'rsds', 'snc', 'sund', 'sic', 'snd', 'hfls', 'hfss', 'mrfso', 'tasmin', 'tasmax', 'tas', 'ta500', 'uas', 'evspsbl', 'clt', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'mrso', 'mrros', 'huss', 'sfcWindmax', 'ua200', 'ua500', 'ua850', 'ta850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'sfcWindmax', 'tasmax', 'tasmin', 'tas', 'uas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'rsds', 'rlds', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'sic', 'ta200', 'snd']</t>
         </is>
       </c>
     </row>
@@ -32222,7 +32222,7 @@
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>['hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'pr', 'mrro', 'vas', 'zg500', 'va500', 'va850', 'hus850', 'zg200', 'snw', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'snm', 'snc', 'sund', 'sic', 'ta200', 'ta500', 'snd']</t>
+          <t>['hfls', 'evspsbl', 'clt', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'sic', 'ta200', 'ta500', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'uas', 'tas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -32266,7 +32266,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>['rlds', 'prw', 'rsus', 'sfcWind', 'rsds', 'hfss', 'hurs', 'huss', 'psl', 'rlus', 'clt', 'hfls', 'pr', 'ps', 'tas']</t>
+          <t>['psl', 'rlds', 'rlus', 'rsds', 'hfss', 'hurs', 'clt', 'hfls', 'huss', 'pr', 'prw', 'ps', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -32330,7 +32330,7 @@
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'snm', 'snw', 'ta200', 'ta850', 'clwvi', 'clh', 'clm', 'clt', 'cll', 'clivi', 'prhmax', 'prw', 'psl', 'prsn', 'ps', 'rlds', 'mrso', 'prc', 'pr', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'mrros', 'hurs', 'hus850', 'mrro', 'tasmax', 'tasmin', 'tauv', 'tauu', 'uas', 'ua500', 'ua850', 'ua200', 'ts', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'tas', 'snc', 'sund', 'ta500', 'snd', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tauv', 'tauu', 'uas', 'ua500', 'ua850', 'ua200', 'ts', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'mrros', 'hurs', 'hus850', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic']</t>
         </is>
       </c>
     </row>
@@ -32362,7 +32362,7 @@
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>['sftgif', 'sftlf', 'orog', 'mrsofc', 'areacella']</t>
+          <t>['areacella', 'mrsofc', 'sftgif', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -32394,7 +32394,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>['tas', 'sund', 'ta500', 'ta850', 'ta200', 'snc', 'snd', 'vas', 'zg200', 'tasmax', 'uas', 'va500', 'ua200', 'ua500', 'evspsbl', 'hfss', 'hfls', 'hurs', 'clt', 'tasmin', 'va200', 'va850', 'ua850', 'rlds', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'rlut', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'sfcWindmax', 'sfcWind', 'sic', 'snm', 'snw', 'zg500']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'rlds', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -32426,7 +32426,7 @@
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'rlus', 'mrso', 'huss', 'mrfso', 'hfls', 'hurs', 'snm', 'ta200', 'ta850', 'snd', 'tasmax', 'tas', 'sund', 'ta500', 'snw', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmin', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'hfss', 'evspsbl', 'hus850', 'clt', 'mrros', 'psl', 'mrro', 'pr', 'rlds']</t>
+          <t>['tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'huss', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -32466,7 +32466,7 @@
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>['prw', 'hfls', 'rsus', 'sfcWind', 'rlus', 'tas', 'clt', 'hfss', 'hurs', 'pr', 'ps', 'psl', 'rlds', 'huss', 'rsds']</t>
+          <t>['clt', 'hfss', 'hurs', 'pr', 'prw', 'ps', 'psl', 'rlds', 'hfls', 'huss', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -32498,7 +32498,7 @@
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -32530,7 +32530,7 @@
       </c>
       <c r="J984" t="inlineStr">
         <is>
-          <t>['ta500', 'tas', 'tasmax', 'ua500', 'clh', 'cll', 'clm', 'clwvi', 'hfls', 'hus850', 'sund', 'ta200', 'tauv', 'ts', 'ua200', 'evspsbl', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'wsgsmax', 'zg200', 'zg500', 'zmla', 'va500', 'uas', 'va200', 'va850', 'vas', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rsut', 'sfcWind', 'sfcWindmax', 'prc', 'rlut', 'rsds', 'rsdt', 'rsus', 'pr', 'sic', 'snc', 'snd', 'snm', 'snw', 'ta850', 'tasmin', 'tauu', 'ua850', 'clivi', 'clt', 'hfss', 'hurs']</t>
+          <t>['pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -32562,7 +32562,7 @@
       </c>
       <c r="J985" t="inlineStr">
         <is>
-          <t>['mrsofc', 'orog', 'sftgif', 'sftlf', 'areacella']</t>
+          <t>['areacella', 'mrsofc', 'orog', 'sftgif', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -32594,7 +32594,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>['ua500', 'uas', 'va200', 'va850', 'zg200', 'zg500', 'mrro', 'mrso', 'pr', 'rsds', 'rsus', 'va500', 'vas', 'rsut', 'clt', 'evspsbl', 'snw', 'sund', 'ta500', 'tas', 'tasmax', 'tasmin', 'ua200', 'ta200', 'ta850', 'snc', 'snd', 'snm', 'sfcWind', 'sfcWindmax', 'sic', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrros', 'psl', 'rlds', 'rsdt', 'ua850', 'rlus', 'rlut']</t>
+          <t>['hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'clt', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -32626,7 +32626,7 @@
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>['rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'clt', 'hfss', 'evspsbl', 'hfls', 'hurs', 'hus850', 'mrro', 'mrros', 'mrso', 'rlus', 'rsut', 'sic', 'snc', 'snd', 'huss', 'mrfso', 'pr', 'psl', 'rlds', 'rlut', 'tas', 'ua200', 'ua850', 'uas', 'va200', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'ua500', 'va850', 'vas', 'va500', 'zg200', 'zg500']</t>
+          <t>['mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -32666,7 +32666,7 @@
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>['rlds', 'prw', 'rlus', 'clt', 'huss', 'ps', 'psl', 'hfss', 'hurs', 'hfls', 'pr', 'rsus', 'sfcWind', 'rsds', 'tas']</t>
+          <t>['psl', 'rlds', 'hfss', 'hurs', 'clt', 'hfls', 'huss', 'pr', 'prw', 'ps', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -32698,7 +32698,7 @@
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -32730,7 +32730,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>['snw', 'snm', 'tas', 'snc', 'vas', 'zg200', 'va200', 'va500', 'va850', 'zg500', 'wsgsmax', 'zmla', 'rlds', 'prw', 'ps', 'pr', 'prc', 'psl', 'prhmax', 'mrso', 'prsn', 'rsds', 'rsdt', 'rlut', 'sfcWind', 'sfcWindmax', 'rlus', 'rsus', 'rsut', 'sic', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'hfss', 'hfls', 'mrfso', 'tasmin', 'uas', 'ua500', 'tasmax', 'tauv', 'tauu', 'ua200', 'ua850', 'ts', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'tasmax', 'tasmin', 'tauv', 'tauu', 'uas', 'ua200', 'ua500', 'ua850', 'ts', 'rsds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -32762,7 +32762,7 @@
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>['areacella', 'mrsofc', 'sftgif', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'sftgif', 'sftlf', 'orog', 'areacella']</t>
         </is>
       </c>
     </row>
@@ -32794,7 +32794,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>['vas', 'zg500', 'zg200', 'sfcWindmax', 'rsds', 'rsus', 'clt', 'snw', 'ta500', 'snd', 'tas', 'sund', 'snc', 'ta200', 'ta850', 'snm', 'sfcWind', 'rsut', 'sic', 'rlus', 'rsdt', 'rlut', 'tasmin', 'uas', 'va500', 'va850', 'ua200', 'ua500', 'va200', 'ua850', 'tasmax', 'hfss', 'hfls', 'evspsbl', 'hurs', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr']</t>
+          <t>['rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'snm', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg200', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic']</t>
         </is>
       </c>
     </row>
@@ -32826,7 +32826,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'sfcWindmax', 'rsus', 'rsdt', 'rlut', 'snc', 'rsds', 'rsut', 'sfcWind', 'sic', 'tasmin', 'vas', 'va200', 'ua500', 'ua850', 'va500', 'uas', 'va850', 'ua200', 'zg200', 'zg500', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
+          <t>['tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'zg200', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'snc', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va850', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt']</t>
         </is>
       </c>
     </row>
@@ -32870,7 +32870,7 @@
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>['clt', 'rlus', 'hfls', 'hurs', 'hfss', 'pr', 'huss', 'rsds', 'sfcWind', 'tas', 'ps', 'psl', 'rsus', 'rlds', 'prw']</t>
+          <t>['clt', 'rlds', 'rlus', 'hfls', 'hfss', 'pr', 'prw', 'hurs', 'huss', 'ps', 'psl', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -32934,7 +32934,7 @@
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>['mrfso', 'mrso', 'huss', 'mrros', 'hurs', 'hus850', 'mrro', 'pr', 'wsgsmax', 'zmla', 'vas', 'hfss', 'zg200', 'zg500', 'va850', 'clwvi', 'clh', 'clivi', 'va500', 'ua500', 'ua850', 'ua200', 'clt', 'tauu', 'uas', 'ts', 'hfls', 'cll', 'clm', 'evspsbl', 'tauv', 'va200', 'rsds', 'rsus', 'rsdt', 'rsut', 'snd', 'sfcWind', 'snc', 'sic', 'sfcWindmax', 'rlus', 'prhmax', 'rlut', 'psl', 'prsn', 'ps', 'prc', 'rlds', 'prw', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
+          <t>['clwvi', 'hfls', 'clh', 'cll', 'clm', 'clivi', 'evspsbl', 'clt', 'tauv', 'tauu', 'uas', 'va200', 'va500', 'ua500', 'ua850', 'ua200', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'rlds', 'rlus', 'prhmax', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'mrfso', 'mrso', 'huss', 'mrros', 'hurs', 'hus850', 'mrro', 'pr', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -32966,7 +32966,7 @@
       </c>
       <c r="J997" t="inlineStr">
         <is>
-          <t>['mrsofc', 'areacella', 'orog', 'sftlf', 'sftgif']</t>
+          <t>['sftgif', 'sftlf', 'mrsofc', 'areacella', 'orog']</t>
         </is>
       </c>
     </row>
@@ -32998,7 +32998,7 @@
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'snm', 'snw', 'zg500', 'ua850', 'rlds', 'rlus', 'mrros', 'psl', 'pr', 'mrfso', 'rlut', 'mrso', 'mrro', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'evspsbl', 'vas', 'zg200', 'va850', 'ua200', 'ua500', 'huss', 'hurs', 'hus850', 'va200', 'hfls', 'clt', 'uas', 'va500', 'rsus', 'rsdt', 'rsut', 'sic', 'snd', 'sfcWindmax', 'rsds', 'sfcWind', 'snc']</t>
+          <t>['zg500', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -33030,7 +33030,7 @@
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>['psl', 'mrro', 'hfss', 'evspsbl', 'huss', 'hurs', 'hus850', 'vas', 'uas', 'va200', 'ua500', 'hfls', 'mrfso', 'clt', 'zg200', 'zg500', 'va500', 'va850', 'ua850', 'snd', 'snc', 'sic', 'tasmax', 'snw', 'mrso', 'mrros', 'pr', 'rsds', 'rlds', 'rlus', 'rlut', 'tas', 'sund', 'tasmin', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'ta850', 'ta200', 'ta500', 'ua200']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'sic', 'snd', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -33070,7 +33070,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>['huss', 'clt', 'rsus', 'hfls', 'sfcWind', 'rlus', 'rsds', 'ps', 'psl', 'hfss', 'hurs', 'pr', 'prw', 'tas', 'rlds']</t>
+          <t>['hfss', 'hurs', 'pr', 'prw', 'ps', 'psl', 'hfls', 'huss', 'clt', 'rsus', 'sfcWind', 'rlus', 'rsds', 'tas', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -33134,7 +33134,7 @@
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>['ua200', 'tauv', 'zg200', 'zg500', 'snc', 'sund', 'va200', 'va850', 'vas', 'ts', 'wsgsmax', 'sfcWindmax', 'sic', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'va500', 'tauu', 'zmla', 'snd', 'snm', 'snw', 'ua500', 'ua850', 'uas', 'evspsbl', 'hfls', 'mrso', 'pr', 'prc', 'prhmax', 'huss', 'mrfso', 'mrro', 'mrros', 'prsn', 'prw', 'clt', 'clwvi', 'ps', 'clivi', 'cll', 'clm', 'hfss', 'hurs', 'hus850', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'tasmin', 'psl', 'clh']</t>
+          <t>['clt', 'clwvi', 'evspsbl', 'hfls', 'mrso', 'pr', 'prc', 'prhmax', 'huss', 'mrfso', 'mrro', 'mrros', 'prsn', 'prw', 'ps', 'psl', 'clh', 'clivi', 'cll', 'clm', 'hfss', 'hurs', 'hus850', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'tasmin', 'tauu', 'tauv', 'ts', 'wsgsmax', 'zg200', 'zg500', 'zmla', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'va200', 'va500', 'va850', 'vas', 'ua200', 'ua500', 'ua850', 'uas']</t>
         </is>
       </c>
     </row>
@@ -33166,7 +33166,7 @@
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>['orog', 'sftgif', 'areacella', 'mrsofc', 'sftlf']</t>
+          <t>['areacella', 'mrsofc', 'orog', 'sftgif', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -33198,7 +33198,7 @@
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>['mrros', 'mrso', 'psl', 'rsds', 'sfcWind', 'hfss', 'hurs', 'mrfso', 'sfcWindmax', 'sic', 'snm', 'vas', 'zg200', 'ua200', 'va200', 'tas', 'clt', 'evspsbl', 'hus850', 'huss', 'mrro', 'snc', 'snd', 'snw', 'va500', 'va850', 'ua500', 'ua850', 'uas', 'sund', 'ta200', 'ta500', 'ta850', 'hfls', 'zg500', 'tasmin', 'tasmax', 'pr', 'rlds', 'rlus', 'rlut', 'rsdt', 'rsus', 'rsut']</t>
+          <t>['mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'clt', 'evspsbl', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -33230,7 +33230,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>['va850', 'vas', 'zg500', 'evspsbl', 'hfls', 'rlus', 'rlut', 'rsds', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'mrfso', 'tasmin', 'ua200', 'ua500', 'uas', 'zg200', 'snm', 'sund', 'ta200', 'ta500', 'ta850', 'psl', 'snw', 'tas', 'tasmax', 'ua850', 'va200', 'va500', 'hfss', 'hurs', 'hus850', 'huss', 'rsdt', 'rsus', 'sic', 'mrro', 'mrros', 'clt', 'rlds', 'mrso', 'pr']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'clt', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snc', 'snd', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -33270,7 +33270,7 @@
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'hurs', 'clt', 'pr', 'prw', 'hfls', 'huss', 'sfcWind', 'tas', 'rsds', 'rsus', 'ps', 'psl', 'rlds']</t>
+          <t>['hfss', 'hurs', 'clt', 'pr', 'prw', 'hfls', 'huss', 'rsds', 'rsus', 'sfcWind', 'tas', 'ps', 'psl', 'rlds', 'rlus']</t>
         </is>
       </c>
     </row>
@@ -33302,7 +33302,7 @@
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -33334,7 +33334,7 @@
       </c>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>['rsds', 'sfcWindmax', 'rsdt', 'sfcWind', 'snc', 'rsus', 'rsut', 'rlut', 'sic', 'rlds', 'prc', 'prw', 'psl', 'prsn', 'vas', 'va500', 'ps', 'pr', 'wsgsmax', 'zmla', 'zg200', 'zg500', 'va850', 'prhmax', 'rlus', 'clwvi', 'clh', 'cll', 'evspsbl', 'clivi', 'clm', 'clt', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'uas', 'ua500', 'ua850', 'tasmin', 'tauv', 'tauu', 'hfss', 'hfls', 'va200', 'ua200', 'ts', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'hus850', 'mrro', 'tasmin', 'tauv', 'tauu', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ts', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'rlds', 'prhmax', 'rlus', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -33366,7 +33366,7 @@
       </c>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>['mrsofc', 'areacella', 'sftgif', 'sftlf', 'orog']</t>
+          <t>['sftgif', 'sftlf', 'orog', 'mrsofc', 'areacella']</t>
         </is>
       </c>
     </row>
@@ -33398,7 +33398,7 @@
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rsdt', 'snc', 'sic', 'sfcWindmax', 'rsut', 'rlut', 'sfcWind', 'zg500', 'mrfso', 'mrso', 'rlds', 'rlus', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'evspsbl', 'hurs', 'tasmax', 'snm', 'tas', 'sund', 'ta500', 'ta850', 'hfss', 'hfls', 'snd', 'hus850', 'clt', 'snw', 'ta200', 'mrros', 'mrro', 'pr', 'huss', 'psl', 'zg200']</t>
+          <t>['zg200', 'zg500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'tasmax', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'huss', 'mrros', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic']</t>
         </is>
       </c>
     </row>
@@ -33430,7 +33430,7 @@
       </c>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'clt', 'zg500', 'vas', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'snm', 'huss', 'hurs', 'sfcWindmax', 'rsut', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'snc', 'sic', 'snd', 'hfss', 'hfls', 'evspsbl', 'hus850', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'zg500', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'snd', 'vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -37406,7 +37406,7 @@
       </c>
       <c r="J1134" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'ta500', 'snw', 'sic', 'ta200', 'mrso', 'huss', 'hus850', 'uas', 'ua850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg500', 'va200', 'va850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'prsn', 'ps', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ua200', 'ua500', 'ta850', 'ts', 'hfss', 'hfls', 'prc', 'mrros', 'zg200', 'va500']</t>
+          <t>['hfss', 'hfls', 'mrso', 'prc', 'mrros', 'huss', 'hus850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'prsn', 'ps', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ua200', 'ua500', 'ta850', 'ts', 'evspsbl', 'clt', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -37438,7 +37438,7 @@
       </c>
       <c r="J1135" t="inlineStr">
         <is>
-          <t>['snw', 'sic', 'ta200', 'ta500', 'ta850', 'mrso', 'evspsbl', 'mrros', 'hus850', 'mrro', 'clt', 'tasmin', 'tasmax', 'uas', 'tas', 'va200', 'ua200', 'ua500', 'hfss', 'hfls', 'huss', 'va500', 'ua850', 'sfcWind', 'snm', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'vas', 'zg200', 'zg500', 'va850', 'sfcWindmax']</t>
+          <t>['sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'vas', 'zg200', 'zg500', 'va850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'tasmin', 'tasmax', 'uas', 'tas', 'va200', 'va500', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -37470,7 +37470,7 @@
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>['rlds', 'rlut', 'mrso', 'mrros', 'huss', 'psl', 'uas', 'va200', 'va500', 'rlus', 'zg200', 'va850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'mrro', 'pr', 'vas', 'zg500', 'ua850']</t>
+          <t>['rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic']</t>
         </is>
       </c>
     </row>
@@ -37514,7 +37514,7 @@
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -37550,7 +37550,7 @@
       </c>
       <c r="J1138" t="inlineStr">
         <is>
-          <t>['rlut', 'psl', 'prsn', 'vas', 'uas', 'va850', 'ua500', 'ts', 'rlds', 'rlus', 'mrso', 'prc', 'ps', 'pr', 'va200', 'va500', 'ua850', 'ua200', 'zg500', 'ta850', 'tas', 'ta200', 'ta500', 'hfss', 'hfls', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'tauv', 'tauu', 'tasmax', 'tasmin', 'snw', 'zg200', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'wsgsmax']</t>
+          <t>['rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'wsgsmax', 'zg200', 'zg500', 'hfss', 'hfls', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'tauv', 'tauu', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -37582,7 +37582,7 @@
       </c>
       <c r="J1139" t="inlineStr">
         <is>
-          <t>['tas', 'ta200', 'ua200', 'tasmax', 'tasmin', 'ta500', 'ta850', 'ua500', 'ua850', 'clt', 'vas', 'va500', 'rsds', 'rlus', 'mrso', 'rlds', 'rlut', 'mrros', 'psl', 'sfcWindmax', 'rsus', 'snm', 'mrro', 'pr', 'rsut', 'sfcWind', 'snw', 'sic', 'rsdt', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'zg200', 'zg500', 'uas', 'va200']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic']</t>
         </is>
       </c>
     </row>
@@ -37614,7 +37614,7 @@
       </c>
       <c r="J1140" t="inlineStr">
         <is>
-          <t>['hfss', 'mrro', 'pr', 'tasmin', 'vas', 'va200', 'ua200', 'mrso', 'mrros', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfls', 'huss', 'hus850', 'psl', 'evspsbl', 'snm', 'sic', 'ta200', 'ta500', 'tasmax', 'tas', 'ta850', 'snw', 'sfcWindmax', 'clt', 'rsus', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'zg500', 'rsds', 'rlds', 'rsut', 'zg200']</t>
+          <t>['hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'zg200', 'zg500', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -37650,7 +37650,7 @@
       </c>
       <c r="J1141" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'zg200', 'zg500', 'sfcWindmax', 'sfcWind', 'sic', 'vas', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'rlds', 'rlus', 'mrso', 'prc', 'psl', 'pr', 'tauv', 'mrros', 'prsn', 'ps', 'uas', 'ua500', 'va200', 'va500', 'va850', 'ua850', 'ua200', 'ts', 'ta850', 'hfls', 'evspsbl', 'mrro', 'clt', 'tauu', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'hfss', 'huss', 'hus850']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'wsgsmax', 'vas', 'zg200', 'zg500', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tauu', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'rlds', 'rlus', 'mrso', 'prc', 'mrros', 'psl', 'prsn', 'ps', 'pr', 'tauv', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'ts']</t>
         </is>
       </c>
     </row>
@@ -37682,7 +37682,7 @@
       </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>['snm', 'sic', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'ua850', 'ua200', 'ua500', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'evspsbl', 'clt', 'hus850', 'hfss', 'hfls', 'rlds', 'rlus', 'rlut', 'mrso', 'huss', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'huss', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -37714,7 +37714,7 @@
       </c>
       <c r="J1143" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'mrros', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta850', 'clt', 'rlus', 'rsdt', 'sfcWind', 'ta500', 'ua500', 'va200', 'va500', 'ua850', 'vas', 'tasmax', 'tasmin', 'uas', 'va850', 'ua200', 'zg200', 'zg500']</t>
+          <t>['clt', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'mrros', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'sfcWindmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -37754,7 +37754,7 @@
       </c>
       <c r="J1144" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -37790,7 +37790,7 @@
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'snm', 'ta200', 'tauv', 'zg200', 'zg500', 'va850', 'tauu', 'wsgsmax', 'hfss', 'hfls', 'evspsbl', 'prc', 'mrros', 'hus850', 'prsn', 'mrro', 'ps', 'pr', 'rsus', 'ua200', 'vas', 'va200', 'va500', 'clt', 'huss', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'sfcWindmax', 'tas', 'snw', 'sic', 'ta500', 'ta850', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'mrso']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'clt', 'mrso', 'prc', 'huss', 'mrros', 'hus850', 'prsn', 'mrro', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'sfcWindmax', 'snm', 'tas', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'tauv', 'tasmax', 'tasmin', 'tauu', 'uas', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -37822,7 +37822,7 @@
       </c>
       <c r="J1146" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'tasmin', 'vas', 'uas', 'ua200', 'ua850', 'va200', 'va500', 'va850', 'ua500', 'clt', 'hfss', 'huss', 'hus850', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'snw', 'sic', 'ta500', 'mrros', 'pr', 'rlut', 'sfcWind', 'tasmax', 'snm', 'tas', 'mrso', 'hfls', 'psl', 'mrro', 'rlds', 'rsdt', 'rsut', 'ta200', 'ta850', 'evspsbl']</t>
+          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -37854,7 +37854,7 @@
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>['hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'mrso', 'mrros', 'psl', 'sfcWind', 'pr', 'rsut', 'snm', 'snw', 'sic', 'ta200', 'rsdt', 'rlut', 'sfcWindmax', 'rsus', 'tasmax', 'tasmin', 'ta500', 'ua200', 'ua500', 'zg200', 'va200', 'va500', 'va850', 'tas', 'uas', 'ta850', 'ua850', 'vas', 'zg500', 'hfss', 'hfls', 'evspsbl', 'huss']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -37890,7 +37890,7 @@
       </c>
       <c r="J1148" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'snm', 'sic', 'ta850', 'snw', 'ta200', 'ta500', 'hfls', 'evspsbl', 'clt', 'zg500', 'hfss', 'mrso', 'prc', 'huss', 'mrros', 'hus850', 'prsn', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850']</t>
+          <t>['sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'wsgsmax', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'hfls', 'evspsbl', 'clt', 'hfss', 'mrso', 'prc', 'huss', 'mrros', 'hus850', 'prsn', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ua200', 'ua500', 'ua850', 'ts']</t>
         </is>
       </c>
     </row>
@@ -37922,7 +37922,7 @@
       </c>
       <c r="J1149" t="inlineStr">
         <is>
-          <t>['hfls', 'mrros', 'mrro', 'uas', 'va200', 'va850', 'ua500', 'ua850', 'evspsbl', 'tasmin', 'va500', 'ua200', 'hfss', 'mrso', 'huss', 'hus850', 'pr', 'tasmax', 'clt', 'snm', 'tas', 'sic', 'ta200', 'ta850', 'sfcWindmax', 'snw', 'ta500', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'zg200', 'zg500']</t>
+          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'mrros', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'clt', 'sfcWindmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -37954,7 +37954,7 @@
       </c>
       <c r="J1150" t="inlineStr">
         <is>
-          <t>['rsus', 'snm', 'sic', 'sfcWindmax', 'rsdt', 'rsut', 'sfcWind', 'snw', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg200', 'zg500', 'va200', 'rsds', 'rlds', 'rlus', 'rlut', 'vas', 'uas', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -38030,7 +38030,7 @@
       </c>
       <c r="J1152" t="inlineStr">
         <is>
-          <t>['mrso', 'mrros', 'hus850', 'clt', 'hfss', 'evspsbl', 'huss', 'mrro', 'hfls', 'sfcWindmax', 'rsus', 'uas', 'zg500', 'rsdt', 'rsut', 'snm', 'snw', 'tasmax', 'tasmin', 'ta200', 'ta500', 'ts', 'va500', 'ua200', 'sfcWind', 'sic', 'tauv', 'tauu', 'tas', 'wsgsmax', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr', 'zg200', 'ta850', 'vas', 'va200', 'va850', 'ua500', 'ua850']</t>
+          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'mrros', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -38062,7 +38062,7 @@
       </c>
       <c r="J1153" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'tasmax', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'mrros', 'psl', 'pr', 'rsus', 'rsut', 'ta200', 'mrso', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sic', 'hus850', 'clt', 'rsdt', 'rsds', 'hfls', 'evspsbl', 'huss', 'mrro', 'rlds', 'rlus', 'rlut', 'hfss']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -38094,7 +38094,7 @@
       </c>
       <c r="J1154" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rlut', 'sic', 'rsus', 'rlus', 'rsdt', 'rsut', 'sfcWind', 'zg500', 'hfls', 'evspsbl', 'clt', 'mrso', 'mrros', 'hfss', 'huss', 'hus850', 'rlds', 'psl', 'mrro', 'uas', 'va200', 'va850', 'ua200', 'ua850', 'pr', 'vas', 'zg200', 'va500', 'ua500', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'zg500', 'hfls', 'evspsbl', 'clt', 'rlds', 'hfss', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -38130,7 +38130,7 @@
       </c>
       <c r="J1155" t="inlineStr">
         <is>
-          <t>['hfss', 'evspsbl', 'huss', 'mrros', 'mrro', 'clt', 'rlut', 'mrso', 'prsn', 'ps', 'sfcWindmax', 'rsdt', 'hfls', 'hus850', 'rlds', 'rlus', 'prc', 'psl', 'pr', 'rsds', 'rsus', 'va200', 'ts', 'zg200', 'rsut', 'sfcWind', 'sic', 'tauu', 'tas', 'ta500', 'ta850', 'uas', 'ua200', 'ua850', 'snm', 'tauv', 'tasmax', 'tasmin', 'snw', 'ta200', 'vas', 'va500', 'va850', 'ua500', 'wsgsmax', 'zg500']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'mrros', 'hus850', 'mrro', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'sic', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -38162,7 +38162,7 @@
       </c>
       <c r="J1156" t="inlineStr">
         <is>
-          <t>['evspsbl', 'huss', 'hfss', 'hfls', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'hus850', 'clt', 'rsds', 'rlds', 'rlus']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -38194,7 +38194,7 @@
       </c>
       <c r="J1157" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va200', 'va850', 'va500', 'ua200', 'ua500', 'ua850']</t>
+          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va200', 'va850', 'va500', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -38234,7 +38234,7 @@
       </c>
       <c r="J1158" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -38270,7 +38270,7 @@
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'va850', 'clt', 'prc', 'mrros', 'mrro', 'rsus', 'rsdt', 'snw', 'ta200', 'ta850', 'tauv', 'tasmin', 'uas', 'zg500', 'va500', 'evspsbl', 'mrso', 'huss', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rlds', 'rlus', 'rsut', 'rlut', 'sfcWind', 'hus850', 'pr', 'tasmax', 'snm', 'tas', 'sic', 'ta500', 'tauu', 'va200', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'hfss', 'hfls']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'mrso', 'prc', 'huss', 'mrros', 'psl', 'prsn', 'mrro', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snm', 'tas', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'tauv', 'tauu', 'tasmin', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -38302,7 +38302,7 @@
       </c>
       <c r="J1160" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'snw', 'ta200', 'ta500', 'ta850', 'evspsbl', 'clt', 'va850', 'ua200', 'va500', 'ua500', 'ua850', 'rlds', 'hfss', 'mrso', 'huss', 'hus850', 'sfcWindmax', 'rsds', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'vas', 'zg200', 'uas', 'va200', 'mrros', 'psl', 'mrro', 'pr', 'rsus', 'rsut', 'sic', 'snm', 'tas', 'hfls', 'zg500']</t>
+          <t>['zg500', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfls', 'evspsbl', 'clt', 'rlds', 'hfss', 'mrso', 'mrros', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'sic', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -38334,7 +38334,7 @@
       </c>
       <c r="J1161" t="inlineStr">
         <is>
-          <t>['zg500', 'va850', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'vas', 'zg200', 'sfcWindmax', 'rsut', 'sic', 'ta200', 'sfcWind', 'snm', 'snw', 'ta500', 'rsds', 'rlds', 'mrso', 'pr', 'va500', 'hfss', 'hfls', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ta850', 'ua200', 'ua500', 'ua850']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'mrros', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ta850', 'ua200', 'ua500', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -38370,7 +38370,7 @@
       </c>
       <c r="J1162" t="inlineStr">
         <is>
-          <t>['tas', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'pr', 'tasmax', 'tasmin', 'tauu', 'mrso', 'prsn', 'tauv', 'uas', 'prc', 'huss', 'mrros', 'hus850', 'mrro', 'ps', 'ua200', 'clt', 'sfcWindmax', 'snm', 'ua500', 'ua850', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'wsgsmax', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'wsgsmax', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'snm', 'tas', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'mrso', 'prc', 'huss', 'mrros', 'hus850', 'prsn', 'mrro', 'ps', 'pr', 'tauv', 'tasmax', 'tasmin', 'tauu', 'uas', 'ua200', 'ua500', 'ua850', 'ts']</t>
         </is>
       </c>
     </row>
@@ -38402,7 +38402,7 @@
       </c>
       <c r="J1163" t="inlineStr">
         <is>
-          <t>['rsut', 'sfcWind', 'rsdt', 'rlut', 'tasmax', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500', 'snm', 'snw', 'tas', 'sic', 'tasmin', 'va500', 'va850', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va200', 'evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus']</t>
+          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -38434,7 +38434,7 @@
       </c>
       <c r="J1164" t="inlineStr">
         <is>
-          <t>['hus850', 'clt', 'rlds', 'rlus', 'rsdt', 'mrso', 'mrros', 'snw', 'sic', 'ta200', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'mrro', 'rsds', 'pr', 'sfcWind', 'vas', 'zg200', 'zg500', 'va200', 'rlut', 'psl', 'sfcWindmax', 'rsus', 'rsut', 'snm', 'tasmax']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'sic', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -38862,7 +38862,7 @@
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>['pr', 'tas']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -50566,7 +50566,7 @@
       </c>
       <c r="J1550" t="inlineStr">
         <is>
-          <t>['clwvi', 'clivi', 'evspsbl', 'prc', 'mrros', 'sic', 'mrro', 'zmla', 'mrso', 'snm', 'vas', 'prw', 'prsn', 'ps', 'snw', 'snd', 'ts', 'snc']</t>
+          <t>['clwvi', 'clivi', 'mrso', 'evspsbl', 'prc', 'prw', 'mrros', 'sic', 'prsn', 'mrro', 'ps', 'zmla', 'snm', 'snw', 'vas', 'snc', 'ts', 'snd']</t>
         </is>
       </c>
     </row>
@@ -50654,7 +50654,7 @@
       </c>
       <c r="J1553" t="inlineStr">
         <is>
-          <t>['huss', 'uas']</t>
+          <t>['uas', 'huss']</t>
         </is>
       </c>
     </row>
@@ -50682,7 +50682,7 @@
       </c>
       <c r="J1554" t="inlineStr">
         <is>
-          <t>['evspsbl', 'mrro', 'mrso', 'snm', 'snw', 'mrros', 'vas', 'snc', 'sic', 'snd']</t>
+          <t>['evspsbl', 'mrro', 'mrso', 'mrros', 'snm', 'vas', 'snw', 'snc', 'sic', 'snd']</t>
         </is>
       </c>
     </row>
@@ -50710,7 +50710,7 @@
       </c>
       <c r="J1555" t="inlineStr">
         <is>
-          <t>['rlds', 'rsds']</t>
+          <t>['rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -50738,7 +50738,7 @@
       </c>
       <c r="J1556" t="inlineStr">
         <is>
-          <t>['clwvi', 'prc', 'prsn', 'ps', 'prw', 'ts', 'clivi', 'zmla']</t>
+          <t>['clivi', 'zmla', 'ts', 'clwvi', 'prc', 'prw', 'prsn', 'ps']</t>
         </is>
       </c>
     </row>
@@ -50826,7 +50826,7 @@
       </c>
       <c r="J1559" t="inlineStr">
         <is>
-          <t>['mrso', 'evspsbl', 'mrros', 'snm', 'sic', 'mrro', 'snd', 'vas', 'snw', 'snc']</t>
+          <t>['evspsbl', 'mrso', 'mrros', 'snm', 'vas', 'snw', 'snc', 'sic', 'mrro', 'snd']</t>
         </is>
       </c>
     </row>
@@ -50854,7 +50854,7 @@
       </c>
       <c r="J1560" t="inlineStr">
         <is>
-          <t>['rlds', 'rsds']</t>
+          <t>['rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -50882,7 +50882,7 @@
       </c>
       <c r="J1561" t="inlineStr">
         <is>
-          <t>['clivi', 'ts', 'zmla', 'prw', 'prsn', 'ps', 'clwvi', 'prc']</t>
+          <t>['prw', 'prsn', 'ps', 'clwvi', 'prc', 'clivi', 'zmla', 'ts']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -47026,7 +47026,7 @@
       </c>
       <c r="J1439" t="inlineStr">
         <is>
-          <t>['hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus975', 'ta200', 'ta250', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ta975', 'hus200', 'hus250', 'hus300']</t>
+          <t>['hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus975', 'ta200', 'ta250', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ta975', 'hus200', 'hus250', 'hus300', 'hus400']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -24474,7 +24474,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>['prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'tauu', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -24506,7 +24506,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>['hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clwvi', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va400', 'zg700']</t>
+          <t>['ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700']</t>
         </is>
       </c>
     </row>
@@ -24538,7 +24538,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'ua200', 'ta400', 'zg850', 'zg925', 'zmla']</t>
+          <t>['rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -24602,7 +24602,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax']</t>
+          <t>['hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -24706,7 +24706,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>['hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>['huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts']</t>
+          <t>['tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'hfls', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -24802,7 +24802,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>['clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'clh', 'clivi', 'cll', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'huss', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'rsdt', 'ua500', 'ta925']</t>
+          <t>['hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600']</t>
         </is>
       </c>
     </row>
@@ -24846,7 +24846,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlus', 'sfcWind', 'snm', 'snw', 'tas', 'sund', 'ts', 'hfss', 'hfls', 'evspsbl', 'zmla', 'vas', 'uas', 'rlds', 'mrso', 'prc', 'mrros', 'huss', 'hurs', 'mrro', 'ps', 'pr']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'ts', 'uas', 'vas', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -24878,7 +24878,7 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>['hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'ua100m', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'vas', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'va100m', 'rsdt', 'rlut', 'mrso', 'prw', 'mrros', 'snm', 'snw', 'psl', 'ta200', 'zmla', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850']</t>
+          <t>['va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'psl', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500']</t>
         </is>
       </c>
     </row>
@@ -24910,7 +24910,7 @@
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'mrso', 'prc', 'prw', 'mrros', 'huss', 'hus925', 'mrro', 'ps', 'pr', 'va100m', 'uas', 'va200', 'ua500', 'ua400', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'zg400', 'zg500', 'zg600', 'zg700', 'zg925', 'zg300', 'zg850', 'snm', 'snw', 'sund', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta200', 'tasmax', 'tasmin', 'ua100m', 'tas', 'ua200', 'ua300', 'ta850', 'ta925', 'ts', 'clwvi', 'hfls', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'psl', 'vas', 'zg200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -24974,7 +24974,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'va100m', 'uas', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'tasmax', 'tasmin', 'ua100m', 'tas', 'ua200', 'ua300', 'ta850', 'ta925', 'ts', 'mrso', 'prc', 'prw', 'mrros', 'huss', 'hus925', 'mrro', 'ps', 'pr', 'vas', 'zg200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfls', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'rsds', 'sfcWindmax', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'psl', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700']</t>
+          <t>['snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>['prc', 'prhmax', 'pr']</t>
+          <t>['pr', 'prc', 'prhmax']</t>
         </is>
       </c>
     </row>
@@ -25050,7 +25050,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'uas', 'va100m', 'vas', 'zmla', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -25082,7 +25082,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>['hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
+          <t>['zg700', 'zg850', 'zg925', 'zmla', 'zg600', 'clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -25114,7 +25114,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>['ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas']</t>
+          <t>['ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300']</t>
         </is>
       </c>
     </row>
@@ -25146,7 +25146,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -25250,7 +25250,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'snm', 'snw', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -25282,7 +25282,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['clh', 'clivi', 'cll', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500']</t>
         </is>
       </c>
     </row>
@@ -25314,7 +25314,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'snw', 'sund', 'rlds', 'mrro', 'zg925', 'zmla', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600']</t>
         </is>
       </c>
     </row>
@@ -25378,7 +25378,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -25422,7 +25422,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>['zmla', 'vas', 'uas', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'snm', 'snw', 'sund', 'ps', 'evspsbl', 'hfss', 'hfls', 'mrso', 'prc', 'mrros', 'huss', 'hurs', 'mrro', 'pr']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'ts', 'uas', 'vas', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -25454,7 +25454,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'va100m', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'clt', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va850', 'va925', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'zmla', 'zg850', 'zg925', 'rsdt', 'rlut', 'mrso', 'prw', 'mrros', 'snm', 'hus925', 'psl', 'mrro']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'psl', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -25486,7 +25486,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'ua100m', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrso', 'prc', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps']</t>
+          <t>['zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -25518,7 +25518,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -25550,7 +25550,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlds', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrso', 'prc', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'tasmax', 'tasmin', 'ua100m', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'zmla', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -25590,7 +25590,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlds', 'rlus', 'prc', 'sfcWind', 'snm', 'ps', 'pr', 'hfss', 'hfls', 'mrso', 'evspsbl', 'mrros', 'huss', 'hurs', 'mrro', 'zmla', 'vas', 'snw', 'uas', 'tas', 'sund', 'ts']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'ts', 'uas', 'vas', 'zmla', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -25622,7 +25622,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>['rlut', 'mrso', 'prw', 'mrros', 'hus700', 'hus850', 'hus925', 'psl', 'mrro', 'clwvi', 'cll', 'clm', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'clt', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'va600', 'va700', 'va850', 'va925', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta850', 'ta925', 'ts', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'zmla', 'zg600', 'zg700', 'zg850', 'zg925', 'clivi', 'clh', 'va100m', 'uas', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'psl', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -25654,7 +25654,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus200', 'hus300', 'hus400', 'clt', 'va100m', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'ps', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'sfcWind', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'clh', 'cll', 'clm', 'clivi', 'mrso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts']</t>
+          <t>['ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100m', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25686,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -25718,7 +25718,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>['mrso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'sfcWind', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hfls', 'hfss', 'clwvi', 'evspsbl', 'hurs', 'hus200', 'hus300', 'hus400', 'clt', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va850', 'va925', 'clh', 'cll', 'clm', 'clivi', 'va100m', 'uas', 'va200', 'va300', 'va500', 'va600', 'va700', 'va400', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'ps', 'pr', 'zmla', 'zg850', 'zg925']</t>
+          <t>['rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -25758,7 +25758,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlds', 'rlus', 'mrso', 'prc', 'mrros', 'ps', 'pr', 'zmla', 'sfcWind', 'snm', 'vas', 'snw', 'uas', 'tas', 'sund', 'ts', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'mrro']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'ts', 'uas', 'vas', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -25790,7 +25790,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>['rsdt', 'rlut', 'snm', 'snw', 'psl', 'ta200', 'ta300', 'ta400', 'ta500', 'vas', 'zg200', 'zg300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'ua100m', 'ua200', 'ua300', 'ua400', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'clwvi', 'clivi', 'clh', 'cll', 'clm', 'hus200', 'hus300', 'hus400', 'clt', 'zmla', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'va100m', 'uas', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrso', 'prw', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro']</t>
+          <t>['ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'psl', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'ua100m', 'ua200', 'ua300']</t>
         </is>
       </c>
     </row>
@@ -25822,7 +25822,7 @@
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rlut', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'clh', 'clivi', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'zg600', 'zg700', 'zg850', 'zg925', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'va100m', 'uas', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'clwvi', 'cll', 'clm', 'evspsbl', 'hurs', 'hus200', 'clt', 'tasmax', 'tasmin', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts']</t>
+          <t>['ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -25854,7 +25854,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -25886,7 +25886,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'ps', 'pr', 'tasmax', 'tasmin', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'hfls', 'hfss', 'clwvi', 'cll', 'clm', 'evspsbl', 'hurs', 'hus200', 'clt', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'va600', 'va700', 'va850', 'va925', 'clh', 'clivi', 'tas', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rlut', 'sfcWind', 'snm', 'snw', 'sund', 'zmla', 'zg850', 'zg600', 'zg700', 'zg925', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'va100m', 'uas', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -25930,7 +25930,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>['prhmax', 'prc', 'pr']</t>
+          <t>['pr', 'prc', 'prhmax']</t>
         </is>
       </c>
     </row>
@@ -25962,7 +25962,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'zmla', 'va100m', 'vas', 'hfss', 'hfls', 'evspsbl', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'clt', 'tauv', 'tauu', 'ua100m', 'snm', 'sund', 'snw', 'tas', 'uas', 'ts']</t>
+          <t>['clt', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -25994,7 +25994,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>['rsdt', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'clwvi', 'clh', 'cll', 'clm', 'clivi', 'hus200', 'vas', 'zg200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tauv', 'tauu', 'ua200', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'mrros', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'uas', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'ua300']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -26026,7 +26026,7 @@
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>['clwvi', 'hfss', 'hfls', 'cll', 'clm', 'evspsbl', 'clivi', 'hurs', 'clt', 'tauv', 'tasmax', 'tasmin', 'tauu', 'ua100m', 'tas', 'ua200', 'ua300', 'ts', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg850', 'zg925', 'zg600', 'zg700', 'huss', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rlds', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'mrro', 'ps', 'pr', 'clh', 'va100m', 'uas', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'snm', 'snw', 'vas', 'zg200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -26090,7 +26090,7 @@
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rlds', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'psl', 'mrso', 'prc', 'prw', 'mrros', 'huss', 'hus925', 'mrro', 'ps', 'pr', 'zmla', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100m', 'va400', 'va200', 'va300', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfls', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'tauv', 'tauu', 'tasmax', 'tasmin', 'ua100m', 'tas', 'ta850', 'ta925', 'ts', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600']</t>
         </is>
       </c>
     </row>
@@ -26130,7 +26130,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>['prhmax', 'prc', 'pr']</t>
+          <t>['pr', 'prc', 'prhmax']</t>
         </is>
       </c>
     </row>
@@ -26162,7 +26162,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>['rlds', 'mrso', 'prc', 'mrros', 'huss', 'psl', 'mrro', 'ps', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'rsds', 'rsus', 'rlus', 'tauu', 'sfcWind', 'snm', 'snw', 'tas', 'sund', 'tauv', 'zmla', 'va100m', 'ua100m', 'vas', 'uas', 'ts']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -26194,7 +26194,7 @@
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>['va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'uas', 'zmla', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va850', 'va925', 'vas', 'clh', 'clivi', 'tauv', 'tauu', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ts', 'clwvi', 'cll', 'clm', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'rsdt', 'rlut', 'mrso', 'prw', 'mrros', 'snm', 'hus850', 'hus925', 'mrro', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -26226,7 +26226,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'cll', 'clm', 'clivi', 'clt', 'mrso', 'prc', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zmla', 'zg850', 'zg925', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'tauv', 'tasmax', 'tasmin', 'tauu', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'va100m', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925']</t>
+          <t>['hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700']</t>
         </is>
       </c>
     </row>
@@ -26258,7 +26258,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -26290,7 +26290,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'clh', 'cll', 'clm', 'clivi', 'tauv', 'tauu', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'hfss', 'hfls', 'clwvi', 'evspsbl', 'hurs', 'hus200', 'hus300', 'hus400', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'ps', 'pr', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'va600', 'va700', 'va850', 'va925', 'mrso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'va100m', 'uas', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'sfcWindmax', 'rsus', 'rsdt', 'sfcWind', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'zmla', 'zg850', 'zg600', 'zg925', 'zg700']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -26330,7 +26330,7 @@
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>['prhmax', 'prc', 'pr']</t>
+          <t>['pr', 'prc', 'prhmax']</t>
         </is>
       </c>
     </row>
@@ -26362,7 +26362,7 @@
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'mrros', 'mrro', 'pr', 'zmla', 'vas', 'rsds', 'rsus', 'rlds', 'rlus', 'prc', 'sfcWind', 'snm', 'psl', 'ps', 'tauv', 'tauu', 'va100m', 'ua100m', 'snw', 'tas', 'uas', 'sund', 'ts', 'clt']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla', 'hurs', 'huss', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -26394,7 +26394,7 @@
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'clivi', 'cll', 'clm', 'hus200', 'hus300', 'zmla', 'tauv', 'tauu', 'ua200', 'ua300', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'rsdt', 'rlut', 'prw', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va200', 'va300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrso', 'mrros', 'hus500', 'hus400', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'zg850', 'zg925', 'zmla', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -26426,7 +26426,7 @@
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rlut', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauv', 'tasmax', 'tasmin', 'tauu', 'ua100m', 'ua200', 'ua300', 'ua400', 'ts', 'rlds', 'rlus', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'ps', 'pr', 'va100m', 'uas', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'cll', 'clm', 'evspsbl', 'hurs', 'hus200', 'clt', 'vas', 'zg200', 'zg300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -26458,7 +26458,7 @@
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -26490,7 +26490,7 @@
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>['snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'mrso', 'prc', 'prw', 'mrros', 'huss', 'psl', 'mrro', 'ps', 'pr', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va100m', 'uas', 'ua300', 'ua400', 'ua600', 'ua700', 'ua850', 'ua925', 'ua500', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'snm', 'zmla', 'zg850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg925', 'zg700', 'hfss', 'hfls', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'tauv', 'tasmax', 'tasmin', 'tauu', 'ua100m', 'tas', 'ua200', 'ta925', 'ts']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -26534,7 +26534,7 @@
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>['prc', 'prhmax', 'pr']</t>
+          <t>['pr', 'prc', 'prhmax']</t>
         </is>
       </c>
     </row>
@@ -26566,7 +26566,7 @@
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'pr', 'prc', 'ps', 'psl', 'rlds', 'uas', 'va100m', 'vas', 'zmla']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -26598,7 +26598,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>['clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'clh', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'mrro', 'mrros', 'mrso', 'prw', 'hus925', 'zg700', 'zg850', 'zg925', 'zmla', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'ta700']</t>
         </is>
       </c>
     </row>
@@ -26630,7 +26630,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'hus600', 'hus700', 'hus850', 'hus925', 'hus500', 'zg700', 'zg850', 'zg925', 'zmla', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl']</t>
         </is>
       </c>
     </row>
@@ -26694,7 +26694,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>['clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'clh', 'clivi', 'cll', 'clm', 'clt', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700']</t>
+          <t>['hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -26766,7 +26766,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>['hurs', 'huss', 'mrro', 'clt', 'evspsbl', 'hfls', 'hfss', 'rsds', 'rsus', 'sfcWind', 'snm', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'snw', 'sund', 'tas', 'tauu', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla', 'tauv']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -26798,7 +26798,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>['ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'clwvi', 'hus200', 'hus300', 'hus400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'clh', 'clivi', 'cll', 'clm', 'tauu', 'tauv', 'ts', 'ua200', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'hus500', 'hus600', 'hus700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'ua850', 'ua925', 'uas', 'va200', 'va850', 'va925', 'vas', 'zg200']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -26830,7 +26830,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'hurs', 'hus200', 'clm', 'clt', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'hus300', 'hus400', 'hus500', 'ta200', 'ta300', 'ta400', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'rlut', 'rsds', 'rsdt', 'rsus', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'ta925', 'tas', 'tasmax', 'tasmin', 'hus600', 'hus700', 'hus850', 'hus925', 'ta500', 'ta600', 'ta700', 'ta850', 'huss', 'mrro', 'mrros', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'va100m', 'va200', 'va300', 'va400', 'va500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'va600', 'va700', 'va850']</t>
+          <t>['tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -26894,7 +26894,7 @@
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
+          <t>['hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -26966,7 +26966,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>['prc', 'ps', 'psl', 'rlds', 'rlus', 'tauu', 'tauv', 'ts', 'ua100m', 'mrro', 'mrros', 'mrso', 'pr', 'snm', 'snw', 'sund', 'tas', 'uas', 'va100m', 'vas', 'zmla', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'rsds', 'rsus', 'sfcWind']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'snm', 'snw', 'sund', 'tas', 'tauu', 'tauv', 'ts', 'ua100m', 'uas', 'va100m', 'vas', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -26998,7 +26998,7 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>['hus925', 'mrro', 'mrros', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'mrso', 'prw', 'rlut', 'rsdt', 'clh', 'clivi', 'cll', 'clm', 'ta925', 'tauu', 'tauv', 'ts', 'clwvi', 'hus200', 'hus300', 'hus400', 'snm', 'snw', 'ta200', 'ta300', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua300', 'ua400', 'ua925', 'uas', 'va200', 'zg925', 'zmla', 'va700', 'va850', 'va925', 'vas', 'ua500', 'ua600', 'ua700', 'ua850', 'va300', 'va400', 'va500', 'va600', 'zg500', 'zg600', 'zg700', 'zg850', 'zg200', 'zg300', 'zg400']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clwvi', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'mrros', 'zg925', 'zmla', 'mrso', 'prw', 'rlut', 'rsdt', 'snm', 'snw', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tauu', 'tauv', 'ts', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850']</t>
         </is>
       </c>
     </row>
@@ -27030,7 +27030,7 @@
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'rsds', 'rsdt', 'psl', 'rlds', 'rlus', 'rlut', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'snw', 'sund', 'ta200', 'ta300', 'hus200', 'hus300', 'hus400', 'hus500', 'ta400', 'ta500', 'ta600', 'ta700', 'hus600', 'hus700', 'hus850', 'hus925', 'ua100m', 'ua200', 'ua300', 'ua400', 'tasmin', 'tauu', 'tauv', 'ts', 'ta850', 'ta925', 'tas', 'tasmax', 'ua925', 'uas', 'va100m', 'va200', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'ua600', 'ua700', 'ua850', 'va300', 'va400', 'va500', 'ua500', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -27094,7 +27094,7 @@
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>['ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'clh', 'clivi', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'zg700', 'zg850', 'zg925', 'zmla']</t>
+          <t>['cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -25314,7 +25314,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600']</t>
+          <t>['va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl']</t>
         </is>
       </c>
     </row>
@@ -26894,7 +26894,7 @@
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>['hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss']</t>
+          <t>['clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sfcWind', 'sfcWindmax', 'snm', 'snw', 'sund', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua100m', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100m', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -39326,7 +39326,7 @@
       </c>
       <c r="J1190" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'snm', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tauv', 'tasmax', 'tasmin', 'tauu', 'uas', 'ua200', 'ua500', 'ua850', 'ts', 'hfss', 'hfls', 'mrfso', 'mrso', 'prc', 'huss', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'evspsblpot', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'prc', 'huss', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'evspsblpot', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'clt', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'sic', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'snm', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tauv', 'tasmax', 'tasmin', 'tauu', 'uas', 'ua200', 'ua500', 'ua850', 'ts']</t>
         </is>
       </c>
     </row>
@@ -42394,7 +42394,7 @@
       </c>
       <c r="J1289" t="inlineStr">
         <is>
-          <t>['pr', 'rsds', 'sfcWind', 'psl', 'tas']</t>
+          <t>['rsds', 'sfcWind', 'psl', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -42482,7 +42482,7 @@
       </c>
       <c r="J1292" t="inlineStr">
         <is>
-          <t>['vas', 'zg500', 'ua200', 'uas']</t>
+          <t>['uas', 'vas', 'zg500', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -45850,7 +45850,7 @@
       </c>
       <c r="J1401" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'rlds', 'rlus', 'mrfso', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'snm', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'sic', 'snd', 'tasmax', 'tasmin', 'snm', 'tas', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'rlds', 'rlus', 'mrfso', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -49134,7 +49134,7 @@
       </c>
       <c r="J1506" t="inlineStr">
         <is>
-          <t>['ua200', 'vas', 'mrso', 'zg500', 'uas']</t>
+          <t>['uas', 'ua200', 'vas', 'mrso', 'zg500']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -21251,7 +21251,7 @@
       </c>
       <c r="G651" s="1" t="inlineStr">
         <is>
-          <t>v20200702</t>
+          <t>v20220404</t>
         </is>
       </c>
       <c r="H651" s="1" t="inlineStr">
@@ -21287,7 +21287,7 @@
       </c>
       <c r="G652" s="1" t="inlineStr">
         <is>
-          <t>v20210128</t>
+          <t>v20220404</t>
         </is>
       </c>
       <c r="H652" s="1" t="inlineStr">
@@ -21302,7 +21302,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['ps', 'clt', 'rsds', 'hurs', 'rlds', 'huss', 'pr', 'sfcWind', 'tas']</t>
+          <t>['huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'clt', 'hurs', 'tas']</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21319,7 @@
       </c>
       <c r="G653" s="1" t="inlineStr">
         <is>
-          <t>v20210128</t>
+          <t>v20220404</t>
         </is>
       </c>
       <c r="H653" s="1" t="inlineStr">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['huss', 'ps', 'pr', 'clt', 'hurs', 'psl', 'rlds', 'rsds', 'rsus', 'sfcWind', 'vas', 'uas', 'tas']</t>
+          <t>['sfcWind', 'tas', 'uas', 'vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -21351,7 +21351,7 @@
       </c>
       <c r="G654" s="1" t="inlineStr">
         <is>
-          <t>v20210128</t>
+          <t>v20220404</t>
         </is>
       </c>
       <c r="H654" s="1" t="inlineStr">
@@ -21366,7 +21366,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -21383,7 +21383,7 @@
       </c>
       <c r="G655" s="1" t="inlineStr">
         <is>
-          <t>v20210128</t>
+          <t>v20220404</t>
         </is>
       </c>
       <c r="H655" s="1" t="inlineStr">
@@ -21398,7 +21398,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'sfcWindmax', 'sic', 'snm', 'snw', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'psl', 'rlds', 'rlus', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'hus850', 'huss', 'mrro', 'ta200', 'ta500', 'ta850', 'zg500', 'va850', 'vas', 'wsgsmax', 'zg200', 'tauu', 'tauv', 'ts', 'tas', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="G656" s="1" t="inlineStr">
         <is>
-          <t>v20210128</t>
+          <t>v20220404</t>
         </is>
       </c>
       <c r="H656" s="1" t="inlineStr">
@@ -21430,7 +21430,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'zg500', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax']</t>
+          <t>['snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic']</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       </c>
       <c r="G657" s="1" t="inlineStr">
         <is>
-          <t>v20210128</t>
+          <t>v20220404</t>
         </is>
       </c>
       <c r="H657" s="1" t="inlineStr">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'clt', 'evspsbl', 'hfls', 'hfss', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'zg500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -33472,7 +33472,7 @@
       </c>
       <c r="H1012" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1012" s="1" t="inlineStr">
@@ -33504,7 +33504,7 @@
       </c>
       <c r="H1013" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1013" s="1" t="inlineStr">
@@ -33514,7 +33514,7 @@
       </c>
       <c r="J1013" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'prc', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'huss', 'psl', 'ps', 'pr', 'sfcWind', 'tas']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -33536,7 +33536,7 @@
       </c>
       <c r="H1014" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1014" s="1" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="J1014" t="inlineStr">
         <is>
-          <t>['clivi', 'hus850', 'evspsblpot', 'clwvi', 'mrfso', 'evspsbl', 'mrros', 'mrro', 'ta200', 'ta500', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'tauv', 'uas', 'va200', 'ta850', 'ua200', 'ua500', 'ua850', 'tauu', 'ts', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'zmla']</t>
+          <t>['clivi', 'clwvi', 'evspsbl', 'evspsblpot', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -33568,7 +33568,7 @@
       </c>
       <c r="H1015" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1015" s="1" t="inlineStr">
@@ -33578,7 +33578,7 @@
       </c>
       <c r="J1015" t="inlineStr">
         <is>
-          <t>['tauv', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tauu', 'tas', 'ts', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'wsgsmax', 'zg500', 'zg200', 'zmla', 'evspsblpot', 'hfls', 'clwvi', 'clivi', 'evspsbl', 'clt', 'hus850', 'hfss', 'mrfso', 'mrso', 'huss', 'mrros', 'hurs', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic']</t>
+          <t>['clivi', 'clt', 'clwvi', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -33600,7 +33600,7 @@
       </c>
       <c r="H1016" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1016" s="1" t="inlineStr">
@@ -33610,7 +33610,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -33632,7 +33632,7 @@
       </c>
       <c r="H1017" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1017" s="1" t="inlineStr">
@@ -33642,7 +33642,7 @@
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'clt', 'hus850', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'psl', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'sfcWind', 'ta200', 'ta500', 'ta850', 'snm', 'snw', 'tas', 'sic', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmax', 'tasmin', 'vas', 'zg200', 'zg500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -33664,7 +33664,7 @@
       </c>
       <c r="H1018" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1018" s="1" t="inlineStr">
@@ -33674,7 +33674,7 @@
       </c>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>['hus850', 'hfss', 'hfls', 'mrfso', 'mrros', 'huss', 'hurs', 'mrro', 'clt', 'sfcWindmax', 'ta200', 'ta500', 'ta850', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmin', 'zg200', 'zg500', 'evspsbl', 'mrso', 'pr', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -33704,7 +33704,7 @@
       </c>
       <c r="H1019" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1019" s="1" t="inlineStr">
@@ -33736,7 +33736,7 @@
       </c>
       <c r="H1020" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1020" s="1" t="inlineStr">
@@ -33746,7 +33746,7 @@
       </c>
       <c r="J1020" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'huss', 'hurs', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'psl', 'ps', 'sfcWind', 'tas']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -33768,7 +33768,7 @@
       </c>
       <c r="H1021" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1021" s="1" t="inlineStr">
@@ -33778,7 +33778,7 @@
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'zmla', 'tauv', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'ta200', 'ta500', 'ta850', 'tauu', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'clivi', 'hus850', 'evspsblpot', 'clwvi', 'mrfso', 'evspsbl', 'mrso', 'mrros', 'prw', 'mrro']</t>
+          <t>['clivi', 'clwvi', 'evspsbl', 'evspsblpot', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -33800,7 +33800,7 @@
       </c>
       <c r="H1022" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1022" s="1" t="inlineStr">
@@ -33810,7 +33810,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>['evspsblpot', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'prhmax', 'mrfso', 'prc', 'mrso', 'huss', 'mrros', 'prsn', 'mrro', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'pr', 'clivi', 'clt', 'clwvi', 'tauv', 'ua200', 'ua500', 'ta850', 'tasmax', 'tasmin', 'tauu', 'tas', 'ts', 'sfcWindmax', 'sfcWind', 'ta200', 'ta500', 'rsus', 'rsut', 'snm', 'snw', 'sic', 'vas', 'uas', 'zg200', 'zg500', 'va500', 'va850', 'va200', 'ua850', 'wsgsmax', 'zmla']</t>
+          <t>['clivi', 'clt', 'clwvi', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -33832,7 +33832,7 @@
       </c>
       <c r="H1023" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1023" s="1" t="inlineStr">
@@ -33842,7 +33842,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>['sftlf', 'mrsofc', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -33864,7 +33864,7 @@
       </c>
       <c r="H1024" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1024" s="1" t="inlineStr">
@@ -33874,7 +33874,7 @@
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>['hus850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'snm', 'sic', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'snw', 'tas', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'ua850']</t>
+          <t>['ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -33896,7 +33896,7 @@
       </c>
       <c r="H1025" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1025" s="1" t="inlineStr">
@@ -33906,7 +33906,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'uas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'ta200', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -33940,7 +33940,7 @@
       </c>
       <c r="H1026" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1026" s="1" t="inlineStr">
@@ -33968,7 +33968,7 @@
       </c>
       <c r="H1027" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1027" s="1" t="inlineStr">
@@ -34000,7 +34000,7 @@
       </c>
       <c r="H1028" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1028" s="1" t="inlineStr">
@@ -34010,7 +34010,7 @@
       </c>
       <c r="J1028" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'clt', 'sfcWind', 'rsds', 'rsus', 'tas', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'pr', 'ps']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -34028,7 +34028,7 @@
       </c>
       <c r="H1029" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1029" s="1" t="inlineStr">
@@ -34038,7 +34038,7 @@
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>['sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'psl', 'ps', 'pr', 'tas', 'hfss', 'hfls', 'huss', 'hurs', 'clt']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -34060,7 +34060,7 @@
       </c>
       <c r="H1030" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1030" s="1" t="inlineStr">
@@ -34070,7 +34070,7 @@
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>['hus850', 'mrfso', 'evspsbl', 'mrro', 'ta200', 'ta500', 'rsdt', 'rsut', 'rlut', 'mrso', 'mrros', 'snm', 'snw', 'tauv', 'uas', 'va200', 'ua500', 'ua850', 'ua200', 'ta850', 'tauu', 'ts', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'zmla']</t>
+          <t>['evspsbl', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -34088,7 +34088,7 @@
       </c>
       <c r="H1031" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1031" s="1" t="inlineStr">
@@ -34098,7 +34098,7 @@
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hus850', 'rsdt', 'mrfso', 'rlut', 'evspsbl', 'mrso', 'mrros', 'mrro', 'tauv', 'ta200', 'ta500', 'ta850', 'tauu', 'rsut', 'snm', 'snw', 'ts', 'zg500', 'zmla']</t>
+          <t>['evspsbl', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -34120,7 +34120,7 @@
       </c>
       <c r="H1032" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1032" s="1" t="inlineStr">
@@ -34130,7 +34130,7 @@
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>['tauv', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'vas', 'zg200', 'zg500', 'wsgsmax', 'zmla', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sic', 'ta200', 'ta500', 'ta850', 'tauu', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'mrro', 'clt', 'prhmax', 'rlds', 'prc', 'mrso', 'mrros', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -34148,7 +34148,7 @@
       </c>
       <c r="H1033" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1033" s="1" t="inlineStr">
@@ -34158,7 +34158,7 @@
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>['prhmax', 'mrfso', 'prc', 'mrso', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tauv', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'tauu', 'tasmin', 'ts', 'hus850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'sfcWindmax', 'ta200', 'ta500', 'ta850', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'wsgsmax', 'zmla']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -34180,7 +34180,7 @@
       </c>
       <c r="H1034" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1034" s="1" t="inlineStr">
@@ -34190,7 +34190,7 @@
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -34212,7 +34212,7 @@
       </c>
       <c r="H1035" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1035" s="1" t="inlineStr">
@@ -34222,7 +34222,7 @@
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'ua200', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'hus850', 'hfss', 'hfls', 'mrso', 'huss', 'mrros', 'hurs', 'mrro', 'pr', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'mrfso', 'sfcWindmax', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'snw', 'sic']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -34240,7 +34240,7 @@
       </c>
       <c r="H1036" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1036" s="1" t="inlineStr">
@@ -34250,7 +34250,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>['hus850', 'hfss', 'hfls', 'mrfso', 'mrso', 'huss', 'mrros', 'hurs', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'sfcWindmax', 'sfcWind', 'ta200', 'ta500', 'ta850', 'tasmax', 'snw', 'tas', 'sic', 'zg200', 'zg500', 'evspsbl', 'clt', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmin']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -34272,7 +34272,7 @@
       </c>
       <c r="H1037" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1037" s="1" t="inlineStr">
@@ -34282,7 +34282,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>['zg200', 'vas', 'uas', 'zg500', 'va200', 'va500', 'va850', 'clt', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'ta200', 'tasmax', 'tasmin', 'tas', 'hus850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsut', 'rsdt', 'rlut', 'snw', 'sic', 'rlds', 'rlus', 'mrfso', 'mrso', 'huss', 'mrros', 'psl', 'mrro', 'pr']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -34300,7 +34300,7 @@
       </c>
       <c r="H1038" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1038" s="1" t="inlineStr">
@@ -34310,7 +34310,7 @@
       </c>
       <c r="J1038" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfls', 'evspsbl', 'clt', 'zg500', 'sfcWindmax', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'snw', 'tas', 'sic', 'hus850', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'pr', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -34344,7 +34344,7 @@
       </c>
       <c r="H1039" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1039" s="1" t="inlineStr">
@@ -34372,7 +34372,7 @@
       </c>
       <c r="H1040" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1040" s="1" t="inlineStr">
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H1041" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1041" s="1" t="inlineStr">
@@ -34414,7 +34414,7 @@
       </c>
       <c r="J1041" t="inlineStr">
         <is>
-          <t>['rsus', 'tas', 'sfcWind', 'hfss', 'hfls', 'clt', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -34432,7 +34432,7 @@
       </c>
       <c r="H1042" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1042" s="1" t="inlineStr">
@@ -34442,7 +34442,7 @@
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>['sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'psl', 'ps', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'clt', 'pr', 'tas']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -34464,7 +34464,7 @@
       </c>
       <c r="H1043" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1043" s="1" t="inlineStr">
@@ -34474,7 +34474,7 @@
       </c>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>['mrfso', 'evspsbl', 'mrso', 'mrros', 'mrro', 'hus850', 'tauu', 'rsut', 'rsdt', 'rlut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'ts', 'tauv', 'uas', 'va500', 'va850', 'va200', 'ua200', 'ua500', 'ua850', 'zmla', 'vas', 'zg200', 'zg500']</t>
+          <t>['evspsbl', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -34492,7 +34492,7 @@
       </c>
       <c r="H1044" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1044" s="1" t="inlineStr">
@@ -34502,7 +34502,7 @@
       </c>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'va850', 'zmla', 'tauv', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'tauu', 'ts', 'clivi', 'ta200', 'ta500', 'ta850', 'rsdt', 'rsut', 'rlut', 'prw', 'snm', 'snw', 'hus850', 'evspsblpot', 'clwvi', 'mrfso', 'evspsbl', 'mrso', 'mrros', 'mrro']</t>
+          <t>['clivi', 'clwvi', 'evspsbl', 'evspsblpot', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -34524,7 +34524,7 @@
       </c>
       <c r="H1045" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1045" s="1" t="inlineStr">
@@ -34534,7 +34534,7 @@
       </c>
       <c r="J1045" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'sfcWind', 'tasmax', 'tasmin', 'snm', 'tas', 'snw', 'sic', 'ta500', 'ta850', 'ta200', 'tauu', 'ts', 'tauv', 'uas', 'va500', 'va200', 'ua850', 'ua200', 'ua500', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt', 'hus850', 'prhmax', 'mrso', 'prc', 'mrros', 'psl', 'prsn', 'mrro', 'ps', 'pr']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -34552,7 +34552,7 @@
       </c>
       <c r="H1046" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1046" s="1" t="inlineStr">
@@ -34562,7 +34562,7 @@
       </c>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>['clwvi', 'clivi', 'evspsbl', 'clt', 'hus850', 'evspsblpot', 'hfss', 'hfls', 'mrfso', 'huss', 'mrros', 'hurs', 'mrro', 'rlds', 'prhmax', 'prc', 'mrso', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tauv', 'uas', 'va850', 'va200', 'va500', 'ua850', 'ua200', 'ua500', 'ts', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tauu', 'snm', 'snw', 'tas', 'vas', 'zg200', 'zg500', 'wsgsmax', 'zmla', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sic']</t>
+          <t>['clivi', 'clt', 'clwvi', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -34584,7 +34584,7 @@
       </c>
       <c r="H1047" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1047" s="1" t="inlineStr">
@@ -34594,7 +34594,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -34616,7 +34616,7 @@
       </c>
       <c r="H1048" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1048" s="1" t="inlineStr">
@@ -34626,7 +34626,7 @@
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'clt', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'psl', 'mrro', 'pr', 'hus850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'sfcWind', 'tasmin', 'tasmax', 'snw', 'tas', 'sic', 'ua200', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'ua850', 'ua500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -34644,7 +34644,7 @@
       </c>
       <c r="H1049" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1049" s="1" t="inlineStr">
@@ -34654,7 +34654,7 @@
       </c>
       <c r="J1049" t="inlineStr">
         <is>
-          <t>['ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'sic', 'sfcWindmax', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'clt', 'hus850', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'psl', 'mrro', 'pr', 'zg500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -34676,7 +34676,7 @@
       </c>
       <c r="H1050" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1050" s="1" t="inlineStr">
@@ -34686,7 +34686,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'zg200', 'zg500', 'vas', 'va500', 'va850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'hurs', 'huss', 'clt', 'hus850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'rsus', 'rsdt', 'rsut', 'snw', 'sic', 'sfcWindmax', 'sfcWind', 'ta200', 'ta500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -34704,7 +34704,7 @@
       </c>
       <c r="H1051" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1051" s="1" t="inlineStr">
@@ -34714,7 +34714,7 @@
       </c>
       <c r="J1051" t="inlineStr">
         <is>
-          <t>['uas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'sfcWindmax', 'sfcWind', 'ta200', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -34744,7 +34744,7 @@
       </c>
       <c r="H1052" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1052" s="1" t="inlineStr">
@@ -34776,7 +34776,7 @@
       </c>
       <c r="H1053" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1053" s="1" t="inlineStr">
@@ -34786,7 +34786,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>['clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'sfcWind', 'rsds', 'rsus', 'rlus', 'tas']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -34808,7 +34808,7 @@
       </c>
       <c r="H1054" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1054" s="1" t="inlineStr">
@@ -34818,7 +34818,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>['evspsblpot', 'clwvi', 'mrfso', 'clivi', 'hus850', 'rsdt', 'rsut', 'rlut', 'evspsbl', 'mrso', 'mrros', 'prw', 'mrro', 'tauv', 'ua200', 'ta200', 'ta500', 'ta850', 'tauu', 'snm', 'snw', 'ts', 'vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'zmla']</t>
+          <t>['clivi', 'clwvi', 'evspsbl', 'evspsblpot', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -34840,7 +34840,7 @@
       </c>
       <c r="H1055" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1055" s="1" t="inlineStr">
@@ -34850,7 +34850,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>['clivi', 'clt', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'prhmax', 'prc', 'mrso', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'sfcWindmax', 'ta850', 'ta200', 'ta500', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'tauv', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'tasmin', 'tauu', 'ts', 'vas', 'zg200', 'zg500', 'va500', 'va850', 'wsgsmax', 'zmla', 'hus850', 'evspsblpot', 'hfss', 'clwvi', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs']</t>
+          <t>['clivi', 'clt', 'clwvi', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -34872,7 +34872,7 @@
       </c>
       <c r="H1056" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1056" s="1" t="inlineStr">
@@ -34882,7 +34882,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'mrsofc']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -34904,7 +34904,7 @@
       </c>
       <c r="H1057" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1057" s="1" t="inlineStr">
@@ -34914,7 +34914,7 @@
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>['hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'ta200', 'rsus', 'rsdt', 'rsut', 'snw', 'sic', 'uas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'snm']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -34936,7 +34936,7 @@
       </c>
       <c r="H1058" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1058" s="1" t="inlineStr">
@@ -34946,7 +34946,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>['hus850', 'mrfso', 'mrso', 'mrros', 'huss', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'ta200', 'ta500', 'ta850', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmin', 'zg200', 'zg500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -34976,7 +34976,7 @@
       </c>
       <c r="H1059" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1059" s="1" t="inlineStr">
@@ -35004,7 +35004,7 @@
       </c>
       <c r="H1060" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1060" s="1" t="inlineStr">
@@ -35036,7 +35036,7 @@
       </c>
       <c r="H1061" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1061" s="1" t="inlineStr">
@@ -35046,7 +35046,7 @@
       </c>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>['sfcWind', 'rsds', 'rsus', 'tas', 'hfls', 'clt', 'rlds', 'rlus', 'hfss', 'prc', 'huss', 'hurs', 'psl', 'pr', 'ps']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -35064,7 +35064,7 @@
       </c>
       <c r="H1062" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1062" s="1" t="inlineStr">
@@ -35074,7 +35074,7 @@
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>['sfcWind', 'rsds', 'rsus', 'tas', 'hfls', 'clt', 'rlds', 'rlus', 'hfss', 'prc', 'huss', 'hurs', 'psl', 'pr', 'ps']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -35096,7 +35096,7 @@
       </c>
       <c r="H1063" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1063" s="1" t="inlineStr">
@@ -35106,7 +35106,7 @@
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsut', 'mrfso', 'rlut', 'mrso', 'mrros', 'prw', 'snm', 'mrro', 'vas', 'uas', 'zg200', 'zg500', 'va500', 'va200', 'va850', 'ua850', 'zmla', 'hus850', 'evspsblpot', 'clwvi', 'evspsbl', 'clivi', 'tauv', 'ua500', 'ua200', 'ta200', 'ta500', 'ta850', 'tauu', 'snw', 'ts']</t>
+          <t>['clivi', 'clwvi', 'evspsbl', 'evspsblpot', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H1064" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1064" s="1" t="inlineStr">
@@ -35134,7 +35134,7 @@
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsut', 'mrfso', 'rlut', 'mrso', 'mrros', 'prw', 'snm', 'mrro', 'vas', 'uas', 'zg200', 'zg500', 'va500', 'va200', 'va850', 'ua850', 'zmla', 'hus850', 'evspsblpot', 'clwvi', 'evspsbl', 'clivi', 'tauv', 'ua500', 'ua200', 'ta200', 'ta500', 'ta850', 'tauu', 'snw', 'ts']</t>
+          <t>['clivi', 'clwvi', 'evspsbl', 'evspsblpot', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -35156,7 +35156,7 @@
       </c>
       <c r="H1065" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1065" s="1" t="inlineStr">
@@ -35166,7 +35166,7 @@
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>['tauv', 'ua200', 'ua500', 'ua850', 'tasmin', 'tasmax', 'tauu', 'tas', 'ts', 'hus850', 'evspsblpot', 'hfss', 'clwvi', 'hfls', 'clivi', 'evspsbl', 'hurs', 'clt', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'prsn', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'sfcWindmax', 'sfcWind', 'ta850', 'ta200', 'ta500', 'rsut', 'snm', 'snw', 'sic', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'wsgsmax', 'zmla']</t>
+          <t>['clivi', 'clt', 'clwvi', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -35184,7 +35184,7 @@
       </c>
       <c r="H1066" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1066" s="1" t="inlineStr">
@@ -35194,7 +35194,7 @@
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>['tauv', 'ua200', 'ua500', 'ua850', 'tasmin', 'tasmax', 'tauu', 'tas', 'ts', 'hus850', 'evspsblpot', 'hfss', 'clwvi', 'hfls', 'clivi', 'evspsbl', 'hurs', 'clt', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'huss', 'prsn', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'ps', 'sfcWindmax', 'sfcWind', 'ta850', 'ta200', 'ta500', 'rsut', 'snm', 'snw', 'sic', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'wsgsmax', 'zmla']</t>
+          <t>['clivi', 'clt', 'clwvi', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="H1067" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1067" s="1" t="inlineStr">
@@ -35226,7 +35226,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -35248,7 +35248,7 @@
       </c>
       <c r="H1068" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1068" s="1" t="inlineStr">
@@ -35258,7 +35258,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'vas', 'zg200', 'zg500', 'va850', 'snw', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'mrro', 'clt', 'sfcWindmax', 'sfcWind', 'ta200', 'ta500', 'ta850', 'rsus', 'rsut', 'snm', 'sic', 'uas', 'va200', 'va500', 'ua850', 'ua500', 'ua200', 'tasmin', 'tasmax', 'tas']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35276,7 +35276,7 @@
       </c>
       <c r="H1069" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1069" s="1" t="inlineStr">
@@ -35286,7 +35286,7 @@
       </c>
       <c r="J1069" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'psl', 'pr', 'vas', 'zg200', 'zg500', 'va850', 'snw', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'mrro', 'clt', 'sfcWindmax', 'sfcWind', 'ta200', 'ta500', 'ta850', 'rsus', 'rsut', 'snm', 'sic', 'uas', 'va200', 'va500', 'ua850', 'ua500', 'ua200', 'tasmin', 'tasmax', 'tas']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35308,7 +35308,7 @@
       </c>
       <c r="H1070" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1070" s="1" t="inlineStr">
@@ -35318,7 +35318,7 @@
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sic', 'ua200', 'ta200', 'ta850', 'ta500', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'vas', 'zg200', 'uas', 'zg500', 'va850', 'va200', 'va500', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'hus850', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35336,7 +35336,7 @@
       </c>
       <c r="H1071" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1071" s="1" t="inlineStr">
@@ -35346,7 +35346,7 @@
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sic', 'ua200', 'ta200', 'ta850', 'ta500', 'tasmax', 'tasmin', 'snm', 'snw', 'tas', 'vas', 'zg200', 'uas', 'zg500', 'va850', 'va200', 'va500', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'hus850', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35380,7 +35380,7 @@
       </c>
       <c r="H1072" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1072" s="1" t="inlineStr">
@@ -35408,7 +35408,7 @@
       </c>
       <c r="H1073" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1073" s="1" t="inlineStr">
@@ -35440,7 +35440,7 @@
       </c>
       <c r="H1074" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1074" s="1" t="inlineStr">
@@ -35450,7 +35450,7 @@
       </c>
       <c r="J1074" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'sfcWind', 'rsus', 'tas', 'hfss', 'hfls', 'clt']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -35468,7 +35468,7 @@
       </c>
       <c r="H1075" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1075" s="1" t="inlineStr">
@@ -35478,7 +35478,7 @@
       </c>
       <c r="J1075" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'prc', 'huss', 'hurs', 'clt', 'pr', 'ps', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'tas', 'psl']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -35500,7 +35500,7 @@
       </c>
       <c r="H1076" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1076" s="1" t="inlineStr">
@@ -35510,7 +35510,7 @@
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>['hus850', 'mrfso', 'evspsbl', 'mrros', 'mrso', 'mrro', 'zg500', 'zmla', 'ta200', 'ta500', 'ta850', 'tauu', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'tauv', 'zg200', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts']</t>
+          <t>['evspsbl', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'va200', 'va500', 'va850', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -35528,7 +35528,7 @@
       </c>
       <c r="H1077" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1077" s="1" t="inlineStr">
@@ -35538,7 +35538,7 @@
       </c>
       <c r="J1077" t="inlineStr">
         <is>
-          <t>['tauv', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'tauu', 'ts', 'hus850', 'rsdt', 'rsut', 'rlut', 'mrso', 'mrros', 'snm', 'snw', 'mrro', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'zmla', 'mrfso', 'evspsbl']</t>
+          <t>['evspsbl', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -35560,7 +35560,7 @@
       </c>
       <c r="H1078" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1078" s="1" t="inlineStr">
@@ -35570,7 +35570,7 @@
       </c>
       <c r="J1078" t="inlineStr">
         <is>
-          <t>['tauv', 'uas', 'va200', 'ua200', 'ua850', 'ua500', 'tasmin', 'tauu', 'ts', 'vas', 'zg200', 'zg500', 'va850', 'va500', 'wsgsmax', 'zmla', 'hus850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'prhmax', 'mrfso', 'prc', 'mrso', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'ta200', 'ta500', 'ta850', 'tasmax', 'snm', 'tas', 'snw', 'sic']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -35588,7 +35588,7 @@
       </c>
       <c r="H1079" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1079" s="1" t="inlineStr">
@@ -35598,7 +35598,7 @@
       </c>
       <c r="J1079" t="inlineStr">
         <is>
-          <t>['rlds', 'prhmax', 'rlus', 'prc', 'mrso', 'psl', 'prsn', 'ps', 'pr', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'mrros', 'hurs', 'mrro', 'clt', 'zg200', 'zg500', 'wsgsmax', 'zmla', 'tauv', 'ta200', 'ta500', 'ta850', 'tauu', 'tasmax', 'tasmin', 'tas', 'snw', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'snm', 'sic', 'vas', 'uas', 'va850', 'va200', 'va500', 'ua850', 'ua200', 'ua500', 'ts']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -35620,7 +35620,7 @@
       </c>
       <c r="H1080" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1080" s="1" t="inlineStr">
@@ -35630,7 +35630,7 @@
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -35652,7 +35652,7 @@
       </c>
       <c r="H1081" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1081" s="1" t="inlineStr">
@@ -35662,7 +35662,7 @@
       </c>
       <c r="J1081" t="inlineStr">
         <is>
-          <t>['hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'ta200', 'ta500', 'rsus', 'rsdt', 'rsut', 'snw', 'sic', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'tasmax', 'tasmin', 'tas', 'vas', 'zg500', 'zg200', 'va500', 'va850']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35680,7 +35680,7 @@
       </c>
       <c r="H1082" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1082" s="1" t="inlineStr">
@@ -35690,7 +35690,7 @@
       </c>
       <c r="J1082" t="inlineStr">
         <is>
-          <t>['hus850', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'ua850', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sic', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'snw', 'tas']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35712,7 +35712,7 @@
       </c>
       <c r="H1083" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1083" s="1" t="inlineStr">
@@ -35722,7 +35722,7 @@
       </c>
       <c r="J1083" t="inlineStr">
         <is>
-          <t>['hus850', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'pr', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'zg500', 'sfcWindmax', 'ta850', 'ta500', 'ta200', 'tasmax', 'tasmin', 'snw', 'tas', 'sic', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'hfls', 'evspsbl', 'clt']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35740,7 +35740,7 @@
       </c>
       <c r="H1084" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1084" s="1" t="inlineStr">
@@ -35750,7 +35750,7 @@
       </c>
       <c r="J1084" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'sfcWindmax', 'sfcWind', 'ta200', 'rsds', 'rsus', 'rsdt', 'rsut', 'snw', 'sic', 'hus850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'uas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35780,7 +35780,7 @@
       </c>
       <c r="H1085" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1085" s="1" t="inlineStr">
@@ -35812,7 +35812,7 @@
       </c>
       <c r="H1086" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1086" s="1" t="inlineStr">
@@ -35822,7 +35822,7 @@
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'prc', 'huss', 'hurs', 'clt', 'pr', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'psl', 'tas', 'ps']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H1087" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1087" s="1" t="inlineStr">
@@ -35854,7 +35854,7 @@
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hus850', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'mrros', 'snm', 'mrro', 'tauv', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'tauu', 'snw', 'ts', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'ua850', 'zmla']</t>
+          <t>['evspsbl', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -35876,7 +35876,7 @@
       </c>
       <c r="H1088" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1088" s="1" t="inlineStr">
@@ -35886,7 +35886,7 @@
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>['zg500', 'zmla', 'hfls', 'evspsbl', 'clt', 'rsds', 'rlds', 'prhmax', 'rlus', 'prc', 'psl', 'prsn', 'ps', 'tauv', 'ua200', 'ta850', 'ta500', 'tauu', 'tasmax', 'tasmin', 'tas', 'ts', 'rlut', 'hus850', 'hfss', 'mrfso', 'mrso', 'huss', 'mrros', 'hurs', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'ta200', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'wsgsmax']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -35908,7 +35908,7 @@
       </c>
       <c r="H1089" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1089" s="1" t="inlineStr">
@@ -35918,7 +35918,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -35940,7 +35940,7 @@
       </c>
       <c r="H1090" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1090" s="1" t="inlineStr">
@@ -35950,7 +35950,7 @@
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>['hus850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'ta200', 'rsds', 'rsus', 'rsdt', 'rsut', 'snw', 'sic', 'uas', 'ua500', 'ua850', 'ua200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35972,7 +35972,7 @@
       </c>
       <c r="H1091" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1091" s="1" t="inlineStr">
@@ -35982,7 +35982,7 @@
       </c>
       <c r="J1091" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'ta200', 'ta500', 'ta850', 'tasmax', 'snw', 'tas', 'sic', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'hus850', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'zg200', 'zg500', 'hfss', 'hfls', 'evspsbl', 'clt', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'ua200', 'tasmin']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -36012,7 +36012,7 @@
       </c>
       <c r="H1092" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1092" s="1" t="inlineStr">
@@ -36040,7 +36040,7 @@
       </c>
       <c r="H1093" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1093" s="1" t="inlineStr">
@@ -36072,7 +36072,7 @@
       </c>
       <c r="H1094" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1094" s="1" t="inlineStr">
@@ -36082,7 +36082,7 @@
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hurs', 'huss', 'clt', 'pr', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'psl', 'tas', 'ps']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36100,7 +36100,7 @@
       </c>
       <c r="H1095" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1095" s="1" t="inlineStr">
@@ -36110,7 +36110,7 @@
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>['clt', 'sfcWind', 'rsds', 'rsus', 'rlus', 'tas', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H1096" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1096" s="1" t="inlineStr">
@@ -36142,7 +36142,7 @@
       </c>
       <c r="J1096" t="inlineStr">
         <is>
-          <t>['tauv', 'ua200', 'ta200', 'ta500', 'ta850', 'tauu', 'snm', 'snw', 'ts', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va850', 'va500', 'ua500', 'ua850', 'hus850', 'rsdt', 'rsut', 'rlut', 'mrfso', 'evspsbl', 'mrso', 'mrros', 'mrro', 'zmla']</t>
+          <t>['evspsbl', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -36160,7 +36160,7 @@
       </c>
       <c r="H1097" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1097" s="1" t="inlineStr">
@@ -36170,7 +36170,7 @@
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'zmla', 'ta200', 'rsdt', 'rsut', 'rlut', 'mrso', 'mrros', 'snm', 'snw', 'mrro', 'hus850', 'mrfso', 'evspsbl', 'tauv', 'uas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'tauu', 'ts']</t>
+          <t>['evspsbl', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -36192,7 +36192,7 @@
       </c>
       <c r="H1098" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1098" s="1" t="inlineStr">
@@ -36202,7 +36202,7 @@
       </c>
       <c r="J1098" t="inlineStr">
         <is>
-          <t>['rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'wsgsmax', 'tauv', 'ta200', 'ta500', 'ta850', 'tauu', 'tasmax', 'tasmin', 'tas', 'ts', 'evspsbl', 'clt', 'hus850', 'hfss', 'hfls', 'mrfso', 'mrso', 'huss', 'mrros', 'hurs', 'mrro', 'zg500', 'zg200', 'zmla']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -36220,7 +36220,7 @@
       </c>
       <c r="H1099" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1099" s="1" t="inlineStr">
@@ -36230,7 +36230,7 @@
       </c>
       <c r="J1099" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'tauv', 'ta850', 'ta200', 'ta500', 'tauu', 'tasmax', 'tasmin', 'tas', 'ts', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'wsgsmax', 'zg200', 'zg500', 'zmla', 'hus850', 'hfss', 'hfls', 'mrfso', 'mrso', 'huss', 'mrros', 'hurs', 'mrro', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -36252,7 +36252,7 @@
       </c>
       <c r="H1100" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1100" s="1" t="inlineStr">
@@ -36262,7 +36262,7 @@
       </c>
       <c r="J1100" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -36284,7 +36284,7 @@
       </c>
       <c r="H1101" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1101" s="1" t="inlineStr">
@@ -36294,7 +36294,7 @@
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>['ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'hus850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'snw', 'sic', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -36312,7 +36312,7 @@
       </c>
       <c r="H1102" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1102" s="1" t="inlineStr">
@@ -36322,7 +36322,7 @@
       </c>
       <c r="J1102" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'snw', 'sic', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'huss', 'psl', 'mrro', 'pr', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hus850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -36344,7 +36344,7 @@
       </c>
       <c r="H1103" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1103" s="1" t="inlineStr">
@@ -36354,7 +36354,7 @@
       </c>
       <c r="J1103" t="inlineStr">
         <is>
-          <t>['hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'mrros', 'huss', 'hurs', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'clt', 'vas', 'zg200', 'zg500', 'sfcWindmax', 'sfcWind', 'ta850', 'ta500', 'ta200', 'rsut', 'snw', 'tas', 'sic', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmax', 'tasmin']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -36372,7 +36372,7 @@
       </c>
       <c r="H1104" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1104" s="1" t="inlineStr">
@@ -36382,7 +36382,7 @@
       </c>
       <c r="J1104" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'clt', 'sfcWindmax', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'snw', 'tas', 'sic', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'zg500', 'hus850', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'pr']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -36416,7 +36416,7 @@
       </c>
       <c r="H1105" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1105" s="1" t="inlineStr">
@@ -36448,7 +36448,7 @@
       </c>
       <c r="H1106" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1106" s="1" t="inlineStr">
@@ -36458,7 +36458,7 @@
       </c>
       <c r="J1106" t="inlineStr">
         <is>
-          <t>['sfcWind', 'rsds', 'rsus', 'rlus', 'tas', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36480,7 +36480,7 @@
       </c>
       <c r="H1107" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1107" s="1" t="inlineStr">
@@ -36490,7 +36490,7 @@
       </c>
       <c r="J1107" t="inlineStr">
         <is>
-          <t>['zmla', 'evspsblpot', 'clwvi', 'clivi', 'evspsbl', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'hus850', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'mrros', 'prw', 'mrro', 'tauv', 'ua200', 'ta200', 'ta500', 'ta850', 'tauu', 'snm', 'snw', 'ts']</t>
+          <t>['clivi', 'clwvi', 'evspsbl', 'evspsblpot', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -36512,7 +36512,7 @@
       </c>
       <c r="H1108" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1108" s="1" t="inlineStr">
@@ -36522,7 +36522,7 @@
       </c>
       <c r="J1108" t="inlineStr">
         <is>
-          <t>['evspsblpot', 'hfss', 'clwvi', 'hfls', 'clivi', 'evspsbl', 'hurs', 'clt', 'tauv', 'ua200', 'ua500', 'ta850', 'tasmax', 'tasmin', 'tauu', 'tas', 'ts', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'zmla', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va850', 'va500', 'ua850', 'wsgsmax', 'hus850', 'prhmax', 'mrfso', 'prc', 'mrso', 'huss', 'mrros', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'ta200', 'ta500', 'rsus', 'rsut', 'snm', 'snw', 'sic']</t>
+          <t>['clivi', 'clt', 'clwvi', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -36544,7 +36544,7 @@
       </c>
       <c r="H1109" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1109" s="1" t="inlineStr">
@@ -36554,7 +36554,7 @@
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -36576,7 +36576,7 @@
       </c>
       <c r="H1110" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1110" s="1" t="inlineStr">
@@ -36586,7 +36586,7 @@
       </c>
       <c r="J1110" t="inlineStr">
         <is>
-          <t>['uas', 'ua200', 'ua500', 'ua850', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'sfcWindmax', 'sfcWind', 'ta200', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -36608,7 +36608,7 @@
       </c>
       <c r="H1111" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1111" s="1" t="inlineStr">
@@ -36618,7 +36618,7 @@
       </c>
       <c r="J1111" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'ta200', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'tasmax', 'tasmin', 'tas', 'vas', 'zg200', 'zg500', 'va200', 'va500', 'va850']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -36648,7 +36648,7 @@
       </c>
       <c r="H1112" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1112" s="1" t="inlineStr">
@@ -36680,7 +36680,7 @@
       </c>
       <c r="H1113" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1113" s="1" t="inlineStr">
@@ -36690,7 +36690,7 @@
       </c>
       <c r="J1113" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'psl', 'tas']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36712,7 +36712,7 @@
       </c>
       <c r="H1114" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1114" s="1" t="inlineStr">
@@ -36722,7 +36722,7 @@
       </c>
       <c r="J1114" t="inlineStr">
         <is>
-          <t>['hus850', 'evspsblpot', 'rlut', 'mrfso', 'evspsbl', 'mrso', 'mrros', 'prw', 'mrro', 'clwvi', 'clivi', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'ts', 'tauv', 'ta200', 'ta500', 'ta850', 'tauu', 'rsdt', 'rsut', 'snm', 'snw', 'zg200', 'zg500', 'zmla']</t>
+          <t>['clivi', 'clwvi', 'evspsbl', 'evspsblpot', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -36744,7 +36744,7 @@
       </c>
       <c r="H1115" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1115" s="1" t="inlineStr">
@@ -36754,7 +36754,7 @@
       </c>
       <c r="J1115" t="inlineStr">
         <is>
-          <t>['rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'wsgsmax', 'hus850', 'hfss', 'mrfso', 'mrso', 'huss', 'mrros', 'hurs', 'mrro', 'pr', 'tauv', 'ta850', 'ta200', 'ta500', 'tasmax', 'tasmin', 'tauu', 'tas', 'ts', 'zg200', 'zg500', 'zmla', 'evspsblpot', 'clwvi', 'hfls', 'clivi', 'evspsbl', 'clt', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic']</t>
+          <t>['clivi', 'clt', 'clwvi', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -36776,7 +36776,7 @@
       </c>
       <c r="H1116" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1116" s="1" t="inlineStr">
@@ -36786,7 +36786,7 @@
       </c>
       <c r="J1116" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -36808,7 +36808,7 @@
       </c>
       <c r="H1117" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1117" s="1" t="inlineStr">
@@ -36818,7 +36818,7 @@
       </c>
       <c r="J1117" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'hus850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'ua200', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'mrfso', 'rlds', 'rlus', 'rlut', 'mrso', 'huss', 'mrros', 'psl', 'mrro', 'pr']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -36840,7 +36840,7 @@
       </c>
       <c r="H1118" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1118" s="1" t="inlineStr">
@@ -36850,7 +36850,7 @@
       </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'va200', 'va500', 'va850', 'ua200', 'ua500', 'ua850', 'tasmin', 'sfcWind', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'zg200', 'zg500', 'hus850', 'hfss', 'mrfso', 'mrso', 'mrros', 'huss', 'hurs', 'mrro', 'pr', 'sfcWindmax', 'ta200', 'ta500', 'ta850', 'tasmax', 'snm', 'snw', 'tas', 'sic', 'hfls', 'evspsbl', 'clt']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -36884,7 +36884,7 @@
       </c>
       <c r="H1119" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1119" s="1" t="inlineStr">
@@ -36916,7 +36916,7 @@
       </c>
       <c r="H1120" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1120" s="1" t="inlineStr">
@@ -36926,7 +36926,7 @@
       </c>
       <c r="J1120" t="inlineStr">
         <is>
-          <t>['rlds', 'hfss', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'hfls', 'clt', 'sfcWind', 'rsds', 'rsus', 'rlus', 'tas']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36948,7 +36948,7 @@
       </c>
       <c r="H1121" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1121" s="1" t="inlineStr">
@@ -36958,7 +36958,7 @@
       </c>
       <c r="J1121" t="inlineStr">
         <is>
-          <t>['tauv', 'ua200', 'ta500', 'ta850', 'ta200', 'tauu', 'snm', 'snw', 'ts', 'hus850', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'mrros', 'prw', 'mrro', 'vas', 'uas', 'zg200', 'va200', 'va500', 'va850', 'ua500', 'ua850', 'evspsblpot', 'clwvi', 'evspsbl', 'clivi', 'zg500', 'zmla']</t>
+          <t>['clivi', 'clwvi', 'evspsbl', 'evspsblpot', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -36980,7 +36980,7 @@
       </c>
       <c r="H1122" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1122" s="1" t="inlineStr">
@@ -36990,7 +36990,7 @@
       </c>
       <c r="J1122" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'zg200', 'zg500', 'va500', 'va850', 'va200', 'ua850', 'wsgsmax', 'sfcWindmax', 'sfcWind', 'ta200', 'ta500', 'rsus', 'rsut', 'snm', 'snw', 'sic', 'zmla', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'prw', 'psl', 'prsn', 'ps', 'clivi', 'hus850', 'prhmax', 'mrfso', 'prc', 'mrso', 'huss', 'mrros', 'mrro', 'pr', 'tauv', 'ua200', 'ua500', 'ta850', 'tasmax', 'tasmin', 'tauu', 'tas', 'ts', 'evspsblpot', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'clt']</t>
+          <t>['clivi', 'clt', 'clwvi', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -37012,7 +37012,7 @@
       </c>
       <c r="H1123" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1123" s="1" t="inlineStr">
@@ -37022,7 +37022,7 @@
       </c>
       <c r="J1123" t="inlineStr">
         <is>
-          <t>['mrsofc', 'sftlf', 'orog']</t>
+          <t>['mrsofc', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -37044,7 +37044,7 @@
       </c>
       <c r="H1124" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1124" s="1" t="inlineStr">
@@ -37054,7 +37054,7 @@
       </c>
       <c r="J1124" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'hus850', 'hfss', 'hfls', 'mrfso', 'evspsbl', 'huss', 'hurs', 'clt', 'uas', 'va200', 'ua200', 'ua500', 'ua850', 'ta850', 'tasmax', 'tasmin', 'tas', 'sfcWindmax', 'sfcWind', 'ta200', 'ta500', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'vas', 'zg200', 'zg500', 'va500', 'va850']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -37076,7 +37076,7 @@
       </c>
       <c r="H1125" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1125" s="1" t="inlineStr">
@@ -37086,7 +37086,7 @@
       </c>
       <c r="J1125" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'hus850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'vas', 'zg200', 'uas', 'va200', 'va500', 'va850', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'tasmax', 'tasmin', 'tas', 'zg500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -37116,7 +37116,7 @@
       </c>
       <c r="H1126" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1126" s="1" t="inlineStr">
@@ -37148,7 +37148,7 @@
       </c>
       <c r="H1127" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1127" s="1" t="inlineStr">
@@ -37158,7 +37158,7 @@
       </c>
       <c r="J1127" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'hfss', 'hfls', 'prc', 'hurs', 'clt', 'huss', 'psl', 'ps', 'pr', 'sfcWind', 'tas', 'rsds', 'rsus']</t>
+          <t>['clt', 'hfls', 'hfss', 'hurs', 'huss', 'pr', 'prc', 'ps', 'psl', 'rlds', 'rlus', 'rsds', 'rsus', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -37180,7 +37180,7 @@
       </c>
       <c r="H1128" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1128" s="1" t="inlineStr">
@@ -37190,7 +37190,7 @@
       </c>
       <c r="J1128" t="inlineStr">
         <is>
-          <t>['ta850', 'ta200', 'ta500', 'snm', 'snw', 'tauv', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'tauu', 'ts', 'rlut', 'hus850', 'evspsblpot', 'clwvi', 'mrfso', 'clivi', 'evspsbl', 'mrro', 'zg200', 'zg500', 'va850', 'vas', 'zmla', 'rsdt', 'rsut', 'mrso', 'mrros', 'prw']</t>
+          <t>['clivi', 'clwvi', 'evspsbl', 'evspsblpot', 'hus850', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H1129" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1129" s="1" t="inlineStr">
@@ -37222,7 +37222,7 @@
       </c>
       <c r="J1129" t="inlineStr">
         <is>
-          <t>['clivi', 'hus850', 'evspsblpot', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'prhmax', 'mrfso', 'prc', 'mrso', 'prw', 'mrros', 'prsn', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'sfcWindmax', 'sfcWind', 'ta850', 'ta200', 'ta500', 'snm', 'tas', 'snw', 'sic', 'vas', 'uas', 'va200', 'va500', 'va850', 'wsgsmax', 'tasmax', 'tasmin', 'zg500', 'zg200', 'zmla', 'tauv', 'ua200', 'ua500', 'ua850', 'tauu', 'ts']</t>
+          <t>['clivi', 'clt', 'clwvi', 'evspsbl', 'evspsblpot', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'zmla']</t>
         </is>
       </c>
     </row>
@@ -37244,7 +37244,7 @@
       </c>
       <c r="H1130" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1130" s="1" t="inlineStr">
@@ -37276,7 +37276,7 @@
       </c>
       <c r="H1131" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1131" s="1" t="inlineStr">
@@ -37286,7 +37286,7 @@
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>['hus850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'vas', 'uas', 'zg200', 'zg500', 'va200', 'va500', 'va850', 'ua850']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -37308,7 +37308,7 @@
       </c>
       <c r="H1132" s="1" t="inlineStr">
         <is>
-          <t>esgf-data1.ceda.ac.uk</t>
+          <t>esgf.ceda.ac.uk</t>
         </is>
       </c>
       <c r="I1132" s="1" t="inlineStr">
@@ -37318,7 +37318,7 @@
       </c>
       <c r="J1132" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'zg500', 'uas', 'va200', 'va500', 'va850', 'hus850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rlds', 'rlus', 'rlut', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'sfcWind', 'rsds', 'rsus', 'rsdt', 'rsut', 'snm', 'snw', 'sic', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'ua850', 'tasmax', 'tasmin', 'tas']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -4590,7 +4590,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts', 'cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss']</t>
+          <t>['cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm', 'snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700']</t>
+          <t>['snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm']</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -33874,7 +33874,7 @@
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>['ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -1710,7 +1710,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['rsdt', 'mrso', 'evspsbl', 'sfcWindmax', 'tasmax', 'uas', 'va500', 'ta500', 'ua850', 'ta200', 'clwvi', 'prw', 'mrro', 'pr', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'sfcWind', 'vas', 'psl', 'ps', 'zg500', 'clivi', 'prc', 'hus850', 'va850', 'ta850', 'prhmax', 'hurs', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'huss', 'snc', 'prsn', 'rsds', 'rsus', 'va200', 'ua200', 'ts', 'rlds', 'hfss', 'tasmin', 'hfls', 'clt', 'mrfso', 'tas', 'ua500', 'snd', 'hus850', 'va850', 'ta850', 'prhmax', 'hurs', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'huss', 'snc', 'prsn', 'rsds', 'rsus', 'va200', 'ua200', 'ts', 'rlds', 'hfss', 'tasmin', 'hfls', 'clt', 'mrfso', 'tas', 'ua500', 'snd']</t>
+          <t>['rsdt', 'mrso', 'evspsbl', 'sfcWindmax', 'tasmax', 'uas', 'va500', 'ta500', 'ua850', 'ta200', 'clwvi', 'prw', 'mrro', 'pr', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'sfcWind', 'vas', 'psl', 'ps', 'zg500', 'clivi', 'prc', 'hus850', 'va850', 'ta850', 'prhmax', 'hurs', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'huss', 'snc', 'prsn', 'rsds', 'rsus', 'va200', 'ua200', 'ts', 'rlds', 'hfss', 'tasmin', 'hfls', 'clt', 'mrfso', 'tas', 'ua500', 'snd']</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'huss', 'hurs', 'ua200', 'rlds', 'tasmin', 'zg500', 'rlus', 'snm', 'va850', 'mrro', 'ua500', 'hfls', 'rsut', 'sfcWind', 'pr', 'vas', 'psl', 'va500', 'ta200', 'clt', 'evspsbl', 'uas', 'snd', 'rsus', 'mrros', 'sfcWindmax', 'rsds', 'tas', 'ua850', 'mrfso', 'tasmax', 'hfls', 'rsut', 'sfcWind', 'pr', 'vas', 'psl', 'va500', 'ta200', 'clt', 'evspsbl', 'uas', 'snd', 'rsus', 'mrros', 'sfcWindmax', 'rsds', 'tas', 'ua850', 'mrfso', 'tasmax']</t>
+          <t>['zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'huss', 'hurs', 'ua200', 'rlds', 'tasmin', 'zg500', 'rlus', 'snm', 'va850', 'mrro', 'ua500', 'hfls', 'rsut', 'sfcWind', 'pr', 'vas', 'psl', 'va500', 'ta200', 'clt', 'evspsbl', 'uas', 'snd', 'rsus', 'mrros', 'sfcWindmax', 'rsds', 'tas', 'ua850', 'mrfso', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['rlut', 'va200', 'ta200', 'ta500', 'hurs', 'sund', 'snc', 'va500', 'rsds', 'rlus', 'rsdt', 'mrro', 'pr', 'hfss', 'sfcWind', 'uas', 'rlds', 'zg500', 'ta850', 'hus850', 'clt', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'tas', 'psl', 'huss', 'zg200', 'vas', 'mrros', 'rsus', 'mrfso', 'tasmin', 'tasmax', 'evspsbl', 'va850', 'ua200', 'snm', 'snw', 'ua850', 'ua500', 'hfls', 'tas', 'psl', 'huss', 'zg200', 'vas', 'mrros', 'rsus', 'mrfso', 'tasmin', 'tasmax', 'evspsbl', 'va850', 'ua200', 'snm', 'snw', 'ua850', 'ua500']</t>
+          <t>['rlut', 'va200', 'ta200', 'ta500', 'hurs', 'sund', 'snc', 'va500', 'rsds', 'rlus', 'rsdt', 'mrro', 'pr', 'hfss', 'sfcWind', 'uas', 'rlds', 'zg500', 'ta850', 'hus850', 'clt', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'tas', 'psl', 'huss', 'zg200', 'vas', 'mrros', 'rsus', 'mrfso', 'tasmin', 'tasmax', 'evspsbl', 'va850', 'ua200', 'snm', 'snw', 'ua850', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'cape', 'evspsbl', 'clt', 'rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts']</t>
+          <t>['rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'cape', 'evspsbl', 'clt', 'rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'uas', 'ua200', 'ua925', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clh', 'clivi', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'ua100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'zg925']</t>
+          <t>['clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'uas', 'ua200', 'ua925', 'ua300', 'ua400', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'uas', 'ua200', 'ua925', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clh', 'clivi', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'ua100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['ua100m', 'va100m']</t>
+          <t>['ua100m', 'va100m', 'ua100m', 'va100m']</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['tas', 'tds', 'pr', 'prc']</t>
+          <t>['tas', 'tds', 'pr', 'prc', 'tas', 'tds', 'pr', 'prc']</t>
         </is>
       </c>
     </row>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['va100m', 'ua100m']</t>
+          <t>['va100m', 'ua100m', 'va100m', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['psl', 'rlds', 'cape', 'psl', 'rlds', 'cape', 'clt', 'rlus', 'rsds', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'ts', 'sund', 'tas']</t>
+          <t>['psl', 'rlds', 'cape', 'clt', 'rlus', 'rsds', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'ts', 'sund', 'tas', 'psl', 'rlds', 'cape', 'clt', 'rlus', 'rsds', 'hfss', 'hurs', 'evspsbl', 'hfls', 'prc', 'ps', 'huss', 'pr', 'rsus', 'sfcWind', 'ts', 'sund', 'tas']</t>
         </is>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['zmla', 'zmla', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus600', 'hus700', 'hus200', 'hus300', 'hus400', 'hus500', 'vas', 'zg100', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'rsdt', 'rsut', 'prw', 'rlut', 'snd', 'snm', 'snc', 'mrros', 'mrso', 'mrfso', 'mrro', 'snw', 'ta100', 'hus850', 'hus925', 'ta200', 'ta300', 'uas', 'va100', 'ts', 'ua100', 'ta850', 'ta925', 'ua850', 'ua925', 'ta400', 'ta500', 'ta600', 'ta700', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
+          <t>['zmla', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus600', 'hus700', 'hus200', 'hus300', 'hus400', 'hus500', 'vas', 'zg100', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'rsdt', 'rsut', 'prw', 'rlut', 'snd', 'snm', 'snc', 'mrros', 'mrso', 'mrfso', 'mrro', 'snw', 'ta100', 'hus850', 'hus925', 'ta200', 'ta300', 'uas', 'va100', 'ts', 'ua100', 'ta850', 'ta925', 'ua850', 'ua925', 'ta400', 'ta500', 'ta600', 'ta700', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zmla', 'clm', 'clwvi', 'clivi', 'cll', 'evspsbl', 'hus100', 'clh', 'hus600', 'hus700', 'hus200', 'hus300', 'hus400', 'hus500', 'vas', 'zg100', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'rsdt', 'rsut', 'prw', 'rlut', 'snd', 'snm', 'snc', 'mrros', 'mrso', 'mrfso', 'mrro', 'snw', 'ta100', 'hus850', 'hus925', 'ta200', 'ta300', 'uas', 'va100', 'ts', 'ua100', 'ta850', 'ta925', 'ua850', 'ua925', 'ta400', 'ta500', 'ta600', 'ta700', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'clh', 'clivi', 'cll', 'clm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'clh', 'clivi', 'cll', 'clm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'zg850', 'zg925', 'zmla', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100']</t>
+          <t>['hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'clh', 'clivi', 'cll', 'clm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'zg850', 'zg925', 'zmla', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'clh', 'clivi', 'cll', 'clm', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'zg850', 'zg925', 'zmla', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100']</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'clt', 'evspsbl', 'hfls', 'hfss']</t>
+          <t>['pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'clt', 'evspsbl', 'hfls', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'evspsbl']</t>
+          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'evspsbl', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['pr', 'prc', 'tas', 'tds']</t>
+          <t>['pr', 'prc', 'tas', 'tds', 'pr', 'prc', 'tas', 'tds']</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['ua100m', 'va100m']</t>
+          <t>['ua100m', 'va100m', 'ua100m', 'va100m']</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['cape', 'clt', 'evspsbl', 'hfls', 'tas', 'ts']</t>
+          <t>['cape', 'clt', 'evspsbl', 'hfls', 'tas', 'ts', 'cape', 'clt', 'evspsbl', 'hfls', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'hus925', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snc', 'snd', 'snm', 'cll', 'clm', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'ua100', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300']</t>
+          <t>['zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'hus925', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snc', 'snd', 'snm', 'cll', 'clm', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'ua100', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'clh', 'clivi', 'hus925', 'mrfso', 'mrro', 'mrros', 'mrso', 'prw', 'rlut', 'rsdt', 'rsut', 'snc', 'snd', 'snm', 'cll', 'clm', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ts', 'ua100', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300']</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700']</t>
+          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'clh', 'clivi', 'cll', 'clm', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'va850', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zmla', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700']</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'clt', 'evspsbl']</t>
+          <t>['zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'clt', 'evspsbl', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'clt', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700']</t>
+          <t>['snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700']</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21126,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'orog']</t>
         </is>
       </c>
     </row>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['ts', 'va500', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'rsds', 'mrro', 'hfss', 'tas', 'ua500', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds', 'ts', 'va500', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'rsds', 'mrro', 'hfss', 'tas', 'ua500', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds']</t>
+          <t>['ts', 'va500', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'rsds', 'mrro', 'hfss', 'tas', 'ua500', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'rsds', 'mrro', 'hfss', 'tas', 'ua500', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -21194,7 +21194,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['ua850', 'ua500', 'rsdt', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'pr', 'ua850', 'ua500', 'rsdt', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'pr']</t>
+          <t>['ua850', 'ua500', 'rsdt', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'pr', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -21226,7 +21226,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500', 'ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500']</t>
+          <t>['ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -21506,7 +21506,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'orog']</t>
         </is>
       </c>
     </row>
@@ -21542,7 +21542,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['tasmax', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'tasmin', 'tas', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va500', 'sfcWind', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'evspsbl', 'rsdt', 'tasmax', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'tasmin', 'tas', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va500', 'sfcWind', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'evspsbl', 'rsdt']</t>
+          <t>['tasmax', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'tasmin', 'tas', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va500', 'sfcWind', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'evspsbl', 'rsdt', 'sfcWindmax', 'tasmin', 'tas', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va500', 'sfcWind', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'evspsbl', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -21574,7 +21574,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['hfls', 'sfcWind', 'mrso', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'sfcWindmax', 'va500', 'rlds', 'ua850', 'ta850', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss', 'hfls', 'sfcWind', 'mrso', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'sfcWindmax', 'va500', 'rlds', 'ua850', 'ta850', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss']</t>
+          <t>['hfls', 'sfcWind', 'mrso', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'sfcWindmax', 'va500', 'rlds', 'ua850', 'ta850', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss', 'ua850', 'ta850', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21606,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['snw', 'rsus', 'mrro', 'hus850', 'ta500', 'va500', 'hfls', 'sfcWindmax', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'huss', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850', 'snw', 'rsus', 'mrro', 'hus850', 'ta500', 'va500', 'hfls', 'sfcWindmax', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'huss', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850']</t>
+          <t>['snw', 'rsus', 'mrro', 'hus850', 'ta500', 'va500', 'hfls', 'sfcWindmax', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'huss', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'huss', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -21646,7 +21646,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -21682,7 +21682,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['mrro', 'hus850', 'mrso', 'hfls', 'evspsbl', 'va850', 'tas', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'rsus', 'rsdt', 'rsut', 'ts', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'ua500', 'ta850', 'rlut', 'snw', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850', 'mrro', 'hus850', 'mrso', 'hfls', 'evspsbl', 'va850', 'tas', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'rsus', 'rsdt', 'rsut', 'ts', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'ua500', 'ta850', 'rlut', 'snw', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850']</t>
+          <t>['mrro', 'hus850', 'mrso', 'hfls', 'evspsbl', 'va850', 'tas', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'rsus', 'rsdt', 'rsut', 'ts', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'ua500', 'ta850', 'rlut', 'snw', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'rsus', 'rsdt', 'rsut', 'ts', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'ua500', 'ta850', 'rlut', 'snw', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -21714,7 +21714,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['tas', 'rlds', 'evspsbl', 'huss', 'hfss', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'ua500', 'rsdt', 'ua850', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'snw', 'va500', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt', 'tas', 'rlds', 'evspsbl', 'huss', 'hfss', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'ua500', 'rsdt', 'ua850', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'snw', 'va500', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt']</t>
+          <t>['tas', 'rlds', 'evspsbl', 'huss', 'hfss', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'ua500', 'rsdt', 'ua850', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'snw', 'va500', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'ua500', 'rsdt', 'ua850', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'snw', 'va500', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt']</t>
         </is>
       </c>
     </row>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'zg500', 'rsds', 'evspsbl', 'tas', 'rsdt', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'clt', 'ua850', 'hfss', 'mrro', 'ua500', 'hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'zg500', 'rsds', 'evspsbl', 'tas', 'rsdt', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'clt', 'ua850', 'hfss', 'mrro', 'ua500']</t>
+          <t>['hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'zg500', 'rsds', 'evspsbl', 'tas', 'rsdt', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'clt', 'ua850', 'hfss', 'mrro', 'ua500', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'clt', 'ua850', 'hfss', 'mrro', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -22190,7 +22190,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'clt', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'zg500', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200']</t>
+          <t>['ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'clt', 'evspsbl', 'hfls', 'hfss', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'zg500', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros']</t>
+          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'zg500', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['mrro', 'tas', 'rsdt', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'hus850', 'mrro', 'tas', 'rsdt', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'hus850']</t>
+          <t>['mrro', 'tas', 'rsdt', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'hus850', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -22334,7 +22334,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['snw', 'rlut', 'rlds', 'rsds', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut', 'snw', 'rlut', 'rlds', 'rsds', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut']</t>
+          <t>['snw', 'rlut', 'rlds', 'rsds', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut', 'ta500', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -22366,7 +22366,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'zg500', 'uas', 'rsut', 'tas', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500', 'tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'zg500', 'uas', 'rsut', 'tas', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500']</t>
+          <t>['tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'zg500', 'uas', 'rsut', 'tas', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500', 'hfss', 'rsdt', 'snw', 'vas', 'zg500', 'uas', 'rsut', 'tas', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22446,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>['rlut', 'mrro', 'tasmin', 'va500', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'huss', 'vas', 'rsdt', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr', 'rlut', 'mrro', 'tasmin', 'va500', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'huss', 'vas', 'rsdt', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr']</t>
+          <t>['rlut', 'mrro', 'tasmin', 'va500', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'huss', 'vas', 'rsdt', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr', 'prsn', 'hfls', 'rsut', 'huss', 'vas', 'rsdt', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22478,7 +22478,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['zg500', 'va500', 'rsut', 'mrso', 'rlut', 'va850', 'hfss', 'rsus', 'ta500', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt', 'zg500', 'va500', 'rsut', 'mrso', 'rlut', 'va850', 'hfss', 'rsus', 'ta500', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt']</t>
+          <t>['zg500', 'va500', 'rsut', 'mrso', 'rlut', 'va850', 'hfss', 'rsus', 'ta500', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt', 'clt', 'rsds', 'psl', 'pr', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['tasmin', 'va500', 'ua850', 'sfcWindmax', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'tasmax', 'snw', 'va850', 'rsdt', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr', 'tasmin', 'va500', 'ua850', 'sfcWindmax', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'tasmax', 'snw', 'va850', 'rsdt', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr']</t>
+          <t>['tasmin', 'va500', 'ua850', 'sfcWindmax', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'tasmax', 'snw', 'va850', 'rsdt', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr', 'mrro', 'hus850', 'clt', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'tasmax', 'snw', 'va850', 'rsdt', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23266,7 +23266,7 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf', 'areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'orog', 'sftlf', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -23334,7 +23334,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'vas', 'uas']</t>
+          <t>['vas', 'uas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>['ua850', 'sfcWind', 'psl', 'uas', 'rsds', 'rsdt', 'huss', 'zg500', 'rlus', 'snw', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'ta500', 'wsgsmax', 'rsus', 'rlut', 'prc', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850', 'ua850', 'sfcWind', 'psl', 'uas', 'rsds', 'rsdt', 'huss', 'zg500', 'rlus', 'snw', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'ta500', 'wsgsmax', 'rsus', 'rlut', 'prc', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850']</t>
+          <t>['ua850', 'sfcWind', 'psl', 'uas', 'rsds', 'rsdt', 'huss', 'zg500', 'rlus', 'snw', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'ta500', 'wsgsmax', 'rsus', 'rlut', 'prc', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'ta500', 'wsgsmax', 'rsus', 'rlut', 'prc', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850']</t>
         </is>
       </c>
     </row>
@@ -23398,7 +23398,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>['sfcWind', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'rlut', 'rlus', 'snw', 'pr', 'uas', 'va850', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500', 'sfcWind', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'rlut', 'rlus', 'snw', 'pr', 'uas', 'va850', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500']</t>
+          <t>['sfcWind', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'rlut', 'rlus', 'snw', 'pr', 'uas', 'va850', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'rlut', 'rlus', 'snw', 'pr', 'uas', 'va850', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -23430,7 +23430,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>['mrso', 'sfcWind', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'va850', 'pr', 'rlds', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'rsus', 'rlus', 'hurs', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro', 'mrso', 'sfcWind', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'va850', 'pr', 'rlds', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'rsus', 'rlus', 'hurs', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro']</t>
+          <t>['mrso', 'sfcWind', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'va850', 'pr', 'rlds', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'rsus', 'rlus', 'hurs', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro', 'ua850', 'va850', 'pr', 'rlds', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'rsus', 'rlus', 'hurs', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -24150,7 +24150,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'orog']</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>['tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'ps', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'va500', 'tasmin', 'mrro', 'vas', 'pr', 'ua500', 'psl', 'rlut', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt', 'tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'ps', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'va500', 'tasmin', 'mrro', 'vas', 'pr', 'ua500', 'psl', 'rlut', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt']</t>
+          <t>['tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'ps', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'va500', 'tasmin', 'mrro', 'vas', 'pr', 'ua500', 'psl', 'rlut', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt', 'ps', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'va500', 'tasmin', 'mrro', 'vas', 'pr', 'ua500', 'psl', 'rlut', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt']</t>
         </is>
       </c>
     </row>
@@ -24218,7 +24218,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>['ta500', 'rlds', 'uas', 'mrro', 'zg500', 'rsut', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua850', 'ta200', 'clt', 'ta500', 'rlds', 'uas', 'mrro', 'zg500', 'rsut', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua850', 'ta200', 'clt']</t>
+          <t>['ta500', 'rlds', 'uas', 'mrro', 'zg500', 'rsut', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua850', 'ta200', 'clt', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua850', 'ta200', 'clt']</t>
         </is>
       </c>
     </row>
@@ -24250,7 +24250,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>['hfls', 'rlut', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'tasmin', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'uas', 'mrso', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds', 'hfls', 'rlut', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'tasmin', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'uas', 'mrso', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds']</t>
+          <t>['hfls', 'rlut', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'tasmin', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'uas', 'mrso', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds', 'tasmin', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'uas', 'mrso', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -24290,7 +24290,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -24326,7 +24326,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>['prsn', 'hfls', 'rsds', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ts', 'psl', 'ta850', 'rlds', 'ua850', 'rlut', 'wsgsmax', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'ta200', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind', 'prsn', 'hfls', 'rsds', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ts', 'psl', 'ta850', 'rlds', 'ua850', 'rlut', 'wsgsmax', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'ta200', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind']</t>
+          <t>['prsn', 'hfls', 'rsds', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ts', 'psl', 'ta850', 'rlds', 'ua850', 'rlut', 'wsgsmax', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'ta200', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'ta200', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -24358,7 +24358,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>['snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'tasmin', 'rlds', 'mrso', 'uas', 'va500', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sfcWindmax', 'clt', 'ta500', 'snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'tasmin', 'rlds', 'mrso', 'uas', 'va500', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sfcWindmax', 'clt', 'ta500']</t>
+          <t>['snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'tasmin', 'rlds', 'mrso', 'uas', 'va500', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sfcWindmax', 'clt', 'ta500', 'rlds', 'mrso', 'uas', 'va500', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sfcWindmax', 'clt', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -24390,7 +24390,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>['tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax', 'tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax']</t>
+          <t>['tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -27202,7 +27202,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>['tas', 'prsn', 'mrro', 'ua500', 'prhmax', 'prc', 'ta500', 'rsds', 'snw', 'wsgsmax', 'va500', 'tasmax', 'sfcWind', 'pr', 'rsus', 'vas', 'hus850', 'rlds', 'huss', 'ta850', 'rlus', 'psl', 'ua850', 'ts', 'uas', 'rlut', 'rsdt', 'va850', 'tasmin', 'zg500', 'snd', 'hfss', 'snc', 'ta200', 'hfls', 'evspsbl', 'hurs', 'sund', 'ps', 'clt', 'sfcWindmax', 'rsut', 'mrso', 'tas', 'prsn', 'mrro', 'ua500', 'prhmax', 'prc', 'ta500', 'rsds', 'snw', 'wsgsmax', 'va500', 'tasmax', 'sfcWind', 'pr', 'rsus', 'vas', 'hus850', 'rlds', 'huss', 'ta850', 'rlus', 'psl', 'ua850', 'ts', 'uas', 'rlut', 'rsdt', 'va850', 'tasmin', 'zg500', 'snd', 'hfss', 'snc', 'ta200', 'hfls', 'evspsbl', 'hurs', 'sund', 'ps', 'clt', 'sfcWindmax', 'rsut', 'mrso']</t>
+          <t>['tas', 'prsn', 'mrro', 'ua500', 'prhmax', 'prc', 'ta500', 'rsds', 'snw', 'wsgsmax', 'va500', 'tasmax', 'sfcWind', 'pr', 'rsus', 'vas', 'hus850', 'rlds', 'huss', 'ta850', 'rlus', 'psl', 'ua850', 'ts', 'uas', 'rlut', 'rsdt', 'va850', 'tasmin', 'zg500', 'snd', 'hfss', 'snc', 'ta200', 'hfls', 'evspsbl', 'hurs', 'sund', 'ps', 'clt', 'sfcWindmax', 'rsut', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -27234,7 +27234,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>['sftlf', 'areacella', 'orog', 'sftlf', 'areacella', 'orog']</t>
+          <t>['sftlf', 'areacella', 'orog']</t>
         </is>
       </c>
     </row>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>['rsus', 'hfls', 'rsdt', 'rlut', 'huss', 'vas', 'pr', 'hurs', 'snw', 'rsut', 'zg500', 'va850', 'sund', 'ta200', 'ta850', 'clt', 'ua850', 'snd', 'hus850', 'rlds', 'psl', 'hfss', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrso', 'ua500', 'sfcWindmax', 'rsds', 'tasmax', 'tasmin', 'evspsbl', 'tas', 'mrro', 'sfcWind', 'rsus', 'hfls', 'rsdt', 'rlut', 'huss', 'vas', 'pr', 'hurs', 'snw', 'rsut', 'zg500', 'va850', 'sund', 'ta200', 'ta850', 'clt', 'ua850', 'snd', 'hus850', 'rlds', 'psl', 'hfss', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrso', 'ua500', 'sfcWindmax', 'rsds', 'tasmax', 'tasmin', 'evspsbl', 'tas', 'mrro', 'sfcWind']</t>
+          <t>['rsus', 'hfls', 'rsdt', 'rlut', 'huss', 'vas', 'pr', 'hurs', 'snw', 'rsut', 'zg500', 'va850', 'sund', 'ta200', 'ta850', 'clt', 'ua850', 'snd', 'hus850', 'rlds', 'psl', 'hfss', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrso', 'ua500', 'sfcWindmax', 'rsds', 'tasmax', 'tasmin', 'evspsbl', 'tas', 'mrro', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -27298,7 +27298,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>['tasmax', 'vas', 'snw', 'tasmin', 'rsdt', 'rlut', 'psl', 'huss', 'evspsbl', 'rsut', 'hfls', 'sfcWind', 'hurs', 'ta200', 'rsds', 'snc', 'zg500', 'sund', 'ua500', 'mrro', 'rsus', 'rlus', 'uas', 'tas', 'va850', 'ta850', 'sfcWindmax', 'hfss', 'ua850', 'hus850', 'clt', 'snd', 'va500', 'ta500', 'mrso', 'pr', 'rlds', 'tasmax', 'vas', 'snw', 'tasmin', 'rsdt', 'rlut', 'psl', 'huss', 'evspsbl', 'rsut', 'hfls', 'sfcWind', 'hurs', 'ta200', 'rsds', 'snc', 'zg500', 'sund', 'ua500', 'mrro', 'rsus', 'rlus', 'uas', 'tas', 'va850', 'ta850', 'sfcWindmax', 'hfss', 'ua850', 'hus850', 'clt', 'snd', 'va500', 'ta500', 'mrso', 'pr', 'rlds']</t>
+          <t>['tasmax', 'vas', 'snw', 'tasmin', 'rsdt', 'rlut', 'psl', 'huss', 'evspsbl', 'rsut', 'hfls', 'sfcWind', 'hurs', 'ta200', 'rsds', 'snc', 'zg500', 'sund', 'ua500', 'mrro', 'rsus', 'rlus', 'uas', 'tas', 'va850', 'ta850', 'sfcWindmax', 'hfss', 'ua850', 'hus850', 'clt', 'snd', 'va500', 'ta500', 'mrso', 'pr', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -27682,7 +27682,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>['rlds', 'rsdt', 'ua850', 'zg500', 'ps', 'prhmax', 'snc', 'prsn', 'uas', 'sund', 'ta200', 'mrso', 'snw', 'rsus', 'rsut', 'vas', 'ta850', 'tasmin', 'hurs', 'tas', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'psl', 'ts', 'hfss', 'hfls', 'rlut', 'va500', 'pr', 'wsgsmax', 'huss', 'tasmax', 'prc', 'hus850', 'rlus', 'va850', 'mrro', 'clt', 'snd', 'evspsbl', 'sfcWind', 'rlds', 'rsdt', 'ua850', 'zg500', 'ps', 'prhmax', 'snc', 'prsn', 'uas', 'sund', 'ta200', 'mrso', 'snw', 'rsus', 'rsut', 'vas', 'ta850', 'tasmin', 'hurs', 'tas', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'psl', 'ts', 'hfss', 'hfls', 'rlut', 'va500', 'pr', 'wsgsmax', 'huss', 'tasmax', 'prc', 'hus850', 'rlus', 'va850', 'mrro', 'clt', 'snd', 'evspsbl', 'sfcWind']</t>
+          <t>['rlds', 'rsdt', 'ua850', 'zg500', 'ps', 'prhmax', 'snc', 'prsn', 'uas', 'sund', 'ta200', 'mrso', 'snw', 'rsus', 'rsut', 'vas', 'ta850', 'tasmin', 'hurs', 'tas', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'psl', 'ts', 'hfss', 'hfls', 'rlut', 'va500', 'pr', 'wsgsmax', 'huss', 'tasmax', 'prc', 'hus850', 'rlus', 'va850', 'mrro', 'clt', 'snd', 'evspsbl', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -27714,7 +27714,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>['orog', 'areacella', 'sftlf', 'orog', 'areacella', 'sftlf']</t>
+          <t>['orog', 'areacella', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -27746,7 +27746,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>['hfss', 'rsds', 'tasmax', 'mrso', 'va850', 'rsus', 'hurs', 'clt', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'snd', 'hfls', 'evspsbl', 'ta500', 'snc', 'rsdt', 'ta200', 'rlds', 'psl', 'rlus', 'sfcWind', 'mrro', 'tasmin', 'rsut', 'tas', 'ua850', 'sfcWindmax', 'snw', 'pr', 'vas', 'zg500', 'ua500', 'huss', 'va500', 'hfss', 'rsds', 'tasmax', 'mrso', 'va850', 'rsus', 'hurs', 'clt', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'snd', 'hfls', 'evspsbl', 'ta500', 'snc', 'rsdt', 'ta200', 'rlds', 'psl', 'rlus', 'sfcWind', 'mrro', 'tasmin', 'rsut', 'tas', 'ua850', 'sfcWindmax', 'snw', 'pr', 'vas', 'zg500', 'ua500', 'huss', 'va500']</t>
+          <t>['hfss', 'rsds', 'tasmax', 'mrso', 'va850', 'rsus', 'hurs', 'clt', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'snd', 'hfls', 'evspsbl', 'ta500', 'snc', 'rsdt', 'ta200', 'rlds', 'psl', 'rlus', 'sfcWind', 'mrro', 'tasmin', 'rsut', 'tas', 'ua850', 'sfcWindmax', 'snw', 'pr', 'vas', 'zg500', 'ua500', 'huss', 'va500']</t>
         </is>
       </c>
     </row>
@@ -27778,7 +27778,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>['ua500', 'uas', 'evspsbl', 'huss', 'mrro', 'sfcWindmax', 'rsut', 'rsus', 'vas', 'zg500', 'snw', 'ua850', 'rlds', 'sfcWind', 'hurs', 'tas', 'snd', 'ta850', 'ta500', 'clt', 'rsds', 'hus850', 'psl', 'hfls', 'va500', 'snc', 'sund', 'tasmin', 'mrso', 'va850', 'tasmax', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'pr', 'ua500', 'uas', 'evspsbl', 'huss', 'mrro', 'sfcWindmax', 'rsut', 'rsus', 'vas', 'zg500', 'snw', 'ua850', 'rlds', 'sfcWind', 'hurs', 'tas', 'snd', 'ta850', 'ta500', 'clt', 'rsds', 'hus850', 'psl', 'hfls', 'va500', 'snc', 'sund', 'tasmin', 'mrso', 'va850', 'tasmax', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'pr']</t>
+          <t>['ua500', 'uas', 'evspsbl', 'huss', 'mrro', 'sfcWindmax', 'rsut', 'rsus', 'vas', 'zg500', 'snw', 'ua850', 'rlds', 'sfcWind', 'hurs', 'tas', 'snd', 'ta850', 'ta500', 'clt', 'rsds', 'hus850', 'psl', 'hfls', 'va500', 'snc', 'sund', 'tasmin', 'mrso', 'va850', 'tasmax', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'pr']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'mrro', 'ps', 'pr', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'ua500', 'ua850', 'ts', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rsds', 'rlds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850', 'ua200', 'ua200']</t>
+          <t>['prhmax', 'mrso', 'prc', 'prw', 'mrros', 'psl', 'mrro', 'ps', 'pr', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'uas', 'va200', 'va500', 'ua500', 'ua850', 'ts', 'snm', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rsds', 'rlds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'wsgsmax', 'zmla', 'vas', 'zg200', 'zg500', 'va850', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['rsdt', 'mrso', 'evspsbl', 'sfcWindmax', 'tasmax', 'uas', 'va500', 'ta500', 'ua850', 'ta200', 'clwvi', 'prw', 'mrro', 'pr', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'sfcWind', 'vas', 'psl', 'ps', 'zg500', 'clivi', 'prc', 'hus850', 'va850', 'ta850', 'prhmax', 'hurs', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'huss', 'snc', 'prsn', 'rsds', 'rsus', 'va200', 'ua200', 'ts', 'rlds', 'hfss', 'tasmin', 'hfls', 'clt', 'mrfso', 'tas', 'ua500', 'snd', 'rsdt', 'mrso', 'evspsbl', 'sfcWindmax', 'tasmax', 'uas', 'va500', 'ta500', 'ua850', 'ta200', 'clwvi', 'prw', 'mrro', 'pr', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'sfcWind', 'vas', 'psl', 'ps', 'zg500', 'clivi', 'prc', 'hus850', 'va850', 'ta850', 'prhmax', 'hurs', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'huss', 'snc', 'prsn', 'rsds', 'rsus', 'va200', 'ua200', 'ts', 'rlds', 'hfss', 'tasmin', 'hfls', 'clt', 'mrfso', 'tas', 'ua500', 'snd']</t>
+          <t>['rsdt', 'mrso', 'evspsbl', 'sfcWindmax', 'tasmax', 'uas', 'va500', 'ta500', 'ua850', 'ta200', 'clwvi', 'prw', 'mrro', 'pr', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'sfcWind', 'vas', 'psl', 'ps', 'zg500', 'clivi', 'prc', 'hus850', 'va850', 'ta850', 'prhmax', 'hurs', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'huss', 'snc', 'prsn', 'rsds', 'rsus', 'va200', 'ua200', 'ts', 'rlds', 'hfss', 'tasmin', 'hfls', 'clt', 'mrfso', 'tas', 'ua500', 'snd']</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'huss', 'hurs', 'ua200', 'rlds', 'tasmin', 'zg500', 'rlus', 'snm', 'va850', 'mrro', 'ua500', 'hfls', 'rsut', 'sfcWind', 'pr', 'vas', 'psl', 'va500', 'ta200', 'clt', 'evspsbl', 'uas', 'snd', 'rsus', 'mrros', 'sfcWindmax', 'rsds', 'tas', 'ua850', 'mrfso', 'tasmax', 'zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'huss', 'hurs', 'ua200', 'rlds', 'tasmin', 'zg500', 'rlus', 'snm', 'va850', 'mrro', 'ua500', 'hfls', 'rsut', 'sfcWind', 'pr', 'vas', 'psl', 'va500', 'ta200', 'clt', 'evspsbl', 'uas', 'snd', 'rsus', 'mrros', 'sfcWindmax', 'rsds', 'tas', 'ua850', 'mrfso', 'tasmax']</t>
+          <t>['zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'huss', 'hurs', 'ua200', 'rlds', 'tasmin', 'zg500', 'rlus', 'snm', 'va850', 'mrro', 'ua500', 'hfls', 'rsut', 'sfcWind', 'pr', 'vas', 'psl', 'va500', 'ta200', 'clt', 'evspsbl', 'uas', 'snd', 'rsus', 'mrros', 'sfcWindmax', 'rsds', 'tas', 'ua850', 'mrfso', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['rlut', 'va200', 'ta200', 'ta500', 'hurs', 'sund', 'snc', 'va500', 'rsds', 'rlus', 'rsdt', 'mrro', 'pr', 'hfss', 'sfcWind', 'uas', 'rlds', 'zg500', 'ta850', 'hus850', 'clt', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'tas', 'psl', 'huss', 'zg200', 'vas', 'mrros', 'rsus', 'mrfso', 'tasmin', 'tasmax', 'evspsbl', 'va850', 'ua200', 'snm', 'snw', 'ua850', 'ua500', 'rlut', 'va200', 'ta200', 'ta500', 'hurs', 'sund', 'snc', 'va500', 'rsds', 'rlus', 'rsdt', 'mrro', 'pr', 'hfss', 'sfcWind', 'uas', 'rlds', 'zg500', 'ta850', 'hus850', 'clt', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'tas', 'psl', 'huss', 'zg200', 'vas', 'mrros', 'rsus', 'mrfso', 'tasmin', 'tasmax', 'evspsbl', 'va850', 'ua200', 'snm', 'snw', 'ua850', 'ua500']</t>
+          <t>['rlut', 'va200', 'ta200', 'ta500', 'hurs', 'sund', 'snc', 'va500', 'rsds', 'rlus', 'rsdt', 'mrro', 'pr', 'hfss', 'sfcWind', 'uas', 'rlds', 'zg500', 'ta850', 'hus850', 'clt', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'tas', 'psl', 'huss', 'zg200', 'vas', 'mrros', 'rsus', 'mrfso', 'tasmin', 'tasmax', 'evspsbl', 'va850', 'ua200', 'snm', 'snw', 'ua850', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss', 'rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss']</t>
+          <t>['rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss']</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500', 'rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500']</t>
+          <t>['rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss', 'rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss']</t>
+          <t>['rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd', 'rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd']</t>
+          <t>['rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls', 'uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls']</t>
+          <t>['uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr', 'prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape', 'hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape']</t>
+          <t>['hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape']</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925']</t>
+          <t>['clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600', 'mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500']</t>
+          <t>['tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500']</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500']</t>
+          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500']</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['tds', 'tas', 'prc', 'pr', 'tds', 'tas', 'prc', 'pr']</t>
+          <t>['tds', 'tas', 'prc', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps']</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925']</t>
+          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700']</t>
+          <t>['rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700']</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr', 'prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts']</t>
+          <t>['rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925']</t>
+          <t>['hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925']</t>
+          <t>['hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925']</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['va100m', 'prc', 'tas', 'tds', 'ua100m', 'pr', 'va100m', 'prc', 'tas', 'tds', 'ua100m', 'pr']</t>
+          <t>['va100m', 'prc', 'tas', 'tds', 'ua100m', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts']</t>
+          <t>['cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm']</t>
+          <t>['snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm']</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros']</t>
+          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600']</t>
+          <t>['ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600']</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m', 'prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m']</t>
+          <t>['prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts']</t>
+          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925', 'zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925']</t>
+          <t>['zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200']</t>
+          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600']</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr', 'va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr']</t>
+          <t>['va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr']</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax', 'zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax']</t>
+          <t>['zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925']</t>
+          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['pr', 'prc', 'tds', 'tas', 'pr', 'prc', 'tds', 'tas']</t>
+          <t>['pr', 'prc', 'tds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr', 'hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr']</t>
+          <t>['hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700', 'rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700']</t>
+          <t>['rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850']</t>
+          <t>['tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850']</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd']</t>
+          <t>['rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd']</t>
+          <t>['uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr', 'prc', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'zg700', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'zg700', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300']</t>
+          <t>['ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'zg700', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300']</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'clivi', 'clt', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'clivi', 'clt', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'clivi', 'clt', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl']</t>
+          <t>['mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl']</t>
         </is>
       </c>
     </row>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr', 'prc', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100', 'sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100']</t>
+          <t>['sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100']</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925', 'hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925']</t>
+          <t>['hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['hus400', 'hus500', 'hus600', 'hus700', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'ua925', 'va400', 'va500', 'va600', 'va700', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va925', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'pr', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'hus400', 'hus500', 'hus600', 'hus700', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'ua925', 'va400', 'va500', 'va600', 'va700', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va925', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'pr', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850']</t>
+          <t>['hus400', 'hus500', 'hus600', 'hus700', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'ua925', 'va400', 'va500', 'va600', 'va700', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va925', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'pr', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['tds', 'prc', 'tas', 'pr', 'tds', 'prc', 'tas', 'pr']</t>
+          <t>['tds', 'prc', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr']</t>
+          <t>['tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snd', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'ta850', 'ta925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'snm', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snd', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'ta850', 'ta925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ts']</t>
+          <t>['snm', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snd', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'ta850', 'ta925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ts']</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hfss', 'clwvi', 'hfls', 'clm', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'zmla', 'zg925', 'zg600', 'zg700', 'zg850', 'clh', 'cll', 'clivi', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hfss', 'clwvi', 'hfls', 'clm', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'zmla', 'zg925', 'zg600', 'zg700', 'zg850', 'clh', 'cll', 'clivi', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925']</t>
+          <t>['sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hfss', 'clwvi', 'hfls', 'clm', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'zmla', 'zg925', 'zg600', 'zg700', 'zg850', 'clh', 'cll', 'clivi', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925']</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus925', 'psl', 'mrro', 'pr', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hfss', 'hfls', 'evspsbl', 'clt', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus925', 'psl', 'mrro', 'pr', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hfss', 'hfls', 'evspsbl', 'clt', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200']</t>
+          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus925', 'psl', 'mrro', 'pr', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hfss', 'hfls', 'evspsbl', 'clt', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['tas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'mrfso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'clt', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua850', 'ua925', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'tas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'mrfso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'clt', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua850', 'ua925', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
+          <t>['tas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'mrfso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'clt', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua850', 'ua925', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['ps', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'ts', 'ps', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'ts']</t>
+          <t>['ps', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'pr']</t>
+          <t>['sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas']</t>
+          <t>['pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas']</t>
         </is>
       </c>
     </row>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['rlds', 'tas', 'hurs', 'sfcWind', 'hfls', 'rsus', 'pr', 'rsds', 'ps', 'rlus', 'hfss', 'huss', 'psl', 'rlds', 'tas', 'hurs', 'sfcWind', 'hfls', 'rsus', 'pr', 'rsds', 'ps', 'rlus', 'hfss', 'huss', 'psl']</t>
+          <t>['rlds', 'tas', 'hurs', 'sfcWind', 'hfls', 'rsus', 'pr', 'rsds', 'ps', 'rlus', 'hfss', 'huss', 'psl']</t>
         </is>
       </c>
     </row>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['clwvi', 'rlds', 'clivi', 'tasmin', 'va850', 'prc', 'sic', 'hurs', 'hus850', 'va500', 'rsus', 'mrros', 'ta850', 'hfls', 'cll', 'ua200', 'rlut', 'sfcWind', 'uas', 'tauv', 'snc', 'evspsbl', 'rlus', 'clm', 'huss', 'ts', 'hfss', 'psl', 'prhmax', 'clt', 'clh', 'vas', 'ua850', 'va200', 'tasmax', 'snm', 'rsut', 'ua500', 'ta500', 'rsdt', 'mrro', 'pr', 'tauu', 'mrso', 'prw', 'sfcWindmax', 'rsds', 'ps', 'ta200', 'tas', 'prsn', 'clwvi', 'rlds', 'clivi', 'tasmin', 'va850', 'prc', 'sic', 'hurs', 'hus850', 'va500', 'rsus', 'mrros', 'ta850', 'hfls', 'cll', 'ua200', 'rlut', 'sfcWind', 'uas', 'tauv', 'snc', 'evspsbl', 'rlus', 'clm', 'huss', 'ts', 'hfss', 'psl', 'prhmax', 'clt', 'clh', 'vas', 'ua850', 'va200', 'tasmax', 'snm', 'rsut', 'ua500', 'ta500', 'rsdt', 'mrro', 'pr', 'tauu', 'mrso', 'prw', 'sfcWindmax', 'rsds', 'ps', 'ta200', 'tas', 'prsn']</t>
+          <t>['clwvi', 'rlds', 'clivi', 'tasmin', 'va850', 'prc', 'sic', 'hurs', 'hus850', 'va500', 'rsus', 'mrros', 'ta850', 'hfls', 'cll', 'ua200', 'rlut', 'sfcWind', 'uas', 'tauv', 'snc', 'evspsbl', 'rlus', 'clm', 'huss', 'ts', 'hfss', 'psl', 'prhmax', 'clt', 'clh', 'vas', 'ua850', 'va200', 'tasmax', 'snm', 'rsut', 'ua500', 'ta500', 'rsdt', 'mrro', 'pr', 'tauu', 'mrso', 'prw', 'sfcWindmax', 'rsds', 'ps', 'ta200', 'tas', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -10994,7 +10994,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['ta850', 'va200', 'rlds', 'sfcWind', 'ua500', 'snc', 'hurs', 'hus850', 'tas', 'ta200', 'hfls', 'rsdt', 'pr', 'vas', 'rlus', 'huss', 'va500', 'clt', 'ua200', 'hfss', 'psl', 'va850', 'snm', 'rsut', 'tasmin', 'rlut', 'uas', 'sic', 'ua850', 'rsus', 'mrro', 'tasmax', 'mrso', 'sfcWindmax', 'rsds', 'ta500', 'evspsbl', 'mrros', 'ta850', 'va200', 'rlds', 'sfcWind', 'ua500', 'snc', 'hurs', 'hus850', 'tas', 'ta200', 'hfls', 'rsdt', 'pr', 'vas', 'rlus', 'huss', 'va500', 'clt', 'ua200', 'hfss', 'psl', 'va850', 'snm', 'rsut', 'tasmin', 'rlut', 'uas', 'sic', 'ua850', 'rsus', 'mrro', 'tasmax', 'mrso', 'sfcWindmax', 'rsds', 'ta500', 'evspsbl', 'mrros']</t>
+          <t>['ta850', 'va200', 'rlds', 'sfcWind', 'ua500', 'snc', 'hurs', 'hus850', 'tas', 'ta200', 'hfls', 'rsdt', 'pr', 'vas', 'rlus', 'huss', 'va500', 'clt', 'ua200', 'hfss', 'psl', 'va850', 'snm', 'rsut', 'tasmin', 'rlut', 'uas', 'sic', 'ua850', 'rsus', 'mrro', 'tasmax', 'mrso', 'sfcWindmax', 'rsds', 'ta500', 'evspsbl', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['hurs', 'vas', 'clt', 'evspsbl', 'psl', 'ua850', 'hfls', 'rsdt', 'hus850', 'pr', 'rlds', 'va200', 'snm', 'ua500', 'ta200', 'hfss', 'rlut', 'va850', 'tasmax', 'rsut', 'snc', 'rlus', 'huss', 'va500', 'sic', 'ua200', 'sfcWindmax', 'rsus', 'tasmin', 'mrros', 'tas', 'sfcWind', 'ta850', 'mrso', 'rsds', 'uas', 'ta500', 'mrro', 'hurs', 'vas', 'clt', 'evspsbl', 'psl', 'ua850', 'hfls', 'rsdt', 'hus850', 'pr', 'rlds', 'va200', 'snm', 'ua500', 'ta200', 'hfss', 'rlut', 'va850', 'tasmax', 'rsut', 'snc', 'rlus', 'huss', 'va500', 'sic', 'ua200', 'sfcWindmax', 'rsus', 'tasmin', 'mrros', 'tas', 'sfcWind', 'ta850', 'mrso', 'rsds', 'uas', 'ta500', 'mrro']</t>
+          <t>['hurs', 'vas', 'clt', 'evspsbl', 'psl', 'ua850', 'hfls', 'rsdt', 'hus850', 'pr', 'rlds', 'va200', 'snm', 'ua500', 'ta200', 'hfss', 'rlut', 'va850', 'tasmax', 'rsut', 'snc', 'rlus', 'huss', 'va500', 'sic', 'ua200', 'sfcWindmax', 'rsus', 'tasmin', 'mrros', 'tas', 'sfcWind', 'ta850', 'mrso', 'rsds', 'uas', 'ta500', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11286,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['rsds', 'tas', 'ps', 'pr', 'rlus', 'psl', 'rsus', 'huss', 'hfls', 'hurs', 'rlds', 'sfcWind', 'hfss', 'rsds', 'tas', 'ps', 'pr', 'rlus', 'psl', 'rsus', 'huss', 'hfls', 'hurs', 'rlds', 'sfcWind', 'hfss']</t>
+          <t>['rsds', 'tas', 'ps', 'pr', 'rlus', 'psl', 'rsus', 'huss', 'hfls', 'hurs', 'rlds', 'sfcWind', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['clt', 'sfcWindmax', 'rlds', 'tasmax', 'clh', 'sfcWind', 'ua200', 'vas', 'clm', 'va500', 'snm', 'psl', 'ps', 'hurs', 'prhmax', 'clivi', 'rsus', 'ta500', 'ts', 'hfls', 'rsdt', 'mrros', 'tauv', 'prc', 'huss', 'rlus', 'ua500', 'pr', 'hfss', 'hus850', 'va200', 'cll', 'snc', 'ua850', 'tasmin', 'rsut', 'sic', 'rlut', 'va850', 'mrro', 'ta850', 'mrso', 'ta200', 'clwvi', 'tauu', 'rsds', 'tas', 'evspsbl', 'uas', 'prw', 'prsn', 'clt', 'sfcWindmax', 'rlds', 'tasmax', 'clh', 'sfcWind', 'ua200', 'vas', 'clm', 'va500', 'snm', 'psl', 'ps', 'hurs', 'prhmax', 'clivi', 'rsus', 'ta500', 'ts', 'hfls', 'rsdt', 'mrros', 'tauv', 'prc', 'huss', 'rlus', 'ua500', 'pr', 'hfss', 'hus850', 'va200', 'cll', 'snc', 'ua850', 'tasmin', 'rsut', 'sic', 'rlut', 'va850', 'mrro', 'ta850', 'mrso', 'ta200', 'clwvi', 'tauu', 'rsds', 'tas', 'evspsbl', 'uas', 'prw', 'prsn']</t>
+          <t>['clt', 'sfcWindmax', 'rlds', 'tasmax', 'clh', 'sfcWind', 'ua200', 'vas', 'clm', 'va500', 'snm', 'psl', 'ps', 'hurs', 'prhmax', 'clivi', 'rsus', 'ta500', 'ts', 'hfls', 'rsdt', 'mrros', 'tauv', 'prc', 'huss', 'rlus', 'ua500', 'pr', 'hfss', 'hus850', 'va200', 'cll', 'snc', 'ua850', 'tasmin', 'rsut', 'sic', 'rlut', 'va850', 'mrro', 'ta850', 'mrso', 'ta200', 'clwvi', 'tauu', 'rsds', 'tas', 'evspsbl', 'uas', 'prw', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'psl', 'ua850', 'rlds', 'vas', 'clt', 'ua500', 'hurs', 'va200', 'rsus', 'tasmax', 'rsut', 'hfls', 'snm', 'rlut', 'sfcWind', 'ta200', 'evspsbl', 'rlus', 'huss', 'hfss', 'va850', 'ua200', 'pr', 'sic', 'snc', 'va500', 'rsdt', 'mrro', 'mrros', 'tasmin', 'mrso', 'ta850', 'tas', 'rsds', 'hus850', 'uas', 'ta500', 'sfcWindmax', 'psl', 'ua850', 'rlds', 'vas', 'clt', 'ua500', 'hurs', 'va200', 'rsus', 'tasmax', 'rsut', 'hfls', 'snm', 'rlut', 'sfcWind', 'ta200', 'evspsbl', 'rlus', 'huss', 'hfss', 'va850', 'ua200', 'pr', 'sic', 'snc', 'va500', 'rsdt', 'mrro', 'mrros', 'tasmin', 'mrso', 'ta850', 'tas', 'rsds', 'hus850', 'uas', 'ta500']</t>
+          <t>['sfcWindmax', 'psl', 'ua850', 'rlds', 'vas', 'clt', 'ua500', 'hurs', 'va200', 'rsus', 'tasmax', 'rsut', 'hfls', 'snm', 'rlut', 'sfcWind', 'ta200', 'evspsbl', 'rlus', 'huss', 'hfss', 'va850', 'ua200', 'pr', 'sic', 'snc', 'va500', 'rsdt', 'mrro', 'mrros', 'tasmin', 'mrso', 'ta850', 'tas', 'rsds', 'hus850', 'uas', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['hurs', 'ua500', 'rsdt', 'va200', 'hfls', 'rlds', 'sic', 'ua850', 'rlut', 'snm', 'evspsbl', 'psl', 'ua200', 'sfcWind', 'tasmin', 'vas', 'va500', 'rsut', 'clt', 'rlus', 'huss', 'sfcWindmax', 'hus850', 'va850', 'hfss', 'rsus', 'tasmax', 'snc', 'uas', 'ta500', 'mrros', 'mrso', 'ta850', 'rsds', 'pr', 'tas', 'mrro', 'ta200', 'hurs', 'ua500', 'rsdt', 'va200', 'hfls', 'rlds', 'sic', 'ua850', 'rlut', 'snm', 'evspsbl', 'psl', 'ua200', 'sfcWind', 'tasmin', 'vas', 'va500', 'rsut', 'clt', 'rlus', 'huss', 'sfcWindmax', 'hus850', 'va850', 'hfss', 'rsus', 'tasmax', 'snc', 'uas', 'ta500', 'mrros', 'mrso', 'ta850', 'rsds', 'pr', 'tas', 'mrro', 'ta200']</t>
+          <t>['hurs', 'ua500', 'rsdt', 'va200', 'hfls', 'rlds', 'sic', 'ua850', 'rlut', 'snm', 'evspsbl', 'psl', 'ua200', 'sfcWind', 'tasmin', 'vas', 'va500', 'rsut', 'clt', 'rlus', 'huss', 'sfcWindmax', 'hus850', 'va850', 'hfss', 'rsus', 'tasmax', 'snc', 'uas', 'ta500', 'mrros', 'mrso', 'ta850', 'rsds', 'pr', 'tas', 'mrro', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['mrso', 'mrso']</t>
+          <t>['mrso']</t>
         </is>
       </c>
     </row>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['prhmax', 'prhmax']</t>
+          <t>['prhmax']</t>
         </is>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['snd', 'snd']</t>
+          <t>['snd']</t>
         </is>
       </c>
     </row>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -12182,7 +12182,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['mrso', 'mrso']</t>
+          <t>['mrso']</t>
         </is>
       </c>
     </row>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['snd', 'snd']</t>
+          <t>['snd']</t>
         </is>
       </c>
     </row>
@@ -12266,7 +12266,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['mrso', 'mrso']</t>
+          <t>['mrso']</t>
         </is>
       </c>
     </row>
@@ -12410,7 +12410,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['snd', 'snd']</t>
+          <t>['snd']</t>
         </is>
       </c>
     </row>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -12510,7 +12510,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['pr', 'hfss', 'hfls', 'rsus', 'rlds', 'rlus', 'pr', 'hfss', 'hfls', 'rsus', 'rlds', 'rlus', 'rsds']</t>
+          <t>['pr', 'hfss', 'hfls', 'rsus', 'rlds', 'rlus', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['mrso', 'prw', 'rsds', 'tasmax', 'ta850', 'mrros', 'ta500', 'rlds', 'ps', 'ua850', 'prc', 'hurs', 'sic', 'va200', 'hfls', 'rsdt', 'snc', 'cll', 'ua500', 'clm', 'clivi', 'huss', 'tauv', 'vas', 'va850', 'hfss', 'clh', 'clt', 'va500', 'evspsbl', 'rsut', 'snm', 'ua200', 'pr', 'tas', 'sfcWind', 'prsn', 'tasmin', 'mrro', 'clwvi', 'tauu', 'sfcWindmax', 'rlus', 'psl', 'rsus', 'hus850', 'rlut', 'uas', 'ts', 'ta200', 'mrso', 'prw', 'rsds', 'tasmax', 'ta850', 'mrros', 'ta500', 'rlds', 'ps', 'ua850', 'prc', 'hurs', 'sic', 'va200', 'hfls', 'rsdt', 'snc', 'cll', 'ua500', 'clm', 'clivi', 'huss', 'tauv', 'vas', 'va850', 'hfss', 'clh', 'clt', 'va500', 'evspsbl', 'rsut', 'snm', 'ua200', 'pr', 'tas', 'sfcWind', 'prsn', 'tasmin', 'mrro', 'clwvi', 'tauu', 'sfcWindmax', 'rlus', 'psl', 'rsus', 'hus850', 'rlut', 'uas', 'ts', 'ta200']</t>
+          <t>['mrso', 'prw', 'rsds', 'tasmax', 'ta850', 'mrros', 'ta500', 'rlds', 'ps', 'ua850', 'prc', 'hurs', 'sic', 'va200', 'hfls', 'rsdt', 'snc', 'cll', 'ua500', 'clm', 'clivi', 'huss', 'tauv', 'vas', 'va850', 'hfss', 'clh', 'clt', 'va500', 'evspsbl', 'rsut', 'snm', 'ua200', 'pr', 'tas', 'sfcWind', 'prsn', 'tasmin', 'mrro', 'clwvi', 'tauu', 'sfcWindmax', 'rlus', 'psl', 'rsus', 'hus850', 'rlut', 'uas', 'ts', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -12630,7 +12630,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['prhmax', 'prhmax']</t>
+          <t>['prhmax']</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['rsds', 'evspsbl', 'ta200', 'rlds', 'va500', 'tasmin', 'ua200', 'hurs', 'va850', 'snc', 'hfls', 'rsdt', 'hus850', 'sic', 'va200', 'clt', 'sfcWindmax', 'vas', 'ua500', 'hfss', 'tasmax', 'psl', 'snm', 'rsut', 'ua850', 'tas', 'ta500', 'mrro', 'uas', 'ta850', 'mrso', 'rlus', 'sfcWind', 'huss', 'pr', 'rsus', 'rlut', 'mrros', 'rsds', 'evspsbl', 'ta200', 'rlds', 'va500', 'tasmin', 'ua200', 'hurs', 'va850', 'snc', 'hfls', 'rsdt', 'hus850', 'sic', 'va200', 'clt', 'sfcWindmax', 'vas', 'ua500', 'hfss', 'tasmax', 'psl', 'snm', 'rsut', 'ua850', 'tas', 'ta500', 'mrro', 'uas', 'ta850', 'mrso', 'rlus', 'sfcWind', 'huss', 'pr', 'rsus', 'rlut', 'mrros']</t>
+          <t>['rsds', 'evspsbl', 'ta200', 'rlds', 'va500', 'tasmin', 'ua200', 'hurs', 'va850', 'snc', 'hfls', 'rsdt', 'hus850', 'sic', 'va200', 'clt', 'sfcWindmax', 'vas', 'ua500', 'hfss', 'tasmax', 'psl', 'snm', 'rsut', 'ua850', 'tas', 'ta500', 'mrro', 'uas', 'ta850', 'mrso', 'rlus', 'sfcWind', 'huss', 'pr', 'rsus', 'rlut', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -12894,7 +12894,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['sfcWind', 'tas', 'mrso', 'tasmax', 'rsds', 'uas', 'ta200', 'va850', 'clt', 'hurs', 'vas', 'hfls', 'rsdt', 'psl', 'sfcWindmax', 'snm', 'va500', 'rlds', 'ua200', 'evspsbl', 'ua850', 'rsut', 'rlus', 'va200', 'huss', 'snc', 'ua500', 'hfss', 'sic', 'rlut', 'mrro', 'ta850', 'rsus', 'ta500', 'pr', 'tasmin', 'mrros', 'hus850', 'sfcWind', 'tas', 'mrso', 'tasmax', 'rsds', 'uas', 'ta200', 'va850', 'clt', 'hurs', 'vas', 'hfls', 'rsdt', 'psl', 'sfcWindmax', 'snm', 'va500', 'rlds', 'ua200', 'evspsbl', 'ua850', 'rsut', 'rlus', 'va200', 'huss', 'snc', 'ua500', 'hfss', 'sic', 'rlut', 'mrro', 'ta850', 'rsus', 'ta500', 'pr', 'tasmin', 'mrros', 'hus850']</t>
+          <t>['sfcWind', 'tas', 'mrso', 'tasmax', 'rsds', 'uas', 'ta200', 'va850', 'clt', 'hurs', 'vas', 'hfls', 'rsdt', 'psl', 'sfcWindmax', 'snm', 'va500', 'rlds', 'ua200', 'evspsbl', 'ua850', 'rsut', 'rlus', 'va200', 'huss', 'snc', 'ua500', 'hfss', 'sic', 'rlut', 'mrro', 'ta850', 'rsus', 'ta500', 'pr', 'tasmin', 'mrros', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['pr', 'rsds', 'tas', 'hfls', 'rsus', 'hurs', 'psl', 'ps', 'rlus', 'hfss', 'sfcWind', 'huss', 'rlds', 'pr', 'rsds', 'tas', 'hfls', 'rsus', 'hurs', 'psl', 'ps', 'rlus', 'hfss', 'sfcWind', 'huss', 'rlds']</t>
+          <t>['pr', 'rsds', 'tas', 'hfls', 'rsus', 'hurs', 'psl', 'ps', 'rlus', 'hfss', 'sfcWind', 'huss', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'vas', 'uas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['prhmax', 'ta200', 'tauv', 'rsut', 'prc', 'ts', 'rlut', 'prw', 'pr', 'cll', 'ua850', 'rsus', 'ta850', 'snm', 'va850', 'sic', 'rsds', 'tauu', 'mrso', 'uas', 'hfls', 'rsdt', 'ua200', 'clt', 'rlus', 'huss', 'tasmin', 'mrro', 'ps', 'sfcWind', 'tas', 'hfss', 'hurs', 'snc', 'va200', 'ta500', 'clwvi', 'clh', 'evspsbl', 'vas', 'clm', 'ua500', 'hus850', 'tasmax', 'sfcWindmax', 'rlds', 'clivi', 'psl', 'va500', 'mrros', 'prsn', 'prhmax', 'ta200', 'tauv', 'rsut', 'prc', 'ts', 'rlut', 'prw', 'pr', 'cll', 'ua850', 'rsus', 'ta850', 'snm', 'va850', 'sic', 'rsds', 'tauu', 'mrso', 'uas', 'hfls', 'rsdt', 'ua200', 'clt', 'rlus', 'huss', 'tasmin', 'mrro', 'ps', 'sfcWind', 'tas', 'hfss', 'hurs', 'snc', 'va200', 'ta500', 'clwvi', 'clh', 'evspsbl', 'vas', 'clm', 'ua500', 'hus850', 'tasmax', 'sfcWindmax', 'rlds', 'clivi', 'psl', 'va500', 'mrros', 'prsn']</t>
+          <t>['prhmax', 'ta200', 'tauv', 'rsut', 'prc', 'ts', 'rlut', 'prw', 'pr', 'cll', 'ua850', 'rsus', 'ta850', 'snm', 'va850', 'sic', 'rsds', 'tauu', 'mrso', 'uas', 'hfls', 'rsdt', 'ua200', 'clt', 'rlus', 'huss', 'tasmin', 'mrro', 'ps', 'sfcWind', 'tas', 'hfss', 'hurs', 'snc', 'va200', 'ta500', 'clwvi', 'clh', 'evspsbl', 'vas', 'clm', 'ua500', 'hus850', 'tasmax', 'sfcWindmax', 'rlds', 'clivi', 'psl', 'va500', 'mrros', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -13134,7 +13134,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['tas', 'hfls', 'rsdt', 'hus850', 'psl', 'ua850', 'sfcWind', 'sic', 'ua200', 'evspsbl', 'hfss', 'pr', 'tasmin', 'ua500', 'snm', 'rlus', 'rsus', 'mrso', 'huss', 'snc', 'va500', 'tasmax', 'va850', 'mrro', 'rsds', 'uas', 'mrros', 'vas', 'ta850', 'rlds', 'hurs', 'clt', 'rsut', 'ta500', 'sfcWindmax', 'va200', 'ta200', 'rlut', 'tas', 'hfls', 'rsdt', 'hus850', 'psl', 'ua850', 'sfcWind', 'sic', 'ua200', 'evspsbl', 'hfss', 'pr', 'tasmin', 'ua500', 'snm', 'rlus', 'rsus', 'mrso', 'huss', 'snc', 'va500', 'tasmax', 'va850', 'mrro', 'rsds', 'uas', 'mrros', 'vas', 'ta850', 'rlds', 'hurs', 'clt', 'rsut', 'ta500', 'sfcWindmax', 'va200', 'ta200', 'rlut']</t>
+          <t>['tas', 'hfls', 'rsdt', 'hus850', 'psl', 'ua850', 'sfcWind', 'sic', 'ua200', 'evspsbl', 'hfss', 'pr', 'tasmin', 'ua500', 'snm', 'rlus', 'rsus', 'mrso', 'huss', 'snc', 'va500', 'tasmax', 'va850', 'mrro', 'rsds', 'uas', 'mrros', 'vas', 'ta850', 'rlds', 'hurs', 'clt', 'rsut', 'ta500', 'sfcWindmax', 'va200', 'ta200', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['rsds', 'ua500', 'snm', 'hfss', 'psl', 'ua200', 'sfcWind', 'tasmax', 'hfls', 'mrso', 'pr', 'uas', 'rsdt', 'sic', 'ua850', 'hurs', 'evspsbl', 'va850', 'rlut', 'sfcWindmax', 'va500', 'clt', 'mrros', 'rsut', 'rlus', 'huss', 'rsus', 'tas', 'ta500', 'snc', 'rlds', 'va200', 'hus850', 'mrro', 'ta200', 'ta850', 'tasmin', 'vas', 'rsds', 'ua500', 'snm', 'hfss', 'psl', 'ua200', 'sfcWind', 'tasmax', 'hfls', 'mrso', 'pr', 'uas', 'rsdt', 'sic', 'ua850', 'hurs', 'evspsbl', 'va850', 'rlut', 'sfcWindmax', 'va500', 'clt', 'mrros', 'rsut', 'rlus', 'huss', 'rsus', 'tas', 'ta500', 'snc', 'rlds', 'va200', 'hus850', 'mrro', 'ta200', 'ta850', 'tasmin', 'vas']</t>
+          <t>['rsds', 'ua500', 'snm', 'hfss', 'psl', 'ua200', 'sfcWind', 'tasmax', 'hfls', 'mrso', 'pr', 'uas', 'rsdt', 'sic', 'ua850', 'hurs', 'evspsbl', 'va850', 'rlut', 'sfcWindmax', 'va500', 'clt', 'mrros', 'rsut', 'rlus', 'huss', 'rsus', 'tas', 'ta500', 'snc', 'rlds', 'va200', 'hus850', 'mrro', 'ta200', 'ta850', 'tasmin', 'vas']</t>
         </is>
       </c>
     </row>
@@ -13370,7 +13370,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -13462,7 +13462,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['psl', 'hfss', 'hfls', 'rsus', 'tas', 'rlds', 'sfcWind', 'rlus', 'huss', 'pr', 'rsds', 'ps', 'hurs', 'psl', 'hfss', 'hfls', 'rsus', 'tas', 'rlds', 'sfcWind', 'rlus', 'huss', 'pr', 'rsds', 'ps', 'hurs']</t>
+          <t>['psl', 'hfss', 'hfls', 'rsus', 'tas', 'rlds', 'sfcWind', 'rlus', 'huss', 'pr', 'rsds', 'ps', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13494,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['clh', 'evspsbl', 'vas', 'uas', 'ta500', 'snc', 'sfcWindmax', 'tasmax', 'mrso', 'va200', 'ta850', 'sic', 'hfss', 'va850', 'pr', 'tas', 'prsn', 'tauu', 'mrros', 'rlds', 'hus850', 'prhmax', 'rlus', 'tauv', 'huss', 'ts', 'cll', 'hurs', 'ps', 'rsut', 'rlut', 'ta200', 'snm', 'ua200', 'rsds', 'prw', 'prc', 'ua850', 'clm', 'clivi', 'psl', 'clt', 'rsus', 'hfls', 'rsdt', 'ua500', 'va500', 'clwvi', 'sfcWind', 'mrro', 'tasmin', 'clh', 'evspsbl', 'vas', 'uas', 'ta500', 'snc', 'sfcWindmax', 'tasmax', 'mrso', 'va200', 'ta850', 'sic', 'hfss', 'va850', 'pr', 'tas', 'prsn', 'tauu', 'mrros', 'rlds', 'hus850', 'prhmax', 'rlus', 'tauv', 'huss', 'ts', 'cll', 'hurs', 'ps', 'rsut', 'rlut', 'ta200', 'snm', 'ua200', 'rsds', 'prw', 'prc', 'ua850', 'clm', 'clivi', 'psl', 'clt', 'rsus', 'hfls', 'rsdt', 'ua500', 'va500', 'clwvi', 'sfcWind', 'mrro', 'tasmin']</t>
+          <t>['clh', 'evspsbl', 'vas', 'uas', 'ta500', 'snc', 'sfcWindmax', 'tasmax', 'mrso', 'va200', 'ta850', 'sic', 'hfss', 'va850', 'pr', 'tas', 'prsn', 'tauu', 'mrros', 'rlds', 'hus850', 'prhmax', 'rlus', 'tauv', 'huss', 'ts', 'cll', 'hurs', 'ps', 'rsut', 'rlut', 'ta200', 'snm', 'ua200', 'rsds', 'prw', 'prc', 'ua850', 'clm', 'clivi', 'psl', 'clt', 'rsus', 'hfls', 'rsdt', 'ua500', 'va500', 'clwvi', 'sfcWind', 'mrro', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -13554,7 +13554,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['rlus', 'huss', 'evspsbl', 'hurs', 'ua850', 'pr', 'rsds', 'tasmax', 'snc', 'hfss', 'vas', 'hus850', 'tas', 'ta500', 'hfls', 'rsdt', 'va850', 'clt', 'rsus', 'mrso', 'ta200', 'rlds', 'ua200', 'ua500', 'sic', 'snm', 'va500', 'rsut', 'sfcWind', 'psl', 'va200', 'sfcWindmax', 'tasmin', 'rlut', 'uas', 'ta850', 'rlus', 'huss', 'evspsbl', 'hurs', 'ua850', 'pr', 'rsds', 'tasmax', 'snc', 'hfss', 'vas', 'hus850', 'tas', 'ta500', 'hfls', 'rsdt', 'va850', 'clt', 'rsus', 'mrso', 'ta200', 'rlds', 'ua200', 'ua500', 'sic', 'snm', 'va500', 'rsut', 'sfcWind', 'psl', 'va200', 'sfcWindmax', 'tasmin', 'rlut', 'uas', 'ta850']</t>
+          <t>['rlus', 'huss', 'evspsbl', 'hurs', 'ua850', 'pr', 'rsds', 'tasmax', 'snc', 'hfss', 'vas', 'hus850', 'tas', 'ta500', 'hfls', 'rsdt', 'va850', 'clt', 'rsus', 'mrso', 'ta200', 'rlds', 'ua200', 'ua500', 'sic', 'snm', 'va500', 'rsut', 'sfcWind', 'psl', 'va200', 'sfcWindmax', 'tasmin', 'rlut', 'uas', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -13702,7 +13702,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13758,7 +13758,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['mrros', 'mrro', 'mrros', 'mrro']</t>
+          <t>['mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['snc', 'sfcWind', 'mrso', 'ua500', 'tasmax', 'rsut', 'rlut', 'ta850', 'sfcWindmax', 'snm', 'va500', 'tas', 'hus850', 'ua850', 'rsus', 'uas', 'ta200', 'pr', 'tasmin', 'ua200', 'va200', 'va850', 'clt', 'rlus', 'huss', 'sic', 'evspsbl', 'hurs', 'psl', 'rsds', 'rlds', 'hfss', 'ta500', 'hfls', 'rsdt', 'vas', 'snc', 'sfcWind', 'mrso', 'ua500', 'tasmax', 'rsut', 'rlut', 'ta850', 'sfcWindmax', 'snm', 'va500', 'tas', 'hus850', 'ua850', 'rsus', 'uas', 'ta200', 'pr', 'tasmin', 'ua200', 'va200', 'va850', 'clt', 'rlus', 'huss', 'sic', 'evspsbl', 'hurs', 'psl', 'rsds', 'rlds', 'hfss', 'ta500', 'hfls', 'rsdt', 'vas']</t>
+          <t>['snc', 'sfcWind', 'mrso', 'ua500', 'tasmax', 'rsut', 'rlut', 'ta850', 'sfcWindmax', 'snm', 'va500', 'tas', 'hus850', 'ua850', 'rsus', 'uas', 'ta200', 'pr', 'tasmin', 'ua200', 'va200', 'va850', 'clt', 'rlus', 'huss', 'sic', 'evspsbl', 'hurs', 'psl', 'rsds', 'rlds', 'hfss', 'ta500', 'hfls', 'rsdt', 'vas']</t>
         </is>
       </c>
     </row>
@@ -13846,7 +13846,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -13930,7 +13930,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['mrro', 'mrro', 'mrros']</t>
+          <t>['mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['hurs', 'hfss', 'psl', 'ps', 'rsds', 'rlus', 'huss', 'pr', 'rsus', 'hfls', 'rlds', 'sfcWind', 'tas', 'hurs', 'hfss', 'psl', 'ps', 'rsds', 'rlus', 'huss', 'pr', 'rsus', 'hfls', 'rlds', 'sfcWind', 'tas']</t>
+          <t>['hurs', 'hfss', 'psl', 'ps', 'rsds', 'rlus', 'huss', 'pr', 'rsus', 'hfls', 'rlds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rlut', 'clivi', 'tas', 'prsn', 'ua200', 'hfls', 'rsdt', 'hurs', 'sic', 'ta500', 'rsus', 'tasmax', 'va850', 'cll', 'sfcWind', 'snc', 'snm', 'ta200', 'va200', 'ua500', 'hfss', 'clwvi', 'ps', 'rlds', 'tasmin', 'rsut', 'prc', 'mrros', 'ta850', 'pr', 'uas', 'va500', 'tauv', 'clh', 'clm', 'huss', 'psl', 'clt', 'rsds', 'mrso', 'prw', 'hus850', 'prhmax', 'mrro', 'rlus', 'vas', 'tauu', 'evspsbl', 'ua850', 'ts', 'sfcWindmax', 'rlut', 'clivi', 'tas', 'prsn', 'ua200', 'hfls', 'rsdt', 'hurs', 'sic', 'ta500', 'rsus', 'tasmax', 'va850', 'cll', 'sfcWind', 'snc', 'snm', 'ta200', 'va200', 'ua500', 'hfss', 'clwvi', 'ps', 'rlds', 'tasmin', 'rsut', 'prc', 'mrros', 'ta850', 'pr', 'uas', 'va500', 'tauv', 'clh', 'clm', 'huss', 'psl', 'clt', 'rsds', 'mrso', 'prw', 'hus850', 'prhmax', 'mrro', 'rlus', 'vas', 'tauu', 'evspsbl', 'ua850', 'ts']</t>
+          <t>['sfcWindmax', 'rlut', 'clivi', 'tas', 'prsn', 'ua200', 'hfls', 'rsdt', 'hurs', 'sic', 'ta500', 'rsus', 'tasmax', 'va850', 'cll', 'sfcWind', 'snc', 'snm', 'ta200', 'va200', 'ua500', 'hfss', 'clwvi', 'ps', 'rlds', 'tasmin', 'rsut', 'prc', 'mrros', 'ta850', 'pr', 'uas', 'va500', 'tauv', 'clh', 'clm', 'huss', 'psl', 'clt', 'rsds', 'mrso', 'prw', 'hus850', 'prhmax', 'mrro', 'rlus', 'vas', 'tauu', 'evspsbl', 'ua850', 'ts']</t>
         </is>
       </c>
     </row>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -14090,7 +14090,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -14150,7 +14150,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['va200', 'hfls', 'sic', 'sfcWindmax', 'rsus', 'ua500', 'hurs', 'pr', 'evspsbl', 'ta850', 'va500', 'hfss', 'vas', 'hus850', 'va850', 'ta200', 'rsut', 'sfcWind', 'snm', 'tas', 'rlds', 'psl', 'clt', 'rsds', 'rlut', 'uas', 'ua850', 'rlus', 'tasmin', 'tasmax', 'rsdt', 'huss', 'snc', 'ta500', 'mrso', 'ua200', 'va200', 'hfls', 'sic', 'sfcWindmax', 'rsus', 'ua500', 'hurs', 'pr', 'evspsbl', 'ta850', 'va500', 'hfss', 'vas', 'hus850', 'va850', 'ta200', 'rsut', 'sfcWind', 'snm', 'tas', 'rlds', 'psl', 'clt', 'rsds', 'rlut', 'uas', 'ua850', 'rlus', 'tasmin', 'tasmax', 'rsdt', 'huss', 'snc', 'ta500', 'mrso', 'ua200']</t>
+          <t>['va200', 'hfls', 'sic', 'sfcWindmax', 'rsus', 'ua500', 'hurs', 'pr', 'evspsbl', 'ta850', 'va500', 'hfss', 'vas', 'hus850', 'va850', 'ta200', 'rsut', 'sfcWind', 'snm', 'tas', 'rlds', 'psl', 'clt', 'rsds', 'rlut', 'uas', 'ua850', 'rlus', 'tasmin', 'tasmax', 'rsdt', 'huss', 'snc', 'ta500', 'mrso', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -14294,7 +14294,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['mrro', 'mrros', 'mrro', 'mrros']</t>
+          <t>['mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -14326,7 +14326,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['rlds', 'snm', 'rlut', 'evspsbl', 'ua850', 'hfls', 'rsdt', 'vas', 'ta200', 'rlus', 'sfcWind', 'huss', 'sic', 'ta500', 'mrso', 'hus850', 'uas', 'ua200', 'rsut', 'sfcWindmax', 'rsds', 'va500', 'hfss', 'snc', 'hurs', 'psl', 'clt', 'rsus', 'tasmax', 'va200', 'ta850', 'tasmin', 'va850', 'ua500', 'pr', 'tas', 'rlds', 'snm', 'rlut', 'evspsbl', 'ua850', 'hfls', 'rsdt', 'vas', 'ta200', 'rlus', 'sfcWind', 'huss', 'sic', 'ta500', 'mrso', 'hus850', 'uas', 'ua200', 'rsut', 'sfcWindmax', 'rsds', 'va500', 'hfss', 'snc', 'hurs', 'psl', 'clt', 'rsus', 'tasmax', 'va200', 'ta850', 'tasmin', 'va850', 'ua500', 'pr', 'tas']</t>
+          <t>['rlds', 'snm', 'rlut', 'evspsbl', 'ua850', 'hfls', 'rsdt', 'vas', 'ta200', 'rlus', 'sfcWind', 'huss', 'sic', 'ta500', 'mrso', 'hus850', 'uas', 'ua200', 'rsut', 'sfcWindmax', 'rsds', 'va500', 'hfss', 'snc', 'hurs', 'psl', 'clt', 'rsus', 'tasmax', 'va200', 'ta850', 'tasmin', 'va850', 'ua500', 'pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -14382,7 +14382,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -14438,7 +14438,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['mrros', 'mrro', 'mrros', 'mrro']</t>
+          <t>['mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['psl', 'huss', 'tas', 'hfls', 'hurs', 'rsds', 'pr', 'rlds', 'rsus', 'ps', 'rlus', 'hfss', 'sfcWind', 'psl', 'huss', 'tas', 'hfls', 'hurs', 'rsds', 'pr', 'rlds', 'rsus', 'ps', 'rlus', 'hfss', 'sfcWind']</t>
+          <t>['psl', 'huss', 'tas', 'hfls', 'hurs', 'rsds', 'pr', 'rlds', 'rsus', 'ps', 'rlus', 'hfss', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['clm', 'psl', 'va500', 'hus850', 'prw', 'tauu', 'va850', 'va200', 'mrro', 'clivi', 'evspsbl', 'rlut', 'mrso', 'rlds', 'prhmax', 'hfss', 'mrros', 'rsds', 'snm', 'ta500', 'prc', 'clh', 'sfcWind', 'vas', 'clwvi', 'ta850', 'snc', 'ts', 'hurs', 'tas', 'tauv', 'tasmax', 'rsut', 'sfcWindmax', 'ua500', 'tasmin', 'uas', 'ps', 'sic', 'ua200', 'clt', 'hfls', 'rsdt', 'ta200', 'pr', 'rlus', 'huss', 'rsus', 'cll', 'prsn', 'ua850', 'clm', 'psl', 'va500', 'hus850', 'prw', 'tauu', 'va850', 'va200', 'mrro', 'clivi', 'evspsbl', 'rlut', 'mrso', 'rlds', 'prhmax', 'hfss', 'mrros', 'rsds', 'snm', 'ta500', 'prc', 'clh', 'sfcWind', 'vas', 'clwvi', 'ta850', 'snc', 'ts', 'hurs', 'tas', 'tauv', 'tasmax', 'rsut', 'sfcWindmax', 'ua500', 'tasmin', 'uas', 'ps', 'sic', 'ua200', 'clt', 'hfls', 'rsdt', 'ta200', 'pr', 'rlus', 'huss', 'rsus', 'cll', 'prsn', 'ua850']</t>
+          <t>['clm', 'psl', 'va500', 'hus850', 'prw', 'tauu', 'va850', 'va200', 'mrro', 'clivi', 'evspsbl', 'rlut', 'mrso', 'rlds', 'prhmax', 'hfss', 'mrros', 'rsds', 'snm', 'ta500', 'prc', 'clh', 'sfcWind', 'vas', 'clwvi', 'ta850', 'snc', 'ts', 'hurs', 'tas', 'tauv', 'tasmax', 'rsut', 'sfcWindmax', 'ua500', 'tasmin', 'uas', 'ps', 'sic', 'ua200', 'clt', 'hfls', 'rsdt', 'ta200', 'pr', 'rlus', 'huss', 'rsus', 'cll', 'prsn', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -14598,7 +14598,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -14658,7 +14658,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['clt', 'rsus', 'sic', 'ua200', 'snm', 'psl', 'ua850', 'ta500', 'tasmax', 'va200', 'uas', 'rlut', 'va850', 'mrso', 'rlds', 'pr', 'hfss', 'sfcWind', 'ta200', 'ua500', 'rsut', 'evspsbl', 'vas', 'ta850', 'snc', 'va500', 'hurs', 'sfcWindmax', 'tasmin', 'rsds', 'hfls', 'rsdt', 'rlus', 'huss', 'tas', 'hus850', 'clt', 'rsus', 'sic', 'ua200', 'snm', 'psl', 'ua850', 'ta500', 'tasmax', 'va200', 'uas', 'rlut', 'va850', 'mrso', 'rlds', 'pr', 'hfss', 'sfcWind', 'ta200', 'ua500', 'rsut', 'evspsbl', 'vas', 'ta850', 'snc', 'va500', 'hurs', 'sfcWindmax', 'tasmin', 'rsds', 'hfls', 'rsdt', 'rlus', 'huss', 'tas', 'hus850']</t>
+          <t>['clt', 'rsus', 'sic', 'ua200', 'snm', 'psl', 'ua850', 'ta500', 'tasmax', 'va200', 'uas', 'rlut', 'va850', 'mrso', 'rlds', 'pr', 'hfss', 'sfcWind', 'ta200', 'ua500', 'rsut', 'evspsbl', 'vas', 'ta850', 'snc', 'va500', 'hurs', 'sfcWindmax', 'tasmin', 'rsds', 'hfls', 'rsdt', 'rlus', 'huss', 'tas', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -14802,7 +14802,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['mrros', 'mrro', 'mrros', 'mrro']</t>
+          <t>['mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['rlds', 'hfls', 'rsdt', 'ta850', 'clt', 'snc', 'rlus', 'huss', 'hus850', 'vas', 'va500', 'evspsbl', 'ua850', 'tas', 'ta200', 'sfcWind', 'psl', 'ua200', 'rsds', 'ta500', 'uas', 'va850', 'mrso', 'va200', 'hfss', 'rsus', 'sfcWindmax', 'sic', 'hurs', 'tasmax', 'rlut', 'snm', 'pr', 'ua500', 'tasmin', 'rsut', 'rlds', 'hfls', 'rsdt', 'ta850', 'clt', 'snc', 'rlus', 'huss', 'hus850', 'vas', 'va500', 'evspsbl', 'ua850', 'tas', 'ta200', 'sfcWind', 'psl', 'ua200', 'rsds', 'ta500', 'uas', 'va850', 'mrso', 'va200', 'hfss', 'rsus', 'sfcWindmax', 'sic', 'hurs', 'tasmax', 'rlut', 'snm', 'pr', 'ua500', 'tasmin', 'rsut']</t>
+          <t>['rlds', 'hfls', 'rsdt', 'ta850', 'clt', 'snc', 'rlus', 'huss', 'hus850', 'vas', 'va500', 'evspsbl', 'ua850', 'tas', 'ta200', 'sfcWind', 'psl', 'ua200', 'rsds', 'ta500', 'uas', 'va850', 'mrso', 'va200', 'hfss', 'rsus', 'sfcWindmax', 'sic', 'hurs', 'tasmax', 'rlut', 'snm', 'pr', 'ua500', 'tasmin', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -14862,7 +14862,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -14890,7 +14890,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -14918,7 +14918,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -14946,7 +14946,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['mrro', 'mrros', 'mrro', 'mrros']</t>
+          <t>['mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'pr', 'rsus', 'hfls', 'rsds', 'rlds', 'rlus', 'hfss', 'pr', 'rsus', 'hfls', 'rsds', 'rlds']</t>
+          <t>['rlus', 'hfss', 'pr', 'rsus', 'hfls', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -15046,7 +15046,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'vas', 'uas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -15078,7 +15078,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['cll', 'pr', 'snc', 'va500', 'prsn', 'rsus', 'prc', 'clivi', 'va850', 'ta200', 'sfcWindmax', 'tasmax', 'clwvi', 'ts', 'tauv', 'rsut', 'prw', 'rlus', 'huss', 'hfss', 'ta500', 'hurs', 'hfls', 'rsdt', 'hus850', 'rlds', 'ta850', 'sfcWind', 'mrros', 'tas', 'tasmin', 'evspsbl', 'ua500', 'snm', 'va200', 'mrso', 'psl', 'ua850', 'clt', 'ua200', 'uas', 'tauu', 'clm', 'clh', 'vas', 'ps', 'rsds', 'rlut', 'sic', 'mrro', 'cll', 'pr', 'snc', 'va500', 'prsn', 'rsus', 'prc', 'clivi', 'va850', 'ta200', 'sfcWindmax', 'tasmax', 'clwvi', 'ts', 'tauv', 'rsut', 'prw', 'rlus', 'huss', 'hfss', 'ta500', 'hurs', 'hfls', 'rsdt', 'hus850', 'rlds', 'ta850', 'sfcWind', 'mrros', 'tas', 'tasmin', 'evspsbl', 'ua500', 'snm', 'va200', 'mrso', 'psl', 'ua850', 'clt', 'ua200', 'uas', 'tauu', 'clm', 'clh', 'vas', 'ps', 'rsds', 'rlut', 'sic', 'mrro']</t>
+          <t>['cll', 'pr', 'snc', 'va500', 'prsn', 'rsus', 'prc', 'clivi', 'va850', 'ta200', 'sfcWindmax', 'tasmax', 'clwvi', 'ts', 'tauv', 'rsut', 'prw', 'rlus', 'huss', 'hfss', 'ta500', 'hurs', 'hfls', 'rsdt', 'hus850', 'rlds', 'ta850', 'sfcWind', 'mrros', 'tas', 'tasmin', 'evspsbl', 'ua500', 'snm', 'va200', 'mrso', 'psl', 'ua850', 'clt', 'ua200', 'uas', 'tauu', 'clm', 'clh', 'vas', 'ps', 'rsds', 'rlut', 'sic', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['prhmax', 'prhmax']</t>
+          <t>['prhmax']</t>
         </is>
       </c>
     </row>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -15162,7 +15162,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['sfcWind', 'sic', 'ua500', 'hus850', 'va200', 'pr', 'rsus', 'sfcWindmax', 'mrros', 'ta850', 'rsut', 'rlus', 'evspsbl', 'huss', 'ta500', 'hfss', 'hurs', 'hfls', 'rsdt', 'uas', 'rlds', 'ta200', 'tas', 'snm', 'vas', 'rsds', 'psl', 'tasmin', 'rlut', 'snc', 'va850', 'mrso', 'ua200', 'clt', 'tasmax', 'va500', 'ua850', 'mrro', 'sfcWind', 'sic', 'ua500', 'hus850', 'va200', 'pr', 'rsus', 'sfcWindmax', 'mrros', 'ta850', 'rsut', 'rlus', 'evspsbl', 'huss', 'ta500', 'hfss', 'hurs', 'hfls', 'rsdt', 'uas', 'rlds', 'ta200', 'tas', 'snm', 'vas', 'rsds', 'psl', 'tasmin', 'rlut', 'snc', 'va850', 'mrso', 'ua200', 'clt', 'tasmax', 'va500', 'ua850', 'mrro']</t>
+          <t>['sfcWind', 'sic', 'ua500', 'hus850', 'va200', 'pr', 'rsus', 'sfcWindmax', 'mrros', 'ta850', 'rsut', 'rlus', 'evspsbl', 'huss', 'ta500', 'hfss', 'hurs', 'hfls', 'rsdt', 'uas', 'rlds', 'ta200', 'tas', 'snm', 'vas', 'rsds', 'psl', 'tasmin', 'rlut', 'snc', 'va850', 'mrso', 'ua200', 'clt', 'tasmax', 'va500', 'ua850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['rsus', 'va200', 'rlut', 'ua850', 'clt', 'vas', 'mrro', 'psl', 'rlus', 'huss', 'ta500', 'hfss', 'uas', 'sfcWind', 'mrros', 'ta850', 'rsut', 'tas', 'tasmax', 'rlds', 'tasmin', 'ta200', 'hurs', 'sfcWindmax', 'hus850', 'hfls', 'rsdt', 'ua200', 'pr', 'mrso', 'snc', 'sic', 'evspsbl', 'rsds', 'va500', 'va850', 'snm', 'ua500', 'rsus', 'va200', 'rlut', 'ua850', 'clt', 'vas', 'mrro', 'psl', 'rlus', 'huss', 'ta500', 'hfss', 'uas', 'sfcWind', 'mrros', 'ta850', 'rsut', 'tas', 'tasmax', 'rlds', 'tasmin', 'ta200', 'hurs', 'sfcWindmax', 'hus850', 'hfls', 'rsdt', 'ua200', 'pr', 'mrso', 'snc', 'sic', 'evspsbl', 'rsds', 'va500', 'va850', 'snm', 'ua500']</t>
+          <t>['rsus', 'va200', 'rlut', 'ua850', 'clt', 'vas', 'mrro', 'psl', 'rlus', 'huss', 'ta500', 'hfss', 'uas', 'sfcWind', 'mrros', 'ta850', 'rsut', 'tas', 'tasmax', 'rlds', 'tasmin', 'ta200', 'hurs', 'sfcWindmax', 'hus850', 'hfls', 'rsdt', 'ua200', 'pr', 'mrso', 'snc', 'sic', 'evspsbl', 'rsds', 'va500', 'va850', 'snm', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -15398,7 +15398,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15426,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'huss', 'ps', 'rsus', 'pr', 'hfls', 'rlds', 'psl', 'rsds', 'sfcWind', 'tas', 'hurs', 'rlus', 'hfss', 'huss', 'ps', 'rsus', 'pr', 'hfls', 'rlds', 'psl', 'rsds', 'sfcWind', 'tas', 'hurs']</t>
+          <t>['rlus', 'hfss', 'huss', 'ps', 'rsus', 'pr', 'hfls', 'rlds', 'psl', 'rsds', 'sfcWind', 'tas', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -15522,7 +15522,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['sic', 'mrso', 'ua850', 'tas', 'ua200', 'rsus', 'mrros', 'huss', 'mrro', 'rlds', 'sfcWindmax', 'clwvi', 'rsut', 'clm', 'psl', 'tasmin', 'prw', 'ua500', 'prhmax', 'va500', 'clh', 'vas', 'ts', 'hfls', 'rsds', 'sfcWind', 'hus850', 'rlut', 'va850', 'rlus', 'tauv', 'rsdt', 'evspsbl', 'cll', 'snc', 'pr', 'tasmax', 'clivi', 'hfss', 'prc', 'hurs', 'ta850', 'uas', 'prsn', 'clt', 'ta500', 'va200', 'tauu', 'ps', 'ta200', 'snm', 'sic', 'mrso', 'ua850', 'tas', 'ua200', 'rsus', 'mrros', 'huss', 'mrro', 'rlds', 'sfcWindmax', 'clwvi', 'rsut', 'clm', 'psl', 'tasmin', 'prw', 'ua500', 'prhmax', 'va500', 'clh', 'vas', 'ts', 'hfls', 'rsds', 'sfcWind', 'hus850', 'rlut', 'va850', 'rlus', 'tauv', 'rsdt', 'evspsbl', 'cll', 'snc', 'pr', 'tasmax', 'clivi', 'hfss', 'prc', 'hurs', 'ta850', 'uas', 'prsn', 'clt', 'ta500', 'va200', 'tauu', 'ps', 'ta200', 'snm']</t>
+          <t>['sic', 'mrso', 'ua850', 'tas', 'ua200', 'rsus', 'mrros', 'huss', 'mrro', 'rlds', 'sfcWindmax', 'clwvi', 'rsut', 'clm', 'psl', 'tasmin', 'prw', 'ua500', 'prhmax', 'va500', 'clh', 'vas', 'ts', 'hfls', 'rsds', 'sfcWind', 'hus850', 'rlut', 'va850', 'rlus', 'tauv', 'rsdt', 'evspsbl', 'cll', 'snc', 'pr', 'tasmax', 'clivi', 'hfss', 'prc', 'hurs', 'ta850', 'uas', 'prsn', 'clt', 'ta500', 'va200', 'tauu', 'ps', 'ta200', 'snm']</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -15610,7 +15610,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['ta200', 'rsds', 'tasmin', 'mrros', 'mrro', 'rlds', 'sfcWindmax', 'ua850', 'clt', 'rsut', 'ta850', 'va850', 'tas', 'vas', 'ua200', 'rlut', 'uas', 'pr', 'ta500', 'hfls', 'rsdt', 'snc', 'sic', 'va200', 'snm', 'hurs', 'rsus', 'evspsbl', 'ua500', 'hfss', 'hus850', 'psl', 'tasmax', 'mrso', 'va500', 'sfcWind', 'rlus', 'huss', 'ta200', 'rsds', 'tasmin', 'mrros', 'mrro', 'rlds', 'sfcWindmax', 'ua850', 'clt', 'rsut', 'ta850', 'va850', 'tas', 'vas', 'ua200', 'rlut', 'uas', 'pr', 'ta500', 'hfls', 'rsdt', 'snc', 'sic', 'va200', 'snm', 'hurs', 'rsus', 'evspsbl', 'ua500', 'hfss', 'hus850', 'psl', 'tasmax', 'mrso', 'va500', 'sfcWind', 'rlus', 'huss']</t>
+          <t>['ta200', 'rsds', 'tasmin', 'mrros', 'mrro', 'rlds', 'sfcWindmax', 'ua850', 'clt', 'rsut', 'ta850', 'va850', 'tas', 'vas', 'ua200', 'rlut', 'uas', 'pr', 'ta500', 'hfls', 'rsdt', 'snc', 'sic', 'va200', 'snm', 'hurs', 'rsus', 'evspsbl', 'ua500', 'hfss', 'hus850', 'psl', 'tasmax', 'mrso', 'va500', 'sfcWind', 'rlus', 'huss']</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15730,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15786,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -15818,7 +15818,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['hfls', 'rsdt', 'va200', 'sfcWind', 'sic', 'mrros', 'huss', 'mrro', 'rsds', 'pr', 'tasmax', 'ua500', 'evspsbl', 'hfss', 'ta500', 'ua200', 'hus850', 'va500', 'rlds', 'vas', 'sfcWindmax', 'snc', 'ta850', 'ta200', 'hurs', 'rsus', 'rlut', 'rsut', 'snm', 'psl', 'mrso', 'uas', 'ua850', 'rlus', 'clt', 'tas', 'tasmin', 'va850', 'hfls', 'rsdt', 'va200', 'sfcWind', 'sic', 'mrros', 'huss', 'mrro', 'rsds', 'pr', 'tasmax', 'ua500', 'evspsbl', 'hfss', 'ta500', 'ua200', 'hus850', 'va500', 'rlds', 'vas', 'sfcWindmax', 'snc', 'ta850', 'ta200', 'hurs', 'rsus', 'rlut', 'rsut', 'snm', 'psl', 'mrso', 'uas', 'ua850', 'rlus', 'clt', 'tas', 'tasmin', 'va850']</t>
+          <t>['hfls', 'rsdt', 'va200', 'sfcWind', 'sic', 'mrros', 'huss', 'mrro', 'rsds', 'pr', 'tasmax', 'ua500', 'evspsbl', 'hfss', 'ta500', 'ua200', 'hus850', 'va500', 'rlds', 'vas', 'sfcWindmax', 'snc', 'ta850', 'ta200', 'hurs', 'rsus', 'rlut', 'rsut', 'snm', 'psl', 'mrso', 'uas', 'ua850', 'rlus', 'clt', 'tas', 'tasmin', 'va850']</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -15938,7 +15938,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['rlus', 'huss', 'rsds', 'ps', 'rlds', 'pr', 'rsus', 'hfls', 'sfcWind', 'hurs', 'hfss', 'tas', 'psl', 'rlus', 'huss', 'rsds', 'ps', 'rlds', 'pr', 'rsus', 'hfls', 'sfcWind', 'hurs', 'hfss', 'tas', 'psl']</t>
+          <t>['rlus', 'huss', 'rsds', 'ps', 'rlds', 'pr', 'rsus', 'hfls', 'sfcWind', 'hurs', 'hfss', 'tas', 'psl']</t>
         </is>
       </c>
     </row>
@@ -15970,7 +15970,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'vas', 'uas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['tauv', 'tasmin', 'pr', 'rlds', 'psl', 'ua850', 'sfcWindmax', 'hfls', 'rsdt', 'clivi', 'hus850', 'sic', 'ta500', 'clwvi', 'hurs', 'rsds', 'va850', 'cll', 'ta200', 'uas', 'ua200', 'rlut', 'ua500', 'mrro', 'hfss', 'prc', 'clm', 'mrso', 'tas', 'rlus', 'mrros', 'huss', 'va500', 'prw', 'tasmax', 'snm', 'ps', 'va200', 'rsut', 'evspsbl', 'snc', 'prhmax', 'clh', 'vas', 'clt', 'tauu', 'rsus', 'sfcWind', 'prsn', 'ts', 'ta850', 'tauv', 'tasmin', 'pr', 'rlds', 'psl', 'ua850', 'sfcWindmax', 'hfls', 'rsdt', 'clivi', 'hus850', 'sic', 'ta500', 'clwvi', 'hurs', 'rsds', 'va850', 'cll', 'ta200', 'uas', 'ua200', 'rlut', 'ua500', 'mrro', 'hfss', 'prc', 'clm', 'mrso', 'tas', 'rlus', 'mrros', 'huss', 'va500', 'prw', 'tasmax', 'snm', 'ps', 'va200', 'rsut', 'evspsbl', 'snc', 'prhmax', 'clh', 'vas', 'clt', 'tauu', 'rsus', 'sfcWind', 'prsn', 'ts', 'ta850']</t>
+          <t>['tauv', 'tasmin', 'pr', 'rlds', 'psl', 'ua850', 'sfcWindmax', 'hfls', 'rsdt', 'clivi', 'hus850', 'sic', 'ta500', 'clwvi', 'hurs', 'rsds', 'va850', 'cll', 'ta200', 'uas', 'ua200', 'rlut', 'ua500', 'mrro', 'hfss', 'prc', 'clm', 'mrso', 'tas', 'rlus', 'mrros', 'huss', 'va500', 'prw', 'tasmax', 'snm', 'ps', 'va200', 'rsut', 'evspsbl', 'snc', 'prhmax', 'clh', 'vas', 'clt', 'tauu', 'rsus', 'sfcWind', 'prsn', 'ts', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -16030,7 +16030,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -16058,7 +16058,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['rlut', 'hfss', 'ta500', 'clt', 'tasmax', 'sic', 'hfls', 'rsdt', 'rsds', 'hus850', 'tas', 'va200', 'sfcWindmax', 'snm', 'psl', 'ta850', 'va850', 'rsut', 'pr', 'hurs', 'vas', 'rsus', 'rlus', 'huss', 'ta200', 'uas', 'ua200', 'sfcWind', 'ua850', 'snc', 'evspsbl', 'mrso', 'ua500', 'va500', 'rlds', 'tasmin', 'rlut', 'hfss', 'ta500', 'clt', 'tasmax', 'sic', 'hfls', 'rsdt', 'rsds', 'hus850', 'tas', 'va200', 'sfcWindmax', 'snm', 'psl', 'ta850', 'va850', 'rsut', 'pr', 'hurs', 'vas', 'rsus', 'rlus', 'huss', 'ta200', 'uas', 'ua200', 'sfcWind', 'ua850', 'snc', 'evspsbl', 'mrso', 'ua500', 'va500', 'rlds', 'tasmin']</t>
+          <t>['rlut', 'hfss', 'ta500', 'clt', 'tasmax', 'sic', 'hfls', 'rsdt', 'rsds', 'hus850', 'tas', 'va200', 'sfcWindmax', 'snm', 'psl', 'ta850', 'va850', 'rsut', 'pr', 'hurs', 'vas', 'rsus', 'rlus', 'huss', 'ta200', 'uas', 'ua200', 'sfcWind', 'ua850', 'snc', 'evspsbl', 'mrso', 'ua500', 'va500', 'rlds', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -16262,7 +16262,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['mrros', 'mrro', 'mrros', 'mrro']</t>
+          <t>['mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -16294,7 +16294,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'vas', 'hus850', 'ta850', 'rlut', 'snc', 'sfcWind', 'va500', 'rlus', 'ta500', 'rsus', 'uas', 'tasmin', 'rlds', 'mrso', 'rsut', 'snm', 'psl', 'ta200', 'tasmax', 'tas', 'clt', 'va200', 'pr', 'evspsbl', 'sic', 'ua500', 'ua200', 'hfss', 'huss', 'hfls', 'rsdt', 'hurs', 'ua850', 'va850', 'rsds', 'sfcWindmax', 'vas', 'hus850', 'ta850', 'rlut', 'snc', 'sfcWind', 'va500', 'rlus', 'ta500', 'rsus', 'uas', 'tasmin', 'rlds', 'mrso', 'rsut', 'snm', 'psl', 'ta200', 'tasmax', 'tas', 'clt', 'va200', 'pr', 'evspsbl', 'sic', 'ua500', 'ua200', 'hfss', 'huss', 'hfls', 'rsdt', 'hurs', 'ua850', 'va850', 'rsds']</t>
+          <t>['sfcWindmax', 'vas', 'hus850', 'ta850', 'rlut', 'snc', 'sfcWind', 'va500', 'rlus', 'ta500', 'rsus', 'uas', 'tasmin', 'rlds', 'mrso', 'rsut', 'snm', 'psl', 'ta200', 'tasmax', 'tas', 'clt', 'va200', 'pr', 'evspsbl', 'sic', 'ua500', 'ua200', 'hfss', 'huss', 'hfls', 'rsdt', 'hurs', 'ua850', 'va850', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -16322,7 +16322,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -16406,7 +16406,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['mrros', 'mrro', 'mrros', 'mrro']</t>
+          <t>['mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -16854,7 +16854,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['hfss', 'hfss']</t>
+          <t>['hfss']</t>
         </is>
       </c>
     </row>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['sic', 'ua500', 'ua200', 'sfcWindmax', 'uas', 'rsds', 'evspsbl', 'ta500', 'hurs', 'clivi', 'clt', 'prw', 'sfcWind', 'ua850', 'tasmax', 'clh', 'vas', 'va850', 'hfss', 'pr', 'clwvi', 'prsn', 'tasmin', 'rsus', 'ta200', 'tauu', 'cll', 'snc', 'prhmax', 'rlus', 'huss', 'snm', 'va500', 'ts', 'mrso', 'ta850', 'hfls', 'rsdt', 'hus850', 'rsut', 'rlut', 'rlds', 'va200', 'tauv', 'tas', 'prc', 'ps', 'clm', 'psl', 'sic', 'ua500', 'ua200', 'sfcWindmax', 'uas', 'rsds', 'evspsbl', 'ta500', 'hurs', 'clivi', 'clt', 'prw', 'sfcWind', 'ua850', 'tasmax', 'clh', 'vas', 'va850', 'hfss', 'pr', 'clwvi', 'prsn', 'tasmin', 'rsus', 'ta200', 'tauu', 'cll', 'snc', 'prhmax', 'rlus', 'huss', 'snm', 'va500', 'ts', 'mrso', 'ta850', 'hfls', 'rsdt', 'hus850', 'rsut', 'rlut', 'rlds', 'va200', 'tauv', 'tas', 'prc', 'ps', 'clm', 'psl', 'mrros', 'mrro']</t>
+          <t>['sic', 'ua500', 'ua200', 'sfcWindmax', 'uas', 'rsds', 'evspsbl', 'ta500', 'hurs', 'clivi', 'clt', 'prw', 'sfcWind', 'ua850', 'tasmax', 'clh', 'vas', 'va850', 'hfss', 'pr', 'clwvi', 'prsn', 'tasmin', 'rsus', 'ta200', 'tauu', 'cll', 'snc', 'prhmax', 'rlus', 'huss', 'snm', 'va500', 'ts', 'mrso', 'ta850', 'hfls', 'rsdt', 'hus850', 'rsut', 'rlut', 'rlds', 'va200', 'tauv', 'tas', 'prc', 'ps', 'clm', 'psl', 'mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -16974,7 +16974,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['sic', 'rlus', 'huss', 'sfcWind', 'uas', 'va500', 'va200', 'ta200', 'hurs', 'psl', 'snc', 'hfss', 'snm', 'rsus', 'ta850', 'ua850', 'sfcWindmax', 'pr', 'mrso', 'hus850', 'rsds', 'hfls', 'rsdt', 'ua200', 'vas', 'ua500', 'tasmax', 'rlds', 'va850', 'rsut', 'ta500', 'evspsbl', 'clt', 'tasmin', 'rlut', 'tas', 'sic', 'rlus', 'huss', 'sfcWind', 'uas', 'va500', 'va200', 'ta200', 'hurs', 'psl', 'snc', 'hfss', 'snm', 'rsus', 'ta850', 'ua850', 'sfcWindmax', 'pr', 'mrso', 'hus850', 'rsds', 'hfls', 'rsdt', 'ua200', 'vas', 'ua500', 'tasmax', 'rlds', 'va850', 'rsut', 'ta500', 'evspsbl', 'clt', 'tasmin', 'rlut', 'tas']</t>
+          <t>['sic', 'rlus', 'huss', 'sfcWind', 'uas', 'va500', 'va200', 'ta200', 'hurs', 'psl', 'snc', 'hfss', 'snm', 'rsus', 'ta850', 'ua850', 'sfcWindmax', 'pr', 'mrso', 'hus850', 'rsds', 'hfls', 'rsdt', 'ua200', 'vas', 'ua500', 'tasmax', 'rlds', 'va850', 'rsut', 'ta500', 'evspsbl', 'clt', 'tasmin', 'rlut', 'tas']</t>
         </is>
       </c>
     </row>
@@ -17122,7 +17122,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -17178,7 +17178,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -17238,7 +17238,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['hfls', 'rsdt', 'va500', 'va200', 'sic', 'va850', 'rsds', 'clt', 'huss', 'snm', 'ua200', 'rsut', 'evspsbl', 'ta500', 'tas', 'pr', 'rlds', 'tasmax', 'snc', 'ua500', 'rlus', 'uas', 'hurs', 'hus850', 'rlut', 'vas', 'ua850', 'rsus', 'ta200', 'sfcWind', 'ta850', 'sfcWindmax', 'mrso', 'tasmin', 'psl', 'hfss', 'hfls', 'rsdt', 'va500', 'va200', 'sic', 'va850', 'rsds', 'clt', 'huss', 'snm', 'ua200', 'rsut', 'evspsbl', 'ta500', 'tas', 'pr', 'rlds', 'tasmax', 'snc', 'ua500', 'rlus', 'uas', 'hurs', 'hus850', 'rlut', 'vas', 'ua850', 'rsus', 'ta200', 'sfcWind', 'ta850', 'sfcWindmax', 'mrso', 'tasmin', 'psl', 'hfss']</t>
+          <t>['hfls', 'rsdt', 'va500', 'va200', 'sic', 'va850', 'rsds', 'clt', 'huss', 'snm', 'ua200', 'rsut', 'evspsbl', 'ta500', 'tas', 'pr', 'rlds', 'tasmax', 'snc', 'ua500', 'rlus', 'uas', 'hurs', 'hus850', 'rlut', 'vas', 'ua850', 'rsus', 'ta200', 'sfcWind', 'ta850', 'sfcWindmax', 'mrso', 'tasmin', 'psl', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -17294,7 +17294,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -17322,7 +17322,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -17550,7 +17550,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'sfcWind', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sund', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'sfcWind', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sund']</t>
+          <t>['sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'sfcWind', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sund']</t>
         </is>
       </c>
     </row>
@@ -17790,7 +17790,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['hfss', 'hfss']</t>
+          <t>['hfss']</t>
         </is>
       </c>
     </row>
@@ -17882,7 +17882,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['rlut', 'ua200', 'hus850', 'sfcWind', 'psl', 'ta200', 'tasmin', 'rlus', 'tauv', 'huss', 'prhmax', 'clivi', 'uas', 'rsds', 'evspsbl', 'tasmax', 'tas', 'ua500', 'hurs', 'hfss', 'snm', 'rsus', 'prw', 'ta500', 'rsut', 'vas', 'clt', 'va200', 'hfls', 'rsdt', 'prc', 'ta850', 'clh', 'tauu', 'rlds', 'sic', 'clwvi', 'clm', 'ps', 'va500', 'mrso', 'sfcWindmax', 'va850', 'prsn', 'ua850', 'ts', 'cll', 'snc', 'pr', 'rlut', 'ua200', 'hus850', 'sfcWind', 'psl', 'ta200', 'tasmin', 'rlus', 'tauv', 'huss', 'prhmax', 'clivi', 'uas', 'rsds', 'evspsbl', 'tasmax', 'tas', 'ua500', 'hurs', 'hfss', 'snm', 'rsus', 'prw', 'ta500', 'rsut', 'vas', 'clt', 'va200', 'hfls', 'rsdt', 'prc', 'ta850', 'clh', 'tauu', 'rlds', 'sic', 'clwvi', 'clm', 'ps', 'va500', 'mrso', 'sfcWindmax', 'va850', 'prsn', 'ua850', 'ts', 'cll', 'snc', 'pr', 'mrro', 'mrros']</t>
+          <t>['rlut', 'ua200', 'hus850', 'sfcWind', 'psl', 'ta200', 'tasmin', 'rlus', 'tauv', 'huss', 'prhmax', 'clivi', 'uas', 'rsds', 'evspsbl', 'tasmax', 'tas', 'ua500', 'hurs', 'hfss', 'snm', 'rsus', 'prw', 'ta500', 'rsut', 'vas', 'clt', 'va200', 'hfls', 'rsdt', 'prc', 'ta850', 'clh', 'tauu', 'rlds', 'sic', 'clwvi', 'clm', 'ps', 'va500', 'mrso', 'sfcWindmax', 'va850', 'prsn', 'ua850', 'ts', 'cll', 'snc', 'pr', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -17910,7 +17910,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -18030,7 +18030,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['rlut', 'va850', 'hurs', 'tasmin', 'vas', 'uas', 'va500', 'hus850', 'sfcWind', 'va200', 'ua850', 'pr', 'rsds', 'psl', 'tas', 'hfls', 'rsdt', 'rsut', 'evspsbl', 'ua500', 'mrso', 'ua200', 'sic', 'ta850', 'clt', 'rlds', 'snc', 'ta200', 'rlus', 'hfss', 'huss', 'snm', 'ta500', 'sfcWindmax', 'rsus', 'tasmax', 'rlut', 'va850', 'hurs', 'tasmin', 'vas', 'uas', 'va500', 'hus850', 'sfcWind', 'va200', 'ua850', 'pr', 'rsds', 'psl', 'tas', 'hfls', 'rsdt', 'rsut', 'evspsbl', 'ua500', 'mrso', 'ua200', 'sic', 'ta850', 'clt', 'rlds', 'snc', 'ta200', 'rlus', 'hfss', 'huss', 'snm', 'ta500', 'sfcWindmax', 'rsus', 'tasmax']</t>
+          <t>['rlut', 'va850', 'hurs', 'tasmin', 'vas', 'uas', 'va500', 'hus850', 'sfcWind', 'va200', 'ua850', 'pr', 'rsds', 'psl', 'tas', 'hfls', 'rsdt', 'rsut', 'evspsbl', 'ua500', 'mrso', 'ua200', 'sic', 'ta850', 'clt', 'rlds', 'snc', 'ta200', 'rlus', 'hfss', 'huss', 'snm', 'ta500', 'sfcWindmax', 'rsus', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -18058,7 +18058,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -18114,7 +18114,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'va500', 'psl', 'clt', 'rlus', 'huss', 'tasmax', 'evspsbl', 'uas', 'va850', 'snc', 'ta850', 'ua500', 'pr', 'tasmin', 'mrso', 'ta200', 'rsut', 'ua200', 'rlds', 'vas', 'rlut', 'rsds', 'hfss', 'sfcWind', 'ua850', 'hfls', 'rsdt', 'snm', 'ta500', 'rsus', 'va200', 'tas', 'hurs', 'sic', 'hus850', 'sfcWindmax', 'va500', 'psl', 'clt', 'rlus', 'huss', 'tasmax', 'evspsbl', 'uas', 'va850', 'snc', 'ta850', 'ua500', 'pr', 'tasmin', 'mrso', 'ta200', 'rsut', 'ua200', 'rlds', 'vas', 'rlut', 'rsds', 'hfss', 'sfcWind', 'ua850', 'hfls', 'rsdt', 'snm', 'ta500', 'rsus', 'va200', 'tas', 'hurs', 'sic', 'hus850']</t>
+          <t>['sfcWindmax', 'va500', 'psl', 'clt', 'rlus', 'huss', 'tasmax', 'evspsbl', 'uas', 'va850', 'snc', 'ta850', 'ua500', 'pr', 'tasmin', 'mrso', 'ta200', 'rsut', 'ua200', 'rlds', 'vas', 'rlut', 'rsds', 'hfss', 'sfcWind', 'ua850', 'hfls', 'rsdt', 'snm', 'ta500', 'rsus', 'va200', 'tas', 'hurs', 'sic', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -18230,7 +18230,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -18258,7 +18258,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['hfss', 'sfcWind', 'rlds', 'ps', 'rsds', 'hurs', 'pr', 'tas', 'hfss', 'sfcWind', 'rlds', 'ps', 'rsds', 'hurs', 'pr', 'tas', 'rlus', 'huss', 'psl', 'hfls', 'rsus']</t>
+          <t>['hfss', 'sfcWind', 'rlds', 'ps', 'rsds', 'hurs', 'pr', 'tas', 'rlus', 'huss', 'psl', 'hfls', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['clt', 'ps', 'sfcWind', 'ta500', 'ts', 'clwvi', 'clh', 'vas', 'hfss', 'va850', 'rlds', 'zg200', 'snw', 'va200', 'hus850', 'mrro', 'ta200', 'rsut', 'zg500', 'sund', 'va500', 'prw', 'hurs', 'ua500', 'tauu', 'sic', 'ta850', 'pr', 'rsus', 'tasmin', 'clt', 'ps', 'sfcWind', 'ta500', 'ts', 'clwvi', 'clh', 'vas', 'hfss', 'va850', 'rlds', 'zg200', 'snw', 'va200', 'hus850', 'mrro', 'ta200', 'rsut', 'zg500', 'sund', 'va500', 'prw', 'hurs', 'ua500', 'tauu', 'sic', 'ta850', 'pr', 'rsus', 'tasmin', 'evspsbl', 'ua850', 'sfcWindmax', 'rlut', 'clm', 'psl', 'rlus', 'tauv', 'clivi', 'huss', 'uas', 'tasmax', 'prc', 'snm', 'tas', 'prsn', 'hfls', 'rsdt', 'snd', 'rsds', 'prhmax', 'cll', 'mrso', 'mrros', 'snc', 'ua200']</t>
+          <t>['clt', 'ps', 'sfcWind', 'ta500', 'ts', 'clwvi', 'clh', 'vas', 'hfss', 'va850', 'rlds', 'zg200', 'snw', 'va200', 'hus850', 'mrro', 'ta200', 'rsut', 'zg500', 'sund', 'va500', 'prw', 'hurs', 'ua500', 'tauu', 'sic', 'ta850', 'pr', 'rsus', 'tasmin', 'evspsbl', 'ua850', 'sfcWindmax', 'rlut', 'clm', 'psl', 'rlus', 'tauv', 'clivi', 'huss', 'uas', 'tasmax', 'prc', 'snm', 'tas', 'prsn', 'hfls', 'rsdt', 'snd', 'rsds', 'prhmax', 'cll', 'mrso', 'mrros', 'snc', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18426,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['orog', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -18458,7 +18458,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['snm', 'psl', 'hus850', 'vas', 'ta850', 'hfss', 'uas', 'va200', 'rlds', 'tasmin', 'hfls', 'ua200', 'evspsbl', 'mrros', 'mrro', 'clt', 'rlus', 'huss', 'ua500', 'hurs', 'snd', 'mrso', 'snc', 'rsus', 'ta500', 'snm', 'psl', 'hus850', 'vas', 'ta850', 'hfss', 'uas', 'va200', 'rlds', 'tasmin', 'hfls', 'ua200', 'evspsbl', 'mrros', 'mrro', 'clt', 'rlus', 'huss', 'ua500', 'hurs', 'snd', 'mrso', 'snc', 'rsus', 'ta500', 'zg500', 'snw', 'va500', 'sfcWindmax', 'rlut', 'sic', 'tasmax', 'sfcWind', 'zg200', 'pr', 'ua850', 'rsdt', 'va850', 'rsds', 'ta200', 'rsut', 'tas', 'sund']</t>
+          <t>['snm', 'psl', 'hus850', 'vas', 'ta850', 'hfss', 'uas', 'va200', 'rlds', 'tasmin', 'hfls', 'ua200', 'evspsbl', 'mrros', 'mrro', 'clt', 'rlus', 'huss', 'ua500', 'hurs', 'snd', 'mrso', 'snc', 'rsus', 'ta500', 'zg500', 'snw', 'va500', 'sfcWindmax', 'rlut', 'sic', 'tasmax', 'sfcWind', 'zg200', 'pr', 'ua850', 'rsdt', 'va850', 'rsds', 'ta200', 'rsut', 'tas', 'sund']</t>
         </is>
       </c>
     </row>
@@ -18490,7 +18490,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['rsus', 'mrros', 'mrro', 'hfls', 'rsdt', 'mrso', 'clt', 'sfcWindmax', 'tasmin', 'ta500', 'rsut', 'snw', 'sund', 'sfcWind', 'evspsbl', 'ua850', 'rlds', 'ua200', 'tasmax', 'rlut', 'hus850', 'snc', 'ta850', 'rsus', 'mrros', 'mrro', 'hfls', 'rsdt', 'mrso', 'clt', 'sfcWindmax', 'tasmin', 'ta500', 'rsut', 'snw', 'sund', 'sfcWind', 'evspsbl', 'ua850', 'rlds', 'ua200', 'tasmax', 'rlut', 'hus850', 'snc', 'ta850', 'hurs', 'uas', 'va850', 'rsds', 'snm', 'vas', 'psl', 'ta200', 'rlus', 'huss', 'sic', 'ua500', 'snd', 'zg500', 'tas', 'va500', 'hfss', 'zg200', 'va200', 'pr']</t>
+          <t>['rsus', 'mrros', 'mrro', 'hfls', 'rsdt', 'mrso', 'clt', 'sfcWindmax', 'tasmin', 'ta500', 'rsut', 'snw', 'sund', 'sfcWind', 'evspsbl', 'ua850', 'rlds', 'ua200', 'tasmax', 'rlut', 'hus850', 'snc', 'ta850', 'hurs', 'uas', 'va850', 'rsds', 'snm', 'vas', 'psl', 'ta200', 'rlus', 'huss', 'sic', 'ua500', 'snd', 'zg500', 'tas', 'va500', 'hfss', 'zg200', 'va200', 'pr']</t>
         </is>
       </c>
     </row>
@@ -18530,7 +18530,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['rsus', 'psl', 'pr', 'rlus', 'huss', 'rsds', 'hfss', 'sfcWind', 'rsus', 'psl', 'pr', 'rlus', 'huss', 'rsds', 'hfss', 'sfcWind', 'hurs', 'tas', 'rlds', 'ps', 'hfls']</t>
+          <t>['rsus', 'psl', 'pr', 'rlus', 'huss', 'rsds', 'hfss', 'sfcWind', 'hurs', 'tas', 'rlds', 'ps', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -18562,7 +18562,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['vas', 'vas', 'uas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -18594,7 +18594,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['evspsbl', 'sfcWindmax', 'clt', 'rlus', 'hfss', 'ta850', 'rlds', 'snw', 'ts', 'hfls', 'zg500', 'snm', 'psl', 'ua850', 'huss', 'uas', 'ta200', 'mrso', 'sic', 'rsds', 'prsn', 'clh', 'vas', 'tas', 'clwvi', 'snd', 'rsus', 'rlut', 'va200', 'tauv', 'ua500', 'rsut', 'prw', 'hurs', 'tauu', 'clivi', 'cll', 'tasmin', 'prc', 'ua200', 'clm', 'mrro', 'evspsbl', 'sfcWindmax', 'clt', 'rlus', 'hfss', 'ta850', 'rlds', 'snw', 'ts', 'hfls', 'zg500', 'snm', 'psl', 'ua850', 'huss', 'uas', 'ta200', 'mrso', 'sic', 'rsds', 'prsn', 'clh', 'vas', 'tas', 'clwvi', 'snd', 'rsus', 'rlut', 'va200', 'tauv', 'ua500', 'rsut', 'prw', 'hurs', 'tauu', 'clivi', 'cll', 'tasmin', 'prc', 'ua200', 'clm', 'mrro', 'zg200', 'mrros', 'va850', 'hus850', 'tasmax', 'prhmax', 'ps', 'ta500', 'sund', 'rsdt', 'snc', 'pr', 'sfcWind', 'va500']</t>
+          <t>['evspsbl', 'sfcWindmax', 'clt', 'rlus', 'hfss', 'ta850', 'rlds', 'snw', 'ts', 'hfls', 'zg500', 'snm', 'psl', 'ua850', 'huss', 'uas', 'ta200', 'mrso', 'sic', 'rsds', 'prsn', 'clh', 'vas', 'tas', 'clwvi', 'snd', 'rsus', 'rlut', 'va200', 'tauv', 'ua500', 'rsut', 'prw', 'hurs', 'tauu', 'clivi', 'cll', 'tasmin', 'prc', 'ua200', 'clm', 'mrro', 'zg200', 'mrros', 'va850', 'hus850', 'tasmax', 'prhmax', 'ps', 'ta500', 'sund', 'rsdt', 'snc', 'pr', 'sfcWind', 'va500']</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18626,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['rlds', 'mrso', 'zg200', 'va200', 'va850', 'mrro', 'psl', 'hfss', 'sund', 'ua500', 'rlut', 'rlus', 'tasmin', 'sfcWind', 'huss', 'rsut', 'tasmax', 'mrros', 'ua200', 'hus850', 'hfls', 'rsdt', 'pr', 'clt', 'tas', 'hurs', 'snd', 'ua850', 'sfcWindmax', 'rlds', 'mrso', 'zg200', 'va200', 'va850', 'mrro', 'psl', 'hfss', 'sund', 'ua500', 'rlut', 'rlus', 'tasmin', 'sfcWind', 'huss', 'rsut', 'tasmax', 'mrros', 'ua200', 'hus850', 'hfls', 'rsdt', 'pr', 'clt', 'tas', 'hurs', 'snd', 'ua850', 'sfcWindmax', 'vas', 'uas', 'ta200', 'snw', 'ta500', 'snc', 'rsds', 'sic', 'snm', 'zg500', 'va500', 'ta850', 'rsus', 'evspsbl']</t>
+          <t>['rlds', 'mrso', 'zg200', 'va200', 'va850', 'mrro', 'psl', 'hfss', 'sund', 'ua500', 'rlut', 'rlus', 'tasmin', 'sfcWind', 'huss', 'rsut', 'tasmax', 'mrros', 'ua200', 'hus850', 'hfls', 'rsdt', 'pr', 'clt', 'tas', 'hurs', 'snd', 'ua850', 'sfcWindmax', 'vas', 'uas', 'ta200', 'snw', 'ta500', 'snc', 'rsds', 'sic', 'snm', 'zg500', 'va500', 'ta850', 'rsus', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['hfls', 'rsdt', 'mrros', 'snm', 'snc', 'mrro', 'va500', 'rsut', 'sund', 'hurs', 'ta500', 'rsds', 'vas', 'tas', 'sfcWindmax', 'va200', 'rsus', 'rlus', 'pr', 'snd', 'hfss', 'hus850', 'zg200', 'clt', 'tasmin', 'ua850', 'ua500', 'zg500', 'hfls', 'rsdt', 'mrros', 'snm', 'snc', 'mrro', 'va500', 'rsut', 'sund', 'hurs', 'ta500', 'rsds', 'vas', 'tas', 'sfcWindmax', 'va200', 'rsus', 'rlus', 'pr', 'snd', 'hfss', 'hus850', 'zg200', 'clt', 'tasmin', 'ua850', 'ua500', 'zg500', 'huss', 'snw', 'ta200', 'rlds', 'uas', 'ta850', 'rlut', 'psl', 'va850', 'tasmax', 'ua200', 'mrso', 'sic', 'sfcWind', 'evspsbl']</t>
+          <t>['hfls', 'rsdt', 'mrros', 'snm', 'snc', 'mrro', 'va500', 'rsut', 'sund', 'hurs', 'ta500', 'rsds', 'vas', 'tas', 'sfcWindmax', 'va200', 'rsus', 'rlus', 'pr', 'snd', 'hfss', 'hus850', 'zg200', 'clt', 'tasmin', 'ua850', 'ua500', 'zg500', 'huss', 'snw', 'ta200', 'rlds', 'uas', 'ta850', 'rlut', 'psl', 'va850', 'tasmax', 'ua200', 'mrso', 'sic', 'sfcWind', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -18734,7 +18734,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['pr', 'rsus', 'ps', 'sfcWind', 'rlus', 'hfls', 'huss', 'tas', 'rsds', 'rlds', 'hfss', 'psl', 'hurs', 'pr', 'rsus', 'ps', 'sfcWind', 'rlus', 'hfls', 'huss', 'tas', 'rsds', 'rlds', 'hfss', 'psl', 'hurs']</t>
+          <t>['pr', 'rsus', 'ps', 'sfcWind', 'rlus', 'hfls', 'huss', 'tas', 'rsds', 'rlds', 'hfss', 'psl', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -18798,7 +18798,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['ts', 'va200', 'ta500', 'tas', 'ua500', 'hfss', 'sfcWind', 'hus850', 'rsus', 'clivi', 'va850', 'rsds', 'hfls', 'rsdt', 'cll', 'psl', 'clwvi', 'rlut', 'tasmin', 'snm', 'ta200', 'ps', 'va500', 'tauu', 'prw', 'rlds', 'tasmax', 'ta850', 'sfcWindmax', 'vas', 'clt', 'rlus', 'clm', 'evspsbl', 'mrso', 'ua850', 'prc', 'clh', 'rsut', 'snc', 'pr', 'tauv', 'huss', 'prhmax', 'hurs', 'sic', 'prsn', 'uas', 'ua200', 'ts', 'va200', 'ta500', 'tas', 'ua500', 'hfss', 'sfcWind', 'hus850', 'rsus', 'clivi', 'va850', 'rsds', 'hfls', 'rsdt', 'cll', 'psl', 'clwvi', 'rlut', 'tasmin', 'snm', 'ta200', 'ps', 'va500', 'tauu', 'prw', 'rlds', 'tasmax', 'ta850', 'sfcWindmax', 'vas', 'clt', 'rlus', 'clm', 'evspsbl', 'mrso', 'ua850', 'prc', 'clh', 'rsut', 'snc', 'pr', 'tauv', 'huss', 'prhmax', 'hurs', 'sic', 'prsn', 'uas', 'ua200', 'mrros', 'mrro']</t>
+          <t>['ts', 'va200', 'ta500', 'tas', 'ua500', 'hfss', 'sfcWind', 'hus850', 'rsus', 'clivi', 'va850', 'rsds', 'hfls', 'rsdt', 'cll', 'psl', 'clwvi', 'rlut', 'tasmin', 'snm', 'ta200', 'ps', 'va500', 'tauu', 'prw', 'rlds', 'tasmax', 'ta850', 'sfcWindmax', 'vas', 'clt', 'rlus', 'clm', 'evspsbl', 'mrso', 'ua850', 'prc', 'clh', 'rsut', 'snc', 'pr', 'tauv', 'huss', 'prhmax', 'hurs', 'sic', 'prsn', 'uas', 'ua200', 'mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -18826,7 +18826,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -18882,7 +18882,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -18914,7 +18914,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['rsut', 'vas', 'ua500', 'hus850', 'ta200', 'sfcWindmax', 'hfss', 'psl', 'rsds', 'va500', 'snc', 'rsus', 'tas', 'hfls', 'rsdt', 'rlus', 'huss', 'rlut', 'ua850', 'sic', 'pr', 'snm', 'ta850', 'tasmin', 'mrso', 'rlds', 'clt', 'tasmax', 'va850', 'uas', 'ua200', 'evspsbl', 'ta500', 'sfcWind', 'hurs', 'va200', 'rsut', 'vas', 'ua500', 'hus850', 'ta200', 'sfcWindmax', 'hfss', 'psl', 'rsds', 'va500', 'snc', 'rsus', 'tas', 'hfls', 'rsdt', 'rlus', 'huss', 'rlut', 'ua850', 'sic', 'pr', 'snm', 'ta850', 'tasmin', 'mrso', 'rlds', 'clt', 'tasmax', 'va850', 'uas', 'ua200', 'evspsbl', 'ta500', 'sfcWind', 'hurs', 'va200']</t>
+          <t>['rsut', 'vas', 'ua500', 'hus850', 'ta200', 'sfcWindmax', 'hfss', 'psl', 'rsds', 'va500', 'snc', 'rsus', 'tas', 'hfls', 'rsdt', 'rlus', 'huss', 'rlut', 'ua850', 'sic', 'pr', 'snm', 'ta850', 'tasmin', 'mrso', 'rlds', 'clt', 'tasmax', 'va850', 'uas', 'ua200', 'evspsbl', 'ta500', 'sfcWind', 'hurs', 'va200']</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18974,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -19002,7 +19002,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -19090,7 +19090,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['rsds', 'evspsbl', 'uas', 'snm', 'ua850', 'ua200', 'rlds', 'ta200', 'tas', 'sfcWindmax', 'rlus', 'hus850', 'rsus', 'ua500', 'va850', 'tasmax', 'huss', 'snc', 'ta500', 'hurs', 'clt', 'rsut', 'tasmin', 'va200', 'va500', 'rsdt', 'psl', 'hfss', 'sic', 'hfls', 'sfcWind', 'vas', 'ta850', 'rlut', 'pr', 'mrso', 'rsds', 'evspsbl', 'uas', 'snm', 'ua850', 'ua200', 'rlds', 'ta200', 'tas', 'sfcWindmax', 'rlus', 'hus850', 'rsus', 'ua500', 'va850', 'tasmax', 'huss', 'snc', 'ta500', 'hurs', 'clt', 'rsut', 'tasmin', 'va200', 'va500', 'rsdt', 'psl', 'hfss', 'sic', 'hfls', 'sfcWind', 'vas', 'ta850', 'rlut', 'pr', 'mrso']</t>
+          <t>['rsds', 'evspsbl', 'uas', 'snm', 'ua850', 'ua200', 'rlds', 'ta200', 'tas', 'sfcWindmax', 'rlus', 'hus850', 'rsus', 'ua500', 'va850', 'tasmax', 'huss', 'snc', 'ta500', 'hurs', 'clt', 'rsut', 'tasmin', 'va200', 'va500', 'rsdt', 'psl', 'hfss', 'sic', 'hfls', 'sfcWind', 'vas', 'ta850', 'rlut', 'pr', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -19118,7 +19118,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19146,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -19174,7 +19174,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -19242,7 +19242,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['rsds', 'psl', 'hfls', 'ps', 'rsus', 'pr', 'hurs', 'rlds', 'tas', 'sfcWind', 'rlus', 'hfss', 'huss', 'rsds', 'psl', 'hfls', 'ps', 'rsus', 'pr', 'hurs', 'rlds', 'tas', 'sfcWind', 'rlus', 'hfss', 'huss']</t>
+          <t>['rsds', 'psl', 'hfls', 'ps', 'rsus', 'pr', 'hurs', 'rlds', 'tas', 'sfcWind', 'rlus', 'hfss', 'huss']</t>
         </is>
       </c>
     </row>
@@ -19274,7 +19274,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['va850', 'rsds', 'tauu', 'uas', 'clh', 'ua850', 'ua200', 'tas', 'rsut', 'vas', 'snc', 'clm', 'psl', 'hfss', 'sfcWind', 'va500', 'hus850', 'rsus', 'ta500', 'ts', 'clivi', 'hurs', 'rlds', 'prhmax', 'mrso', 'tasmin', 'tauv', 'va200', 'prc', 'rlut', 'evspsbl', 'ta850', 'huss', 'sic', 'clwvi', 'pr', 'hfls', 'rsdt', 'ps', 'tasmax', 'prw', 'rlus', 'clt', 'cll', 'ta200', 'prsn', 'sfcWindmax', 'snm', 'ua500', 'va850', 'rsds', 'tauu', 'uas', 'clh', 'ua850', 'ua200', 'tas', 'rsut', 'vas', 'snc', 'clm', 'psl', 'hfss', 'sfcWind', 'va500', 'hus850', 'rsus', 'ta500', 'ts', 'clivi', 'hurs', 'rlds', 'prhmax', 'mrso', 'tasmin', 'tauv', 'va200', 'prc', 'rlut', 'evspsbl', 'ta850', 'huss', 'sic', 'clwvi', 'pr', 'hfls', 'rsdt', 'ps', 'tasmax', 'prw', 'rlus', 'clt', 'cll', 'ta200', 'prsn', 'sfcWindmax', 'snm', 'ua500', 'mrro', 'mrros']</t>
+          <t>['va850', 'rsds', 'tauu', 'uas', 'clh', 'ua850', 'ua200', 'tas', 'rsut', 'vas', 'snc', 'clm', 'psl', 'hfss', 'sfcWind', 'va500', 'hus850', 'rsus', 'ta500', 'ts', 'clivi', 'hurs', 'rlds', 'prhmax', 'mrso', 'tasmin', 'tauv', 'va200', 'prc', 'rlut', 'evspsbl', 'ta850', 'huss', 'sic', 'clwvi', 'pr', 'hfls', 'rsdt', 'ps', 'tasmax', 'prw', 'rlus', 'clt', 'cll', 'ta200', 'prsn', 'sfcWindmax', 'snm', 'ua500', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -19334,7 +19334,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -19362,7 +19362,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -19390,7 +19390,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -19422,7 +19422,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -19454,7 +19454,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['snc', 'mrso', 'ta200', 'rsut', 'sic', 'sfcWind', 'ua200', 'pr', 'evspsbl', 'ua850', 'va500', 'sfcWindmax', 'vas', 'tasmax', 'hurs', 'va200', 'tasmin', 'hus850', 'rsus', 'uas', 'tas', 'rlus', 'va850', 'rlds', 'rlut', 'ta850', 'huss', 'snm', 'hfls', 'rsdt', 'ua500', 'ta500', 'psl', 'rsds', 'clt', 'hfss', 'snc', 'mrso', 'ta200', 'rsut', 'sic', 'sfcWind', 'ua200', 'pr', 'evspsbl', 'ua850', 'va500', 'sfcWindmax', 'vas', 'tasmax', 'hurs', 'va200', 'tasmin', 'hus850', 'rsus', 'uas', 'tas', 'rlus', 'va850', 'rlds', 'rlut', 'ta850', 'huss', 'snm', 'hfls', 'rsdt', 'ua500', 'ta500', 'psl', 'rsds', 'clt', 'hfss']</t>
+          <t>['snc', 'mrso', 'ta200', 'rsut', 'sic', 'sfcWind', 'ua200', 'pr', 'evspsbl', 'ua850', 'va500', 'sfcWindmax', 'vas', 'tasmax', 'hurs', 'va200', 'tasmin', 'hus850', 'rsus', 'uas', 'tas', 'rlus', 'va850', 'rlds', 'rlut', 'ta850', 'huss', 'snm', 'hfls', 'rsdt', 'ua500', 'ta500', 'psl', 'rsds', 'clt', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -19482,7 +19482,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -19510,7 +19510,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -19538,7 +19538,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -19598,7 +19598,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['rlds', 'vas', 'ua850', 'hfls', 'rsdt', 'evspsbl', 'tasmin', 'hfss', 'sic', 'uas', 'va850', 'rsut', 'hurs', 'ua200', 'clt', 'sfcWindmax', 'snm', 'va200', 'rlut', 'psl', 'pr', 'va500', 'tas', 'ta500', 'hus850', 'snc', 'mrso', 'rsds', 'ta850', 'rsus', 'sfcWind', 'ua500', 'tasmax', 'ta200', 'rlus', 'huss', 'rlds', 'vas', 'ua850', 'hfls', 'rsdt', 'evspsbl', 'tasmin', 'hfss', 'sic', 'uas', 'va850', 'rsut', 'hurs', 'ua200', 'clt', 'sfcWindmax', 'snm', 'va200', 'rlut', 'psl', 'pr', 'va500', 'tas', 'ta500', 'hus850', 'snc', 'mrso', 'rsds', 'ta850', 'rsus', 'sfcWind', 'ua500', 'tasmax', 'ta200', 'rlus', 'huss']</t>
+          <t>['rlds', 'vas', 'ua850', 'hfls', 'rsdt', 'evspsbl', 'tasmin', 'hfss', 'sic', 'uas', 'va850', 'rsut', 'hurs', 'ua200', 'clt', 'sfcWindmax', 'snm', 'va200', 'rlut', 'psl', 'pr', 'va500', 'tas', 'ta500', 'hus850', 'snc', 'mrso', 'rsds', 'ta850', 'rsus', 'sfcWind', 'ua500', 'tasmax', 'ta200', 'rlus', 'huss']</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19626,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -19654,7 +19654,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['snw', 'snd', 'snw', 'snd']</t>
+          <t>['snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -19750,7 +19750,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['rlus', 'tas', 'ps', 'sfcWind', 'hfls', 'hurs', 'huss', 'hfss', 'rsus', 'rsds', 'pr', 'psl', 'rlds', 'rlus', 'tas', 'ps', 'sfcWind', 'hfls', 'hurs', 'huss', 'hfss', 'rsus', 'rsds', 'pr', 'psl', 'rlds']</t>
+          <t>['rlus', 'tas', 'ps', 'sfcWind', 'hfls', 'hurs', 'huss', 'hfss', 'rsus', 'rsds', 'pr', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'vas', 'uas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -19814,7 +19814,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['prsn', 'rsds', 'tasmin', 'evspsbl', 'sic', 'tauv', 'ps', 'tasmax', 'ta850', 'hurs', 'pr', 'ua500', 'prhmax', 'psl', 'ta500', 'va850', 'hfls', 'rsdt', 'hfss', 'rsus', 'clt', 'cll', 'clwvi', 'rsut', 'clh', 'vas', 'mrso', 'ta200', 'rlut', 'sfcWindmax', 'snc', 'uas', 'va200', 'clm', 'hus850', 'prc', 'ua850', 'snm', 'ts', 'va500', 'rlus', 'huss', 'tas', 'tauu', 'sfcWind', 'clivi', 'rlds', 'prw', 'ua200', 'prsn', 'rsds', 'tasmin', 'evspsbl', 'sic', 'tauv', 'ps', 'tasmax', 'ta850', 'hurs', 'pr', 'ua500', 'prhmax', 'psl', 'ta500', 'va850', 'hfls', 'rsdt', 'hfss', 'rsus', 'clt', 'cll', 'clwvi', 'rsut', 'clh', 'vas', 'mrso', 'ta200', 'rlut', 'sfcWindmax', 'snc', 'uas', 'va200', 'clm', 'hus850', 'prc', 'ua850', 'snm', 'ts', 'va500', 'rlus', 'huss', 'tas', 'tauu', 'sfcWind', 'clivi', 'rlds', 'prw', 'ua200', 'mrros', 'mrro']</t>
+          <t>['prsn', 'rsds', 'tasmin', 'evspsbl', 'sic', 'tauv', 'ps', 'tasmax', 'ta850', 'hurs', 'pr', 'ua500', 'prhmax', 'psl', 'ta500', 'va850', 'hfls', 'rsdt', 'hfss', 'rsus', 'clt', 'cll', 'clwvi', 'rsut', 'clh', 'vas', 'mrso', 'ta200', 'rlut', 'sfcWindmax', 'snc', 'uas', 'va200', 'clm', 'hus850', 'prc', 'ua850', 'snm', 'ts', 'va500', 'rlus', 'huss', 'tas', 'tauu', 'sfcWind', 'clivi', 'rlds', 'prw', 'ua200', 'mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -19842,7 +19842,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -19898,7 +19898,7 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
+          <t>['zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -19930,7 +19930,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['rsut', 'va500', 'hfss', 'va850', 'hurs', 'snm', 'evspsbl', 'rlus', 'huss', 'hus850', 'hfls', 'rsdt', 'ua850', 'tas', 'psl', 'sfcWindmax', 'ta500', 'rlds', 'uas', 'sfcWind', 'ta850', 'tasmax', 'ua200', 'snc', 'rlut', 'ta200', 'sic', 'clt', 'rsds', 'tasmin', 'rsus', 'ua500', 'vas', 'mrso', 'va200', 'pr', 'rsut', 'va500', 'hfss', 'va850', 'hurs', 'snm', 'evspsbl', 'rlus', 'huss', 'hus850', 'hfls', 'rsdt', 'ua850', 'tas', 'psl', 'sfcWindmax', 'ta500', 'rlds', 'uas', 'sfcWind', 'ta850', 'tasmax', 'ua200', 'snc', 'rlut', 'ta200', 'sic', 'clt', 'rsds', 'tasmin', 'rsus', 'ua500', 'vas', 'mrso', 'va200', 'pr']</t>
+          <t>['rsut', 'va500', 'hfss', 'va850', 'hurs', 'snm', 'evspsbl', 'rlus', 'huss', 'hus850', 'hfls', 'rsdt', 'ua850', 'tas', 'psl', 'sfcWindmax', 'ta500', 'rlds', 'uas', 'sfcWind', 'ta850', 'tasmax', 'ua200', 'snc', 'rlut', 'ta200', 'sic', 'clt', 'rsds', 'tasmin', 'rsus', 'ua500', 'vas', 'mrso', 'va200', 'pr']</t>
         </is>
       </c>
     </row>
@@ -19990,7 +19990,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -20018,7 +20018,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -20046,7 +20046,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -20106,7 +20106,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['va850', 'evspsbl', 'pr', 'rlds', 'ua200', 'ua500', 'rlut', 'hurs', 'sfcWind', 'rsut', 'rsds', 'ta850', 'vas', 'ta500', 'hfss', 'va500', 'hus850', 'tas', 'rlus', 'snc', 'mrso', 'huss', 'psl', 'hfls', 'rsdt', 'va200', 'rsus', 'sic', 'sfcWindmax', 'tasmax', 'tasmin', 'snm', 'ua850', 'ta200', 'uas', 'clt', 'va850', 'evspsbl', 'pr', 'rlds', 'ua200', 'ua500', 'rlut', 'hurs', 'sfcWind', 'rsut', 'rsds', 'ta850', 'vas', 'ta500', 'hfss', 'va500', 'hus850', 'tas', 'rlus', 'snc', 'mrso', 'huss', 'psl', 'hfls', 'rsdt', 'va200', 'rsus', 'sic', 'sfcWindmax', 'tasmax', 'tasmin', 'snm', 'ua850', 'ta200', 'uas', 'clt']</t>
+          <t>['va850', 'evspsbl', 'pr', 'rlds', 'ua200', 'ua500', 'rlut', 'hurs', 'sfcWind', 'rsut', 'rsds', 'ta850', 'vas', 'ta500', 'hfss', 'va500', 'hus850', 'tas', 'rlus', 'snc', 'mrso', 'huss', 'psl', 'hfls', 'rsdt', 'va200', 'rsus', 'sic', 'sfcWindmax', 'tasmax', 'tasmin', 'snm', 'ua850', 'ta200', 'uas', 'clt']</t>
         </is>
       </c>
     </row>
@@ -20134,7 +20134,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['sund', 'sund']</t>
+          <t>['sund']</t>
         </is>
       </c>
     </row>
@@ -20162,7 +20162,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['snd', 'snw', 'snd', 'snw']</t>
+          <t>['snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
+          <t>['zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -20982,7 +20982,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -21018,7 +21018,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua850', 'rsut', 'snw', 'tas', 'va500', 'wsgsmax', 'rlds', 'rlus', 'prc', 'ta850', 'pr', 'huss', 'vas', 'rsus', 'rlut', 'ta500', 'mrro', 'va850', 'clt', 'rsdt', 'mrso', 'rsds', 'tasmax', 'psl', 'sfcWind', 'uas', 'prsn', 'hfss', 'hfls', 'zg500', 'sfcWindmax', 'hus850', 'ta200', 'ua500', 'evspsbl', 'ps', 'ts', 'tasmin', 'ua850', 'rsut', 'snw', 'tas', 'va500', 'wsgsmax', 'rlds', 'rlus', 'prc', 'ta850', 'pr', 'huss', 'vas', 'rsus', 'rlut', 'ta500', 'mrro', 'va850', 'clt', 'rsdt', 'mrso', 'rsds', 'tasmax', 'psl', 'sfcWind', 'uas', 'prsn', 'hfss', 'hfls', 'zg500', 'sfcWindmax', 'hus850', 'ta200', 'ua500', 'evspsbl', 'ps', 'ts']</t>
+          <t>['tasmin', 'ua850', 'rsut', 'snw', 'tas', 'va500', 'wsgsmax', 'rlds', 'rlus', 'prc', 'ta850', 'pr', 'huss', 'vas', 'rsus', 'rlut', 'ta500', 'mrro', 'va850', 'clt', 'rsdt', 'mrso', 'rsds', 'tasmax', 'psl', 'sfcWind', 'uas', 'prsn', 'hfss', 'hfls', 'zg500', 'sfcWindmax', 'hus850', 'ta200', 'ua500', 'evspsbl', 'ps', 'ts']</t>
         </is>
       </c>
     </row>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['rsut', 'clt', 'vas', 'pr', 'ta500', 'mrso', 'sfcWind', 'rsus', 'rlut', 'hfls', 'mrro', 'ua850', 'rsds', 'zg500', 'huss', 'psl', 'ta200', 'snw', 'uas', 'rlds', 'tasmin', 'tasmax', 'tas', 'rlus', 'evspsbl', 'va850', 'hfss', 'rsdt', 'hus850', 'va500', 'ta850', 'ua500', 'sfcWindmax', 'rsut', 'clt', 'vas', 'pr', 'ta500', 'mrso', 'sfcWind', 'rsus', 'rlut', 'hfls', 'mrro', 'ua850', 'rsds', 'zg500', 'huss', 'psl', 'ta200', 'snw', 'uas', 'rlds', 'tasmin', 'tasmax', 'tas', 'rlus', 'evspsbl', 'va850', 'hfss', 'rsdt', 'hus850', 'va500', 'ta850', 'ua500', 'sfcWindmax']</t>
+          <t>['rsut', 'clt', 'vas', 'pr', 'ta500', 'mrso', 'sfcWind', 'rsus', 'rlut', 'hfls', 'mrro', 'ua850', 'rsds', 'zg500', 'huss', 'psl', 'ta200', 'snw', 'uas', 'rlds', 'tasmin', 'tasmax', 'tas', 'rlus', 'evspsbl', 'va850', 'hfss', 'rsdt', 'hus850', 'va500', 'ta850', 'ua500', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -21082,7 +21082,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['rlus', 'huss', 'ua850', 'rsus', 'sfcWind', 'tas', 'zg500', 'mrro', 'pr', 'rsdt', 'rsut', 'psl', 'uas', 'tasmax', 'tasmin', 'evspsbl', 'snw', 'vas', 'ta850', 'ta500', 'ua500', 'hfss', 'hfls', 'rsds', 'va500', 'clt', 'rlds', 'rlut', 'va850', 'ta200', 'sfcWindmax', 'mrso', 'hus850', 'rlus', 'huss', 'ua850', 'rsus', 'sfcWind', 'tas', 'zg500', 'mrro', 'pr', 'rsdt', 'rsut', 'psl', 'uas', 'tasmax', 'tasmin', 'evspsbl', 'snw', 'vas', 'ta850', 'ta500', 'ua500', 'hfss', 'hfls', 'rsds', 'va500', 'clt', 'rlds', 'rlut', 'va850', 'ta200', 'sfcWindmax', 'mrso', 'hus850']</t>
+          <t>['rlus', 'huss', 'ua850', 'rsus', 'sfcWind', 'tas', 'zg500', 'mrro', 'pr', 'rsdt', 'rsut', 'psl', 'uas', 'tasmax', 'tasmin', 'evspsbl', 'snw', 'vas', 'ta850', 'ta500', 'ua500', 'hfss', 'hfls', 'rsds', 'va500', 'clt', 'rlds', 'rlut', 'va850', 'ta200', 'sfcWindmax', 'mrso', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21126,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['ts', 'va500', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'rsds', 'mrro', 'hfss', 'tas', 'ua500', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds', 'ts', 'va500', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'rsds', 'mrro', 'hfss', 'tas', 'ua500', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds']</t>
+          <t>['ts', 'va500', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'rsds', 'mrro', 'hfss', 'tas', 'ua500', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -21194,7 +21194,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['ua850', 'ua500', 'rsdt', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'pr', 'ua850', 'ua500', 'rsdt', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'pr']</t>
+          <t>['ua850', 'ua500', 'rsdt', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -21226,7 +21226,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500', 'ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500']</t>
+          <t>['ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf', 'areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -21302,7 +21302,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'clt', 'hurs', 'tas', 'huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'clt', 'hurs', 'tas']</t>
+          <t>['huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'clt', 'hurs', 'tas']</t>
         </is>
       </c>
     </row>
@@ -21334,7 +21334,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['sfcWind', 'tas', 'uas', 'vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus', 'sfcWind', 'tas', 'uas', 'vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus']</t>
+          <t>['sfcWind', 'tas', 'uas', 'vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -21366,7 +21366,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -21398,7 +21398,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -21430,7 +21430,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic']</t>
+          <t>['snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic']</t>
         </is>
       </c>
     </row>
@@ -21462,7 +21462,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -21506,7 +21506,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -21542,7 +21542,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['tasmax', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'tasmin', 'tas', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va500', 'sfcWind', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'evspsbl', 'rsdt', 'tasmax', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'tasmin', 'tas', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va500', 'sfcWind', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'evspsbl', 'rsdt']</t>
+          <t>['tasmax', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'tasmin', 'tas', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va500', 'sfcWind', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'evspsbl', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -21574,7 +21574,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['hfls', 'sfcWind', 'mrso', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'sfcWindmax', 'va500', 'rlds', 'ua850', 'ta850', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss', 'hfls', 'sfcWind', 'mrso', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'sfcWindmax', 'va500', 'rlds', 'ua850', 'ta850', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss']</t>
+          <t>['hfls', 'sfcWind', 'mrso', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'sfcWindmax', 'va500', 'rlds', 'ua850', 'ta850', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21606,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['snw', 'rsus', 'mrro', 'hus850', 'ta500', 'va500', 'hfls', 'sfcWindmax', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'huss', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850', 'snw', 'rsus', 'mrro', 'hus850', 'ta500', 'va500', 'hfls', 'sfcWindmax', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'huss', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850']</t>
+          <t>['snw', 'rsus', 'mrro', 'hus850', 'ta500', 'va500', 'hfls', 'sfcWindmax', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'huss', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -21646,7 +21646,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -21682,7 +21682,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['mrro', 'hus850', 'mrso', 'hfls', 'evspsbl', 'va850', 'tas', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'rsus', 'rsdt', 'rsut', 'ts', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'ua500', 'ta850', 'rlut', 'snw', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850', 'mrro', 'hus850', 'mrso', 'hfls', 'evspsbl', 'va850', 'tas', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'rsus', 'rsdt', 'rsut', 'ts', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'ua500', 'ta850', 'rlut', 'snw', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850']</t>
+          <t>['mrro', 'hus850', 'mrso', 'hfls', 'evspsbl', 'va850', 'tas', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'rsus', 'rsdt', 'rsut', 'ts', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'ua500', 'ta850', 'rlut', 'snw', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -21714,7 +21714,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['tas', 'rlds', 'evspsbl', 'huss', 'hfss', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'ua500', 'rsdt', 'ua850', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'snw', 'va500', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt', 'tas', 'rlds', 'evspsbl', 'huss', 'hfss', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'ua500', 'rsdt', 'ua850', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'snw', 'va500', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt']</t>
+          <t>['tas', 'rlds', 'evspsbl', 'huss', 'hfss', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'ua500', 'rsdt', 'ua850', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'snw', 'va500', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt']</t>
         </is>
       </c>
     </row>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'zg500', 'rsds', 'evspsbl', 'tas', 'rsdt', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'clt', 'ua850', 'hfss', 'mrro', 'ua500', 'hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'zg500', 'rsds', 'evspsbl', 'tas', 'rsdt', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'clt', 'ua850', 'hfss', 'mrro', 'ua500']</t>
+          <t>['hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'zg500', 'rsds', 'evspsbl', 'tas', 'rsdt', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'clt', 'ua850', 'hfss', 'mrro', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['mrro', 'tas', 'rsdt', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'hus850', 'mrro', 'tas', 'rsdt', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'hus850']</t>
+          <t>['mrro', 'tas', 'rsdt', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -22334,7 +22334,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['snw', 'rlut', 'rlds', 'rsds', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut', 'snw', 'rlut', 'rlds', 'rsds', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut']</t>
+          <t>['snw', 'rlut', 'rlds', 'rsds', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -22366,7 +22366,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'zg500', 'uas', 'rsut', 'tas', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500', 'tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'zg500', 'uas', 'rsut', 'tas', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500']</t>
+          <t>['tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'zg500', 'uas', 'rsut', 'tas', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22446,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>['rlut', 'mrro', 'tasmin', 'va500', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'huss', 'vas', 'rsdt', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr', 'rlut', 'mrro', 'tasmin', 'va500', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'huss', 'vas', 'rsdt', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr']</t>
+          <t>['rlut', 'mrro', 'tasmin', 'va500', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'huss', 'vas', 'rsdt', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22478,7 +22478,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['zg500', 'va500', 'rsut', 'mrso', 'rlut', 'va850', 'hfss', 'rsus', 'ta500', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt', 'zg500', 'va500', 'rsut', 'mrso', 'rlut', 'va850', 'hfss', 'rsus', 'ta500', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt']</t>
+          <t>['zg500', 'va500', 'rsut', 'mrso', 'rlut', 'va850', 'hfss', 'rsus', 'ta500', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['tasmin', 'va500', 'ua850', 'sfcWindmax', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'tasmax', 'snw', 'va850', 'rsdt', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr', 'tasmin', 'va500', 'ua850', 'sfcWindmax', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'tasmax', 'snw', 'va850', 'rsdt', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr']</t>
+          <t>['tasmin', 'va500', 'ua850', 'sfcWindmax', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'tasmax', 'snw', 'va850', 'rsdt', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -22826,7 +22826,7 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['huss', 'tas', 'clt', 'ps', 'pr', 'sfcWind', 'hurs', 'rsds', 'huss', 'tas', 'clt', 'ps', 'pr', 'sfcWind', 'hurs', 'rsds']</t>
+          <t>['huss', 'tas', 'clt', 'ps', 'pr', 'sfcWind', 'hurs', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -22858,7 +22858,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['rsds', 'clt', 'ps', 'pr', 'rsus', 'sfcWind', 'huss', 'hurs', 'psl', 'tas', 'rlds', 'rsds', 'clt', 'ps', 'pr', 'rsus', 'sfcWind', 'huss', 'hurs', 'psl', 'tas', 'rlds']</t>
+          <t>['rsds', 'clt', 'ps', 'pr', 'rsus', 'sfcWind', 'huss', 'hurs', 'psl', 'tas', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -22890,7 +22890,7 @@
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'vas', 'uas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -22922,7 +22922,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>['tasmax', 'tas', 'ta850', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'clt', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'tasmax', 'tas', 'ta850', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'clt', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
+          <t>['tasmax', 'tas', 'ta850', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'clt', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22954,7 +22954,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['clt', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'vas', 'zg500', 'va850', 'uas', 'va500', 'ua500', 'ua850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'clt', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'vas', 'zg500', 'va850', 'uas', 'va500', 'ua500', 'ua850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr']</t>
+          <t>['clt', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'vas', 'zg500', 'va850', 'uas', 'va500', 'ua500', 'ua850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'sfcWind', 'snw', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'uas', 'ua500', 'ua850', 'evspsbl', 'clt', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'sfcWind', 'snw', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'uas', 'ua500', 'ua850', 'evspsbl', 'clt', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'sfcWind', 'snw', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'uas', 'ua500', 'ua850', 'evspsbl', 'clt', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23026,7 +23026,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23062,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'pr', 'rsds', 'sfcWind', 'tas', 'ps', 'huss', 'hurs', 'clt', 'pr', 'rsds', 'sfcWind', 'tas', 'ps']</t>
+          <t>['huss', 'hurs', 'clt', 'pr', 'rsds', 'sfcWind', 'tas', 'ps']</t>
         </is>
       </c>
     </row>
@@ -23094,7 +23094,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas', 'ps', 'huss', 'hurs', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas', 'ps', 'huss', 'hurs', 'clt', 'pr']</t>
+          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas', 'ps', 'huss', 'hurs', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23126,7 +23126,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'vas', 'uas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw']</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr']</t>
+          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23222,7 +23222,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>['zg500', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'zg500', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
+          <t>['zg500', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -23266,7 +23266,7 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf', 'areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -23302,7 +23302,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>['pr', 'rsus', 'hurs', 'psl', 'rlds', 'tas', 'rsds', 'sfcWind', 'huss', 'ps', 'pr', 'rsus', 'hurs', 'psl', 'rlds', 'tas', 'rsds', 'sfcWind', 'huss', 'ps']</t>
+          <t>['pr', 'rsus', 'hurs', 'psl', 'rlds', 'tas', 'rsds', 'sfcWind', 'huss', 'ps']</t>
         </is>
       </c>
     </row>
@@ -23334,7 +23334,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'vas', 'uas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>['ua850', 'sfcWind', 'psl', 'uas', 'rsds', 'rsdt', 'huss', 'zg500', 'rlus', 'snw', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'ta500', 'wsgsmax', 'rsus', 'rlut', 'prc', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850', 'ua850', 'sfcWind', 'psl', 'uas', 'rsds', 'rsdt', 'huss', 'zg500', 'rlus', 'snw', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'ta500', 'wsgsmax', 'rsus', 'rlut', 'prc', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850']</t>
+          <t>['ua850', 'sfcWind', 'psl', 'uas', 'rsds', 'rsdt', 'huss', 'zg500', 'rlus', 'snw', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'ta500', 'wsgsmax', 'rsus', 'rlut', 'prc', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850']</t>
         </is>
       </c>
     </row>
@@ -23398,7 +23398,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>['sfcWind', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'rlut', 'rlus', 'snw', 'pr', 'uas', 'va850', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500', 'sfcWind', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'rlut', 'rlus', 'snw', 'pr', 'uas', 'va850', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500']</t>
+          <t>['sfcWind', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'rlut', 'rlus', 'snw', 'pr', 'uas', 'va850', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -23430,7 +23430,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>['mrso', 'sfcWind', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'va850', 'pr', 'rlds', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'rsus', 'rlus', 'hurs', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro', 'mrso', 'sfcWind', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'va850', 'pr', 'rlds', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'rsus', 'rlus', 'hurs', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro']</t>
+          <t>['mrso', 'sfcWind', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'va850', 'pr', 'rlds', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'rsus', 'rlus', 'hurs', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -23470,7 +23470,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -23506,7 +23506,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'sfcWind', 'tas', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'sfcWind', 'tas']</t>
+          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -23538,7 +23538,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas']</t>
+          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas']</t>
         </is>
       </c>
     </row>
@@ -23570,7 +23570,7 @@
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'vas', 'uas']</t>
+          <t>['vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -23602,7 +23602,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'ts', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'ts', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'ts', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23634,7 +23634,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'zg500', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'uas', 'zg500', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr']</t>
+          <t>['vas', 'uas', 'zg500', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23942,7 +23942,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf', 'areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -23978,7 +23978,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>['pr', 'ps', 'tas', 'rsus', 'sfcWind', 'huss', 'rsds', 'hurs', 'psl', 'rlds', 'pr', 'ps', 'tas', 'rsus', 'sfcWind', 'huss', 'rsds', 'hurs', 'psl', 'rlds']</t>
+          <t>['pr', 'ps', 'tas', 'rsus', 'sfcWind', 'huss', 'rsds', 'hurs', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -24010,7 +24010,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>['uas', 'vas', 'uas', 'vas']</t>
+          <t>['uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -24042,7 +24042,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>['psl', 'clt', 'rlds', 'ta850', 'vas', 'ta500', 'rsds', 'hurs', 'snw', 'mrro', 'va500', 'pr', 'rsus', 'rlut', 'huss', 'prc', 'ps', 'ua500', 'ua850', 'ts', 'va850', 'wsgsmax', 'tasmin', 'uas', 'prsn', 'rlus', 'hfss', 'rsdt', 'evspsbl', 'tas', 'zg500', 'tasmax', 'sfcWind', 'sfcWindmax', 'hfls', 'mrso', 'rsut', 'hus850', 'ta200', 'psl', 'clt', 'rlds', 'ta850', 'vas', 'ta500', 'rsds', 'hurs', 'snw', 'mrro', 'va500', 'pr', 'rsus', 'rlut', 'huss', 'prc', 'ps', 'ua500', 'ua850', 'ts', 'va850', 'wsgsmax', 'tasmin', 'uas', 'prsn', 'rlus', 'hfss', 'rsdt', 'evspsbl', 'tas', 'zg500', 'tasmax', 'sfcWind', 'sfcWindmax', 'hfls', 'mrso', 'rsut', 'hus850', 'ta200']</t>
+          <t>['psl', 'clt', 'rlds', 'ta850', 'vas', 'ta500', 'rsds', 'hurs', 'snw', 'mrro', 'va500', 'pr', 'rsus', 'rlut', 'huss', 'prc', 'ps', 'ua500', 'ua850', 'ts', 'va850', 'wsgsmax', 'tasmin', 'uas', 'prsn', 'rlus', 'hfss', 'rsdt', 'evspsbl', 'tas', 'zg500', 'tasmax', 'sfcWind', 'sfcWindmax', 'hfls', 'mrso', 'rsut', 'hus850', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -24074,7 +24074,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'ta850', 'sfcWindmax', 'evspsbl', 'huss', 'clt', 'sfcWind', 'vas', 'zg500', 'ta500', 'va500', 'va850', 'hfls', 'rsus', 'rlus', 'hurs', 'pr', 'mrso', 'ta200', 'rsut', 'hus850', 'ua500', 'tasmax', 'hfss', 'psl', 'uas', 'rsdt', 'rlut', 'snw', 'ua850', 'tas', 'mrro', 'tasmin', 'rsds', 'rlds', 'ta850', 'sfcWindmax', 'evspsbl', 'huss', 'clt', 'sfcWind', 'vas', 'zg500', 'ta500', 'va500', 'va850', 'hfls', 'rsus', 'rlus', 'hurs', 'pr', 'mrso', 'ta200', 'rsut', 'hus850', 'ua500', 'tasmax', 'hfss', 'psl', 'uas', 'rsdt', 'rlut', 'snw', 'ua850', 'tas', 'mrro', 'tasmin']</t>
+          <t>['rsds', 'rlds', 'ta850', 'sfcWindmax', 'evspsbl', 'huss', 'clt', 'sfcWind', 'vas', 'zg500', 'ta500', 'va500', 'va850', 'hfls', 'rsus', 'rlus', 'hurs', 'pr', 'mrso', 'ta200', 'rsut', 'hus850', 'ua500', 'tasmax', 'hfss', 'psl', 'uas', 'rsdt', 'rlut', 'snw', 'ua850', 'tas', 'mrro', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -24106,7 +24106,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>['tas', 'zg500', 'hfss', 'pr', 'hfls', 'rlut', 'evspsbl', 'rsds', 'mrso', 'ta500', 'rlus', 'clt', 'mrro', 'rsdt', 'rsut', 'sfcWind', 'ta200', 'sfcWindmax', 'ta850', 'ua850', 'tasmin', 'tasmax', 'huss', 'snw', 'psl', 'rlds', 'va850', 'ua500', 'rsus', 'uas', 'hurs', 'vas', 'hus850', 'va500', 'tas', 'zg500', 'hfss', 'pr', 'hfls', 'rlut', 'evspsbl', 'rsds', 'mrso', 'ta500', 'rlus', 'clt', 'mrro', 'rsdt', 'rsut', 'sfcWind', 'ta200', 'sfcWindmax', 'ta850', 'ua850', 'tasmin', 'tasmax', 'huss', 'snw', 'psl', 'rlds', 'va850', 'ua500', 'rsus', 'uas', 'hurs', 'vas', 'hus850', 'va500']</t>
+          <t>['tas', 'zg500', 'hfss', 'pr', 'hfls', 'rlut', 'evspsbl', 'rsds', 'mrso', 'ta500', 'rlus', 'clt', 'mrro', 'rsdt', 'rsut', 'sfcWind', 'ta200', 'sfcWindmax', 'ta850', 'ua850', 'tasmin', 'tasmax', 'huss', 'snw', 'psl', 'rlds', 'va850', 'ua500', 'rsus', 'uas', 'hurs', 'vas', 'hus850', 'va500']</t>
         </is>
       </c>
     </row>
@@ -24150,7 +24150,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>['tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'ps', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'va500', 'tasmin', 'mrro', 'vas', 'pr', 'ua500', 'psl', 'rlut', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt', 'tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'ps', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'va500', 'tasmin', 'mrro', 'vas', 'pr', 'ua500', 'psl', 'rlut', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt']</t>
+          <t>['tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'ps', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'va500', 'tasmin', 'mrro', 'vas', 'pr', 'ua500', 'psl', 'rlut', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt']</t>
         </is>
       </c>
     </row>
@@ -24218,7 +24218,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>['ta500', 'rlds', 'uas', 'mrro', 'zg500', 'rsut', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua850', 'ta200', 'clt', 'ta500', 'rlds', 'uas', 'mrro', 'zg500', 'rsut', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua850', 'ta200', 'clt']</t>
+          <t>['ta500', 'rlds', 'uas', 'mrro', 'zg500', 'rsut', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua850', 'ta200', 'clt']</t>
         </is>
       </c>
     </row>
@@ -24250,7 +24250,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>['hfls', 'rlut', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'tasmin', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'uas', 'mrso', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds', 'hfls', 'rlut', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'tasmin', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'uas', 'mrso', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds']</t>
+          <t>['hfls', 'rlut', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'tasmin', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'uas', 'mrso', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -24290,7 +24290,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -24326,7 +24326,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>['prsn', 'hfls', 'rsds', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ts', 'psl', 'ta850', 'rlds', 'ua850', 'rlut', 'wsgsmax', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'ta200', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind', 'prsn', 'hfls', 'rsds', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ts', 'psl', 'ta850', 'rlds', 'ua850', 'rlut', 'wsgsmax', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'ta200', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind']</t>
+          <t>['prsn', 'hfls', 'rsds', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ts', 'psl', 'ta850', 'rlds', 'ua850', 'rlut', 'wsgsmax', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'ta200', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -24358,7 +24358,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>['snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'tasmin', 'rlds', 'mrso', 'uas', 'va500', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sfcWindmax', 'clt', 'ta500', 'snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'tasmin', 'rlds', 'mrso', 'uas', 'va500', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sfcWindmax', 'clt', 'ta500']</t>
+          <t>['snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'tasmin', 'rlds', 'mrso', 'uas', 'va500', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sfcWindmax', 'clt', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -24390,7 +24390,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>['tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax', 'tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax']</t>
+          <t>['tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -25214,7 +25214,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>['va500', 'rsds', 'hus850', 'rsdt', 'zg500', 'va850', 'rlds', 'snc', 'rlut', 'evspsbl', 'ua850', 'prhmax', 'vas', 'wsgsmax', 'mrro', 'snw', 'rsus', 'tas', 'clt', 'hfss', 'hfls', 'pr', 'hurs', 'sfcWind', 'tasmax', 'mrso', 'ts', 'ps', 'sfcWindmax', 'ta500', 'rlus', 'ta850', 'ua500', 'tasmin', 'prc', 'uas', 'ta200', 'rsut', 'psl', 'sund', 'huss', 'prsn', 'snd', 'va500', 'rsds', 'hus850', 'rsdt', 'zg500', 'va850', 'rlds', 'snc', 'rlut', 'evspsbl', 'ua850', 'prhmax', 'vas', 'wsgsmax', 'mrro', 'snw', 'rsus', 'tas', 'clt', 'hfss', 'hfls', 'pr', 'hurs', 'sfcWind', 'tasmax', 'mrso', 'ts', 'ps', 'sfcWindmax', 'ta500', 'rlus', 'ta850', 'ua500', 'tasmin', 'prc', 'uas', 'ta200', 'rsut', 'psl', 'sund', 'huss', 'prsn', 'snd']</t>
+          <t>['va500', 'rsds', 'hus850', 'rsdt', 'zg500', 'va850', 'rlds', 'snc', 'rlut', 'evspsbl', 'ua850', 'prhmax', 'vas', 'wsgsmax', 'mrro', 'snw', 'rsus', 'tas', 'clt', 'hfss', 'hfls', 'pr', 'hurs', 'sfcWind', 'tasmax', 'mrso', 'ts', 'ps', 'sfcWindmax', 'ta500', 'rlus', 'ta850', 'ua500', 'tasmin', 'prc', 'uas', 'ta200', 'rsut', 'psl', 'sund', 'huss', 'prsn', 'snd']</t>
         </is>
       </c>
     </row>
@@ -25246,7 +25246,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -25278,7 +25278,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>['ta850', 'rsus', 'hfls', 'zg500', 'huss', 'rsds', 'tasmin', 'rsdt', 'snw', 'sund', 'sfcWindmax', 'mrso', 'snd', 'va500', 'rlds', 'clt', 'mrro', 'hfss', 'hus850', 'sfcWind', 'rlut', 'hurs', 'uas', 'psl', 'ta500', 'rsut', 'snc', 'ua850', 'ta200', 'tasmax', 'vas', 'tas', 'rlus', 'evspsbl', 'va850', 'ua500', 'pr', 'ta850', 'rsus', 'hfls', 'zg500', 'huss', 'rsds', 'tasmin', 'rsdt', 'snw', 'sund', 'sfcWindmax', 'mrso', 'snd', 'va500', 'rlds', 'clt', 'mrro', 'hfss', 'hus850', 'sfcWind', 'rlut', 'hurs', 'uas', 'psl', 'ta500', 'rsut', 'snc', 'ua850', 'ta200', 'tasmax', 'vas', 'tas', 'rlus', 'evspsbl', 'va850', 'ua500', 'pr']</t>
+          <t>['ta850', 'rsus', 'hfls', 'zg500', 'huss', 'rsds', 'tasmin', 'rsdt', 'snw', 'sund', 'sfcWindmax', 'mrso', 'snd', 'va500', 'rlds', 'clt', 'mrro', 'hfss', 'hus850', 'sfcWind', 'rlut', 'hurs', 'uas', 'psl', 'ta500', 'rsut', 'snc', 'ua850', 'ta200', 'tasmax', 'vas', 'tas', 'rlus', 'evspsbl', 'va850', 'ua500', 'pr']</t>
         </is>
       </c>
     </row>
@@ -25310,7 +25310,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>['vas', 'rlus', 'huss', 'ta500', 'rsus', 'snw', 'clt', 'uas', 'rlds', 'tasmax', 'rsut', 'snd', 'ua500', 'ta850', 'tas', 'hfss', 'sfcWindmax', 'evspsbl', 'snc', 'hfls', 'hus850', 'mrso', 'psl', 'rsdt', 'hurs', 'mrro', 'ta200', 'tasmin', 'ua850', 'va500', 'rsds', 'pr', 'zg500', 'rlut', 'sfcWind', 'va850', 'sund', 'vas', 'rlus', 'huss', 'ta500', 'rsus', 'snw', 'clt', 'uas', 'rlds', 'tasmax', 'rsut', 'snd', 'ua500', 'ta850', 'tas', 'hfss', 'sfcWindmax', 'evspsbl', 'snc', 'hfls', 'hus850', 'mrso', 'psl', 'rsdt', 'hurs', 'mrro', 'ta200', 'tasmin', 'ua850', 'va500', 'rsds', 'pr', 'zg500', 'rlut', 'sfcWind', 'va850', 'sund']</t>
+          <t>['vas', 'rlus', 'huss', 'ta500', 'rsus', 'snw', 'clt', 'uas', 'rlds', 'tasmax', 'rsut', 'snd', 'ua500', 'ta850', 'tas', 'hfss', 'sfcWindmax', 'evspsbl', 'snc', 'hfls', 'hus850', 'mrso', 'psl', 'rsdt', 'hurs', 'mrro', 'ta200', 'tasmin', 'ua850', 'va500', 'rsds', 'pr', 'zg500', 'rlut', 'sfcWind', 'va850', 'sund']</t>
         </is>
       </c>
     </row>
@@ -25414,7 +25414,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'sund', 'snc', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'prhmax', 'mrso', 'prc', 'huss', 'prsn', 'mrro', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'zg500', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'sund', 'snc', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'prhmax', 'mrso', 'prc', 'huss', 'prsn', 'mrro', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'zg500']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'sund', 'snc', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'prhmax', 'mrso', 'prc', 'huss', 'prsn', 'mrro', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -25446,7 +25446,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -25478,7 +25478,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'sund', 'snc', 'snd', 'vas', 'zg500', 'uas', 'va500', 'va850', 'clt', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'tasmax', 'tasmin', 'tas', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'sund', 'snc', 'snd', 'vas', 'zg500', 'uas', 'va500', 'va850', 'clt', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ua500', 'ua850', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'sund', 'snc', 'snd', 'vas', 'zg500', 'uas', 'va500', 'va850', 'clt', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -25510,7 +25510,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'uas', 'tas', 'ua500', 'ua850', 'ta500', 'ta850', 'sfcWindmax', 'sfcWind', 'snw', 'sund', 'snc', 'ta200', 'snd', 'evspsbl', 'clt', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'tasmax', 'tasmin', 'uas', 'tas', 'ua500', 'ua850', 'ta500', 'ta850', 'sfcWindmax', 'sfcWind', 'snw', 'sund', 'snc', 'ta200', 'snd', 'evspsbl', 'clt', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr']</t>
+          <t>['tasmax', 'tasmin', 'uas', 'tas', 'ua500', 'ua850', 'ta500', 'ta850', 'sfcWindmax', 'sfcWind', 'snw', 'sund', 'snc', 'ta200', 'snd', 'evspsbl', 'clt', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -25614,7 +25614,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'ts', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'clt', 'mrso', 'prc', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'wsgsmax', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'ts', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'clt', 'mrso', 'prc', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd']</t>
+          <t>['wsgsmax', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'ts', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'clt', 'mrso', 'prc', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'prhmax', 'rlus', 'rlut', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -25646,7 +25646,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf', 'areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -25678,7 +25678,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta850', 'ta500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'zg500', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta850', 'ta500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'zg500', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850']</t>
+          <t>['rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta850', 'ta500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'zg500', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -25710,7 +25710,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt']</t>
+          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt']</t>
         </is>
       </c>
     </row>
@@ -25814,7 +25814,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>['rlds', 'tasmin', 'prc', 'ps', 'ua850', 'snw', 'ua500', 'rsus', 'uas', 'tas', 'snd', 'vas', 'rsut', 'evspsbl', 'mrro', 'ta200', 'snc', 'zg500', 'hus850', 'ta850', 'wsgsmax', 'clt', 'va500', 'sfcWindmax', 'rlut', 'ta500', 'prhmax', 'ts', 'psl', 'pr', 'rlus', 'va850', 'hurs', 'rsdt', 'huss', 'sund', 'sfcWind', 'hfss', 'hfls', 'tasmax', 'prsn', 'rsds', 'mrso', 'rlds', 'tasmin', 'prc', 'ps', 'ua850', 'snw', 'ua500', 'rsus', 'uas', 'tas', 'snd', 'vas', 'rsut', 'evspsbl', 'mrro', 'ta200', 'snc', 'zg500', 'hus850', 'ta850', 'wsgsmax', 'clt', 'va500', 'sfcWindmax', 'rlut', 'ta500', 'prhmax', 'ts', 'psl', 'pr', 'rlus', 'va850', 'hurs', 'rsdt', 'huss', 'sund', 'sfcWind', 'hfss', 'hfls', 'tasmax', 'prsn', 'rsds', 'mrso']</t>
+          <t>['rlds', 'tasmin', 'prc', 'ps', 'ua850', 'snw', 'ua500', 'rsus', 'uas', 'tas', 'snd', 'vas', 'rsut', 'evspsbl', 'mrro', 'ta200', 'snc', 'zg500', 'hus850', 'ta850', 'wsgsmax', 'clt', 'va500', 'sfcWindmax', 'rlut', 'ta500', 'prhmax', 'ts', 'psl', 'pr', 'rlus', 'va850', 'hurs', 'rsdt', 'huss', 'sund', 'sfcWind', 'hfss', 'hfls', 'tasmax', 'prsn', 'rsds', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -25846,7 +25846,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf', 'areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -25878,7 +25878,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>['hurs', 'hfss', 'psl', 'sfcWindmax', 'rsus', 'snc', 'zg500', 'rlut', 'ta200', 'rlds', 'hfls', 'evspsbl', 'vas', 'mrro', 'pr', 'mrso', 'tasmin', 'uas', 'ta500', 'rsds', 'tas', 'va850', 'ua500', 'hus850', 'clt', 'ua850', 'rsdt', 'va500', 'sfcWind', 'ta850', 'rsut', 'snw', 'tasmax', 'snd', 'rlus', 'sund', 'huss', 'hurs', 'hfss', 'psl', 'sfcWindmax', 'rsus', 'snc', 'zg500', 'rlut', 'ta200', 'rlds', 'hfls', 'evspsbl', 'vas', 'mrro', 'pr', 'mrso', 'tasmin', 'uas', 'ta500', 'rsds', 'tas', 'va850', 'ua500', 'hus850', 'clt', 'ua850', 'rsdt', 'va500', 'sfcWind', 'ta850', 'rsut', 'snw', 'tasmax', 'snd', 'rlus', 'sund', 'huss']</t>
+          <t>['hurs', 'hfss', 'psl', 'sfcWindmax', 'rsus', 'snc', 'zg500', 'rlut', 'ta200', 'rlds', 'hfls', 'evspsbl', 'vas', 'mrro', 'pr', 'mrso', 'tasmin', 'uas', 'ta500', 'rsds', 'tas', 'va850', 'ua500', 'hus850', 'clt', 'ua850', 'rsdt', 'va500', 'sfcWind', 'ta850', 'rsut', 'snw', 'tasmax', 'snd', 'rlus', 'sund', 'huss']</t>
         </is>
       </c>
     </row>
@@ -25910,7 +25910,7 @@
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>['rsus', 'va850', 'snd', 'ua500', 'huss', 'ta500', 'hurs', 'rsut', 'snw', 'uas', 'mrso', 'sfcWindmax', 'vas', 'rsdt', 'va500', 'mrro', 'sfcWind', 'hfss', 'snc', 'zg500', 'ta850', 'clt', 'rlus', 'hus850', 'tasmin', 'tasmax', 'evspsbl', 'psl', 'hfls', 'rlut', 'pr', 'rsds', 'ta200', 'tas', 'rlds', 'sund', 'ua850', 'rsus', 'va850', 'snd', 'ua500', 'huss', 'ta500', 'hurs', 'rsut', 'snw', 'uas', 'mrso', 'sfcWindmax', 'vas', 'rsdt', 'va500', 'mrro', 'sfcWind', 'hfss', 'snc', 'zg500', 'ta850', 'clt', 'rlus', 'hus850', 'tasmin', 'tasmax', 'evspsbl', 'psl', 'hfls', 'rlut', 'pr', 'rsds', 'ta200', 'tas', 'rlds', 'sund', 'ua850']</t>
+          <t>['rsus', 'va850', 'snd', 'ua500', 'huss', 'ta500', 'hurs', 'rsut', 'snw', 'uas', 'mrso', 'sfcWindmax', 'vas', 'rsdt', 'va500', 'mrro', 'sfcWind', 'hfss', 'snc', 'zg500', 'ta850', 'clt', 'rlus', 'hus850', 'tasmin', 'tasmax', 'evspsbl', 'psl', 'hfls', 'rlut', 'pr', 'rsds', 'ta200', 'tas', 'rlds', 'sund', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -26326,7 +26326,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'snw', 'wsgsmax', 'tasmin', 'sfcWind', 'ps', 'rsut', 'evspsbl', 'snc', 'mrso', 'clt', 'snd', 'hfls', 'vas', 'uas', 'prsn', 'rsds', 'huss', 'va850', 'ua500', 'pr', 'tasmax', 'rsdt', 'ta200', 'rsus', 'zg500', 'psl', 'prhmax', 'sund', 'hus850', 'mrro', 'ua850', 'ta850', 'ta500', 'tas', 'sfcWindmax', 'rlds', 'rlut', 'prc', 'hurs', 'va500', 'ts', 'rlus', 'hfss', 'snw', 'wsgsmax', 'tasmin', 'sfcWind', 'ps', 'rsut', 'evspsbl', 'snc', 'mrso', 'clt', 'snd', 'hfls', 'vas', 'uas', 'prsn', 'rsds', 'huss', 'va850', 'ua500', 'pr', 'tasmax', 'rsdt', 'ta200', 'rsus', 'zg500', 'psl', 'prhmax', 'sund', 'hus850', 'mrro', 'ua850', 'ta850', 'ta500', 'tas', 'sfcWindmax', 'rlds', 'rlut', 'prc', 'hurs', 'va500', 'ts']</t>
+          <t>['rlus', 'hfss', 'snw', 'wsgsmax', 'tasmin', 'sfcWind', 'ps', 'rsut', 'evspsbl', 'snc', 'mrso', 'clt', 'snd', 'hfls', 'vas', 'uas', 'prsn', 'rsds', 'huss', 'va850', 'ua500', 'pr', 'tasmax', 'rsdt', 'ta200', 'rsus', 'zg500', 'psl', 'prhmax', 'sund', 'hus850', 'mrro', 'ua850', 'ta850', 'ta500', 'tas', 'sfcWindmax', 'rlds', 'rlut', 'prc', 'hurs', 'va500', 'ts']</t>
         </is>
       </c>
     </row>
@@ -26358,7 +26358,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>['orog', 'areacella', 'sftlf', 'orog', 'areacella', 'sftlf']</t>
+          <t>['orog', 'areacella', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -26390,7 +26390,7 @@
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>['sfcWind', 'va850', 'sfcWindmax', 'ua500', 'hurs', 'vas', 'ta500', 'snd', 'rsus', 'mrso', 'clt', 'rlds', 'hfss', 'tasmax', 'tasmin', 'rsdt', 'rsut', 'psl', 'evspsbl', 'rlus', 'rlut', 'hus850', 'snc', 'huss', 'uas', 'ua850', 'snw', 'zg500', 'va500', 'tas', 'ta200', 'sund', 'hfls', 'ta850', 'pr', 'rsds', 'mrro', 'sfcWind', 'va850', 'sfcWindmax', 'ua500', 'hurs', 'vas', 'ta500', 'snd', 'rsus', 'mrso', 'clt', 'rlds', 'hfss', 'tasmax', 'tasmin', 'rsdt', 'rsut', 'psl', 'evspsbl', 'rlus', 'rlut', 'hus850', 'snc', 'huss', 'uas', 'ua850', 'snw', 'zg500', 'va500', 'tas', 'ta200', 'sund', 'hfls', 'ta850', 'pr', 'rsds', 'mrro']</t>
+          <t>['sfcWind', 'va850', 'sfcWindmax', 'ua500', 'hurs', 'vas', 'ta500', 'snd', 'rsus', 'mrso', 'clt', 'rlds', 'hfss', 'tasmax', 'tasmin', 'rsdt', 'rsut', 'psl', 'evspsbl', 'rlus', 'rlut', 'hus850', 'snc', 'huss', 'uas', 'ua850', 'snw', 'zg500', 'va500', 'tas', 'ta200', 'sund', 'hfls', 'ta850', 'pr', 'rsds', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>['ua500', 'rsut', 'vas', 'uas', 'pr', 'tasmin', 'evspsbl', 'rsus', 'tas', 'mrro', 'va500', 'ta850', 'rlds', 'hfls', 'tasmax', 'sund', 'ua850', 'clt', 'rsds', 'sfcWind', 'psl', 'ta500', 'huss', 'ta200', 'hurs', 'sfcWindmax', 'zg500', 'va850', 'rlus', 'hus850', 'snd', 'hfss', 'mrso', 'snc', 'rsdt', 'rlut', 'snw', 'ua500', 'rsut', 'vas', 'uas', 'pr', 'tasmin', 'evspsbl', 'rsus', 'tas', 'mrro', 'va500', 'ta850', 'rlds', 'hfls', 'tasmax', 'sund', 'ua850', 'clt', 'rsds', 'sfcWind', 'psl', 'ta500', 'huss', 'ta200', 'hurs', 'sfcWindmax', 'zg500', 'va850', 'rlus', 'hus850', 'snd', 'hfss', 'mrso', 'snc', 'rsdt', 'rlut', 'snw']</t>
+          <t>['ua500', 'rsut', 'vas', 'uas', 'pr', 'tasmin', 'evspsbl', 'rsus', 'tas', 'mrro', 'va500', 'ta850', 'rlds', 'hfls', 'tasmax', 'sund', 'ua850', 'clt', 'rsds', 'sfcWind', 'psl', 'ta500', 'huss', 'ta200', 'hurs', 'sfcWindmax', 'zg500', 'va850', 'rlus', 'hus850', 'snd', 'hfss', 'mrso', 'snc', 'rsdt', 'rlut', 'snw']</t>
         </is>
       </c>
     </row>
@@ -26802,7 +26802,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg500', 'uas', 'va500', 'va850', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'clt', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg500', 'uas', 'va500', 'va850', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'clt', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg500', 'uas', 'va500', 'va850', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'clt', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -26834,7 +26834,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -26866,7 +26866,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'uas', 'tas', 'va500', 'ua500', 'ua850', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'zg500', 'va850', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmax', 'tasmin', 'uas', 'tas', 'va500', 'ua500', 'ua850', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'zg500', 'va850', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
+          <t>['tasmax', 'tasmin', 'uas', 'tas', 'va500', 'ua500', 'ua850', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'zg500', 'va850', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -26898,7 +26898,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'mrso', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'vas', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'mrso', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'vas', 'zg500']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'mrso', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'vas', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -27002,7 +27002,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>['snw', 'mrro', 'ua500', 'tasmax', 'zg500', 'sund', 'pr', 'huss', 'ta850', 'rlut', 'ta500', 'rlus', 'hfls', 'rsdt', 'rsut', 'sfcWindmax', 'rlds', 'sfcWind', 'prsn', 'wsgsmax', 'snc', 'ps', 'tas', 'uas', 'tasmin', 'mrso', 'rsds', 'prhmax', 'va500', 'snd', 'rsus', 'hus850', 'ts', 'evspsbl', 'prc', 'hurs', 'psl', 'clt', 'hfss', 'va850', 'vas', 'ua850', 'ta200', 'snw', 'mrro', 'ua500', 'tasmax', 'zg500', 'sund', 'pr', 'huss', 'ta850', 'rlut', 'ta500', 'rlus', 'hfls', 'rsdt', 'rsut', 'sfcWindmax', 'rlds', 'sfcWind', 'prsn', 'wsgsmax', 'snc', 'ps', 'tas', 'uas', 'tasmin', 'mrso', 'rsds', 'prhmax', 'va500', 'snd', 'rsus', 'hus850', 'ts', 'evspsbl', 'prc', 'hurs', 'psl', 'clt', 'hfss', 'va850', 'vas', 'ua850', 'ta200']</t>
+          <t>['snw', 'mrro', 'ua500', 'tasmax', 'zg500', 'sund', 'pr', 'huss', 'ta850', 'rlut', 'ta500', 'rlus', 'hfls', 'rsdt', 'rsut', 'sfcWindmax', 'rlds', 'sfcWind', 'prsn', 'wsgsmax', 'snc', 'ps', 'tas', 'uas', 'tasmin', 'mrso', 'rsds', 'prhmax', 'va500', 'snd', 'rsus', 'hus850', 'ts', 'evspsbl', 'prc', 'hurs', 'psl', 'clt', 'hfss', 'va850', 'vas', 'ua850', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -27034,7 +27034,7 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>['orog', 'areacella', 'sftlf', 'orog', 'areacella', 'sftlf']</t>
+          <t>['orog', 'areacella', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -27066,7 +27066,7 @@
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>['ta500', 'sund', 'rlds', 'zg500', 'ta850', 'rsus', 'hfss', 'ua850', 'ua500', 'vas', 'ta200', 'rsut', 'snw', 'evspsbl', 'uas', 'snc', 'va500', 'rlus', 'hurs', 'psl', 'mrro', 'snd', 'rsds', 'sfcWindmax', 'sfcWind', 'pr', 'rlut', 'tas', 'clt', 'rsdt', 'mrso', 'huss', 'tasmax', 'hfls', 'hus850', 'tasmin', 'va850', 'ta500', 'sund', 'rlds', 'zg500', 'ta850', 'rsus', 'hfss', 'ua850', 'ua500', 'vas', 'ta200', 'rsut', 'snw', 'evspsbl', 'uas', 'snc', 'va500', 'rlus', 'hurs', 'psl', 'mrro', 'snd', 'rsds', 'sfcWindmax', 'sfcWind', 'pr', 'rlut', 'tas', 'clt', 'rsdt', 'mrso', 'huss', 'tasmax', 'hfls', 'hus850', 'tasmin', 'va850']</t>
+          <t>['ta500', 'sund', 'rlds', 'zg500', 'ta850', 'rsus', 'hfss', 'ua850', 'ua500', 'vas', 'ta200', 'rsut', 'snw', 'evspsbl', 'uas', 'snc', 'va500', 'rlus', 'hurs', 'psl', 'mrro', 'snd', 'rsds', 'sfcWindmax', 'sfcWind', 'pr', 'rlut', 'tas', 'clt', 'rsdt', 'mrso', 'huss', 'tasmax', 'hfls', 'hus850', 'tasmin', 'va850']</t>
         </is>
       </c>
     </row>
@@ -27098,7 +27098,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>['mrso', 'ta500', 'rlus', 'tas', 'uas', 'hfss', 'hfls', 'zg500', 'va850', 'sund', 'ua500', 'rsus', 'rlds', 'rsdt', 'ta200', 'tasmax', 'evspsbl', 'snc', 'clt', 'snd', 'vas', 'rlut', 'huss', 'hurs', 'hus850', 'ua850', 'snw', 'va500', 'sfcWindmax', 'tasmin', 'sfcWind', 'ta850', 'rsds', 'rsut', 'psl', 'mrro', 'pr', 'mrso', 'ta500', 'rlus', 'tas', 'uas', 'hfss', 'hfls', 'zg500', 'va850', 'sund', 'ua500', 'rsus', 'rlds', 'rsdt', 'ta200', 'tasmax', 'evspsbl', 'snc', 'clt', 'snd', 'vas', 'rlut', 'huss', 'hurs', 'hus850', 'ua850', 'snw', 'va500', 'sfcWindmax', 'tasmin', 'sfcWind', 'ta850', 'rsds', 'rsut', 'psl', 'mrro', 'pr']</t>
+          <t>['mrso', 'ta500', 'rlus', 'tas', 'uas', 'hfss', 'hfls', 'zg500', 'va850', 'sund', 'ua500', 'rsus', 'rlds', 'rsdt', 'ta200', 'tasmax', 'evspsbl', 'snc', 'clt', 'snd', 'vas', 'rlut', 'huss', 'hurs', 'hus850', 'ua850', 'snw', 'va500', 'sfcWindmax', 'tasmin', 'sfcWind', 'ta850', 'rsds', 'rsut', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -27202,7 +27202,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>['tas', 'prsn', 'mrro', 'ua500', 'prhmax', 'prc', 'ta500', 'rsds', 'snw', 'wsgsmax', 'va500', 'tasmax', 'sfcWind', 'pr', 'rsus', 'vas', 'hus850', 'rlds', 'huss', 'ta850', 'rlus', 'psl', 'ua850', 'ts', 'uas', 'rlut', 'rsdt', 'va850', 'tasmin', 'zg500', 'snd', 'hfss', 'snc', 'ta200', 'hfls', 'evspsbl', 'hurs', 'sund', 'ps', 'clt', 'sfcWindmax', 'rsut', 'mrso', 'tas', 'prsn', 'mrro', 'ua500', 'prhmax', 'prc', 'ta500', 'rsds', 'snw', 'wsgsmax', 'va500', 'tasmax', 'sfcWind', 'pr', 'rsus', 'vas', 'hus850', 'rlds', 'huss', 'ta850', 'rlus', 'psl', 'ua850', 'ts', 'uas', 'rlut', 'rsdt', 'va850', 'tasmin', 'zg500', 'snd', 'hfss', 'snc', 'ta200', 'hfls', 'evspsbl', 'hurs', 'sund', 'ps', 'clt', 'sfcWindmax', 'rsut', 'mrso']</t>
+          <t>['tas', 'prsn', 'mrro', 'ua500', 'prhmax', 'prc', 'ta500', 'rsds', 'snw', 'wsgsmax', 'va500', 'tasmax', 'sfcWind', 'pr', 'rsus', 'vas', 'hus850', 'rlds', 'huss', 'ta850', 'rlus', 'psl', 'ua850', 'ts', 'uas', 'rlut', 'rsdt', 'va850', 'tasmin', 'zg500', 'snd', 'hfss', 'snc', 'ta200', 'hfls', 'evspsbl', 'hurs', 'sund', 'ps', 'clt', 'sfcWindmax', 'rsut', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -27234,7 +27234,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>['sftlf', 'areacella', 'orog', 'sftlf', 'areacella', 'orog']</t>
+          <t>['sftlf', 'areacella', 'orog']</t>
         </is>
       </c>
     </row>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>['rsus', 'hfls', 'rsdt', 'rlut', 'huss', 'vas', 'pr', 'hurs', 'snw', 'rsut', 'zg500', 'va850', 'sund', 'ta200', 'ta850', 'clt', 'ua850', 'snd', 'hus850', 'rlds', 'psl', 'hfss', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrso', 'ua500', 'sfcWindmax', 'rsds', 'tasmax', 'tasmin', 'evspsbl', 'tas', 'mrro', 'sfcWind', 'rsus', 'hfls', 'rsdt', 'rlut', 'huss', 'vas', 'pr', 'hurs', 'snw', 'rsut', 'zg500', 'va850', 'sund', 'ta200', 'ta850', 'clt', 'ua850', 'snd', 'hus850', 'rlds', 'psl', 'hfss', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrso', 'ua500', 'sfcWindmax', 'rsds', 'tasmax', 'tasmin', 'evspsbl', 'tas', 'mrro', 'sfcWind']</t>
+          <t>['rsus', 'hfls', 'rsdt', 'rlut', 'huss', 'vas', 'pr', 'hurs', 'snw', 'rsut', 'zg500', 'va850', 'sund', 'ta200', 'ta850', 'clt', 'ua850', 'snd', 'hus850', 'rlds', 'psl', 'hfss', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrso', 'ua500', 'sfcWindmax', 'rsds', 'tasmax', 'tasmin', 'evspsbl', 'tas', 'mrro', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -27298,7 +27298,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>['tasmax', 'vas', 'snw', 'tasmin', 'rsdt', 'rlut', 'psl', 'huss', 'evspsbl', 'rsut', 'hfls', 'sfcWind', 'hurs', 'ta200', 'rsds', 'snc', 'zg500', 'sund', 'ua500', 'mrro', 'rsus', 'rlus', 'uas', 'tas', 'va850', 'ta850', 'sfcWindmax', 'hfss', 'ua850', 'hus850', 'clt', 'snd', 'va500', 'ta500', 'mrso', 'pr', 'rlds', 'tasmax', 'vas', 'snw', 'tasmin', 'rsdt', 'rlut', 'psl', 'huss', 'evspsbl', 'rsut', 'hfls', 'sfcWind', 'hurs', 'ta200', 'rsds', 'snc', 'zg500', 'sund', 'ua500', 'mrro', 'rsus', 'rlus', 'uas', 'tas', 'va850', 'ta850', 'sfcWindmax', 'hfss', 'ua850', 'hus850', 'clt', 'snd', 'va500', 'ta500', 'mrso', 'pr', 'rlds']</t>
+          <t>['tasmax', 'vas', 'snw', 'tasmin', 'rsdt', 'rlut', 'psl', 'huss', 'evspsbl', 'rsut', 'hfls', 'sfcWind', 'hurs', 'ta200', 'rsds', 'snc', 'zg500', 'sund', 'ua500', 'mrro', 'rsus', 'rlus', 'uas', 'tas', 'va850', 'ta850', 'sfcWindmax', 'hfss', 'ua850', 'hus850', 'clt', 'snd', 'va500', 'ta500', 'mrso', 'pr', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -27682,7 +27682,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>['rlds', 'rsdt', 'ua850', 'zg500', 'ps', 'prhmax', 'snc', 'prsn', 'uas', 'sund', 'ta200', 'mrso', 'snw', 'rsus', 'rsut', 'vas', 'ta850', 'tasmin', 'hurs', 'tas', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'psl', 'ts', 'hfss', 'hfls', 'rlut', 'va500', 'pr', 'wsgsmax', 'huss', 'tasmax', 'prc', 'hus850', 'rlus', 'va850', 'mrro', 'clt', 'snd', 'evspsbl', 'sfcWind', 'rlds', 'rsdt', 'ua850', 'zg500', 'ps', 'prhmax', 'snc', 'prsn', 'uas', 'sund', 'ta200', 'mrso', 'snw', 'rsus', 'rsut', 'vas', 'ta850', 'tasmin', 'hurs', 'tas', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'psl', 'ts', 'hfss', 'hfls', 'rlut', 'va500', 'pr', 'wsgsmax', 'huss', 'tasmax', 'prc', 'hus850', 'rlus', 'va850', 'mrro', 'clt', 'snd', 'evspsbl', 'sfcWind']</t>
+          <t>['rlds', 'rsdt', 'ua850', 'zg500', 'ps', 'prhmax', 'snc', 'prsn', 'uas', 'sund', 'ta200', 'mrso', 'snw', 'rsus', 'rsut', 'vas', 'ta850', 'tasmin', 'hurs', 'tas', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'psl', 'ts', 'hfss', 'hfls', 'rlut', 'va500', 'pr', 'wsgsmax', 'huss', 'tasmax', 'prc', 'hus850', 'rlus', 'va850', 'mrro', 'clt', 'snd', 'evspsbl', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -27714,7 +27714,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>['orog', 'areacella', 'sftlf', 'orog', 'areacella', 'sftlf']</t>
+          <t>['orog', 'areacella', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -27746,7 +27746,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>['hfss', 'rsds', 'tasmax', 'mrso', 'va850', 'rsus', 'hurs', 'clt', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'snd', 'hfls', 'evspsbl', 'ta500', 'snc', 'rsdt', 'ta200', 'rlds', 'psl', 'rlus', 'sfcWind', 'mrro', 'tasmin', 'rsut', 'tas', 'ua850', 'sfcWindmax', 'snw', 'pr', 'vas', 'zg500', 'ua500', 'huss', 'va500', 'hfss', 'rsds', 'tasmax', 'mrso', 'va850', 'rsus', 'hurs', 'clt', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'snd', 'hfls', 'evspsbl', 'ta500', 'snc', 'rsdt', 'ta200', 'rlds', 'psl', 'rlus', 'sfcWind', 'mrro', 'tasmin', 'rsut', 'tas', 'ua850', 'sfcWindmax', 'snw', 'pr', 'vas', 'zg500', 'ua500', 'huss', 'va500']</t>
+          <t>['hfss', 'rsds', 'tasmax', 'mrso', 'va850', 'rsus', 'hurs', 'clt', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'snd', 'hfls', 'evspsbl', 'ta500', 'snc', 'rsdt', 'ta200', 'rlds', 'psl', 'rlus', 'sfcWind', 'mrro', 'tasmin', 'rsut', 'tas', 'ua850', 'sfcWindmax', 'snw', 'pr', 'vas', 'zg500', 'ua500', 'huss', 'va500']</t>
         </is>
       </c>
     </row>
@@ -27778,7 +27778,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>['ua500', 'uas', 'evspsbl', 'huss', 'mrro', 'sfcWindmax', 'rsut', 'rsus', 'vas', 'zg500', 'snw', 'ua850', 'rlds', 'sfcWind', 'hurs', 'tas', 'snd', 'ta850', 'ta500', 'clt', 'rsds', 'hus850', 'psl', 'hfls', 'va500', 'snc', 'sund', 'tasmin', 'mrso', 'va850', 'tasmax', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'pr', 'ua500', 'uas', 'evspsbl', 'huss', 'mrro', 'sfcWindmax', 'rsut', 'rsus', 'vas', 'zg500', 'snw', 'ua850', 'rlds', 'sfcWind', 'hurs', 'tas', 'snd', 'ta850', 'ta500', 'clt', 'rsds', 'hus850', 'psl', 'hfls', 'va500', 'snc', 'sund', 'tasmin', 'mrso', 'va850', 'tasmax', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'pr']</t>
+          <t>['ua500', 'uas', 'evspsbl', 'huss', 'mrro', 'sfcWindmax', 'rsut', 'rsus', 'vas', 'zg500', 'snw', 'ua850', 'rlds', 'sfcWind', 'hurs', 'tas', 'snd', 'ta850', 'ta500', 'clt', 'rsds', 'hus850', 'psl', 'hfls', 'va500', 'snc', 'sund', 'tasmin', 'mrso', 'va850', 'tasmax', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'pr']</t>
         </is>
       </c>
     </row>
@@ -28186,7 +28186,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>['rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'evspsbl', 'clt', 'rlds', 'prhmax', 'rlus', 'prc', 'psl', 'prsn', 'ps', 'pr', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'evspsbl', 'clt', 'rlds', 'prhmax', 'rlus', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'evspsbl', 'clt', 'rlds', 'prhmax', 'rlus', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -28218,7 +28218,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -28250,7 +28250,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>['tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc']</t>
+          <t>['tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc']</t>
         </is>
       </c>
     </row>
@@ -28282,7 +28282,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>['zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850']</t>
+          <t>['zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -29486,7 +29486,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'sfcWindmax', 'tasmax', 'tasmin', 'tas', 'uas', 'ua500', 'ua850', 'ta500', 'ta850', 'vas', 'zg500', 'va500', 'va850', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'rsds', 'rlds', 'sfcWind', 'snw', 'snc', 'sund', 'ta200', 'snd', 'rsds', 'rlds', 'sfcWind', 'snw', 'snc', 'sund', 'ta200', 'snd']</t>
+          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'sfcWindmax', 'tasmax', 'tasmin', 'tas', 'uas', 'ua500', 'ua850', 'ta500', 'ta850', 'vas', 'zg500', 'va500', 'va850', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'rsds', 'rlds', 'sfcWind', 'snw', 'snc', 'sund', 'ta200', 'snd']</t>
         </is>
       </c>
     </row>
@@ -29518,7 +29518,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'clt', 'sfcWindmax', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'uas', 'tas', 'ua500', 'ua850', 'ta850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'vas', 'zg500', 'va500', 'va850']</t>
+          <t>['hfls', 'evspsbl', 'clt', 'sfcWindmax', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'uas', 'tas', 'ua500', 'ua850', 'ta850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'vas', 'zg500', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -29626,7 +29626,7 @@
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>['rlds', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind']</t>
+          <t>['rlds', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -29658,7 +29658,7 @@
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -29690,7 +29690,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'zg500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'zg500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'zg500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -29722,7 +29722,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>['tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'zg500', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'zg500']</t>
+          <t>['tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -30026,7 +30026,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'rsds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'rlds', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'rsds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'rlds', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'snw', 'tas', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'rsds', 'sfcWindmax', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'rlds', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -30058,7 +30058,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'areacella', 'sftlf', 'orog', 'areacella']</t>
+          <t>['sftlf', 'orog', 'areacella']</t>
         </is>
       </c>
     </row>
@@ -30090,7 +30090,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>['rlds', 'mrso', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'mrso', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind']</t>
+          <t>['rlds', 'mrso', 'huss', 'psl', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'clt', 'snw', 'tas', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -30122,7 +30122,7 @@
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>['tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va850', 'va500', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va850', 'va500', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt']</t>
+          <t>['tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va850', 'va500', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt']</t>
         </is>
       </c>
     </row>
@@ -30230,7 +30230,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'clt', 'uas', 'va500', 'ua500', 'ua850', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'rlds', 'rlus', 'prhmax', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg500', 'va850', 'hfls', 'evspsbl', 'clt', 'uas', 'va500', 'ua500', 'ua850', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'rlds', 'rlus', 'prhmax', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg500', 'va850']</t>
+          <t>['hfls', 'evspsbl', 'clt', 'uas', 'va500', 'ua500', 'ua850', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'rlds', 'rlus', 'prhmax', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -30262,7 +30262,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['sftlf', 'areacella', 'orog', 'sftlf', 'areacella', 'orog']</t>
+          <t>['sftlf', 'areacella', 'orog']</t>
         </is>
       </c>
     </row>
@@ -30294,7 +30294,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>['zg500', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'zg500', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
+          <t>['zg500', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -30326,7 +30326,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -30630,7 +30630,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'evspsbl', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'prhmax', 'rlus', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'evspsbl', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'prhmax', 'rlus', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
+          <t>['hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'evspsbl', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'prhmax', 'rlus', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -30662,7 +30662,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'areacella', 'sftlf', 'orog', 'areacella']</t>
+          <t>['sftlf', 'orog', 'areacella']</t>
         </is>
       </c>
     </row>
@@ -30694,7 +30694,7 @@
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>['zg500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'zg500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc']</t>
+          <t>['zg500', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus850', 'clt', 'tasmax', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlds', 'rlus', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc']</t>
         </is>
       </c>
     </row>
@@ -30726,7 +30726,7 @@
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'zg500', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'zg500', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'zg500', 'tasmax', 'tasmin', 'snw', 'tas', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snc', 'snd', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -34666,7 +34666,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -34702,7 +34702,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'prc', 'huss', 'hus850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'prsn', 'ps', 'tasmax', 'tasmin', 'tas', 'ua500', 'ta850', 'ts', 'evspsbl', 'clt', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500', 'evspsbl', 'clt', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500']</t>
+          <t>['hfss', 'hfls', 'mrso', 'prc', 'huss', 'hus850', 'mrro', 'pr', 'wsgsmax', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'prsn', 'ps', 'tasmax', 'tasmin', 'tas', 'ua500', 'ta850', 'ts', 'evspsbl', 'clt', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -34734,7 +34734,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'snw', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'vas', 'zg500', 'va850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tasmin', 'tasmax', 'uas', 'tas', 'va500', 'ua500', 'ua850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tasmin', 'tasmax', 'uas', 'tas', 'va500', 'ua500', 'ua850']</t>
+          <t>['sfcWindmax', 'sfcWind', 'snw', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'pr', 'vas', 'zg500', 'va850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tasmin', 'tasmax', 'uas', 'tas', 'va500', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -34766,7 +34766,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind']</t>
+          <t>['rlds', 'rlus', 'rlut', 'mrso', 'huss', 'psl', 'mrro', 'pr', 'vas', 'zg500', 'uas', 'va500', 'va850', 'ua850', 'hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -34810,7 +34810,7 @@
       </c>
       <c r="J1057" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -34846,7 +34846,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'wsgsmax', 'zg500', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
+          <t>['rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'ts', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'wsgsmax', 'zg500', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -34878,7 +34878,7 @@
       </c>
       <c r="J1059" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'vas', 'zg500', 'uas', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'vas', 'zg500', 'uas', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw']</t>
         </is>
       </c>
     </row>
@@ -34910,7 +34910,7 @@
       </c>
       <c r="J1060" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'zg500', 'tasmax', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'tasmax', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
+          <t>['hfss', 'hfls', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'zg500', 'tasmax', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -34946,7 +34946,7 @@
       </c>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'wsgsmax', 'vas', 'zg500', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'rlds', 'rlus', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'ts', 'rlds', 'rlus', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'ts']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'wsgsmax', 'vas', 'zg500', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'rlds', 'rlus', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'ts']</t>
         </is>
       </c>
     </row>
@@ -35118,7 +35118,7 @@
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500']</t>
+          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35150,7 +35150,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -35186,7 +35186,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind', 'snw', 'ta200', 'ta500', 'ta850', 'wsgsmax', 'vas', 'zg500', 'uas', 'va500', 'va850', 'hfls', 'evspsbl', 'clt', 'hfss', 'mrso', 'prc', 'huss', 'hus850', 'prsn', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'tasmax', 'tasmin', 'tas', 'ua500', 'ua850', 'ts', 'hfls', 'evspsbl', 'clt', 'hfss', 'mrso', 'prc', 'huss', 'hus850', 'prsn', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'tasmax', 'tasmin', 'tas', 'ua500', 'ua850', 'ts']</t>
+          <t>['sfcWindmax', 'sfcWind', 'snw', 'ta200', 'ta500', 'ta850', 'wsgsmax', 'vas', 'zg500', 'uas', 'va500', 'va850', 'hfls', 'evspsbl', 'clt', 'hfss', 'mrso', 'prc', 'huss', 'hus850', 'prsn', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'ps', 'tasmax', 'tasmin', 'tas', 'ua500', 'ua850', 'ts']</t>
         </is>
       </c>
     </row>
@@ -35218,7 +35218,7 @@
       </c>
       <c r="J1069" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'clt', 'sfcWindmax', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'zg500', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'zg500']</t>
+          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hus850', 'mrro', 'pr', 'tasmax', 'tasmin', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'clt', 'sfcWindmax', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'vas', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35250,7 +35250,7 @@
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'vas', 'zg500', 'uas', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua500', 'ua850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua500', 'ua850']</t>
+          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'vas', 'zg500', 'uas', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'clt', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -35326,7 +35326,7 @@
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35358,7 +35358,7 @@
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -35390,7 +35390,7 @@
       </c>
       <c r="J1074" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'zg500', 'hfls', 'evspsbl', 'clt', 'rlds', 'hfss', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfls', 'evspsbl', 'clt', 'rlds', 'hfss', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
+          <t>['sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'zg500', 'hfls', 'evspsbl', 'clt', 'rlds', 'hfss', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -35490,7 +35490,7 @@
       </c>
       <c r="J1077" t="inlineStr">
         <is>
-          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va850', 'va500', 'ua500', 'ua850', 'zg500', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va850', 'va500', 'ua500', 'ua850', 'zg500']</t>
+          <t>['evspsbl', 'clt', 'hfss', 'hfls', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'tasmin', 'vas', 'uas', 'va850', 'va500', 'ua500', 'ua850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35530,7 +35530,7 @@
       </c>
       <c r="J1078" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -35566,7 +35566,7 @@
       </c>
       <c r="J1079" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'mrso', 'prc', 'huss', 'psl', 'prsn', 'mrro', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'tas', 'snw', 'ta200', 'ta500', 'ta850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'mrso', 'prc', 'huss', 'psl', 'prsn', 'mrro', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'tas', 'snw', 'ta200', 'ta500', 'ta850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hus850', 'clt', 'mrso', 'prc', 'huss', 'psl', 'prsn', 'mrro', 'ps', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'tasmax', 'tas', 'snw', 'ta200', 'ta500', 'ta850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -35598,7 +35598,7 @@
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>['zg500', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfls', 'evspsbl', 'clt', 'rlds', 'hfss', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfls', 'evspsbl', 'clt', 'rlds', 'hfss', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850']</t>
+          <t>['zg500', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfls', 'evspsbl', 'clt', 'rlds', 'hfss', 'mrso', 'huss', 'hus850', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -35630,7 +35630,7 @@
       </c>
       <c r="J1081" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'ua500', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'vas', 'zg500', 'va500', 'va850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'vas', 'zg500', 'va500', 'va850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hus850', 'mrro', 'clt', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'ua500', 'ua850', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'vas', 'zg500', 'va500', 'va850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -35666,7 +35666,7 @@
       </c>
       <c r="J1082" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'tas', 'snw', 'ta200', 'ta500', 'ta850', 'mrso', 'prc', 'huss', 'hus850', 'prsn', 'mrro', 'ps', 'pr', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'tas', 'snw', 'ta200', 'ta500', 'ta850', 'mrso', 'prc', 'huss', 'hus850', 'prsn', 'mrro', 'ps', 'pr', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'tas', 'snw', 'ta200', 'ta500', 'ta850', 'mrso', 'prc', 'huss', 'hus850', 'prsn', 'mrro', 'ps', 'pr', 'tasmax', 'tasmin', 'uas', 'ua500', 'ua850', 'ts']</t>
         </is>
       </c>
     </row>
@@ -35782,7 +35782,7 @@
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35814,7 +35814,7 @@
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35846,7 +35846,7 @@
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35886,7 +35886,7 @@
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35918,7 +35918,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35950,7 +35950,7 @@
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35990,7 +35990,7 @@
       </c>
       <c r="J1091" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36022,7 +36022,7 @@
       </c>
       <c r="J1092" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36054,7 +36054,7 @@
       </c>
       <c r="J1093" t="inlineStr">
         <is>
-          <t>['pr', 'tas', 'pr', 'tas']</t>
+          <t>['pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36094,7 +36094,7 @@
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>['pr', 'tas', 'pr', 'tas']</t>
+          <t>['pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36126,7 +36126,7 @@
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36158,7 +36158,7 @@
       </c>
       <c r="J1096" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36202,7 +36202,7 @@
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>['pr', 'tas', 'pr', 'tas']</t>
+          <t>['pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36234,7 +36234,7 @@
       </c>
       <c r="J1098" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -36266,7 +36266,7 @@
       </c>
       <c r="J1099" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36298,7 +36298,7 @@
       </c>
       <c r="J1100" t="inlineStr">
         <is>
-          <t>['tas', 'pr', 'tas', 'pr']</t>
+          <t>['tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36350,7 +36350,7 @@
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -36386,7 +36386,7 @@
       </c>
       <c r="J1102" t="inlineStr">
         <is>
-          <t>['tasmin', 'sfcWind', 'tas', 'tasmax', 'pr', 'tasmin', 'sfcWind', 'tas', 'tasmax', 'pr']</t>
+          <t>['tasmin', 'sfcWind', 'tas', 'tasmax', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36414,7 +36414,7 @@
       </c>
       <c r="J1103" t="inlineStr">
         <is>
-          <t>['uas', 'huss', 'uas', 'huss']</t>
+          <t>['uas', 'huss']</t>
         </is>
       </c>
     </row>
@@ -36442,7 +36442,7 @@
       </c>
       <c r="J1104" t="inlineStr">
         <is>
-          <t>['mrso', 'evspsbl', 'prc', 'prsn', 'mrro', 'ps', 'snw', 'vas', 'snc', 'ts', 'snd', 'mrso', 'evspsbl', 'prc', 'prsn', 'mrro', 'ps', 'snw', 'vas', 'snc', 'ts', 'snd']</t>
+          <t>['mrso', 'evspsbl', 'prc', 'prsn', 'mrro', 'ps', 'snw', 'vas', 'snc', 'ts', 'snd']</t>
         </is>
       </c>
     </row>
@@ -36470,7 +36470,7 @@
       </c>
       <c r="J1105" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsds', 'rlds']</t>
+          <t>['rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -36502,7 +36502,7 @@
       </c>
       <c r="J1106" t="inlineStr">
         <is>
-          <t>['tasmin', 'tasmax', 'sfcWind', 'tas', 'pr', 'tasmin', 'tasmax', 'sfcWind', 'tas', 'pr']</t>
+          <t>['tasmin', 'tasmax', 'sfcWind', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36530,7 +36530,7 @@
       </c>
       <c r="J1107" t="inlineStr">
         <is>
-          <t>['uas', 'huss', 'uas', 'huss']</t>
+          <t>['uas', 'huss']</t>
         </is>
       </c>
     </row>
@@ -36558,7 +36558,7 @@
       </c>
       <c r="J1108" t="inlineStr">
         <is>
-          <t>['evspsbl', 'mrro', 'mrso', 'vas', 'snw', 'snc', 'snd', 'evspsbl', 'mrro', 'mrso', 'vas', 'snw', 'snc', 'snd']</t>
+          <t>['evspsbl', 'mrro', 'mrso', 'vas', 'snw', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -36586,7 +36586,7 @@
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsds', 'rlds']</t>
+          <t>['rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -36614,7 +36614,7 @@
       </c>
       <c r="J1110" t="inlineStr">
         <is>
-          <t>['clivi', 'zmla', 'ts', 'clwvi', 'prc', 'prw', 'prsn', 'ps', 'clivi', 'zmla', 'ts', 'clwvi', 'prc', 'prw', 'prsn', 'ps']</t>
+          <t>['clivi', 'zmla', 'ts', 'clwvi', 'prc', 'prw', 'prsn', 'ps']</t>
         </is>
       </c>
     </row>
@@ -36646,7 +36646,7 @@
       </c>
       <c r="J1111" t="inlineStr">
         <is>
-          <t>['pr', 'tasmin', 'sfcWind', 'tas', 'tasmax', 'pr', 'tasmin', 'sfcWind', 'tas', 'tasmax']</t>
+          <t>['pr', 'tasmin', 'sfcWind', 'tas', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -36674,7 +36674,7 @@
       </c>
       <c r="J1112" t="inlineStr">
         <is>
-          <t>['uas', 'huss', 'uas', 'huss']</t>
+          <t>['uas', 'huss']</t>
         </is>
       </c>
     </row>
@@ -36702,7 +36702,7 @@
       </c>
       <c r="J1113" t="inlineStr">
         <is>
-          <t>['evspsbl', 'mrso', 'vas', 'snw', 'snc', 'mrro', 'snd', 'evspsbl', 'mrso', 'vas', 'snw', 'snc', 'mrro', 'snd']</t>
+          <t>['evspsbl', 'mrso', 'vas', 'snw', 'snc', 'mrro', 'snd']</t>
         </is>
       </c>
     </row>
@@ -36730,7 +36730,7 @@
       </c>
       <c r="J1114" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsds', 'rlds']</t>
+          <t>['rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -36758,7 +36758,7 @@
       </c>
       <c r="J1115" t="inlineStr">
         <is>
-          <t>['prw', 'prsn', 'ps', 'clwvi', 'prc', 'clivi', 'zmla', 'ts', 'prw', 'prsn', 'ps', 'clwvi', 'prc', 'clivi', 'zmla', 'ts']</t>
+          <t>['prw', 'prsn', 'ps', 'clwvi', 'prc', 'clivi', 'zmla', 'ts']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['clwvi', 'clivi', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'zmla', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'va850', 'tasmin', 'psl', 'huss', 'ps', 'sfcWind', 'tas', 'pr', 'clt', 'rlds', 'rsus', 'rsds', 'zg500', 'ua850', 'tasmax']</t>
+          <t>['clwvi', 'clivi', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'zmla', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'va850', 'tasmin', 'psl', 'huss', 'ps', 'sfcWind', 'tas', 'pr', 'clt', 'rlds', 'rsus', 'rsds', 'zg500', 'ua850', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'hus850', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'sfcWind', 'rsus', 'rsds', 'zg500', 'tasmax', 'rlds', 'tasmin', 'va850', 'pr', 'psl', 'huss', 'clt', 'tas']</t>
+          <t>['rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'hus850', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'sfcWind', 'rsus', 'rsds', 'zg500', 'tasmax', 'rlds', 'tasmin', 'va850', 'pr', 'psl', 'huss', 'clt', 'tas']</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['uas', 'va200', 'ua200', 'ua500', 'ta850', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'vas', 'zg200', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'ua850', 'psl', 'clt', 'sfcWind', 'huss', 'rsus', 'rsds', 'tasmax', 'zg500', 'tas', 'va850', 'tasmin', 'rlds', 'pr']</t>
+          <t>['uas', 'va200', 'ua200', 'ua500', 'ta850', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'vas', 'zg200', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'vas', 'zg200', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'ua850', 'psl', 'clt', 'sfcWind', 'huss', 'rsus', 'rsds', 'tasmax', 'zg500', 'tas', 'va850', 'tasmin', 'rlds', 'pr']</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'wsgsmax', 'zmla', 'zg200', 'prhmax', 'rlus', 'mrso', 'prc', 'prw', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'clt', 'ua850', 'va850', 'ps', 'sfcWind', 'pr', 'zg500', 'psl', 'tas', 'tasmin', 'rsds', 'rsus', 'tasmax', 'rlds', 'huss']</t>
+          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'wsgsmax', 'zmla', 'zg200', 'prhmax', 'rlus', 'mrso', 'prc', 'prw', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'wsgsmax', 'zmla', 'zg200', 'prhmax', 'rlus', 'mrso', 'prc', 'prw', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'clt', 'ua850', 'va850', 'ps', 'sfcWind', 'pr', 'zg500', 'psl', 'tas', 'tasmin', 'rsds', 'rsus', 'tasmax', 'rlds', 'huss']</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWind', 'pr', 'ua850', 'rsus', 'zg500', 'tasmin', 'rsds', 'rlds', 'tas', 'clt', 'huss', 'tasmax', 'psl', 'va850']</t>
+          <t>['sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWind', 'pr', 'ua850', 'rsus', 'zg500', 'tasmin', 'rsds', 'rlds', 'tas', 'clt', 'huss', 'tasmax', 'psl', 'va850']</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'rsut', 'snm', 'snw', 'sund', 'snc', 'snd', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'zg500', 'ua850', 'huss', 'psl', 'tas', 'clt', 'pr', 'rsds', 'tasmin', 'rlds', 'rsus', 'va850', 'tasmax']</t>
+          <t>['rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'rsut', 'snm', 'snw', 'sund', 'snc', 'snd', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'rsut', 'snm', 'snw', 'sund', 'snc', 'snd', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'zg500', 'ua850', 'huss', 'psl', 'tas', 'clt', 'pr', 'rsds', 'tasmin', 'rlds', 'rsus', 'va850', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWind']</t>
+          <t>['sfcWindmax', 'sfcWindmax', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['prhmax', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'hus850', 'uas', 'va200', 'va500', 'ua500', 'ts', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'zmla', 'vas', 'zg200', 'ua200', 'pr', 'tasmin', 'ua850', 'ps', 'clt', 'zg500', 'rsus', 'tasmax', 'rlds', 'tas', 'huss', 'va850', 'psl', 'rsds', 'sfcWind']</t>
+          <t>['prhmax', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'hus850', 'uas', 'va200', 'va500', 'ua500', 'ts', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'zmla', 'vas', 'zg200', 'ua200', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'zmla', 'vas', 'zg200', 'ua200', 'pr', 'tasmin', 'ua850', 'ps', 'clt', 'zg500', 'rsus', 'tasmax', 'rlds', 'tas', 'huss', 'va850', 'psl', 'rsds', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['hfss', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'zg200', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'hfls', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'tasmin', 'ua850', 'pr', 'tasmax', 'va850', 'psl', 'sfcWind', 'zg500', 'clt', 'tas', 'huss', 'rsds', 'rsus', 'rlds']</t>
+          <t>['hfss', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'zg200', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'hfls', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'hfls', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'tasmin', 'ua850', 'pr', 'tasmax', 'va850', 'psl', 'sfcWind', 'zg500', 'clt', 'tas', 'huss', 'rsds', 'rsus', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'mrro', 'snw', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'hus850', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'huss', 'tas', 'sfcWind', 'rsus', 'tasmin', 'rsds', 'ua850', 'zg500', 'va850', 'clt', 'pr', 'tasmax', 'psl', 'rlds']</t>
+          <t>['rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'mrro', 'snw', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'hus850', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'huss', 'tas', 'sfcWind', 'rsus', 'tasmin', 'rsds', 'ua850', 'zg500', 'va850', 'clt', 'pr', 'tasmax', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'uas', 'ua200', 'ua500', 'ta850', 'ts', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg200', 'va200', 'va500', 'tas', 'rsds', 'tasmin', 'psl', 'tasmax', 'va850', 'ps', 'ua850', 'clt', 'huss', 'rlds', 'pr', 'zg500', 'rsus', 'sfcWind']</t>
+          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'uas', 'ua200', 'ua500', 'ta850', 'ts', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg200', 'va200', 'va500', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg200', 'va200', 'va500', 'tas', 'rsds', 'tasmin', 'psl', 'tasmax', 'va850', 'ps', 'ua850', 'clt', 'huss', 'rlds', 'pr', 'zg500', 'rsus', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'va850', 'psl', 'rsus', 'tasmin', 'sfcWind', 'rsds', 'huss', 'tasmax', 'ua850', 'clt', 'pr', 'zg500', 'tas', 'rlds']</t>
+          <t>['sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'va850', 'psl', 'rsus', 'tasmin', 'sfcWind', 'rsds', 'huss', 'tasmax', 'ua850', 'clt', 'pr', 'zg500', 'tas', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'hfss', 'hfls', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'zg500', 'tasmax', 'ua850', 'va850', 'clt', 'huss', 'rlds', 'rsds', 'rsus', 'tasmin', 'pr', 'sfcWind', 'psl', 'tas']</t>
+          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'hfss', 'hfls', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'hfss', 'hfls', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'zg500', 'tasmax', 'ua850', 'va850', 'clt', 'huss', 'rlds', 'rsds', 'rsus', 'tasmin', 'pr', 'sfcWind', 'psl', 'tas']</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['hfss', 'mrfso', 'mrso', 'prc', 'mrros', 'hus850', 'mrro', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'prhmax', 'rlus', 'rsdt', 'rlut', 'prw', 'ua500', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'zmla', 'clwvi', 'hfls', 'clivi', 'clt', 'zg500', 'tas', 'va850', 'psl', 'tasmax', 'tasmin', 'ua850', 'huss', 'rsds', 'ps', 'sfcWind', 'rlds', 'pr', 'rsus']</t>
+          <t>['hfss', 'mrfso', 'mrso', 'prc', 'mrros', 'hus850', 'mrro', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'prhmax', 'rlus', 'rsdt', 'rlut', 'prw', 'ua500', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'zmla', 'clwvi', 'hfls', 'clivi', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'zmla', 'clwvi', 'hfls', 'clivi', 'clt', 'zg500', 'tas', 'va850', 'psl', 'tasmax', 'tasmin', 'ua850', 'huss', 'rsds', 'ps', 'sfcWind', 'rlds', 'pr', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'ua850', 'va850', 'rsds', 'tas', 'sfcWind', 'psl', 'zg500', 'huss', 'pr', 'rlds', 'rsus', 'tasmin', 'tasmax', 'clt']</t>
+          <t>['sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'ua850', 'va850', 'rsds', 'tas', 'sfcWind', 'psl', 'zg500', 'huss', 'pr', 'rlds', 'rsus', 'tasmin', 'tasmax', 'clt']</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'zg200', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'tasmax', 'va850', 'huss', 'pr', 'rlds', 'clt', 'tas', 'psl', 'zg500', 'sfcWind', 'rsus', 'rsds', 'tasmin']</t>
+          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'zg200', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'tasmax', 'va850', 'huss', 'pr', 'rlds', 'clt', 'tas', 'psl', 'zg500', 'sfcWind', 'rsus', 'rsds', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['rsdt', 'mrso', 'sfcWindmax', 'uas', 'va500', 'ta500', 'ta200', 'clwvi', 'prw', 'mrro', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'vas', 'clivi', 'prc', 'hus850', 'ta850', 'prhmax', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'snc', 'prsn', 'va200', 'ua200', 'ts', 'hfss', 'hfls', 'mrfso', 'ua500', 'snd', 'tas', 'huss', 'rsus', 'evspsbl', 'sfcWind', 'pr', 'rsds', 'ua850', 'clt', 'tasmax', 'psl', 'tasmin', 'ps', 'rlds', 'hurs', 'va850', 'zg500']</t>
+          <t>['rsdt', 'mrso', 'sfcWindmax', 'uas', 'va500', 'ta500', 'ta200', 'clwvi', 'prw', 'mrro', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'vas', 'clivi', 'prc', 'hus850', 'ta850', 'prhmax', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'snc', 'prsn', 'va200', 'ua200', 'ts', 'hfss', 'hfls', 'mrfso', 'ua500', 'snd', 'rsdt', 'mrso', 'sfcWindmax', 'uas', 'va500', 'ta500', 'ta200', 'clwvi', 'prw', 'mrro', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'vas', 'clivi', 'prc', 'hus850', 'ta850', 'prhmax', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'snc', 'prsn', 'va200', 'ua200', 'ts', 'hfss', 'hfls', 'mrfso', 'ua500', 'snd', 'tas', 'huss', 'rsus', 'evspsbl', 'sfcWind', 'pr', 'rsds', 'ua850', 'clt', 'tasmax', 'psl', 'tasmin', 'ps', 'rlds', 'hurs', 'va850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'ua200', 'rlus', 'snm', 'mrro', 'ua500', 'hfls', 'rsut', 'vas', 'va500', 'ta200', 'uas', 'snd', 'mrros', 'sfcWindmax', 'mrfso', 'hurs', 'huss', 'zg500', 'evspsbl', 'tasmin', 'rlds', 'rsus', 'ua850', 'clt', 'psl', 'rsds', 'pr', 'tasmax', 'tas', 'sfcWind', 'va850']</t>
+          <t>['zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'ua200', 'rlus', 'snm', 'mrro', 'ua500', 'hfls', 'rsut', 'vas', 'va500', 'ta200', 'uas', 'snd', 'mrros', 'sfcWindmax', 'mrfso', 'zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'ua200', 'rlus', 'snm', 'mrro', 'ua500', 'hfls', 'rsut', 'vas', 'va500', 'ta200', 'uas', 'snd', 'mrros', 'sfcWindmax', 'mrfso', 'hurs', 'huss', 'zg500', 'evspsbl', 'tasmin', 'rlds', 'rsus', 'ua850', 'clt', 'psl', 'rsds', 'pr', 'tasmax', 'tas', 'sfcWind', 'va850']</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['rlut', 'va200', 'ta200', 'ta500', 'sund', 'snc', 'va500', 'rlus', 'rsdt', 'mrro', 'hfss', 'uas', 'ta850', 'hus850', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'zg200', 'vas', 'mrros', 'mrfso', 'ua200', 'snm', 'snw', 'ua500', 'va850', 'pr', 'sfcWind', 'hurs', 'clt', 'zg500', 'evspsbl', 'huss', 'rsds', 'psl', 'rlds', 'tasmin', 'tasmax', 'tas', 'rsus', 'ua850']</t>
+          <t>['rlut', 'va200', 'ta200', 'ta500', 'sund', 'snc', 'va500', 'rlus', 'rsdt', 'mrro', 'hfss', 'uas', 'ta850', 'hus850', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'zg200', 'vas', 'mrros', 'mrfso', 'ua200', 'snm', 'snw', 'ua500', 'rlut', 'va200', 'ta200', 'ta500', 'sund', 'snc', 'va500', 'rlus', 'rsdt', 'mrro', 'hfss', 'uas', 'ta850', 'hus850', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'zg200', 'vas', 'mrros', 'mrfso', 'ua200', 'snm', 'snw', 'ua500', 'va850', 'pr', 'sfcWind', 'hurs', 'clt', 'zg500', 'evspsbl', 'huss', 'rsds', 'psl', 'rlds', 'tasmin', 'tasmax', 'tas', 'rsus', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['clwvi', 'clivi', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'zmla', 'zg200', 'rsus', 'rlds', 'va850', 'ps', 'tasmax', 'sfcWind', 'clt', 'pr', 'psl', 'ua850', 'zg500', 'tas', 'huss', 'tasmin', 'rsds']</t>
+          <t>['clwvi', 'clivi', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'zmla', 'zg200', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'zmla', 'zg200', 'rsus', 'rlds', 'va850', 'ps', 'tasmax', 'sfcWind', 'clt', 'pr', 'psl', 'ua850', 'zg500', 'tas', 'huss', 'tasmin', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['snw', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'tasmax', 'pr', 'tas', 'huss', 'psl', 'clt', 'sfcWind', 'zg500', 'rsds', 'rsus', 'ua850', 'tasmin', 'rlds', 'va850']</t>
+          <t>['snw', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'tasmax', 'pr', 'tas', 'huss', 'psl', 'clt', 'sfcWind', 'zg500', 'rsds', 'rsus', 'ua850', 'tasmin', 'rlds', 'va850']</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'va850', 'psl', 'rlds', 'rsds', 'rsus', 'pr', 'ua850', 'tasmin', 'tasmax', 'huss', 'clt', 'tas', 'sfcWind', 'zg500']</t>
+          <t>['vas', 'zg200', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'va850', 'psl', 'rlds', 'rsds', 'rsus', 'pr', 'ua850', 'tasmin', 'tasmax', 'huss', 'clt', 'tas', 'sfcWind', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['clivi', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'wsgsmax', 'zmla', 'vas', 'zg200', 'hfss', 'clwvi', 'hfls', 'mrfso', 'hus850', 'mrro', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'rlds', 'clt', 'huss', 'sfcWind', 'rsus', 'rsds', 'ua850', 'tas', 'psl', 'va850', 'tasmax', 'pr', 'zg500', 'ps', 'tasmin']</t>
+          <t>['clivi', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'wsgsmax', 'zmla', 'vas', 'zg200', 'hfss', 'clwvi', 'hfls', 'mrfso', 'hus850', 'mrro', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'hfss', 'clwvi', 'hfls', 'mrfso', 'hus850', 'mrro', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'rlds', 'clt', 'huss', 'sfcWind', 'rsus', 'rsds', 'ua850', 'tas', 'psl', 'va850', 'tasmax', 'pr', 'zg500', 'ps', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'hfss', 'hfls', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'psl', 'pr', 'tas', 'ua850', 'rsus', 'tasmin', 'rsds', 'rlds', 'huss', 'clt', 'va850', 'zg500', 'tasmax', 'sfcWind']</t>
+          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'hfss', 'hfls', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'psl', 'pr', 'tas', 'ua850', 'rsus', 'tasmin', 'rsds', 'rlds', 'huss', 'clt', 'va850', 'zg500', 'tasmax', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'hfss', 'hfls', 'mrfso', 'hus850', 'rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'pr', 'clt', 'sfcWind', 'tas', 'tasmin', 'rlds', 'va850', 'zg500', 'ua850', 'rsds', 'rsus', 'psl', 'tasmax', 'huss']</t>
+          <t>['sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'hfss', 'hfls', 'mrfso', 'hus850', 'rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'hus850', 'rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'pr', 'clt', 'sfcWind', 'tas', 'tasmin', 'rlds', 'va850', 'zg500', 'ua850', 'rsds', 'rsus', 'psl', 'tasmax', 'huss']</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss']</t>
+          <t>['rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss', 'rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss']</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500']</t>
+          <t>['rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500', 'rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss']</t>
+          <t>['rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss', 'rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd']</t>
+          <t>['rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd', 'rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls']</t>
+          <t>['uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls', 'uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'uas', 'va200', 'ua500', 'ua200', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'va500', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'psl', 'rsus', 'ua850', 'tas', 'tasmax', 'rlds', 'ps', 'zg500', 'rsds', 'evspsbl', 'huss', 'pr', 'va850', 'tasmin', 'sfcWind']</t>
+          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'uas', 'va200', 'ua500', 'ua200', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'va500', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'psl', 'rsus', 'ua850', 'tas', 'tasmax', 'rlds', 'ps', 'zg500', 'rsds', 'evspsbl', 'huss', 'pr', 'va850', 'tasmin', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'va850', 'clt', 'zg500', 'rlds', 'rsds', 'pr', 'ua850', 'huss', 'rsus', 'evspsbl', 'psl']</t>
+          <t>['hfss', 'hfls', 'hus850', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'va850', 'clt', 'zg500', 'rlds', 'rsds', 'pr', 'ua850', 'huss', 'rsus', 'evspsbl', 'psl']</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'clivi', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'prw', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'ta500', 'ta850', 'ua200', 'ua500', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'uas', 'va200', 'va500', 'rsds', 'rsus', 'tas', 'va850', 'tasmin', 'huss', 'evspsbl', 'clt', 'psl', 'rlds', 'ua850', 'zg500', 'pr', 'tasmax', 'sfcWind', 'ps']</t>
+          <t>['hfss', 'clwvi', 'hfls', 'clivi', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'prw', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'ta500', 'ta850', 'ua200', 'ua500', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'clwvi', 'hfls', 'clivi', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'prw', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'ta500', 'ta850', 'ua200', 'ua500', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'uas', 'va200', 'va500', 'rsds', 'rsus', 'tas', 'va850', 'tasmin', 'huss', 'evspsbl', 'clt', 'psl', 'rlds', 'ua850', 'zg500', 'pr', 'tasmax', 'sfcWind', 'ps']</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'zg500', 'psl', 'sfcWind', 'huss', 'tas', 'rsds', 'tasmax', 'va850', 'clt', 'evspsbl', 'rlds', 'rsus', 'tasmin', 'ua850', 'pr']</t>
+          <t>['hfls', 'hfss', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'zg500', 'psl', 'sfcWind', 'huss', 'tas', 'rsds', 'tasmax', 'va850', 'clt', 'evspsbl', 'rlds', 'rsus', 'tasmin', 'ua850', 'pr']</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ts', 'clwvi', 'clivi', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'zmla', 'rlds', 'psl', 'va850', 'clt', 'tasmax', 'sfcWind', 'rsus', 'rsds', 'evspsbl', 'ps', 'huss', 'ua850', 'tas', 'tasmin', 'zg500', 'pr']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ts', 'clwvi', 'clivi', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'zmla', 'clwvi', 'clivi', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'zmla', 'rlds', 'psl', 'va850', 'clt', 'tasmax', 'sfcWind', 'rsus', 'rsds', 'evspsbl', 'ps', 'huss', 'ua850', 'tas', 'tasmin', 'zg500', 'pr']</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hfss', 'hfls', 'mrfso', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'rsds', 'sfcWind', 'ua850', 'zg500', 'pr', 'tasmin', 'va850', 'clt', 'rlds', 'psl', 'evspsbl', 'huss', 'tasmax', 'rsus', 'tas']</t>
+          <t>['rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hfss', 'hfls', 'mrfso', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hfss', 'hfls', 'mrfso', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'rsds', 'sfcWind', 'ua850', 'zg500', 'pr', 'tasmin', 'va850', 'clt', 'rlds', 'psl', 'evspsbl', 'huss', 'tasmax', 'rsus', 'tas']</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'zg500', 'psl', 'tasmin', 'huss', 'ua850', 'va850', 'clt', 'tas', 'pr', 'evspsbl', 'rsus', 'tasmax', 'sfcWind', 'rsds', 'rlds']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'zg500', 'psl', 'tasmin', 'huss', 'ua850', 'va850', 'clt', 'tas', 'pr', 'evspsbl', 'rsus', 'tasmax', 'sfcWind', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['prhmax', 'rlus', 'mrso', 'prc', 'prw', 'wsgsmax', 'zmla', 'zg200', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'vas', 'uas', 'va200', 'va500', 'ua500', 'ua200', 'ts', 'sfcWind', 'psl', 'tasmax', 'rlds', 'ua850', 'va850', 'tasmin', 'tas', 'pr', 'clt', 'ps', 'huss', 'rsds', 'rsus', 'zg500']</t>
+          <t>['prhmax', 'rlus', 'mrso', 'prc', 'prw', 'wsgsmax', 'zmla', 'zg200', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'vas', 'uas', 'va200', 'va500', 'ua500', 'ua200', 'ts', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'vas', 'uas', 'va200', 'va500', 'ua500', 'ua200', 'ts', 'sfcWind', 'psl', 'tasmax', 'rlds', 'ua850', 'va850', 'tasmin', 'tas', 'pr', 'clt', 'ps', 'huss', 'rsds', 'rsus', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'pr', 'rsds', 'va850', 'sfcWind', 'tas', 'psl', 'clt', 'tasmax', 'rlds', 'huss', 'tasmin', 'zg500', 'ua850', 'rsus']</t>
+          <t>['hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'pr', 'rsds', 'va850', 'sfcWind', 'tas', 'psl', 'clt', 'tasmax', 'rlds', 'huss', 'tasmin', 'zg500', 'ua850', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'vas', 'zg200', 'uas', 'va200', 'va500', 'zg500', 'huss', 'tasmax', 'rsds', 'clt', 'psl', 'va850', 'ua850', 'tasmin', 'rsus', 'sfcWind', 'rlds', 'pr', 'tas']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'vas', 'zg200', 'uas', 'va200', 'va500', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'vas', 'zg200', 'uas', 'va200', 'va500', 'zg500', 'huss', 'tasmax', 'rsds', 'clt', 'psl', 'va850', 'ua850', 'tasmin', 'rsus', 'sfcWind', 'rlds', 'pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'hus850', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'tasmax', 'rsds', 'psl', 'sfcWind', 'huss', 'zg500', 'ua850', 'pr', 'tasmin', 'tas', 'rlds', 'clt', 'ps', 'va850', 'rsus']</t>
+          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'hus850', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'hus850', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'tasmax', 'rsds', 'psl', 'sfcWind', 'huss', 'zg500', 'ua850', 'pr', 'tasmin', 'tas', 'rlds', 'clt', 'ps', 'va850', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'va200', 'va500', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'uas', 'ta850', 'ua200', 'ua500', 'ts', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'tas', 'rlds', 'tasmin', 'tasmax', 'clt', 'va850', 'rsds', 'rsus', 'psl', 'ps', 'ua850', 'huss', 'sfcWind', 'pr', 'zg500']</t>
+          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'va200', 'va500', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'uas', 'ta850', 'ua200', 'ua500', 'ts', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'uas', 'ta850', 'ua200', 'ua500', 'ts', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'tas', 'rlds', 'tasmin', 'tasmax', 'clt', 'va850', 'rsds', 'rsus', 'psl', 'ps', 'ua850', 'huss', 'sfcWind', 'pr', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr', 'prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape']</t>
+          <t>['hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape', 'hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape']</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925']</t>
+          <t>['clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600', 'mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500']</t>
+          <t>['tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500']</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500']</t>
+          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500']</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['tds', 'tas', 'prc', 'pr']</t>
+          <t>['tds', 'tas', 'prc', 'pr', 'tds', 'tas', 'prc', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps']</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925']</t>
+          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700']</t>
+          <t>['rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700']</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr', 'prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts']</t>
+          <t>['rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925']</t>
+          <t>['hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925']</t>
+          <t>['hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925']</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['va100m', 'prc', 'tas', 'tds', 'ua100m', 'pr']</t>
+          <t>['va100m', 'prc', 'tas', 'tds', 'ua100m', 'pr', 'va100m', 'prc', 'tas', 'tds', 'ua100m', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts']</t>
+          <t>['cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm']</t>
+          <t>['snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm']</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros']</t>
+          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600']</t>
+          <t>['ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600']</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m']</t>
+          <t>['prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m', 'prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts']</t>
+          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925']</t>
+          <t>['zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925', 'zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200']</t>
+          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600']</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr']</t>
+          <t>['va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr', 'va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr']</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax']</t>
+          <t>['zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax', 'zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925']</t>
+          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['pr', 'prc', 'tds', 'tas']</t>
+          <t>['pr', 'prc', 'tds', 'tas', 'pr', 'prc', 'tds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr']</t>
+          <t>['hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr', 'hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700']</t>
+          <t>['rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700', 'rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850']</t>
+          <t>['tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850']</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd']</t>
+          <t>['rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd']</t>
+          <t>['uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'tds', 'tas', 'pr', 'prc', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'zg700', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300']</t>
+          <t>['ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'zg700', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300']</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'clivi', 'clt', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'clivi', 'clt', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl']</t>
+          <t>['mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl']</t>
         </is>
       </c>
     </row>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'tds', 'tas', 'pr', 'prc', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100']</t>
+          <t>['sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100', 'sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100']</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925']</t>
+          <t>['hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925', 'hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['hus400', 'hus500', 'hus600', 'hus700', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'ua925', 'va400', 'va500', 'va600', 'va700', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va925', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'pr', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850']</t>
+          <t>['hus400', 'hus500', 'hus600', 'hus700', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'ua925', 'va400', 'va500', 'va600', 'va700', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va925', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'pr', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'hus400', 'hus500', 'hus600', 'hus700', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'ua925', 'va400', 'va500', 'va600', 'va700', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va925', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'pr', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['tds', 'prc', 'tas', 'pr']</t>
+          <t>['tds', 'prc', 'tas', 'pr', 'tds', 'prc', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr']</t>
+          <t>['tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snd', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'ta850', 'ta925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ts']</t>
+          <t>['snm', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snd', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'ta850', 'ta925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'snm', 'snw', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snd', 'mrfso', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'zmla', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua700', 'ua850', 'ua925', 'ta850', 'ta925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ts']</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hfss', 'clwvi', 'hfls', 'clm', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'zmla', 'zg925', 'zg600', 'zg700', 'zg850', 'clh', 'cll', 'clivi', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925']</t>
+          <t>['sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hfss', 'clwvi', 'hfls', 'clm', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'zmla', 'zg925', 'zg600', 'zg700', 'zg850', 'clh', 'cll', 'clivi', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hfss', 'clwvi', 'hfls', 'clm', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'zmla', 'zg925', 'zg600', 'zg700', 'zg850', 'clh', 'cll', 'clivi', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925']</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus925', 'psl', 'mrro', 'pr', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hfss', 'hfls', 'evspsbl', 'clt', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200']</t>
+          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus925', 'psl', 'mrro', 'pr', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hfss', 'hfls', 'evspsbl', 'clt', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'rlds', 'mrfso', 'mrso', 'mrros', 'huss', 'hus925', 'psl', 'mrro', 'pr', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hfss', 'hfls', 'evspsbl', 'clt', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'uas', 'va100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['tas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'mrfso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'clt', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua850', 'ua925', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
+          <t>['tas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'mrfso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'clt', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua850', 'ua925', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'tas', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'sfcWindmax', 'rsut', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'mrfso', 'mrros', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'clt', 'zg600', 'zg700', 'zg850', 'zg925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'va700', 'va850', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua850', 'ua925', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700']</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['ps', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'ts']</t>
+          <t>['ps', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'ts', 'ps', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'pr']</t>
+          <t>['sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas']</t>
+          <t>['pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas', 'pr', 'sfcWindmax', 'tasmax', 'tasmin', 'sfcWind', 'vas', 'uas', 'tas']</t>
         </is>
       </c>
     </row>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['rlds', 'tas', 'hurs', 'sfcWind', 'hfls', 'rsus', 'pr', 'rsds', 'ps', 'rlus', 'hfss', 'huss', 'psl']</t>
+          <t>['rlds', 'tas', 'hurs', 'sfcWind', 'hfls', 'rsus', 'pr', 'rsds', 'ps', 'rlus', 'hfss', 'huss', 'psl', 'rlds', 'tas', 'hurs', 'sfcWind', 'hfls', 'rsus', 'pr', 'rsds', 'ps', 'rlus', 'hfss', 'huss', 'psl']</t>
         </is>
       </c>
     </row>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['clwvi', 'rlds', 'clivi', 'tasmin', 'va850', 'prc', 'sic', 'hurs', 'hus850', 'va500', 'rsus', 'mrros', 'ta850', 'hfls', 'cll', 'ua200', 'rlut', 'sfcWind', 'uas', 'tauv', 'snc', 'evspsbl', 'rlus', 'clm', 'huss', 'ts', 'hfss', 'psl', 'prhmax', 'clt', 'clh', 'vas', 'ua850', 'va200', 'tasmax', 'snm', 'rsut', 'ua500', 'ta500', 'rsdt', 'mrro', 'pr', 'tauu', 'mrso', 'prw', 'sfcWindmax', 'rsds', 'ps', 'ta200', 'tas', 'prsn']</t>
+          <t>['clwvi', 'rlds', 'clivi', 'tasmin', 'va850', 'prc', 'sic', 'hurs', 'hus850', 'va500', 'rsus', 'mrros', 'ta850', 'hfls', 'cll', 'ua200', 'rlut', 'sfcWind', 'uas', 'tauv', 'snc', 'evspsbl', 'rlus', 'clm', 'huss', 'ts', 'hfss', 'psl', 'prhmax', 'clt', 'clh', 'vas', 'ua850', 'va200', 'tasmax', 'snm', 'rsut', 'ua500', 'ta500', 'rsdt', 'mrro', 'pr', 'tauu', 'mrso', 'prw', 'sfcWindmax', 'rsds', 'ps', 'ta200', 'tas', 'prsn', 'clwvi', 'rlds', 'clivi', 'tasmin', 'va850', 'prc', 'sic', 'hurs', 'hus850', 'va500', 'rsus', 'mrros', 'ta850', 'hfls', 'cll', 'ua200', 'rlut', 'sfcWind', 'uas', 'tauv', 'snc', 'evspsbl', 'rlus', 'clm', 'huss', 'ts', 'hfss', 'psl', 'prhmax', 'clt', 'clh', 'vas', 'ua850', 'va200', 'tasmax', 'snm', 'rsut', 'ua500', 'ta500', 'rsdt', 'mrro', 'pr', 'tauu', 'mrso', 'prw', 'sfcWindmax', 'rsds', 'ps', 'ta200', 'tas', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -10994,7 +10994,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['ta850', 'va200', 'rlds', 'sfcWind', 'ua500', 'snc', 'hurs', 'hus850', 'tas', 'ta200', 'hfls', 'rsdt', 'pr', 'vas', 'rlus', 'huss', 'va500', 'clt', 'ua200', 'hfss', 'psl', 'va850', 'snm', 'rsut', 'tasmin', 'rlut', 'uas', 'sic', 'ua850', 'rsus', 'mrro', 'tasmax', 'mrso', 'sfcWindmax', 'rsds', 'ta500', 'evspsbl', 'mrros']</t>
+          <t>['ta850', 'va200', 'rlds', 'sfcWind', 'ua500', 'snc', 'hurs', 'hus850', 'tas', 'ta200', 'hfls', 'rsdt', 'pr', 'vas', 'rlus', 'huss', 'va500', 'clt', 'ua200', 'hfss', 'psl', 'va850', 'snm', 'rsut', 'tasmin', 'rlut', 'uas', 'sic', 'ua850', 'rsus', 'mrro', 'tasmax', 'mrso', 'sfcWindmax', 'rsds', 'ta500', 'evspsbl', 'mrros', 'ta850', 'va200', 'rlds', 'sfcWind', 'ua500', 'snc', 'hurs', 'hus850', 'tas', 'ta200', 'hfls', 'rsdt', 'pr', 'vas', 'rlus', 'huss', 'va500', 'clt', 'ua200', 'hfss', 'psl', 'va850', 'snm', 'rsut', 'tasmin', 'rlut', 'uas', 'sic', 'ua850', 'rsus', 'mrro', 'tasmax', 'mrso', 'sfcWindmax', 'rsds', 'ta500', 'evspsbl', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['hurs', 'vas', 'clt', 'evspsbl', 'psl', 'ua850', 'hfls', 'rsdt', 'hus850', 'pr', 'rlds', 'va200', 'snm', 'ua500', 'ta200', 'hfss', 'rlut', 'va850', 'tasmax', 'rsut', 'snc', 'rlus', 'huss', 'va500', 'sic', 'ua200', 'sfcWindmax', 'rsus', 'tasmin', 'mrros', 'tas', 'sfcWind', 'ta850', 'mrso', 'rsds', 'uas', 'ta500', 'mrro']</t>
+          <t>['hurs', 'vas', 'clt', 'evspsbl', 'psl', 'ua850', 'hfls', 'rsdt', 'hus850', 'pr', 'rlds', 'va200', 'snm', 'ua500', 'ta200', 'hfss', 'rlut', 'va850', 'tasmax', 'rsut', 'snc', 'rlus', 'huss', 'va500', 'sic', 'ua200', 'sfcWindmax', 'rsus', 'tasmin', 'mrros', 'tas', 'sfcWind', 'ta850', 'mrso', 'rsds', 'uas', 'ta500', 'mrro', 'hurs', 'vas', 'clt', 'evspsbl', 'psl', 'ua850', 'hfls', 'rsdt', 'hus850', 'pr', 'rlds', 'va200', 'snm', 'ua500', 'ta200', 'hfss', 'rlut', 'va850', 'tasmax', 'rsut', 'snc', 'rlus', 'huss', 'va500', 'sic', 'ua200', 'sfcWindmax', 'rsus', 'tasmin', 'mrros', 'tas', 'sfcWind', 'ta850', 'mrso', 'rsds', 'uas', 'ta500', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11286,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['rsds', 'tas', 'ps', 'pr', 'rlus', 'psl', 'rsus', 'huss', 'hfls', 'hurs', 'rlds', 'sfcWind', 'hfss']</t>
+          <t>['rsds', 'tas', 'ps', 'pr', 'rlus', 'psl', 'rsus', 'huss', 'hfls', 'hurs', 'rlds', 'sfcWind', 'hfss', 'rsds', 'tas', 'ps', 'pr', 'rlus', 'psl', 'rsus', 'huss', 'hfls', 'hurs', 'rlds', 'sfcWind', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['clt', 'sfcWindmax', 'rlds', 'tasmax', 'clh', 'sfcWind', 'ua200', 'vas', 'clm', 'va500', 'snm', 'psl', 'ps', 'hurs', 'prhmax', 'clivi', 'rsus', 'ta500', 'ts', 'hfls', 'rsdt', 'mrros', 'tauv', 'prc', 'huss', 'rlus', 'ua500', 'pr', 'hfss', 'hus850', 'va200', 'cll', 'snc', 'ua850', 'tasmin', 'rsut', 'sic', 'rlut', 'va850', 'mrro', 'ta850', 'mrso', 'ta200', 'clwvi', 'tauu', 'rsds', 'tas', 'evspsbl', 'uas', 'prw', 'prsn']</t>
+          <t>['clt', 'sfcWindmax', 'rlds', 'tasmax', 'clh', 'sfcWind', 'ua200', 'vas', 'clm', 'va500', 'snm', 'psl', 'ps', 'hurs', 'prhmax', 'clivi', 'rsus', 'ta500', 'ts', 'hfls', 'rsdt', 'mrros', 'tauv', 'prc', 'huss', 'rlus', 'ua500', 'pr', 'hfss', 'hus850', 'va200', 'cll', 'snc', 'ua850', 'tasmin', 'rsut', 'sic', 'rlut', 'va850', 'mrro', 'ta850', 'mrso', 'ta200', 'clwvi', 'tauu', 'rsds', 'tas', 'evspsbl', 'uas', 'prw', 'prsn', 'clt', 'sfcWindmax', 'rlds', 'tasmax', 'clh', 'sfcWind', 'ua200', 'vas', 'clm', 'va500', 'snm', 'psl', 'ps', 'hurs', 'prhmax', 'clivi', 'rsus', 'ta500', 'ts', 'hfls', 'rsdt', 'mrros', 'tauv', 'prc', 'huss', 'rlus', 'ua500', 'pr', 'hfss', 'hus850', 'va200', 'cll', 'snc', 'ua850', 'tasmin', 'rsut', 'sic', 'rlut', 'va850', 'mrro', 'ta850', 'mrso', 'ta200', 'clwvi', 'tauu', 'rsds', 'tas', 'evspsbl', 'uas', 'prw', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'psl', 'ua850', 'rlds', 'vas', 'clt', 'ua500', 'hurs', 'va200', 'rsus', 'tasmax', 'rsut', 'hfls', 'snm', 'rlut', 'sfcWind', 'ta200', 'evspsbl', 'rlus', 'huss', 'hfss', 'va850', 'ua200', 'pr', 'sic', 'snc', 'va500', 'rsdt', 'mrro', 'mrros', 'tasmin', 'mrso', 'ta850', 'tas', 'rsds', 'hus850', 'uas', 'ta500']</t>
+          <t>['sfcWindmax', 'psl', 'ua850', 'rlds', 'vas', 'clt', 'ua500', 'hurs', 'va200', 'rsus', 'tasmax', 'rsut', 'hfls', 'snm', 'rlut', 'sfcWind', 'ta200', 'evspsbl', 'rlus', 'huss', 'hfss', 'va850', 'ua200', 'pr', 'sic', 'snc', 'va500', 'rsdt', 'mrro', 'mrros', 'tasmin', 'mrso', 'ta850', 'tas', 'rsds', 'hus850', 'uas', 'ta500', 'sfcWindmax', 'psl', 'ua850', 'rlds', 'vas', 'clt', 'ua500', 'hurs', 'va200', 'rsus', 'tasmax', 'rsut', 'hfls', 'snm', 'rlut', 'sfcWind', 'ta200', 'evspsbl', 'rlus', 'huss', 'hfss', 'va850', 'ua200', 'pr', 'sic', 'snc', 'va500', 'rsdt', 'mrro', 'mrros', 'tasmin', 'mrso', 'ta850', 'tas', 'rsds', 'hus850', 'uas', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['hurs', 'ua500', 'rsdt', 'va200', 'hfls', 'rlds', 'sic', 'ua850', 'rlut', 'snm', 'evspsbl', 'psl', 'ua200', 'sfcWind', 'tasmin', 'vas', 'va500', 'rsut', 'clt', 'rlus', 'huss', 'sfcWindmax', 'hus850', 'va850', 'hfss', 'rsus', 'tasmax', 'snc', 'uas', 'ta500', 'mrros', 'mrso', 'ta850', 'rsds', 'pr', 'tas', 'mrro', 'ta200']</t>
+          <t>['hurs', 'ua500', 'rsdt', 'va200', 'hfls', 'rlds', 'sic', 'ua850', 'rlut', 'snm', 'evspsbl', 'psl', 'ua200', 'sfcWind', 'tasmin', 'vas', 'va500', 'rsut', 'clt', 'rlus', 'huss', 'sfcWindmax', 'hus850', 'va850', 'hfss', 'rsus', 'tasmax', 'snc', 'uas', 'ta500', 'mrros', 'mrso', 'ta850', 'rsds', 'pr', 'tas', 'mrro', 'ta200', 'hurs', 'ua500', 'rsdt', 'va200', 'hfls', 'rlds', 'sic', 'ua850', 'rlut', 'snm', 'evspsbl', 'psl', 'ua200', 'sfcWind', 'tasmin', 'vas', 'va500', 'rsut', 'clt', 'rlus', 'huss', 'sfcWindmax', 'hus850', 'va850', 'hfss', 'rsus', 'tasmax', 'snc', 'uas', 'ta500', 'mrros', 'mrso', 'ta850', 'rsds', 'pr', 'tas', 'mrro', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -11922,7 +11922,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['mrso']</t>
+          <t>['mrso', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['prhmax']</t>
+          <t>['prhmax', 'prhmax']</t>
         </is>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['snd']</t>
+          <t>['snd', 'snd']</t>
         </is>
       </c>
     </row>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -12182,7 +12182,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['mrso']</t>
+          <t>['mrso', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['snd']</t>
+          <t>['snd', 'snd']</t>
         </is>
       </c>
     </row>
@@ -12266,7 +12266,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['mrso']</t>
+          <t>['mrso', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -12410,7 +12410,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['snd']</t>
+          <t>['snd', 'snd']</t>
         </is>
       </c>
     </row>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -12510,7 +12510,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['pr', 'hfss', 'hfls', 'rsus', 'rlds', 'rlus', 'rsds']</t>
+          <t>['pr', 'hfss', 'hfls', 'rsus', 'rlds', 'rlus', 'pr', 'hfss', 'hfls', 'rsus', 'rlds', 'rlus', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['mrso', 'prw', 'rsds', 'tasmax', 'ta850', 'mrros', 'ta500', 'rlds', 'ps', 'ua850', 'prc', 'hurs', 'sic', 'va200', 'hfls', 'rsdt', 'snc', 'cll', 'ua500', 'clm', 'clivi', 'huss', 'tauv', 'vas', 'va850', 'hfss', 'clh', 'clt', 'va500', 'evspsbl', 'rsut', 'snm', 'ua200', 'pr', 'tas', 'sfcWind', 'prsn', 'tasmin', 'mrro', 'clwvi', 'tauu', 'sfcWindmax', 'rlus', 'psl', 'rsus', 'hus850', 'rlut', 'uas', 'ts', 'ta200']</t>
+          <t>['mrso', 'prw', 'rsds', 'tasmax', 'ta850', 'mrros', 'ta500', 'rlds', 'ps', 'ua850', 'prc', 'hurs', 'sic', 'va200', 'hfls', 'rsdt', 'snc', 'cll', 'ua500', 'clm', 'clivi', 'huss', 'tauv', 'vas', 'va850', 'hfss', 'clh', 'clt', 'va500', 'evspsbl', 'rsut', 'snm', 'ua200', 'pr', 'tas', 'sfcWind', 'prsn', 'tasmin', 'mrro', 'clwvi', 'tauu', 'sfcWindmax', 'rlus', 'psl', 'rsus', 'hus850', 'rlut', 'uas', 'ts', 'ta200', 'mrso', 'prw', 'rsds', 'tasmax', 'ta850', 'mrros', 'ta500', 'rlds', 'ps', 'ua850', 'prc', 'hurs', 'sic', 'va200', 'hfls', 'rsdt', 'snc', 'cll', 'ua500', 'clm', 'clivi', 'huss', 'tauv', 'vas', 'va850', 'hfss', 'clh', 'clt', 'va500', 'evspsbl', 'rsut', 'snm', 'ua200', 'pr', 'tas', 'sfcWind', 'prsn', 'tasmin', 'mrro', 'clwvi', 'tauu', 'sfcWindmax', 'rlus', 'psl', 'rsus', 'hus850', 'rlut', 'uas', 'ts', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -12630,7 +12630,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['prhmax']</t>
+          <t>['prhmax', 'prhmax']</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['rsds', 'evspsbl', 'ta200', 'rlds', 'va500', 'tasmin', 'ua200', 'hurs', 'va850', 'snc', 'hfls', 'rsdt', 'hus850', 'sic', 'va200', 'clt', 'sfcWindmax', 'vas', 'ua500', 'hfss', 'tasmax', 'psl', 'snm', 'rsut', 'ua850', 'tas', 'ta500', 'mrro', 'uas', 'ta850', 'mrso', 'rlus', 'sfcWind', 'huss', 'pr', 'rsus', 'rlut', 'mrros']</t>
+          <t>['rsds', 'evspsbl', 'ta200', 'rlds', 'va500', 'tasmin', 'ua200', 'hurs', 'va850', 'snc', 'hfls', 'rsdt', 'hus850', 'sic', 'va200', 'clt', 'sfcWindmax', 'vas', 'ua500', 'hfss', 'tasmax', 'psl', 'snm', 'rsut', 'ua850', 'tas', 'ta500', 'mrro', 'uas', 'ta850', 'mrso', 'rlus', 'sfcWind', 'huss', 'pr', 'rsus', 'rlut', 'mrros', 'rsds', 'evspsbl', 'ta200', 'rlds', 'va500', 'tasmin', 'ua200', 'hurs', 'va850', 'snc', 'hfls', 'rsdt', 'hus850', 'sic', 'va200', 'clt', 'sfcWindmax', 'vas', 'ua500', 'hfss', 'tasmax', 'psl', 'snm', 'rsut', 'ua850', 'tas', 'ta500', 'mrro', 'uas', 'ta850', 'mrso', 'rlus', 'sfcWind', 'huss', 'pr', 'rsus', 'rlut', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -12894,7 +12894,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['sfcWind', 'tas', 'mrso', 'tasmax', 'rsds', 'uas', 'ta200', 'va850', 'clt', 'hurs', 'vas', 'hfls', 'rsdt', 'psl', 'sfcWindmax', 'snm', 'va500', 'rlds', 'ua200', 'evspsbl', 'ua850', 'rsut', 'rlus', 'va200', 'huss', 'snc', 'ua500', 'hfss', 'sic', 'rlut', 'mrro', 'ta850', 'rsus', 'ta500', 'pr', 'tasmin', 'mrros', 'hus850']</t>
+          <t>['sfcWind', 'tas', 'mrso', 'tasmax', 'rsds', 'uas', 'ta200', 'va850', 'clt', 'hurs', 'vas', 'hfls', 'rsdt', 'psl', 'sfcWindmax', 'snm', 'va500', 'rlds', 'ua200', 'evspsbl', 'ua850', 'rsut', 'rlus', 'va200', 'huss', 'snc', 'ua500', 'hfss', 'sic', 'rlut', 'mrro', 'ta850', 'rsus', 'ta500', 'pr', 'tasmin', 'mrros', 'hus850', 'sfcWind', 'tas', 'mrso', 'tasmax', 'rsds', 'uas', 'ta200', 'va850', 'clt', 'hurs', 'vas', 'hfls', 'rsdt', 'psl', 'sfcWindmax', 'snm', 'va500', 'rlds', 'ua200', 'evspsbl', 'ua850', 'rsut', 'rlus', 'va200', 'huss', 'snc', 'ua500', 'hfss', 'sic', 'rlut', 'mrro', 'ta850', 'rsus', 'ta500', 'pr', 'tasmin', 'mrros', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['pr', 'rsds', 'tas', 'hfls', 'rsus', 'hurs', 'psl', 'ps', 'rlus', 'hfss', 'sfcWind', 'huss', 'rlds']</t>
+          <t>['pr', 'rsds', 'tas', 'hfls', 'rsus', 'hurs', 'psl', 'ps', 'rlus', 'hfss', 'sfcWind', 'huss', 'rlds', 'pr', 'rsds', 'tas', 'hfls', 'rsus', 'hurs', 'psl', 'ps', 'rlus', 'hfss', 'sfcWind', 'huss', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['vas', 'uas', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['prhmax', 'ta200', 'tauv', 'rsut', 'prc', 'ts', 'rlut', 'prw', 'pr', 'cll', 'ua850', 'rsus', 'ta850', 'snm', 'va850', 'sic', 'rsds', 'tauu', 'mrso', 'uas', 'hfls', 'rsdt', 'ua200', 'clt', 'rlus', 'huss', 'tasmin', 'mrro', 'ps', 'sfcWind', 'tas', 'hfss', 'hurs', 'snc', 'va200', 'ta500', 'clwvi', 'clh', 'evspsbl', 'vas', 'clm', 'ua500', 'hus850', 'tasmax', 'sfcWindmax', 'rlds', 'clivi', 'psl', 'va500', 'mrros', 'prsn']</t>
+          <t>['prhmax', 'ta200', 'tauv', 'rsut', 'prc', 'ts', 'rlut', 'prw', 'pr', 'cll', 'ua850', 'rsus', 'ta850', 'snm', 'va850', 'sic', 'rsds', 'tauu', 'mrso', 'uas', 'hfls', 'rsdt', 'ua200', 'clt', 'rlus', 'huss', 'tasmin', 'mrro', 'ps', 'sfcWind', 'tas', 'hfss', 'hurs', 'snc', 'va200', 'ta500', 'clwvi', 'clh', 'evspsbl', 'vas', 'clm', 'ua500', 'hus850', 'tasmax', 'sfcWindmax', 'rlds', 'clivi', 'psl', 'va500', 'mrros', 'prsn', 'prhmax', 'ta200', 'tauv', 'rsut', 'prc', 'ts', 'rlut', 'prw', 'pr', 'cll', 'ua850', 'rsus', 'ta850', 'snm', 'va850', 'sic', 'rsds', 'tauu', 'mrso', 'uas', 'hfls', 'rsdt', 'ua200', 'clt', 'rlus', 'huss', 'tasmin', 'mrro', 'ps', 'sfcWind', 'tas', 'hfss', 'hurs', 'snc', 'va200', 'ta500', 'clwvi', 'clh', 'evspsbl', 'vas', 'clm', 'ua500', 'hus850', 'tasmax', 'sfcWindmax', 'rlds', 'clivi', 'psl', 'va500', 'mrros', 'prsn']</t>
         </is>
       </c>
     </row>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -13134,7 +13134,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['tas', 'hfls', 'rsdt', 'hus850', 'psl', 'ua850', 'sfcWind', 'sic', 'ua200', 'evspsbl', 'hfss', 'pr', 'tasmin', 'ua500', 'snm', 'rlus', 'rsus', 'mrso', 'huss', 'snc', 'va500', 'tasmax', 'va850', 'mrro', 'rsds', 'uas', 'mrros', 'vas', 'ta850', 'rlds', 'hurs', 'clt', 'rsut', 'ta500', 'sfcWindmax', 'va200', 'ta200', 'rlut']</t>
+          <t>['tas', 'hfls', 'rsdt', 'hus850', 'psl', 'ua850', 'sfcWind', 'sic', 'ua200', 'evspsbl', 'hfss', 'pr', 'tasmin', 'ua500', 'snm', 'rlus', 'rsus', 'mrso', 'huss', 'snc', 'va500', 'tasmax', 'va850', 'mrro', 'rsds', 'uas', 'mrros', 'vas', 'ta850', 'rlds', 'hurs', 'clt', 'rsut', 'ta500', 'sfcWindmax', 'va200', 'ta200', 'rlut', 'tas', 'hfls', 'rsdt', 'hus850', 'psl', 'ua850', 'sfcWind', 'sic', 'ua200', 'evspsbl', 'hfss', 'pr', 'tasmin', 'ua500', 'snm', 'rlus', 'rsus', 'mrso', 'huss', 'snc', 'va500', 'tasmax', 'va850', 'mrro', 'rsds', 'uas', 'mrros', 'vas', 'ta850', 'rlds', 'hurs', 'clt', 'rsut', 'ta500', 'sfcWindmax', 'va200', 'ta200', 'rlut']</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['rsds', 'ua500', 'snm', 'hfss', 'psl', 'ua200', 'sfcWind', 'tasmax', 'hfls', 'mrso', 'pr', 'uas', 'rsdt', 'sic', 'ua850', 'hurs', 'evspsbl', 'va850', 'rlut', 'sfcWindmax', 'va500', 'clt', 'mrros', 'rsut', 'rlus', 'huss', 'rsus', 'tas', 'ta500', 'snc', 'rlds', 'va200', 'hus850', 'mrro', 'ta200', 'ta850', 'tasmin', 'vas']</t>
+          <t>['rsds', 'ua500', 'snm', 'hfss', 'psl', 'ua200', 'sfcWind', 'tasmax', 'hfls', 'mrso', 'pr', 'uas', 'rsdt', 'sic', 'ua850', 'hurs', 'evspsbl', 'va850', 'rlut', 'sfcWindmax', 'va500', 'clt', 'mrros', 'rsut', 'rlus', 'huss', 'rsus', 'tas', 'ta500', 'snc', 'rlds', 'va200', 'hus850', 'mrro', 'ta200', 'ta850', 'tasmin', 'vas', 'rsds', 'ua500', 'snm', 'hfss', 'psl', 'ua200', 'sfcWind', 'tasmax', 'hfls', 'mrso', 'pr', 'uas', 'rsdt', 'sic', 'ua850', 'hurs', 'evspsbl', 'va850', 'rlut', 'sfcWindmax', 'va500', 'clt', 'mrros', 'rsut', 'rlus', 'huss', 'rsus', 'tas', 'ta500', 'snc', 'rlds', 'va200', 'hus850', 'mrro', 'ta200', 'ta850', 'tasmin', 'vas']</t>
         </is>
       </c>
     </row>
@@ -13370,7 +13370,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -13462,7 +13462,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['psl', 'hfss', 'hfls', 'rsus', 'tas', 'rlds', 'sfcWind', 'rlus', 'huss', 'pr', 'rsds', 'ps', 'hurs']</t>
+          <t>['psl', 'hfss', 'hfls', 'rsus', 'tas', 'rlds', 'sfcWind', 'rlus', 'huss', 'pr', 'rsds', 'ps', 'hurs', 'psl', 'hfss', 'hfls', 'rsus', 'tas', 'rlds', 'sfcWind', 'rlus', 'huss', 'pr', 'rsds', 'ps', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13494,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['clh', 'evspsbl', 'vas', 'uas', 'ta500', 'snc', 'sfcWindmax', 'tasmax', 'mrso', 'va200', 'ta850', 'sic', 'hfss', 'va850', 'pr', 'tas', 'prsn', 'tauu', 'mrros', 'rlds', 'hus850', 'prhmax', 'rlus', 'tauv', 'huss', 'ts', 'cll', 'hurs', 'ps', 'rsut', 'rlut', 'ta200', 'snm', 'ua200', 'rsds', 'prw', 'prc', 'ua850', 'clm', 'clivi', 'psl', 'clt', 'rsus', 'hfls', 'rsdt', 'ua500', 'va500', 'clwvi', 'sfcWind', 'mrro', 'tasmin']</t>
+          <t>['clh', 'evspsbl', 'vas', 'uas', 'ta500', 'snc', 'sfcWindmax', 'tasmax', 'mrso', 'va200', 'ta850', 'sic', 'hfss', 'va850', 'pr', 'tas', 'prsn', 'tauu', 'mrros', 'rlds', 'hus850', 'prhmax', 'rlus', 'tauv', 'huss', 'ts', 'cll', 'hurs', 'ps', 'rsut', 'rlut', 'ta200', 'snm', 'ua200', 'rsds', 'prw', 'prc', 'ua850', 'clm', 'clivi', 'psl', 'clt', 'rsus', 'hfls', 'rsdt', 'ua500', 'va500', 'clwvi', 'sfcWind', 'mrro', 'tasmin', 'clh', 'evspsbl', 'vas', 'uas', 'ta500', 'snc', 'sfcWindmax', 'tasmax', 'mrso', 'va200', 'ta850', 'sic', 'hfss', 'va850', 'pr', 'tas', 'prsn', 'tauu', 'mrros', 'rlds', 'hus850', 'prhmax', 'rlus', 'tauv', 'huss', 'ts', 'cll', 'hurs', 'ps', 'rsut', 'rlut', 'ta200', 'snm', 'ua200', 'rsds', 'prw', 'prc', 'ua850', 'clm', 'clivi', 'psl', 'clt', 'rsus', 'hfls', 'rsdt', 'ua500', 'va500', 'clwvi', 'sfcWind', 'mrro', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -13554,7 +13554,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['rlus', 'huss', 'evspsbl', 'hurs', 'ua850', 'pr', 'rsds', 'tasmax', 'snc', 'hfss', 'vas', 'hus850', 'tas', 'ta500', 'hfls', 'rsdt', 'va850', 'clt', 'rsus', 'mrso', 'ta200', 'rlds', 'ua200', 'ua500', 'sic', 'snm', 'va500', 'rsut', 'sfcWind', 'psl', 'va200', 'sfcWindmax', 'tasmin', 'rlut', 'uas', 'ta850']</t>
+          <t>['rlus', 'huss', 'evspsbl', 'hurs', 'ua850', 'pr', 'rsds', 'tasmax', 'snc', 'hfss', 'vas', 'hus850', 'tas', 'ta500', 'hfls', 'rsdt', 'va850', 'clt', 'rsus', 'mrso', 'ta200', 'rlds', 'ua200', 'ua500', 'sic', 'snm', 'va500', 'rsut', 'sfcWind', 'psl', 'va200', 'sfcWindmax', 'tasmin', 'rlut', 'uas', 'ta850', 'rlus', 'huss', 'evspsbl', 'hurs', 'ua850', 'pr', 'rsds', 'tasmax', 'snc', 'hfss', 'vas', 'hus850', 'tas', 'ta500', 'hfls', 'rsdt', 'va850', 'clt', 'rsus', 'mrso', 'ta200', 'rlds', 'ua200', 'ua500', 'sic', 'snm', 'va500', 'rsut', 'sfcWind', 'psl', 'va200', 'sfcWindmax', 'tasmin', 'rlut', 'uas', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -13702,7 +13702,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13758,7 +13758,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['snc', 'sfcWind', 'mrso', 'ua500', 'tasmax', 'rsut', 'rlut', 'ta850', 'sfcWindmax', 'snm', 'va500', 'tas', 'hus850', 'ua850', 'rsus', 'uas', 'ta200', 'pr', 'tasmin', 'ua200', 'va200', 'va850', 'clt', 'rlus', 'huss', 'sic', 'evspsbl', 'hurs', 'psl', 'rsds', 'rlds', 'hfss', 'ta500', 'hfls', 'rsdt', 'vas']</t>
+          <t>['snc', 'sfcWind', 'mrso', 'ua500', 'tasmax', 'rsut', 'rlut', 'ta850', 'sfcWindmax', 'snm', 'va500', 'tas', 'hus850', 'ua850', 'rsus', 'uas', 'ta200', 'pr', 'tasmin', 'ua200', 'va200', 'va850', 'clt', 'rlus', 'huss', 'sic', 'evspsbl', 'hurs', 'psl', 'rsds', 'rlds', 'hfss', 'ta500', 'hfls', 'rsdt', 'vas', 'snc', 'sfcWind', 'mrso', 'ua500', 'tasmax', 'rsut', 'rlut', 'ta850', 'sfcWindmax', 'snm', 'va500', 'tas', 'hus850', 'ua850', 'rsus', 'uas', 'ta200', 'pr', 'tasmin', 'ua200', 'va200', 'va850', 'clt', 'rlus', 'huss', 'sic', 'evspsbl', 'hurs', 'psl', 'rsds', 'rlds', 'hfss', 'ta500', 'hfls', 'rsdt', 'vas']</t>
         </is>
       </c>
     </row>
@@ -13846,7 +13846,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['hurs', 'hfss', 'psl', 'ps', 'rsds', 'rlus', 'huss', 'pr', 'rsus', 'hfls', 'rlds', 'sfcWind', 'tas']</t>
+          <t>['hurs', 'hfss', 'psl', 'ps', 'rsds', 'rlus', 'huss', 'pr', 'rsus', 'hfls', 'rlds', 'sfcWind', 'tas', 'hurs', 'hfss', 'psl', 'ps', 'rsds', 'rlus', 'huss', 'pr', 'rsus', 'hfls', 'rlds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rlut', 'clivi', 'tas', 'prsn', 'ua200', 'hfls', 'rsdt', 'hurs', 'sic', 'ta500', 'rsus', 'tasmax', 'va850', 'cll', 'sfcWind', 'snc', 'snm', 'ta200', 'va200', 'ua500', 'hfss', 'clwvi', 'ps', 'rlds', 'tasmin', 'rsut', 'prc', 'mrros', 'ta850', 'pr', 'uas', 'va500', 'tauv', 'clh', 'clm', 'huss', 'psl', 'clt', 'rsds', 'mrso', 'prw', 'hus850', 'prhmax', 'mrro', 'rlus', 'vas', 'tauu', 'evspsbl', 'ua850', 'ts']</t>
+          <t>['sfcWindmax', 'rlut', 'clivi', 'tas', 'prsn', 'ua200', 'hfls', 'rsdt', 'hurs', 'sic', 'ta500', 'rsus', 'tasmax', 'va850', 'cll', 'sfcWind', 'snc', 'snm', 'ta200', 'va200', 'ua500', 'hfss', 'clwvi', 'ps', 'rlds', 'tasmin', 'rsut', 'prc', 'mrros', 'ta850', 'pr', 'uas', 'va500', 'tauv', 'clh', 'clm', 'huss', 'psl', 'clt', 'rsds', 'mrso', 'prw', 'hus850', 'prhmax', 'mrro', 'rlus', 'vas', 'tauu', 'evspsbl', 'ua850', 'ts', 'sfcWindmax', 'rlut', 'clivi', 'tas', 'prsn', 'ua200', 'hfls', 'rsdt', 'hurs', 'sic', 'ta500', 'rsus', 'tasmax', 'va850', 'cll', 'sfcWind', 'snc', 'snm', 'ta200', 'va200', 'ua500', 'hfss', 'clwvi', 'ps', 'rlds', 'tasmin', 'rsut', 'prc', 'mrros', 'ta850', 'pr', 'uas', 'va500', 'tauv', 'clh', 'clm', 'huss', 'psl', 'clt', 'rsds', 'mrso', 'prw', 'hus850', 'prhmax', 'mrro', 'rlus', 'vas', 'tauu', 'evspsbl', 'ua850', 'ts']</t>
         </is>
       </c>
     </row>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14090,7 +14090,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -14150,7 +14150,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['va200', 'hfls', 'sic', 'sfcWindmax', 'rsus', 'ua500', 'hurs', 'pr', 'evspsbl', 'ta850', 'va500', 'hfss', 'vas', 'hus850', 'va850', 'ta200', 'rsut', 'sfcWind', 'snm', 'tas', 'rlds', 'psl', 'clt', 'rsds', 'rlut', 'uas', 'ua850', 'rlus', 'tasmin', 'tasmax', 'rsdt', 'huss', 'snc', 'ta500', 'mrso', 'ua200']</t>
+          <t>['va200', 'hfls', 'sic', 'sfcWindmax', 'rsus', 'ua500', 'hurs', 'pr', 'evspsbl', 'ta850', 'va500', 'hfss', 'vas', 'hus850', 'va850', 'ta200', 'rsut', 'sfcWind', 'snm', 'tas', 'rlds', 'psl', 'clt', 'rsds', 'rlut', 'uas', 'ua850', 'rlus', 'tasmin', 'tasmax', 'rsdt', 'huss', 'snc', 'ta500', 'mrso', 'ua200', 'va200', 'hfls', 'sic', 'sfcWindmax', 'rsus', 'ua500', 'hurs', 'pr', 'evspsbl', 'ta850', 'va500', 'hfss', 'vas', 'hus850', 'va850', 'ta200', 'rsut', 'sfcWind', 'snm', 'tas', 'rlds', 'psl', 'clt', 'rsds', 'rlut', 'uas', 'ua850', 'rlus', 'tasmin', 'tasmax', 'rsdt', 'huss', 'snc', 'ta500', 'mrso', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -14326,7 +14326,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['rlds', 'snm', 'rlut', 'evspsbl', 'ua850', 'hfls', 'rsdt', 'vas', 'ta200', 'rlus', 'sfcWind', 'huss', 'sic', 'ta500', 'mrso', 'hus850', 'uas', 'ua200', 'rsut', 'sfcWindmax', 'rsds', 'va500', 'hfss', 'snc', 'hurs', 'psl', 'clt', 'rsus', 'tasmax', 'va200', 'ta850', 'tasmin', 'va850', 'ua500', 'pr', 'tas']</t>
+          <t>['rlds', 'snm', 'rlut', 'evspsbl', 'ua850', 'hfls', 'rsdt', 'vas', 'ta200', 'rlus', 'sfcWind', 'huss', 'sic', 'ta500', 'mrso', 'hus850', 'uas', 'ua200', 'rsut', 'sfcWindmax', 'rsds', 'va500', 'hfss', 'snc', 'hurs', 'psl', 'clt', 'rsus', 'tasmax', 'va200', 'ta850', 'tasmin', 'va850', 'ua500', 'pr', 'tas', 'rlds', 'snm', 'rlut', 'evspsbl', 'ua850', 'hfls', 'rsdt', 'vas', 'ta200', 'rlus', 'sfcWind', 'huss', 'sic', 'ta500', 'mrso', 'hus850', 'uas', 'ua200', 'rsut', 'sfcWindmax', 'rsds', 'va500', 'hfss', 'snc', 'hurs', 'psl', 'clt', 'rsus', 'tasmax', 'va200', 'ta850', 'tasmin', 'va850', 'ua500', 'pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14382,7 +14382,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['psl', 'huss', 'tas', 'hfls', 'hurs', 'rsds', 'pr', 'rlds', 'rsus', 'ps', 'rlus', 'hfss', 'sfcWind']</t>
+          <t>['psl', 'huss', 'tas', 'hfls', 'hurs', 'rsds', 'pr', 'rlds', 'rsus', 'ps', 'rlus', 'hfss', 'sfcWind', 'psl', 'huss', 'tas', 'hfls', 'hurs', 'rsds', 'pr', 'rlds', 'rsus', 'ps', 'rlus', 'hfss', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['clm', 'psl', 'va500', 'hus850', 'prw', 'tauu', 'va850', 'va200', 'mrro', 'clivi', 'evspsbl', 'rlut', 'mrso', 'rlds', 'prhmax', 'hfss', 'mrros', 'rsds', 'snm', 'ta500', 'prc', 'clh', 'sfcWind', 'vas', 'clwvi', 'ta850', 'snc', 'ts', 'hurs', 'tas', 'tauv', 'tasmax', 'rsut', 'sfcWindmax', 'ua500', 'tasmin', 'uas', 'ps', 'sic', 'ua200', 'clt', 'hfls', 'rsdt', 'ta200', 'pr', 'rlus', 'huss', 'rsus', 'cll', 'prsn', 'ua850']</t>
+          <t>['clm', 'psl', 'va500', 'hus850', 'prw', 'tauu', 'va850', 'va200', 'mrro', 'clivi', 'evspsbl', 'rlut', 'mrso', 'rlds', 'prhmax', 'hfss', 'mrros', 'rsds', 'snm', 'ta500', 'prc', 'clh', 'sfcWind', 'vas', 'clwvi', 'ta850', 'snc', 'ts', 'hurs', 'tas', 'tauv', 'tasmax', 'rsut', 'sfcWindmax', 'ua500', 'tasmin', 'uas', 'ps', 'sic', 'ua200', 'clt', 'hfls', 'rsdt', 'ta200', 'pr', 'rlus', 'huss', 'rsus', 'cll', 'prsn', 'ua850', 'clm', 'psl', 'va500', 'hus850', 'prw', 'tauu', 'va850', 'va200', 'mrro', 'clivi', 'evspsbl', 'rlut', 'mrso', 'rlds', 'prhmax', 'hfss', 'mrros', 'rsds', 'snm', 'ta500', 'prc', 'clh', 'sfcWind', 'vas', 'clwvi', 'ta850', 'snc', 'ts', 'hurs', 'tas', 'tauv', 'tasmax', 'rsut', 'sfcWindmax', 'ua500', 'tasmin', 'uas', 'ps', 'sic', 'ua200', 'clt', 'hfls', 'rsdt', 'ta200', 'pr', 'rlus', 'huss', 'rsus', 'cll', 'prsn', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14598,7 +14598,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -14658,7 +14658,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['clt', 'rsus', 'sic', 'ua200', 'snm', 'psl', 'ua850', 'ta500', 'tasmax', 'va200', 'uas', 'rlut', 'va850', 'mrso', 'rlds', 'pr', 'hfss', 'sfcWind', 'ta200', 'ua500', 'rsut', 'evspsbl', 'vas', 'ta850', 'snc', 'va500', 'hurs', 'sfcWindmax', 'tasmin', 'rsds', 'hfls', 'rsdt', 'rlus', 'huss', 'tas', 'hus850']</t>
+          <t>['clt', 'rsus', 'sic', 'ua200', 'snm', 'psl', 'ua850', 'ta500', 'tasmax', 'va200', 'uas', 'rlut', 'va850', 'mrso', 'rlds', 'pr', 'hfss', 'sfcWind', 'ta200', 'ua500', 'rsut', 'evspsbl', 'vas', 'ta850', 'snc', 'va500', 'hurs', 'sfcWindmax', 'tasmin', 'rsds', 'hfls', 'rsdt', 'rlus', 'huss', 'tas', 'hus850', 'clt', 'rsus', 'sic', 'ua200', 'snm', 'psl', 'ua850', 'ta500', 'tasmax', 'va200', 'uas', 'rlut', 'va850', 'mrso', 'rlds', 'pr', 'hfss', 'sfcWind', 'ta200', 'ua500', 'rsut', 'evspsbl', 'vas', 'ta850', 'snc', 'va500', 'hurs', 'sfcWindmax', 'tasmin', 'rsds', 'hfls', 'rsdt', 'rlus', 'huss', 'tas', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['rlds', 'hfls', 'rsdt', 'ta850', 'clt', 'snc', 'rlus', 'huss', 'hus850', 'vas', 'va500', 'evspsbl', 'ua850', 'tas', 'ta200', 'sfcWind', 'psl', 'ua200', 'rsds', 'ta500', 'uas', 'va850', 'mrso', 'va200', 'hfss', 'rsus', 'sfcWindmax', 'sic', 'hurs', 'tasmax', 'rlut', 'snm', 'pr', 'ua500', 'tasmin', 'rsut']</t>
+          <t>['rlds', 'hfls', 'rsdt', 'ta850', 'clt', 'snc', 'rlus', 'huss', 'hus850', 'vas', 'va500', 'evspsbl', 'ua850', 'tas', 'ta200', 'sfcWind', 'psl', 'ua200', 'rsds', 'ta500', 'uas', 'va850', 'mrso', 'va200', 'hfss', 'rsus', 'sfcWindmax', 'sic', 'hurs', 'tasmax', 'rlut', 'snm', 'pr', 'ua500', 'tasmin', 'rsut', 'rlds', 'hfls', 'rsdt', 'ta850', 'clt', 'snc', 'rlus', 'huss', 'hus850', 'vas', 'va500', 'evspsbl', 'ua850', 'tas', 'ta200', 'sfcWind', 'psl', 'ua200', 'rsds', 'ta500', 'uas', 'va850', 'mrso', 'va200', 'hfss', 'rsus', 'sfcWindmax', 'sic', 'hurs', 'tasmax', 'rlut', 'snm', 'pr', 'ua500', 'tasmin', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -14862,7 +14862,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -14890,7 +14890,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -14918,7 +14918,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'pr', 'rsus', 'hfls', 'rsds', 'rlds']</t>
+          <t>['rlus', 'hfss', 'pr', 'rsus', 'hfls', 'rsds', 'rlds', 'rlus', 'hfss', 'pr', 'rsus', 'hfls', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -15046,7 +15046,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['vas', 'uas', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -15078,7 +15078,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['cll', 'pr', 'snc', 'va500', 'prsn', 'rsus', 'prc', 'clivi', 'va850', 'ta200', 'sfcWindmax', 'tasmax', 'clwvi', 'ts', 'tauv', 'rsut', 'prw', 'rlus', 'huss', 'hfss', 'ta500', 'hurs', 'hfls', 'rsdt', 'hus850', 'rlds', 'ta850', 'sfcWind', 'mrros', 'tas', 'tasmin', 'evspsbl', 'ua500', 'snm', 'va200', 'mrso', 'psl', 'ua850', 'clt', 'ua200', 'uas', 'tauu', 'clm', 'clh', 'vas', 'ps', 'rsds', 'rlut', 'sic', 'mrro']</t>
+          <t>['cll', 'pr', 'snc', 'va500', 'prsn', 'rsus', 'prc', 'clivi', 'va850', 'ta200', 'sfcWindmax', 'tasmax', 'clwvi', 'ts', 'tauv', 'rsut', 'prw', 'rlus', 'huss', 'hfss', 'ta500', 'hurs', 'hfls', 'rsdt', 'hus850', 'rlds', 'ta850', 'sfcWind', 'mrros', 'tas', 'tasmin', 'evspsbl', 'ua500', 'snm', 'va200', 'mrso', 'psl', 'ua850', 'clt', 'ua200', 'uas', 'tauu', 'clm', 'clh', 'vas', 'ps', 'rsds', 'rlut', 'sic', 'mrro', 'cll', 'pr', 'snc', 'va500', 'prsn', 'rsus', 'prc', 'clivi', 'va850', 'ta200', 'sfcWindmax', 'tasmax', 'clwvi', 'ts', 'tauv', 'rsut', 'prw', 'rlus', 'huss', 'hfss', 'ta500', 'hurs', 'hfls', 'rsdt', 'hus850', 'rlds', 'ta850', 'sfcWind', 'mrros', 'tas', 'tasmin', 'evspsbl', 'ua500', 'snm', 'va200', 'mrso', 'psl', 'ua850', 'clt', 'ua200', 'uas', 'tauu', 'clm', 'clh', 'vas', 'ps', 'rsds', 'rlut', 'sic', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['prhmax']</t>
+          <t>['prhmax', 'prhmax']</t>
         </is>
       </c>
     </row>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -15162,7 +15162,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['sfcWind', 'sic', 'ua500', 'hus850', 'va200', 'pr', 'rsus', 'sfcWindmax', 'mrros', 'ta850', 'rsut', 'rlus', 'evspsbl', 'huss', 'ta500', 'hfss', 'hurs', 'hfls', 'rsdt', 'uas', 'rlds', 'ta200', 'tas', 'snm', 'vas', 'rsds', 'psl', 'tasmin', 'rlut', 'snc', 'va850', 'mrso', 'ua200', 'clt', 'tasmax', 'va500', 'ua850', 'mrro']</t>
+          <t>['sfcWind', 'sic', 'ua500', 'hus850', 'va200', 'pr', 'rsus', 'sfcWindmax', 'mrros', 'ta850', 'rsut', 'rlus', 'evspsbl', 'huss', 'ta500', 'hfss', 'hurs', 'hfls', 'rsdt', 'uas', 'rlds', 'ta200', 'tas', 'snm', 'vas', 'rsds', 'psl', 'tasmin', 'rlut', 'snc', 'va850', 'mrso', 'ua200', 'clt', 'tasmax', 'va500', 'ua850', 'mrro', 'sfcWind', 'sic', 'ua500', 'hus850', 'va200', 'pr', 'rsus', 'sfcWindmax', 'mrros', 'ta850', 'rsut', 'rlus', 'evspsbl', 'huss', 'ta500', 'hfss', 'hurs', 'hfls', 'rsdt', 'uas', 'rlds', 'ta200', 'tas', 'snm', 'vas', 'rsds', 'psl', 'tasmin', 'rlut', 'snc', 'va850', 'mrso', 'ua200', 'clt', 'tasmax', 'va500', 'ua850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['rsus', 'va200', 'rlut', 'ua850', 'clt', 'vas', 'mrro', 'psl', 'rlus', 'huss', 'ta500', 'hfss', 'uas', 'sfcWind', 'mrros', 'ta850', 'rsut', 'tas', 'tasmax', 'rlds', 'tasmin', 'ta200', 'hurs', 'sfcWindmax', 'hus850', 'hfls', 'rsdt', 'ua200', 'pr', 'mrso', 'snc', 'sic', 'evspsbl', 'rsds', 'va500', 'va850', 'snm', 'ua500']</t>
+          <t>['rsus', 'va200', 'rlut', 'ua850', 'clt', 'vas', 'mrro', 'psl', 'rlus', 'huss', 'ta500', 'hfss', 'uas', 'sfcWind', 'mrros', 'ta850', 'rsut', 'tas', 'tasmax', 'rlds', 'tasmin', 'ta200', 'hurs', 'sfcWindmax', 'hus850', 'hfls', 'rsdt', 'ua200', 'pr', 'mrso', 'snc', 'sic', 'evspsbl', 'rsds', 'va500', 'va850', 'snm', 'ua500', 'rsus', 'va200', 'rlut', 'ua850', 'clt', 'vas', 'mrro', 'psl', 'rlus', 'huss', 'ta500', 'hfss', 'uas', 'sfcWind', 'mrros', 'ta850', 'rsut', 'tas', 'tasmax', 'rlds', 'tasmin', 'ta200', 'hurs', 'sfcWindmax', 'hus850', 'hfls', 'rsdt', 'ua200', 'pr', 'mrso', 'snc', 'sic', 'evspsbl', 'rsds', 'va500', 'va850', 'snm', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -15398,7 +15398,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15426,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'huss', 'ps', 'rsus', 'pr', 'hfls', 'rlds', 'psl', 'rsds', 'sfcWind', 'tas', 'hurs']</t>
+          <t>['rlus', 'hfss', 'huss', 'ps', 'rsus', 'pr', 'hfls', 'rlds', 'psl', 'rsds', 'sfcWind', 'tas', 'hurs', 'rlus', 'hfss', 'huss', 'ps', 'rsus', 'pr', 'hfls', 'rlds', 'psl', 'rsds', 'sfcWind', 'tas', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -15522,7 +15522,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['sic', 'mrso', 'ua850', 'tas', 'ua200', 'rsus', 'mrros', 'huss', 'mrro', 'rlds', 'sfcWindmax', 'clwvi', 'rsut', 'clm', 'psl', 'tasmin', 'prw', 'ua500', 'prhmax', 'va500', 'clh', 'vas', 'ts', 'hfls', 'rsds', 'sfcWind', 'hus850', 'rlut', 'va850', 'rlus', 'tauv', 'rsdt', 'evspsbl', 'cll', 'snc', 'pr', 'tasmax', 'clivi', 'hfss', 'prc', 'hurs', 'ta850', 'uas', 'prsn', 'clt', 'ta500', 'va200', 'tauu', 'ps', 'ta200', 'snm']</t>
+          <t>['sic', 'mrso', 'ua850', 'tas', 'ua200', 'rsus', 'mrros', 'huss', 'mrro', 'rlds', 'sfcWindmax', 'clwvi', 'rsut', 'clm', 'psl', 'tasmin', 'prw', 'ua500', 'prhmax', 'va500', 'clh', 'vas', 'ts', 'hfls', 'rsds', 'sfcWind', 'hus850', 'rlut', 'va850', 'rlus', 'tauv', 'rsdt', 'evspsbl', 'cll', 'snc', 'pr', 'tasmax', 'clivi', 'hfss', 'prc', 'hurs', 'ta850', 'uas', 'prsn', 'clt', 'ta500', 'va200', 'tauu', 'ps', 'ta200', 'snm', 'sic', 'mrso', 'ua850', 'tas', 'ua200', 'rsus', 'mrros', 'huss', 'mrro', 'rlds', 'sfcWindmax', 'clwvi', 'rsut', 'clm', 'psl', 'tasmin', 'prw', 'ua500', 'prhmax', 'va500', 'clh', 'vas', 'ts', 'hfls', 'rsds', 'sfcWind', 'hus850', 'rlut', 'va850', 'rlus', 'tauv', 'rsdt', 'evspsbl', 'cll', 'snc', 'pr', 'tasmax', 'clivi', 'hfss', 'prc', 'hurs', 'ta850', 'uas', 'prsn', 'clt', 'ta500', 'va200', 'tauu', 'ps', 'ta200', 'snm']</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -15610,7 +15610,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['ta200', 'rsds', 'tasmin', 'mrros', 'mrro', 'rlds', 'sfcWindmax', 'ua850', 'clt', 'rsut', 'ta850', 'va850', 'tas', 'vas', 'ua200', 'rlut', 'uas', 'pr', 'ta500', 'hfls', 'rsdt', 'snc', 'sic', 'va200', 'snm', 'hurs', 'rsus', 'evspsbl', 'ua500', 'hfss', 'hus850', 'psl', 'tasmax', 'mrso', 'va500', 'sfcWind', 'rlus', 'huss']</t>
+          <t>['ta200', 'rsds', 'tasmin', 'mrros', 'mrro', 'rlds', 'sfcWindmax', 'ua850', 'clt', 'rsut', 'ta850', 'va850', 'tas', 'vas', 'ua200', 'rlut', 'uas', 'pr', 'ta500', 'hfls', 'rsdt', 'snc', 'sic', 'va200', 'snm', 'hurs', 'rsus', 'evspsbl', 'ua500', 'hfss', 'hus850', 'psl', 'tasmax', 'mrso', 'va500', 'sfcWind', 'rlus', 'huss', 'ta200', 'rsds', 'tasmin', 'mrros', 'mrro', 'rlds', 'sfcWindmax', 'ua850', 'clt', 'rsut', 'ta850', 'va850', 'tas', 'vas', 'ua200', 'rlut', 'uas', 'pr', 'ta500', 'hfls', 'rsdt', 'snc', 'sic', 'va200', 'snm', 'hurs', 'rsus', 'evspsbl', 'ua500', 'hfss', 'hus850', 'psl', 'tasmax', 'mrso', 'va500', 'sfcWind', 'rlus', 'huss']</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15730,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15786,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -15818,7 +15818,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['hfls', 'rsdt', 'va200', 'sfcWind', 'sic', 'mrros', 'huss', 'mrro', 'rsds', 'pr', 'tasmax', 'ua500', 'evspsbl', 'hfss', 'ta500', 'ua200', 'hus850', 'va500', 'rlds', 'vas', 'sfcWindmax', 'snc', 'ta850', 'ta200', 'hurs', 'rsus', 'rlut', 'rsut', 'snm', 'psl', 'mrso', 'uas', 'ua850', 'rlus', 'clt', 'tas', 'tasmin', 'va850']</t>
+          <t>['hfls', 'rsdt', 'va200', 'sfcWind', 'sic', 'mrros', 'huss', 'mrro', 'rsds', 'pr', 'tasmax', 'ua500', 'evspsbl', 'hfss', 'ta500', 'ua200', 'hus850', 'va500', 'rlds', 'vas', 'sfcWindmax', 'snc', 'ta850', 'ta200', 'hurs', 'rsus', 'rlut', 'rsut', 'snm', 'psl', 'mrso', 'uas', 'ua850', 'rlus', 'clt', 'tas', 'tasmin', 'va850', 'hfls', 'rsdt', 'va200', 'sfcWind', 'sic', 'mrros', 'huss', 'mrro', 'rsds', 'pr', 'tasmax', 'ua500', 'evspsbl', 'hfss', 'ta500', 'ua200', 'hus850', 'va500', 'rlds', 'vas', 'sfcWindmax', 'snc', 'ta850', 'ta200', 'hurs', 'rsus', 'rlut', 'rsut', 'snm', 'psl', 'mrso', 'uas', 'ua850', 'rlus', 'clt', 'tas', 'tasmin', 'va850']</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -15938,7 +15938,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['rlus', 'huss', 'rsds', 'ps', 'rlds', 'pr', 'rsus', 'hfls', 'sfcWind', 'hurs', 'hfss', 'tas', 'psl']</t>
+          <t>['rlus', 'huss', 'rsds', 'ps', 'rlds', 'pr', 'rsus', 'hfls', 'sfcWind', 'hurs', 'hfss', 'tas', 'psl', 'rlus', 'huss', 'rsds', 'ps', 'rlds', 'pr', 'rsus', 'hfls', 'sfcWind', 'hurs', 'hfss', 'tas', 'psl']</t>
         </is>
       </c>
     </row>
@@ -15970,7 +15970,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['vas', 'uas', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['tauv', 'tasmin', 'pr', 'rlds', 'psl', 'ua850', 'sfcWindmax', 'hfls', 'rsdt', 'clivi', 'hus850', 'sic', 'ta500', 'clwvi', 'hurs', 'rsds', 'va850', 'cll', 'ta200', 'uas', 'ua200', 'rlut', 'ua500', 'mrro', 'hfss', 'prc', 'clm', 'mrso', 'tas', 'rlus', 'mrros', 'huss', 'va500', 'prw', 'tasmax', 'snm', 'ps', 'va200', 'rsut', 'evspsbl', 'snc', 'prhmax', 'clh', 'vas', 'clt', 'tauu', 'rsus', 'sfcWind', 'prsn', 'ts', 'ta850']</t>
+          <t>['tauv', 'tasmin', 'pr', 'rlds', 'psl', 'ua850', 'sfcWindmax', 'hfls', 'rsdt', 'clivi', 'hus850', 'sic', 'ta500', 'clwvi', 'hurs', 'rsds', 'va850', 'cll', 'ta200', 'uas', 'ua200', 'rlut', 'ua500', 'mrro', 'hfss', 'prc', 'clm', 'mrso', 'tas', 'rlus', 'mrros', 'huss', 'va500', 'prw', 'tasmax', 'snm', 'ps', 'va200', 'rsut', 'evspsbl', 'snc', 'prhmax', 'clh', 'vas', 'clt', 'tauu', 'rsus', 'sfcWind', 'prsn', 'ts', 'ta850', 'tauv', 'tasmin', 'pr', 'rlds', 'psl', 'ua850', 'sfcWindmax', 'hfls', 'rsdt', 'clivi', 'hus850', 'sic', 'ta500', 'clwvi', 'hurs', 'rsds', 'va850', 'cll', 'ta200', 'uas', 'ua200', 'rlut', 'ua500', 'mrro', 'hfss', 'prc', 'clm', 'mrso', 'tas', 'rlus', 'mrros', 'huss', 'va500', 'prw', 'tasmax', 'snm', 'ps', 'va200', 'rsut', 'evspsbl', 'snc', 'prhmax', 'clh', 'vas', 'clt', 'tauu', 'rsus', 'sfcWind', 'prsn', 'ts', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -16030,7 +16030,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -16058,7 +16058,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['rlut', 'hfss', 'ta500', 'clt', 'tasmax', 'sic', 'hfls', 'rsdt', 'rsds', 'hus850', 'tas', 'va200', 'sfcWindmax', 'snm', 'psl', 'ta850', 'va850', 'rsut', 'pr', 'hurs', 'vas', 'rsus', 'rlus', 'huss', 'ta200', 'uas', 'ua200', 'sfcWind', 'ua850', 'snc', 'evspsbl', 'mrso', 'ua500', 'va500', 'rlds', 'tasmin']</t>
+          <t>['rlut', 'hfss', 'ta500', 'clt', 'tasmax', 'sic', 'hfls', 'rsdt', 'rsds', 'hus850', 'tas', 'va200', 'sfcWindmax', 'snm', 'psl', 'ta850', 'va850', 'rsut', 'pr', 'hurs', 'vas', 'rsus', 'rlus', 'huss', 'ta200', 'uas', 'ua200', 'sfcWind', 'ua850', 'snc', 'evspsbl', 'mrso', 'ua500', 'va500', 'rlds', 'tasmin', 'rlut', 'hfss', 'ta500', 'clt', 'tasmax', 'sic', 'hfls', 'rsdt', 'rsds', 'hus850', 'tas', 'va200', 'sfcWindmax', 'snm', 'psl', 'ta850', 'va850', 'rsut', 'pr', 'hurs', 'vas', 'rsus', 'rlus', 'huss', 'ta200', 'uas', 'ua200', 'sfcWind', 'ua850', 'snc', 'evspsbl', 'mrso', 'ua500', 'va500', 'rlds', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -16294,7 +16294,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'vas', 'hus850', 'ta850', 'rlut', 'snc', 'sfcWind', 'va500', 'rlus', 'ta500', 'rsus', 'uas', 'tasmin', 'rlds', 'mrso', 'rsut', 'snm', 'psl', 'ta200', 'tasmax', 'tas', 'clt', 'va200', 'pr', 'evspsbl', 'sic', 'ua500', 'ua200', 'hfss', 'huss', 'hfls', 'rsdt', 'hurs', 'ua850', 'va850', 'rsds']</t>
+          <t>['sfcWindmax', 'vas', 'hus850', 'ta850', 'rlut', 'snc', 'sfcWind', 'va500', 'rlus', 'ta500', 'rsus', 'uas', 'tasmin', 'rlds', 'mrso', 'rsut', 'snm', 'psl', 'ta200', 'tasmax', 'tas', 'clt', 'va200', 'pr', 'evspsbl', 'sic', 'ua500', 'ua200', 'hfss', 'huss', 'hfls', 'rsdt', 'hurs', 'ua850', 'va850', 'rsds', 'sfcWindmax', 'vas', 'hus850', 'ta850', 'rlut', 'snc', 'sfcWind', 'va500', 'rlus', 'ta500', 'rsus', 'uas', 'tasmin', 'rlds', 'mrso', 'rsut', 'snm', 'psl', 'ta200', 'tasmax', 'tas', 'clt', 'va200', 'pr', 'evspsbl', 'sic', 'ua500', 'ua200', 'hfss', 'huss', 'hfls', 'rsdt', 'hurs', 'ua850', 'va850', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -16322,7 +16322,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -16854,7 +16854,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['hfss']</t>
+          <t>['hfss', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['sic', 'ua500', 'ua200', 'sfcWindmax', 'uas', 'rsds', 'evspsbl', 'ta500', 'hurs', 'clivi', 'clt', 'prw', 'sfcWind', 'ua850', 'tasmax', 'clh', 'vas', 'va850', 'hfss', 'pr', 'clwvi', 'prsn', 'tasmin', 'rsus', 'ta200', 'tauu', 'cll', 'snc', 'prhmax', 'rlus', 'huss', 'snm', 'va500', 'ts', 'mrso', 'ta850', 'hfls', 'rsdt', 'hus850', 'rsut', 'rlut', 'rlds', 'va200', 'tauv', 'tas', 'prc', 'ps', 'clm', 'psl', 'mrros', 'mrro']</t>
+          <t>['sic', 'ua500', 'ua200', 'sfcWindmax', 'uas', 'rsds', 'evspsbl', 'ta500', 'hurs', 'clivi', 'clt', 'prw', 'sfcWind', 'ua850', 'tasmax', 'clh', 'vas', 'va850', 'hfss', 'pr', 'clwvi', 'prsn', 'tasmin', 'rsus', 'ta200', 'tauu', 'cll', 'snc', 'prhmax', 'rlus', 'huss', 'snm', 'va500', 'ts', 'mrso', 'ta850', 'hfls', 'rsdt', 'hus850', 'rsut', 'rlut', 'rlds', 'va200', 'tauv', 'tas', 'prc', 'ps', 'clm', 'psl', 'sic', 'ua500', 'ua200', 'sfcWindmax', 'uas', 'rsds', 'evspsbl', 'ta500', 'hurs', 'clivi', 'clt', 'prw', 'sfcWind', 'ua850', 'tasmax', 'clh', 'vas', 'va850', 'hfss', 'pr', 'clwvi', 'prsn', 'tasmin', 'rsus', 'ta200', 'tauu', 'cll', 'snc', 'prhmax', 'rlus', 'huss', 'snm', 'va500', 'ts', 'mrso', 'ta850', 'hfls', 'rsdt', 'hus850', 'rsut', 'rlut', 'rlds', 'va200', 'tauv', 'tas', 'prc', 'ps', 'clm', 'psl', 'mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -16974,7 +16974,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['sic', 'rlus', 'huss', 'sfcWind', 'uas', 'va500', 'va200', 'ta200', 'hurs', 'psl', 'snc', 'hfss', 'snm', 'rsus', 'ta850', 'ua850', 'sfcWindmax', 'pr', 'mrso', 'hus850', 'rsds', 'hfls', 'rsdt', 'ua200', 'vas', 'ua500', 'tasmax', 'rlds', 'va850', 'rsut', 'ta500', 'evspsbl', 'clt', 'tasmin', 'rlut', 'tas']</t>
+          <t>['sic', 'rlus', 'huss', 'sfcWind', 'uas', 'va500', 'va200', 'ta200', 'hurs', 'psl', 'snc', 'hfss', 'snm', 'rsus', 'ta850', 'ua850', 'sfcWindmax', 'pr', 'mrso', 'hus850', 'rsds', 'hfls', 'rsdt', 'ua200', 'vas', 'ua500', 'tasmax', 'rlds', 'va850', 'rsut', 'ta500', 'evspsbl', 'clt', 'tasmin', 'rlut', 'tas', 'sic', 'rlus', 'huss', 'sfcWind', 'uas', 'va500', 'va200', 'ta200', 'hurs', 'psl', 'snc', 'hfss', 'snm', 'rsus', 'ta850', 'ua850', 'sfcWindmax', 'pr', 'mrso', 'hus850', 'rsds', 'hfls', 'rsdt', 'ua200', 'vas', 'ua500', 'tasmax', 'rlds', 'va850', 'rsut', 'ta500', 'evspsbl', 'clt', 'tasmin', 'rlut', 'tas']</t>
         </is>
       </c>
     </row>
@@ -17122,7 +17122,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -17178,7 +17178,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -17238,7 +17238,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['hfls', 'rsdt', 'va500', 'va200', 'sic', 'va850', 'rsds', 'clt', 'huss', 'snm', 'ua200', 'rsut', 'evspsbl', 'ta500', 'tas', 'pr', 'rlds', 'tasmax', 'snc', 'ua500', 'rlus', 'uas', 'hurs', 'hus850', 'rlut', 'vas', 'ua850', 'rsus', 'ta200', 'sfcWind', 'ta850', 'sfcWindmax', 'mrso', 'tasmin', 'psl', 'hfss']</t>
+          <t>['hfls', 'rsdt', 'va500', 'va200', 'sic', 'va850', 'rsds', 'clt', 'huss', 'snm', 'ua200', 'rsut', 'evspsbl', 'ta500', 'tas', 'pr', 'rlds', 'tasmax', 'snc', 'ua500', 'rlus', 'uas', 'hurs', 'hus850', 'rlut', 'vas', 'ua850', 'rsus', 'ta200', 'sfcWind', 'ta850', 'sfcWindmax', 'mrso', 'tasmin', 'psl', 'hfss', 'hfls', 'rsdt', 'va500', 'va200', 'sic', 'va850', 'rsds', 'clt', 'huss', 'snm', 'ua200', 'rsut', 'evspsbl', 'ta500', 'tas', 'pr', 'rlds', 'tasmax', 'snc', 'ua500', 'rlus', 'uas', 'hurs', 'hus850', 'rlut', 'vas', 'ua850', 'rsus', 'ta200', 'sfcWind', 'ta850', 'sfcWindmax', 'mrso', 'tasmin', 'psl', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -17294,7 +17294,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -17322,7 +17322,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -17550,7 +17550,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'sfcWind', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sund']</t>
+          <t>['sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'sfcWind', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sund', 'sfcWindmax', 'sic', 'snc', 'snd', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'sfcWind', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sund']</t>
         </is>
       </c>
     </row>
@@ -17790,7 +17790,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['hfss']</t>
+          <t>['hfss', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -17882,7 +17882,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['rlut', 'ua200', 'hus850', 'sfcWind', 'psl', 'ta200', 'tasmin', 'rlus', 'tauv', 'huss', 'prhmax', 'clivi', 'uas', 'rsds', 'evspsbl', 'tasmax', 'tas', 'ua500', 'hurs', 'hfss', 'snm', 'rsus', 'prw', 'ta500', 'rsut', 'vas', 'clt', 'va200', 'hfls', 'rsdt', 'prc', 'ta850', 'clh', 'tauu', 'rlds', 'sic', 'clwvi', 'clm', 'ps', 'va500', 'mrso', 'sfcWindmax', 'va850', 'prsn', 'ua850', 'ts', 'cll', 'snc', 'pr', 'mrro', 'mrros']</t>
+          <t>['rlut', 'ua200', 'hus850', 'sfcWind', 'psl', 'ta200', 'tasmin', 'rlus', 'tauv', 'huss', 'prhmax', 'clivi', 'uas', 'rsds', 'evspsbl', 'tasmax', 'tas', 'ua500', 'hurs', 'hfss', 'snm', 'rsus', 'prw', 'ta500', 'rsut', 'vas', 'clt', 'va200', 'hfls', 'rsdt', 'prc', 'ta850', 'clh', 'tauu', 'rlds', 'sic', 'clwvi', 'clm', 'ps', 'va500', 'mrso', 'sfcWindmax', 'va850', 'prsn', 'ua850', 'ts', 'cll', 'snc', 'pr', 'rlut', 'ua200', 'hus850', 'sfcWind', 'psl', 'ta200', 'tasmin', 'rlus', 'tauv', 'huss', 'prhmax', 'clivi', 'uas', 'rsds', 'evspsbl', 'tasmax', 'tas', 'ua500', 'hurs', 'hfss', 'snm', 'rsus', 'prw', 'ta500', 'rsut', 'vas', 'clt', 'va200', 'hfls', 'rsdt', 'prc', 'ta850', 'clh', 'tauu', 'rlds', 'sic', 'clwvi', 'clm', 'ps', 'va500', 'mrso', 'sfcWindmax', 'va850', 'prsn', 'ua850', 'ts', 'cll', 'snc', 'pr', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -17910,7 +17910,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -18030,7 +18030,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['rlut', 'va850', 'hurs', 'tasmin', 'vas', 'uas', 'va500', 'hus850', 'sfcWind', 'va200', 'ua850', 'pr', 'rsds', 'psl', 'tas', 'hfls', 'rsdt', 'rsut', 'evspsbl', 'ua500', 'mrso', 'ua200', 'sic', 'ta850', 'clt', 'rlds', 'snc', 'ta200', 'rlus', 'hfss', 'huss', 'snm', 'ta500', 'sfcWindmax', 'rsus', 'tasmax']</t>
+          <t>['rlut', 'va850', 'hurs', 'tasmin', 'vas', 'uas', 'va500', 'hus850', 'sfcWind', 'va200', 'ua850', 'pr', 'rsds', 'psl', 'tas', 'hfls', 'rsdt', 'rsut', 'evspsbl', 'ua500', 'mrso', 'ua200', 'sic', 'ta850', 'clt', 'rlds', 'snc', 'ta200', 'rlus', 'hfss', 'huss', 'snm', 'ta500', 'sfcWindmax', 'rsus', 'tasmax', 'rlut', 'va850', 'hurs', 'tasmin', 'vas', 'uas', 'va500', 'hus850', 'sfcWind', 'va200', 'ua850', 'pr', 'rsds', 'psl', 'tas', 'hfls', 'rsdt', 'rsut', 'evspsbl', 'ua500', 'mrso', 'ua200', 'sic', 'ta850', 'clt', 'rlds', 'snc', 'ta200', 'rlus', 'hfss', 'huss', 'snm', 'ta500', 'sfcWindmax', 'rsus', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -18058,7 +18058,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -18114,7 +18114,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'va500', 'psl', 'clt', 'rlus', 'huss', 'tasmax', 'evspsbl', 'uas', 'va850', 'snc', 'ta850', 'ua500', 'pr', 'tasmin', 'mrso', 'ta200', 'rsut', 'ua200', 'rlds', 'vas', 'rlut', 'rsds', 'hfss', 'sfcWind', 'ua850', 'hfls', 'rsdt', 'snm', 'ta500', 'rsus', 'va200', 'tas', 'hurs', 'sic', 'hus850']</t>
+          <t>['sfcWindmax', 'va500', 'psl', 'clt', 'rlus', 'huss', 'tasmax', 'evspsbl', 'uas', 'va850', 'snc', 'ta850', 'ua500', 'pr', 'tasmin', 'mrso', 'ta200', 'rsut', 'ua200', 'rlds', 'vas', 'rlut', 'rsds', 'hfss', 'sfcWind', 'ua850', 'hfls', 'rsdt', 'snm', 'ta500', 'rsus', 'va200', 'tas', 'hurs', 'sic', 'hus850', 'sfcWindmax', 'va500', 'psl', 'clt', 'rlus', 'huss', 'tasmax', 'evspsbl', 'uas', 'va850', 'snc', 'ta850', 'ua500', 'pr', 'tasmin', 'mrso', 'ta200', 'rsut', 'ua200', 'rlds', 'vas', 'rlut', 'rsds', 'hfss', 'sfcWind', 'ua850', 'hfls', 'rsdt', 'snm', 'ta500', 'rsus', 'va200', 'tas', 'hurs', 'sic', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -18230,7 +18230,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -18258,7 +18258,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -18734,7 +18734,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['pr', 'rsus', 'ps', 'sfcWind', 'rlus', 'hfls', 'huss', 'tas', 'rsds', 'rlds', 'hfss', 'psl', 'hurs']</t>
+          <t>['pr', 'rsus', 'ps', 'sfcWind', 'rlus', 'hfls', 'huss', 'tas', 'rsds', 'rlds', 'hfss', 'psl', 'hurs', 'pr', 'rsus', 'ps', 'sfcWind', 'rlus', 'hfls', 'huss', 'tas', 'rsds', 'rlds', 'hfss', 'psl', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -18798,7 +18798,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['ts', 'va200', 'ta500', 'tas', 'ua500', 'hfss', 'sfcWind', 'hus850', 'rsus', 'clivi', 'va850', 'rsds', 'hfls', 'rsdt', 'cll', 'psl', 'clwvi', 'rlut', 'tasmin', 'snm', 'ta200', 'ps', 'va500', 'tauu', 'prw', 'rlds', 'tasmax', 'ta850', 'sfcWindmax', 'vas', 'clt', 'rlus', 'clm', 'evspsbl', 'mrso', 'ua850', 'prc', 'clh', 'rsut', 'snc', 'pr', 'tauv', 'huss', 'prhmax', 'hurs', 'sic', 'prsn', 'uas', 'ua200', 'mrros', 'mrro']</t>
+          <t>['ts', 'va200', 'ta500', 'tas', 'ua500', 'hfss', 'sfcWind', 'hus850', 'rsus', 'clivi', 'va850', 'rsds', 'hfls', 'rsdt', 'cll', 'psl', 'clwvi', 'rlut', 'tasmin', 'snm', 'ta200', 'ps', 'va500', 'tauu', 'prw', 'rlds', 'tasmax', 'ta850', 'sfcWindmax', 'vas', 'clt', 'rlus', 'clm', 'evspsbl', 'mrso', 'ua850', 'prc', 'clh', 'rsut', 'snc', 'pr', 'tauv', 'huss', 'prhmax', 'hurs', 'sic', 'prsn', 'uas', 'ua200', 'ts', 'va200', 'ta500', 'tas', 'ua500', 'hfss', 'sfcWind', 'hus850', 'rsus', 'clivi', 'va850', 'rsds', 'hfls', 'rsdt', 'cll', 'psl', 'clwvi', 'rlut', 'tasmin', 'snm', 'ta200', 'ps', 'va500', 'tauu', 'prw', 'rlds', 'tasmax', 'ta850', 'sfcWindmax', 'vas', 'clt', 'rlus', 'clm', 'evspsbl', 'mrso', 'ua850', 'prc', 'clh', 'rsut', 'snc', 'pr', 'tauv', 'huss', 'prhmax', 'hurs', 'sic', 'prsn', 'uas', 'ua200', 'mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -18826,7 +18826,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -18882,7 +18882,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -18914,7 +18914,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['rsut', 'vas', 'ua500', 'hus850', 'ta200', 'sfcWindmax', 'hfss', 'psl', 'rsds', 'va500', 'snc', 'rsus', 'tas', 'hfls', 'rsdt', 'rlus', 'huss', 'rlut', 'ua850', 'sic', 'pr', 'snm', 'ta850', 'tasmin', 'mrso', 'rlds', 'clt', 'tasmax', 'va850', 'uas', 'ua200', 'evspsbl', 'ta500', 'sfcWind', 'hurs', 'va200']</t>
+          <t>['rsut', 'vas', 'ua500', 'hus850', 'ta200', 'sfcWindmax', 'hfss', 'psl', 'rsds', 'va500', 'snc', 'rsus', 'tas', 'hfls', 'rsdt', 'rlus', 'huss', 'rlut', 'ua850', 'sic', 'pr', 'snm', 'ta850', 'tasmin', 'mrso', 'rlds', 'clt', 'tasmax', 'va850', 'uas', 'ua200', 'evspsbl', 'ta500', 'sfcWind', 'hurs', 'va200', 'rsut', 'vas', 'ua500', 'hus850', 'ta200', 'sfcWindmax', 'hfss', 'psl', 'rsds', 'va500', 'snc', 'rsus', 'tas', 'hfls', 'rsdt', 'rlus', 'huss', 'rlut', 'ua850', 'sic', 'pr', 'snm', 'ta850', 'tasmin', 'mrso', 'rlds', 'clt', 'tasmax', 'va850', 'uas', 'ua200', 'evspsbl', 'ta500', 'sfcWind', 'hurs', 'va200']</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18974,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -19002,7 +19002,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -19090,7 +19090,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['rsds', 'evspsbl', 'uas', 'snm', 'ua850', 'ua200', 'rlds', 'ta200', 'tas', 'sfcWindmax', 'rlus', 'hus850', 'rsus', 'ua500', 'va850', 'tasmax', 'huss', 'snc', 'ta500', 'hurs', 'clt', 'rsut', 'tasmin', 'va200', 'va500', 'rsdt', 'psl', 'hfss', 'sic', 'hfls', 'sfcWind', 'vas', 'ta850', 'rlut', 'pr', 'mrso']</t>
+          <t>['rsds', 'evspsbl', 'uas', 'snm', 'ua850', 'ua200', 'rlds', 'ta200', 'tas', 'sfcWindmax', 'rlus', 'hus850', 'rsus', 'ua500', 'va850', 'tasmax', 'huss', 'snc', 'ta500', 'hurs', 'clt', 'rsut', 'tasmin', 'va200', 'va500', 'rsdt', 'psl', 'hfss', 'sic', 'hfls', 'sfcWind', 'vas', 'ta850', 'rlut', 'pr', 'mrso', 'rsds', 'evspsbl', 'uas', 'snm', 'ua850', 'ua200', 'rlds', 'ta200', 'tas', 'sfcWindmax', 'rlus', 'hus850', 'rsus', 'ua500', 'va850', 'tasmax', 'huss', 'snc', 'ta500', 'hurs', 'clt', 'rsut', 'tasmin', 'va200', 'va500', 'rsdt', 'psl', 'hfss', 'sic', 'hfls', 'sfcWind', 'vas', 'ta850', 'rlut', 'pr', 'mrso']</t>
         </is>
       </c>
     </row>
@@ -19118,7 +19118,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19146,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -19174,7 +19174,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -19242,7 +19242,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['rsds', 'psl', 'hfls', 'ps', 'rsus', 'pr', 'hurs', 'rlds', 'tas', 'sfcWind', 'rlus', 'hfss', 'huss']</t>
+          <t>['rsds', 'psl', 'hfls', 'ps', 'rsus', 'pr', 'hurs', 'rlds', 'tas', 'sfcWind', 'rlus', 'hfss', 'huss', 'rsds', 'psl', 'hfls', 'ps', 'rsus', 'pr', 'hurs', 'rlds', 'tas', 'sfcWind', 'rlus', 'hfss', 'huss']</t>
         </is>
       </c>
     </row>
@@ -19274,7 +19274,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['va850', 'rsds', 'tauu', 'uas', 'clh', 'ua850', 'ua200', 'tas', 'rsut', 'vas', 'snc', 'clm', 'psl', 'hfss', 'sfcWind', 'va500', 'hus850', 'rsus', 'ta500', 'ts', 'clivi', 'hurs', 'rlds', 'prhmax', 'mrso', 'tasmin', 'tauv', 'va200', 'prc', 'rlut', 'evspsbl', 'ta850', 'huss', 'sic', 'clwvi', 'pr', 'hfls', 'rsdt', 'ps', 'tasmax', 'prw', 'rlus', 'clt', 'cll', 'ta200', 'prsn', 'sfcWindmax', 'snm', 'ua500', 'mrro', 'mrros']</t>
+          <t>['va850', 'rsds', 'tauu', 'uas', 'clh', 'ua850', 'ua200', 'tas', 'rsut', 'vas', 'snc', 'clm', 'psl', 'hfss', 'sfcWind', 'va500', 'hus850', 'rsus', 'ta500', 'ts', 'clivi', 'hurs', 'rlds', 'prhmax', 'mrso', 'tasmin', 'tauv', 'va200', 'prc', 'rlut', 'evspsbl', 'ta850', 'huss', 'sic', 'clwvi', 'pr', 'hfls', 'rsdt', 'ps', 'tasmax', 'prw', 'rlus', 'clt', 'cll', 'ta200', 'prsn', 'sfcWindmax', 'snm', 'ua500', 'va850', 'rsds', 'tauu', 'uas', 'clh', 'ua850', 'ua200', 'tas', 'rsut', 'vas', 'snc', 'clm', 'psl', 'hfss', 'sfcWind', 'va500', 'hus850', 'rsus', 'ta500', 'ts', 'clivi', 'hurs', 'rlds', 'prhmax', 'mrso', 'tasmin', 'tauv', 'va200', 'prc', 'rlut', 'evspsbl', 'ta850', 'huss', 'sic', 'clwvi', 'pr', 'hfls', 'rsdt', 'ps', 'tasmax', 'prw', 'rlus', 'clt', 'cll', 'ta200', 'prsn', 'sfcWindmax', 'snm', 'ua500', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -19334,7 +19334,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -19362,7 +19362,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -19390,7 +19390,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -19422,7 +19422,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -19454,7 +19454,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['snc', 'mrso', 'ta200', 'rsut', 'sic', 'sfcWind', 'ua200', 'pr', 'evspsbl', 'ua850', 'va500', 'sfcWindmax', 'vas', 'tasmax', 'hurs', 'va200', 'tasmin', 'hus850', 'rsus', 'uas', 'tas', 'rlus', 'va850', 'rlds', 'rlut', 'ta850', 'huss', 'snm', 'hfls', 'rsdt', 'ua500', 'ta500', 'psl', 'rsds', 'clt', 'hfss']</t>
+          <t>['snc', 'mrso', 'ta200', 'rsut', 'sic', 'sfcWind', 'ua200', 'pr', 'evspsbl', 'ua850', 'va500', 'sfcWindmax', 'vas', 'tasmax', 'hurs', 'va200', 'tasmin', 'hus850', 'rsus', 'uas', 'tas', 'rlus', 'va850', 'rlds', 'rlut', 'ta850', 'huss', 'snm', 'hfls', 'rsdt', 'ua500', 'ta500', 'psl', 'rsds', 'clt', 'hfss', 'snc', 'mrso', 'ta200', 'rsut', 'sic', 'sfcWind', 'ua200', 'pr', 'evspsbl', 'ua850', 'va500', 'sfcWindmax', 'vas', 'tasmax', 'hurs', 'va200', 'tasmin', 'hus850', 'rsus', 'uas', 'tas', 'rlus', 'va850', 'rlds', 'rlut', 'ta850', 'huss', 'snm', 'hfls', 'rsdt', 'ua500', 'ta500', 'psl', 'rsds', 'clt', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -19482,7 +19482,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -19510,7 +19510,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -19538,7 +19538,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -19598,7 +19598,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['rlds', 'vas', 'ua850', 'hfls', 'rsdt', 'evspsbl', 'tasmin', 'hfss', 'sic', 'uas', 'va850', 'rsut', 'hurs', 'ua200', 'clt', 'sfcWindmax', 'snm', 'va200', 'rlut', 'psl', 'pr', 'va500', 'tas', 'ta500', 'hus850', 'snc', 'mrso', 'rsds', 'ta850', 'rsus', 'sfcWind', 'ua500', 'tasmax', 'ta200', 'rlus', 'huss']</t>
+          <t>['rlds', 'vas', 'ua850', 'hfls', 'rsdt', 'evspsbl', 'tasmin', 'hfss', 'sic', 'uas', 'va850', 'rsut', 'hurs', 'ua200', 'clt', 'sfcWindmax', 'snm', 'va200', 'rlut', 'psl', 'pr', 'va500', 'tas', 'ta500', 'hus850', 'snc', 'mrso', 'rsds', 'ta850', 'rsus', 'sfcWind', 'ua500', 'tasmax', 'ta200', 'rlus', 'huss', 'rlds', 'vas', 'ua850', 'hfls', 'rsdt', 'evspsbl', 'tasmin', 'hfss', 'sic', 'uas', 'va850', 'rsut', 'hurs', 'ua200', 'clt', 'sfcWindmax', 'snm', 'va200', 'rlut', 'psl', 'pr', 'va500', 'tas', 'ta500', 'hus850', 'snc', 'mrso', 'rsds', 'ta850', 'rsus', 'sfcWind', 'ua500', 'tasmax', 'ta200', 'rlus', 'huss']</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19626,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -19654,7 +19654,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['snw', 'snd']</t>
+          <t>['snw', 'snd', 'snw', 'snd']</t>
         </is>
       </c>
     </row>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -19750,7 +19750,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['rlus', 'tas', 'ps', 'sfcWind', 'hfls', 'hurs', 'huss', 'hfss', 'rsus', 'rsds', 'pr', 'psl', 'rlds']</t>
+          <t>['rlus', 'tas', 'ps', 'sfcWind', 'hfls', 'hurs', 'huss', 'hfss', 'rsus', 'rsds', 'pr', 'psl', 'rlds', 'rlus', 'tas', 'ps', 'sfcWind', 'hfls', 'hurs', 'huss', 'hfss', 'rsus', 'rsds', 'pr', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['vas', 'uas', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -19814,7 +19814,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['prsn', 'rsds', 'tasmin', 'evspsbl', 'sic', 'tauv', 'ps', 'tasmax', 'ta850', 'hurs', 'pr', 'ua500', 'prhmax', 'psl', 'ta500', 'va850', 'hfls', 'rsdt', 'hfss', 'rsus', 'clt', 'cll', 'clwvi', 'rsut', 'clh', 'vas', 'mrso', 'ta200', 'rlut', 'sfcWindmax', 'snc', 'uas', 'va200', 'clm', 'hus850', 'prc', 'ua850', 'snm', 'ts', 'va500', 'rlus', 'huss', 'tas', 'tauu', 'sfcWind', 'clivi', 'rlds', 'prw', 'ua200', 'mrros', 'mrro']</t>
+          <t>['prsn', 'rsds', 'tasmin', 'evspsbl', 'sic', 'tauv', 'ps', 'tasmax', 'ta850', 'hurs', 'pr', 'ua500', 'prhmax', 'psl', 'ta500', 'va850', 'hfls', 'rsdt', 'hfss', 'rsus', 'clt', 'cll', 'clwvi', 'rsut', 'clh', 'vas', 'mrso', 'ta200', 'rlut', 'sfcWindmax', 'snc', 'uas', 'va200', 'clm', 'hus850', 'prc', 'ua850', 'snm', 'ts', 'va500', 'rlus', 'huss', 'tas', 'tauu', 'sfcWind', 'clivi', 'rlds', 'prw', 'ua200', 'prsn', 'rsds', 'tasmin', 'evspsbl', 'sic', 'tauv', 'ps', 'tasmax', 'ta850', 'hurs', 'pr', 'ua500', 'prhmax', 'psl', 'ta500', 'va850', 'hfls', 'rsdt', 'hfss', 'rsus', 'clt', 'cll', 'clwvi', 'rsut', 'clh', 'vas', 'mrso', 'ta200', 'rlut', 'sfcWindmax', 'snc', 'uas', 'va200', 'clm', 'hus850', 'prc', 'ua850', 'snm', 'ts', 'va500', 'rlus', 'huss', 'tas', 'tauu', 'sfcWind', 'clivi', 'rlds', 'prw', 'ua200', 'mrros', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -19842,7 +19842,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -19898,7 +19898,7 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['zg500', 'zg200']</t>
+          <t>['zg500', 'zg200', 'zg500', 'zg200']</t>
         </is>
       </c>
     </row>
@@ -19930,7 +19930,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['rsut', 'va500', 'hfss', 'va850', 'hurs', 'snm', 'evspsbl', 'rlus', 'huss', 'hus850', 'hfls', 'rsdt', 'ua850', 'tas', 'psl', 'sfcWindmax', 'ta500', 'rlds', 'uas', 'sfcWind', 'ta850', 'tasmax', 'ua200', 'snc', 'rlut', 'ta200', 'sic', 'clt', 'rsds', 'tasmin', 'rsus', 'ua500', 'vas', 'mrso', 'va200', 'pr']</t>
+          <t>['rsut', 'va500', 'hfss', 'va850', 'hurs', 'snm', 'evspsbl', 'rlus', 'huss', 'hus850', 'hfls', 'rsdt', 'ua850', 'tas', 'psl', 'sfcWindmax', 'ta500', 'rlds', 'uas', 'sfcWind', 'ta850', 'tasmax', 'ua200', 'snc', 'rlut', 'ta200', 'sic', 'clt', 'rsds', 'tasmin', 'rsus', 'ua500', 'vas', 'mrso', 'va200', 'pr', 'rsut', 'va500', 'hfss', 'va850', 'hurs', 'snm', 'evspsbl', 'rlus', 'huss', 'hus850', 'hfls', 'rsdt', 'ua850', 'tas', 'psl', 'sfcWindmax', 'ta500', 'rlds', 'uas', 'sfcWind', 'ta850', 'tasmax', 'ua200', 'snc', 'rlut', 'ta200', 'sic', 'clt', 'rsds', 'tasmin', 'rsus', 'ua500', 'vas', 'mrso', 'va200', 'pr']</t>
         </is>
       </c>
     </row>
@@ -19990,7 +19990,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -20018,7 +20018,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -20046,7 +20046,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -20106,7 +20106,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['va850', 'evspsbl', 'pr', 'rlds', 'ua200', 'ua500', 'rlut', 'hurs', 'sfcWind', 'rsut', 'rsds', 'ta850', 'vas', 'ta500', 'hfss', 'va500', 'hus850', 'tas', 'rlus', 'snc', 'mrso', 'huss', 'psl', 'hfls', 'rsdt', 'va200', 'rsus', 'sic', 'sfcWindmax', 'tasmax', 'tasmin', 'snm', 'ua850', 'ta200', 'uas', 'clt']</t>
+          <t>['va850', 'evspsbl', 'pr', 'rlds', 'ua200', 'ua500', 'rlut', 'hurs', 'sfcWind', 'rsut', 'rsds', 'ta850', 'vas', 'ta500', 'hfss', 'va500', 'hus850', 'tas', 'rlus', 'snc', 'mrso', 'huss', 'psl', 'hfls', 'rsdt', 'va200', 'rsus', 'sic', 'sfcWindmax', 'tasmax', 'tasmin', 'snm', 'ua850', 'ta200', 'uas', 'clt', 'va850', 'evspsbl', 'pr', 'rlds', 'ua200', 'ua500', 'rlut', 'hurs', 'sfcWind', 'rsut', 'rsds', 'ta850', 'vas', 'ta500', 'hfss', 'va500', 'hus850', 'tas', 'rlus', 'snc', 'mrso', 'huss', 'psl', 'hfls', 'rsdt', 'va200', 'rsus', 'sic', 'sfcWindmax', 'tasmax', 'tasmin', 'snm', 'ua850', 'ta200', 'uas', 'clt']</t>
         </is>
       </c>
     </row>
@@ -20134,7 +20134,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['sund']</t>
+          <t>['sund', 'sund']</t>
         </is>
       </c>
     </row>
@@ -20162,7 +20162,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['snd', 'snw']</t>
+          <t>['snd', 'snw', 'snd', 'snw']</t>
         </is>
       </c>
     </row>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['zg200', 'zg500']</t>
+          <t>['zg200', 'zg500', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -20982,7 +20982,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -21018,7 +21018,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['tasmin', 'ua850', 'rsut', 'snw', 'tas', 'va500', 'wsgsmax', 'rlds', 'rlus', 'prc', 'ta850', 'pr', 'huss', 'vas', 'rsus', 'rlut', 'ta500', 'mrro', 'va850', 'clt', 'rsdt', 'mrso', 'rsds', 'tasmax', 'psl', 'sfcWind', 'uas', 'prsn', 'hfss', 'hfls', 'zg500', 'sfcWindmax', 'hus850', 'ta200', 'ua500', 'evspsbl', 'ps', 'ts']</t>
+          <t>['tasmin', 'ua850', 'rsut', 'snw', 'tas', 'va500', 'wsgsmax', 'rlds', 'rlus', 'prc', 'ta850', 'pr', 'huss', 'vas', 'rsus', 'rlut', 'ta500', 'mrro', 'va850', 'clt', 'rsdt', 'mrso', 'rsds', 'tasmax', 'psl', 'sfcWind', 'uas', 'prsn', 'hfss', 'hfls', 'zg500', 'sfcWindmax', 'hus850', 'ta200', 'ua500', 'evspsbl', 'ps', 'ts', 'tasmin', 'ua850', 'rsut', 'snw', 'tas', 'va500', 'wsgsmax', 'rlds', 'rlus', 'prc', 'ta850', 'pr', 'huss', 'vas', 'rsus', 'rlut', 'ta500', 'mrro', 'va850', 'clt', 'rsdt', 'mrso', 'rsds', 'tasmax', 'psl', 'sfcWind', 'uas', 'prsn', 'hfss', 'hfls', 'zg500', 'sfcWindmax', 'hus850', 'ta200', 'ua500', 'evspsbl', 'ps', 'ts']</t>
         </is>
       </c>
     </row>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['rsut', 'clt', 'vas', 'pr', 'ta500', 'mrso', 'sfcWind', 'rsus', 'rlut', 'hfls', 'mrro', 'ua850', 'rsds', 'zg500', 'huss', 'psl', 'ta200', 'snw', 'uas', 'rlds', 'tasmin', 'tasmax', 'tas', 'rlus', 'evspsbl', 'va850', 'hfss', 'rsdt', 'hus850', 'va500', 'ta850', 'ua500', 'sfcWindmax']</t>
+          <t>['rsut', 'clt', 'vas', 'pr', 'ta500', 'mrso', 'sfcWind', 'rsus', 'rlut', 'hfls', 'mrro', 'ua850', 'rsds', 'zg500', 'huss', 'psl', 'ta200', 'snw', 'uas', 'rlds', 'tasmin', 'tasmax', 'tas', 'rlus', 'evspsbl', 'va850', 'hfss', 'rsdt', 'hus850', 'va500', 'ta850', 'ua500', 'sfcWindmax', 'rsut', 'clt', 'vas', 'pr', 'ta500', 'mrso', 'sfcWind', 'rsus', 'rlut', 'hfls', 'mrro', 'ua850', 'rsds', 'zg500', 'huss', 'psl', 'ta200', 'snw', 'uas', 'rlds', 'tasmin', 'tasmax', 'tas', 'rlus', 'evspsbl', 'va850', 'hfss', 'rsdt', 'hus850', 'va500', 'ta850', 'ua500', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -21082,7 +21082,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['rlus', 'huss', 'ua850', 'rsus', 'sfcWind', 'tas', 'zg500', 'mrro', 'pr', 'rsdt', 'rsut', 'psl', 'uas', 'tasmax', 'tasmin', 'evspsbl', 'snw', 'vas', 'ta850', 'ta500', 'ua500', 'hfss', 'hfls', 'rsds', 'va500', 'clt', 'rlds', 'rlut', 'va850', 'ta200', 'sfcWindmax', 'mrso', 'hus850']</t>
+          <t>['rlus', 'huss', 'ua850', 'rsus', 'sfcWind', 'tas', 'zg500', 'mrro', 'pr', 'rsdt', 'rsut', 'psl', 'uas', 'tasmax', 'tasmin', 'evspsbl', 'snw', 'vas', 'ta850', 'ta500', 'ua500', 'hfss', 'hfls', 'rsds', 'va500', 'clt', 'rlds', 'rlut', 'va850', 'ta200', 'sfcWindmax', 'mrso', 'hus850', 'rlus', 'huss', 'ua850', 'rsus', 'sfcWind', 'tas', 'zg500', 'mrro', 'pr', 'rsdt', 'rsut', 'psl', 'uas', 'tasmax', 'tasmin', 'evspsbl', 'snw', 'vas', 'ta850', 'ta500', 'ua500', 'hfss', 'hfls', 'rsds', 'va500', 'clt', 'rlds', 'rlut', 'va850', 'ta200', 'sfcWindmax', 'mrso', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21126,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['ts', 'va500', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'rsds', 'mrro', 'hfss', 'tas', 'ua500', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds']</t>
+          <t>['ts', 'va500', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'rsds', 'mrro', 'hfss', 'tas', 'ua500', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds', 'ts', 'va500', 'vas', 'sfcWind', 'prc', 'huss', 'snw', 'hus850', 'mrso', 'rlus', 'hfls', 'pr', 'rlut', 'uas', 'ua850', 'ta850', 'ta200', 'rsdt', 'prsn', 'clt', 'wsgsmax', 'rsds', 'mrro', 'hfss', 'tas', 'ua500', 'rsus', 'zg500', 'ta500', 'tasmax', 'sfcWindmax', 'tasmin', 'evspsbl', 'psl', 'ps', 'va850', 'rsut', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -21194,7 +21194,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['ua850', 'ua500', 'rsdt', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'pr']</t>
+          <t>['ua850', 'ua500', 'rsdt', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'pr', 'ua850', 'ua500', 'rsdt', 'rlut', 'tasmax', 'hfls', 'zg500', 'mrso', 'psl', 'rlus', 'evspsbl', 'snw', 'sfcWindmax', 'hus850', 'uas', 'rlds', 'va850', 'vas', 'rsus', 'ta500', 'huss', 'clt', 'tas', 'sfcWind', 'ta200', 'hfss', 'va500', 'rsds', 'rsut', 'tasmin', 'ta850', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -21226,7 +21226,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500']</t>
+          <t>['ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500', 'ua850', 'rsdt', 'hfss', 'rlds', 'hus850', 'pr', 'va850', 'clt', 'ta200', 'hfls', 'sfcWindmax', 'vas', 'ta850', 'psl', 'evspsbl', 'rsut', 'rsus', 'rlus', 'uas', 'sfcWind', 'tasmax', 'mrso', 'tasmin', 'ua500', 'zg500', 'huss', 'snw', 'rlut', 'rsds', 'va500', 'mrro', 'tas', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'orog', 'sftlf', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -21302,7 +21302,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'clt', 'hurs', 'tas']</t>
+          <t>['huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'clt', 'hurs', 'tas', 'huss', 'pr', 'ps', 'rlds', 'rsds', 'sfcWind', 'clt', 'hurs', 'tas']</t>
         </is>
       </c>
     </row>
@@ -21334,7 +21334,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['sfcWind', 'tas', 'uas', 'vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus']</t>
+          <t>['sfcWind', 'tas', 'uas', 'vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus', 'sfcWind', 'tas', 'uas', 'vas', 'clt', 'hurs', 'huss', 'pr', 'ps', 'psl', 'rlds', 'rsds', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -21366,7 +21366,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -21398,7 +21398,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'prc', 'prsn', 'ps', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'tauu', 'tauv', 'ts', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'wsgsmax', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -21430,7 +21430,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic']</t>
+          <t>['snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic']</t>
         </is>
       </c>
     </row>
@@ -21462,7 +21462,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus850', 'huss', 'mrro', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'sic', 'snm', 'snw', 'ta200', 'ta500', 'ta850', 'tas', 'tasmax', 'tasmin', 'ua200', 'ua500', 'ua850', 'uas', 'va200', 'va500', 'va850', 'vas', 'zg200', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -21506,7 +21506,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -21542,7 +21542,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['tasmax', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'tasmin', 'tas', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va500', 'sfcWind', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'evspsbl', 'rsdt']</t>
+          <t>['tasmax', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'tasmin', 'tas', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va500', 'sfcWind', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'evspsbl', 'rsdt', 'tasmax', 'ua850', 'ts', 'va850', 'ta850', 'psl', 'ta500', 'rlus', 'snw', 'wsgsmax', 'sfcWindmax', 'tasmin', 'tas', 'hfls', 'rlut', 'ps', 'prsn', 'rlds', 'prc', 'vas', 'rsus', 'uas', 'rsut', 'rsds', 'ta200', 'ua500', 'hfss', 'huss', 'mrro', 'va500', 'sfcWind', 'mrso', 'hus850', 'clt', 'pr', 'zg500', 'evspsbl', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -21574,7 +21574,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['hfls', 'sfcWind', 'mrso', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'sfcWindmax', 'va500', 'rlds', 'ua850', 'ta850', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss']</t>
+          <t>['hfls', 'sfcWind', 'mrso', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'sfcWindmax', 'va500', 'rlds', 'ua850', 'ta850', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss', 'hfls', 'sfcWind', 'mrso', 'rsus', 'vas', 'pr', 'rlus', 'rsds', 'sfcWindmax', 'va500', 'rlds', 'ua850', 'ta850', 'clt', 'psl', 'ta200', 'ua500', 'snw', 'hus850', 'rsdt', 'tas', 'uas', 'tasmin', 'tasmax', 'evspsbl', 'ta500', 'zg500', 'va850', 'huss', 'rsut', 'mrro', 'rlut', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21606,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['snw', 'rsus', 'mrro', 'hus850', 'ta500', 'va500', 'hfls', 'sfcWindmax', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'huss', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850']</t>
+          <t>['snw', 'rsus', 'mrro', 'hus850', 'ta500', 'va500', 'hfls', 'sfcWindmax', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'huss', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850', 'snw', 'rsus', 'mrro', 'hus850', 'ta500', 'va500', 'hfls', 'sfcWindmax', 'rlut', 'ta850', 'rsds', 'rlus', 'uas', 'hfss', 'tas', 'rsdt', 'mrso', 'huss', 'sfcWind', 'evspsbl', 'psl', 'zg500', 'ua500', 'ta200', 'clt', 'tasmax', 'tasmin', 'pr', 'rlds', 'vas', 'va850', 'rsut', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -21646,7 +21646,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -21682,7 +21682,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['mrro', 'hus850', 'mrso', 'hfls', 'evspsbl', 'va850', 'tas', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'rsus', 'rsdt', 'rsut', 'ts', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'ua500', 'ta850', 'rlut', 'snw', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850']</t>
+          <t>['mrro', 'hus850', 'mrso', 'hfls', 'evspsbl', 'va850', 'tas', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'rsus', 'rsdt', 'rsut', 'ts', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'ua500', 'ta850', 'rlut', 'snw', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850', 'mrro', 'hus850', 'mrso', 'hfls', 'evspsbl', 'va850', 'tas', 'ta200', 'sfcWindmax', 'sfcWind', 'vas', 'clt', 'rsds', 'prc', 'huss', 'ta500', 'psl', 'rsus', 'rsdt', 'rsut', 'ts', 'rlus', 'tasmin', 'wsgsmax', 'rlds', 'uas', 'ua500', 'ta850', 'rlut', 'snw', 'va500', 'pr', 'tasmax', 'ps', 'hfss', 'zg500', 'prsn', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -21714,7 +21714,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['tas', 'rlds', 'evspsbl', 'huss', 'hfss', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'ua500', 'rsdt', 'ua850', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'snw', 'va500', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt']</t>
+          <t>['tas', 'rlds', 'evspsbl', 'huss', 'hfss', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'ua500', 'rsdt', 'ua850', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'snw', 'va500', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt', 'tas', 'rlds', 'evspsbl', 'huss', 'hfss', 'pr', 'hus850', 'rlus', 'rsus', 'uas', 'va850', 'ta500', 'ta850', 'sfcWind', 'mrro', 'ua500', 'rsdt', 'ua850', 'psl', 'sfcWindmax', 'rlut', 'tasmax', 'mrso', 'ta200', 'snw', 'va500', 'rsds', 'tasmin', 'zg500', 'rsut', 'vas', 'hfls', 'clt']</t>
         </is>
       </c>
     </row>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'zg500', 'rsds', 'evspsbl', 'tas', 'rsdt', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'clt', 'ua850', 'hfss', 'mrro', 'ua500']</t>
+          <t>['hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'zg500', 'rsds', 'evspsbl', 'tas', 'rsdt', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'clt', 'ua850', 'hfss', 'mrro', 'ua500', 'hus850', 'tasmax', 'rlds', 'va850', 'tasmin', 'uas', 'zg500', 'rsds', 'evspsbl', 'tas', 'rsdt', 'rlut', 'pr', 'rsus', 'rsut', 'huss', 'vas', 'snw', 'sfcWindmax', 'sfcWind', 'ta850', 'mrso', 'hfls', 'psl', 'ta200', 'va500', 'rlus', 'ta500', 'clt', 'ua850', 'hfss', 'mrro', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['mrro', 'tas', 'rsdt', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'hus850']</t>
+          <t>['mrro', 'tas', 'rsdt', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'hus850', 'mrro', 'tas', 'rsdt', 'rlus', 'evspsbl', 'rsus', 'mrso', 'rlds', 'tasmax', 'ta200', 'sfcWindmax', 'hfss', 'va850', 'sfcWind', 'huss', 'clt', 'va500', 'ta850', 'ua850', 'snw', 'wsgsmax', 'prc', 'prsn', 'ts', 'hfls', 'zg500', 'ta500', 'ua500', 'pr', 'rlut', 'psl', 'uas', 'rsds', 'vas', 'tasmin', 'ps', 'rsut', 'hus850']</t>
         </is>
       </c>
     </row>
@@ -22334,7 +22334,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['snw', 'rlut', 'rlds', 'rsds', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut']</t>
+          <t>['snw', 'rlut', 'rlds', 'rsds', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut', 'snw', 'rlut', 'rlds', 'rsds', 'mrro', 'pr', 'sfcWind', 'ua500', 'tasmax', 'rlus', 'tasmin', 'ta500', 'ua850', 'huss', 'tas', 'va500', 'ta200', 'rsdt', 'hus850', 'psl', 'hfls', 'ta850', 'hfss', 'va850', 'sfcWindmax', 'evspsbl', 'mrso', 'zg500', 'uas', 'vas', 'clt', 'rsus', 'rsut']</t>
         </is>
       </c>
     </row>
@@ -22366,7 +22366,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'zg500', 'uas', 'rsut', 'tas', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500']</t>
+          <t>['tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'zg500', 'uas', 'rsut', 'tas', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500', 'tasmax', 'tasmin', 'ua850', 'sfcWind', 'pr', 'rsus', 'va500', 'rlus', 'ta200', 'rlut', 'hfls', 'ua500', 'rlds', 'mrso', 'ta850', 'huss', 'mrro', 'hfss', 'rsdt', 'snw', 'vas', 'zg500', 'uas', 'rsut', 'tas', 'evspsbl', 'sfcWindmax', 'hus850', 'clt', 'va850', 'rsds', 'psl', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22446,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>['rlut', 'mrro', 'tasmin', 'va500', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'huss', 'vas', 'rsdt', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr']</t>
+          <t>['rlut', 'mrro', 'tasmin', 'va500', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'huss', 'vas', 'rsdt', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr', 'rlut', 'mrro', 'tasmin', 'va500', 'hfss', 'sfcWind', 'snw', 'ts', 'rlus', 'va850', 'ua850', 'prsn', 'hfls', 'rsut', 'huss', 'vas', 'rsdt', 'ps', 'ta500', 'clt', 'prc', 'ta850', 'rsds', 'ua500', 'hus850', 'sfcWindmax', 'ta200', 'psl', 'mrso', 'evspsbl', 'rsus', 'tas', 'wsgsmax', 'tasmax', 'zg500', 'rlds', 'uas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22478,7 +22478,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['zg500', 'va500', 'rsut', 'mrso', 'rlut', 'va850', 'hfss', 'rsus', 'ta500', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt']</t>
+          <t>['zg500', 'va500', 'rsut', 'mrso', 'rlut', 'va850', 'hfss', 'rsus', 'ta500', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt', 'zg500', 'va500', 'rsut', 'mrso', 'rlut', 'va850', 'hfss', 'rsus', 'ta500', 'hus850', 'sfcWind', 'ua850', 'ta850', 'clt', 'rsds', 'psl', 'pr', 'tasmax', 'evspsbl', 'tas', 'rlus', 'sfcWindmax', 'ta200', 'hfls', 'ua500', 'mrro', 'vas', 'rlds', 'uas', 'huss', 'snw', 'tasmin', 'rsdt']</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['tasmin', 'va500', 'ua850', 'sfcWindmax', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'tasmax', 'snw', 'va850', 'rsdt', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr']</t>
+          <t>['tasmin', 'va500', 'ua850', 'sfcWindmax', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'tasmax', 'snw', 'va850', 'rsdt', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr', 'tasmin', 'va500', 'ua850', 'sfcWindmax', 'evspsbl', 'zg500', 'ta200', 'mrro', 'hus850', 'clt', 'ta500', 'rsut', 'uas', 'rlds', 'ua500', 'tasmax', 'snw', 'va850', 'rsdt', 'hfls', 'sfcWind', 'ta850', 'rlus', 'psl', 'mrso', 'tas', 'hfss', 'rlut', 'rsus', 'huss', 'vas', 'rsds', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -22826,7 +22826,7 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['huss', 'tas', 'clt', 'ps', 'pr', 'sfcWind', 'hurs', 'rsds']</t>
+          <t>['huss', 'tas', 'clt', 'ps', 'pr', 'sfcWind', 'hurs', 'rsds', 'huss', 'tas', 'clt', 'ps', 'pr', 'sfcWind', 'hurs', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -22858,7 +22858,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['rsds', 'clt', 'ps', 'pr', 'rsus', 'sfcWind', 'huss', 'hurs', 'psl', 'tas', 'rlds']</t>
+          <t>['rsds', 'clt', 'ps', 'pr', 'rsus', 'sfcWind', 'huss', 'hurs', 'psl', 'tas', 'rlds', 'rsds', 'clt', 'ps', 'pr', 'rsus', 'sfcWind', 'huss', 'hurs', 'psl', 'tas', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -22890,7 +22890,7 @@
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['vas', 'uas', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -22922,7 +22922,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>['tasmax', 'tas', 'ta850', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'clt', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
+          <t>['tasmax', 'tas', 'ta850', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'clt', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'tasmax', 'tas', 'ta850', 'wsgsmax', 'vas', 'zg500', 'va500', 'va850', 'tasmin', 'uas', 'ua500', 'ua850', 'ts', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'clt', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22954,7 +22954,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['clt', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'vas', 'zg500', 'va850', 'uas', 'va500', 'ua500', 'ua850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr']</t>
+          <t>['clt', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'vas', 'zg500', 'va850', 'uas', 'va500', 'ua500', 'ua850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'clt', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'vas', 'zg500', 'va850', 'uas', 'va500', 'ua500', 'ua850', 'sfcWindmax', 'rsut', 'sfcWind', 'snw', 'ta200', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rlut', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'sfcWind', 'snw', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'uas', 'ua500', 'ua850', 'evspsbl', 'clt', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'sfcWind', 'snw', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'uas', 'ua500', 'ua850', 'evspsbl', 'clt', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'sfcWindmax', 'sfcWind', 'snw', 'ta200', 'ta500', 'ta850', 'tasmax', 'tasmin', 'tas', 'uas', 'ua500', 'ua850', 'evspsbl', 'clt', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'mrso', 'huss', 'hurs', 'hus850', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23026,7 +23026,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23062,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'pr', 'rsds', 'sfcWind', 'tas', 'ps']</t>
+          <t>['huss', 'hurs', 'clt', 'pr', 'rsds', 'sfcWind', 'tas', 'ps', 'huss', 'hurs', 'clt', 'pr', 'rsds', 'sfcWind', 'tas', 'ps']</t>
         </is>
       </c>
     </row>
@@ -23094,7 +23094,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas', 'ps', 'huss', 'hurs', 'clt', 'pr']</t>
+          <t>['rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas', 'ps', 'huss', 'hurs', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas', 'ps', 'huss', 'hurs', 'clt', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23126,7 +23126,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['vas', 'uas', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'tasmax', 'tasmin', 'tas', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'rlds', 'rlus', 'rlut', 'mrso', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw']</t>
         </is>
       </c>
     </row>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr']</t>
+          <t>['sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'uas', 'ta500', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23222,7 +23222,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>['zg500', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
+          <t>['zg500', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'zg500', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'hfss', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850']</t>
         </is>
       </c>
     </row>
@@ -23266,7 +23266,7 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'orog', 'sftlf', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -23302,7 +23302,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>['pr', 'rsus', 'hurs', 'psl', 'rlds', 'tas', 'rsds', 'sfcWind', 'huss', 'ps']</t>
+          <t>['pr', 'rsus', 'hurs', 'psl', 'rlds', 'tas', 'rsds', 'sfcWind', 'huss', 'ps', 'pr', 'rsus', 'hurs', 'psl', 'rlds', 'tas', 'rsds', 'sfcWind', 'huss', 'ps']</t>
         </is>
       </c>
     </row>
@@ -23334,7 +23334,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['vas', 'uas', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>['ua850', 'sfcWind', 'psl', 'uas', 'rsds', 'rsdt', 'huss', 'zg500', 'rlus', 'snw', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'ta500', 'wsgsmax', 'rsus', 'rlut', 'prc', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850']</t>
+          <t>['ua850', 'sfcWind', 'psl', 'uas', 'rsds', 'rsdt', 'huss', 'zg500', 'rlus', 'snw', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'ta500', 'wsgsmax', 'rsus', 'rlut', 'prc', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850', 'ua850', 'sfcWind', 'psl', 'uas', 'rsds', 'rsdt', 'huss', 'zg500', 'rlus', 'snw', 'clt', 'pr', 'tasmax', 'hus850', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'hurs', 'rlds', 'prsn', 'vas', 'ta200', 'ua500', 'hfss', 'tasmin', 'ta500', 'wsgsmax', 'rsus', 'rlut', 'prc', 'ta850', 'mrro', 'ps', 'va500', 'ts', 'evspsbl', 'tas', 'va850']</t>
         </is>
       </c>
     </row>
@@ -23398,7 +23398,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>['sfcWind', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'rlut', 'rlus', 'snw', 'pr', 'uas', 'va850', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500']</t>
+          <t>['sfcWind', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'rlut', 'rlus', 'snw', 'pr', 'uas', 'va850', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500', 'sfcWind', 'hus850', 'mrro', 'hfls', 'tas', 'ta500', 'rsus', 'tasmin', 'zg500', 'tasmax', 'psl', 'vas', 'va500', 'rsds', 'rlds', 'rsdt', 'evspsbl', 'rlut', 'rlus', 'snw', 'pr', 'uas', 'va850', 'clt', 'sfcWindmax', 'hfss', 'rsut', 'mrso', 'huss', 'ua850', 'hurs', 'ta200', 'ta850', 'ua500']</t>
         </is>
       </c>
     </row>
@@ -23430,7 +23430,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>['mrso', 'sfcWind', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'va850', 'pr', 'rlds', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'rsus', 'rlus', 'hurs', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro']</t>
+          <t>['mrso', 'sfcWind', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'va850', 'pr', 'rlds', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'rsus', 'rlus', 'hurs', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro', 'mrso', 'sfcWind', 'tasmax', 'hfss', 'rlut', 'zg500', 'tas', 'ua850', 'va850', 'pr', 'rlds', 'tasmin', 'vas', 'clt', 'va500', 'rsds', 'rsdt', 'ta200', 'ta500', 'sfcWindmax', 'rsus', 'rlus', 'hurs', 'uas', 'ua500', 'hfls', 'snw', 'psl', 'hus850', 'rsut', 'evspsbl', 'huss', 'ta850', 'mrro']</t>
         </is>
       </c>
     </row>
@@ -23470,7 +23470,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'sftlf', 'orog', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -23506,7 +23506,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'sfcWind', 'tas']</t>
+          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'sfcWind', 'tas', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'sfcWind', 'tas']</t>
         </is>
       </c>
     </row>
@@ -23538,7 +23538,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas']</t>
+          <t>['huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'sfcWind', 'psl', 'tas']</t>
         </is>
       </c>
     </row>
@@ -23570,7 +23570,7 @@
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>['vas', 'uas']</t>
+          <t>['vas', 'uas', 'vas', 'uas']</t>
         </is>
       </c>
     </row>
@@ -23602,7 +23602,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'ts', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
+          <t>['wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'ts', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr', 'wsgsmax', 'vas', 'uas', 'va500', 'va850', 'ua500', 'ua850', 'zg500', 'hfss', 'hfls', 'mrso', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snw', 'ta200', 'tasmax', 'tasmin', 'tas', 'ta500', 'ta850', 'ts', 'clt', 'rsds', 'rlds', 'rlus', 'rlut', 'prc', 'psl', 'prsn', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23634,7 +23634,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'hus850', 'mrro', 'clt', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snw', 'ta200', 'ta500', 'tasmax', 'tasmin', 'tas', 'uas', 'ta850', 'ua500', 'ua850', 'vas', 'zg500', 'va500', 'va850', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'mrso', 'psl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'zg500', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr']</t>
+          <t>['vas', 'uas', 'zg500', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr', 'vas', 'uas', 'zg500', 'va500', 'va850', 'ua500', 'ua850', 'tasmax', 'tasmin', 'snw', 'tas', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'evspsbl', 'clt', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'rlds', 'mrso', 'huss', 'hurs', 'hus850', 'psl', 'mrro', 'pr']</t>
         </is>
       </c>
     </row>
@@ -23942,7 +23942,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'orog', 'sftlf', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -23978,7 +23978,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>['pr', 'ps', 'tas', 'rsus', 'sfcWind', 'huss', 'rsds', 'hurs', 'psl', 'rlds']</t>
+          <t>['pr', 'ps', 'tas', 'rsus', 'sfcWind', 'huss', 'rsds', 'hurs', 'psl', 'rlds', 'pr', 'ps', 'tas', 'rsus', 'sfcWind', 'huss', 'rsds', 'hurs', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -24010,7 +24010,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>['uas', 'vas']</t>
+          <t>['uas', 'vas', 'uas', 'vas']</t>
         </is>
       </c>
     </row>
@@ -24042,7 +24042,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>['psl', 'clt', 'rlds', 'ta850', 'vas', 'ta500', 'rsds', 'hurs', 'snw', 'mrro', 'va500', 'pr', 'rsus', 'rlut', 'huss', 'prc', 'ps', 'ua500', 'ua850', 'ts', 'va850', 'wsgsmax', 'tasmin', 'uas', 'prsn', 'rlus', 'hfss', 'rsdt', 'evspsbl', 'tas', 'zg500', 'tasmax', 'sfcWind', 'sfcWindmax', 'hfls', 'mrso', 'rsut', 'hus850', 'ta200']</t>
+          <t>['psl', 'clt', 'rlds', 'ta850', 'vas', 'ta500', 'rsds', 'hurs', 'snw', 'mrro', 'va500', 'pr', 'rsus', 'rlut', 'huss', 'prc', 'ps', 'ua500', 'ua850', 'ts', 'va850', 'wsgsmax', 'tasmin', 'uas', 'prsn', 'rlus', 'hfss', 'rsdt', 'evspsbl', 'tas', 'zg500', 'tasmax', 'sfcWind', 'sfcWindmax', 'hfls', 'mrso', 'rsut', 'hus850', 'ta200', 'psl', 'clt', 'rlds', 'ta850', 'vas', 'ta500', 'rsds', 'hurs', 'snw', 'mrro', 'va500', 'pr', 'rsus', 'rlut', 'huss', 'prc', 'ps', 'ua500', 'ua850', 'ts', 'va850', 'wsgsmax', 'tasmin', 'uas', 'prsn', 'rlus', 'hfss', 'rsdt', 'evspsbl', 'tas', 'zg500', 'tasmax', 'sfcWind', 'sfcWindmax', 'hfls', 'mrso', 'rsut', 'hus850', 'ta200']</t>
         </is>
       </c>
     </row>
@@ -24074,7 +24074,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'ta850', 'sfcWindmax', 'evspsbl', 'huss', 'clt', 'sfcWind', 'vas', 'zg500', 'ta500', 'va500', 'va850', 'hfls', 'rsus', 'rlus', 'hurs', 'pr', 'mrso', 'ta200', 'rsut', 'hus850', 'ua500', 'tasmax', 'hfss', 'psl', 'uas', 'rsdt', 'rlut', 'snw', 'ua850', 'tas', 'mrro', 'tasmin']</t>
+          <t>['rsds', 'rlds', 'ta850', 'sfcWindmax', 'evspsbl', 'huss', 'clt', 'sfcWind', 'vas', 'zg500', 'ta500', 'va500', 'va850', 'hfls', 'rsus', 'rlus', 'hurs', 'pr', 'mrso', 'ta200', 'rsut', 'hus850', 'ua500', 'tasmax', 'hfss', 'psl', 'uas', 'rsdt', 'rlut', 'snw', 'ua850', 'tas', 'mrro', 'tasmin', 'rsds', 'rlds', 'ta850', 'sfcWindmax', 'evspsbl', 'huss', 'clt', 'sfcWind', 'vas', 'zg500', 'ta500', 'va500', 'va850', 'hfls', 'rsus', 'rlus', 'hurs', 'pr', 'mrso', 'ta200', 'rsut', 'hus850', 'ua500', 'tasmax', 'hfss', 'psl', 'uas', 'rsdt', 'rlut', 'snw', 'ua850', 'tas', 'mrro', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -24106,7 +24106,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>['tas', 'zg500', 'hfss', 'pr', 'hfls', 'rlut', 'evspsbl', 'rsds', 'mrso', 'ta500', 'rlus', 'clt', 'mrro', 'rsdt', 'rsut', 'sfcWind', 'ta200', 'sfcWindmax', 'ta850', 'ua850', 'tasmin', 'tasmax', 'huss', 'snw', 'psl', 'rlds', 'va850', 'ua500', 'rsus', 'uas', 'hurs', 'vas', 'hus850', 'va500']</t>
+          <t>['tas', 'zg500', 'hfss', 'pr', 'hfls', 'rlut', 'evspsbl', 'rsds', 'mrso', 'ta500', 'rlus', 'clt', 'mrro', 'rsdt', 'rsut', 'sfcWind', 'ta200', 'sfcWindmax', 'ta850', 'ua850', 'tasmin', 'tasmax', 'huss', 'snw', 'psl', 'rlds', 'va850', 'ua500', 'rsus', 'uas', 'hurs', 'vas', 'hus850', 'va500', 'tas', 'zg500', 'hfss', 'pr', 'hfls', 'rlut', 'evspsbl', 'rsds', 'mrso', 'ta500', 'rlus', 'clt', 'mrro', 'rsdt', 'rsut', 'sfcWind', 'ta200', 'sfcWindmax', 'ta850', 'ua850', 'tasmin', 'tasmax', 'huss', 'snw', 'psl', 'rlds', 'va850', 'ua500', 'rsus', 'uas', 'hurs', 'vas', 'hus850', 'va500']</t>
         </is>
       </c>
     </row>
@@ -24150,7 +24150,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>['tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'ps', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'va500', 'tasmin', 'mrro', 'vas', 'pr', 'ua500', 'psl', 'rlut', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt']</t>
+          <t>['tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'ps', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'va500', 'tasmin', 'mrro', 'vas', 'pr', 'ua500', 'psl', 'rlut', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt', 'tasmax', 'mrso', 'uas', 'prsn', 'wsgsmax', 'va850', 'ta850', 'evspsbl', 'tas', 'rsds', 'rsut', 'hfss', 'ta500', 'prc', 'huss', 'ua850', 'sfcWindmax', 'rlus', 'ps', 'ta200', 'snw', 'ts', 'rsus', 'rsdt', 'zg500', 'va500', 'tasmin', 'mrro', 'vas', 'pr', 'ua500', 'psl', 'rlut', 'sfcWind', 'hus850', 'hfls', 'rlds', 'clt']</t>
         </is>
       </c>
     </row>
@@ -24218,7 +24218,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>['ta500', 'rlds', 'uas', 'mrro', 'zg500', 'rsut', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua850', 'ta200', 'clt']</t>
+          <t>['ta500', 'rlds', 'uas', 'mrro', 'zg500', 'rsut', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua850', 'ta200', 'clt', 'ta500', 'rlds', 'uas', 'mrro', 'zg500', 'rsut', 'tasmax', 'evspsbl', 'tasmin', 'huss', 'tas', 'va850', 'va500', 'ua500', 'hfss', 'vas', 'pr', 'sfcWindmax', 'mrso', 'rlut', 'rlus', 'hfls', 'snw', 'psl', 'rsds', 'sfcWind', 'hus850', 'ta850', 'rsus', 'rsdt', 'ua850', 'ta200', 'clt']</t>
         </is>
       </c>
     </row>
@@ -24250,7 +24250,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>['hfls', 'rlut', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'tasmin', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'uas', 'mrso', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds']</t>
+          <t>['hfls', 'rlut', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'tasmin', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'uas', 'mrso', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds', 'hfls', 'rlut', 'ua850', 'va500', 'rsus', 'sfcWind', 'snw', 'hfss', 'hus850', 'ua500', 'tasmin', 'zg500', 'rlus', 'rsut', 'va850', 'sfcWindmax', 'huss', 'ta500', 'tas', 'mrro', 'rlds', 'uas', 'mrso', 'vas', 'clt', 'ta850', 'pr', 'tasmax', 'evspsbl', 'psl', 'ta200', 'rsdt', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -24290,7 +24290,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -24326,7 +24326,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>['prsn', 'hfls', 'rsds', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ts', 'psl', 'ta850', 'rlds', 'ua850', 'rlut', 'wsgsmax', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'ta200', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind']</t>
+          <t>['prsn', 'hfls', 'rsds', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ts', 'psl', 'ta850', 'rlds', 'ua850', 'rlut', 'wsgsmax', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'ta200', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind', 'prsn', 'hfls', 'rsds', 'mrso', 'ua500', 'rsdt', 'prc', 'uas', 'sfcWindmax', 'va500', 'ts', 'psl', 'ta850', 'rlds', 'ua850', 'rlut', 'wsgsmax', 'vas', 'rlus', 'tas', 'tasmin', 'ps', 'hus850', 'ta200', 'snw', 'clt', 'mrro', 'evspsbl', 'tasmax', 'zg500', 'ta500', 'va850', 'huss', 'pr', 'rsus', 'hfss', 'rsut', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -24358,7 +24358,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>['snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'tasmin', 'rlds', 'mrso', 'uas', 'va500', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sfcWindmax', 'clt', 'ta500']</t>
+          <t>['snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'tasmin', 'rlds', 'mrso', 'uas', 'va500', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sfcWindmax', 'clt', 'ta500', 'snw', 'rlut', 'huss', 'rlus', 'mrro', 'pr', 'va850', 'ta200', 'rsdt', 'hus850', 'tasmax', 'ua850', 'hfss', 'tasmin', 'rlds', 'mrso', 'uas', 'va500', 'evspsbl', 'tas', 'ua500', 'rsus', 'sfcWind', 'psl', 'rsds', 'hfls', 'zg500', 'vas', 'ta850', 'rsut', 'sfcWindmax', 'clt', 'ta500']</t>
         </is>
       </c>
     </row>
@@ -24390,7 +24390,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>['tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax']</t>
+          <t>['tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax', 'tas', 'vas', 'ua850', 'evspsbl', 'rlus', 'uas', 'hus850', 'rsut', 'psl', 'va500', 'ua500', 'mrso', 'hfls', 'rsdt', 'huss', 'rsus', 'pr', 'tasmin', 'rlut', 'ta850', 'ta200', 'zg500', 'rsds', 'hfss', 'sfcWind', 'snw', 'sfcWindmax', 'ta500', 'va850', 'rlds', 'clt', 'mrro', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -25214,7 +25214,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>['va500', 'hus850', 'rsdt', 'snc', 'rlut', 'prhmax', 'vas', 'wsgsmax', 'mrro', 'snw', 'hfss', 'hfls', 'mrso', 'ts', 'sfcWindmax', 'ta500', 'rlus', 'ta850', 'ua500', 'prc', 'uas', 'ta200', 'rsut', 'sund', 'prsn', 'snd', 'ua850', 'tasmin', 'tas', 'rsds', 'huss', 'sfcWind', 'pr', 'ps', 'tasmax', 'clt', 'zg500', 'rsus', 'hurs', 'evspsbl', 'va850', 'rlds', 'psl']</t>
+          <t>['va500', 'hus850', 'rsdt', 'snc', 'rlut', 'prhmax', 'vas', 'wsgsmax', 'mrro', 'snw', 'hfss', 'hfls', 'mrso', 'ts', 'sfcWindmax', 'ta500', 'rlus', 'ta850', 'ua500', 'prc', 'uas', 'ta200', 'rsut', 'sund', 'prsn', 'snd', 'va500', 'hus850', 'rsdt', 'snc', 'rlut', 'prhmax', 'vas', 'wsgsmax', 'mrro', 'snw', 'hfss', 'hfls', 'mrso', 'ts', 'sfcWindmax', 'ta500', 'rlus', 'ta850', 'ua500', 'prc', 'uas', 'ta200', 'rsut', 'sund', 'prsn', 'snd', 'ua850', 'tasmin', 'tas', 'rsds', 'huss', 'sfcWind', 'pr', 'ps', 'tasmax', 'clt', 'zg500', 'rsus', 'hurs', 'evspsbl', 'va850', 'rlds', 'psl']</t>
         </is>
       </c>
     </row>
@@ -25246,7 +25246,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -25278,7 +25278,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>['ta850', 'hfls', 'rsdt', 'snw', 'sund', 'sfcWindmax', 'mrso', 'snd', 'va500', 'mrro', 'hfss', 'hus850', 'rlut', 'uas', 'ta500', 'rsut', 'snc', 'ta200', 'vas', 'rlus', 'ua500', 'ua850', 'rsds', 'hurs', 'pr', 'clt', 'tasmax', 'va850', 'huss', 'rlds', 'psl', 'zg500', 'sfcWind', 'tasmin', 'tas', 'rsus', 'evspsbl']</t>
+          <t>['ta850', 'hfls', 'rsdt', 'snw', 'sund', 'sfcWindmax', 'mrso', 'snd', 'va500', 'mrro', 'hfss', 'hus850', 'rlut', 'uas', 'ta500', 'rsut', 'snc', 'ta200', 'vas', 'rlus', 'ua500', 'ta850', 'hfls', 'rsdt', 'snw', 'sund', 'sfcWindmax', 'mrso', 'snd', 'va500', 'mrro', 'hfss', 'hus850', 'rlut', 'uas', 'ta500', 'rsut', 'snc', 'ta200', 'vas', 'rlus', 'ua500', 'ua850', 'rsds', 'hurs', 'pr', 'clt', 'tasmax', 'va850', 'huss', 'rlds', 'psl', 'zg500', 'sfcWind', 'tasmin', 'tas', 'rsus', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -25310,7 +25310,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>['vas', 'rlus', 'ta500', 'snw', 'uas', 'rsut', 'snd', 'ua500', 'ta850', 'hfss', 'sfcWindmax', 'snc', 'hfls', 'hus850', 'mrso', 'rsdt', 'mrro', 'ta200', 'va500', 'rlut', 'sund', 'tas', 'clt', 'tasmax', 'tasmin', 'ua850', 'zg500', 'rsus', 'evspsbl', 'hurs', 'pr', 'rsds', 'sfcWind', 'huss', 'psl', 'va850', 'rlds']</t>
+          <t>['vas', 'rlus', 'ta500', 'snw', 'uas', 'rsut', 'snd', 'ua500', 'ta850', 'hfss', 'sfcWindmax', 'snc', 'hfls', 'hus850', 'mrso', 'rsdt', 'mrro', 'ta200', 'va500', 'rlut', 'sund', 'vas', 'rlus', 'ta500', 'snw', 'uas', 'rsut', 'snd', 'ua500', 'ta850', 'hfss', 'sfcWindmax', 'snc', 'hfls', 'hus850', 'mrso', 'rsdt', 'mrro', 'ta200', 'va500', 'rlut', 'sund', 'tas', 'clt', 'tasmax', 'tasmin', 'ua850', 'zg500', 'rsus', 'evspsbl', 'hurs', 'pr', 'rsds', 'sfcWind', 'huss', 'psl', 'va850', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -25414,7 +25414,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>['ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'rlus', 'rsdt', 'rlut', 'prhmax', 'mrso', 'prc', 'prsn', 'mrro', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'hus850', 'rlds', 'ua850', 'tasmax', 'evspsbl', 'psl', 'rsds', 'pr', 'tas', 'hurs', 'zg500', 'va850', 'rsus', 'clt', 'sfcWind', 'huss', 'tasmin', 'ps']</t>
+          <t>['ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'rlus', 'rsdt', 'rlut', 'prhmax', 'mrso', 'prc', 'prsn', 'mrro', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'hus850', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'rlus', 'rsdt', 'rlut', 'prhmax', 'mrso', 'prc', 'prsn', 'mrro', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'hus850', 'rlds', 'ua850', 'tasmax', 'evspsbl', 'psl', 'rsds', 'pr', 'tas', 'hurs', 'zg500', 'va850', 'rsus', 'clt', 'sfcWind', 'huss', 'tasmin', 'ps']</t>
         </is>
       </c>
     </row>
@@ -25446,7 +25446,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -25478,7 +25478,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>['ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'tas', 'huss', 'rsus', 'clt', 'zg500', 'tasmax', 'rsds', 'rlds', 'va850', 'ua850', 'hurs', 'pr', 'psl', 'evspsbl', 'tasmin', 'sfcWind']</t>
+          <t>['ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'tas', 'huss', 'rsus', 'clt', 'zg500', 'tasmax', 'rsds', 'rlds', 'va850', 'ua850', 'hurs', 'pr', 'psl', 'evspsbl', 'tasmin', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -25510,7 +25510,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>['uas', 'ua500', 'ta500', 'ta850', 'sfcWindmax', 'snw', 'sund', 'snc', 'ta200', 'snd', 'vas', 'va500', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmin', 'hurs', 'evspsbl', 'sfcWind', 'pr', 'rsds', 'clt', 'ua850', 'huss', 'tas', 'rsus', 'zg500', 'va850', 'rlds', 'tasmax']</t>
+          <t>['uas', 'ua500', 'ta500', 'ta850', 'sfcWindmax', 'snw', 'sund', 'snc', 'ta200', 'snd', 'vas', 'va500', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'uas', 'ua500', 'ta500', 'ta850', 'sfcWindmax', 'snw', 'sund', 'snc', 'ta200', 'snd', 'vas', 'va500', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmin', 'hurs', 'evspsbl', 'sfcWind', 'pr', 'rsds', 'clt', 'ua850', 'huss', 'tas', 'rsus', 'zg500', 'va850', 'rlds', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -25614,7 +25614,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'ts', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'prc', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'va850', 'clt', 'tasmax', 'tas', 'rsds', 'psl', 'rlds', 'evspsbl', 'tasmin', 'huss', 'hurs', 'ps', 'sfcWind', 'pr', 'ua850', 'zg500', 'rsus']</t>
+          <t>['wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'ts', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'prc', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'ts', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'prc', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'va850', 'clt', 'tasmax', 'tas', 'rsds', 'psl', 'rlds', 'evspsbl', 'tasmin', 'huss', 'hurs', 'ps', 'sfcWind', 'pr', 'ua850', 'zg500', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -25646,7 +25646,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -25678,7 +25678,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>['rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta850', 'ta500', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'vas', 'uas', 'va500', 'ua500', 'ua850', 'pr', 'sfcWind', 'rsds', 'huss', 'tasmax', 'rlds', 'tasmin', 'psl', 'tas', 'hurs', 'va850', 'evspsbl', 'clt', 'rsus', 'zg500']</t>
+          <t>['rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta850', 'ta500', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta850', 'ta500', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'vas', 'uas', 'va500', 'ua500', 'ua850', 'pr', 'sfcWind', 'rsds', 'huss', 'tasmax', 'rlds', 'tasmin', 'psl', 'tas', 'hurs', 'va850', 'evspsbl', 'clt', 'rsus', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -25710,7 +25710,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'hus850', 'huss', 'tasmin', 'zg500', 'tasmax', 'rsds', 'pr', 'rlds', 'rsus', 'psl', 'evspsbl', 'clt', 'hurs', 'tas', 'sfcWind', 'va850', 'ua850']</t>
+          <t>['sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'hus850', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'hus850', 'huss', 'tasmin', 'zg500', 'tasmax', 'rsds', 'pr', 'rlds', 'rsus', 'psl', 'evspsbl', 'clt', 'hurs', 'tas', 'sfcWind', 'va850', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -25814,7 +25814,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>['prc', 'snw', 'ua500', 'uas', 'snd', 'vas', 'rsut', 'mrro', 'ta200', 'snc', 'hus850', 'ta850', 'wsgsmax', 'va500', 'sfcWindmax', 'rlut', 'ta500', 'prhmax', 'ts', 'rlus', 'rsdt', 'sund', 'hfss', 'hfls', 'prsn', 'mrso', 'pr', 'ua850', 'tasmin', 'rlds', 'va850', 'rsus', 'evspsbl', 'rsds', 'clt', 'psl', 'huss', 'sfcWind', 'ps', 'tas', 'zg500', 'hurs', 'tasmax']</t>
+          <t>['prc', 'snw', 'ua500', 'uas', 'snd', 'vas', 'rsut', 'mrro', 'ta200', 'snc', 'hus850', 'ta850', 'wsgsmax', 'va500', 'sfcWindmax', 'rlut', 'ta500', 'prhmax', 'ts', 'rlus', 'rsdt', 'sund', 'hfss', 'hfls', 'prsn', 'mrso', 'prc', 'snw', 'ua500', 'uas', 'snd', 'vas', 'rsut', 'mrro', 'ta200', 'snc', 'hus850', 'ta850', 'wsgsmax', 'va500', 'sfcWindmax', 'rlut', 'ta500', 'prhmax', 'ts', 'rlus', 'rsdt', 'sund', 'hfss', 'hfls', 'prsn', 'mrso', 'pr', 'ua850', 'tasmin', 'rlds', 'va850', 'rsus', 'evspsbl', 'rsds', 'clt', 'psl', 'huss', 'sfcWind', 'ps', 'tas', 'zg500', 'hurs', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -25846,7 +25846,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -25878,7 +25878,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>['hfss', 'sfcWindmax', 'snc', 'rlut', 'ta200', 'hfls', 'vas', 'mrro', 'mrso', 'uas', 'ta500', 'ua500', 'hus850', 'rsdt', 'va500', 'ta850', 'rsut', 'snw', 'snd', 'rlus', 'sund', 'clt', 'rlds', 'psl', 'huss', 'rsus', 'rsds', 'evspsbl', 'tasmax', 'va850', 'tas', 'tasmin', 'ua850', 'zg500', 'hurs', 'sfcWind', 'pr']</t>
+          <t>['hfss', 'sfcWindmax', 'snc', 'rlut', 'ta200', 'hfls', 'vas', 'mrro', 'mrso', 'uas', 'ta500', 'ua500', 'hus850', 'rsdt', 'va500', 'ta850', 'rsut', 'snw', 'snd', 'rlus', 'sund', 'hfss', 'sfcWindmax', 'snc', 'rlut', 'ta200', 'hfls', 'vas', 'mrro', 'mrso', 'uas', 'ta500', 'ua500', 'hus850', 'rsdt', 'va500', 'ta850', 'rsut', 'snw', 'snd', 'rlus', 'sund', 'clt', 'rlds', 'psl', 'huss', 'rsus', 'rsds', 'evspsbl', 'tasmax', 'va850', 'tas', 'tasmin', 'ua850', 'zg500', 'hurs', 'sfcWind', 'pr']</t>
         </is>
       </c>
     </row>
@@ -25910,7 +25910,7 @@
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>['snd', 'ua500', 'ta500', 'rsut', 'snw', 'uas', 'mrso', 'sfcWindmax', 'vas', 'rsdt', 'va500', 'mrro', 'hfss', 'snc', 'ta850', 'rlus', 'hus850', 'hfls', 'rlut', 'ta200', 'sund', 'tasmin', 'pr', 'rsds', 'tasmax', 'rsus', 'zg500', 'clt', 'ua850', 'tas', 'hurs', 'psl', 'va850', 'huss', 'evspsbl', 'sfcWind', 'rlds']</t>
+          <t>['snd', 'ua500', 'ta500', 'rsut', 'snw', 'uas', 'mrso', 'sfcWindmax', 'vas', 'rsdt', 'va500', 'mrro', 'hfss', 'snc', 'ta850', 'rlus', 'hus850', 'hfls', 'rlut', 'ta200', 'sund', 'snd', 'ua500', 'ta500', 'rsut', 'snw', 'uas', 'mrso', 'sfcWindmax', 'vas', 'rsdt', 'va500', 'mrro', 'hfss', 'snc', 'ta850', 'rlus', 'hus850', 'hfls', 'rlut', 'ta200', 'sund', 'tasmin', 'pr', 'rsds', 'tasmax', 'rsus', 'zg500', 'clt', 'ua850', 'tas', 'hurs', 'psl', 'va850', 'huss', 'evspsbl', 'sfcWind', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -25954,7 +25954,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>['snw', 'snc', 'sund', 'snd', 'hfss', 'hfls', 'mrro', 'ts', 'rlus', 'rsdt', 'rsut', 'rlut', 'prhmax', 'mrso', 'prc', 'prsn', 'rsus', 'pr', 'ps', 'clt', 'rlds', 'psl', 'evspsbl', 'rsds']</t>
+          <t>['snw', 'snc', 'sund', 'snd', 'hfss', 'hfls', 'mrro', 'ts', 'rlus', 'rsdt', 'rsut', 'rlut', 'prhmax', 'mrso', 'prc', 'prsn', 'rlus', 'rsdt', 'rsut', 'rlut', 'prhmax', 'mrso', 'prc', 'prsn', 'rsus', 'pr', 'ps', 'clt', 'rlds', 'psl', 'evspsbl', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -25982,7 +25982,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'wsgsmax', 'vas', 'uas', 'huss', 'sfcWind', 'tas', 'hurs', 'tasmin', 'tasmax']</t>
+          <t>['sfcWindmax', 'wsgsmax', 'vas', 'uas', 'sfcWindmax', 'wsgsmax', 'vas', 'uas', 'huss', 'sfcWind', 'tas', 'hurs', 'tasmin', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -26010,7 +26010,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>['ta850', 'ta200', 'ta500', 'hus850', 'ua500', 'va500', 'ua850', 'va850', 'zg500']</t>
+          <t>['ta850', 'ta200', 'ta500', 'hus850', 'ua500', 'va500', 'va500', 'ua850', 'va850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -26042,7 +26042,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -26074,7 +26074,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>['mrso', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'snw', 'sund', 'snc', 'snd', 'psl', 'rsds', 'clt', 'rsus', 'pr', 'evspsbl', 'rlds']</t>
+          <t>['mrso', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'snw', 'sund', 'snc', 'snd', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'snw', 'sund', 'snc', 'snd', 'psl', 'rsds', 'clt', 'rsus', 'pr', 'evspsbl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -26102,7 +26102,7 @@
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>['uas', 'sfcWindmax', 'vas', 'huss', 'tasmin', 'tas', 'sfcWind', 'hurs', 'tasmax']</t>
+          <t>['uas', 'sfcWindmax', 'vas', 'sfcWindmax', 'vas', 'huss', 'tasmin', 'tas', 'sfcWind', 'hurs', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -26130,7 +26130,7 @@
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>['hus850', 'va500', 'ua500', 'ta200', 'ta500', 'ta850', 'ua850', 'zg500', 'va850']</t>
+          <t>['hus850', 'va500', 'ua500', 'ta200', 'ta500', 'ta850', 'ta200', 'ta500', 'ta850', 'ua850', 'zg500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -26162,7 +26162,7 @@
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'sund', 'snc', 'snd', 'clt', 'rlds', 'evspsbl', 'rsus', 'psl', 'pr', 'rsds']</t>
+          <t>['hfss', 'hfls', 'mrso', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'sund', 'snc', 'snd', 'hfss', 'hfls', 'mrso', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'sund', 'snc', 'snd', 'clt', 'rlds', 'evspsbl', 'rsus', 'psl', 'pr', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -26190,7 +26190,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'uas', 'vas', 'sfcWind', 'tasmin', 'tas', 'tasmax', 'hurs', 'huss']</t>
+          <t>['sfcWindmax', 'uas', 'vas', 'sfcWindmax', 'uas', 'vas', 'sfcWind', 'tasmin', 'tas', 'tasmax', 'hurs', 'huss']</t>
         </is>
       </c>
     </row>
@@ -26218,7 +26218,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>['hus850', 'ta200', 'ta500', 'ta850', 'va500', 'ua500', 'ua850', 'va850', 'zg500']</t>
+          <t>['hus850', 'ta200', 'ta500', 'ta850', 'va500', 'ua500', 'hus850', 'ta200', 'ta500', 'ta850', 'va500', 'ua500', 'ua850', 'va850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -26326,7 +26326,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>['rlus', 'hfss', 'snw', 'wsgsmax', 'rsut', 'snc', 'mrso', 'snd', 'hfls', 'vas', 'uas', 'prsn', 'ua500', 'rsdt', 'ta200', 'prhmax', 'sund', 'hus850', 'mrro', 'ta850', 'ta500', 'sfcWindmax', 'rlut', 'prc', 'va500', 'ts', 'rlds', 'psl', 'sfcWind', 'evspsbl', 'ps', 'tasmax', 'pr', 'huss', 'clt', 'ua850', 'rsus', 'va850', 'tas', 'rsds', 'hurs', 'zg500', 'tasmin']</t>
+          <t>['rlus', 'hfss', 'snw', 'wsgsmax', 'rsut', 'snc', 'mrso', 'snd', 'hfls', 'vas', 'uas', 'prsn', 'ua500', 'rsdt', 'ta200', 'prhmax', 'sund', 'hus850', 'mrro', 'ta850', 'ta500', 'sfcWindmax', 'rlut', 'prc', 'va500', 'ts', 'rlus', 'hfss', 'snw', 'wsgsmax', 'rsut', 'snc', 'mrso', 'snd', 'hfls', 'vas', 'uas', 'prsn', 'ua500', 'rsdt', 'ta200', 'prhmax', 'sund', 'hus850', 'mrro', 'ta850', 'ta500', 'sfcWindmax', 'rlut', 'prc', 'va500', 'ts', 'rlds', 'psl', 'sfcWind', 'evspsbl', 'ps', 'tasmax', 'pr', 'huss', 'clt', 'ua850', 'rsus', 'va850', 'tas', 'rsds', 'hurs', 'zg500', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -26358,7 +26358,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -26390,7 +26390,7 @@
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'ua500', 'vas', 'ta500', 'snd', 'mrso', 'hfss', 'rsdt', 'rsut', 'rlus', 'rlut', 'hus850', 'snc', 'uas', 'snw', 'va500', 'ta200', 'sund', 'hfls', 'ta850', 'mrro', 'va850', 'psl', 'hurs', 'rsus', 'clt', 'ua850', 'zg500', 'tasmin', 'evspsbl', 'pr', 'tasmax', 'sfcWind', 'tas', 'huss', 'rlds', 'rsds']</t>
+          <t>['sfcWindmax', 'ua500', 'vas', 'ta500', 'snd', 'mrso', 'hfss', 'rsdt', 'rsut', 'rlus', 'rlut', 'hus850', 'snc', 'uas', 'snw', 'va500', 'ta200', 'sund', 'hfls', 'ta850', 'mrro', 'sfcWindmax', 'ua500', 'vas', 'ta500', 'snd', 'mrso', 'hfss', 'rsdt', 'rsut', 'rlus', 'rlut', 'hus850', 'snc', 'uas', 'snw', 'va500', 'ta200', 'sund', 'hfls', 'ta850', 'mrro', 'va850', 'psl', 'hurs', 'rsus', 'clt', 'ua850', 'zg500', 'tasmin', 'evspsbl', 'pr', 'tasmax', 'sfcWind', 'tas', 'huss', 'rlds', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>['ua500', 'rsut', 'vas', 'uas', 'mrro', 'va500', 'ta850', 'hfls', 'sund', 'ta500', 'ta200', 'sfcWindmax', 'rlus', 'hus850', 'snd', 'hfss', 'mrso', 'snc', 'rsdt', 'rlut', 'snw', 'rsds', 'sfcWind', 'pr', 'tas', 'ua850', 'rlds', 'tasmin', 'hurs', 'va850', 'rsus', 'clt', 'tasmax', 'psl', 'huss', 'zg500', 'evspsbl']</t>
+          <t>['ua500', 'rsut', 'vas', 'uas', 'mrro', 'va500', 'ta850', 'hfls', 'sund', 'ta500', 'ta200', 'sfcWindmax', 'rlus', 'hus850', 'snd', 'hfss', 'mrso', 'snc', 'rsdt', 'rlut', 'snw', 'ua500', 'rsut', 'vas', 'uas', 'mrro', 'va500', 'ta850', 'hfls', 'sund', 'ta500', 'ta200', 'sfcWindmax', 'rlus', 'hus850', 'snd', 'hfss', 'mrso', 'snc', 'rsdt', 'rlut', 'snw', 'rsds', 'sfcWind', 'pr', 'tas', 'ua850', 'rlds', 'tasmin', 'hurs', 'va850', 'rsus', 'clt', 'tasmax', 'psl', 'huss', 'zg500', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -26522,7 +26522,7 @@
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsds', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'pr', 'uas', 'ts', 'wsgsmax', 'vas', 'hfss', 'hfls', 'hurs', 'mrro', 'snw', 'tas', 'snc', 'sund', 'snd', 'clt', 'huss', 'rsus', 'tasmax', 'rlds', 'evspsbl', 'ps', 'tasmin']</t>
+          <t>['sfcWindmax', 'rsds', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'prhmax', 'mrso', 'prc', 'psl', 'prsn', 'pr', 'uas', 'ts', 'wsgsmax', 'vas', 'hfss', 'hfls', 'hurs', 'mrro', 'snw', 'tas', 'snc', 'sund', 'snd', 'hfss', 'hfls', 'hurs', 'mrro', 'snw', 'tas', 'snc', 'sund', 'snd', 'clt', 'huss', 'rsus', 'tasmax', 'rlds', 'evspsbl', 'ps', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -26550,7 +26550,7 @@
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>['ua500', 'va500', 'hus850', 'ta200', 'ta500', 'ta850', 'va850', 'ua850', 'zg500']</t>
+          <t>['ua500', 'va500', 'hus850', 'ta200', 'ta500', 'ta850', 'hus850', 'ta200', 'ta500', 'ta850', 'va850', 'ua850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -26614,7 +26614,7 @@
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'mrro', 'pr', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snw', 'tas', 'snc', 'sund', 'snd', 'uas', 'vas', 'rlds', 'evspsbl', 'tasmin', 'rsds', 'huss', 'tasmax', 'hurs', 'clt', 'rsus', 'psl']</t>
+          <t>['hfss', 'hfls', 'mrso', 'mrro', 'pr', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snw', 'tas', 'snc', 'sund', 'snd', 'uas', 'vas', 'vas', 'rlds', 'evspsbl', 'tasmin', 'rsds', 'huss', 'tasmax', 'hurs', 'clt', 'rsus', 'psl']</t>
         </is>
       </c>
     </row>
@@ -26674,7 +26674,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>['rlus', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'hfss', 'hfls', 'vas', 'uas', 'snw', 'sund', 'snd', 'tasmax', 'huss', 'tasmin', 'tas', 'psl', 'sfcWind', 'evspsbl', 'rlds', 'hurs', 'rsds', 'rsus', 'pr', 'clt']</t>
+          <t>['rlus', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'hfss', 'hfls', 'vas', 'uas', 'snw', 'sund', 'snd', 'hfss', 'hfls', 'vas', 'uas', 'snw', 'sund', 'snd', 'tasmax', 'huss', 'tasmin', 'tas', 'psl', 'sfcWind', 'evspsbl', 'rlds', 'hurs', 'rsds', 'rsus', 'pr', 'clt']</t>
         </is>
       </c>
     </row>
@@ -26702,7 +26702,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>['hus850', 'va500', 'ua500', 'ta200', 'ta500', 'ta850', 'zg500', 'ua850', 'va850']</t>
+          <t>['hus850', 'va500', 'ua500', 'ta200', 'ta500', 'ta850', 'hus850', 'va500', 'ua500', 'ta200', 'ta500', 'ta850', 'zg500', 'ua850', 'va850']</t>
         </is>
       </c>
     </row>
@@ -26802,7 +26802,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>['ua500', 'ts', 'wsgsmax', 'vas', 'uas', 'va500', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'prsn', 'psl', 'va850', 'tasmin', 'rlds', 'clt', 'tasmax', 'rsus', 'huss', 'pr', 'ua850', 'evspsbl', 'ps', 'sfcWind', 'tas', 'hurs', 'rsds', 'zg500']</t>
+          <t>['ua500', 'ts', 'wsgsmax', 'vas', 'uas', 'va500', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'prsn', 'ua500', 'ts', 'wsgsmax', 'vas', 'uas', 'va500', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'prsn', 'psl', 'va850', 'tasmin', 'rlds', 'clt', 'tasmax', 'rsus', 'huss', 'pr', 'ua850', 'evspsbl', 'ps', 'sfcWind', 'tas', 'hurs', 'rsds', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -26834,7 +26834,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -26866,7 +26866,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>['uas', 'va500', 'ua500', 'mrso', 'hus850', 'mrro', 'hfss', 'hfls', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rsds', 'va850', 'rsus', 'hurs', 'evspsbl', 'pr', 'tasmax', 'huss', 'psl', 'clt', 'tasmin', 'rlds', 'zg500', 'ua850', 'tas', 'sfcWind']</t>
+          <t>['uas', 'va500', 'ua500', 'mrso', 'hus850', 'mrro', 'hfss', 'hfls', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va500', 'ua500', 'mrso', 'hus850', 'mrro', 'hfss', 'hfls', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rsds', 'va850', 'rsus', 'hurs', 'evspsbl', 'pr', 'tasmax', 'huss', 'psl', 'clt', 'tasmin', 'rlds', 'zg500', 'ua850', 'tas', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -26898,7 +26898,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'vas', 'clt', 'evspsbl', 'rsus', 'sfcWind', 'tasmin', 'tasmax', 'psl', 'zg500', 'rsds', 'tas', 'rlds', 'ua850', 'pr', 'va850', 'hurs', 'huss']</t>
+          <t>['sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'vas', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'vas', 'clt', 'evspsbl', 'rsus', 'sfcWind', 'tasmin', 'tasmax', 'psl', 'zg500', 'rsds', 'tas', 'rlds', 'ua850', 'pr', 'va850', 'hurs', 'huss']</t>
         </is>
       </c>
     </row>
@@ -27002,7 +27002,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>['snw', 'mrro', 'ua500', 'sund', 'ta850', 'rlut', 'ta500', 'rlus', 'hfls', 'rsdt', 'rsut', 'sfcWindmax', 'prsn', 'wsgsmax', 'snc', 'uas', 'mrso', 'prhmax', 'va500', 'snd', 'hus850', 'ts', 'prc', 'hfss', 'vas', 'ta200', 'rsus', 'zg500', 'ps', 'tasmin', 'tas', 'va850', 'rsds', 'sfcWind', 'evspsbl', 'clt', 'ua850', 'huss', 'psl', 'hurs', 'rlds', 'tasmax', 'pr']</t>
+          <t>['snw', 'mrro', 'ua500', 'sund', 'ta850', 'rlut', 'ta500', 'rlus', 'hfls', 'rsdt', 'rsut', 'sfcWindmax', 'prsn', 'wsgsmax', 'snc', 'uas', 'mrso', 'prhmax', 'va500', 'snd', 'hus850', 'ts', 'prc', 'hfss', 'vas', 'ta200', 'snw', 'mrro', 'ua500', 'sund', 'ta850', 'rlut', 'ta500', 'rlus', 'hfls', 'rsdt', 'rsut', 'sfcWindmax', 'prsn', 'wsgsmax', 'snc', 'uas', 'mrso', 'prhmax', 'va500', 'snd', 'hus850', 'ts', 'prc', 'hfss', 'vas', 'ta200', 'rsus', 'zg500', 'ps', 'tasmin', 'tas', 'va850', 'rsds', 'sfcWind', 'evspsbl', 'clt', 'ua850', 'huss', 'psl', 'hurs', 'rlds', 'tasmax', 'pr']</t>
         </is>
       </c>
     </row>
@@ -27034,7 +27034,7 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -27066,7 +27066,7 @@
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>['ta500', 'sund', 'ta850', 'hfss', 'ua500', 'vas', 'ta200', 'rsut', 'snw', 'uas', 'snc', 'va500', 'rlus', 'mrro', 'snd', 'sfcWindmax', 'rlut', 'rsdt', 'mrso', 'hfls', 'hus850', 'rsds', 'clt', 'va850', 'zg500', 'sfcWind', 'tas', 'tasmax', 'pr', 'evspsbl', 'rlds', 'psl', 'huss', 'tasmin', 'ua850', 'hurs', 'rsus']</t>
+          <t>['ta500', 'sund', 'ta850', 'hfss', 'ua500', 'vas', 'ta200', 'rsut', 'snw', 'uas', 'snc', 'va500', 'rlus', 'mrro', 'snd', 'sfcWindmax', 'rlut', 'rsdt', 'mrso', 'hfls', 'hus850', 'ta500', 'sund', 'ta850', 'hfss', 'ua500', 'vas', 'ta200', 'rsut', 'snw', 'uas', 'snc', 'va500', 'rlus', 'mrro', 'snd', 'sfcWindmax', 'rlut', 'rsdt', 'mrso', 'hfls', 'hus850', 'rsds', 'clt', 'va850', 'zg500', 'sfcWind', 'tas', 'tasmax', 'pr', 'evspsbl', 'rlds', 'psl', 'huss', 'tasmin', 'ua850', 'hurs', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -27098,7 +27098,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>['mrso', 'ta500', 'rlus', 'uas', 'hfss', 'hfls', 'sund', 'ua500', 'rsdt', 'ta200', 'snc', 'snd', 'vas', 'rlut', 'hus850', 'snw', 'va500', 'sfcWindmax', 'ta850', 'rsut', 'mrro', 'sfcWind', 'tas', 'rsds', 'huss', 'tasmin', 'va850', 'pr', 'rsus', 'evspsbl', 'psl', 'hurs', 'ua850', 'clt', 'zg500', 'rlds', 'tasmax']</t>
+          <t>['mrso', 'ta500', 'rlus', 'uas', 'hfss', 'hfls', 'sund', 'ua500', 'rsdt', 'ta200', 'snc', 'snd', 'vas', 'rlut', 'hus850', 'snw', 'va500', 'sfcWindmax', 'ta850', 'rsut', 'mrro', 'mrso', 'ta500', 'rlus', 'uas', 'hfss', 'hfls', 'sund', 'ua500', 'rsdt', 'ta200', 'snc', 'snd', 'vas', 'rlut', 'hus850', 'snw', 'va500', 'sfcWindmax', 'ta850', 'rsut', 'mrro', 'sfcWind', 'tas', 'rsds', 'huss', 'tasmin', 'va850', 'pr', 'rsus', 'evspsbl', 'psl', 'hurs', 'ua850', 'clt', 'zg500', 'rlds', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -27202,7 +27202,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>['prsn', 'mrro', 'ua500', 'prhmax', 'prc', 'ta500', 'snw', 'wsgsmax', 'va500', 'vas', 'hus850', 'ta850', 'rlus', 'ts', 'uas', 'rlut', 'rsdt', 'snd', 'hfss', 'snc', 'ta200', 'hfls', 'sund', 'sfcWindmax', 'rsut', 'mrso', 'clt', 'tasmin', 'huss', 'pr', 'sfcWind', 'rsds', 'rsus', 'hurs', 'tas', 'ps', 'va850', 'tasmax', 'evspsbl', 'rlds', 'zg500', 'psl', 'ua850']</t>
+          <t>['prsn', 'mrro', 'ua500', 'prhmax', 'prc', 'ta500', 'snw', 'wsgsmax', 'va500', 'vas', 'hus850', 'ta850', 'rlus', 'ts', 'uas', 'rlut', 'rsdt', 'snd', 'hfss', 'snc', 'ta200', 'hfls', 'sund', 'sfcWindmax', 'rsut', 'mrso', 'prsn', 'mrro', 'ua500', 'prhmax', 'prc', 'ta500', 'snw', 'wsgsmax', 'va500', 'vas', 'hus850', 'ta850', 'rlus', 'ts', 'uas', 'rlut', 'rsdt', 'snd', 'hfss', 'snc', 'ta200', 'hfls', 'sund', 'sfcWindmax', 'rsut', 'mrso', 'clt', 'tasmin', 'huss', 'pr', 'sfcWind', 'rsds', 'rsus', 'hurs', 'tas', 'ps', 'va850', 'tasmax', 'evspsbl', 'rlds', 'zg500', 'psl', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -27234,7 +27234,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>['hfls', 'rsdt', 'rlut', 'vas', 'snw', 'rsut', 'sund', 'ta200', 'ta850', 'snd', 'hus850', 'hfss', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrso', 'ua500', 'sfcWindmax', 'mrro', 'rlds', 'huss', 'clt', 'va850', 'zg500', 'pr', 'psl', 'tas', 'sfcWind', 'rsus', 'tasmax', 'tasmin', 'ua850', 'evspsbl', 'rsds', 'hurs']</t>
+          <t>['hfls', 'rsdt', 'rlut', 'vas', 'snw', 'rsut', 'sund', 'ta200', 'ta850', 'snd', 'hus850', 'hfss', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrso', 'ua500', 'sfcWindmax', 'mrro', 'hfls', 'rsdt', 'rlut', 'vas', 'snw', 'rsut', 'sund', 'ta200', 'ta850', 'snd', 'hus850', 'hfss', 'uas', 'snc', 'va500', 'ta500', 'rlus', 'mrso', 'ua500', 'sfcWindmax', 'mrro', 'rlds', 'huss', 'clt', 'va850', 'zg500', 'pr', 'psl', 'tas', 'sfcWind', 'rsus', 'tasmax', 'tasmin', 'ua850', 'evspsbl', 'rsds', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -27298,7 +27298,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>['vas', 'snw', 'rsdt', 'rlut', 'rsut', 'hfls', 'ta200', 'snc', 'sund', 'ua500', 'mrro', 'rlus', 'uas', 'ta850', 'sfcWindmax', 'hfss', 'hus850', 'snd', 'va500', 'ta500', 'mrso', 'tas', 'ua850', 'rsds', 'tasmax', 'va850', 'psl', 'clt', 'tasmin', 'rsus', 'pr', 'rlds', 'zg500', 'hurs', 'evspsbl', 'sfcWind', 'huss']</t>
+          <t>['vas', 'snw', 'rsdt', 'rlut', 'rsut', 'hfls', 'ta200', 'snc', 'sund', 'ua500', 'mrro', 'rlus', 'uas', 'ta850', 'sfcWindmax', 'hfss', 'hus850', 'snd', 'va500', 'ta500', 'mrso', 'vas', 'snw', 'rsdt', 'rlut', 'rsut', 'hfls', 'ta200', 'snc', 'sund', 'ua500', 'mrro', 'rlus', 'uas', 'ta850', 'sfcWindmax', 'hfss', 'hus850', 'snd', 'va500', 'ta500', 'mrso', 'tas', 'ua850', 'rsds', 'tasmax', 'va850', 'psl', 'clt', 'tasmin', 'rsus', 'pr', 'rlds', 'zg500', 'hurs', 'evspsbl', 'sfcWind', 'huss']</t>
         </is>
       </c>
     </row>
@@ -27398,7 +27398,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'vas', 'hfss', 'hfls', 'mrso', 'mrro', 'prhmax', 'rlus', 'prc', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snw', 'sund', 'snd', 'uas', 'ts', 'clt', 'pr', 'ps', 'rsus', 'huss', 'rlds', 'tas', 'psl', 'sfcWind', 'tasmax', 'tasmin', 'evspsbl', 'rsds', 'hurs']</t>
+          <t>['wsgsmax', 'vas', 'hfss', 'hfls', 'mrso', 'mrro', 'prhmax', 'rlus', 'prc', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snw', 'sund', 'snd', 'uas', 'ts', 'hfss', 'hfls', 'mrso', 'mrro', 'prhmax', 'rlus', 'prc', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snw', 'sund', 'snd', 'uas', 'ts', 'clt', 'pr', 'ps', 'rsus', 'huss', 'rlds', 'tas', 'psl', 'sfcWind', 'tasmax', 'tasmin', 'evspsbl', 'rsds', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -27426,7 +27426,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>['va500', 'hus850', 'ta200', 'ta500', 'ta850', 'ua500', 'zg500', 'va850', 'ua850']</t>
+          <t>['va500', 'hus850', 'ta200', 'ta500', 'ta850', 'ua500', 'hus850', 'ta200', 'ta500', 'ta850', 'ua500', 'zg500', 'va850', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -27682,7 +27682,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>['rsdt', 'prhmax', 'snc', 'prsn', 'uas', 'sund', 'ta200', 'mrso', 'snw', 'rsut', 'vas', 'ta850', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'ts', 'hfss', 'hfls', 'rlut', 'va500', 'wsgsmax', 'prc', 'hus850', 'rlus', 'mrro', 'snd', 'pr', 'rlds', 'hurs', 'ps', 'rsus', 'ua850', 'va850', 'evspsbl', 'zg500', 'tasmax', 'sfcWind', 'tas', 'psl', 'tasmin', 'huss', 'clt']</t>
+          <t>['rsdt', 'prhmax', 'snc', 'prsn', 'uas', 'sund', 'ta200', 'mrso', 'snw', 'rsut', 'vas', 'ta850', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'ts', 'hfss', 'hfls', 'rlut', 'va500', 'wsgsmax', 'prc', 'hus850', 'rlus', 'mrro', 'snd', 'rsdt', 'prhmax', 'snc', 'prsn', 'uas', 'sund', 'ta200', 'mrso', 'snw', 'rsut', 'vas', 'ta850', 'ta500', 'ua500', 'rsds', 'sfcWindmax', 'ts', 'hfss', 'hfls', 'rlut', 'va500', 'wsgsmax', 'prc', 'hus850', 'rlus', 'mrro', 'snd', 'pr', 'rlds', 'hurs', 'ps', 'rsus', 'ua850', 'va850', 'evspsbl', 'zg500', 'tasmax', 'sfcWind', 'tas', 'psl', 'tasmin', 'huss', 'clt']</t>
         </is>
       </c>
     </row>
@@ -27714,7 +27714,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -27746,7 +27746,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>['hfss', 'mrso', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'snd', 'hfls', 'ta500', 'snc', 'rsdt', 'ta200', 'rlus', 'mrro', 'rsut', 'sfcWindmax', 'snw', 'vas', 'ua500', 'va500', 'tas', 'va850', 'sfcWind', 'evspsbl', 'huss', 'rsds', 'tasmin', 'zg500', 'tasmax', 'hurs', 'pr', 'ua850', 'clt', 'psl', 'rsus', 'rlds']</t>
+          <t>['hfss', 'mrso', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'snd', 'hfls', 'ta500', 'snc', 'rsdt', 'ta200', 'rlus', 'mrro', 'rsut', 'sfcWindmax', 'snw', 'vas', 'ua500', 'va500', 'hfss', 'mrso', 'hus850', 'ta850', 'rlut', 'uas', 'sund', 'snd', 'hfls', 'ta500', 'snc', 'rsdt', 'ta200', 'rlus', 'mrro', 'rsut', 'sfcWindmax', 'snw', 'vas', 'ua500', 'va500', 'tas', 'va850', 'sfcWind', 'evspsbl', 'huss', 'rsds', 'tasmin', 'zg500', 'tasmax', 'hurs', 'pr', 'ua850', 'clt', 'psl', 'rsus', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -27778,7 +27778,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>['ua500', 'uas', 'mrro', 'sfcWindmax', 'rsut', 'vas', 'snw', 'snd', 'ta850', 'ta500', 'hus850', 'hfls', 'va500', 'snc', 'sund', 'mrso', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'pr', 'rsds', 'hurs', 'tas', 'va850', 'tasmax', 'zg500', 'sfcWind', 'huss', 'tasmin', 'clt', 'psl', 'ua850', 'rlds', 'rsus', 'evspsbl']</t>
+          <t>['ua500', 'uas', 'mrro', 'sfcWindmax', 'rsut', 'vas', 'snw', 'snd', 'ta850', 'ta500', 'hus850', 'hfls', 'va500', 'snc', 'sund', 'mrso', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'ua500', 'uas', 'mrro', 'sfcWindmax', 'rsut', 'vas', 'snw', 'snd', 'ta850', 'ta500', 'hus850', 'hfls', 'va500', 'snc', 'sund', 'mrso', 'ta200', 'rlus', 'hfss', 'rsdt', 'rlut', 'pr', 'rsds', 'hurs', 'tas', 'va850', 'tasmax', 'zg500', 'sfcWind', 'huss', 'tasmin', 'clt', 'psl', 'ua850', 'rlds', 'rsus', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -27906,7 +27906,7 @@
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>['uas', 'ts', 'snw', 'sund', 'hfls', 'hfss', 'mrso', 'mrro', 'wsgsmax', 'vas', 'prhmax', 'rlus', 'rlut', 'prc', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'huss', 'tasmax', 'psl', 'hurs', 'clt', 'pr', 'sfcWind', 'rsds', 'rsus', 'ps', 'evspsbl', 'tasmin', 'tas', 'rlds']</t>
+          <t>['uas', 'ts', 'snw', 'sund', 'hfls', 'hfss', 'mrso', 'mrro', 'wsgsmax', 'vas', 'prhmax', 'rlus', 'rlut', 'prc', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'hfls', 'hfss', 'mrso', 'mrro', 'wsgsmax', 'vas', 'prhmax', 'rlus', 'rlut', 'prc', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'huss', 'tasmax', 'psl', 'hurs', 'clt', 'pr', 'sfcWind', 'rsds', 'rsus', 'ps', 'evspsbl', 'tasmin', 'tas', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -27934,7 +27934,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>['va500', 'ua500', 'ta200', 'ta500', 'ta850', 'hus850', 'ua850', 'va850', 'zg500']</t>
+          <t>['va500', 'ua500', 'ta200', 'ta500', 'ta850', 'hus850', 'hus850', 'ua850', 'va850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27966,7 @@
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -27998,7 +27998,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'vas', 'uas', 'clt', 'tasmin', 'rsus', 'pr', 'huss', 'tasmax', 'tas', 'psl', 'hurs', 'rsds', 'sfcWind', 'evspsbl', 'rlds']</t>
+          <t>['sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'vas', 'uas', 'rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'vas', 'uas', 'clt', 'tasmin', 'rsus', 'pr', 'huss', 'tasmax', 'tas', 'psl', 'hurs', 'rsds', 'sfcWind', 'evspsbl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -28026,7 +28026,7 @@
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>['ta200', 'ta500', 'ta850', 'hus850', 'va500', 'ua500', 'va850', 'ua850', 'zg500']</t>
+          <t>['ta200', 'ta500', 'ta850', 'hus850', 'va500', 'ua500', 'hus850', 'va500', 'ua500', 'va850', 'ua850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -28058,7 +28058,7 @@
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'vas', 'uas', 'snw', 'sund', 'psl', 'huss', 'rlds', 'hurs', 'sfcWind', 'tas', 'rsus', 'pr', 'tasmax', 'rsds', 'clt', 'evspsbl', 'tasmin']</t>
+          <t>['sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'vas', 'uas', 'snw', 'sund', 'rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'vas', 'uas', 'snw', 'sund', 'psl', 'huss', 'rlds', 'hurs', 'sfcWind', 'tas', 'rsus', 'pr', 'tasmax', 'rsds', 'clt', 'evspsbl', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -28086,7 +28086,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>['hus850', 'va500', 'ua500', 'ta200', 'ta500', 'ta850', 'zg500', 'va850', 'ua850']</t>
+          <t>['hus850', 'va500', 'ua500', 'ta200', 'ta500', 'ta850', 'hus850', 'va500', 'ua500', 'ta200', 'ta500', 'ta850', 'zg500', 'va850', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -28186,7 +28186,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'wsgsmax', 'vas', 'va500', 'uas', 'ua500', 'ts', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'prhmax', 'rlus', 'prc', 'prsn', 'zg500', 'va850', 'huss', 'tas', 'ua850', 'ps', 'tasmax', 'evspsbl', 'psl', 'pr', 'rlds', 'tasmin', 'sfcWind', 'clt', 'hurs', 'rsus', 'rsds']</t>
+          <t>['sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'wsgsmax', 'vas', 'va500', 'uas', 'ua500', 'ts', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'prhmax', 'rlus', 'prc', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'wsgsmax', 'vas', 'va500', 'uas', 'ua500', 'ts', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'prhmax', 'rlus', 'prc', 'prsn', 'zg500', 'va850', 'huss', 'tas', 'ua850', 'ps', 'tasmax', 'evspsbl', 'psl', 'pr', 'rlds', 'tasmin', 'sfcWind', 'clt', 'hurs', 'rsus', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -28218,7 +28218,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -28250,7 +28250,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>['snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'tas', 'tasmax', 'pr', 'psl', 'zg500', 'rlds', 'evspsbl', 'clt', 'huss', 'tasmin', 'rsus', 'hurs', 'sfcWind', 'va850', 'ua850', 'rsds']</t>
+          <t>['snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'tas', 'tasmax', 'pr', 'psl', 'zg500', 'rlds', 'evspsbl', 'clt', 'huss', 'tasmin', 'rsus', 'hurs', 'sfcWind', 'va850', 'ua850', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -28282,7 +28282,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'rlds', 'clt', 'sfcWind', 'tasmax', 'hurs', 'pr', 'va850', 'ua850', 'rsds', 'tas', 'zg500', 'tasmin', 'psl', 'rsus', 'huss', 'evspsbl']</t>
+          <t>['sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'rlds', 'clt', 'sfcWind', 'tasmax', 'hurs', 'pr', 'va850', 'ua850', 'rsds', 'tas', 'zg500', 'tasmin', 'psl', 'rsus', 'huss', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -28794,7 +28794,7 @@
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>['mrso', 'prc', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'ts', 'hfss', 'hfls', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'prhmax', 'rlus', 'rlut', 'prsn', 'wsgsmax', 'vas', 'tasmin', 'va850', 'ua850', 'tasmax', 'huss', 'rsds', 'hurs', 'psl', 'ps', 'clt', 'sfcWind', 'zg500', 'evspsbl', 'tas', 'pr', 'rsus', 'rlds']</t>
+          <t>['mrso', 'prc', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'ts', 'hfss', 'hfls', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'prhmax', 'rlus', 'rlut', 'prsn', 'wsgsmax', 'vas', 'hfss', 'hfls', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'prhmax', 'rlus', 'rlut', 'prsn', 'wsgsmax', 'vas', 'tasmin', 'va850', 'ua850', 'tasmax', 'huss', 'rsds', 'hurs', 'psl', 'ps', 'clt', 'sfcWind', 'zg500', 'evspsbl', 'tas', 'pr', 'rsus', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -28826,7 +28826,7 @@
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -28858,7 +28858,7 @@
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'va850', 'tasmin', 'hurs', 'ua850', 'rlds', 'zg500', 'psl', 'tas', 'tasmax', 'rsus', 'evspsbl', 'sfcWind', 'huss', 'rsds', 'pr', 'clt']</t>
+          <t>['hfss', 'hfls', 'hus850', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'hus850', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'va850', 'tasmin', 'hurs', 'ua850', 'rlds', 'zg500', 'psl', 'tas', 'tasmax', 'rsus', 'evspsbl', 'sfcWind', 'huss', 'rsds', 'pr', 'clt']</t>
         </is>
       </c>
     </row>
@@ -28890,7 +28890,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsut', 'snw', 'snc', 'snd', 'sund', 'ua500', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'clt', 'evspsbl', 'tas', 'rlds', 'tasmin', 'pr', 'huss', 'tasmax', 'sfcWind', 'rsds', 'ua850', 'va850', 'hurs', 'zg500', 'psl', 'rsus']</t>
+          <t>['sfcWindmax', 'rsut', 'snw', 'snc', 'snd', 'sund', 'ua500', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'snc', 'snd', 'sund', 'ua500', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'clt', 'evspsbl', 'tas', 'rlds', 'tasmin', 'pr', 'huss', 'tasmax', 'sfcWind', 'rsds', 'ua850', 'va850', 'hurs', 'zg500', 'psl', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -28994,7 +28994,7 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rlut', 'prsn', 'hfss', 'hfls', 'prhmax', 'mrso', 'prc', 'hus850', 'mrro', 'sfcWindmax', 'rsut', 'snw', 'snc', 'snd', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'ts', 'wsgsmax', 'tasmax', 'pr', 'rsds', 'huss', 'tasmin', 'rsus', 'tas', 'va850', 'evspsbl', 'ua850', 'hurs', 'ps', 'rlds', 'sfcWind', 'clt', 'zg500', 'psl']</t>
+          <t>['rlus', 'rsdt', 'rlut', 'prsn', 'hfss', 'hfls', 'prhmax', 'mrso', 'prc', 'hus850', 'mrro', 'sfcWindmax', 'rsut', 'snw', 'snc', 'snd', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'ts', 'wsgsmax', 'hfss', 'hfls', 'prhmax', 'mrso', 'prc', 'hus850', 'mrro', 'sfcWindmax', 'rsut', 'snw', 'snc', 'snd', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'ts', 'wsgsmax', 'tasmax', 'pr', 'rsds', 'huss', 'tasmin', 'rsus', 'tas', 'va850', 'evspsbl', 'ua850', 'hurs', 'ps', 'rlds', 'sfcWind', 'clt', 'zg500', 'psl']</t>
         </is>
       </c>
     </row>
@@ -29026,7 +29026,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -29058,7 +29058,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'snc', 'snd', 'sund', 'ua500', 'ta200', 'ta500', 'ta850', 'tasmin', 'tas', 'ua850', 'rsds', 'rlds', 'zg500', 'evspsbl', 'psl', 'rsus', 'clt', 'tasmax', 'hurs', 'sfcWind', 'va850', 'huss', 'pr']</t>
+          <t>['vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'snc', 'snd', 'sund', 'ua500', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'snc', 'snd', 'sund', 'ua500', 'ta200', 'ta500', 'ta850', 'tasmin', 'tas', 'ua850', 'rsds', 'rlds', 'zg500', 'evspsbl', 'psl', 'rsus', 'clt', 'tasmax', 'hurs', 'sfcWind', 'va850', 'huss', 'pr']</t>
         </is>
       </c>
     </row>
@@ -29090,7 +29090,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'ua500', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'huss', 'tasmax', 'rsds', 'pr', 'rsus', 'evspsbl', 'psl', 'clt', 'rlds', 'hurs', 'tasmin', 'ua850', 'zg500', 'va850', 'tas', 'sfcWind']</t>
+          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'ua500', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'vas', 'uas', 'va500', 'huss', 'tasmax', 'rsds', 'pr', 'rsus', 'evspsbl', 'psl', 'clt', 'rlds', 'hurs', 'tasmin', 'ua850', 'zg500', 'va850', 'tas', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -29194,7 +29194,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'prhmax', 'mrso', 'prc', 'prsn', 'mrro', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'rsds', 'clt', 'rlds', 'rsus', 'tasmin', 'evspsbl', 'tas', 'huss', 'ua850', 'tasmax', 'va850', 'psl', 'ps', 'pr', 'hurs', 'zg500']</t>
+          <t>['hfss', 'hfls', 'hus850', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'prhmax', 'mrso', 'prc', 'prsn', 'mrro', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'rlus', 'rsdt', 'rlut', 'prhmax', 'mrso', 'prc', 'prsn', 'mrro', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snw', 'sund', 'snc', 'snd', 'rlus', 'rsdt', 'rlut', 'sfcWind', 'rsds', 'clt', 'rlds', 'rsus', 'tasmin', 'evspsbl', 'tas', 'huss', 'ua850', 'tasmax', 'va850', 'psl', 'ps', 'pr', 'hurs', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -29258,7 +29258,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'snc', 'sund', 'snd', 'ua500', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'rsus', 'rsds', 'sfcWind', 'ua850', 'tasmax', 'evspsbl', 'zg500', 'tasmin', 'hurs', 'huss', 'psl', 'rlds', 'pr', 'tas', 'va850', 'clt']</t>
+          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'snc', 'sund', 'snd', 'ua500', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'sfcWindmax', 'rsut', 'snw', 'snc', 'sund', 'snd', 'ua500', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'rsus', 'rsds', 'sfcWind', 'ua850', 'tasmax', 'evspsbl', 'zg500', 'tasmin', 'hurs', 'huss', 'psl', 'rlds', 'pr', 'tas', 'va850', 'clt']</t>
         </is>
       </c>
     </row>
@@ -29290,7 +29290,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snw', 'sund', 'snc', 'ta200', 'snd', 'uas', 'ua500', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'vas', 'va500', 'va850', 'tas', 'hurs', 'evspsbl', 'tasmax', 'rsds', 'clt', 'pr', 'sfcWind', 'tasmin', 'zg500', 'rlds', 'huss', 'rsus', 'ua850', 'psl']</t>
+          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snw', 'sund', 'snc', 'ta200', 'snd', 'uas', 'ua500', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'vas', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snw', 'sund', 'snc', 'ta200', 'snd', 'uas', 'ua500', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'vas', 'va500', 'va850', 'tas', 'hurs', 'evspsbl', 'tasmax', 'rsds', 'clt', 'pr', 'sfcWind', 'tasmin', 'zg500', 'rlds', 'huss', 'rsus', 'ua850', 'psl']</t>
         </is>
       </c>
     </row>
@@ -29422,7 +29422,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>['prhmax', 'mrso', 'prc', 'prsn', 'mrro', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'hus850', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'snw', 'sund', 'snc', 'ta200', 'snd', 'ps', 'ua850', 'rsus', 'clt', 'pr', 'evspsbl', 'hurs', 'tasmin', 'zg500', 'tas', 'va850', 'huss', 'rlds', 'psl', 'sfcWind', 'tasmax', 'rsds']</t>
+          <t>['prhmax', 'mrso', 'prc', 'prsn', 'mrro', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'hus850', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'snw', 'sund', 'snc', 'ta200', 'snd', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'hus850', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'snw', 'sund', 'snc', 'ta200', 'snd', 'ps', 'ua850', 'rsus', 'clt', 'pr', 'evspsbl', 'hurs', 'tasmin', 'zg500', 'tas', 'va850', 'huss', 'rlds', 'psl', 'sfcWind', 'tasmax', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -29454,7 +29454,7 @@
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -29486,7 +29486,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'sfcWindmax', 'uas', 'ua500', 'ta500', 'ta850', 'vas', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'snd', 'pr', 'tasmin', 'ua850', 'va850', 'tasmax', 'rlds', 'rsds', 'rsus', 'evspsbl', 'sfcWind', 'zg500', 'clt', 'tas', 'psl', 'huss', 'hurs']</t>
+          <t>['hfss', 'hfls', 'mrso', 'sfcWindmax', 'uas', 'ua500', 'ta500', 'ta850', 'vas', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'snd', 'hfss', 'hfls', 'mrso', 'sfcWindmax', 'uas', 'ua500', 'ta500', 'ta850', 'vas', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'snd', 'pr', 'tasmin', 'ua850', 'va850', 'tasmax', 'rlds', 'rsds', 'rsus', 'evspsbl', 'sfcWind', 'zg500', 'clt', 'tas', 'psl', 'huss', 'hurs']</t>
         </is>
       </c>
     </row>
@@ -29518,7 +29518,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>['hfls', 'sfcWindmax', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'rlus', 'rsdt', 'rsut', 'rlut', 'uas', 'ua500', 'ta850', 'hfss', 'mrso', 'hus850', 'mrro', 'vas', 'va500', 'tas', 'psl', 'sfcWind', 'rlds', 'clt', 'ua850', 'rsds', 'tasmin', 'tasmax', 'zg500', 'rsus', 'evspsbl', 'va850', 'huss', 'hurs', 'pr']</t>
+          <t>['hfls', 'sfcWindmax', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'rlus', 'rsdt', 'rsut', 'rlut', 'uas', 'ua500', 'ta850', 'hfss', 'mrso', 'hus850', 'mrro', 'vas', 'va500', 'hfls', 'sfcWindmax', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'rlus', 'rsdt', 'rsut', 'rlut', 'uas', 'ua500', 'ta850', 'hfss', 'mrso', 'hus850', 'mrro', 'vas', 'va500', 'tas', 'psl', 'sfcWind', 'rlds', 'clt', 'ua850', 'rsds', 'tasmin', 'tasmax', 'zg500', 'rsus', 'evspsbl', 'va850', 'huss', 'hurs', 'pr']</t>
         </is>
       </c>
     </row>
@@ -29626,7 +29626,7 @@
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>['prhmax', 'mrso', 'prc', 'prsn', 'uas', 'ua500', 'ts', 'hfss', 'hfls', 'hus850', 'mrro', 'wsgsmax', 'vas', 'va500', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'huss', 'clt', 'sfcWind', 'pr', 'tasmax', 'hurs', 'rlds', 'ps', 'evspsbl', 'tas', 'rsus', 'tasmin', 'psl', 'va850', 'zg500', 'rsds', 'ua850']</t>
+          <t>['prhmax', 'mrso', 'prc', 'prsn', 'uas', 'ua500', 'ts', 'hfss', 'hfls', 'hus850', 'mrro', 'wsgsmax', 'vas', 'va500', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'prhmax', 'mrso', 'prc', 'prsn', 'uas', 'ua500', 'ts', 'hfss', 'hfls', 'hus850', 'mrro', 'wsgsmax', 'vas', 'va500', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'huss', 'clt', 'sfcWind', 'pr', 'tasmax', 'hurs', 'rlds', 'ps', 'evspsbl', 'tas', 'rsus', 'tasmin', 'psl', 'va850', 'zg500', 'rsds', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -29658,7 +29658,7 @@
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>['areacella', 'sftlf', 'orog']</t>
+          <t>['areacella', 'areacella', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -29690,7 +29690,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'mrso', 'hus850', 'mrro', 'vas', 'hfss', 'hfls', 'uas', 'va500', 'ua500', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rsus', 'va850', 'sfcWind', 'pr', 'rsds', 'rlds', 'ua850', 'psl', 'tas', 'zg500', 'tasmax', 'huss', 'hurs', 'evspsbl', 'tasmin', 'clt']</t>
+          <t>['sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'mrso', 'hus850', 'mrro', 'vas', 'hfss', 'hfls', 'uas', 'va500', 'ua500', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'mrso', 'hus850', 'mrro', 'vas', 'hfss', 'hfls', 'uas', 'va500', 'ua500', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rsus', 'va850', 'sfcWind', 'pr', 'rsds', 'rlds', 'ua850', 'psl', 'tas', 'zg500', 'tasmax', 'huss', 'hurs', 'evspsbl', 'tasmin', 'clt']</t>
         </is>
       </c>
     </row>
@@ -29722,7 +29722,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>['vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlus', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'hurs', 'pr', 'huss', 'rsds', 'tasmax', 'zg500', 'tasmin', 'sfcWind', 'rsus', 'clt', 'tas', 'psl', 'evspsbl', 'rlds', 'va850', 'ua850']</t>
+          <t>['vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlus', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlus', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'hurs', 'pr', 'huss', 'rsds', 'tasmax', 'zg500', 'tasmin', 'sfcWind', 'rsus', 'clt', 'tas', 'psl', 'evspsbl', 'rlds', 'va850', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -30026,7 +30026,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'ua500', 'ts', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'vas', 'va500', 'prhmax', 'mrso', 'prc', 'prsn', 'rsus', 'rlds', 'rsds', 'va850', 'ps', 'sfcWind', 'evspsbl', 'psl', 'ua850', 'huss', 'clt', 'zg500', 'hurs', 'tasmax', 'tas', 'tasmin', 'pr']</t>
+          <t>['hfss', 'hfls', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'ua500', 'ts', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'vas', 'va500', 'prhmax', 'mrso', 'prc', 'prsn', 'hfss', 'hfls', 'hus850', 'mrro', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'ua500', 'ts', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'vas', 'va500', 'prhmax', 'mrso', 'prc', 'prsn', 'rsus', 'rlds', 'rsds', 'va850', 'ps', 'sfcWind', 'evspsbl', 'psl', 'ua850', 'huss', 'clt', 'zg500', 'hurs', 'tasmax', 'tas', 'tasmin', 'pr']</t>
         </is>
       </c>
     </row>
@@ -30058,7 +30058,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -30090,7 +30090,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>['mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'rsds', 'tasmin', 'clt', 'huss', 'psl', 'evspsbl', 'va850', 'hurs', 'tasmax', 'pr', 'ua850', 'sfcWind', 'tas', 'zg500', 'rsus', 'rlds']</t>
+          <t>['mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'rsds', 'tasmin', 'clt', 'huss', 'psl', 'evspsbl', 'va850', 'hurs', 'tasmax', 'pr', 'ua850', 'sfcWind', 'tas', 'zg500', 'rsus', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -30122,7 +30122,7 @@
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>['snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'rlus', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'hus850', 'zg500', 'hurs', 'tasmin', 'rsds', 'tasmax', 'ua850', 'evspsbl', 'pr', 'clt', 'tas', 'psl', 'va850', 'huss', 'rlds', 'rsus', 'sfcWind']</t>
+          <t>['snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'rlus', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'rlus', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'hus850', 'zg500', 'hurs', 'tasmin', 'rsds', 'tasmax', 'ua850', 'evspsbl', 'pr', 'clt', 'tas', 'psl', 'va850', 'huss', 'rlds', 'rsus', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -30230,7 +30230,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['hfls', 'uas', 'va500', 'ua500', 'ts', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'rlus', 'prhmax', 'rlut', 'prc', 'prsn', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'mrso', 'hus850', 'mrro', 'wsgsmax', 'vas', 'huss', 'zg500', 'evspsbl', 'pr', 'rsds', 'va850', 'rlds', 'ps', 'clt', 'tasmax', 'rsus', 'ua850', 'psl', 'hurs', 'sfcWind', 'tas', 'tasmin']</t>
+          <t>['hfls', 'uas', 'va500', 'ua500', 'ts', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'rlus', 'prhmax', 'rlut', 'prc', 'prsn', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'mrso', 'hus850', 'mrro', 'wsgsmax', 'vas', 'hfls', 'uas', 'va500', 'ua500', 'ts', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'rlus', 'prhmax', 'rlut', 'prc', 'prsn', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'mrso', 'hus850', 'mrro', 'wsgsmax', 'vas', 'huss', 'zg500', 'evspsbl', 'pr', 'rsds', 'va850', 'rlds', 'ps', 'clt', 'tasmax', 'rsus', 'ua850', 'psl', 'hurs', 'sfcWind', 'tas', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -30262,7 +30262,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -30294,7 +30294,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>['rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'rsds', 'sfcWind', 'clt', 'pr', 'zg500', 'rlds', 'tasmin', 'tasmax', 'psl', 'va850', 'huss', 'tas', 'evspsbl', 'rsus', 'hurs', 'ua850']</t>
+          <t>['rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'rsds', 'sfcWind', 'clt', 'pr', 'zg500', 'rlds', 'tasmin', 'tasmax', 'psl', 'va850', 'huss', 'tas', 'evspsbl', 'rsus', 'hurs', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -30326,7 +30326,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'vas', 'uas', 'va500', 'ua500', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'rlus', 'rlut', 'mrso', 'mrro', 'rlds', 'tas', 'ua850', 'tasmax', 'rsus', 'rsds', 'tasmin', 'huss', 'hurs', 'evspsbl', 'clt', 'pr', 'psl', 'va850', 'zg500', 'sfcWind']</t>
+          <t>['hfss', 'hfls', 'hus850', 'vas', 'uas', 'va500', 'ua500', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'vas', 'uas', 'va500', 'ua500', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'rlus', 'rlut', 'mrso', 'mrro', 'rlds', 'tas', 'ua850', 'tasmax', 'rsus', 'rsds', 'tasmin', 'huss', 'hurs', 'evspsbl', 'clt', 'pr', 'psl', 'va850', 'zg500', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -30630,7 +30630,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'uas', 'ua500', 'ts', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'prhmax', 'rlus', 'prc', 'prsn', 'wsgsmax', 'vas', 'va500', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'sfcWind', 'tas', 'rsus', 'ps', 'tasmax', 'huss', 'hurs', 'evspsbl', 'pr', 'rsds', 'zg500', 'rlds', 'psl', 'va850', 'ua850', 'clt']</t>
+          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'uas', 'ua500', 'ts', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'prhmax', 'rlus', 'prc', 'prsn', 'wsgsmax', 'vas', 'va500', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'uas', 'ua500', 'ts', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'prhmax', 'rlus', 'prc', 'prsn', 'wsgsmax', 'vas', 'va500', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'tasmin', 'sfcWind', 'tas', 'rsus', 'ps', 'tasmax', 'huss', 'hurs', 'evspsbl', 'pr', 'rsds', 'zg500', 'rlds', 'psl', 'va850', 'ua850', 'clt']</t>
         </is>
       </c>
     </row>
@@ -30662,7 +30662,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>['areacella', 'orog', 'sftlf']</t>
+          <t>['areacella', 'areacella', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -30694,7 +30694,7 @@
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlus', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'rlds', 'tasmax', 'clt', 'ua850', 'tasmin', 'tas', 'huss', 'pr', 'va850', 'evspsbl', 'rsus', 'sfcWind', 'rsds', 'psl', 'hurs', 'zg500']</t>
+          <t>['hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlus', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'rlus', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'rlds', 'tasmax', 'clt', 'ua850', 'tasmin', 'tas', 'huss', 'pr', 'va850', 'evspsbl', 'rsus', 'sfcWind', 'rsds', 'psl', 'hurs', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -30726,7 +30726,7 @@
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'rlut', 'mrso', 'mrro', 'rsds', 'va850', 'tasmin', 'pr', 'clt', 'zg500', 'rlds', 'tasmax', 'sfcWind', 'psl', 'tas', 'hurs', 'ua850', 'evspsbl', 'huss', 'rsus']</t>
+          <t>['hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'rlut', 'mrso', 'mrro', 'hfss', 'hfls', 'hus850', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snc', 'snd', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'rlut', 'mrso', 'mrro', 'rsds', 'va850', 'tasmin', 'pr', 'clt', 'zg500', 'rlds', 'tasmax', 'sfcWind', 'psl', 'tas', 'hurs', 'ua850', 'evspsbl', 'huss', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -34702,7 +34702,7 @@
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'prc', 'hus850', 'mrro', 'wsgsmax', 'vas', 'uas', 'va500', 'rlus', 'rsdt', 'rlut', 'prsn', 'ua500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'ta500', 'psl', 'ps', 'tasmax', 'huss', 'tasmin', 'pr', 'rsds', 'zg500', 'sfcWind', 'tas', 'evspsbl', 'va850', 'ua850', 'rlds', 'clt', 'rsus']</t>
+          <t>['hfss', 'hfls', 'mrso', 'prc', 'hus850', 'mrro', 'wsgsmax', 'vas', 'uas', 'va500', 'rlus', 'rsdt', 'rlut', 'prsn', 'ua500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'ta500', 'hfss', 'hfls', 'mrso', 'prc', 'hus850', 'mrro', 'wsgsmax', 'vas', 'uas', 'va500', 'rlus', 'rsdt', 'rlut', 'prsn', 'ua500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'ta500', 'psl', 'ps', 'tasmax', 'huss', 'tasmin', 'pr', 'rsds', 'zg500', 'sfcWind', 'tas', 'evspsbl', 'va850', 'ua850', 'rlds', 'clt', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -34734,7 +34734,7 @@
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'sfcWind', 'pr', 'rsds', 'clt', 'tas', 'va850', 'zg500', 'tasmax', 'rlds', 'evspsbl', 'rsus', 'huss', 'ua850', 'tasmin', 'psl']</t>
+          <t>['sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'sfcWind', 'pr', 'rsds', 'clt', 'tas', 'va850', 'zg500', 'tasmax', 'rlds', 'evspsbl', 'rsus', 'huss', 'ua850', 'tasmin', 'psl']</t>
         </is>
       </c>
     </row>
@@ -34766,7 +34766,7 @@
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>['rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'snw', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'va850', 'ua850', 'psl', 'rsds', 'huss', 'tasmax', 'zg500', 'pr', 'clt', 'tasmin', 'tas', 'rlds', 'sfcWind', 'evspsbl', 'rsus']</t>
+          <t>['rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'snw', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'snw', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'va850', 'ua850', 'psl', 'rsds', 'huss', 'tasmax', 'zg500', 'pr', 'clt', 'tasmin', 'tas', 'rlds', 'sfcWind', 'evspsbl', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -34846,7 +34846,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>['rlus', 'rlut', 'mrso', 'prc', 'prsn', 'vas', 'uas', 'va500', 'ua500', 'ts', 'sfcWindmax', 'rsdt', 'rsut', 'wsgsmax', 'hfss', 'hfls', 'hus850', 'mrro', 'snw', 'ta200', 'ta500', 'ta850', 'sfcWind', 'pr', 'huss', 'ps', 'rlds', 'zg500', 'rsus', 'clt', 'ua850', 'va850', 'psl', 'rsds', 'evspsbl', 'tas', 'tasmax', 'tasmin']</t>
+          <t>['rlus', 'rlut', 'mrso', 'prc', 'prsn', 'vas', 'uas', 'va500', 'ua500', 'ts', 'sfcWindmax', 'rsdt', 'rsut', 'wsgsmax', 'hfss', 'hfls', 'hus850', 'mrro', 'snw', 'ta200', 'ta500', 'ta850', 'rlus', 'rlut', 'mrso', 'prc', 'prsn', 'vas', 'uas', 'va500', 'ua500', 'ts', 'sfcWindmax', 'rsdt', 'rsut', 'wsgsmax', 'hfss', 'hfls', 'hus850', 'mrro', 'snw', 'ta200', 'ta500', 'ta850', 'sfcWind', 'pr', 'huss', 'ps', 'rlds', 'zg500', 'rsus', 'clt', 'ua850', 'va850', 'psl', 'rsds', 'evspsbl', 'tas', 'tasmax', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -34878,7 +34878,7 @@
       </c>
       <c r="J1059" t="inlineStr">
         <is>
-          <t>['ta200', 'ta500', 'ta850', 'ua500', 'hfss', 'hfls', 'hus850', 'vas', 'uas', 'va500', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'huss', 'rsds', 'sfcWind', 'evspsbl', 'tasmin', 'tasmax', 'rsus', 'zg500', 'tas', 'psl', 'pr', 'clt', 'va850', 'ua850', 'rlds']</t>
+          <t>['ta200', 'ta500', 'ta850', 'ua500', 'hfss', 'hfls', 'hus850', 'vas', 'uas', 'va500', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'ua500', 'hfss', 'hfls', 'hus850', 'vas', 'uas', 'va500', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'huss', 'rsds', 'sfcWind', 'evspsbl', 'tasmin', 'tasmax', 'rsus', 'zg500', 'tas', 'psl', 'pr', 'clt', 'va850', 'ua850', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -34910,7 +34910,7 @@
       </c>
       <c r="J1060" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'psl', 'ua850', 'huss', 'rsus', 'rsds', 'rlds', 'sfcWind', 'tas', 'clt', 'evspsbl', 'tasmax', 'pr', 'tasmin', 'zg500', 'va850']</t>
+          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'psl', 'ua850', 'huss', 'rsus', 'rsds', 'rlds', 'sfcWind', 'tas', 'clt', 'evspsbl', 'tasmax', 'pr', 'tasmin', 'zg500', 'va850']</t>
         </is>
       </c>
     </row>
@@ -34946,7 +34946,7 @@
       </c>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'vas', 'hfss', 'hfls', 'hus850', 'mrro', 'snw', 'ta200', 'ta500', 'ta850', 'rlus', 'mrso', 'prc', 'prsn', 'uas', 'va500', 'ua500', 'ts', 'ua850', 'rlds', 'rsds', 'ps', 'huss', 'rsus', 'tasmax', 'tasmin', 'evspsbl', 'clt', 'pr', 'psl', 'va850', 'sfcWind', 'zg500', 'tas']</t>
+          <t>['sfcWindmax', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'vas', 'hfss', 'hfls', 'hus850', 'mrro', 'snw', 'ta200', 'ta500', 'ta850', 'rlus', 'mrso', 'prc', 'prsn', 'uas', 'va500', 'ua500', 'ts', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'vas', 'hfss', 'hfls', 'hus850', 'mrro', 'snw', 'ta200', 'ta500', 'ta850', 'rlus', 'mrso', 'prc', 'prsn', 'uas', 'va500', 'ua500', 'ts', 'ua850', 'rlds', 'rsds', 'ps', 'huss', 'rsus', 'tasmax', 'tasmin', 'evspsbl', 'clt', 'pr', 'psl', 'va850', 'sfcWind', 'zg500', 'tas']</t>
         </is>
       </c>
     </row>
@@ -34978,7 +34978,7 @@
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'ua500', 'vas', 'uas', 'va500', 'ua850', 'rsds', 'clt', 'tasmin', 'va850', 'sfcWind', 'tasmax', 'zg500', 'huss', 'tas', 'rsus', 'rlds', 'psl', 'evspsbl', 'pr']</t>
+          <t>['hfss', 'hfls', 'hus850', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'ua500', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'ua500', 'vas', 'uas', 'va500', 'ua850', 'rsds', 'clt', 'tasmin', 'va850', 'sfcWind', 'tasmax', 'zg500', 'huss', 'tas', 'rsus', 'rlds', 'psl', 'evspsbl', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35010,7 +35010,7 @@
       </c>
       <c r="J1063" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'uas', 'va500', 'ua500', 'vas', 'evspsbl', 'rsds', 'rsus', 'tasmax', 'psl', 'tasmin', 'clt', 'va850', 'huss', 'pr', 'ua850', 'tas', 'sfcWind', 'rlds', 'zg500']</t>
+          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'uas', 'va500', 'ua500', 'vas', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'uas', 'va500', 'ua500', 'vas', 'evspsbl', 'rsds', 'rsus', 'tasmax', 'psl', 'tasmin', 'clt', 'va850', 'huss', 'pr', 'ua850', 'tas', 'sfcWind', 'rlds', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -35086,7 +35086,7 @@
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'prc', 'hus850', 'prsn', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'uas', 'ua500', 'ts', 'wsgsmax', 'vas', 'va500', 'tas', 'va850', 'tasmax', 'rlds', 'pr', 'tasmin', 'zg500', 'ua850', 'psl', 'sfcWind', 'huss', 'rsus', 'rsds', 'clt', 'evspsbl', 'ps']</t>
+          <t>['hfss', 'hfls', 'mrso', 'prc', 'hus850', 'prsn', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'uas', 'ua500', 'ts', 'wsgsmax', 'vas', 'va500', 'hfss', 'hfls', 'mrso', 'prc', 'hus850', 'prsn', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'uas', 'ua500', 'ts', 'wsgsmax', 'vas', 'va500', 'tas', 'va850', 'tasmax', 'rlds', 'pr', 'tasmin', 'zg500', 'ua850', 'psl', 'sfcWind', 'huss', 'rsus', 'rsds', 'clt', 'evspsbl', 'ps']</t>
         </is>
       </c>
     </row>
@@ -35118,7 +35118,7 @@
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'rlds', 'tas', 'va850', 'rsus', 'huss', 'zg500', 'clt', 'ua850', 'tasmax', 'tasmin', 'rsds', 'pr', 'sfcWind', 'evspsbl', 'psl']</t>
+          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'rlds', 'tas', 'va850', 'rsus', 'huss', 'zg500', 'clt', 'ua850', 'tasmax', 'tasmin', 'rsds', 'pr', 'sfcWind', 'evspsbl', 'psl']</t>
         </is>
       </c>
     </row>
@@ -35150,7 +35150,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'uas', 'ta500', 'ta850', 'ua500', 'vas', 'va500', 'pr', 'rsds', 'tas', 'psl', 'clt', 'ua850', 'tasmax', 'rsus', 'huss', 'tasmin', 'rlds', 'va850', 'zg500', 'sfcWind', 'evspsbl']</t>
+          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'uas', 'ta500', 'ta850', 'ua500', 'vas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'uas', 'ta500', 'ta850', 'ua500', 'vas', 'va500', 'pr', 'rsds', 'tas', 'psl', 'clt', 'ua850', 'tasmax', 'rsus', 'huss', 'tasmin', 'rlds', 'va850', 'zg500', 'sfcWind', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -35186,7 +35186,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'wsgsmax', 'vas', 'uas', 'va500', 'hfls', 'hfss', 'mrso', 'prc', 'hus850', 'prsn', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'ua500', 'ts', 'tasmax', 'pr', 'psl', 'tas', 'huss', 'ps', 'rlds', 'clt', 'va850', 'ua850', 'evspsbl', 'tasmin', 'sfcWind', 'rsus', 'zg500', 'rsds']</t>
+          <t>['sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'wsgsmax', 'vas', 'uas', 'va500', 'hfls', 'hfss', 'mrso', 'prc', 'hus850', 'prsn', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'ua500', 'ts', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'wsgsmax', 'vas', 'uas', 'va500', 'hfls', 'hfss', 'mrso', 'prc', 'hus850', 'prsn', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'ua500', 'ts', 'tasmax', 'pr', 'psl', 'tas', 'huss', 'ps', 'rlds', 'clt', 'va850', 'ua850', 'evspsbl', 'tasmin', 'sfcWind', 'rsus', 'zg500', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -35218,7 +35218,7 @@
       </c>
       <c r="J1069" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'va850', 'zg500', 'huss', 'evspsbl', 'tas', 'clt', 'psl', 'rsus', 'ua850', 'rlds', 'sfcWind', 'tasmax', 'rsds', 'tasmin', 'pr']</t>
+          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'uas', 'va500', 'ua500', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'va850', 'zg500', 'huss', 'evspsbl', 'tas', 'clt', 'psl', 'rsus', 'ua850', 'rlds', 'sfcWind', 'tasmax', 'rsds', 'tasmin', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35250,7 +35250,7 @@
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsdt', 'rsut', 'snw', 'rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'ta200', 'ta500', 'ta850', 'ua500', 'rsus', 'ua850', 'tasmax', 'tasmin', 'psl', 'tas', 'sfcWind', 'pr', 'rsds', 'zg500', 'huss', 'evspsbl', 'va850', 'clt', 'rlds']</t>
+          <t>['sfcWindmax', 'rsdt', 'rsut', 'snw', 'rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'ta200', 'ta500', 'ta850', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'rlus', 'rlut', 'mrso', 'mrro', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'ta200', 'ta500', 'ta850', 'ua500', 'rsus', 'ua850', 'tasmax', 'tasmin', 'psl', 'tas', 'sfcWind', 'pr', 'rsds', 'zg500', 'huss', 'evspsbl', 'va850', 'clt', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -35326,7 +35326,7 @@
       </c>
       <c r="J1072" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'rlut', 'prc', 'prsn', 'rsds', 'rlds', 'ua850', 'clt', 'tasmin', 'evspsbl', 'zg500', 'rsus', 'va850', 'sfcWind', 'ps', 'tas', 'pr', 'tasmax', 'huss', 'psl']</t>
+          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'rlut', 'prc', 'prsn', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va500', 'ua500', 'rlus', 'rlut', 'prc', 'prsn', 'rsds', 'rlds', 'ua850', 'clt', 'tasmin', 'evspsbl', 'zg500', 'rsus', 'va850', 'sfcWind', 'ps', 'tas', 'pr', 'tasmax', 'huss', 'psl']</t>
         </is>
       </c>
     </row>
@@ -35358,7 +35358,7 @@
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'uas', 'ta500', 'ta850', 'ua500', 'vas', 'va500', 'rsds', 'pr', 'tasmax', 'ua850', 'evspsbl', 'clt', 'rsus', 'va850', 'huss', 'rlds', 'zg500', 'psl', 'tas', 'tasmin', 'sfcWind']</t>
+          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'uas', 'ta500', 'ta850', 'ua500', 'vas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'uas', 'ta500', 'ta850', 'ua500', 'vas', 'va500', 'rsds', 'pr', 'tasmax', 'ua850', 'evspsbl', 'clt', 'rsus', 'va850', 'huss', 'rlds', 'zg500', 'psl', 'tas', 'tasmin', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -35390,7 +35390,7 @@
       </c>
       <c r="J1074" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfls', 'hfss', 'mrso', 'hus850', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'snw', 'ta200', 'ta500', 'ta850', 'rsds', 'zg500', 'pr', 'rsus', 'tasmax', 'ua850', 'rlds', 'tas', 'sfcWind', 'clt', 'psl', 'huss', 'tasmin', 'evspsbl', 'va850']</t>
+          <t>['sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfls', 'hfss', 'mrso', 'hus850', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'snw', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfls', 'hfss', 'mrso', 'hus850', 'mrro', 'vas', 'uas', 'va500', 'ua500', 'snw', 'ta200', 'ta500', 'ta850', 'rsds', 'zg500', 'pr', 'rsus', 'tasmax', 'ua850', 'rlds', 'tas', 'sfcWind', 'clt', 'psl', 'huss', 'tasmin', 'evspsbl', 'va850']</t>
         </is>
       </c>
     </row>
@@ -35426,7 +35426,7 @@
       </c>
       <c r="J1075" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rlut', 'mrso', 'prc', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'ts', 'wsgsmax', 'ps', 'zg500', 'rlds', 'tasmax', 'ua850', 'clt', 'va850', 'tas', 'rsus', 'pr', 'evspsbl', 'tasmin', 'psl', 'sfcWind', 'huss', 'rsds']</t>
+          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rlut', 'mrso', 'prc', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'ts', 'wsgsmax', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rlut', 'mrso', 'prc', 'prsn', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'ts', 'wsgsmax', 'ps', 'zg500', 'rlds', 'tasmax', 'ua850', 'clt', 'va850', 'tas', 'rsus', 'pr', 'evspsbl', 'tasmin', 'psl', 'sfcWind', 'huss', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -35458,7 +35458,7 @@
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'ua500', 'vas', 'uas', 'va500', 'rsds', 'huss', 'rsus', 'tasmax', 'clt', 'tasmin', 'ua850', 'psl', 'zg500', 'evspsbl', 'va850', 'sfcWind', 'rlds', 'pr', 'tas']</t>
+          <t>['hfss', 'hfls', 'hus850', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'ua500', 'vas', 'uas', 'va500', 'hfss', 'hfls', 'hus850', 'rlus', 'rlut', 'mrso', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snw', 'ta200', 'ta500', 'ta850', 'ua500', 'vas', 'uas', 'va500', 'rsds', 'huss', 'rsus', 'tasmax', 'clt', 'tasmin', 'ua850', 'psl', 'zg500', 'evspsbl', 'va850', 'sfcWind', 'rlds', 'pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -35490,7 +35490,7 @@
       </c>
       <c r="J1077" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'huss', 'tas', 'va850', 'clt', 'sfcWind', 'pr', 'rsus', 'rlds', 'rsds', 'tasmax', 'evspsbl', 'zg500', 'tasmin', 'psl', 'ua850']</t>
+          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'huss', 'tas', 'va850', 'clt', 'sfcWind', 'pr', 'rsus', 'rlds', 'rsds', 'tasmax', 'evspsbl', 'zg500', 'tasmin', 'psl', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -35566,7 +35566,7 @@
       </c>
       <c r="J1079" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'mrso', 'prc', 'prsn', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'uas', 'ua500', 'ts', 'wsgsmax', 'vas', 'va500', 'zg500', 'ua850', 'sfcWind', 'psl', 'va850', 'pr', 'rlds', 'rsus', 'huss', 'tasmin', 'rsds', 'tas', 'tasmax', 'ps', 'clt', 'evspsbl']</t>
+          <t>['hfss', 'hfls', 'hus850', 'mrso', 'prc', 'prsn', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'uas', 'ua500', 'ts', 'wsgsmax', 'vas', 'va500', 'hfss', 'hfls', 'hus850', 'mrso', 'prc', 'prsn', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'uas', 'ua500', 'ts', 'wsgsmax', 'vas', 'va500', 'zg500', 'ua850', 'sfcWind', 'psl', 'va850', 'pr', 'rlds', 'rsus', 'huss', 'tasmin', 'rsds', 'tas', 'tasmax', 'ps', 'clt', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -35598,7 +35598,7 @@
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>['snw', 'ta200', 'ta500', 'ta850', 'hfls', 'hfss', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'uas', 'va500', 'ua500', 'tas', 'clt', 'ua850', 'zg500', 'sfcWind', 'pr', 'rlds', 'evspsbl', 'rsus', 'va850', 'psl', 'huss', 'rsds', 'tasmax', 'tasmin']</t>
+          <t>['snw', 'ta200', 'ta500', 'ta850', 'hfls', 'hfss', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'uas', 'va500', 'ua500', 'snw', 'ta200', 'ta500', 'ta850', 'hfls', 'hfss', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'uas', 'va500', 'ua500', 'tas', 'clt', 'ua850', 'zg500', 'sfcWind', 'pr', 'rlds', 'evspsbl', 'rsus', 'va850', 'psl', 'huss', 'rsds', 'tasmax', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -35630,7 +35630,7 @@
       </c>
       <c r="J1081" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'mrro', 'uas', 'ta850', 'ua500', 'rlus', 'rsdt', 'rlut', 'mrso', 'vas', 'va500', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'ta500', 'sfcWind', 'evspsbl', 'rsus', 'rlds', 'tasmin', 'huss', 'psl', 'pr', 'zg500', 'rsds', 'clt', 'va850', 'tasmax', 'tas', 'ua850']</t>
+          <t>['hfss', 'hfls', 'hus850', 'mrro', 'uas', 'ta850', 'ua500', 'rlus', 'rsdt', 'rlut', 'mrso', 'vas', 'va500', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'ta500', 'hfss', 'hfls', 'hus850', 'mrro', 'uas', 'ta850', 'ua500', 'rlus', 'rsdt', 'rlut', 'mrso', 'vas', 'va500', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'ta500', 'sfcWind', 'evspsbl', 'rsus', 'rlds', 'tasmin', 'huss', 'psl', 'pr', 'zg500', 'rsds', 'clt', 'va850', 'tasmax', 'tas', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -35666,7 +35666,7 @@
       </c>
       <c r="J1082" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'vas', 'va500', 'hfss', 'hfls', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'mrso', 'prc', 'hus850', 'prsn', 'mrro', 'uas', 'ua500', 'ts', 'tas', 'rlds', 'pr', 'sfcWind', 'rsus', 'huss', 'clt', 'psl', 'tasmin', 'rsds', 'zg500', 'ua850', 'tasmax', 'ps', 'va850', 'evspsbl']</t>
+          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'vas', 'va500', 'hfss', 'hfls', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'mrso', 'prc', 'hus850', 'prsn', 'mrro', 'uas', 'ua500', 'ts', 'rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'vas', 'va500', 'hfss', 'hfls', 'sfcWindmax', 'snw', 'ta200', 'ta500', 'ta850', 'mrso', 'prc', 'hus850', 'prsn', 'mrro', 'uas', 'ua500', 'ts', 'tas', 'rlds', 'pr', 'sfcWind', 'rsus', 'huss', 'clt', 'psl', 'tasmin', 'rsds', 'zg500', 'ua850', 'tasmax', 'ps', 'va850', 'evspsbl']</t>
         </is>
       </c>
     </row>
@@ -35698,7 +35698,7 @@
       </c>
       <c r="J1083" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'ua850', 'pr', 'sfcWind', 'va850', 'psl', 'rlds', 'tas', 'tasmax', 'rsus', 'evspsbl', 'clt', 'huss', 'zg500', 'tasmin', 'rsds']</t>
+          <t>['hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'hfss', 'hfls', 'mrso', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snw', 'ta200', 'ta500', 'ta850', 'vas', 'uas', 'va500', 'ua500', 'ua850', 'pr', 'sfcWind', 'va850', 'psl', 'rlds', 'tas', 'tasmax', 'rsus', 'evspsbl', 'clt', 'huss', 'zg500', 'tasmin', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -35730,7 +35730,7 @@
       </c>
       <c r="J1084" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'uas', 'ta500', 'ta850', 'ua500', 'vas', 'va500', 'huss', 'tasmin', 'sfcWind', 'ua850', 'va850', 'rsds', 'rsus', 'tas', 'pr', 'evspsbl', 'zg500', 'psl', 'tasmax', 'clt', 'rlds']</t>
+          <t>['hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'uas', 'ta500', 'ta850', 'ua500', 'vas', 'va500', 'hfss', 'hfls', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snw', 'ta200', 'uas', 'ta500', 'ta850', 'ua500', 'vas', 'va500', 'huss', 'tasmin', 'sfcWind', 'ua850', 'va850', 'rsds', 'rsus', 'tas', 'pr', 'evspsbl', 'zg500', 'psl', 'tasmax', 'clt', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -35782,7 +35782,7 @@
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35814,7 +35814,7 @@
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35846,7 +35846,7 @@
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35886,7 +35886,7 @@
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35918,7 +35918,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35950,7 +35950,7 @@
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -35990,7 +35990,7 @@
       </c>
       <c r="J1091" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36022,7 +36022,7 @@
       </c>
       <c r="J1092" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36054,7 +36054,7 @@
       </c>
       <c r="J1093" t="inlineStr">
         <is>
-          <t>['pr', 'tas']</t>
+          <t>['pr', 'tas', 'pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36094,7 +36094,7 @@
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>['pr', 'tas']</t>
+          <t>['pr', 'tas', 'pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36126,7 +36126,7 @@
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36158,7 +36158,7 @@
       </c>
       <c r="J1096" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36202,7 +36202,7 @@
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>['pr', 'tas']</t>
+          <t>['pr', 'tas', 'pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -36234,7 +36234,7 @@
       </c>
       <c r="J1098" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog']</t>
+          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -36266,7 +36266,7 @@
       </c>
       <c r="J1099" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36298,7 +36298,7 @@
       </c>
       <c r="J1100" t="inlineStr">
         <is>
-          <t>['tas', 'pr']</t>
+          <t>['tas', 'pr', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36350,7 +36350,7 @@
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf']</t>
+          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -36386,7 +36386,7 @@
       </c>
       <c r="J1102" t="inlineStr">
         <is>
-          <t>['tasmin', 'sfcWind', 'tas', 'tasmax', 'pr']</t>
+          <t>['tasmin', 'sfcWind', 'tas', 'tasmax', 'pr', 'tasmin', 'sfcWind', 'tas', 'tasmax', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36414,7 +36414,7 @@
       </c>
       <c r="J1103" t="inlineStr">
         <is>
-          <t>['uas', 'huss']</t>
+          <t>['uas', 'huss', 'uas', 'huss']</t>
         </is>
       </c>
     </row>
@@ -36442,7 +36442,7 @@
       </c>
       <c r="J1104" t="inlineStr">
         <is>
-          <t>['mrso', 'evspsbl', 'prc', 'prsn', 'mrro', 'ps', 'snw', 'vas', 'snc', 'ts', 'snd']</t>
+          <t>['mrso', 'evspsbl', 'prc', 'prsn', 'mrro', 'ps', 'snw', 'vas', 'snc', 'ts', 'snd', 'mrso', 'evspsbl', 'prc', 'prsn', 'mrro', 'ps', 'snw', 'vas', 'snc', 'ts', 'snd']</t>
         </is>
       </c>
     </row>
@@ -36470,7 +36470,7 @@
       </c>
       <c r="J1105" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds']</t>
+          <t>['rsds', 'rlds', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -36502,7 +36502,7 @@
       </c>
       <c r="J1106" t="inlineStr">
         <is>
-          <t>['tasmin', 'tasmax', 'sfcWind', 'tas', 'pr']</t>
+          <t>['tasmin', 'tasmax', 'sfcWind', 'tas', 'pr', 'tasmin', 'tasmax', 'sfcWind', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -36530,7 +36530,7 @@
       </c>
       <c r="J1107" t="inlineStr">
         <is>
-          <t>['uas', 'huss']</t>
+          <t>['uas', 'huss', 'uas', 'huss']</t>
         </is>
       </c>
     </row>
@@ -36558,7 +36558,7 @@
       </c>
       <c r="J1108" t="inlineStr">
         <is>
-          <t>['evspsbl', 'mrro', 'mrso', 'vas', 'snw', 'snc', 'snd']</t>
+          <t>['evspsbl', 'mrro', 'mrso', 'vas', 'snw', 'snc', 'snd', 'evspsbl', 'mrro', 'mrso', 'vas', 'snw', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -36586,7 +36586,7 @@
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds']</t>
+          <t>['rsds', 'rlds', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -36614,7 +36614,7 @@
       </c>
       <c r="J1110" t="inlineStr">
         <is>
-          <t>['clivi', 'zmla', 'ts', 'clwvi', 'prc', 'prw', 'prsn', 'ps']</t>
+          <t>['clivi', 'zmla', 'ts', 'clwvi', 'prc', 'prw', 'prsn', 'ps', 'clivi', 'zmla', 'ts', 'clwvi', 'prc', 'prw', 'prsn', 'ps']</t>
         </is>
       </c>
     </row>
@@ -36646,7 +36646,7 @@
       </c>
       <c r="J1111" t="inlineStr">
         <is>
-          <t>['pr', 'tasmin', 'sfcWind', 'tas', 'tasmax']</t>
+          <t>['pr', 'tasmin', 'sfcWind', 'tas', 'tasmax', 'pr', 'tasmin', 'sfcWind', 'tas', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -36674,7 +36674,7 @@
       </c>
       <c r="J1112" t="inlineStr">
         <is>
-          <t>['uas', 'huss']</t>
+          <t>['uas', 'huss', 'uas', 'huss']</t>
         </is>
       </c>
     </row>
@@ -36702,7 +36702,7 @@
       </c>
       <c r="J1113" t="inlineStr">
         <is>
-          <t>['evspsbl', 'mrso', 'vas', 'snw', 'snc', 'mrro', 'snd']</t>
+          <t>['evspsbl', 'mrso', 'vas', 'snw', 'snc', 'mrro', 'snd', 'evspsbl', 'mrso', 'vas', 'snw', 'snc', 'mrro', 'snd']</t>
         </is>
       </c>
     </row>
@@ -36730,7 +36730,7 @@
       </c>
       <c r="J1114" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds']</t>
+          <t>['rsds', 'rlds', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -36758,7 +36758,7 @@
       </c>
       <c r="J1115" t="inlineStr">
         <is>
-          <t>['prw', 'prsn', 'ps', 'clwvi', 'prc', 'clivi', 'zmla', 'ts']</t>
+          <t>['prw', 'prsn', 'ps', 'clwvi', 'prc', 'clivi', 'zmla', 'ts', 'prw', 'prsn', 'ps', 'clwvi', 'prc', 'clivi', 'zmla', 'ts']</t>
         </is>
       </c>
     </row>

--- a/euro-cordex-esgf.xlsx
+++ b/euro-cordex-esgf.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['clwvi', 'clivi', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'zmla', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'va850', 'tasmin', 'psl', 'huss', 'ps', 'sfcWind', 'tas', 'pr', 'clt', 'rlds', 'rsus', 'rsds', 'zg500', 'ua850', 'tasmax']</t>
+          <t>['clwvi', 'clivi', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'zmla', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'va850', 'tasmin', 'psl', 'huss', 'ps', 'sfcWind', 'tas', 'pr', 'clt', 'rlds', 'rsus', 'rsds', 'zg500', 'ua850', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'hus850', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'sfcWind', 'rsus', 'rsds', 'zg500', 'tasmax', 'rlds', 'tasmin', 'va850', 'pr', 'psl', 'huss', 'clt', 'tas']</t>
+          <t>['rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'hus850', 'sund', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'sfcWind', 'rsus', 'rsds', 'zg500', 'tasmax', 'rlds', 'tasmin', 'va850', 'pr', 'psl', 'huss', 'clt', 'tas']</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['uas', 'va200', 'ua200', 'ua500', 'ta850', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'vas', 'zg200', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'vas', 'zg200', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'ua850', 'psl', 'clt', 'sfcWind', 'huss', 'rsus', 'rsds', 'tasmax', 'zg500', 'tas', 'va850', 'tasmin', 'rlds', 'pr']</t>
+          <t>['uas', 'va200', 'ua200', 'ua500', 'ta850', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'vas', 'zg200', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'ua850', 'psl', 'clt', 'sfcWind', 'huss', 'rsus', 'rsds', 'tasmax', 'zg500', 'tas', 'va850', 'tasmin', 'rlds', 'pr']</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'wsgsmax', 'zmla', 'zg200', 'prhmax', 'rlus', 'mrso', 'prc', 'prw', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'wsgsmax', 'zmla', 'zg200', 'prhmax', 'rlus', 'mrso', 'prc', 'prw', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'clt', 'ua850', 'va850', 'ps', 'sfcWind', 'pr', 'zg500', 'psl', 'tas', 'tasmin', 'rsds', 'rsus', 'tasmax', 'rlds', 'huss']</t>
+          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'wsgsmax', 'zmla', 'zg200', 'prhmax', 'rlus', 'mrso', 'prc', 'prw', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'clt', 'ua850', 'va850', 'ps', 'sfcWind', 'pr', 'zg500', 'psl', 'tas', 'tasmin', 'rsds', 'rsus', 'tasmax', 'rlds', 'huss']</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWind', 'pr', 'ua850', 'rsus', 'zg500', 'tasmin', 'rsds', 'rlds', 'tas', 'clt', 'huss', 'tasmax', 'psl', 'va850']</t>
+          <t>['sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWind', 'pr', 'ua850', 'rsus', 'zg500', 'tasmin', 'rsds', 'rlds', 'tas', 'clt', 'huss', 'tasmax', 'psl', 'va850']</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'rsut', 'snm', 'snw', 'sund', 'snc', 'snd', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'rsut', 'snm', 'snw', 'sund', 'snc', 'snd', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'zg500', 'ua850', 'huss', 'psl', 'tas', 'clt', 'pr', 'rsds', 'tasmin', 'rlds', 'rsus', 'va850', 'tasmax']</t>
+          <t>['rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'rsut', 'snm', 'snw', 'sund', 'snc', 'snd', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'zg500', 'ua850', 'huss', 'psl', 'tas', 'clt', 'pr', 'rsds', 'tasmin', 'rlds', 'rsus', 'va850', 'tasmax']</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'sfcWindmax', 'sfcWind']</t>
+          <t>['sfcWindmax', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['prhmax', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'hus850', 'uas', 'va200', 'va500', 'ua500', 'ts', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'zmla', 'vas', 'zg200', 'ua200', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'zmla', 'vas', 'zg200', 'ua200', 'pr', 'tasmin', 'ua850', 'ps', 'clt', 'zg500', 'rsus', 'tasmax', 'rlds', 'tas', 'huss', 'va850', 'psl', 'rsds', 'sfcWind']</t>
+          <t>['prhmax', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'hus850', 'uas', 'va200', 'va500', 'ua500', 'ts', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'wsgsmax', 'zmla', 'vas', 'zg200', 'ua200', 'pr', 'tasmin', 'ua850', 'ps', 'clt', 'zg500', 'rsus', 'tasmax', 'rlds', 'tas', 'huss', 'va850', 'psl', 'rsds', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['hfss', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'zg200', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'hfls', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'hfls', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'tasmin', 'ua850', 'pr', 'tasmax', 'va850', 'psl', 'sfcWind', 'zg500', 'clt', 'tas', 'huss', 'rsds', 'rsus', 'rlds']</t>
+          <t>['hfss', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'zg200', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'hfls', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'tasmin', 'ua850', 'pr', 'tasmax', 'va850', 'psl', 'sfcWind', 'zg500', 'clt', 'tas', 'huss', 'rsds', 'rsus', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'mrro', 'snw', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'hus850', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'huss', 'tas', 'sfcWind', 'rsus', 'tasmin', 'rsds', 'ua850', 'zg500', 'va850', 'clt', 'pr', 'tasmax', 'psl', 'rlds']</t>
+          <t>['rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'mrro', 'snw', 'sund', 'ua200', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'hus850', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'huss', 'tas', 'sfcWind', 'rsus', 'tasmin', 'rsds', 'ua850', 'zg500', 'va850', 'clt', 'pr', 'tasmax', 'psl', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'uas', 'ua200', 'ua500', 'ta850', 'ts', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg200', 'va200', 'va500', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg200', 'va200', 'va500', 'tas', 'rsds', 'tasmin', 'psl', 'tasmax', 'va850', 'ps', 'ua850', 'clt', 'huss', 'rlds', 'pr', 'zg500', 'rsus', 'sfcWind']</t>
+          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'uas', 'ua200', 'ua500', 'ta850', 'ts', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'wsgsmax', 'zmla', 'vas', 'zg200', 'va200', 'va500', 'tas', 'rsds', 'tasmin', 'psl', 'tasmax', 'va850', 'ps', 'ua850', 'clt', 'huss', 'rlds', 'pr', 'zg500', 'rsus', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'rlus', 'rsdt', 'rsut', 'rlut', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'va850', 'psl', 'rsus', 'tasmin', 'sfcWind', 'rsds', 'huss', 'tasmax', 'ua850', 'clt', 'pr', 'zg500', 'tas', 'rlds']</t>
+          <t>['sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'va850', 'psl', 'rsus', 'tasmin', 'sfcWind', 'rsds', 'huss', 'tasmax', 'ua850', 'clt', 'pr', 'zg500', 'tas', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'hfss', 'hfls', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'hfss', 'hfls', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'zg500', 'tasmax', 'ua850', 'va850', 'clt', 'huss', 'rlds', 'rsds', 'rsus', 'tasmin', 'pr', 'sfcWind', 'psl', 'tas']</t>
+          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'hfss', 'hfls', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'zg500', 'tasmax', 'ua850', 'va850', 'clt', 'huss', 'rlds', 'rsds', 'rsus', 'tasmin', 'pr', 'sfcWind', 'psl', 'tas']</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['hfss', 'mrfso', 'mrso', 'prc', 'mrros', 'hus850', 'mrro', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'prhmax', 'rlus', 'rsdt', 'rlut', 'prw', 'ua500', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'zmla', 'clwvi', 'hfls', 'clivi', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'zmla', 'clwvi', 'hfls', 'clivi', 'clt', 'zg500', 'tas', 'va850', 'psl', 'tasmax', 'tasmin', 'ua850', 'huss', 'rsds', 'ps', 'sfcWind', 'rlds', 'pr', 'rsus']</t>
+          <t>['hfss', 'mrfso', 'mrso', 'prc', 'mrros', 'hus850', 'mrro', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'prhmax', 'rlus', 'rsdt', 'rlut', 'prw', 'ua500', 'ua200', 'ta200', 'ta500', 'ta850', 'ts', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'zmla', 'clwvi', 'hfls', 'clivi', 'clt', 'zg500', 'tas', 'va850', 'psl', 'tasmax', 'tasmin', 'ua850', 'huss', 'rsds', 'ps', 'sfcWind', 'rlds', 'pr', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'ua850', 'va850', 'rsds', 'tas', 'sfcWind', 'psl', 'zg500', 'huss', 'pr', 'rlds', 'rsus', 'tasmin', 'tasmax', 'clt']</t>
+          <t>['sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ta200', 'ta500', 'ta850', 'ua850', 'va850', 'rsds', 'tas', 'sfcWind', 'psl', 'zg500', 'huss', 'pr', 'rlds', 'rsus', 'tasmin', 'tasmax', 'clt']</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'zg200', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'tasmax', 'va850', 'huss', 'pr', 'rlds', 'clt', 'tas', 'psl', 'zg500', 'sfcWind', 'rsus', 'rsds', 'tasmin']</t>
+          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'vas', 'zg200', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ua850', 'tasmax', 'va850', 'huss', 'pr', 'rlds', 'clt', 'tas', 'psl', 'zg500', 'sfcWind', 'rsus', 'rsds', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['rsdt', 'mrso', 'sfcWindmax', 'uas', 'va500', 'ta500', 'ta200', 'clwvi', 'prw', 'mrro', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'vas', 'clivi', 'prc', 'hus850', 'ta850', 'prhmax', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'snc', 'prsn', 'va200', 'ua200', 'ts', 'hfss', 'hfls', 'mrfso', 'ua500', 'snd', 'rsdt', 'mrso', 'sfcWindmax', 'uas', 'va500', 'ta500', 'ta200', 'clwvi', 'prw', 'mrro', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'vas', 'clivi', 'prc', 'hus850', 'ta850', 'prhmax', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'snc', 'prsn', 'va200', 'ua200', 'ts', 'hfss', 'hfls', 'mrfso', 'ua500', 'snd', 'tas', 'huss', 'rsus', 'evspsbl', 'sfcWind', 'pr', 'rsds', 'ua850', 'clt', 'tasmax', 'psl', 'tasmin', 'ps', 'rlds', 'hurs', 'va850', 'zg500']</t>
+          <t>['rsdt', 'mrso', 'sfcWindmax', 'uas', 'va500', 'ta500', 'ta200', 'clwvi', 'prw', 'mrro', 'rlus', 'snm', 'snw', 'zg200', 'wsgsmax', 'vas', 'clivi', 'prc', 'hus850', 'ta850', 'prhmax', 'zmla', 'sund', 'rsut', 'rlut', 'mrros', 'snc', 'prsn', 'va200', 'ua200', 'ts', 'hfss', 'hfls', 'mrfso', 'ua500', 'snd', 'tas', 'huss', 'rsus', 'evspsbl', 'sfcWind', 'pr', 'rsds', 'ua850', 'clt', 'tasmax', 'psl', 'tasmin', 'ps', 'rlds', 'hurs', 'va850', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'ua200', 'rlus', 'snm', 'mrro', 'ua500', 'hfls', 'rsut', 'vas', 'va500', 'ta200', 'uas', 'snd', 'mrros', 'sfcWindmax', 'mrfso', 'zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'ua200', 'rlus', 'snm', 'mrro', 'ua500', 'hfls', 'rsut', 'vas', 'va500', 'ta200', 'uas', 'snd', 'mrros', 'sfcWindmax', 'mrfso', 'hurs', 'huss', 'zg500', 'evspsbl', 'tasmin', 'rlds', 'rsus', 'ua850', 'clt', 'psl', 'rsds', 'pr', 'tasmax', 'tas', 'sfcWind', 'va850']</t>
+          <t>['zg200', 'ta850', 'rsdt', 'sund', 'mrso', 'va200', 'ta500', 'hfss', 'rlut', 'snw', 'hus850', 'snc', 'ua200', 'rlus', 'snm', 'mrro', 'ua500', 'hfls', 'rsut', 'vas', 'va500', 'ta200', 'uas', 'snd', 'mrros', 'sfcWindmax', 'mrfso', 'hurs', 'huss', 'zg500', 'evspsbl', 'tasmin', 'rlds', 'rsus', 'ua850', 'clt', 'psl', 'rsds', 'pr', 'tasmax', 'tas', 'sfcWind', 'va850']</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['rlut', 'va200', 'ta200', 'ta500', 'sund', 'snc', 'va500', 'rlus', 'rsdt', 'mrro', 'hfss', 'uas', 'ta850', 'hus850', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'zg200', 'vas', 'mrros', 'mrfso', 'ua200', 'snm', 'snw', 'ua500', 'rlut', 'va200', 'ta200', 'ta500', 'sund', 'snc', 'va500', 'rlus', 'rsdt', 'mrro', 'hfss', 'uas', 'ta850', 'hus850', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'zg200', 'vas', 'mrros', 'mrfso', 'ua200', 'snm', 'snw', 'ua500', 'va850', 'pr', 'sfcWind', 'hurs', 'clt', 'zg500', 'evspsbl', 'huss', 'rsds', 'psl', 'rlds', 'tasmin', 'tasmax', 'tas', 'rsus', 'ua850']</t>
+          <t>['rlut', 'va200', 'ta200', 'ta500', 'sund', 'snc', 'va500', 'rlus', 'rsdt', 'mrro', 'hfss', 'uas', 'ta850', 'hus850', 'snd', 'sfcWindmax', 'rsut', 'mrso', 'hfls', 'zg200', 'vas', 'mrros', 'mrfso', 'ua200', 'snm', 'snw', 'ua500', 'va850', 'pr', 'sfcWind', 'hurs', 'clt', 'zg500', 'evspsbl', 'huss', 'rsds', 'psl', 'rlds', 'tasmin', 'tasmax', 'tas', 'rsus', 'ua850']</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['clwvi', 'clivi', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'zmla', 'zg200', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'zmla', 'zg200', 'rsus', 'rlds', 'va850', 'ps', 'tasmax', 'sfcWind', 'clt', 'pr', 'psl', 'ua850', 'zg500', 'tas', 'huss', 'tasmin', 'rsds']</t>
+          <t>['clwvi', 'clivi', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'ts', 'wsgsmax', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'zmla', 'zg200', 'rsus', 'rlds', 'va850', 'ps', 'tasmax', 'sfcWind', 'clt', 'pr', 'psl', 'ua850', 'zg500', 'tas', 'huss', 'tasmin', 'rsds']</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['snw', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'tasmax', 'pr', 'tas', 'huss', 'psl', 'clt', 'sfcWind', 'zg500', 'rsds', 'rsus', 'ua850', 'tasmin', 'rlds', 'va850']</t>
+          <t>['snw', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snc', 'snd', 'hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'tasmax', 'pr', 'tas', 'huss', 'psl', 'clt', 'sfcWind', 'zg500', 'rsds', 'rsus', 'ua850', 'tasmin', 'rlds', 'va850']</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['vas', 'zg200', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'va850', 'psl', 'rlds', 'rsds', 'rsus', 'pr', 'ua850', 'tasmin', 'tasmax', 'huss', 'clt', 'tas', 'sfcWind', 'zg500']</t>
+          <t>['vas', 'zg200', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'uas', 'ta500', 'ta850', 'ua200', 'ua500', 'va850', 'psl', 'rlds', 'rsds', 'rsus', 'pr', 'ua850', 'tasmin', 'tasmax', 'huss', 'clt', 'tas', 'sfcWind', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['clivi', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'wsgsmax', 'zmla', 'vas', 'zg200', 'hfss', 'clwvi', 'hfls', 'mrfso', 'hus850', 'mrro', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'hfss', 'clwvi', 'hfls', 'mrfso', 'hus850', 'mrro', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'rlds', 'clt', 'huss', 'sfcWind', 'rsus', 'rsds', 'ua850', 'tas', 'psl', 'va850', 'tasmax', 'pr', 'zg500', 'ps', 'tasmin']</t>
+          <t>['clivi', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'wsgsmax', 'zmla', 'vas', 'zg200', 'hfss', 'clwvi', 'hfls', 'mrfso', 'hus850', 'mrro', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'rlds', 'clt', 'huss', 'sfcWind', 'rsus', 'rsds', 'ua850', 'tas', 'psl', 'va850', 'tasmax', 'pr', 'zg500', 'ps', 'tasmin']</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'hfss', 'hfls', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'psl', 'pr', 'tas', 'ua850', 'rsus', 'tasmin', 'rsds', 'rlds', 'huss', 'clt', 'va850', 'zg500', 'tasmax', 'sfcWind']</t>
+          <t>['snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'hfss', 'hfls', 'vas', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snc', 'zg200', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'psl', 'pr', 'tas', 'ua850', 'rsus', 'tasmin', 'rsds', 'rlds', 'huss', 'clt', 'va850', 'zg500', 'tasmax', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'hfss', 'hfls', 'mrfso', 'hus850', 'rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'hfls', 'mrfso', 'hus850', 'rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'pr', 'clt', 'sfcWind', 'tas', 'tasmin', 'rlds', 'va850', 'zg500', 'ua850', 'rsds', 'rsus', 'psl', 'tasmax', 'huss']</t>
+          <t>['sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'hfss', 'hfls', 'mrfso', 'hus850', 'rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'pr', 'clt', 'sfcWind', 'tas', 'tasmin', 'rlds', 'va850', 'zg500', 'ua850', 'rsds', 'rsus', 'psl', 'tasmax', 'huss']</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss', 'rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss']</t>
+          <t>['rsds', 'rsus', 'pr', 'prc', 'rlds', 'ps', 'rlus', 'sfcWind', 'tas', 'hfls', 'hurs', 'hfss', 'psl', 'sund', 'huss']</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500', 'rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500']</t>
+          <t>['rlut', 'prw', 'vas', 'ts', 'rsut', 'uas', 'ta200', 'zg200', 'mrro', 'rsdt', 'snd', 'mrfso', 'zmla', 'va850', 'clivi', 'hus850', 'ua500', 'ta850', 'ta500', 'clwvi', 'snm', 'va500', 'snw', 'va200', 'mrros', 'ua200', 'ua850', 'evspsbl', 'mrso', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss', 'rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss']</t>
+          <t>['rlds', 'rlus', 'rsdt', 'snw', 'snm', 'tas', 'ta850', 'rlut', 'mrros', 'vas', 'sund', 'huss', 'ua500', 'mrfso', 'clwvi', 'zmla', 'prw', 'prhmax', 'evspsbl', 'mrro', 'ts', 'rsus', 'va200', 'ta200', 'snd', 'zg500', 'psl', 'hfls', 'prsn', 'mrso', 'hurs', 'rsds', 'tasmax', 'sfcWind', 'va850', 'hus850', 'ua850', 'tasmin', 'va500', 'wsgsmax', 'zg200', 'ua200', 'rsut', 'prc', 'uas', 'ta500', 'clivi', 'ps', 'pr', 'hfss']</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd', 'rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd']</t>
+          <t>['rlds', 'hus850', 'rsus', 'rsut', 'sfcWind', 'rsds', 'snw', 'va500', 'zg500', 'sund', 'ta200', 'huss', 'va850', 'ua200', 'mrros', 'mrso', 'uas', 'zg200', 'snm', 'mrro', 'ta850', 'tasmax', 'va200', 'rlut', 'vas', 'hfls', 'mrfso', 'rlus', 'evspsbl', 'psl', 'hfss', 'tasmin', 'hurs', 'ua500', 'ta500', 'rsdt', 'tas', 'pr', 'ua850', 'snd']</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls', 'uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls']</t>
+          <t>['uas', 'psl', 'mrso', 'zg500', 'sfcWind', 'huss', 'pr', 'tasmin', 'va850', 'sund', 'vas', 'snw', 'rlds', 'mrros', 'rsut', 'mrro', 'ta500', 'rsus', 'zg200', 'ua500', 'rlut', 'hurs', 'ta850', 'tas', 'ua850', 'tasmax', 'rsdt', 'snm', 'rsds', 'rlus', 'evspsbl', 'va200', 'ua200', 'va500', 'snd', 'mrfso', 'hus850', 'ta200', 'hfss', 'hfls']</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'uas', 'va200', 'ua500', 'ua200', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'va500', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'psl', 'rsus', 'ua850', 'tas', 'tasmax', 'rlds', 'ps', 'zg500', 'rsds', 'evspsbl', 'huss', 'pr', 'va850', 'tasmin', 'sfcWind']</t>
+          <t>['rlus', 'rsdt', 'rsut', 'rlut', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'uas', 'va200', 'ua500', 'ua200', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'va500', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'clt', 'psl', 'rsus', 'ua850', 'tas', 'tasmax', 'rlds', 'ps', 'zg500', 'rsds', 'evspsbl', 'huss', 'pr', 'va850', 'tasmin', 'sfcWind']</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'va850', 'clt', 'zg500', 'rlds', 'rsds', 'pr', 'ua850', 'huss', 'rsus', 'evspsbl', 'psl']</t>
+          <t>['hfss', 'hfls', 'hus850', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'sfcWind', 'tas', 'tasmax', 'tasmin', 'va850', 'clt', 'zg500', 'rlds', 'rsds', 'pr', 'ua850', 'huss', 'rsus', 'evspsbl', 'psl']</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'clivi', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'prw', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'ta500', 'ta850', 'ua200', 'ua500', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'uas', 'va200', 'va500', 'hfss', 'clwvi', 'hfls', 'clivi', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'prw', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'ta500', 'ta850', 'ua200', 'ua500', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'uas', 'va200', 'va500', 'rsds', 'rsus', 'tas', 'va850', 'tasmin', 'huss', 'evspsbl', 'clt', 'psl', 'rlds', 'ua850', 'zg500', 'pr', 'tasmax', 'sfcWind', 'ps']</t>
+          <t>['hfss', 'clwvi', 'hfls', 'clivi', 'prhmax', 'mrfso', 'mrso', 'prc', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'prw', 'sfcWindmax', 'rsut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'snd', 'ta500', 'ta850', 'ua200', 'ua500', 'ts', 'wsgsmax', 'zmla', 'vas', 'zg200', 'uas', 'va200', 'va500', 'rsds', 'rsus', 'tas', 'va850', 'tasmin', 'huss', 'evspsbl', 'clt', 'psl', 'rlds', 'ua850', 'zg500', 'pr', 'tasmax', 'sfcWind', 'ps']</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['hfls', 'hfss', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'zg500', 'psl', 'sfcWind', 'huss', 'tas', 'rsds', 'tasmax', 'va850', 'clt', 'evspsbl', 'rlds', 'rsus', 'tasmin', 'ua850', 'pr']</t>
+          <t>['hfls', 'hfss', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'ta850', 'snd', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'zg500', 'psl', 'sfcWind', 'huss', 'tas', 'rsds', 'tasmax', 'va850', 'clt', 'evspsbl', 'rlds', 'rsus', 'tasmin', 'ua850', 'pr']</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ts', 'clwvi', 'clivi', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'zmla', 'clwvi', 'clivi', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'zmla', 'rlds', 'psl', 'va850', 'clt', 'tasmax', 'sfcWind', 'rsus', 'rsds', 'evspsbl', 'ps', 'huss', 'ua850', 'tas', 'tasmin', 'zg500', 'pr']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ts', 'clwvi', 'clivi', 'wsgsmax', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua500', 'zmla', 'rlds', 'psl', 'va850', 'clt', 'tasmax', 'sfcWind', 'rsus', 'rsds', 'evspsbl', 'ps', 'huss', 'ua850', 'pr', 'tas', 'tasmin', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hfss', 'hfls', 'mrfso', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hfss', 'hfls', 'mrfso', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'rsds', 'sfcWind', 'ua850', 'zg500', 'pr', 'tasmin', 'va850', 'clt', 'rlds', 'psl', 'evspsbl', 'huss', 'tasmax', 'rsus', 'tas']</t>
+          <t>['rlus', 'rlut', 'mrso', 'mrros', 'mrro', 'sund', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'sfcWindmax', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'hfss', 'hfls', 'mrfso', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'rsds', 'sfcWind', 'ua850', 'zg500', 'pr', 'tasmin', 'va850', 'clt', 'rlds', 'psl', 'evspsbl', 'huss', 'tasmax', 'rsus', 'tas']</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'zg500', 'psl', 'tasmin', 'huss', 'ua850', 'va850', 'clt', 'tas', 'pr', 'evspsbl', 'rsus', 'tasmax', 'sfcWind', 'rsds', 'rlds']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'mrso', 'mrros', 'hus850', 'mrro', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta200', 'ta500', 'snd', 'uas', 'va200', 'ua200', 'ua500', 'ta850', 'vas', 'zg200', 'va500', 'zg500', 'psl', 'tasmin', 'huss', 'ua850', 'va850', 'clt', 'tas', 'pr', 'evspsbl', 'rsus', 'tasmax', 'sfcWind', 'rsds', 'rlds']</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['prhmax', 'rlus', 'mrso', 'prc', 'prw', 'wsgsmax', 'zmla', 'zg200', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'vas', 'uas', 'va200', 'va500', 'ua500', 'ua200', 'ts', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'vas', 'uas', 'va200', 'va500', 'ua500', 'ua200', 'ts', 'sfcWind', 'psl', 'tasmax', 'rlds', 'ua850', 'va850', 'tasmin', 'tas', 'pr', 'clt', 'ps', 'huss', 'rsds', 'rsus', 'zg500']</t>
+          <t>['prhmax', 'rlus', 'mrso', 'prc', 'prw', 'wsgsmax', 'zmla', 'zg200', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'clivi', 'hfss', 'clwvi', 'hfls', 'mrfso', 'mrros', 'hus850', 'mrro', 'vas', 'uas', 'va200', 'va500', 'ua500', 'ua200', 'ts', 'sfcWind', 'psl', 'tasmax', 'rlds', 'ua850', 'va850', 'tasmin', 'tas', 'pr', 'clt', 'ps', 'huss', 'rsds', 'rsus', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'pr', 'rsds', 'va850', 'sfcWind', 'tas', 'psl', 'clt', 'tasmax', 'rlds', 'huss', 'tasmin', 'zg500', 'ua850', 'rsus']</t>
+          <t>['hfss', 'hfls', 'hus850', 'vas', 'zg200', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'rlus', 'mrfso', 'mrso', 'mrros', 'mrro', 'sfcWindmax', 'rsdt', 'rsut', 'rlut', 'snc', 'snd', 'snm', 'snw', 'sund', 'ta200', 'ta500', 'ta850', 'pr', 'rsds', 'va850', 'sfcWind', 'tas', 'psl', 'clt', 'tasmax', 'rlds', 'huss', 'tasmin', 'zg500', 'ua850', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'vas', 'zg200', 'uas', 'va200', 'va500', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'vas', 'zg200', 'uas', 'va200', 'va500', 'zg500', 'huss', 'tasmax', 'rsds', 'clt', 'psl', 'va850', 'ua850', 'tasmin', 'rsus', 'sfcWind', 'rlds', 'pr', 'tas']</t>
+          <t>['hfss', 'hfls', 'mrfso', 'hus850', 'mrro', 'rlus', 'rsdt', 'rlut', 'mrso', 'mrros', 'sfcWindmax', 'rsut', 'snm', 'snw', 'snc', 'sund', 'snd', 'ta200', 'ta500', 'ta850', 'ua200', 'ua500', 'vas', 'zg200', 'uas', 'va200', 'va500', 'zg500', 'huss', 'tasmax', 'rsds', 'clt', 'psl', 'va850', 'ua850', 'tasmin', 'rsus', 'sfcWind', 'rlds', 'pr', 'tas']</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'hus850', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'hus850', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'tasmax', 'rsds', 'psl', 'sfcWind', 'huss', 'zg500', 'ua850', 'pr', 'tasmin', 'tas', 'rlds', 'clt', 'ps', 'va850', 'rsus']</t>
+          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'hfss', 'clwvi', 'hfls', 'mrfso', 'clivi', 'hus850', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'rlus', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'ta850', 'snd', 'uas', 'va200', 'va500', 'ua200', 'ua500', 'ts', 'tasmax', 'rsds', 'psl', 'sfcWind', 'huss', 'zg500', 'ua850', 'pr', 'tasmin', 'tas', 'rlds', 'clt', 'ps', 'va850', 'rsus']</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'va200', 'va500', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'uas', 'ta850', 'ua200', 'ua500', 'ts', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'uas', 'ta850', 'ua200', 'ua500', 'ts', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'tas', 'rlds', 'tasmin', 'tasmax', 'clt', 'va850', 'rsds', 'rsus', 'psl', 'ps', 'ua850', 'huss', 'sfcWind', 'pr', 'zg500']</t>
+          <t>['wsgsmax', 'zmla', 'vas', 'zg200', 'va200', 'va500', 'hfss', 'clwvi', 'hfls', 'clivi', 'hus850', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta200', 'ta500', 'snd', 'uas', 'ta850', 'ua200', 'ua500', 'ts', 'prhmax', 'mrfso', 'mrso', 'prc', 'prw', 'mrros', 'mrro', 'tas', 'rlds', 'tasmin', 'tasmax', 'clt', 'va850', 'rsds', 'rsus', 'psl', 'ps', 'ua850', 'huss', 'sfcWind', 'pr', 'zg500']</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr', 'prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape', 'hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape']</t>
+          <t>['hfss', 'hfls', 'prc', 'evspsbl', 'huss', 'hurs', 'ps', 'clt', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'cape']</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925']</t>
+          <t>['clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'hus300', 'ta600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta700', 'ta850', 'ta925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'zmla', 'zg700', 'zg850', 'zg925', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600', 'mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['mrros', 'mrso', 'mrfso', 'mrro', 'hurs', 'hus100', 'pr', 'prc', 'hus925', 'huss', 'hus700', 'hus850', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'wsgsmax', 'uas', 'va100', 'va850', 'va925', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'va200', 'va300', 'clh', 'hfls', 'hfss', 'clt', 'clwvi', 'cll', 'clm', 'clivi', 'evspsbl', 'tasmax', 'tasmin', 'ts', 'ta850', 'ta925', 'tas', 'ua100', 'ua200', 'ua300', 'ta300', 'ta400', 'ta500', 'snw', 'sund', 'ua400', 'ua500', 'ta100', 'ta200', 'ta600', 'ta700', 'snc', 'snd', 'snm', 'rlut', 'rsds', 'rsdt', 'psl', 'rlds', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'prhmax', 'prsn', 'prw', 'ps', 'rlus', 'zg925', 'zmla', 'zg100', 'zg200', 'zg700', 'zg850', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500']</t>
+          <t>['tas', 'tasmax', 'tasmin', 'ua100', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'ta700', 'ta850', 'ta925', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'pr', 'psl', 'rlds', 'rlus', 'snd', 'snm', 'snw', 'sund', 'rsus', 'rsut', 'sfcWind', 'rlut', 'rsds', 'rsdt', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'sfcWindmax', 'snc', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'hus400', 'hus500']</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500']</t>
+          <t>['rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'rlus', 'rlut', 'rsds', 'rsdt', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'ta400', 'ta500', 'ta600', 'ta700', 'pr', 'psl', 'rlds', 'tasmin', 'ua100', 'ua200', 'ta100', 'ta200', 'ta300', 'sund', 'ua700', 'ua850', 'ua925', 'uas', 'zg600', 'zg700', 'zg850', 'zg925', 'ua300', 'ua400', 'ua500', 'ua600', 'zg100', 'zg200', 'zg300', 'va600', 'va700', 'va850', 'va100', 'va200', 'va300', 'va925', 'vas', 'zg400', 'zg500', 'va400', 'va500', 'hus925', 'huss', 'mrfso', 'mrro', 'clt', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus600', 'hus700', 'hus850', 'hfls', 'hfss', 'mrros', 'mrso', 'hus300', 'hus400', 'hus500']</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['tds', 'tas', 'prc', 'pr', 'tds', 'tas', 'prc', 'pr']</t>
+          <t>['tds', 'tas', 'prc', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'pr', 'tas', 'ts', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'sund', 'ps']</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925']</t>
+          <t>['hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'clh', 'evspsbl', 'clivi', 'cll', 'clm', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ts', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'snd', 'uas', 'va100', 'va200', 'va300', 'ua700', 'ua850', 'ua925', 'zmla', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'mrfso', 'huss', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'snd', 'wsgsmax', 'vas', 'zg100', 'va500', 'va600', 'va700', 'va850', 'va925', 'zmla', 'clh', 'clivi', 'cll', 'clm', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'ps', 'pr', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700']</t>
+          <t>['rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta700', 'ta850', 'ta925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg100', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'rsds', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'uas', 'va100', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'vas', 'va200', 'va300', 'va400', 'va500', 'va600', 'va850', 'va925', 'va700']</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'va925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['orog', 'sftlf', 'orog', 'sftlf']</t>
+          <t>['orog', 'sftlf']</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr', 'prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'va100m', 'ua100m', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts']</t>
+          <t>['rsds', 'rlds', 'rlus', 'prc', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925']</t>
+          <t>['hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ua200', 'ua100', 'ta850', 'ta700', 'ta925', 'ts', 'vas', 'zg100', 'va925', 'va600', 'va700', 'va850', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'evspsbl', 'clivi', 'cll', 'clm', 'hus100', 'hus200', 'rsdt', 'rsut', 'snm', 'snw', 'snc', 'snd', 'ua850', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua925', 'clh', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus925', 'mrro', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'zmla', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'psl', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'uas', 'va100', 'va200', 'va300', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'mrfso', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'sfcWindmax', 'sfcWind', 'snm', 'snw', 'sund', 'snc', 'ta100', 'snd', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'zg100', 'zg300', 'clh', 'clm', 'cll', 'clivi', 'clt', 'prhmax', 'mrso', 'prc', 'prw', 'mrros', 'prsn', 'mrro', 'ps', 'pr', 'ta400', 'ta200', 'ta300', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'wsgsmax', 'vas', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'clt', 'sund', 'ta300', 'ta100', 'ta200', 'ta400', 'ta600', 'ta700', 'ta850', 'ta500', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua600', 'ua700', 'ua850', 'ua925', 'rsds', 'rlds', 'rlus', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'vas', 'zg300', 'zg100', 'zg200', 'va925', 'va500', 'va600', 'va700', 'va850', 'mrfso', 'huss', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta925', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925']</t>
+          <t>['hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'mrfso', 'mrso', 'mrros', 'huss', 'hus850', 'hus925', 'psl', 'mrro', 'pr', 'sfcWindmax', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snm', 'snw', 'snc', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'vas', 'zg700', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'hfls', 'evspsbl', 'clt', 'va850', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va925']</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['va100m', 'prc', 'tas', 'tds', 'ua100m', 'pr', 'va100m', 'prc', 'tas', 'tds', 'ua100m', 'pr']</t>
+          <t>['va100m', 'prc', 'tas', 'tds', 'ua100m', 'pr']</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts']</t>
+          <t>['cape', 'hfls', 'hfss', 'clt', 'evspsbl', 'hurs', 'huss', 'rsds', 'rsus', 'rlds', 'rlus', 'sfcWind', 'sund', 'pr', 'prc', 'ps', 'psl', 'tas', 'ts']</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm']</t>
+          <t>['snd', 'snm', 'snw', 'ta100', 'ts', 'ua100', 'ua400', 'ua500', 'ua200', 'ua300', 'ta850', 'ta925', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'snc', 'rlut', 'rsdt', 'hus925', 'mrfso', 'mrso', 'prw', 'mrro', 'mrros', 'hus100', 'hus200', 'hus700', 'hus850', 'hus300', 'hus400', 'hus500', 'hus600', 'vas', 'zg100', 'uas', 'va100', 'zg200', 'zg300', 'va850', 'va925', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua850', 'ua925', 'ua600', 'ua700', 'zmla', 'zg850', 'zg925', 'zg400', 'zg500', 'zg600', 'zg700', 'clwvi', 'evspsbl', 'clh', 'clivi', 'cll', 'clm']</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros']</t>
+          <t>['rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'prw', 'ps', 'psl', 'rlds', 'rlus', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'ta925', 'tas', 'tasmax', 'tasmin', 'ts', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ua600', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zmla', 'wsgsmax', 'zg100', 'zg200', 'zg300', 'zg400', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clt', 'clwvi', 'evspsbl', 'hfls', 'hfss', 'clh', 'clivi', 'cll', 'clm', 'mrso', 'pr', 'prc', 'prhmax', 'prsn', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros']</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600']</t>
+          <t>['ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrros', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus700', 'hus850', 'hus925', 'huss', 'mrfso', 'mrro', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600']</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['evspsbl', 'hfls', 'hfss', 'hurs', 'hus100', 'hus200', 'clt', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'snd', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m', 'prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m']</t>
+          <t>['prc', 'tds', 'tas', 'pr', 'va100m', 'ua100m']</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts', 'cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts']</t>
+          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'huss', 'hurs', 'clt', 'rsds', 'rlds', 'rsus', 'rlus', 'prc', 'sfcWind', 'psl', 'ps', 'pr', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
+          <t>['clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsdt', 'rsut', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'snc', 'mrro', 'snm', 'snw', 'ta100', 'ta300', 'ta400', 'ta500', 'ta600', 'ta200', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ta700', 'ta850', 'ta925', 'ts', 'uas', 'va100', 'va200', 'va300', 'va400', 'zg300', 'va500', 'va700', 'va850', 'va925', 'va600', 'ua600', 'ua700', 'ua850', 'ua925', 'zmla', 'vas', 'zg100', 'zg200', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925', 'zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925']</t>
+          <t>['zg700', 'zg850', 'zg925', 'zmla', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'evspsbl', 'hfls', 'hfss', 'hurs', 'psl', 'rlds', 'rlus', 'rlut', 'prhmax', 'prsn', 'prw', 'ps', 'mrros', 'mrso', 'pr', 'prc', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'hus925', 'huss', 'mrfso', 'mrro', 'cll', 'clm', 'clt', 'clwvi', 'snm', 'snw', 'sund', 'ta100', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsdt', 'rsus', 'rsut', 'vas', 'wsgsmax', 'zg100', 'zg200', 'tas', 'tasmax', 'tasmin', 'ts', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua500', 'ua600', 'ua700', 'ua850', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'ta200', 'ta300', 'ta400', 'ta500', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200']</t>
+          <t>['rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'clt', 'evspsbl', 'hfls', 'hfss', 'hurs', 'mrfso', 'mrro', 'mrros', 'mrso', 'pr', 'snc', 'snd', 'snm', 'snw', 'sund', 'hus600', 'hus700', 'hus850', 'hus925', 'huss', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'zg850', 'zg925', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'tasmax', 'tasmin', 'ua100', 'ua200']</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600', 'clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'tasmax', 'tasmin', 'ua100', 'ua200', 'ua300', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'ua925', 'uas', 'va100', 'va200', 'va300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'va400', 'va500', 'va600', 'va700', 'va850', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'snw', 'sund', 'ta100', 'ta200', 'ta700', 'ta850', 'ta925', 'tas', 'ta300', 'ta400', 'ta500', 'ta600']</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr', 'va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr']</t>
+          <t>['va100m', 'ua100m', 'tds', 'tas', 'prc', 'pr']</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['cape', 'hfss', 'hfls', 'evspsbl', 'clt', 'rsus', 'sfcWind', 'tas', 'sund', 'ts', 'rsds', 'rlds', 'rlus', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
+          <t>['clh', 'cll', 'clm', 'clivi', 'rsdt', 'rlut', 'mrfso', 'mrso', 'prw', 'mrros', 'hus850', 'hus925', 'mrro', 'vas', 'zg100', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'clwvi', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'ua200', 'ua100', 'ua300', 'ta700', 'ta500', 'ta600', 'ta850', 'ta925', 'ts', 'rsut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'ta300', 'ta400', 'snd', 'zmla', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'uas', 'va100', 'va200', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925']</t>
         </is>
       </c>
     </row>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax', 'zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax']</t>
+          <t>['zmla', 'va925', 'vas', 'wsgsmax', 'zg100', 'zg600', 'zg700', 'zg850', 'zg925', 'zg200', 'zg300', 'zg400', 'zg500', 'va500', 'va600', 'va700', 'va850', 'psl', 'rlds', 'rlus', 'rlut', 'clm', 'clt', 'clwvi', 'evspsbl', 'prhmax', 'prsn', 'prw', 'ps', 'hfls', 'hfss', 'hurs', 'hus100', 'mrros', 'mrso', 'pr', 'prc', 'hus600', 'hus700', 'hus850', 'hus925', 'hus200', 'hus300', 'hus400', 'hus500', 'rsds', 'rsdt', 'rsus', 'huss', 'mrfso', 'mrro', 'clh', 'clivi', 'cll', 'tasmin', 'ts', 'ua100', 'ua200', 'snc', 'snd', 'snm', 'snw', 'ta850', 'ta925', 'tas', 'tasmax', 'sund', 'ta100', 'ta200', 'ta300', 'ua700', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'va300', 'va400', 'ua300', 'ua400', 'ua500', 'ua600', 'ta400', 'ta500', 'ta600', 'ta700', 'rsut', 'sfcWind', 'sfcWindmax']</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700']</t>
+          <t>['clt', 'evspsbl', 'hfls', 'hfss', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'huss', 'mrfso', 'mrro', 'mrros', 'mrso', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'rsds', 'rsdt', 'rsus', 'rsut', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'snw', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'zg850', 'zg925', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925', 'mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925']</t>
+          <t>['mrso', 'pr', 'psl', 'rlds', 'rlus', 'rlut', 'rsds', 'rsdt', 'rsus', 'rsut', 'clt', 'evspsbl', 'hfls', 'sfcWind', 'sfcWindmax', 'snc', 'snd', 'snm', 'hus925', 'huss', 'mrfso', 'mrro', 'mrros', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'tas', 'tasmax', 'tasmin', 'ua100', 'ua200', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'ua850', 'ua925', 'uas', 'va100', 'va200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'zg850', 'zg925']</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['pr', 'prc', 'tds', 'tas', 'pr', 'prc', 'tds', 'tas']</t>
+          <t>['pr', 'prc', 'tds', 'tas']</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr', 'hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr']</t>
+          <t>['hfss', 'huss', 'hurs', 'tas', 'ts', 'rsds', 'rsus', 'rlus', 'clt', 'hfls', 'evspsbl', 'sfcWind', 'sund', 'rlds', 'psl', 'prc', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700', 'rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700']</t>
+          <t>['rlut', 'mrso', 'prw', 'ua100', 'ts', 'uas', 'va100', 'va200', 'va300', 'clwvi', 'evspsbl', 'hus100', 'mrfso', 'mrros', 'mrro', 'ta100', 'ta200', 'clh', 'ta300', 'ta400', 'ta500', 'ta600', 'zg200', 'zg300', 'zg400', 'rsdt', 'rsut', 'snc', 'zmla', 'zg850', 'zg925', 'cll', 'clm', 'clivi', 'hus400', 'hus500', 'hus600', 'ua200', 'ua300', 'ua400', 'ua500', 'va400', 'va500', 'va600', 'snm', 'snw', 'snd', 'ua600', 'ua700', 'ua850', 'ua925', 'hus700', 'hus850', 'hus925', 'ta700', 'ta850', 'ta925', 'hus200', 'hus300', 'vas', 'zg100', 'va700', 'va850', 'va925', 'zg500', 'zg600', 'zg700']</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850']</t>
+          <t>['tasmax', 'tas', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmin', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ts', 'mrfso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'wsgsmax', 'vas', 'zg200', 'zg300', 'zg400', 'zg100', 'va925', 'clh', 'clivi', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snc', 'snd', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'ps', 'zmla', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'hfss', 'clwvi', 'hfls', 'clm', 'cll', 'evspsbl', 'clt', 'uas', 'va100', 'ua600', 'ua700', 'ua850', 'ua925', 'prhmax', 'mrso', 'prc', 'prw', 'prsn', 'pr', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850']</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd', 'rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd']</t>
+          <t>['rlds', 'rlus', 'mrfso', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'uas', 'va100', 'va200', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'clt', 'zg850', 'zg925', 'zg700', 'huss', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd']</t>
+          <t>['uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'ua925', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'hus700', 'vas', 'zg100', 'zg200', 'zg300', 'va700', 'va850', 'va925', 'rsds', 'rlds', 'rlus', 'rsdt', 'rlut', 'psl', 'pr', 'hfss', 'hfls', 'evspsbl', 'clt', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'tasmax', 'tasmin', 'tas', 'ta700', 'ta850', 'ta925', 'ua100', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'mrfso', 'mrso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'sfcWindmax', 'rsus', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr', 'prc', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts', 'hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts']</t>
+          <t>['hfss', 'hfls', 'evspsbl', 'prc', 'huss', 'hurs', 'clt', 'ps', 'pr', 'rsds', 'rlds', 'rsus', 'rlus', 'sfcWind', 'psl', 'tas', 'sund', 'ts']</t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'zg700', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300']</t>
+          <t>['ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'ua925', 'rsdt', 'rsut', 'rlut', 'mrso', 'prw', 'snm', 'snw', 'snc', 'snd', 'ua200', 'ua100', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ts', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'va850', 'va925', 'mrfso', 'mrros', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'zg700', 'clwvi', 'clh', 'cll', 'clm', 'evspsbl', 'clivi', 'hus100', 'hus200', 'hus300']</t>
         </is>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'clivi', 'clt', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
+          <t>['snm', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'snd', 'sfcWindmax', 'rsds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'snc', 'wsgsmax', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'mrfso', 'huss', 'mrros', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'zmla', 'zg850', 'zg925', 'rlds', 'prhmax', 'mrso', 'prc', 'prw', 'psl', 'prsn', 'ps', 'pr', 'tasmax', 'tasmin', 'tas', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'clh', 'cll', 'clm', 'clivi', 'clt', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'clwvi', 'hfls', 'evspsbl', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd']</t>
+          <t>['tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'ua100', 'ua200', 'ua300', 'ua400', 'vas', 'zg100', 'zg200', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'hfss', 'hfls', 'evspsbl', 'hurs', 'hus100', 'clt', 'uas', 'va100', 'va200', 'va300', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'rlds', 'rlus', 'mrfso', 'rlut', 'mrso', 'mrros', 'psl', 'mrro', 'pr', 'zg300', 'zg400', 'zg500', 'zg600', 'zg850', 'zg925', 'zg700', 'huss', 'hus200', 'hus300', 'hus500', 'hus600', 'hus700', 'hus850', 'hus925', 'hus400', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snc', 'snd']</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl']</t>
+          <t>['mrfso', 'mrso', 'mrros', 'huss', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'zg700', 'va925', 'uas', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'tasmax', 'tasmin', 'tas', 'ta400', 'ta500', 'ta600', 'ta700', 'ta925', 'ta850', 'evspsbl', 'clt', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'zg850', 'zg925', 'sfcWindmax', 'snm', 'snw', 'sund', 'snc', 'ta100', 'ta200', 'ta300', 'snd', 'rsds', 'rlds', 'rsus', 'rlus', 'rsdt', 'rsut', 'rlut', 'sfcWind', 'psl']</t>
         </is>
       </c>
     </row>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['sftlf', 'orog', 'sftlf', 'orog']</t>
+          <t>['sftlf', 'orog']</t>
         </is>
       </c>
     </row>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['prc', 'tds', 'tas', 'pr', 'prc', 'tds', 'tas', 'pr']</t>
+          <t>['prc', 'tds', 'tas', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr', 'rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
+          <t>['rsds', 'rsus', 'rlus', 'sfcWind', 'tas', 'sund', 'ts', 'evspsbl', 'clt', 'rlds', 'hfss', 'hfls', 'prc', 'huss', 'hurs', 'psl', 'ps', 'pr']</t>
         </is>
       </c>
     </row>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
+          <t>['clh', 'clivi', 'zmla', 'zg925', 'zg700', 'zg850', 'clwvi', 'cll', 'clm', 'evspsbl', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'mrfso', 'mrso', 'prw', 'mrros', 'hus600', 'hus700', 'hus850', 'hus925', 'mrro', 'rsdt', 'rsut', 'rlut', 'snm', 'snw', 'snc', 'ta100', 'ta200', 'snd', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'ua100', 'ts', 'uas', 'ua200', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'ua925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'va700', 'va850', 'va925', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600']</t>
         </is>
       </c>
     </row>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100', 'sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100']</t>
+          <t>['sund', 'ta100', 'ta200', 'ta300', 'tasmin', 'ua100', 'ua200', 'ua300', 'ts', 'wsgsmax', 'vas', 'va850', 'va925', 'zmla', 'zg925', 'mrfso', 'mrso', 'huss', 'mrros', 'hus700', 'hus850', 'hus925', 'mrro', 'pr', 'rlds', 'prhmax', 'rlus', 'rlut', 'prc', 'prw', 'psl', 'prsn', 'ps', 'sfcWindmax', 'rsds', 'rsus', 'rsdt', 'rsut', 'sfcWind', 'snm', 'snw', 'snc', 'snd', 'ta400', 'ta500', 'ta600', 'ta700', 'ua400', 'ua500', 'ua600', 'ua700', 'va300', 'va400', 'va500', 'va600', 'va700', 'zg500', 'zg600', 'zg700', 'zg850', 'clwvi', 'clh', 'clm', 'cll', 'evspsbl', 'clivi', 'clt', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'hus400', 'hus500', 'hus600', 'tasmax', 'tas', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'ua850', 'ua925', 'zg300', 'zg200', 'zg400', 'zg100']</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925', 'hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925']</t>
+          <t>['hfls', 'evspsbl', 'clt', 'hus400', 'hus500', 'hus600', 'hus700', 'hus850', 'rsds', 'rsus', 'rlus', 'rsdt', 'rlut', 'ta300', 'ta400', 'ta500', 'ta600', 'ta700', 'uas', 'ua600', 'ua700', 'ua850', 'ua925', 'zg200', 'zg300', 'zg400', 'zg500', 'zg600', 'mrfso', 'mrros', 'huss', 'hus925', 'mrro', 'sfcWindmax', 'rsut', 'sfcWind', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ta850', 'ta925', 'va100', 'va200', 'va300', 'va400', 'va500', 'va600', 'zg700', 'zg850', 'zg925', 'hfss', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'mrso', 'psl', 'pr', 'snm', 'snw', 'sund', 'ta100', 'ta200', 'ua100', 'ua200', 'ua300', 'ua400', 'ua500', 'vas', 'zg100', 'va700', 'va850', 'va925']</t>
         </is>
       </c>
     </row>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['hus400', 'hus500', 'hus600', 'hus700', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'ua925', 'va400', 'va500', 'va600', 'va700', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va925', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'pr', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850', 'hus400', 'hus500', 'hus600', 'hus700', 'rsds', 'rsus', 'rsdt', 'rsut', 'rlut', 'ta500', 'ta600', 'ta700', 'ta850', 'ta925', 'uas', 'va100', 'va200', 'va300', 'ua925', 'va400', 'va500', 'va600', 'va700', 'va850', 'vas', 'zg100', 'zg200', 'zg300', 'zg400', 'va925', 'zg500', 'zg600', 'zg700', 'zg850', 'zg925', 'evspsbl', 'clt', 'mrfso', 'huss', 'mrros', 'hus850', 'hus925', 'mrro', 'sfcWindmax', 'sfcWind', 'snm', 'snc', 'snd', 'tasmax', 'tasmin', 'tas', 'ua100', 'ua200', 'hfss', 'hfls', 'hurs', 'hus100', 'hus200', 'hus300', 'rlds', 'rlus', 'mrso', 'psl', 'pr', 'snw', 'sund', 'ta100', 'ta200', 'ta300', 'ta400', 'ua300', 'ua400', 'ua500', 'ua600', 'ua700', 'ua850']</t